--- a/inha_topic.xlsx
+++ b/inha_topic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D659"/>
+  <dimension ref="A1:E659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>키워드</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>주요 토픽</t>
         </is>
       </c>
@@ -464,7 +469,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>양성,자산,운용,전문,인력,인하대,한화저축은행,업무,협약,인하대,한화저축은행,양성,자산,운용,전문,인력,업무협약,체결,업무협약,한화저축은행,인하대,IPP,Industry,Professional,Practice,일학습병행,장기현장실습,참여,학생들,현장실습,지원,제공,전문,인력,양성,상호,협력,기관,양성,자산,운용,전문,인력,교육과정,공동,산학연계,구축,금융,전문,인재,양성,도모,운영,성과,실습,참여,인원,확대,예정,인하대,IPP,듀얼,공동,훈련,센터,학생들,선호,기업들,연계,운영,현장,실습,프로그램,학생들,취업률,고용노동부,한국산업인력공단,주관,IPP,학습,병행,사업,성과,평가,우수등급,대표이사,홍정표,한화저축은행,대표,이사,한화저축은행,미래,성장,투자,병행,일정,수준,이익,성장,지속,기업,문화,토대,우수,인재들,입사,회사,총장,조명우,인하대학교,업무협약,인하대,IPP,듀얼,공동,훈련,센터,학습,병행,사업,강화,지역,경기,인천,금융업계,학점,연계,인턴십,프로그램,모범사례,예상</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -482,7 +492,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>인하대,한화저축은행,양성,자산,운용,인력,맞손,인하대학교,이사장실,본관,한화저축은행,양성,자산,운용,전문,인력,업무협약,체결,협약식,인하대,조명우,총장,최기영,교학,부총장,남두우,경영대학장,정태욱,인하,인재,개발원장,강재영,IPP,듀얼,공동,훈련,센터장,한화저축은행,홍정표,대표,이사,권순태,금융,기업,본부장,박재철,전략,금융,본부장,전략기획본부장,홍성범,전략,지원,본부장,참석,한화그룹,계열사,한화저축은행,업무협약,인하대,IPP,일학습병행,장기현장실습,신규,참여,인하대,한화저축은행,현장실습,지원,전문,인력,양성,상호,협력,계획,기관,양성,자산,운용,전문,인력,교육과정,공동,산학연계,구축,금융전문인재,양성,운영,성과,실습,참여,인원,확대,예정,인하대,IPP,듀얼,공동,훈련,센터,학생들,선호,기업들,연계,운영,현장,실습,프로그램,학생들,취업,상승,고용노동부,한국산업인력공단,주관,IPP,학습,병행,사업,성과,평가,우수등급,대표,한화저축은행,미래,성장,투자,병행,일정,수준,이익,성장,지속,기업,문화,토대,우수,인재들,입사,회사,총장,업무협약,인하대,IPP,듀얼,공동,훈련,센터,학습,병행,사업,강화,인천,경기지역,금융업계,학점,연계,인턴십,프로그램,모범사례,예상,인천,김민</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -500,7 +515,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>정점론,물가,정점,농산물,과자,환율,출렁,정부,그간,강조,정점론,물가,정점,예년,추석,농산물,가격,고공행진,지속,실생활,밀접,과자,인상,달러,원화,1400원,돌파,눈앞,수입,물가,양상,한국농수산식품유통공사,농산물,유통,정보,KAMIS,가격,직전,추석,연휴,비교,품목,농산물,비교,여름,작황,부진,남부,지방,직격,태풍,힌남노,피해,배추,포기,소매,8일,평균,14일,1만,24.1%,1년,5000원,배추,1만,금값,사과,홍로,가격,14일,3만,양파,당근,마늘,양배추,미나리,오름세,소비자들,가공,식품,가격,달러,환율,부담,국제,곡물,가격,상승,복합적,작용,수입,원재료,업체들,가격,인상,농심,15일,신라면,라면,브랜드,가격,인상,평균,11.3%,오리온,이날,초코파이,가격,제품,평균,15.8%,CJ제일제당ㆍ대상,가격,포장,김치,10%,안팎,계획,팔도,인상,라면,예고,상태,오리온,가격,인상,2013년,9년,동종,업계,연쇄적,제품값,확률,장바구니,상황,정부,추석,물가,상승세,전망,유지,장관,추경호,부총리,기획,재정부,전망,이날,물가,의원,배준영,국민의힘,질의,10월,정점,안정,기조,조심,전망,재확인,통계청,상승률,소비자,물가,상승,6월,6%,,6.3%,8월,5.7%,수치,상승세,둔화,모양새,윤석열,대통령,물가,안정,방점,대통령,출근길,서울,용산,대통령실,기자들,서민들,하락,실질,임금,물가,우선,기조,일반적,방법,시장,친화,물가,노력,대내외,변수,인플레이션,정부,지난주,태풍,이번주,환율,이슈,대표,추석,고공행진,가격,외식,물가,자극,8.8%,지난달,기준,8.8%,30년,최고치,기록,상승률,외식,물가,상승,의미,이은희,인하대,소비자학,교수,농산물,공급,취약,추석,가격,김장철,만큼,연말,농산물,물가,부담,식재료,가격,외식,물가,서민층,어려움,물가,변수,만큼,정부,공급,농산물,추가,적극,먹거리,전기,가스요금,인상,예정,11월,대란,세계,가스,급등,에너지,가격,전망,무게,인상,미국,금리,원화,가치,급락,상</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,7 +538,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>정원,감축,당근,외면,주요대,비수도권,인원,88%,비수,도권,96곳,전국,대학,학령,인구,급감,대응,2025학년도,1만,입학,정원,교육부,지원금,당근,제시,서울,수도권,대학들,선제적,정원,감축,동참,감축분,88%,비수도,대학,집중,교육부,대학,자율적,정원감축,유도,대학,제출,계획,적정,규모,지원금,배분,대학기본역량진단,통과,일반,재정,지원대학,41.2%,입학,정원,감축,학부,대학원,조정,정원,계획,적정,규모,참여,대학들,지원금,학년도,미충원,정원내,90%,규모,대비,90%,계획,정원,감축,제출,96곳,일반대,55곳,전문대,41곳,1만,감축,계획,제출,22곳,수도,대학,1953명,12%,74곳,비수도,대학,1만,88%,학부,정원,대학원,성인학습자,전환,감축분,순수,입학,정원,1만,비율,수도,대학,11.5%,1436명,정원감축,참여,일반대학,서울,소재,일반,대학,고려대,국민대,서울과기대,서울시립대,한성대,홍익대,6곳,자체,정원,학부,정원,대학원,지원금,86%가량,1200억,비수도,대학,예정,교육계,학년도,대입,본격화,미충원,사태,해소,감축,규모,모집,당장,신입,여유,대학들,고통,분담,동참,현상,수도,쏠림,심화,총장,비수도,대학,통화,대학,구조,조정,근본적,국가,균형,발전,정책,형평성,진행,수입,당장,등록금,비수도,대학,재정,고육지책,정원,감축,선택,토로,이명박,박근혜,정부,진행,대학,구조,조정,정원,감축,80%,가까이,비수도,대학,정책실장,김병국,전국대학노동조합,정책,실장,대학들,자발적,학령,인구,감소,고통,분담,참여,한계,확인,추가적,대책,마련,학부,재학,1만,수</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -536,7 +561,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>울산,동남,미세,먼지,관리,선도,UNIST,동남,미세,먼지,관리센터,유치,2025년,3년,운영,동남,미세,먼지,관리센터,울산,구축,울산시,울산과학기술원,UNIST,부산,대구,경남,경북,동남,미세,먼지,관리센터,환경부,공모사업,유치,공모,동남권,남부권,대학,대기관리,권역,소재,민간단체,대상,미세,먼지,저감,관리,특별법,규정,특별법,운영지침,UNIST,환경부,원씩,3년,지원,울산시,UNIST,형태,보조금,시험,장비,시설,센터,동남,대기관리,권역,발생원인,미세,먼지,발생,원인,규명,배출,특성,마련,정책,대안,구심점,역할,수행,유니스트,미세먼지,주도,울산보건환경연구원,울산연구원,부산대환경연구원,부경대,창원시정연구원,경남연구원,협력기관,참여,사업,규명,동남,대기,오염,물질,배출,특성,배출량,자료,구축,실시간,도시,규모,대기,예보,체계,구축,관측,운영,동남,권역,미세,먼지,입체,해안,화학,성분,감시,체계,구축,동남,권역,지형,특성,대기,확산,영향,규명,주민,관계자,대상,미세먼지,교육,미세,먼지,운영,홍보,프로그램,송창근,UNIST,도시환경,공학부,교수,센터장,총괄,관리,센터,지정,기간,12일,3년,평가,재지정,울산시,관계자,센터,동남,지역,대기환경,지역맞춤,미세,먼지,저감,대책,발굴,추진,계획,지자체,동남,대기관리,권역,기관,협력,최선,수도권,중부권,인하대,공주대,환경부,미세먼지,관리센터,지정,운영</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -554,7 +584,12 @@
           <t>내일신문</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>부자감세,재정건전성,강화,양극,촉발,정부,세제개편안,평가,부자감세,재정,건전,강화,긴축,결합,재정,분배,약화,지적,빈익빈부익부,형편,사람들,얘기,경기침체,기간,글로벌,경기,침체,국면,양극화,계층,사회갈등,촉발,지적,재정,학자,포용재정포럼,윤석열정부,세제개편안,평가,토론회,15일,국회의원,회관,세미나실,개최,참여연대,경제정의실천시민연합,나라살림연구소,복지국가,공동,주최,공개,발표문,정부,세재,개편,부정적,의견,토론회,발제자,부자감세,유지,재정,강화,재정,재분배기능,약화,그동안,진전,자산,소득,과세,체계,후퇴,부동산,세제,개편,서민,투기꾼,보유,주택,가격,평가,분배,구조,악화,교수,강병구,인하대,토론,발제문,소득,법인세제,개편,교수,소득세,과세,표준,근로,소득,세액,공제,조정,인상,식비,감세효과,저소득층,중상위,소득,계층,집중,분배구조,악화,추정,정부,법인,세율,인하,22%,방침,투자,고용,효과,보장,상태,위주,감세,양극화,지적,교수,누진,보편,증세,대안,제시,소득세,최고,세율,적용,과표,시작점,소득,구간,적정,수준,세율,인상,제안,소득세,공제,저출산,고령화,소득,현물급여,확대,과세형평성,방향,개편,제언,가상자산,예정,시행,입법,목적,달성,신용,카드,소득,공제,기한,연장,한도,확대,의견,법인세,세율,체계,2~3단계,단순화,최고세율,25%,유지,최고세율,적용,과표,구간,제시,법인세,공제,감면,최저한세,적용,항목,과표,초과액,적용,최저,세율,상향,조정,제안,중소기업특별세액감면,제도,정책,정책,대상자,광범위,재정사업,유사,중복,투자,고용,효과,반영,방식,개편,주문,기조,자산,소득,과세,홍순탁,복지,국가,운영위원장,회계사,자산소득,과세,강도,평가,위원장,2020년,금융투자소득세,금투세,과세,대상,확대,측면,진전,세법개정,전제,조치,상장주식,채권,포함,형태,금융자산,양도소득,예외,과세,대상,소득,주식,양도,소득,기본공</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -572,7 +607,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>상추,추가,1500원,인플레,공짜,WEEKLY,BIZ,Biz,Pick,직장인,지난달,서울,고깃집,당황,경험,상추,깻잎,고추,리필,채소,바구니,요청,종업원,1500원,추가,비용,안내,최씨,평소,공짜,채소,생각,리필,인플레이션,장기화,평소,공짜,제공,상품,서비스들,자취,압박,원가,상승,기업,자영업자들,원성,감수,비용,절감,중단,무료,서비스,체감,식당,인터넷,커뮤니티,밑반찬,리필,요구,추가,요금,채소,임대료,서울,수도권,고깃집,리필,유료,상태,밑반,찬도,종류,500원,1000원,가량,리필,비용,식당,직장인,식당,간장게장,리필,밑반찬,무한,1회,제한,시작,기업들,차원,고객,확보,손실,감수,제공,혜택,서비스,폐지,움직임,수수료,포장,주문,중개,플랫폼들,음식,배달,플랫폼,10월,수수료,고객,반발,시점,수수료,부과,내년,연기,해외,직구,결제액,감소,수수료,규제,난관,봉착,카드,업계,신용,카드,혜택,메리어트,쉐라톤,앰배서더,호텔들,멤버십,포함,식음료,레스토랑,할인,혜택,무료,숙박,폐지,조치,40년,최악,인플레이션,신음,미국,공짜,서비스,유료,바람,항공사들,비상구,복도,예약,인기,좌석,100달러,가량,추가,요금,비용,convenience,fee,명목,부과,시작,호텔들,투숙객,주차비,수영장,사우,사용료,영화관,개봉,신작,영화,1~1,5달러,추가,관람료,미국,영화관,시네마크,토머스,CFO,최고재무책임자,영화관,위치,상영,시간대,상영,가격,차등화,방안,검토,공짜,서비스,폐지,유료,전환,요즘,유행,슈링크플레이션,shrinkflation,유형,슈링크플레이션,제품,가격,제품,용량,기업들,우회적,기법,가격,인상,대표적,사례,이은희,인하대,소비자학,교수,제품,서비스,가격,포함,서비스,차원,유료,바람,슈링크플레이션,구조,소비자,입장,지출,부담,허리띠,상황</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,7 +630,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>울산시,유니스트,동남,미세,먼지,관리,선도,울산시,유니스트,울산과학기술원,협력,동남,미세,먼지,관리센터,유치,유니스트,환경부,공모,사업,연구관리센터,선정,유니스트,환경부,원씩,3년,13억,지원,울산시,유니스트,형태,보조금,시험,장비,시설,2억,현물,유니스트,미세먼지,주도,울산보건환경연구원,울산연구원,부산대환경연구원,부경대,창원시정연구원,경남연구원,협력기관,참여,기관,규명,동남,대기,오염,물질,배출,특</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,7 +653,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>인천시,파브,미래,교통수단,PAV,조기,상용,5년,투입,평가,핵심,부품,시험,복합,센터,구축,인천,수단,개인,항공,교통,파브,PAV,Personal,Air,Vehicle,산업,거점,부상,14일,인천,자동차,로봇,전자통신,항공기술,융합,파브,구축,핵심,부품,종합,테스트베드,조기,상용,사업,산업,통상,자원부,공모,최종,선정,인천테크노파크,인하대,인천PAV협회,PAV,핵심부품,시험,성능,평가,복합중심센터,구축,계획,5년,국비,시비,70억,186억,투입,인천,파브,산업,독보적,산학연,협업,체계,구축,파브,일반,항공기,고정,날개,고정익,헬리콥터,회전,날개,동력,활주,공간,수직,이착륙,가능,공중,장시간,미래,교통수단,전망,구축,PAV,핵심,부품,종합,테스트베드,10년,6300억,생산,부가가치,유발효과,1900명,고용,유발,효과,예측,자동차부품업체,150곳,PAV,산업,전환,4만,효과,일자리,창출,산업진흥과장,이남주,인천시,산업,진흥,과장,PAV,2030년,전후,상용화,가능,예상,산업,생태,인천,산업,PAV,선도,최선</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -626,7 +676,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>인천시,거점,미래,항공,교통,산업,도약,종합테스트,베드,구축,공모,선정,구성,산학연,컨소시엄,사업,추진,인천,수단,개인,항공,교통,파브,PAV,Air,Vehicle,산업,거점,부상,전문가들,자동차,소재,로봇,전자통신,항공기술,융합,파브,미래,교통수단,전망,13일,인천,미래,Wingless,PAV,핵심,부품,종합,테스트베드,구축,상용,지원,사업,산업,통상,자원부,공모,사업,선정,상용화,파브,조기,상용,미래,모빌리티,시범,도시,도약,준비,인천테크노파크,한국건설생활환경시험연구원,인하대,인하공전,인천PAV협회,컨소시엄,구성,사업,추진,5년,파브,비행체,시험,핵심,부품,성능,평가,복합중심센터,구축,조기,상용,미래,관광,레저형,모빌리티,시범,도시,조성,인천,파브,산업,독보적,산학연,협업,체계,구축,파브,일반,항공기,고정,날개,고정익,헬리콥터,회전,날개,동력,활주,공간,수직,이착륙,가능,공중,수단,미래,개인,항공,이동,인기,파브,핵심,부품,종합,테스트베드,구축,10년,생산,부가가치,유발효과,6300억,고용,유발,효과,1900명,예측,600개,기업,150개,자동차,부품,기업,파브,산업,전환,4만,일자리</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -644,7 +699,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>강간치사,인하대,성폭행,강간,치사,의결,남학생,퇴학,인하대,캠퍼스,동급생,성폭행,건물,추락,혐의,기소,가해,남학생,퇴학,결정,인하대,학생상벌위원회,성폭력,범죄,처벌,특례법,강간,살인,혐의,구속기소,1학년,20,퇴학,조치,의결,학칙,징계,규정,인하대,재학생,근신,유기정학,무기정학,퇴학,징계,퇴학,조치,재입학,인하대,관계자,학생상벌위,징계,의결,내부,결재,징계,결과,형사12부,인천지법,형사,임은하,부장판사,A씨,재판,비공개,진행,재판,피해자,변호인,피해자,재판,희망,재판부,요청,변호인,피해자,명예,훼손,노출,사생활,비밀,피해자,유족들,사건,언론,매체,보도,댓글,마음,상처,A씨,황토색,수의,머리,얼굴,법정,모습,생년월일,직업,확인,재판장,인정신문,목소리,답변,국민참여재판,A씨,7월,인천,미추홀구,인하대,캠퍼스,2층,단과대,건물,중간,계단,학교,학생,B씨,성폭행,시도,창밖,사망,혐의,B씨,추락,가량,방치,행인,신고,구급대,병원,3시간,A씨,검찰,범행,상황,순간,순간,기억,B씨,추락,상황,기억,취지,진술</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -662,7 +722,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>우회,추진,논란,지방,시대,위원회,강행,윤석열정부,지방시대위원회,출범,특별법,입법,예고,시행령,지방,시대위,출범,추진,위법,논란,자치분권위원회,국가균형발전위원회,근거,법안,통합,특별법,제정,방향,입법예고,지방시대위,위원회,자문위원회,대통령,소속,자문,위원회,한계,국회,다수당,더불어민주당,지방,시대위,출범,절차,공감,특별법,국회,통과,자신,상황,사진,뉴시스,행정안전부,지방,자치,분권,지역균형발전,특별법안,마련,14일,입법예고,특별법,지방자치분권,지방행정체제개편,특별법,국가,균형,발전,특별법,법안,법안,자치분권위,국가균형발전위,근거법,입법예고,특별법,조문,구성,중앙부처,계획,토대,지방,시대,종합,계획,수립,자치분권,균형발전,연계,지방시대위,설치,위원회,심의,의결사항,이행력,강화,핵심,행안부,자치분권종합계획,균형발전계획,수립,자치분권,균형,발전,시책,개별적,추진,정책,효과,체감,지방분권,균형발전,계획,시책,연계,통합적,설명,특별법,주목,지방시대위,지방시대위,자문위,대통령,소속,위원장,부위원장,1명,포함,32명,위원,구성,수석비서관,대통령,비서실,수석,비서관,회의,참석,지방,시대,국정,지역공약,총괄,조정,심의,의결,사항,이행력,확보,중앙지방협력회의,결과,이행,상황,점검,보고,규정,그동안,자치,분권위,국가균형발전위,자문위,대통령,소속,기관,지방시대위,자문위,한계,지자체,그동안,수도,자문기구,동력,균형,발전,추진,부처,만큼,독립,격상,요구,최소,집행력,행정위원회,부총리,행정,기관,균형발전,도모,주장,결국,수용,대통령직인수위원회,부처,부총리,독립,구상,배치,지방시대위,역할,자문,지역균형발전,국가,난제,위원,대통령,인수위,지방,균형,발전,특위,이기우,인하대,법학,전문,대학원,명예,교수,인수위,기관,취지,역량,권한,확대,물리,통합,자문위,형태,역할,기관,특별법안,여소야대,국회,통과,안갯속,야권,자치분권위,국가균형발전위,상황,통합,지방시대위,필요성,의구심,제기,참여정부,국가균형발전위원장,성경륭,한림대,사회학,명예,교수,지방분권,국가,균형,발전,정책,통합,접근,기능적,의문,비판,지적,행안부,관계자,지방,지역,발전,명제,동의,생각,부처별,국회,특별법,설득</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -680,7 +745,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,남학생,퇴학,처분,의결,인하대,캠퍼스,또래,여학생,성폭행,혐의,기소,가해,남학생,학교,퇴학,처분,인하대,학생상벌위원회,성폭력,범죄,처벌,혐의,특례법,강간,살인,구속,기소,1학년,최고,수위,징계,조치,의결,13일,학칙,징계,규정,징계,근신,유기정학,무기정학,퇴학,4가지,징계,퇴학,재입학,인하대,학생상벌위원회,징계,의결,언론,외부,구체적,공개,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,여성,성폭행,추락,사망,혐의,2층,사이,복도,창문,1층,추락,장소,자취방,경찰,체포,추락,가량,건물,길가,건물,방치,행인,발견,병원,3시간</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -698,7 +768,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,학생,퇴학,처분,의결,인하대학교,캠퍼스,발생,사건,성폭행,사망,가해,학생,퇴학,처분,인하대,학생상벌위원회,강간,살인,혐의,구속기소,A씨,최고,수위,징계,조치,의결,13일,학칙,징계,규정,인하대,징계,근신,유기정학,무기정학,퇴학,4가지,징계,퇴학,재입학,A씨,2층,인천시,미추홀구,인하대,건물,중간,계단,B씨,상대,성폭행,시도,창밖,혐의,B씨,추락,1시간,분가량,혼자,건물,길가,방치,3시,분쯤,행인,발견,병원,3시간</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -716,7 +791,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>성폭행,추락사,의결,인하대,퇴학,주목,목소리,인하대학교,캠퍼스,여대생,성폭행,살해,혐의,퇴학,확정,범행,녹음,영상,주목,인하대,상벌위원회,학생,상벌,위원회,강간,살인,혐의,구속기소,징계,수위,단계,퇴학,처분,의결,퇴학,결정,구속,결정적,역할,음성,파일,재조명,음성,파일,피해자,피해자,성폭행,건물,추락,상황,녹음,구속,결정적,증거,영상,음성,추락음,목소리,녹음,이외,증거들,결국,구속,이날,인하대,퇴학,처분,확정,재입학,이날,사건,공판,피해자,변호인,피해자,사생활,노출,재판,요청,재판부,공감,재판,공개,최소화,예정,5층,인천시,미추홀구,인하대학교,캠퍼스,단과대,건물,여대생,여대,성폭행,추락,혐의</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -734,7 +814,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>퇴학,인하대,성폭행,사망,가해자,의결,총장,결정,사망사건,인하대,성폭행,사망,사건,가해자,퇴학,처분,인하대,상벌위원회,성폭력,범죄,처벌,특례법,강간,살인,혐의,구속,기소,대학교,최고,수준,징계,의결,13일,인하대,징계,근신,유기정학,무기정학,퇴학,구성,조명우,인하대,총장,상벌,위원회,결정,ㄱ씨,퇴학,처리,이날,인천지법,형사12부,임은하,부장판사,심리,ㄱ씨,재판,비공개,피해자,변호사,피해자,법정,사건,언론,매체,보도,인터넷,댓글,유족,마음,상처,고인,명예,사생활,비밀,유족,상황,공판,절차,비공개,진행,재판부,요청,재판,부도,유족,언론,사건,보도,재판,성범죄,특성,재판,피해자,사생활,노출,비공개,진행,피해자,요청,재판,1시간,진행,ㄱ씨,변호인,재판,증거,목록,여부,혐의,인정,제공,증거,목록,이견,재판,설명,이날,재판,ㄱ씨,처벌,요구,기자회견,여성,단체,회원,참석,기자회견,여성들,안전,생각,공간,캠퍼스,안전,공간,사건,증명,사건,사람,분노,연대,사건,개인,여성,혐오,범죄,주장,재판부,성범죄,개개인,일탈,사회,구조,범죄,인식,처벌,ㄱ씨,7월,인하대,건물,ㄴ씨,성폭행,혐의,경찰,ㄱ씨,준강,간치사,혐의,적용,검찰,사건,송치,검찰,성폭행,ㄱ씨,행위,작위,살인죄,적용,기소</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -752,7 +837,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>무역,수지,에너지,충격,연간,적자,달러,9월,에너지,수입발,무역,수지,경고등,25년,연속,무역,적자,가능,규모,연간,누적,적자,달러,관세청,수출입,현황,기간,무역,수지,24억,달러,3조,적자,잠정,집계,추석,연휴,조업,일수,감소,2일,수출입액,수출,162억,달러,전년,동기,대비,16.6%,수입,187억,달러,10.9%,감소,수입,수출,감소,마이너스,4월,무역,적자,양상,적자,1997년,적자,연속,기록,역대,최대,기록,누적,무역,적자,275억,달러,37조,확대,최대,적자,달러,지난달,적자,연간,무역,적자,기록,글로벌,금융,위기,2008년,132억,달러,14년,수출액,반도체,7.9%,석유제품,11.7%,전년,동기,대비,증가,수출,효자,반도체,지난달,수출액,1년,7.8%,26개월,역성장,기록,반등,모양새,승용차,17.9%,무선통신기기,23.8%,나머지,수출,품목,감소세,국가별,중국,20.9%,미국,11.6%,나라,수출,5월,적자,기록,중국,무역,수지,흑자,이달,초순,달러,출발,5개월,흑자,가능,수입액,추석,영향,기간,양상,원유,15.7%,가스,92.3%,에너지,수입,급증세,무역,적자,주도,수입국,원유,수입,사우디아라비아,수입액,전년,동기,대비,48.8%,중국,24.2%,미국,27.8%,국가,수입액,대비,러시아,우크라이나,전쟁,에너지,리스크,이달,작용,의미,정부,무역,금융,지원액,351조,수출,경쟁력,강화,전략,무역,수지,개선,최우선,9월,반등,기미,가스대,올겨울,전망,에너지,수입,불안정,동북아,천연가스,LNG,수입,시세,가격지표,JKM,BTU,열량단위,29.4달러,62.8달러,이달,달러,대표,달러,기조,약세,원화,가치,침체,글로벌,경기,대외,변수,수출입,압박,무역투자실장,문동민,산업,통상,자원부,무역,투자,실장,브리핑,수준,에너지,가격,유지,무역적자,연간,누계,무역,적자,확대,정인교,인하대,국제통상학,교수,러시아,에너지,서방,위협,상황,국제,에너지,가격,상승,무역,수지,악화,연말,무역수지,조금,개선,수출,수출,기업,환율,만큼,정부,금융,시장,안정,방안,고민</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -770,7 +860,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,재판,전환,인하대학교,성폭행,사망,사건,가해,남학생,재판,비공개,진행,재판,피해자,사생활,노출,그간,언론,과잉,보도,피해,유족,요청,유족,인천지법,형사,범죄,성폭력,처벌,특례법,준강,간살,혐의,구속,기소,인하대,재판,비공개,A씨,인천시,미추홀구,인하대,캠퍼스,5층,단과대,건물,동급,여학생,성폭행,3층,추락,혐의,인하대학교,캠퍼스,동급생,성폭행,건물,지상,추락,사망,혐의,남학생,인천,미추홀구,미추홀경찰서,유치장,검찰,송치,뉴시스,피해자,변호인,법정,사건,언론,매체,보도,인터넷,댓글,유족,마음,상처,고인,명예,사생활,비밀,유족,상황,공판,절차,비공개,진행,재판부,요청,재판부,대학교,여학생,국민,관심,사건,유족,보도,재판,성범죄,특성,재판,피해자,사생활,노출,판단,이날,출석,A씨,생년월일,직업,확인,재판장,인정신문,취재진,방청객들,법정,퇴장,경찰,조사,B씨,건물,추락,인정,자신,고의,A씨,진술,준강,간치사,혐의,구속영장,신청,치사,살인,고의성,적용,검찰,A씨,바닥,아스팔트,지상,높이,추락,B씨,사망,예견,미필,고의,살인,혐의,적용,미필,고의,살인,사망,가능성,예상,사망,인식,인정</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -788,7 +883,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락사,학생,퇴학,처분,의결,인하대,캠퍼스,여학생,성폭행,건물,추락,혐의,기소,가해,남학생,퇴학,처분,인하대,학생상벌위원회,성폭력,범죄,처벌,특례법,강간,살인,혐의,구속기소,1학년,A씨,퇴학,조치,의결,학칙,징계,규정,인하대,재학생,근신,유기정학,무기정학,퇴학,징계,퇴학,조치,재입학,인하대,관계자,학생상벌위,징계,의결,내부,결재,징계,결과,재판,전환,형사12부,인천지법,형사,임은하,부장판사,A씨,재판,비공개,진행,이날,인천지법,형사부,부장판사,임은하,심리,공판,성폭력범죄,처벌,특례법,강간,살인,혐의,구속기소,인하대학,남성,피해자,변호인,피해자,재판,희망,재판부,요청,변호인,피해자,명예,훼손,노출,사생활,비밀,피해자,유족들,사건,언론매체,보도,댓글,마음,상처,피해자,유족,비공개,진행,부탁,재판,피해자,직계존속,형제,자매,신뢰관계,4명,이모,이종,사촌,오빠,피고인,직계존속,형제자매,방청,요청,재판부,세간,이목,집중,국민,관심,국민들,재판과정,공감,유족,언론공개,보도,고인,명예,훼손,사생활,비밀,노출,가능성,판단,비공개,심리,진행,이날,황토색,수의,머리,얼굴,법정,모습,생년월일,직업,확인,재판장,인정신문,목소리,답변,국민참여재판,A씨,인천,미추홀구,인하대,캠퍼스,2층,단과대,건물,중간,계단,학교,학생,B씨,성폭행,시도,창밖,사망,혐의,B씨,추락,가량,방치,행인,신고,구급대,병원,3시간,검찰,A씨,위험,장소,범행,장소,사망,결과,가능성,범행,B씨,사망,범행,구호,행위,종합적,미필,고의,살인,혐의,적용,미필,고의,살인,사망,가능성,예상,사망,인식,인정,A씨,검찰,범행,상황,순간,순간,기억,B씨,추락,상황,기억,취지,진술,치열,법정,공방,예상</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -806,7 +906,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,가해,학생,퇴학,처분,의결,확정,퇴학,처분,확정,불가,인하대,캠퍼스,여학생,성폭,건물,추락,가해,남학생,퇴학,처분,인하대,인하대,학생,상벌,위원회,성폭력,범죄,처벌,혐의,특례법,강간,살인,구속기소,1학년,최고,수위,징계,조치,의결,학칙,징계,규정,인하대,재학생,근신,유기정학,무기정학,퇴학,징계,퇴학,조치,재입학,인하대,관계자,학생상벌위,징계,의결,내부,결재,징계,결과,A씨,인천,미추홀구,인하대,캠퍼스,2층,단과대,건물,중간,계단,학교,학생,B씨,성폭행,시도,창밖,사망,혐의,A씨,범행,도주,범행,당일,경찰,체포,B씨,추락,가량,방치,행인,신고,구급대,병원,3시간</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,7 +929,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,재판,유족,의견,반영,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,살해,혐의,기소,가해,남학생,재판,피해자,요청,비공개,진행,인천지법,형사,임은하,부장판사,범죄,성폭력,처벌,특례법,준강,간살,혐의,구속기소,인하대,A씨,재판,비공개,진행,피해자,변호인,피해자,법정,사건,언론,매체,보도,인터넷,댓글,유족,마음,상처,고인,명예,사생활,비밀,유족,상황,공판,절차,비공개,진행,재판부,요청,재판부,국민,관심,사건,유족,언론,사건,보도,재판,성범죄,특성,재판,피해자,사생활,노출,비공개,진행,판단,재판부,피해자,요청,피해자,재판,방청,피해자,직계존속,형제자매,신뢰,관계자,이모,제한,A씨,직계존속,형제자매,재판,수의,황토색,법정,출석,A씨,재판,진행,의사,국민,참여,재판,희망,재판부,질문,희망,인정신문,재판부,결정,취재진,방청객들,법정,퇴장,A씨,7월,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,또래,여학생,성폭행,추락,혐의,구속기소,경찰,살인,고의,인정,적용,준강,간치사,혐의,A씨,적용,송치,검찰,A씨,높이,추락,피해자,사망,예견,미필,고의,살인,혐의,적용</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,7 +952,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>피의자,인하대,사망,사건,재판,비공개,진행,피해자,재판부,공판,절차,요청,인하대,캠퍼스,여학생,동급,성폭행,추락,혐의,기소,피의자,재판,13일,재판부,고인,사생활,노출,비공개,진행,유족,요청,재판,비공개,진행,인천지법,형사,부장판사,임은하,범죄,이날,성폭력,처벌,특례법,준강,간살,혐의,구속,기소,인하대,재판,피해자,변호인,피해자,법정,사건,언론,매체,보도,인터넷,댓글,유족,마음,상처,고인,명예,사생활,비밀,유족,상황,공판,절차,비공개,진행,재판부,요청,재판부,피해자,요청,피해자,부장,대학교,여학생,사망,국민,관심,사건,유족,언론,사건,보도,재판,성범죄,특성,재판,피해자,사생활,노출,재판,비공개,진행,재판,방청,피해자,직계존속,형제자매,신뢰관계자,4명,이모,제한,피의자,직계존속,형제자매,재판,A씨,수의,황토색,법정,출석,생년월일,직업,확인,재판장,인정신문,목소리,답변,국민참여재판,인정신문,재판부,결정,취재진,방청객들,법정,퇴장,A씨,인천시,미추홀구,인하대,캠퍼스,5층,단과대,건물,B씨,동급,여성,성폭행,추락,혐의,B씨,2층,사이,복도,창문,1층,추락,B씨,장소,자취방,당일,경찰,체포,경찰,A씨,준강,간치사,혐의,적용,검찰,송치,검찰,미필,고의,살인,혐의,적용,기소,A씨,적용,강간,살인죄,재판,인정,사형,무기징역</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -860,7 +975,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,재판,명예훼손,전환,피해자,명예,훼손,인하대,캠퍼스,동급생,성폭행,추락,혐의,기소,학생,재판,피해자,요청,비공개,전환,13일,인천지법,형사부,부장판사,임은하,심리,공판,성폭력범죄,처벌,특례법,강간,살인,혐의,구속기소,인하대학생,인하대학,피해자,법률,대리인,재판,희망,피해자,변호인,피해자,명예,훼손,노출,사생활,비밀,재판,피해자,직계존속,형제,자매,신뢰관계,4명,이모,이종,사촌,오빠,피고인,직계존속,형제자매,방청,요청,재판부,세간,이목,집중,국민,관심,국민들,재판,공감,유족,언론,공개,보도,고인,명예,훼손,사생활,비밀,노출,가능성,판단,비공개,심리,진행,공정,재판,정도,머리,얼굴,반쯤,법정,모습,국민참여재판,희망,재판부,질문,변호인,희망,1시,인천,미추홀구,인하대,캠퍼스,2~3층,단과,대학,건물,의식,동급생,동급,성폭행,창밖,추락,혐의,기소,경찰,준강간치사,성폭력처벌,특례법,카메라,이용촬영,반포,혐의,구속,송치,검찰,높이,추락,사망,예견,미필,고의,살인,혐의,적용</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -878,7 +998,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락,사망,사건,의결,남학생,퇴학,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,기소,남학생,퇴학,처분,인하대,학생상벌위원회,성폭력,범죄,처벌,특례법,강간,살인,혐의,구속,기소,1학년,A씨,퇴학,조치,의결,13일,인하대,관계자,학생상벌위,징계,의결,개인,정보,사안,구체적,제50,인하대,학칙,징계,규정,근신,유기정학,무기정학,퇴학,조치,징계,퇴학,재입학,불가능,A씨,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,B씨,여성,성폭행,3층,추락,혐의,A씨,추락,B씨,장소,경찰,체포,B씨,추락,1시간,분가량,혼자,건물,길가,방치,행인,발견,병원,3시간,A씨,경찰,조사,B씨,고의성,부인,경찰,준강간치사,혐의,검찰,송치,검찰,추가,조사,A씨,건물,추락,피해자,사망,사실,도주,미필,고의,살인,혐의,추가,적용,재판</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -896,7 +1021,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,재판,가해학생,퇴학,인하대학교,캠퍼스,여학생,성폭행,건물,추락,살해,혐의,기소,가해,남학생,재판,피해자,보호,비공개,인천지법,형사,부장판사,임은하,범죄,성폭력,처벌,특례법,준강,간살,혐의,구속,기소,인하대,남학생,재판,비공개,진행,피해자,변호인,피해자,법정,사건,언론,매체,보도,인터넷,댓글,유족,마음,상처,고인,명예,사생활,비밀,유족,상황,공판,절차,비공개,진행,재판부,요청,재판부,유족,언론,사건,보도,재판,성범죄,특성,재판,피해자,사생활,노출,비공개,진행,판단,재판부,피해자,재판,방청,직계존속,형제,자매,신뢰,관계자,이모,제한,A씨,직계존속,형제,자매,재판,방청,수의,황토색,법정,출석,A씨,생년월일,직업,확인,재판장,인정신문,목소리,국민참여재판,입장,인정신문,재판부,결정,취재진,방청객들,법정,퇴장,재판,인하대,학생,상벌,위원회,최고,수위,징계,조치,퇴학,처분,인하대,관계자,징계,비밀,유지,규정,징계,수위,A씨,인천,미추홀구,인하대,캠퍼스,5층,단과대,건물,B씨,여학생,성폭행,추락,살해,혐의,기소,경찰,살인,고의,인정,적용,준강,간치사,혐의,A씨,적용,사건,검찰,송치,검찰,A씨,높이,추락,B씨,사망,예견,미필,고의,살인,혐의,적용,미필,고의,살인,사망,가능성,예상,사망,인식,인정,인천,김민</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,7 +1044,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>명예훼손,성폭행,추락사,인하대생,재판,전환,노출,피해자,사생활,유족,마음,상처,인하대,캠퍼스,동급생,성폭행,추락,사망,혐의,재판,남학생,공판,13일,인천지법,형사부,부장판사,임은하,심리,공판,성폭력범죄,처벌,특례법,강간,살인,혐의,구속기소,남성,인하대학,남성,피해자,변호인,피해자,재판,희망,변호인,피해자,명예,훼손,노출,사생활,비밀,피해자,유족들,사건,언론매체,보도,댓글,마음,상처,피해자,유족,비공개,진행,부탁,재판,피해자,직계존속,형제,자매,신뢰관계,4명,이모,이종,사촌,오빠,피고인,직계존속,형제자매,방청,요청,재판부,세간,이목,집중,국민,관심,국민들,재판과정,공감,유족,언론공개,보도,고인,명예,훼손,사생활,비밀,노출,가능성,판단,비공개,심리,진행,얼굴,모습,예상,고의,공방,이날,황토색,수의,머리,얼굴,법정,모습,직업,재판부,물음,대학생,주거지,계약해지,자취방,부모님,거주지,본가,전남,소재,언급,A씨,재판,결정,선고,재판,비공개,진행,예정,경찰,A씨,준강,간치사,혐의,적용,검찰,송치,검찰,살인,고의성,인정,판단,죄명,살인,혐의,변경,기소,검찰,A씨,위험,장소,범행,장소,사망,결과,가능성,범행,B씨,사망,범행,구호,행위,종합적,미필,고의,살인,혐의,적용,미필,고의,살인,사망,결과,발생,가능성,행위,적용,검찰,A씨,의식,보호,능력,결여,상태,피해자,20대,상대,성폭행,시도,추락,사망,판단,A씨,검찰,범행,상황,순간,순간,기억,B씨,추락,상황,기억,취지,진술,치열,법정,공방,예상,A씨,캠퍼스,인천,미추홀구,용현동,인하대학교,B씨,성폭행,3층,단과,대학,건물,혐의</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -932,7 +1067,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>인하대,처분,성폭행,추락사,가해,학생,퇴학,재판,비공개,진행,인천,미추홀구,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,재판,가해,남학생,퇴학,처분,인하대,학생상벌위원회,성폭력,범죄,처벌,혐의,특례법,강간,살인,구속,기소,1학년,최고,수위,징계,조치,의결,13일,제50,인하대,학칙,징계,규정,징계,근신,유기정학,무기정학,퇴학,단계,인하대,관계자,학생상벌위,최고,수위,징계,의결,개인,정보,사안,구체적,A씨,인하대,캠퍼스,5층,단과대,건물,B씨,여성,성폭행,추락,사망,혐의,B씨,추락,가량,혼자,건물,길가,방치,행인,발견,병원,3시간,제12형사부,이날,인천지법,형사부,부장판사,임은하,심리,A씨,재판,비공개,진행,피해자,B씨,변호인,법정,사건,언론,매체,보도,인터넷,댓글,유족,마음,상처,고인,명예,사생활,비밀,유족,상황,공판,절차,비공개,진행,재판부,요청,재판부,국민,관심,사건,유족,언론,사건,보도,재판,성범죄,특성,재판,피해자,사생활,노출,비공개,진행,재판부,피해자,직계존속,형제자매,신뢰관계자,4명,이모,방청객,제한,A씨,직계존속,형제자매,재판,수의,황토색,법정,출석,A씨,생년월일,직업,확인,재판장,인정신문,목소리,답변,국민참여재판,인정신문,재판부,결정,취재진,방청객들,법정,퇴장</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -950,7 +1090,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>성추행,추락사,처분,인하대,퇴학,재입학,인하대,캠퍼스,동급생,성폭행,혐의,남성,뉴스1,인하대,캠퍼스,또래,여학생,성폭행,시도,건물,추락,혐의,재판,가해,남학생,퇴학,처분,인하대,학생상벌위원회,성폭력,범죄,처벌,특례법,강간,살인,혐의,구속기소,1학년,퇴학,조치,의결,13일,학칙,징계,규정,징계,근신,유기정학,무기정학,퇴학,4가지,징계,퇴학,재입학,인하대,관계자,학생상벌위,징계,의결,개인,정보,사안,구체적,성폭력,처벌,특례법,강간,살인,혐의,A씨,공판,이날,A씨,7월,1시,인천시,미추홀구,인하대,캠퍼스,5층,2~3층,단과대,건물,B씨,여성,성폭행,창밖,추락,사망,혐의,B씨,2층,사이,복도,창문,1층,추락,B씨,장소,자취방,당일,경찰,체포,7월,여성,추락,건물,인천시,미추홀구,인하대,단과대,폴리스,라인,설치,인천,뉴스1,A씨,7월,치사,성폭력,처벌,특례법,카메라,이용촬영,혐의,구속,송치,검찰,수사,A씨,행위,사망,연관성,사망,연관,죄명,강간,살인죄,변경,기소,송치,적용,송치,성폭력처벌,특례법,카메라,이용촬영,반포,혐의,B씨,신체,촬영,신체,촬영,의도,판단,혐의,불기소,처분,A씨,검찰,조사,사실,성폭행,시도,인정,B씨,추락,여부,도주,진술,정은나리</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -968,7 +1113,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>인천시,개인용,비행체,PAV,박차,조기,상용,인천,개인용,비행체,PAV,산업,요람,미래,관광,레저형,모빌리티,시범,도시,인천시,미래,Wingless,PAV,핵심,부품,종합테스트,베드,구축,상용,지원,사업,산업,통상,자원부,공모,사업,선정,상용화,PAV,조기,상용,준비,13일,지원사업,인천테크노파크,인천TP,한국건설생활환경시험연구원,인하대학교,인하공업전문대학,인천PAV협회,컨소시엄,구성,추진,5년,국비,시비,16억,기관,현물,출자,186억,투입,PAV,핵심부품,시험,성능,평가,복합중심센터,구축,상용화,PAV,조기,상용,토대,미래,관광,레저형,모빌리티,시범,도시,조성,계획,정부,공모,사업,선정,지역,산업,독보적,인천,대표,드론,전문,기업,숨비,서울,ADEX,전시회,PAV,시제기,지역,산업,추구,PAV,고정,날개,헬리콥터,회전,날개,동력,활주로,공간,착륙,가능,공중,장점,보유,지원사업,10년,생산,효과,부가,가치,유발,6300억,전망,효과,고용,유발,1900명,인천,600곳,자동차,부품,기업,150곳,PAV,산업,전환,4만,신규,일자리,창출,이남주,산업진흥과장,이남주,산업,진흥,과장,PAV,2030년,상용화,예상,인천,산업,생태,만큼,기체,부품,성능,인증,표준화,선제적,추진,대한민국,PAV,산업,선도,인천,김민</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -986,7 +1136,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>인천시,개인,비행체,사업,요람,부상,180억,국책,선정,인천시,미래,Wingless,PAV,핵심,부품,종합테스트,베드,구축,상용,지원,사업,산업,통상,자원부,공모,사업,선정,개인용,비행체,PAV,조기,상용,시범도시,미래,모빌리티,시범,도시,자리,준비,13일,사업,인천시,인천테크노파크,한국건설생활환경시험연구원,인하대,인하공전,인천PAV협회,컨소시엄,구성,추진,인천시,5년,PAV,비행체,핵심,부품,시험,성능,평가,복합중심센터,구축,PAV,조기,상용,미래,관광,레저형,모빌리티,시범,도시,조성,계획,국비,시비,16억,기관,현물출자,사업비,투입,인천시,인천지역,PAV,산업,전국,지자체,독보,협업,체계,구축,정부,공모,사업,선정,인천,인천,지역,드론,전문,기업,숨비,기업,서울,ADEX,전시회,PAV,시제기,인천,PAV산업,선도,평가,인천시,산업,PAV,인천,미래,성장동력,미래,성장,동력,육성,한편,관광,레저,연계,조성,미래,항공,모빌리티,도시,적극,추진,PAV,핵심,부품,종합테스트,베드,구축,10년,생산,부가,가치,유발,효과,6300억,고용유발효과,1900명,전망</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1004,7 +1159,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>인천항만공사,킥오프,ESG,경영,혁신,아이디어,공모전,인천항만공사,IPA,추구,사회,가치,ESG,환경,사회,지배구조,경영,발전,도모,인하대학교,정석,학술,정보관,개최,ESG,경영,혁신,아이디어,공모전,개최,킥오프,회의,12일,2회,ESG,경영,혁신,아이디어,공모전,단계,인하대학교,학생,인터뷰,문헌,조사,현장,방문,인천,지역,공기업,ESG,경영,혁신,아이디어,발굴,제시,연말,경진,대회,우수작,선정,시상,킥오프,회의,시작,공모전,IPA,수도권,매립지관리공사,인천교통공사,대상,진행,IPA,인하대,지난달,인하대,LINC3.,0사업단,체결,ESG,경영,혁신,아이디어,공모전,협력,업무,협약,참여,개최,공모전,수도권,매립지관리공사,인천교통공사,인천국제공항공사,한국환경공단,대상,진행,킥오프,회의,참여,기관,ESG,인하대학,참석,소개,참여,기관,인하대,교수,구성,멘토,소개,설명,ESG,경영,현황,공모전,진행,일정,안내,회의,프로젝트,주제,선정,IPA,진단,ESG,경영,현황,아이디어,제시,배정,4개,20여명,학생,활동비,지원,경진대회,우수,아이디어,제출,1개,사장상,소정,상금,수여,예정,ESG경영실장,김경민,인천항만공사,ESG,경영,실장,공공,기관,혁신,지역,사회,참여,세대,의견,청취,추진,IPA,ESG,경영,혁신,MZ세대,아이디어,아이디어,적극,반영,인천,김민</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1022,7 +1182,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17만,감동,손글씨,작가,폐지,어르신,세상,해님,마음,김자옥,77,가명,생애,정규직,문장,김씨,식당,폐지,평생,김씨,연륜,위로,손글씨,온라인,인기,김씨,크리에이터,소속,신이어마켙,폐지,저소득층,일자리,제공,아립앤위립,사회,기업,아립,위립,소셜브랜드,온라인,커뮤니티,지난달,김씨,작업,소개,6일,조회,17만,취지,할머니,표정,눈물,댓글,업체,주문량,20배,홈페이지,관심,물량,소진,공지,폐지,어르신들,변신,신이어마켙,폐지,어르신,저작권,가능,미술,활동,지원,포장,일자리,제공,운영,상품화,결정,업체,어르신,저작권료,1만,5만,수익금,10%,후원금,형태,서울,강동종합사회복지관,협업,방식,어르신,참여,3개월,교육,기간,3명,프로젝트,참여,김씨,폐지,어르신,어마켙,정규,사원,색연필,김씨,신문물,아이,패드,사용법,건강,운동,토끼,부지런,히트상품,대표,심현보,아립,위립,고령,빈곤,노인,평등,일자리,제공,사례,한국조세재정연구원,65세,고용률,기준,고용,27.7%,공공일자리,제외,추정,대표,소득,노인,기회,임금,안정적,급여,소속감,노인,보장,노인들,폐지,13만,최대,아립앤위립,추산,현실,관심,2030세대,소비,트렌드,가치,소비,결과,해석,대한상공회의소,MZ세대,1980~2000년대,출생,380명,대상,진행,설문조사,응답자,6명,64.5%,ESG,환경,사회,지배구조,실천,기업,제품,구매,의사,신념,대표,소비,가심비,46.6%,가심비,가격,대비,심리,만족,온라인,그림,구매,그림,생각,대표,구매자,소비,어르신들,메시지,공감,고객,이은희,인하대,소비자학,교수,소비,특징,사회,기업,운영,투명,공개,소비자,신뢰,지속적,소비,동력,설명</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1040,7 +1205,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>가상,인간,일자리,만큼,갈등,가상,인간,발전,사회,부작용,증가일자리,갈등,윤리,법적,대표,정부,기업,학계,참여,구축,인공지능,AI,그래픽,딥페이크,발전,가상,인간,고도,속도,인간,얼굴,목소리,가상인간,모델,기업,홍보,활동,출연,앵커,인터뷰,가상인간,인간,경계,발전,가상,인간,자체,소비자,대리인,역할,경제,활동,중심,예측,사회,부작용,목소리,일자리,갈등,외모지상주,고착화,전문가들,가상,인간,발전,부작용,가상인간,인간,일자리,갈등,가상인간,윤리적,가상인간,활용,범죄행위,법적,분류,가상인간,인간,일자리,갈등,실생활,피부,당장,게임사,가상,인간,개발사,가상인간들,기업,제품,홍보,모델,활동,가수,연기자,활동,이병훈,중앙대,사회학,교수,실제,인간,광고,모델,가상인간,역할,가상인간,일자리,가상,인간,발전,일자리,창출,가능,의견,펄스나,그래픽,전문,기업,박지은,대표,가상인간,행동,대역,스타일리스트,가상인간,지원,인력,노래,가수,활동,사람,가상인간,자신,부캐,활동,윤리적,AI기술,활용,얼굴,합성,딥페이크,발전,가상인간,특정인,얼굴,목소리,개인,특징,수준,모사,예상,지배적,세상,고인,가상인간,재현,실존,인물,가상인간,행세,진짜,인간,전창배,국제,인공,지능,윤리협회,IAAE,이사장,실존,인물,고인,가상인간,동의,인격권,초상,침해,가상인간,허위,사실,유포,명예훼손,윤리적,지적,가상인간,외모,지상주의,사회,분위기,비판,실제,가상인간,여성,모습,가상인간,기업들,흥행,겉모습,강조,논란,이은희,인하대,소비자학,교수,기업,브랜드,지향,특성,반영,가상인간,외모,가상인간,비판,가상인간,당사자,범죄,행위,가상인간,범죄,행위,완벽성,수단,이사장,보이스피싱,음성,인간,가상인간,영상통화,접근,피해,가상인간,고도화,보이스피싱,범죄,악용,가능성,반대,가상인간,범죄,피해자,메타버스,공간,캐릭터,대상,성범죄,발생,사례,소비자,자신,대행자,지정,가상인간,범죄,행위,노출,설명,교수,소비자들,가상인간,자신,대행,인격체,가상인간,대상,충격,범죄,피해,실제,범죄,전망,전문가들,가상인간,발전,쓰임새,대책,예방,마련,강조,사회,합의,바탕,가상인간,정체성,개념,활용,범위,주장,이사장,정부,학계,민간,기업,참여,가상,인간,윤리,소비자,피해,최소화,가상,인간,산업,성장,강조,가상인간,링크,주소창,URL,가상인간,고백,Z세대,열광,https://www.hankookilbo.com/News/Read/A2022082310450004138/NUrl,얼굴,표정,1500장,가상인간,Z세대,마음,https://www.hankookilbo.com/News/Read/A2022082520280002989/NUrl,가상,인간,일자리,만큼,갈등,https://www.hankookilbo.com/News/Read/A2022082516050005407/NUrl</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1058,7 +1228,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>손흥민,머리,초등,학년,체육교과,교육부,초등학생,1위,직업,선호도,운동선수,3년,추세,부동,1위,손흥민,김연아,미디어,전달,스포츠,스타,영향력,조사,진실,활력,아이들,감지,아이들,체육시간,학부모,교사,방증,평생운동,기본,5~7살,한국,초등학생,기본움직임기술,Fundamental,Movement,Skills,기회,손흥민,아버지,초등학교,학년,제도적,손흥민,머리,1~2학년,현행,초등학교,학년,개정,교육,체육,음악,미술,통합,교과,수업,교과명,생활,교육부,관계자,아이들,통합,사고,부족,직관적,보완,교과,통합,창의성,가치,창출,체육,음악,미술,교육부,통합,교과,이론,제공,한국통합교육과정학회,이메일,질의서,학회,답변,거부,통합교육과정학회,주장,마련,현장,교과,결정,담임선생,광범위,조사,통합교과,운영,통합교육,현장,목소리,통합,교과,체제,선택,결과,교사,설문,관점,해석,현장,실제,학교,통합교,체육,모습,빈약,대한체육회,주최,학교체육진흥포럼,교사,초등학교,체육,전담,학년,통합,교과,아이들,운동장,통합교과,취지,교사,노래,수업,결합,프로그램,전문성,체계,형식화,얘기,교육부,교육,초등학교,체육,지속적,신체활동,신체,활동,가치,내면화,신체,역량,육성,명시,학년,통합,교과,지속,신체,활동,애초,가치,내면화,건강,도전,경쟁,표현,안전,교육,영역,강화,초등학교,교사,통합교과,여름,가을,겨울,계절,수업,바람,주제,태풍놀이,수업,구성,정도,결국,술래잡기,체육활동,비판,체육,초등학교,학년,아이들,운동,신경,발달,최적기,미국,데이비드,갤러휴,교수,운동,신경,발달,모형,2살,14살,기본움직임기술,FMS,구분,1~2학년,초등학교,학년,6~7살,기본,움직임,성숙,단계,선임연구위원,정현우,한국,스포츠,정책,학원,선임,위원,나중,기억,종목,대근,근육,운동,평생,건강,기초,손해,설명,활성화,여학생,체육,활동,활성,성징,남녀,유치원,초등학교,학년,아이,운동,기회,나중,여학생들,자연,체육활동,참여,강조,초등,학년,체육,통합,교과,영원,진리,정책,통합,교과,국어,초등학교,학년,사회,도덕,생활,수학,자연,슬기,생활,통합,현장,교육,효과,실효성,반발,원상,복구,교과,학년,체육,그동안,지속적,제기,2009년,개편,분리,교육,개편,가닥,막판,사장,교수,조미혜,인하대,통합,현실,실행,요즘,국어,세분화,선진국,한국,초등학교,학년,체육,독립적,운영,아이들,건강,교육,정책,판단,기준,지적,초등,학년,생명,자연,현상,기본움직임기술,엘리트,스타,선수,독점물,아이들,요청,체육,활동,세상,건강,사회</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1076,7 +1251,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>이민자,이웃,5000년,역사,이민,다문화,화두,대한민국,실험대,체류,외국인,시대,다민족,다문화사회,이행,변화,물결,통합,이민법,제정,이민청,설립,이슈들,다양성,인정,공존,사회,통합,단일민족의식,가부장,전통,굴레,탈피,연착륙,이주노동자,후반,이주,노동자,결혼이민자,초반,결혼,이민자,2000년,유학생,동포들,유입,정부,이민,정책,변화,제자리걸음,노무현,대통령,다인종,다문화사회,진전,대세,외국인,이민,정책들,통합,조정,총괄,기구,설치,지시,15년,이민자,선입견,불안,두려움,편견,차별,혐오,뒤범벅,시간대,교수,서광석,인하대,이민다문화정책학,토론토대학,교수,리처드,플로리다,창조계급,창조적,사람들,창조도시,언급,인재,Talent,신기술,Technology,관용,Tolerance,허용,창조,도시,조건,거리문화,장려,분석가들,세계,문화,질서,재확립,창조도시,쇠락,도시,대항,나라,다양성,가치,정책,포용,이민,이민자,이웃,고민,국민,일자리,수요,공급,주민,비교,범죄율,세금,국민,시선,시점,기획,시행,각종,다문화,정책,이주민,재외동포들,직간접,영향,외국인,나라,반대급부,재외,동포,귀국,행정안전부,외국인,주민,2006년,조사,54만,220만,4.3%,총인구,대비,4.3%,충남,인구,전국,기초,자치,단체,지역,외국인,밀집,1만,5%,인구,대비,70여개,이민자,선주민,소통,문화,공존,국가,민족,민족,국적,이방인,취급,것들,간주,민족,대명절,한가위,외모,생각,생각,관용,허용,민족,국가,개념,초월,단일민족의식,탈피,세계시민의식,형성,사회,구성원,승화,세상,다문화사회,형성,교수,서광석,인하대,이민다문화정책학</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,7 +1274,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>성소수자,진료,차별,성소수자,의료,시작,서울의대,성소수자,의료,강의,의대,대상,확대,미국선,성소수자,의료,교육,시작,의료진,집필,참여,성소수자,의료,교수,윤현배,서울대학교,의과,대학,휴먼,의학,서울대,의대,개설,성소수자,의료,강의,긴장,교차,그날,변희수,하사,발견,정신,미국,6년,성소수자,의료,과목,개설,시작,다행,생각,하사,사망,소식,희생,교육,생각,역할,한계,의대,교육,당사자,사회,보수적,의대,교육,성소수자,의료,시작,확대,메시지,수업,성공적,의대,대상,성소수자,건강,의료,선택과목,12명,수강,임상실습,시기상조,학생들,4명,대상,임상실습,수업,학생,확대,1시간,개괄적,수업,의대,전원,수강,선택과목,임상실습,예년,진행,성소수자,의료,교육,확대,성소수자,의료접근권,건강권,한국,프로젝트,레인보우,커넥션,LGB,레즈비언,게이,양성애자,우울,증상,일반인,4.76배,트랜스젠더,우울,증상,6~10배,자살,생각,LGB,9.25배,트랜스젠더,10배,성소수자들,흡연,음주,약물,중독,의료기관,차별,경험,병원,진료,성소수자,의료,사각지대,치료법,의료인,무지,2022년,의대,전국,공식적,수업,성소수자,의료,개설,차별,병원,휴머니스트,문제의식,출간,강의,서울대,의대,강의,정리,성소수자,의료,취지,교수,소속,한국성소수자의료연구회,기획,성소수자,진료,추혜,살림,의원,의사,이은실,순천향대학교,서울병원,교수,황나현,고려대학교,안암병원,교수,LGBTQ,김결희,강동성심병원,센터,성형외과,전문의,필자,의과대,서울,종로구,서울대학교,교수,아내,의사,과거,살림,의원,성소수자,환자,내과,전문의,성소수자,의료,도움,요청,졸업,교수,97학번,교육,성소수자,의료,학생들,10년,20년,의료현장,생각,강의,기획,교수,성소수자,진료,의료인들,도움,요청,공부,한국성소수자의료연구회,의료인,소속,성소수자,우울증,자살사고,일반인,5~10배,성소수자,건강,사각지대,의료인,무지,원인,진료,병원,수도,집중,성소수자,의료,인식,전환,교육,차별,진료실,첫걸음,성소수자,건강,성소수자,혐오,차별,차별금지법,제정,현실,수업,성소수자,의료,개설,어려움,의료인,직업,본질,특성,사명,환자,건강,향상,한국,사회,성소수자들,사실,부인,진료실,성소수자,의료인,성소수자,의료,조치,제공,기본,형성,한국,성소수자,공식,집계,한국,사회,성소수자,커밍아웃,상황,감안,100만,300만,사이,추정,성소수자,의료,제공,병원,여성주의,의료,실천,기치,시작,살림의원,시작,무지개의원,서울시,마포구,무지개,의원,젠더클리닉,순천향대,서울병원,젠더클리닉,고려대,안암병원,강동성심병원,LGBTQ,센터,교수,의료,기관,자체,수도권,집중,병원,성소수자,진료,수도권,집중,병원,트랜스젠더,수술,외국,성소수자들,진료실,모욕,차별,발언,경험,사실,파트너,보호자,정확,정보,획득,성소수자,커뮤니티,중심,정보,수술,외국,합병증,후속,치료,교수,성소수자,의료지식,강조,수련과정,의대,수련,지식,적용,트랜스젠더,자신,성별,외모,유지,지속적,호르몬,치료,환자,일반적,방법,조금,원래,지식,의료행위,성소수자,적용,수술,원래,수술,유방암,유방,성형외과,유방확대술,인식,전환,교육,의료인들,성소수자,의료,진입,생각,미국의과대학협회,확대,성소수자,의료,교육,촉구,권고안,의과대학,하버드,의과,대학,학생,임상실습,개설,의과대학,워싱턴,의과,대학,4년,교육과정,성소수자,의료,교육,개설,성소수자,차별,폭력,거절,예상,내재화,성소수자혐오,소수,스트레스,정신건강,위협,음주,흡연,과체중,비만,가능성,심장질환,위험,의료,기관,방문,건강,악순환,교수,악순환,고리,중요,사람,의료인,혐오,차별,정신,육체,건강,악순환,고리,순간,악순환,성소수자,의료,개선,하사,트랜지션,의료,수술,성확정,군대,극단,선택,교수,성소수자,개선,사회,인식,제도,개선,의료인들,향상,성소수자,권익,적극,옹호,지지,혐오,차별,건강,정신,생활,가능,진료실,차별,출발,환자,성소수자의료연구회,모토,한국,부족,의료서비스,외국,지역,성소수자,진료,병원,수도권,취지,순천향대,가천대,의대,인하대,의대,시간,짜리,성소수자,개괄,수업,진행,차별,병원,성소수자,개념,용어,기초,지식,성소수자,건강격차,정신건강,트랜스젠더,호르몬치료,수술,성소수자,건강검진,아동,청소년,성소수자,상담,성소수자,건강,의료,구체적,차별,병원,전국,의대,교육,성소수자,의료,확대,성소수자,건강권,확대,마중물,당사자,가족,도움,일반,독자,성소수자,건강,지식</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1112,7 +1297,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>김밥,외식물가,30년,최고,상승,김밥,김밥,시대,1000원,대표적,서민,메뉴,김밥,이젠,3분,세상,여파,우크라이나,사태,기상,악화,가격,각종,인건비,외식비,상승세,예상,소비,자원,가격,종합,포털,참가격,서울,기준,김밥,평균,가격,3046원,전달,2969원,2.59%,경남지역,가격,김밥,평균,3177원,기록,단무지,시금치,게맛살,김밥,기본재료,가격,풀이,외식,품목,가격,전달,비교,삼겹살,200g,가격,1만,1.7%,가격,김치찌개,백반,1.0%,7500원,조사,냉면,1만,삼계탕,1만,칼국수,8423원,가격,0.5,0.7%,상승,소비자원,국민,일상적,품목,음식,판매가격,지역,평균,판매,가격,고시,1년,비교,품목,가격,상승세,자장면,지난달,1년,15.3%,15.3%,칼국수,12.9%,김밥,11.5%,10%,냉면,김치찌개,백반,삼겹살,삼계탕,8~9%,가격,냉면,그릇,칼국수,시대,그릇,개막,품목,비빔밥,제외,품목,1년,앞자리,메뉴판,가격,통계청,조사,외식물가,천정부지,상승률,외식,물가,상승,8.8%,8.8%,30년,최고치,기록,8%대,연속,기록,8%,최장,기간,통계청,조사,외식,품목,가격,대비,전년,동월,프랜차이즈,음식점들,인상,식재료,가격,메뉴,가격,인상,영향,2월,가격,평균,2.8%,한국맥도날드,지난달,메뉴,가격,인상,평균,4.8%,도미노피자,지난달,피자,가격,일괄,인상,정부,정점론,물가,정점,급등,외식,가격,소비자,체감,물가,부담,전망,외식,가격,농축수산물,하방,경직,러시아,우크라이나,침공,사태,장기,원화,가치,하락,식자재,연료비,가격,인건비,부담,정권,최저임금,인력난,업무,외식업,근무,내국인,감염증,신종,코로나바이러스,코로나19,외국인,근로자,입국,지연,외식,산업,부족,근로자,상반기,5만,상반기,이은희,인하대,소비자학,교수,국제,원재료,가격,상승세,원화,가치,하락,진정,압박,외식,물가,상승,예상,교수,소비자,부담,자영업자,입장,고정비용,손님,가격,걱정,코로나19,인플레이션,경기,침체,동시,외식업계,위기감</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1130,7 +1320,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>인천시,추석,연휴,시간,응급,진료,체계,가동,인천시,기간,추석,연휴,의료,공백,최소,응급진료상황실,운영,시간,응급,진료,체계,가동,7일,추석,연휴,기간,가천대길병원,인하대학교병원,응급,의료,기관,응급실,시간,운영,응급,진료,상황실,운영,재난,발생,비상상황,대비,상황,응급,의료,기관,운영,점검,관리,의원,당직의료기관,499곳,약국,휴일지킴,약국,382곳,응급의료기관,운영,의료공백,시민,불편,해결,예정,보건소,보건지소,보건진료소,공공의료기관,이용,운영,추석,연휴,기간,의원,약국,변동,별도,확인,9일,의원,156곳,약국,운영,추석,당일,10일,의원,46곳,약국,운영,의원,약국,수도,의원,약국,위치,정보,보건,복지,센터,종합,상황실,콜센터,보건복지부,홈페이지,스마트폰,애플리케이션,응급의료정보제공,e-gen,확인,김석철,건강보건국장,김석철,건강,보건국장,의료공백,추석,연휴,기간,의료,공백,시민,불편,발생,응급진료상황실,운영,가동,시간,응급,진료,체계,만전,인천,김민</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,7 +1343,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>코레일,SR,이해관계,공공성,이용,안전성,전제,박현갑,뉴스아이,철도,개혁,통합,vs,현행,유지,종착역,중복,노선,10%,SRT,요금,10%,불공정론,KTX,적자,일반,철도,축소,SR,정비,논란,위탁,코레일,할인,경쟁,효과,운영,주체,통합,여부,공동승차권,공동,승차권,절실,정부,공공,기관,혁신,기관,중복,통폐합,조정,대상,기획재정부,윤석열,대통령,참석,국무회의,민간,경합,중복,업무,전환,조직,인력,단계적,축소,공공,기관,혁신,방안,공개,공공,기관,평가,설립목적,공공성,기관,운영,효율성,비중,수익,평가,강화,정부,방향,공공,기관,혁신,감안,한국철도공사,코레일,에스알,SR,통폐합,대상,코레일,SR,코레일,SR,고속철도,여객,수송,서울역,수서역,종착역,운영노선,경부선,호남선,천안아산역,부산,목포,선로,이용,속도,차이,차이점,코레일,고속철도,운행,SR,새마을호,무궁화호,일반열차,화물열차,운행,수도,전철도,코레일,일반열차,공공,차원,이용자,운행,수익성,악화,요인,사정,코레일,공기업,평가,대상,유일,등급,미흡,코레일,출자,에스알,보통,평가,코레일,주무,부처,국토교통부,기획재정부,경영개선계획,제출,이행,상황,점검,문재인,정부,시절,임명,기관장,경고조치,기재부,관계자,기관,통폐합,여부,검토,사항,주무부처,통폐합,이견,협의,철도,혁신,역대,정부,관심사,외환위기,국제통화기금,IMF,권고,김대중,정부,철도운영,민영화,추진,노무현,정부,철회,시설,한국철도시설공단,운영,한국철도공사,이원화,이명박,정부,수서고속철,민영화,시도,반발,박근혜,정부,민영화,SR,설립,문재인,정부,철도,공공,강화,코레일,SR,통합,추진,SR,반발,강릉선,KTX,탈선,사고,통합,논의,철도,공공,강화,운영,효율성,강조,통합론,서비스,차별,경쟁력,강화,주장,분리,운영,상황,모래주머니,공정,경쟁,코레일,통합,당위성,지역,차별,해소,주장,SR,운영,고속철도,SRT,정부,정책,코레일,고속철도,KTX,요금,10%,책정,서울,강남,수도,남부,지역민,KTX,이용객,요금,고속철,이용,전라선,경전선,동해선,지역,거주,600만,국민들,수서역,고속철,운행,요구,국민청원,정도,청와대,국민,청원,KTX,수서,청원,20만,동의,철도산업,종사,관계자,SR,코레일,요금,승객,유치,코레일,KTX,수익,일반,철도,적자,상황,모래주머니,양발,신발,날쌘돌이,경쟁,현행,체제,지속,코레일,일반,열차,운행,고속,철도,승객,유지,철도,공공,약화,초래,KTX,SRT,일반열차,SRT,구매,이용자,불편,통합,사유,거론,적자,부담,코레일,SR,출범,2014년,2016년,1000억,정도,영업흑자,SRT,운행,시작,2017년,최소,2018년,2114억,최대,2020년,영업적자,SR,2017년,2019년,최소,2019년,최대,2018년,영업흑자,수서발,고속,철도,황금노선,기관,2년,코로나,여파,적자,상황,SR,차량,정비,운영,시설,유지,보수,필수,업무,코레일,위탁,경쟁,효과,수행,동일,업무,비효율,지적,대한산업공학회,한국경영과학회,공동주최,학술대회,김병조,서울대,행정,대학원,교수,연간,중복비용,발생,교수,김태승,인하대,용역,결과,토대,고속,철도,분리,장점,단점,통합,경영혁신,주문,SR,필요해,메기,역할,분리체제,현행,분리,체제,옹호,목소리,SRT,개통,고객,서비스,미온적,코레일,SR,마일리지,할인제,경쟁,효과,체제,코레일,독점,SR,부실,한국교통연구원,최진석,박사,SR,메기,강조,코레일,경영,개선,이익,SR,운영,눈독,통폐합,논의,코레일,체질,개선,윤석열,정부,방향,고속,철도,개혁,연말,전망,국토부,의뢰,철도,구조,개혁,연구용역,진행,한국교통연구원,이호,철도교통,본부장,코레일,SR,5월,마련,용역,초안,정기적,회의,양쪽,의견,연말,최종안,확정,보고,예정,운영사,이해관계,이용자,입장,공공성,이용,안전,방안,고속,철도,개통,일반열차,비행기,이용,장거리,이동,국민들,고속철도,대중교통수단,강남,주민,특정,지역,할인,혜택,공정,KTX요금,인하,SR,무궁화호,열차,기차,운행,벽지,일반,열차,운행,여부,운영사,통합,이용자들,KTX,SRT,고속열차,취소,수수료,부담,환승,공동승차권이용시스템,대안,강구,간격,열차,운행,대형,참사,열차,운행,안전,강화,고속열차,관제시스템,최소,운행,시차,운행,코레일,SR,운행시간,차이,KTX,SRT,열차,운행,KTX,SRT,서울,수서,부산,운행시간,하행선,운행,시간,확인,결과,대전역,6시,10시,차이,SRT,8대,KTX,열차,도착,안전,편성,기관,관리,위험,운행,스케,코레일,통합관제센터,역사,로컬,관제,센터,열차,기관사,무선통신,열차,운행,비상상황,발생,기관사,운전실,열차,방호,장치,스위치,반경,2~4,KTX기관사,비상조치,경고,안전,대구역,발생,열차,추돌,사고,무용지물,기관사,서울행,무궁화호,열차,관제사,정지신호,열차,출발,대구역,무정차,통과,열차,서울행,KTX,충돌,탈선,사고,대구역,관제원,신호기,부산행,장내,정지신호,대구역,진입,열차,부산행,KTX,충돌,사고,간격,사고,관제사,통제,사고원인,방향,무궁화,KTX,열차,운행,간격,5분,차이,사고,매뉴얼,현실</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1166,7 +1366,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>고물가,중고마켓,추석선물,선물,명절테크,유행,시세,40%가량,가격,거래,상품,쇼핑백,구색,홍삼,참치,가공햄,종류,MZ세대,합리,선택,포장,스티커,손상,전용,쇼핑백,서울,동작구,온라인,중고,마켓,판매,세트,선물,참치캔,2만,추석,지인들,선물세트,구입,선물,세트,가격,20%,부담,마트,4만,40%,구입,선물,중고,플랫폼,구입,표정,고물가,중고마켓,2030세대,중심,온라인,중고,마켓,추석,선물,구매,물가,상승,가격,추석,선물,층들,중고장터,서울,마포구,직장,중고마켓,홍삼,선물,세트,구매,3년,취업,백화점,친척,선물,물가,생활비,지출,고민,백화점,쇼핑백,구입,설명,애플리케이션,중고,거래,선물,구입,상품,5만,절약,회사,선물,명절,테크,유행,중고마켓,추석,선물,세트,명절,선물,혼자,직장인,회사,지인,추석,선물,세트,개봉,중고,거래,명절,테크,유행,추석,연휴,사흘,6일,플랫폼,중고,거래,상품,선물,소개,서울,중랑구,69개,판매글,추석,선물,세트,판매,가공햄,견과,식품,세트,치약,샴푸,종류,추석,선물,세트,종류,상품,가구,명절,회사,카놀,라유,세트,중고,거래,현금화,추석,선물,세트,플랫폼,중고,거래,회원,가공햄,세트,플랫폼,매입,추석,스팸대전,이벤트,일각,추석,선물,중고,거래,사람,성의,무시,지적,이은희,인하대,소비자학,교수,MZ세대,밀레니엄,Z세대,중고,거래,시대,요령,가성비,실용성,중시,MZ세대,물건,제품,중고,구입,선택,합리,설명</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1184,7 +1389,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>학생부종합전형,자기소개,폐지,면접,배수,필승전략,대입수,필승,전략,인하참,인재,전형,서류,평가,100%,전형,학교장,추천,인원,제한,폐지,논술전형,논술,70%,교과,30%,인하대,학년도,수시,모집,3873명,모집,인원,2631명,67.9%,선발,변화,학생부종합전형,자기소개서,폐지,면접배수,3배수,3.5배수,학생부,종합,인하,미래,인재,전형,905명,선발,면접,단계,전형,서류,종합,평가,100%,,결과,서류,평가,결과,70%,,면접,평가,30%,반영,전형,학생부,종합,인하참,인재,298명,선발,예정,서류,종합,평가,100%,인하미래인재,전형,진로탐구역량,45%,반영,인하참,인재,전형,기초학업역량,45%,반영,지역,균형,전형,학생부교과전형,교과,100%,선발,수능최저학력기준,적용,전형,학교장,추천,운영,제한,고교,추천,인원,폐지,학교장,추천,지원,가능,진로선택과목,반영,성취도,등급,변환,과목,상위,반영,논술전형,논술,70%,교과,30%,일괄,합산,방식,469명,선발,논술문항,자연,계열,수학,논술,문항,난도,과년도,소폭,염두,정시,자유전공학부,신설,70명,모집,대학,자유전,공학부,선택권,진입,전공,선택,완전,보장,의과대,사범대,제외,파격적,학사제도,사항,홈페이지,인하대,입학처,확인,인하대,선정,교육부,일반,재정,지원,대학,시작,SW중심대학,AI융합혁신대학원,미래우주교육센터,부처,협업,인재,양성,사업,링크,LINC,3.0사업,수주,정부,사업,1800억,연구비,확보,미래,인재,양성,고도화,추진</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1202,7 +1412,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>학생부교과,수능최저기준,주목,논술,기출유형,파악,대비,필승전략,대입수,필승,전략,대학,수학,능력,시험,수능,모의평가,17일,접수,학년도,대학,입시,수시,모집,원서,통합,수능,영향,전년도,인문,계열,학생,수시,안정적,지원,패턴,자연,계열,학생,공격적,지원,패턴,수시,지원,중요,전형,특징,이해,결정,지원,여부,전략,수립,효과적,지원,전형,특징,학생부교과전형,계산,대학,점수,교과전형,대학,교과,100%,반영,선발,교과,100%,반영,반영,방법,반영,과목,여부,지원,가능,대학,환산,방법,자신,점수,계산,지원,여부,판단,일반적,인문계열,국어,수학,영어,사회,과목,자연계열,국어,수학,영어,과학,과목,반영,가천대,덕성여대,동국대,명지대,서울여대,한국항공대,과목,반영,대학들,주의,교과,100%,정량,평가,가천대,지역,균형,전형,명지대,교과,면접,전형,연세대,추천,전형,이화여대,고교,추천,전형,면접,반영,선발,건국대,KU,지역,균형,학생부,70%,서류,30%,경희대,지역,균형,교과,출결,봉사,70%,교과종합평가,30%,고려대,학교,추천,교과,80%,서류,20%,동국대,학교장,추천,인재,교과,70%,서류,30%,성균관대,학교장,추천,교과정량평가,80%,교과정성,평가,20%,교과,서류,정성평가,교과전형,수능,최저,학력,기준,당락,영향,수능,최저,학력,기준,적용,유무,기준,변화,교과전형,수능,최저,적용,광운대,덕성여대,명지대,한양대,일반적,성적대,대학,입시,결과,형성,건국대,중앙대,안성,캠퍼스,수능,최저,폐지,한국외국어대,글로벌,캠퍼스,수능,최저,신설,고려대,성균관대,수능,최저,기준,변화,학생부종합전형,누락,학생부종합전형,제출,서류,자기소개서,요구,대학,학생부종합전형,기본,중요,자료,학교생활기록부,성적,물론,수상,경력,자율,동아리,진로,봉사활동,독서활동,종합의견,교내,활동,종합,평가,본인,활동,누락,활동,학기별,체크,희망,대학,인재상,역량,모집,단위,요구,확인,본인,준비,정도,점검,학생부종합전형,단계,전형,1단계,일정,배수,서류,선발,2단계,서류,면접,선발,일반적,단국대,DKU,인재,덕성여대,덕성,인재,명지대,명지인재,서류,서강대,종합,일반,서울시립대,학생부,종합,서류형,서울여대,바롬,인재,서류,성균관대,계열,모집,학과모집,성신여대,학교생활,우수자,세종대,창의,인재,서류,숙명여대,숙명,인재,서류형,아주대,다산,인재,이화여대,미래,인재,인하대,인하참,인재,중앙대,탐구,인재,한국외국어대,학생부,종합,서류형,한양대,종합,일반,홍익대,학교생활,우수자,서류,학생부,전형,고려대,학업,우수,서울대,지역,균형,연세대,활동,우수,이화여대,미래,인재,홍익대,학교생활,우수자,전형,수능,최저,적용,참고,지원,전략,수립,학생부종합전형,교과전형,전년도,입시,결과,결정,지원,여부,전략수립,논술전형,기출문제,논술전형,대학,대학,전년도,동일,인원,선발,1만,53명,전년,대비,교과전형,구분,논술고사,서경대,220명,포함,전년도,모집,인원,증가,홍익대,세종,캠퍼스,논술전형,신설,가톨릭대,약학과,5명,성균관대,의예과,5명,논술전형,신입생,선발,논술전형,논술,고사,점수,교과,성적,반영,점수,교과,반영,기본,부여,등급,등급,점수,차이,실질적,반영,비율,건국대,연세대,한국항공대,논술전형,논술,성적,신입생,선발,덕성여대,성균관대,논술,100%,신입생,선발,비교과,활용,반영,출결,봉사,적용,만점,조건,실질적,영향력,한양대,예외적,논술평가,학생부,종합,평가,반영,기억,논술전형,지원,대학,기출문제,모의논술,논술,유형,건국대,자연,논술,과학논술,폐지,수학,문항,4문항,5문항,변경,성균관대,자연계열,과학,과목,폐지,경희대,약학,수리논술,과학논술,추가,논술고사,시행,일정,중요,일반적,논술,수능,전후,시행,일정,지원율,차이,수능,시행,대학,일정,중복,입시전략연구소장,우연철,진학사,입시,전략,소장</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,7 +1435,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>추석,선물,세트,물가,중고,거래,성행,포장,스티커,손상,전용,쇼핑백,서울,동작구,온라인,중고,마켓,판매,세트,선물,참치캔,2만,추석,지인들,선물세트,구입,선물,세트,가격,20%,부담,마트,4만,40%,구입,선물,중고,플랫폼,구입,9만,가량,표정,고물가,중고마켓,2030세대,중심,온라인,중고,마켓,추석,선물,구매,물가,상승,가격,추석,선물,층들,중고장터,서울,마포구,직장,중고마켓,홍삼,선물,세트,구매,3년,취업,백화점,친척,선물,물가,생활비,지출,고민,백화점,쇼핑백,구입,설명,중고,거래,애플리케이션,선물,구입,상품,2만,상품,5만,절약,회사,선물,명절,테크,유행,중고마켓,추석,선물,세트,명절,선물,혼자,직장인,회사,지인,추석,선물,세트,개봉,중고거래,명절,테크,유행,추석연휴,사흘,6일,중고,거래,플랫폼,상품,선물,소개,서울,중랑구,69개,판매글,추석,선물,세트,판매,가공햄,견과,식품,세트,치약,샴푸,종류,추석,선물,세트,종류,상품,가구,명절,회사,카놀,라유,세트,중고거래,현금화,추석,선물,세트,중고,거래,플랫폼,회원,가공햄,세트,플랫폼,매입,추석,스팸대전,이벤트,일각,추석,선물,중고,거래,사람,성의,무시,지적,이은희,인하대,소비자학,교수,MZ세대,밀레니엄,Z세대,중고거래,시대,요령,가성비,실용성,중시,MZ세대,물건,제품,중고,구입,선택,합리,설명</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1458,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>간격,고속철,운행,위험,질주,박현갑,뉴스아이,철도,구조,개혁,통합,vs,분리,팽팽,이용자,안전,공공성,개혁,정부,공공,기관,혁신,기관,중복,통폐합,조정,대상,기획재정부,윤석열,대통령,참석,국무회의,민간,경합,중복,업무,전환,조직,인력,단계적,축소,공공,기관,혁신,방안,공개,공공,기관,평가,설립목적,공공성,기관,운영,효율성,비중,수익,평가,강화,정부,방향,공공,기관,혁신,감안,한국철도공사,코레일,에스알,SR,통폐합,대상,코레일,SR,코레일,SR,고속철도,여객,수송,서울역,수서역,종착역,운영노선,경부선,호남선,천안아산역,부산,목포,선로,이용,속도,차이,차이점,코레일,고속철도,운행,SR,새마을호,무궁화호,일반열차,화물열차,운행,수도,전철도,코레일,일반열차,공공,차원,이용자,운행,수익성,악화,요인,사정,코레일,공기업,평가,대상,유일,등급,미흡,코레일,출자,에스알,보통,평가,코레일,주무,부처,국토교통부,기획재정부,경영개선계획,제출,이행,상황,점검,문재인,정부,시절,임명,기관장,경고조치,기재부,관계자,기관,통폐합,여부,검토,사항,주무부처,통폐합,이견,협의,철도,혁신,역대,정부,관심사,외환위기,국제통화기금,IMF,권고,김대중,정부,철도운영,민영화,추진,노무현,정부,철회,시설,한국철도시설공단,운영,한국철도공사,이원화,이명박,정부,수서고속철,민영화,시도,반발,박근혜,정부,민영화,SR,설립,문재인,정부,철도,공공,강화,코레일,SR,통합,추진,SR,반발,강릉선,KTX,탈선,사고,통합,논의,철도,공공,강화,운영,효율성,강조,통합론,서비스,차별,경쟁력,강화,주장,분리,운영,상황,모래주머니,공정,경쟁,코레일,통합,당위성,지역,차별,해소,주장,SR,운영,고속철도,SRT,정부,정책,코레일,고속철도,KTX,요금,10%,책정,서울,강남,수도,남부,지역민,KTX,이용객,요금,고속철,이용,전라선,경전선,동해선,지역,거주,600만,국민들,수서역,고속철,운행,요구,국민청원,정도,청와대,국민,청원,KTX,수서,청원,20만,동의,철도산업,종사,관계자,SR,코레일,요금,승객,유치,코레일,KTX,수익,일반,철도,적자,상황,모래주머니,양발,신발신,날쌘돌이,경쟁,현행,체제,지속,코레일,일반,열차,운행,고속,철도,승객,유지,철도,공공,약화,초래,KTX,SRT,일반열차,SRT,구매,이용자,불편,통합,사유,거론,적자,부담,코레일,SR,출범,2014년,2016년,1000억,정도,영업흑자,SRT,운행,시작,2017년,최소,2018년,최대,2021년,영업적자,SR,2017년,2019년,최소,2019년,최대,2018년,영업흑자,수서발,고속,철도,황금노선,기관,2년,코로나,여파,적자,상황,SR,차량,정비,운영,시설,유지,보수,필수,업무,코레일,위탁,경쟁,효과,수행,동일,업무,비효율,지적,대한산업공학회,한국경영과학회,공동주최,학술대회,김병조,서울대,행정,대학원,교수,연간,중복비용,발생,교수,김태승,인하대,용역,결과,토대,고속,철도,분리,장점,단점,통합,경영혁신,주문,SR,필요해,메기,역할,분리체제,현행,분리,체제,옹호,목소리,SRT,개통,고객,서비스,미온적,코레일,SR,마일리지,할인제,경쟁,효과,체제,코레일,독점,SR,부실,한국교통연구원,최진석,박사,SR,메기,강조,코레일,경영,개선,이익,SR,운영,눈독,통폐합,논의,코레일,체질,개선,윤석열,정부,방향,고속,철도,개혁,연말,전망,국토부,의뢰,철도,구조,개혁,연구용역,진행,한국교통연구원,이호,철도교통,본부장,코레일,SR,5월,마련,용역,초안,정기적,회의,양쪽,의견,연말,최종안,확정,보고,예정,공공,강화,안전,확보,대전제,운영사,이해관계,이용자,입장,공공성,이용,안전,방안,고속,철도,개통,일반열차,비행기,이용,장거리,이동,국민들,고속철도,대중교통수단,강남,주민,특정,지역,할인,혜택,공정,KTX요금,인하,SR,무궁화호,열차,운행,벽지,일반,열차,운행,여부,운영사,통합,이용자들,KTX,SRT,고속열차,취소,수수료,부담,환승,공동승차권이용시스템,대안,강구,간격,열차,운행,대형,참사,열차,운행,안전,강화,고속열차,관제시스템,최소,운행,시차,운행,코레일,SR,운행시간,차이,KTX,SRT,열차,운행,KTX,SRT,서울,수서,부산,운행시간,하행선,운행,시간,확인,결과,대전역,6시,10시,차이,SRT,8대,KTX,열차,도착,안전,편성,기관,관리,위험,운행,스케,코레일,통합관제센터,역사,로컬,관제,센터,열차,기관사,무선통신,열차,운행,비상상황,발생,기관사,운전실,열차,방호,장치,스위치,반경,2~4,KTX기관사,비상조치,경고,안전,대구역,발생,열차,추돌,사고,무용지물,기관사,서울행,무궁화호,열차,관제사,정지신호,열차,출발,대구역,무정차,통과,열차,서울행,KTX,충돌,탈선,사고,대구역,관제원,신호기,부산행,장내,정지신호,대구역,진입,열차,부산행,KTX,충돌,사고,간격,사고,관제사,통제,사고원인,방향,무궁화,KTX,열차,운행,간격,5분,차이,사고,매뉴얼,현실</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1256,7 +1481,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>양국,합의,법적,구속력,외교,신뢰,최소화,정치,판단,최소,이석우,국제법,포럼,천동설,지동설,나라,사드,不1,저지,중국,결과,정부때,추가,배치,불가,피력,중국,약속,고집,의미,정부,안보,주권,운영,정상화,전형적,안보,딜레마,구속력,전제,외교,신사,협정,특정,정권,대외,결정,비난,말고,계승,대응,논리,보완,외교,대처,한국,중국,수교,주년,수교,역사적,한국,외교,냉전,극복,계기,중국,한국,최대,수출입,국가,경제협력,교류,불가분,형성,대북,중국,역할,미국,중국,전략,신냉전,한국,정부,대중국,외교,시험대,사드,고도미사일방어체계,3불,사드,불가,추가,배치,불참,미국,미사일,방어,체계,불가,군사,동맹,1한,사드,운용,제한,한국,정권,교체,혼란,초래,일반적,사드,1한,문재인,정부,2017년,권리,사드,운용,제약,의혹,발생,사드,배치,중국,반발,한중,악화,한한령,限韓令,한류,제한,지속,기업,피해,문재인,정부,해결,중국,입장,질의,국회,강경화,외교,장관,배치,사드,추가,참여,미국,미사일,방어,체계,군사동맹,한미,군사,동맹,계획,중국,한국,3불,약속,주장,존재,문재인,정부,표명,사드,제한,사드,운용,의미,1한,중국,정부,공식,거론,쟁점,확대,장관,박진,외교,왕이,王毅,국무위원,외교부장,중국,외교,국무,위원,외교,부장,중국,칭다오,개최,외교,장관,회담,사드,각자,입장,개진,중국,외교,한국,3불,선서,宣誓,표현,홈페이지,게재,뉘앙스,선시,宣示,중국,정부,사드,한국,대외,약속,표현,법적,의미,부여,이해,대변인,한국,외교,정례,브리핑,한국,3불,정책,공식적,선시,중국,주장,문재인,정부,지칭,윤석열,정부,사드,북한,미사일,위협,국민,생명,안전,수단,자위,방어,안보,주권,사안,협의,대상,강조,결과적,사실관계,한국,공식,입장,법적,의미,해석,정권,교체,사드,한중,합의,정부,한국,사드,배치,운용,입장,현상,유지,일방적,피력,이해,문재인,정부,입장,표명,중국,보복,지연,내부적,사드,배치,근본,원인,북한,핵문제,북한,유일,우방국,경제,영향력,절대적,중국,북한,비핵화,영향,북한,부담,공유,6자,회담,무력화,북한,위협,동북아시아,안보,핵심,등장,기간,G2,기간,6자,회담,핵심,중국,사실,작용,사드,배치,국제정치학자들,상황,안보,딜레마,전형적,안보,딜레마,국가,안보,군사력,증강,주변국,위협,군사력,증가,도발,기회,작용,역설적,안보,상황,결국,국제법,국제정치,법적,양국,합의,의미,정치,합의,합의,귀결,미국,요구,사드,배치,한국,수락,대응,방법,사실상,중국,보복,대응,사태,발생,주권국가,한국,역량,자주,군사,안보,발생,측면,사드,구속력,합의,전제,외교,합의,신사협정,紳士協定,정확,일반적,구속력,국제,합의,신사협정,공동발표,선언,약정,구속,합의,신사협정,구속력,위반,국가,책임,발생,정치,구속력,각국,행정부,조약,체결,비교,절차적,편리,신속,기밀,유지,구속,합의,신사협정,선호,경향,의회,제도,민주,통제,회피,활용,헌법,재판소,남북기본합의서,1991년,체결,특수,바탕,당국,합의,구속력,신사협정,판단,합의서,한미,소고기,수입,조약,체결,농림,축산,식품부,장관,고시,이행,원자로,건설,사업,아랍에미리트,UAE,군사양해각서,군사,양해,각서,UAE,군부대,파견,포함,헌법,국회,동의,조약,형식,양국,국방부,양해,각서,체결,논란,박근혜,정부,위안부,가역,해결,선언,외교장관,한일,외교,장관,발표문,공동,회견,신사협정,신사협정,구속력,외교관계,양해,가능,입장,유지,중요,양해,정권,처리,양국,일종,합의,裏面,합의,정치적,공격,기록,외교,정부,논리,계승,보완,대응,결정,국익,부합,윤석열,정부,문재인,정부,대처,정치적,비난,정권,대응,방법,양국,양해,법적,정치적,의미,파악,중국,주장,대응,논리,계승,보완,외교적,방법,모색,민주주의,정권,교체,마련,외교,정책,단위,정권,외교,근본,상호,신뢰,형성,신사협정,외교,합의,의미,검토,기초,진행,법제화,외교,국제,법률국,정상,연동,외교,합의,유일,해결책,법적,대응,방편,플랜B,사드,근원적,외교상,전략적,포기,요구,사드,배치,수용,갈등,해소,산물,국제,정세,한국,전략적,유지,공간,정권,교체,외교정책,일관성,정권,교체,특정,정권,외교,결정,정권,정치,판단,최소화,판단,사법적,잣대,정권,교체,국제법,형성,대외관계,변형,시도,주의,파기,위안부,합의,공약,문재인,정부,정권,파기,재협상,요구,합의,사항,화해,치유재단,해산,결정,양국,갈등,양국,불씨,사례,반면교사,교수,인하대,법학,전문,대학원</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,7 +1504,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>부고,고숙녀,별세,이정렬,국군대전병원장,삼성서울병원,디지털혁신추진단장,소화기내과,교수,현주,지현씨,모친상,구자용,E1,회장,정준홍,사업,장모상,주안나,이지영씨,시모상,서울아산병원,발인,유금순,별세,배성인,성례,대통령,홍보,수석,성숙,주부,모친상,박춘화,홍인희,이순애,독일내과,원장,시모상,이진수,해수,대표이사,장모상,배동훈,KT과장,기훈,변호사,창훈,솔병원,진료과장,자영,신촌,세브란스병원,의사,서윤,재미,정훈,인하대병원,의사,조모상,백병원,일산,발인</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1292,7 +1527,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>고숙녀,고숙녀,별세,고숙녀,이정렬,국군,대전병원장,풍렬,삼성서울병원,디지털,혁신,추진단장,소화기내과,교수,현주,지현,모친상,구자용,정준홍,회장,사업,장모상,주안,이지영,시모상,이지영,4일,서울아산병원,발인,서창석,별세,서창석,기원,부친상,KOTRA,모스크바무역관,부본부장,장원,한림대,동탄성심병원,내과,과장,강석진,장인상,서울신문,편집국장,4일,삼성서울병원,발인,손영준,별세,손영준,윤은숙,남편상,홍주,씨네,현주,사진,선임,배우,금주,부친상,금주,심재구,장인상,SK,대리점,대표,조현옥,성우,이지숙,시부상,이지숙,4일,서울,세브란스병원,발인,안두규,별세,감천중고,교장,영순,부친상,종창,한양대,교수,종철,이탈리아,카포스카리베네치아</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1310,7 +1550,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>용어,사회,요즘,속도,정보화,디지털화,진행,AI,빅데이터,발전,세상,예상,사람,수학,수학교육,중요성,수학교육,학습,부진아,수학,교육,전문가,오랫동안,고민,수학교육,학술대회,수학,교육,학술,대회,차례,주관,현직,교사,소통,교육현장,이야기,의견,정도,정립,생각,전문가,요즘,생각,설명,지면,부족,가지,지적,용어,사용,자제,원래,용어,개념,고착화,확대,생산,용어,학생들,수학,포기,개념,파생,유행,한국,수○자,변별력,집착,제목,신문기사,기사,나라,시리즈,제1편,기사,수능,킬러,문항,교육과정,선행학습,사교육,유발,시험,변별력,출제,원인,주장,기사,독자,문제들,출제,수○자들,사교육,교육부,상황,수학,교육자,영역,집착,생각,못해,부진아,해결,수학교,사교육,수학부진아들,사람,중요,수학교육,치열,입시,경쟁,경쟁,상황,학생,교과,축소,출제,부진아,사교육,해결,전문가,사례들,사실,언론,막강,영향력,사회단체,주장,치열,경쟁,존재,상황,출제,손해,반복,교육,사교육,학생들,유리,수학교육,목적,자체,훼손,표어,아픔,기쁨,한편,입시,공정,중요,가치,사실,강조,언급,기사,국회,의원실,공개,전국,실태,조사,자신,생각,비율,초등학교,11.6%,22.6%,중학교,22.6%,32.3%,고등학교,32.3%,급증,학생들,예전,단체,통계,사람들,자살률,걱정,일반인들,대상,인생,포기,설문조사,학생들,수학,포기,악화,수학,본질적,과목,수학,가지,수학,년간,발전,고등학생들,천재,수학자,학교,수학,개념,기호들,수학자,세월,것들,학생들,자연,습득,세상,수학,생활주변,자연현상,계산,원리,설명,세상,수학,교육,사공,교육,근본,한마디,사공,사람들,교육,저마다,의견,교육전문가들,자리,올여름,예정,국가교육위원회,출범,위원회,전문가들,구성,국가,교육정책,기원,송용진,인하대,수학,교수</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1328,7 +1573,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>역사,정립,계승,한국효도회,연사문화특별위원회,개천,단기,대강당,서울,국회,의원,회관,역사,문화,국민,포럼,개최,한국효도회,주최,국민,정책위원회,Y랭스필드,공동,후원,포럼,시민사회수석,강승규,대통령실,시민,사회,수석,장관,권영세,통일부,박찬종,의원,주호영,국민,비상대책위원장,내외빈,참석,양정무,역사,문화,특별,위원장,개회사,개천절,역사,정립,전승,발전,현시대인,천명,사명,정신,홍익인간,재세이,의지,정치,이념,지역,계층,갈등,해소,세계,인류,평화,포럼,한국무용가,이귀선,한국,무용가,한국,부활,한국,제목,개천무,시작,진행,행사,원장,심백강,민족,문화,연구원,고조선,홍익사상,자본주의,사회,사무총장,박창보,배달겨레,역사,재단,역사,교수,복기대,인하대,고조선,이해,소장,이덕일,한가람,역사,문화,연구소,단군조선,주제,강연,개최,낭독,개천절,선언문,만세,삼창,이날,포럼</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1346,7 +1596,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>대입,내비게이션,특집,수시,폐지,학종,자소서,면접,3.5,인하참,인재,전형,100%,서류,종합,평가,인하대학교,학년도,수시,모집,3873명,모집,인원,2631명,67.9%,선발,인하대,수시,전형,변화,학생부종합전형,자기소개서,폐지,면접배수,3배수,3.5배수,학생부,종합,인하,미래,인재,전형,905명,선발,면접,단계,전형,서류,종합,평가,100%,,결과,서류,평가,결과,70%,,면접,평가,30%,반영,학생부,종합,인하참,인재,전형,298명,예정,서류,종합,평가,100%,인하미래인재전형,진로탐구역량,45%,반영,인하참인재전형,기초학업역량,45%,적용,지역,균형,전형,학생부교과전형,교과,100%,수능,최저,학력,기준,적용,전형,학교장,추천,운영,고교,추천,인원,제한,폐지,학교장,추천,지원,진로선택과목,반영,성취도,등급,변환,과목,상위,적용,논술전형,논술,고사,70%,교과,30%,일괄,합산,방식,모집,인원,469명,자연,계열,수학,논술,문항,난이도,연도,소폭,염두,입학처장,전태준,인하대,입학,처장,정시,자유전공학부,신설,70명,모집,대학,자유전공학부,진학,전공,보장,의과대,사범대,제외,파격적,학사제도,소개,사항,홈페이지,인하대,입학처,https,admission.inha.ac.kr,확인,인하대,창의,융복합인재,양성,학사제도,운영,다중전공,의무화,복수,부전공,학생설계전공,연계전공,융합전공,학생들,전공,선택,확대,방학,기간,수강,마이크로전공,재학생,인기,2021학년도,소프트웨어융합대학,인공지능공학,데이터사이언스학과,스마트모빌리티공학과,디자인테크놀로지학과,컴퓨터공학과,신입생,학과,신입,선발,신입학,장학금,확대,지급,인하대,인재양성,연구분야,정부지원사업,다수,선정,대학,경쟁력,인하대,선정,교육부,일반,재정,지원,대학,시작,SW중심대학,AI융합혁신대학원,미래우주교육센터,부처,협업,인재,양성,사업,링크,LINC,3.0사업,정부,사업,수주,1800억,연구비,확보,미래,인재,양성,고도화,추진,송도국제도시,항공,우주,융합,캠퍼스,운영,재학생,교육,현장,맞춤,산학,융합,R&amp;D,프로그램,참여,지원,김포시,협약,김포메디컬캠퍼스,조성,대학,병원,박차,인하대병원,그동안,인천,의료,서비스,향상,각종,전국,단위,평가,수준,달성</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1364,7 +1619,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>해외생산,상품,수지,흑자,경상수지,적자,기업들,해외생산,확대,중계,무역,순수출,규모,사상,최대,기록,과거,한국,산업,생산,구조,경상수지,흑자,유지,배경,한국은행,산업통상자원부,중계,무역,순수출,25억,전년,대비,달러,221억,달러,기록,119억,상반기,기준,달러,기록,추세,유지,기록,연속,역대,최대,경신,중계무역,해외,현지,법인,현지,원자재,조달,상품,반입,현지,제3국,무역형태,한국,기업,해외,생산,수출,의미,보호무역주의,비용,절감,기업,진출,그간,해외,영향,풀이,무역수지,수출액,수입액,수치,적자,경상수지,흑자,유지,배경,6월,경상수지,흑자,달러,기록,경상수지,무역수지,성격,상품수지,배당,임금,포함,본원소득수지,여행,운송,서비스수지,개념,경상수지,통계,포함,상품수지,6월,200억,달러,흑자,유지,상품수지,상품,수출입,무역수지,성격,통계,주체,방식,차이,상품수지,한은,집계,거래,상품,수출입,거래,대금,소유권,초점,중계,무역,순수출,상품수지,무역,기준,관세청,통관,물품,한국,국경,수출,수입,중계,무역,순수출,포함,한국,국경,중계,무역,순수출,상품,수지,흑자,차지,비중,10.7%,29.0%,상반기,59.6%,수출입,구멍,기업,해외,생산,판매,중계무역,수출입,원화,가치,하락,수입,원자재,가격,상승,영향,호황,조선업,수주,상품,수지,흑자,뒷받침,계약,중도금,무역수지,선박,완공,해외,수출액,집계,시차,해외,주식,투자,배당,소득,포함,본원소득수지,경상수지,흑자,기여,서학,개미,주식,만큼,해외,펀드,투자,정부,무역,수지,적자,경상수지,흑자,유지,예상,한국,1998년,행진,연속,경상수지,흑자,전망,내년,장담,무역,수지,적자,경상수지,타격,장관,추경호,경제,부총리,기획,재정부,이날,국제에너지,가격,상승,중국,둔화,글로벌,수요,무역수지,악화,경상수지,흑자,축소,가능,정인교,인하대,국제통상학,교수,경상수지,흑자,유지,내년,장담,중국,경기,둔화,가능,미국,정부,전기차,반도체,투자,확대,영향,수출,경기,내년,경상수지,적자,전환,가능성,전망</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1382,7 +1642,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9월,궂긴소식,김동준,별세,신환,인환애경,윤경,민경,진경,부친,권호영,구영모,울산의대,교수,장인,시부,미경,김선아,4일,은평성모병원,발인,9시,유금순,별세,배성,성례,대통령,홍보,수석,성숙,모친,이순애,박춘화,홍인희,독일내과,원장,시모,이진수,해수,대표이사,장모,배동훈,KT,과장,기훈,변호사,창훈,솔병원,진료과장,자영,연세대세브란스병원,의사,서윤,미국,거주,정훈,인하대병원,의사,조모,4일,6시,일산,백병원,발인,7시,강춘옥,별세,황창선,경찰청,치안상황관리관,장모,4일,6시,고려대,안암병원,5시,발인,고숙녀,별세,이정렬,국군대전병원장,삼성서울병원,디지털,혁신,추진단장,소화기내과,교수,모친,현주,지현,구자용,E1,대표이사,LS네트웍스,회장,정준홍,사업,장모,시모,주안나,이지영,4일,서울아산병원,정오,발인,황호용,별세,동규,현주,명주,삼성전자,부장,네트워크,사업부,글로벌,CS,순주,부친,오창호,장용수,최영호,부산,대망교회,목사,장인,박방자,동아대병원,근무,시부,4일,9시,부산,동아대병원,발인,7시,서창석,별세,기원,부본부장,KOTRA,모스크바무역관,장원,한림대동탄성심병원,내과과장,부친,강석진,장인,4일,삼성서울병원,발인</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1400,7 +1665,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>구자용,E1,회장,장모상,고숙녀,별세,이정렬,국군대전병원장,삼성서울병원,디지털,혁신,추진단장,모친상,현주,지현,주안,이지영,시모,구자용,E1,회장,정준홍,사업,장모상,4일,서울아산병원,발인,30분,김동준,별세,애경,윤경,민경,진경,신환,인환,부친상,전미경,김선아,시부상,권호영,구영모,울산의대,교수,장인상,4일,오전9시,은평성모병원,발인,30분,황호용,별세,현주,명주,동규,삼성전자,네트워크,사업부,Global,CS,부장,순주,부친상,박방자,최영호,오창호,부산,대망교회,목사,장인상,4일,오후9시,23분,동아대병원,발인,30분,서창석,별세,기원,KOTRA,모스크바,무역관,부본부장,장원,한림대,동탄성심병원,내과,과장,부친상,강석진씨,장인상,4일,오전7시,삼성서울병원,발인,30분,유금순,별세,배성,성례,대통령,홍보,수석,성숙,모친상,동훈,KT,과장,기훈,변호사,창훈,솔병원,진료과장,자영,신촌세브란스,의사,서윤,재미,정훈,인하대병원,의사,조모상,박춘화,홍인희,이순애,독일내과,원장,시모상,이진수,해수,대표,장모상,4일,오전7시,일산백병원,발인,15분,손영준,별세,윤은숙씨,남편상,홍주,씨네21,사진,선임,현주,배우,금주,부친상,조현옥,성우,이지숙,시부상,심재구,SK대리점,대표,장인상,4일,오전3시,17분,신촌세브란스병원,발인,40분,강춘옥,별세,황창선,경찰청,치안상황관리관,장모상,4일,오후6시,30분,고대안암병원,발인,30분</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1418,7 +1688,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>해외생산,중계,무역,순수출,사상,최대,경상수지,흑자,배경,기업들,해외생산,확대,중계,무역,순수출,규모,사상,최대,기록,과거,한국,산업,생산,구조,경상수지,흑자,유지,배경,한국은행,산업통상자원부,중계,무역,순수출,25억,전년,대비,달러,221억,달러,기록,119억,상반기,기준,달러,기록,추세,유지,기록,연속,역대,최대,경신,중계무역,해외,현지,법인,현지,원자재,조달,상품,반입,현지,제3국,무역형태,한국,기업,해외,생산,수출,의미,보호무역주의,비용,절감,기업,진출,그간,해외,영향,풀이,무역수지,수출액,수입액,적자,경상수지,흑자,유지,배경,6월,경상수지,흑자,달러,기록,경상수지,무역수지,성격,상품수지,배당,임금,포함,본원소득수지,여행,운송,서비스수지,개념,경상수지,통계,포함,상품수지,6월,200억,달러,흑자,유지,상품수지,상품,수출입,무역수지,성격,통계,주체,방식,차이,상품수지,한은,집계,거래,상품,수출입,거래,대금,소유권,초점,중계,무역,순수출,상품수지,무역,기준,관세청,통관,물품,한국,국경,수출,수입,중계,무역,순수출,포함,한국,국경,중계,무역,순수출,상품,수지,흑자,차지,비중,10.7%,29.0%,상반기,59.6%,수출입,구멍,기업,해외,생산,판매,중계무역,수출입,원화,가치,하락,수입,원자재,가격,상승,영향,호황,조선업,수주,상품,수지,흑자,뒷받침,계약,중도금,무역수지,선박,완공,해외,수출액,집계,시간차,해외,주식,투자,배당,이자소득,포함,본원소득수지,경상수지,흑자,기여,서학,개미,만큼,해외,주식ㆍ,펀드,투자,배당,투자소득수지,흑자,달러,기록,정부,무역,수지,적자,경상수지,흑자,유지,예상,한국,1998년,행진,연속,경상수지,흑자,전망,수출,무역,수지,적자,확대,경상수지,타격,장관,추경호,경제,부총리,기획,재정부,이날,연간,규모,달성,경상수지,흑자,무리,상승,국제에너지,가격,중국,둔화,글로벌,수요,무역수지,악화,경상수지,흑자,축소,가능,정인교,인하대,국제통상학,교수,연간,경상수지,흑자,유지,내년,장담,중국,경기,둔화,가능,미국,정부,전기차,반도체,투자,확대,영향,수출,경기,내년,경상수지,적자,전환,가능성,전망</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1436,7 +1711,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>부고,유금순씨,별세,유금순,별세,배성인전한국경제신문이사,성의공주대명예교수,성례전청와대홍보수석,성숙씨,모친상,이진수,해수대표,장인상,박춘화,홍인희,이순애독일내과원장,시부상,배동훈KT과장,기훈변호사,창훈솔병원진료과장,자영신촌세브란스병원의사,정훈인하대병원의사,조부상,고숙녀,별세,이정렬국군대전병원장,풍렬삼성서울병원디지털혁신추진단장,소화기내과교수,현주,지현씨,모친상,구자용,E1회장,장모상,주안나,이지영씨,시모상,서울아산병원,발인</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1454,7 +1734,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>역대,태풍,침수,수해,감염병,주의,태풍,힌남노,한반도,북상,5일,해안,제주도,서귀포,파도,제주지방기상청,이날,제주도,육상,전역,제주도,앞바다,태풍경보,발효,제주,5일,전국,태풍,힌남노,영향권,힌남노,규모,위력면,역대급,태풍,전망,지역,태풍,침수,수해,예상,태풍,침수,수해,지역,위생,상태,지역,주민들,가지,감염병,노출,각별,주의,요구,의료,태풍,바람,동반,하천,범람,침수,위생,취약,병원균,모기,파리,감염매개체,감염병,발생,감염병,수인성,식품매개,감염병,모기,매개,감염병,렙토스피라증,접촉성피부염,대표적,힌남노,태풍,간접영향,집중호우,5일,제주시,용담동,용연계곡,한천,한천,건천,제주,수인성,식품매개,감염병,오염,음식,섭취,발열,구토,증상,대표적,콜레라,장티푸스,간염,장출혈대장균감염증,질환,예방,30초,생수,음식,조리,조리,위생,음식,적정,온도,보관,침수,수해지역,모기,급증,모기,일본,뇌염,각종,질병,조심,외출,위주,착용,신체,노출,최소화,모기,활동,10시,사이,야외,활동,자제,수해,복구,작업,접촉,피부염,파상풍,위험,파상풍,근육,수축,마비,증상,접촉,피부염,파상풍,예방,작업,보호복,장화,고무장갑,착용,작업,노출,피부,작업,오염,상처,작업,발열,증상,병원,파상풍,예방,접종,힌남노,태풍,북상,5일,주변,경남,창원시,마산합포구,마산어,시장,상가,건물,관계자,대문,빗물,유입,테이프,부착,마산합포구,매미,태풍,매미,피해,발생,지역,창원,렙토스피라증,렙토스피라균,감염,가축,야생,동물,소변,오염,사람,피부,점막,감염,질환,작업,야외,농민,발생,인하대병원,감염,임재형,교수,렙토스피라균,추수기,집중,호우,발생,증가,쥐들,논두렁,렙토스피,호우,농부,야외,활동,사람,피부,상처,침입,렙토스피라증,감염,정도,잠복기,발열,두통,오한,근육통,증상,증상,무증상,황달,심부전,심근염,의식저하,객혈,순천향대서울병원,감염,내과,김태형,교수,추수철,과로,일시적,몸살,치료시기,초기,치료,신장,신체,장기,침범,합병증,야기,주의,렙토스피라증,예방,야생,동물,소변,오염,가능성,손발,작업,손발,상처,확인,작업,장화,장갑,보호장구,착용,질환,유행,작업,단축,논의</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1472,7 +1757,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>별세,김태일,전주,서신중앙교회,목사,별세,별세,김태일,전주,서신중앙교회,목사,정대섭,4일,전주,온고을,장례식장,발인,시40분,유희정,별세,비즈솔루션본부장,권혁주,중앙일보,비즈,솔루션,본부장,권훈정,교수,서울대학교,식품,영양학,권효정,모친상,3일,서울성모병원,발인,정진흥,정윤,정윤,SK,증권,차장,정준,부친상,뉴욕주립대,교수,교사,김인정,덕원예술고,정혜윤,번역,시부상,정상민,정민선,정내혁,정주연,조부상,3일,시17분,삼성서울병원,발인,시30분,유금순,별세,배성,배성,공주대,명예,교수,배성례,홍보수석,청와대,홍보,수석,배성숙,모친상,장인상,이진수,주식회사,해수,대표,박춘화,홍인희,이순애,시부상,독일내과,원장,과장,배동훈,KT,배기훈,변호사,배창훈,솔병원,진료,과장,배자영,신촌세브란스병원,의사,배정훈,조부상,인하대병원,의사,4일,시25분,일산백병원,발인,표종완,별세,표혜정,표혜숙,표혜선,부친상,이경태,이승재,조계용,장인상,현대모비스,홍보,팀장,3일,국민,건강,보험,공단,일산병원,5일</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1490,7 +1780,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>대구시,미래,모빌리티,포럼,개최,대구시,6일,10시,동구,메리어트호텔,포럼,미래,모빌리티,이날,비전,민선,지상,하늘,자유,도시,주제,산업,육성,전략,조직,개편,이름,미래형,자동차,부서,미래모빌리티과,변경,도심항공교통,UAM,신설,하늘,비행,드론택시,플라잉카,UAM,혼잡,지상,교통,해결,세계,각국,경쟁,포럼,지역,산학연,지역,모빌리티,산업,육성,방향,모색,마련,융합기술혁신센터,계명대,미래모빌리티,융합,혁신,센터,주관,한국자동차연구원,한국교통연구원,한국전자통신연구원,항공안전기술원,인하대,경북대,하이리움,베이리스,KMW,플라나,기관,대학,기업,관계자,참석,대구경북,통합,공항,건설,연계,육성,UAM,산업,개항,2030년,상용,서비스,원년,금호강,하중도,강정,고령보,구간,UAM,실증,노선,시범,운행,검토,통합,공항,단계,기본,설계,UAM,계획,반영,터미널,시설,문화,상업,집적,스마트,복합,환승,센터,구축,UAM,이용자,최종,목적지,대중교통,자율주행셔틀,전기,자동차,공유,서비스,연계,교통,계획</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1508,7 +1803,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>폐지,학종,자기소개,면접,배수,확대,수시,특집,인하대,학년도,수시,모집,3873명,모집,인원,2631명,67.9%,선발,변화,학생부종합전형,자기소개서,폐지,면접,배수,3배수,3.5배수,학생부,종합,인하,미래,인재,전형,905명,선발,서류,종합,평가,100%,,결과,서류,평가,결과,70%,,면접,평가,30%,반영,학생부,종합,인하참,인재,전형,서류,종합,평가,100%,298명,인하미래인재전형,진로,탐구,역량,인하참인재전형,기초,학업,역량,45%,반영,지역균형전형,전태준,입학,처장,지역,균형,전형,학생부교과전형,교과,100%,기준,수능,최저,학력,적용,전형,학교장,추천,운영,제한,고교,추천,인원,폐지,진로선택과목,반영,성취도,등급,변환,과목,상위,반영,논술전형,논술,논술,70%,,교과,30%,합산,469명,선발,자연,계열,수학,논술,문항,난이도,예년,전망</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1526,7 +1826,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>감축법,미국,인플레,후폭풍,비밀,입법,발효,지난달,미국,인플레감축법,대통령,대선,구호,재건,Build,Back,Better,정책,제정,인플레감축법,명명,의료,보험,약값,한도,설정,의료비,인플레이션,태양광,풍력,재생,에너지,활용,전기차,보급,확대,바이든,대통령,지지도,민주당,중간,선거,승리,정치,계산,반영,인플레감축법,민주당,단독,제안,민주당,다수당,하원,상원,민주당,공화당,50대,중간,선거,공화당,지지,상황,민주당,상원,의원,민주당,반대,미국,석탄,주산지,웨스트버지니아,지역구,광물에너지,전기차,보급,보조금,지급,반대,입장,민주당,지도부,인플레감축법,당내,비밀협상,진행,중간선거,전격적,제정,전격,타격,한국,전기차,배터리,보조금,국익,회복,협상,로비전략,여름,의원,상원,원내,대표,슈머,필두,민주당,지도부,의원,수차례,비밀,협상,차이,조금,입장,인플레감축법,확정,막판,상원의원,키어스틴,시네마,상원,의원,애리조나,동의,비밀,철저,유지,바람,정보력,미국제약협회,약값,인하,저지,외부,로비,정책,반도체,지원,의욕적,추진,행정부,삼성전자,미국,반도체,공급망,구축,정책,협조,현대기아차,미국,공장,전기차,전용,생산라인,확대,계획,한국,배터리,업계,북미,지역,2025년,11개,배터리,공장,건설,예정,상황,미국,하원,전격적,통과,바이든,대통령,서명,일사천리,마무리,인플레감축법,한국,허탈,상황,인플레감축법,전기차,보조금,미국,전기차,조립,내년,미국,생산,요건,북미,지역,미국,자유무역협정,FTA,체결,국가,채굴,광물,가공,배터리,소재,사용,미국,생산,전기차,인플레,감축법,보조금,북미,전기차,생산,현대기아차,혜택,당장,보조금,현대기아차,정보,입수,가지,사실,북미,생산기지,구축,자동차,완성,업체,내년,적용,광물,요건,충족,적격,업체,미국,비판,중국,견제,미국,설명,미국,중국,의존,철저,경계,중국,공급망,업계,한국,배터리,도전,직면,반도체,배터리,전기차,리스크,중국발,지정학,인플레감축법,취지,배터리,소재,중국,세계,최고,중국,배제,국가,안보,측면,경제,요소,중요,인사들,민주당,핵심,인사,비밀,협상,타결,법안,독일,자동차,강국,일본,미국,의회,상대,로비,겨를,의원,주장,반영,입법,취지,퇴색,지적,일정,중간,선거,발효,시행령,세부사항,조정,한국,대응카드,세계무역기구,WTO,위반,FTA,규범,미국,제소,양자,협의,추진,워싱턴DC,방문,정부대표단,시작,협의,유럽연합,EU,일본,공조,중간선거,정국,상황,국익,협상,로비전략,마련,정인교,인하대,국제통상학,교수</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1544,7 +1849,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>꼰대,건달,할배,채현국,생각,지식,소리,사람들,고정관념,생각,고정관념,세상,정답,해답,평생,해답,나머지,정답,군사독재,악습,박정희,정답,소리,별세,채현국,선생,말씀,자락,고정관념,명언,단정적,단정적,발언들,통쾌,이견,시대,어른,존경,고인,현국이,지기,백낙청,문학평론가,창작과비평,명예편집인,선생,첫날,건달,추모,문집,채현국,친구들,도서출판,피플파워,선생,현국,생각,제목,고인,각별,인연,소개,채현국,대구,피난,시절,대구,대구연합중학교,서울,피난,설립,서울,소속,학생들,공부,학교,학년도,현국이,현국이,나이,학년,초등학교,시절,죽마고우,김상기,원래,동기,사고,1년,바람,현국이,학년,현국이,나들이,사이,인사,마당발,노광래,갤러리,부장,기획,풍운,인터,뷰집,채현국,김주완,경남도민일보,편집국장,37명,생전,일화,추억,스펙트럼,필자들,회고담,시대,풍경,명동,관철동,인사동,시절,황명걸,시인,상임대표,고은광순,평화어머니회,상임,대표,김보경,작가,조각가,김운성,소녀상,대표,김철환,대덕잡구,김태동,청와대,경제,수석,남난희,산악인,박상희,조각가,박영현,시인,도예가,교수,복기대,인하대,동아시아연구소장,서승,우석대,동아시아,연구소장,신경림,시인,염무웅,국립,한국,문학,관장,이기흥,이사장,서울예대,재단,이만주,춤비,평가,이용학,효암고,교장,이종찬,국정원장,임락경,목사,저술가,명숙,죽향,대표,정상학,대구고등법원장,최규일,전각가,최정인,섬유,공예,작가,허태수,춘천,성암,예배당,목사,채현국,선생,제1부,필자들,채현국,선생,인사동,풍류,하늘나,소풍,민병산,박이엽,이계익,이구영,조관준,천상병,선생,회고담,부록,채현국,채희완,대담,부산무위당학교,강좌,전문,수록,말년,행동,일치,치열,선생,생각,1970년대,1980년대,동시대,경험,현대사,장면들,갈피,갈피,건달할배,시사,바람,자유,영혼,소유자들,질곡,고난,시대,요구,아픔,정직,성실,대응,편집자,노인들,모양,인터뷰,명언,인터뷰,소개,꼰대,젊은이들,일독,5일,삼일,서울,에스케이허브,갤러리,출간,건달할배,작가,전시회,개막,김구림,김종학,신학철,송대현,김건희,거리,화가,박정숙,강찬모,강용대,이목일,이존수,이흥덕,지혜자,박불똥,김익모,성륜,김운성,변우식,작가,민병산,붓글씨,정강자,유화,강용대,화가,중광,임창열,물방울,화가,예인들,작품,10월</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1562,7 +1872,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>대권가,지름길,당권,무게,민주화,8명,발판,YS,케이스,정책,역량,긍정,이미지,당권,절반,대권,예약,대선,0.73%,포인트,대권,대표,이재명,더불어민주당,대선,패배,야당,거대,사령탑,대표,총선,민주당,승리,책임,대선,패배,초고속,국회의원,당권,대표,행보,2년,총선,5년,대선,결과,관심,민주,대통령,8명,경력,절반,5명,당권,토대,대선,승리,당권,대통령,당권,대권,가도,유리,발판,사례,입증,당대표,대통령,케이스,노태우,김영삼,YS,김대중,DJ,대통령,대통령,권위,총재,대통령,총재,대통령,민주정의당,총재,YS,민주자유당,총재,DJ,새천년민주당,총재,기간,대통령,재임,여당,국회,영향력,행사,관행,노무현,대통령,당정,당청,분리,선언,기점,종식,당권,대권,형식적,분리,대통령,영향력,여당,박근혜,대통령,새누리당,비상,대책,위원장,문재인,대통령,새정치민주연합,대표,대통령,경선,직전,대선,대통령,직전,대선,패배,당권,발판,대선,승리,대통령,경선,한나라당,대선,후보,이명박,MB,대통령,비대,위원장,당명,새누리당,총선,승리,대선,대통령,패배,대통령,대표,새정치민주연합,총선,이듬해,안철수,사단,탈당,분당,호남,비토,당권,대표,김종인,비상,대책,위원회,총선,승리,토대,대권,차지,당권,대권,필요조건,아냐,역대,대통령,당대표,역임,노무현,대통령,MB,당대표,취임,윤석열,대통령,국회의원,대권,직행,당권,대선,도움,당대표,총선,독단적,모습,정치,현안,해결,무능,부각,대권,주자,치명타,이회창,한나라당,총재,대표적,사례,대선,DJ,석패,8개월,총재,선출,총선,총선,중진,물갈이,시도,당내,갈등,심화,대선,아들,병역,비리,의혹,이인제,효과,결국,노무현,대통령,패배,국무총리,문재,인정부,초대,대권,주자,발돋움,이낙연,민주당,대표,당권,대표,총선,총선,서울,종로,당선,40%,지지율,기록,대권,예약,광역단체장,민주당,소속,광역,단체장,성추문,서울,부산시장,보궐선거,무리,후보,MB,사면,발언,실패,부동산,정책,타격,결국,경선,민주당,대선,이재명,대표,후보,자리,노무현정부,노무현,정부,열린우리당,대선,MB,참패,정동영,의원,사례,전문가들,대권,당권,밀접,당권,확보,대권,경쟁,유리,최진,대통령,리더십,원장,과거,당권,대권,경향,당권,대권,가도,유리,당대표,국민,노출,이미지,대중,친화,정책,본인,역량,설명,당권,대권,밀접,연관성,고착화,양당,구조,대권,정당,대표,대선,자신,유리,정치적,박상병,인하대,정책,전문,대학원,교수,당대표,대선,후보,대통령,당선,당대표,가능성,대권,획득,가능,50%,전문가들,이재명,대표,획득,5년,대선,준비,긍정적,팬덤,주문,교수,개딸,개혁,강성,지지자,일반,당원,목소리,국민,목소리,인식,유지,대선,성공적</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,7 +1895,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>한성우,교수,가지,자줏빛,정도,아기,팔뚝,열매,채소,가지,가마솥,기억,가지,가지,무침,과육,식감,외양,중식,일식,튀김,거부감,가지,한자,茄子,한자음,중국어식,발음,체쯔,qiezi,글자,한자음,글자,중국어식,작물,중국,이름,이름,입맛,변형,흥미,16세기,문헌,가지,중국어,이름,우리말,자리,가지,모양,독특,작물,가지,자줏빛,고추,고추,색깔,가지,고추,교배,탄생,모양,포도,가지포도,교배,포도,블랙,사파이어,가지,이름,땡볕,들판,한창,10월,제철,가격,제철,채소,가지,요리,요리사들,가지,가지가지,요리,말장난,제철,먹거리,싼값,갖가지,요리,장점,여름철,밥상,푸른색,가지,고추,다양성,가지포도,후식,교수,인하대,한국어,문학</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1598,7 +1918,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>인천시,가구,생활,실태,조사,인천시,가구,생활,실태,조사,인천시,가구,파악,정책,수요,9월,가구,생활,실태,조사,6월,가구,인천,지역,가구,가구,38.1%,사업,결과,시각,서비스,지원,가구,발굴,맞춤,정책,활용,계획,지점,롯데마트,주민,편의,주차장,개방,롯데마트,주민,소상공인들,주차장,개방,인천시,개방,롯데마트,부설,주차장,협약,해결,도심,주차난,협약,지역,롯데마트,지점,주차장,추가,개방,구체적,개방,운영,사항,개방시간,주차,개방,면수,구청,지점,실시협약,결정,롯데마트,영종점,계양점,등록,사전,회원,시민,상인,인근,상가,무료,부설주차장,영종도,168면,계양점,개방,인하대,신입,40%,혜택,전액,장학금,인하대,일반대학원,기준,장학금,지급,개선,신입,40%,혜택,전액,장학금,이수자,학부,이수,실적,장학금,지원,챌린저,장학금,신설,이철균,혁신본부장,대학원장,학생,본인,장학금,정보,입학,정확,제공,학업,계획,학비,부담,학업,매진,지원</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,7 +1941,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>자치경찰,1년,건물,업무,수당,수당,지구대,파출소,직원,차별,논란,충북,경찰서,생활,안전,여성청소년,교통조사계,자치,경찰,사무,부서,근무,직원,지자체,1인,연간,복지,수당,전보,파견,인사권,도지사,충북자치경찰위원회,자치,경찰,시행,경찰청,생활안전,교통,경비,업무,지자체,변화,지구대,지역,파출소,근무,경찰관,사정,지구대,파출소,직원,인사권,경찰청장,국가경찰,지자체,복지,수당,범죄예방활동,방지,농산물,절도,보호,사회,약자,자치,경찰,사무,조치,사건,초동,국가,경찰,사무,병행,A경위,자치,경찰,사무,현장,연결,지구대,제외,업무,불가능,자치,경찰,업무,인사권,차별,주장,자치경찰제,현장,업무,변화,지구대,직원,신고,대응,국가,사무,자치,경찰,사무,처지,복장,건물,경찰관,자치경찰제,시행,한계,사무,법률,자치,경찰,국가경찰,분리,경찰관,복장,건물,국가,경찰,조직,자치경찰,바람,경찰,내부,자조,경찰서,여부,자치,경찰,사무,수당,불만,자치경찰제,경찰,지역,주민,밀접,치안,사무,지방자치단체,지휘,감독,제도,지역,사정,자치단체,자치경찰,운용,치안,서비스,자치권,확대,취지,경찰,생활안전,여성청소년,교통,지구,파출소,업무,80%,정도,자치,경찰,사무,자치경찰,지휘,감독,합의제,행정기구,시도,자치,경찰,위원회,현행,자치,경찰제,경찰,조직,사무,분리,일원,모델,국가,경찰,조직,업무,영역,경계,처리,자치,경찰,경찰관,지자체,소관,자치,경찰,사무,경찰청,국가,사무,수행,자치,경찰,사무,지구대,파출소,5만,인사권,경찰청장,직원,자치,경찰,위원회,사무국,국가,경찰,업무,경찰관,부서,자치,경찰,사무,자치경찰,구조,국가,자치,사무,병행,경찰관,자치,경찰,업무,50%,자치경찰,분류,설명,경남,자치,경찰,소속,경찰관,휴가자,발생,업무,대행,국가,사무,동료,자치사무,부서,근무,지자체,복지,수당,경찰,경찰,발생,경남,자치,경찰,이달,경남도,1인,복지,경남경찰청,자치,경찰부,생활안전,20명,소속,경찰관,3명,수당,총포,화약,경비업,허가,자치,경찰,업무,B경정,경남경찰청,소속,사무실,수당,불평,자치경찰,자치,경찰,경찰관,인사,경찰법,경찰,공무원,임용령,자치,경찰,사무,경감,신규채용,면직,권한,경찰청장,광역단체장,자치경찰,경찰관,자치,경찰,경감,인사권,경위,승진,인사,행사,경정,전보,파견,휴직,직위해제,경감,임용권,신규채용,제외,면직,권한,시도,자치,경찰,위원회,위임,경찰,승인,인사,명단,한계,자치,경찰위,권한,자치,경찰,사무,업무,차지,지구대,파출소,근무자,인사권,경찰청장,경찰청,국가,경찰,지구대,파출소,근무자,5만,38.6%,차지,경찰관,자치,경찰,수행,인사,분리,소속,연결,후생,복지,차별,발생,서울,자치,경찰,사무,수행,경찰관,4000여,1인,50만,지자체,수당,인사권,서울경찰청장,1만,지구대,파출소,직원,혜택,제외,서울,대상,지자체,후생,복지,제외,충북,강원,전북,경남,지역,지구대,파출소,경찰관들,자치경찰제,손발,경찰관,차별,속앓이,접근,시도,자치,경찰위,경찰청,인사,경찰,공무원,임용령,자치경찰위원회,인사권,시도경찰청,재위임,규정,자치,경찰,위원회,사무국,경찰청,인사,관리,연동,실제,인사,경찰청,좌지우지,구조,위원장,남기헌,충북,경찰,위원회,자치경찰,경찰관,인사,정보,경찰청,자치경찰위원회,시도,경찰청장,인사,결과,단순,승인,역할,자경위,사무국,경찰청,인사,접근,대상자,자치,경찰,인사,평가,실정,현행,자치,경찰,지방,자치,사무,국가,경찰,조직,기형,구조,정책수립,예산,확보,수행,주체,신규,사업,예산,확보,실정,전북,자치,경찰,위원회,예산,100억,정도,추경,포함,인건비,운영비,전북도,지원,사업,예산,사업,자치경찰,국가경찰,여성,청소년,교통,업무,설명,전북,자치,경찰,위원회,문재인,정부,이원,모델,일원화,선회,이형규,전북,자치,경찰,위원장,주민들,제안,가지,정책,신규,사업,예산,확보,방법,자치,경찰,사무,정작,자치,경찰,사람,무늬,자치경찰,지적,외형,변화,자치경찰,국민,인지도,전북,자치,경찰,위원회,7월,설문조사,자치,경찰,인지도,45.2%,교수,김영식,서원대,경찰행정학과,유니폼,순찰차,체계,신고,대응,종전,주민들,체감,문재인,정부,자치경찰제,검토,이원,모델,검토,자치경찰본부,기초단체,자치경찰대,별도,신설,국가,경찰,단계적,구상,조직,신설,비용,과다,이원화,업무,혼선,자치경찰제,방안,자치경찰,전문가,현행,자치,경찰,국가경찰,몸통,이원화,전문가들,자치경찰제,작동,국가경찰,자치경찰,분리,이원화,모델,전환,조언,이기우,인하대,법학,전문,대학원,명예,교수,자치경찰제,명의상,지방,권한,분산,자치경찰,국가경찰,몸통,결과적,경찰권,비대화,초래,자치,경찰,조직,국가경찰,국가,치안,질서,인사권,재정권,지휘통제권,자치,경찰,사무,지휘,통제,시도지사,이양,박동균,대구시,자치,경찰,위원회,상임,위원,파출소,지구대,자치,경찰,소속,장기적,국가경찰,자치경찰,분리,파출소,지구대,시민,생명,가까이,주민,서비스,밀접,자치경찰</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1634,7 +1964,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>인하대,확대,일반,대학원,장학금,신입,40%,수혜,인하대학교,일반대학원,신입생,일반,대학원,신입,40%,전액,장학금,지급,과정생,외국인,박사,지원,강화,교육,수요자,맞춤,혜택,인하대,일반,대학원,장학금,제도,개편,수혜,1일,학부,이수자,실적,장학금,챌린저,장학금,신설,인하대,일반대학원,재학생,장학금,지급,체계,구축,학부,프로그램,활동,연구실,체험,대학원,진학,연구자,성장,경로,학교,학생,참여,연간,이수,이수자,입학,대학원,전일제,입학,장학제도,추가,등록금,15%,범위,챌린저,장학금,인문,사회,계열,대학원,재직자,장학금,수혜,인원,확대,인하대,일반,대학원,1000명,사립대학,대학알리미,공시,기준,재학,1인,1위,장학금,수혜액,우수,인재,양성,선도,이철균,혁신본부장,대학원장,학생들,대학원,진학,기회,제공,초점,학생,본인,장학금,정보,입학,정확,입학,제공,학비,부담,성공,도전,응원</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1652,7 +1987,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>시민,학습,명장,어진인,가동,인천,약국,운영,초반,가정,형편,또래들,일반적,진로,진학,생각,살림,조금,보탬,취업,창업,도전,매일,치열,마음,한편,공부,미련,시작,마음,검정고시,준비,대학,무역학,합격,소식,졸업,순조,인생,터닝,포인트,갈망,평소,전문직,약학,대학,한약학,전공,기회,학업,결국,약사,도달,A씨,포함,현장,전문,지식,경험,경력,무장,시민들,평생,학습,무대,인천인재평생교육진흥원,지역,대학,운영,시민,대학,라이프,칼리지,각계,전문가들,구성,시민,학습,명장,어진인,선정,1일,시민,특정,분야,성공,AI,인공지능,분야,권위자,현직,대학,총장,가업,미용실,실력,국가대표,미용장,박사,승승,미용사,전통,식품,발효,전수,교장,28명,주인공,교수,명장,멘토,구분,강단,저마다,성공,스토리,예정,발대식,임명,지혜,희망,메시지,전달,행복전령사,활약,시민대학,대학,특성화,캠퍼스,6곳,교육청,공공,캠퍼스,구축,본부,헤드,가동,1학기,계절학기,수준,결과,경쟁,150%,,수료,78%,,학습자,만족도,93%,기록,인천시민들,성공적,정착,학비,학력,나이,제약,수강,학생들,100시간,강좌,시간,수료,명예,학위,교육,시민,인천대,청년시민,인하대,선배시민,가천대,처음시민,경인교대,가족시민,경인여대,세계시민,캠퍼스,원장,김월용,진흥원,시민라이프칼리지,인천,배움터,영역,확대,협력,세계,캠퍼스,자리매김</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1670,7 +2010,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>인하대학교,폐지,학생부,종합,전형,자소서,면접배수,3.5배,수로,인하대학교,학년도,수시,모집,3873명,모집,인원,2631명,67.9%,선발,변화,학생부종합전형,자기소개서,폐지,면접배수,3배수,3.5배수,학생부,종합,인하,미래,인재,전형,905명,선발,면접,단계,전형,서류,종합,평가,100%,,결과,서류,평가,결과,70%,,면접,평가,30%,반영,전형,학생부,종합,인하참,인재,298명,선발,예정,서류,종합,평가,100%,인하미래인재,전형,진로탐구역량,45%,반영,인하참,인재,전형,기초학업역량,45%,반영,지역,균형,전형,학생부교과전형,교과,100%,선발,수능최저학력기준,적용,전형,학교장,추천,운영,제한,고교,추천,인원,폐지,학교장,추천,지원,가능,진로선택과목,반영,성취도,등급,변환,과목,상위,반영,논술전형,논술,70%,교과,30%,일괄,합산,방식,469명,선발,논술문항,자연,계열,수학,논술,문항,난도,연도,소폭,염두,정시,자유전공학부,신설,70명,모집,대학,자유전,공학부,진입,전공,선택,완전,보장,의과대,사범대,제외,파격적,학사제도,인하대,접수,수시,모집,원서,마지막,점검,주말,제외,내달,집중상담,수시,집중,상담,상담,수험생,학부모,홈페이지,인하대,입학처,신청,고교,연계,프로그램,이용,신청,접수,선착순,상담,방식,유선,화상,선택</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1688,7 +2033,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>알림,대구대,총장,박순진,교수,취임,총장,임시이사,임시,이사,파견,28년,법인,정상,체제,임명,총장,서울대,사회학,학사,석사,박사,학위,대구대,경찰,학부,교수,임용,교무부처장,기획부처장,기획처장,보직,인하대,의료원장,신임,의료,원장,의무부총장,이택,교수,선임,미디어친구들,방송,비정규,프리랜서,연대체,방송,1일,서울,상암,문화,광장,방송의날,캠페인,방송작가,참여,토크,콘서트,공연,프로그램,라이엇게임즈,1일,와일드,리프트,지적,재산,게임,총괄,총괄,리그,스튜디오,안드레이,안드레이,임명,한세예스24문화재단,인문학,지원,사업,대상,동북아시아,다뉴세문경,전개,생성,소멸,국립경주문화재연구소,10편,선정,제주국제교육원,다문화,교육,센터,1일,도내,초등학교,대상,다문화,가정,가정,통신문,번역,서비스,시작,언어,자동,번역,가능,번역,베트남어,중국어,수동,번역,요청,번역가들,전문,번역가,번역,지원,싸이월드,서울사랑,열매,31일,소비,기부,업무,협약,싸이,월드,선물,등록,사랑,열매,미니미,전용,캐릭터,스킨,다이어리,유료,판매액,서울사랑,열매,기부,우리다문화장학재단,13일,우리다문화장학재단,홈페이지,청소년,진로,진학,지원,프로그램,참여자,모집,진로,설계,제공,진학,정보,직업,체험,진행,13살,청소년,대상,현장,온라인,참여,가능,누리집,woorifoundation.or.kr,html,main,참고,전쟁기념관,23일,유엔문화축제,연계,공모전,전쟁,기념관,영상,콘텐츠,대상,250만,당선작,상금,수여,당선작,유엔문화축제,전쟁기념관,유엔,문화,축제,전쟁,기념관,상영,대한민국댄스스포츠연맹,나이키코리아,댄스,분야,공식,파트너십,체결,브레이킹,종목,적극,후원,17일,문화,서울,홍대,거리,브레이킹,유망주,배틀,대회,브레이킹,선수,피드백,바탕,제품,댄스,컬렉션,리듬,출시,예정</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,7 +2056,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>인하대,사건,개강,캠퍼스,7월,인하대,성폭행,사망,사건,발생,남성,학교,학생,성폭행,높이,학교,건물,추락,사망,검찰,가해자,지난달,성폭력범죄,처벌,특례법,성폭력처벌법,강간,살인,혐의,기소,1일,대학,개강,49일,발생,인하대,사건,세상,관심,대학생,사이,걱정,목소리,캠퍼스,젠더폭력,환경,개강,일주일,경상대,지난달,두마,활동명,아꼬,숭실대,학생,활동명,찐빵,인하대,학생,활동명,스튜디오,서울,마포구,공덕동,한겨레신문사,페미니스트들,대학,페미니스트,캠퍼스,젠더폭력,이야기,여성들,안전,공간,대학,캠퍼스,캠퍼스,여성,범죄,대상,절감,피해자,공포,두마,사람,두려움,분노,감정,행동,인하대,사건,오프라인,캠퍼스,안전,공론화,7월,찐빵,포함,인하대,학생,목소리,응답,제목,대자보,교내,게시판,두마,대학,경남,지역,경상국립대,진주교대,창원대,경남대,페미니즘,동아리,온라인,총공,공격,온라인,용어,기획,방식,응답,총공,전국,대학,25곳,페미니즘,동아리,여성혐오범죄,언론,2차,가해,중단,해시태그,성명문,에스엔에스,SNS,방식,진행,숭실대,페미니즘,백마,암탉님,구성원,총공,참여,아꼬,사건,인하대,학생들,목소리,응답,마음,인하대,대자보,에스엔에스,SNS,익명,인하대,학생,활동,찐빵,평등,안전,학교,대자보,목소리,지점들,페미니스트,두마,아꼬,찐빵,캠퍼스,젠더폭력,이야기,슬랩,유튜브,채널,확인</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1724,7 +2079,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>뭇매,족족,여론,기재부,카드,하루,정도,챌린지,도전,사회관계망서비스,기획,재정부,공식,사회,서비스,SNS,카드뉴스,등장,문구,사이,유행,무지출,챌린지,소개,역풍,소비,장려,내수,기재부,통상적,가계,지출,비판,논란,기재부,게시물,삭제,무지출,챌린지,불똥,프리미엄,소비,설명,게시물,수제버거,프리미엄,역사,소비자,심리,블로그,게시,요약,카드뉴스,거품,수제버거,vs,가격,대형,마트,햄버거,소비,트렌드,문구,강남,햄버거,다리,아픔,행복,샴푸,떨이,살림,내돈내산,이월상품,3만,쇼핑중독,사례,제시,기재부,트위,카드뉴스,1일,4000여개,기준,댓글,수제버거집,유명,프랜차이즈,자영업자,대형,마트,소비,물가,누리꾼,외환위기,외환,위기,운동,게시,지난달,경제직업탐방,카드뉴스,도마,게시,대안화폐전문가,각광,직업,소개,하락,암호,화폐,시세,빚투,투자,후유증,정부부처,쓴소리,전문가들,기재부,SNS,비난,과도,측면,기저,정부,정책,불신,지적,광고,전문가,논란,카드뉴스들,경제,개념,소개,취지,관심,논란,콘텐츠,경제,상황,기조,정부,정책,불신,뉘앙스,차이,사람들,반응,분노,설명,장관,추경호,부총리,기재부,회장단,한국경영자총연합회,임금,인상,자제,발언,발언,악화,경제,상황,책임,서민들,전가,불만,직장인,카드뉴스,전반적,정부,서민,부처,SNS,이은희,인하대,소비자학,교수,사람들,침체,경기,정부,일정,책임,허리띠,메시지,정부,SNS,정부,차원,운동,국산품,애용,소비,훈수,시대,서민들,생활,물가,정부,노력,설명,콘텐츠</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1742,7 +2102,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>조명우,인하대,총장,시작,송도,김포캠,가속,인하대학교,조명우,총장,임기,시작,총장,이날,별도,취임행사,임기,번째,돌입,연임,성공,총장,4년,인하대,총장,연임,인하대,송도사이언스파크,캠퍼스,김포메디컬,캠퍼스,건립,사업,국제,사업,대학,발전,사업,안정적,전망,개교,주년,준비,100년,기초,총장,임기,확보,우수,교원,성공적,실적,연구비,수주,기록,임기,지속적,교수,충원,연구환경,개선,대학,재정,건전화,방침,임기,추진,캠퍼스,마스터,플랜,의과,대학,교육,환경,개선,사업,교육,환경,개선,투자,예정,총장,단련,과거,지속,가능,출발,시작,4년,대학,헌신,기간,인천,김민</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1760,7 +2125,12 @@
           <t>내일신문</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>대학,인재,성균관대학교,학종,수능최저학력기준,김윤배,입학,처장,성균관대학교,학년도,수시,모집,2137명,선발,전형,선발,인원,학생부종합전형,1300명,학생부교과전형,370명,논술우수전형,360명,실기,실적,예체능,특기,실기,우수자,전형,모집,학생부종합전형,계열모집,417명,학과모집,630명,고른기회,60명,정원,특별,전형,193명,계열모집,학생부,자기소개서,서류,100%,선발,예정,학과모집,면접시험,모집,단위,의예,교육학,한문교육,수학교육,컴퓨터교육,스포츠과학,제외,서류,100%,선발,고른기회전형,국가,보훈,대상자,서해5도,농어촌학생,6년,이수,교육,거주자,저소득층,특성화,졸업자,장애인,대상,전형,서류,100%,평가,정원,특별전형,정원,특별,전형,농어촌,100명,특성화고,23명,이웃사랑,60명,장애인,10명,대상,서류,100%,평가,학생부종합전형,4개,선발,전형,수능,최저,학력,기준,수능필수응시영역,적용,학생부교과전형,370명,모집,수능최저학력기준,적용,100%,학생부,교과,성적,100%,평가,공통과목,일반선택과목,정량,평가,대상,80%,반영,진로선택과목,전문교과과목,정성,평가,대상,20%,반영,논술우수전형,360명,모집,수능최저학력기준,적용,그중,의예,5명,선발,예체능,특기자,전형,실기,실적,모집단위,스포츠과학,22명,영상학,5명,80명,선발,예체능,실기,우수자,실기,실적,전형,모집단위,연기예술학,연기,연출,무용,한국무용,발레,컨템포러리댄스,스포츠과학,성신여자대학교,학종,서류,면접형,이원화,장민정,미래,인재,처장,성신여자대학교,학년도,신입학,정원,모집,인원,수시모집,1445명,65.8%,선발,정시모집,751명,34.2%,신입생,모집,수시모집,학생부종합전형,학생부교과전형,논술전형,실기,실적전형,진행,전형,모집,인원,학생부종합전형,760명,34.6%,교과전형,지역균형,251명,11.4%,논술전형,논술우수자,175명,8%,실기실적전형,일반학생,실기,259명,11.8%,모집,정원,학생부,종합,전형,고른기회,학교생활,우수자,전형,자기,주도,인재,전형,전형,전형,수능,최저,학력,기준,적용,서류,평가,100%,선발,서류형,서류평가,면접평가,합산,선발,면접형,가지,트랙,평가,서류형,학교생활우수자전형,기회,전형,고른기회,전형,정원외,특성화고,졸업,재직자,전형,정원외,215명,109명,15명,60명,선발,면접형,자기주도인재전형,436명,선발,자기주도인재전형,1단계,서류,100%,3배수,선발,2단계,점수,서류,평가,점수,70%,,면접,30%,선발,학생부교과전형,정원,전형,지역균형전형,정원,전형,특성화,고교출신자전형,특수교육대상자전형,251명,30명,5명,선발,지역균형전형,학교장,추천,지원,논술전형,논술우수자전형,논술고사,논술,고사,70%,,학생부,30%,반영,평가,수능,최저,학력,기준,적용,175명,선발,실기,실적전형,적용,수능,최저,학력,기준,모집단위,실기성적,학생부,평가,259명,신입생,선발,세종대학교,학생부,종합,전형,창의,인재,전형,신설,박재우,입학,처장,세종대학교,학년도,수시,모집,모집,55.2%,1480명,선발,전형별,학생부교과전형,지역균형,농어촌학생,국방시스템공학,항공시스템공학,397명,학생부종합전형,창의인재,면접,서류형,기회,사회기여,배려자,서해5도,학생,특성화,고교졸업,재직자,697명,논술,우수,자전,실기,실적,전형,실기우수자,예체능특기자,76명,선발,수시모집,특징,지역,균형,전형,확대,수능,최저,학력,기준,완화,자기소개,폐지,완화,수험,부담,창의인재,서류형,전형,신설,세종대,학생부우수자전형,지역균형전형,통합,지역균형전형,310명,선발,지역균형전형,고교,추천,인원,제한,폐지,성적,학생부,교과,100%,반영,선발,해군,공군,협약,설치,운영,장교,해군장교,공군조종장교,채용,조건,계약학,선발,전형,국방,공학,특별,전형,항공,공학,특별,전형,30명,17명,선발,세종대,창의인재,서류형,전형,신설,학생부종합전형,창의인재,면접형,353명,창의인재,서류형,107명,고른기회,95명,사회기여,배려자,30명,서해5도학생,3명,특성화,고교졸업,재직자,특별,전형,109명,구성,학생부종합전형,창의인재,면접형,전형,제외,전형,면접,서류,100%,반영,자기소개서,폐지,서류평가,학업역량,계열,전공,적합성,창의성,발전가능성,인성,평가요,종합적,평가,창의인재,면접형,전형,계열,전공,적합성,창의인재,서류형,전형,학업역량,비중,평가,논술우수자전형,학생부,반영,숭실대학교,학생부,논술우수자,수능,최저,변경,조상훈,입학,처장,숭실대학교,학년도,모집,인원,3086명,58%,1787명,정원외,포함,수시모집,선발,수시모집,특징,SW특기자,학생부종합전형,SW우수자,개편,학생부,종합,전형,특성화고,졸업,재직자,변경,전형,방법,서류,100%,학생부우수자전형,논술,우수자,전형,수능,최저,학력,기준,변경,예체능,우수,인재,축구,전형,요소,변경,실기30,실적40,면접20,학생부10,정시,선발,예체능우수인재,연출,수시,이동,SSU미래인재전형,선발,예정,전형,1단계,서류종합평가,100%,3배수,2단계,1단계,70%,면접,30%,학생,선발,수능최저학력기준,서류,100%,합격자,선발,학생부종합전형,기회,136명,모집인원,배정,숭실대,SW특기자전형,학생부종합전형,SW우수자,변경,선발인원,동일,25명,컴퓨터학부,8명,글로벌미디어학부,4명,소프트웨어학부,8명,AI융합학부,5명,25명,선발,전형,1단계,서류종합평가,100%,3배수,2단계,1단계,성적,70%,면접,블라인드,30%,적용,수능최저학력기준,적용,외부,소프트웨어,입상,실적,반영,우수인재,소프트웨어,분야,우수,인재,성장,잠재력,지원자,학생부우수자전형,447명,선발,474명,수준,학교장추천,지원,가능,논술,우수자,전형,모집,인원,269명,감소,전형방법,논술,60%,학생부,교과,40%,논술,고사,유형,통합교과형,동일,학생부우수자전형,논술우수자전형,수능최저학력기준,확인,이화여자대학교,자소서폐지,데이터사이언스학과신설,신동희,입학,처장,이화여자대학교,2023년도,정원,66.1%,2099명,수시모집,선발,수시전형,비중,차지,학생부종합전형,1094명,학생부종합전형,면접,서류,100%,평가,전형,자기소개서,폐지,제출,서류,방식,정량,선발,학업역량,고교,시절,학업,역량,학교활동,우수성,발전,가능,정성적,종합,차원,평가방식,이화여대,데이터사이언스학과,신설,AI융합학부,인공지능전공,인공지능학과,개편,인공지능학,수시모집,미래인재전형,10명,자연,선발,데이터사이언스학,미래인재전형,7명,자연,고른기회전형,3명,자연,선발,수시모집,변화,자연,계열,지원자,수능,최저,학력,기준,완화,미래인재전형,논술전형,국어,수학,영어,영역,과학,탐구,등급,5이내,수학,포함,영역,등급,고른기회전형,사회기여자전형,수학,포함,영역,등급,수능최저학력기준,완화,학생들,부담,입시,준비,경감,학생부종합전형,선발인원,지속적,확대,1094명,미래인재,921명,고른기회,사회,기여자,선발,학생부종합전형,면접,서류,100%,평가,자기소개서,폐지,고교추천전형,고교,추천,인원,인문,자연,구분,재적,여학생,5%,최대,전년도,동일,적용,수능,최저,학력,기준,교과,교과,80%,,면접,20%,일괄,합산,선발,고교추천전형,지원자,전원,면접기회,본인,우수성,평가,수능,최저,학력,기준,적용,인하대학교,확대,면접,배수,자기소개,폐지,전태준,입학,처장,인하대,2023학년도,정원,학년도,3873명,67.9%,2631명,수시모집,입시,학생부종합전형,자기소개서,폐지,면접배수,3배수,3.5배수,의예과,3배수,학생부,종합,인하,미래,인재,전형,905명,선발</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,7 +2148,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>포럼,골든타임,IRA,시행령,경제동맹,정인교,인하대,국제통상학,교수,현대기아차,9%,점유율,미국,시장,점유,업체,수입,전기차,시장,쾌거,인플레이션감축법,IRA,시장,경쟁,업체,전기차,혜택,IRA,보조금,생산,전기차,미국,수출,현대기아차,하루아침,대당,요인,가격,인상,IRA,대통령,야심,추진,재건,BBB,정책,마지막,평가,IRA,의회,문턱,하원,상원,여야,동수,여당,민주당,의원,키어스틴,시네마,신재생에너지,지출,재생,에너지,반대,통과,불가능,미국,법률,제정,토론,상하,양원,투표,법안,공개,로비,합법화,이해관계자들,입법,의견,제시,법안,수차례,조정,최종,확정,필리버스터,의사,진행,방해,허용,기간,제정,민주당,IRA,절차,예산,조정,입법,꼼수,사용,세제,지출,한정,법안,필리버스터,의결정족수,과반,過半,확보,법안,토론,신속,통과,IRA,법인세,15%,최저,제한,처방,가격,정부,수입,달러,신재생에너지,달러,지출,예산,달러,절약,골자,토론,예산,조정,절차,민주당,상원의원,설득,비밀협상,결과,IRA,전기차,보조금,무리,포함,민주당,비밀리,타결,투표,상하,양원,우리나라,유럽,당국,일본,통상,대응,당사자,현대기아차,법안,발효,대응,정도,당국,사전,대응,지적,전기차,보조금,핵심,요건,미국,조립,중국,국가,해외,관심,지정,국가,광물,부품,포함,전기차,보조금,메이커들,세계,전기차,메이커,배터리,소재,중국,의존,내년,광물,요건,추가,IRA,보조금,전기차,메이커,지적,당국,정책,시장,생각,IRA,발효,지지율,40%대,대통령,정치적,고무,현대기아차,조지아주,건립,공장,조기,착공,라인,전기차,조립,구축,미국,조립,요건,충족,중국,광물,부품,적격,국가,조달,업체들,독일,전기차,업체,사용,캐나다,광물,검토,IRA,발효,시행령,연말,계획,개월,골든타임,당국,기업,협력,북미,생산,공장,건설,시점,유예기간,설정,경제동맹,미국,설득</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,7 +2171,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>인하대,학종,자소,폐지,면접,배수,수시모집,대입,수시,모집,인하대,학년도,수시,모집,3873명,모집,인원,2631명,67.9%,선발,변화,학생부종합전형,자기소개서,폐지,면접배수,3배수,3.5배수,학생부,종합,인하,미래,인재,전형,905명,선발,면접,단계,전형,서류,종합,평가,100%,,결과,서류,평가,결과,70%,,면접,평가,30%,반영,학생부,종합,인하참,인재,전형,298명,선발,예정,서류,종합,평가,100%,인하미래인재전형,진로탐구역량,45%,반영,인하참인재전형,기초학업역량,45%,반영,지역균형전형,학생부교과전형,교과,100%,선발,수능최저학력기준,적용,학교장추천전형,운영,제한,고교,추천,인원,폐지,학교장,추천,지원,가능,진로선택과목,반영,성취도,등급,변환,과목,상위,반영,논술전형,논술,70%,교과,30%,일괄,합산,방식,469명,선발,논술,자연,계열,수학,난도,과년도,염두</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1814,7 +2194,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>산업,혁명,대비,첨단,계약학과,신설,최저학력기준,지원,13일,접수,수시,원서,26만,모집,모의고사,결과,지원,대학,13일,학년도,대입,수시,모집,원서,접수,시작,한국대학교육협의회,대교협,학년도,입시,대학,전국,모집,인원,77.9%,26만,모집,선발,모집,비율,75.9%,2%포인트,서울,지역,대학들,비율,정시,모집,40%,대학,10명,8명,수시,선발,시작,수시,모집,원서,접수,진행,대학,기간,3일,원서,접수,대학들,전형,합격자,17일,그사이,대학수학능력시험,성적,수험생,수험,통지,수험생,19일,합격자,등록,대학들,수시,모집,학생부,위주,정시,모집,수능,성적,위주,학생,선발,2023학년도,절반,55.8%,전형,학생부,교과,전형,학생부,종합,30.3%,실기,8.1%,논술,4.1%,기타,전형,1.7%,전략,수시,지원,기준,수능,최저,학력,중요,모의고사,가채점,결과,모의고사,수능,시험,수준,가늠,마지막,기회,결과,대학,수시,최저,학력,기준,충족,여부,정시,지원,가능,여부,수시,모집,지원,전략,모집,합격,정시,모집,지원,대학,지원,신중,이과,공통,수능,수능,졸업,비율,증가,예상,수능,모의고사,지원자,졸업생,18.9%,실제,수능,비율,예상,졸업생,서울,지역,대학들,정시,모집,선발,비율,이과,통합,수능,선택,과목,유불리,대입,재도전,수험생,평가연구소장,이만기,유웨이,교육,평가,연구소장,상대적,수능,졸업생,모의고사,등급,실제,수능,유지,감안,수시,지원,대학,수능,최저,학력,기준,충족,부족,기간,극복,냉정,판단,지원,대학,수능,최저,학력,기준,폐지,완화,대학들,확인,건국대,고려대,서울과학기술대,아주대,이화여대,기준,최저,학력,조정,산업,혁명,첨단산업,관심,대학,학과,분야,신설,추세,전기차,수요,가천대,배터리,공학,전공,강원대,배터리융합공학과,신설,학생,선발,졸업,기업,채용,계약학,연세대,LG디스플레이,협약,디스플레이융합공학과,신설,모집,학생,선발,고려대,차세대통신학,스마트모빌리티학부,계약학과,신설,계약학,취업,보장,만큼,합격선,예상,첨단학과,포함,이공,계열,학과,취업난,선호도,전문가들,교육부,모집,학생부,종합,전형,제출,서류,서류,교사,추천서,폐지,학년도,입시,자기소개서,폐지,방향,정부,정책,자기소개서,폐지,대학들,2023학년도,대학,추세,2023학년도,자기소개서,폐지,대학들,서울과학기술대,세종대,이화여대,인하대,숙명여대,제출,서류,면접,전형,요소,중요,지적,지역,균형,전형,인원,고교,추천,배수,기회,전형,선발,대학들,대학,전년,비교,부분들,지원,모집,요강,확인</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1832,7 +2217,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>과일,트럭,콘셉트,티셔츠,팔자,팬덤소비,시대로,뉴컨슈머,이색경험,지갑여,지난달,서울,용산구,한남동,골목,20여,전통시장,과일,트럭,콘셉트,티셔츠,과일,손님,장사,인스타그램,공지,판매,상품,사과,포도,딸기,프린트,티셔츠,판매,방식,독특,다마스,차량,좌판,시장,과일,소쿠리,과일,프린트,티셔츠,제품,설명,골판지,매직,판매자들,시장,상인,봉다리,판매,일정,직전,한정판,느낌,3만,2장,5만,티셔츠,이날,감염증,신종,코로나바이러스,코로나19,소비,가성비,효용성,즐거움,재미,추구,소비자,제품,온라인,검색,구매,타깃소비,이색,경험,지갑,팬덤소비,시대,충동구매,팬덤소비,동아일보,바이브컴퍼니,기간,코로나19,유행,6월,블로그,트위터,인스타그램,게시,110억,문서,텍스트,마이닝,text,mining,정형,텍스트,데이터,유용,정보,기법,결과,소비,상위,70%,행복,감정,충족감,표현,서술어,가격,16%,서술어,추천,구매,행위,13%,서술어,압도적,비중,경향,세대,10대,30대,합리적,40대,키워드,60대,경솔,충동적,키워드,대비,소비자들,물건,자체,물건,구매,경험,중시,이은희,인하대,소비자학,교수,요즘,소비자,온라인,화제,판매,구매,일련,중시,가치,물품,자체,경험,보물찾기,과거,오프라인,구매,충동구매,방식,유통업,관계자,온라인,타깃,구매,과거,시식,홍보,사은품,증정,마케팅,입소문,제품,사람들,과일,김도영,대표,자체,사기,경험,사진,소셜네트워크서비스,SNS,공유,고객,현대백화점,이마트24,배스킨라빈스,굴지,유통,구애,협업,경험,불편,감수,소비,관행,이해,소비,행태,서울,서대문구,직장인,편의점,특정,편의점,상품,이색,컬래버레이션,이색,소개,인스타그램,계정,팔로잉,신상,신상품,확인,지난달,연세우유크림빵,출근길,동선,편의점들,재고,확인,크림빵,경험,인스타그램,친구들,공유,경남,통영,울라봉,인기,카페,대표,제품,라테아트,쌍욕라떼,주말,300명,SNS,커뮤니티,사람,방식,게릴라식,판매,소비,일반화,북다마스,이동식,서점,다마스,독립,출판물,제주도,판매,장소,팔로어,인스타그램,공지,판매,방식,화제,카페,카페,서점,조천읍,제주,제주시,카페,사장,박민규,북다마스,손님,최고,50%,경험,손님,수요,충족,설동훈,전북대,사회학,교수,기성세대,자신,성향,선호,세대,사회,변동,반응,MZ세대,소비,행태,각자,개성,존중,소비자,민주주의,일환,조던,신발,포기,한정판,굿즈,콜라보,상품,인기,소비자,가격,재미,민감,기업들,이해,소비현상,MZ,세대,조직,프로젝트,기획,1년,6번,아디다스,이지,Yeezy,나이키,조던,Jordan,한정판,신발,구매,대학원생,경제적,부담,2015년,취미,포기,일주일,사이트,온라인,재고,확인,습관,한정판,신발,가치,신발,소비,즐거움,의미,소비자,소비,트렌드,한정판,굿즈,이색,마케팅,소비재,기업,기업들,소비,특징,재미,트렌드,동아일보,소비재,유통기업,44곳,대상,설문조사,MZ소비자들,영역,복수,응답,질문,재미,95.6%,1순위,트렌드,디자인,90.9%,2순위,가격,가성비,43.2%,상대적,응답률,직장인,온라인,쇼핑몰,일주일,번씩,유행,스타일,현대적,재해석,뉴트,패션,옷들,유행,청바지,컬러풀,면바지,부츠컷,배기바지,주변,요새,유행,순간,기업들,재미,강조,제품,롯데마트,지난달,검정고무신,애니메이션,검정,고무신,등장인물,극중,바나,크림빵,만두,자장면,음식,영감,20여,컬래버레이션,상품,하이트진로,진로,두꺼비,공식,굿즈,부활,팔다리,눈망울,외모,무기,두꺼비,캐릭터,인기,요인,전국,두꺼비,굿즈,판매,어른이,어른,어린이,문방구,콘셉트,껍상회,유통업,관계자,소비,문법,이해,소비,현상,대학,자문단,MZ,세대,조직,기획,실제,프로젝트,연결</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1850,7 +2240,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>방송인,미스,코리아,출신,교수,정예지,법조인,연상,내달,결혼,해피메리드컴퍼니,제공,배우,미스,코리아,인천,출신,배우,방송인,정예지,35,9월,신부,자태,자랑,해피메리드컴퍼니,제공,웨딩,컨설팅,업체,해피메리드컴퍼니,미스,코리아,출신,방송인,교수,정예지,내달,연상,법조인,결혼식,웨딩,화보,공개,해피메리드컴퍼니,제공,공개,화보,정예지,화보,예비,신랑,웨딩드레스,한복,자태,해피메리드컴퍼니,제공,정예지,예비,신랑,지인,소개,3년,열애,부부,해피메리드컴퍼니,제공,정예지,인스타그램,결혼,소식,부부,노력,각오,결혼식,축가,가수,본명,안지호,정예지,제자,연극배우,김도경,예정,정예지,미스,코리아,선발,대회,인기상,인하대,연극,영화학,서강대,영상,대학원,영화연기,졸업,SBS,드라마,연극,허스토리,소문,배우,활동,방송,진행자,얼굴,5년,대경대,연극영학,대학,강단,제자들</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,7 +2263,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>인하대,학습,병행,사업,평가,우수,대학,선정,인하대학교,고용노동부,한국산업인력공단,주관,IPP,학습,병행,사업,성과,평가,우수대학,A등급,선정,31일,평가,IPP,학습,병행,사업,운영,대학,대상,인하대,실습,달성,훈련유지율,신규,참여율,우량,기업,국가직무능력표준,NCS,합격률,학습,병행,외부,평가,합격,다수,평가,항목,만점,획득,인하대,장기,현장,실습,IPP,사업,기업,90명,학생,참여,참여학생,취업률,86.3%,학습,병행,사업,기업,43명,학생,참여,절반,학생,실습,기업,정규직,근무,기준,학습,병행,참여,학생,44.4%,NCS,학습,병행,외부,평가,합격,국가자격,취득,기간,평균합격율,기간,평균,합격,20%,2배,수치,IPP,일학습병행사업,일터,학습,우리나라,현실,적용,실무,인재,육성,제도,체계적,맞춤,훈련,제공,훈련,종료,학습근로자,역량,자격,평가,고용,연계,프로그램,인하대,IPP,듀얼,공동,훈련,센터,반도체,SW개발,디지털,마케팅,직무,중심,4차,산업,분야,인력,양성,역량,집중,1134명,학생,센터,주관,프로그램,참여,7년,센터,프로그램,참여,학생,취업률,89%,반도체장비,SW,전자기기하드웨어,분야,반도체,설계,반도체,장비,SW,전자,기기,하드웨어,마케팅,전략,기획,영업,훈련과정,운영,기업,40명,학습근로자,참여,IPP듀얼공동훈련센터장,강재영,인하대,IPP,듀얼,공동,훈련,센</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1886,7 +2286,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>최악,무역,적자,수출기업,최대,금융지원,해소,규제,정부,사상,최악,적자,무역수지,반전,추진,수출기업,자금,지원,확대,규제,완화,방침,최대,교역국,중국,경기,둔화,주력,수출품,반도체,가격,하락,대응,본격화,에너지,가격,달러,가치,수준,상황,무역,여건,극적,개선,전망,산업,통상,자원부,부산신항,개최,윤석열,대통령,주재,비상민생,경제,회의,수출,경쟁력,강화,전략,무역수지,7월,적자,달러,기록,수출액,기간,누적,달러,최고,실적,달성,에너지,원자재,가격,수입,달러,최고,기록,러시아,우크라이나,전쟁,대외적,심화,연간,무역,적자,가능성,상황,정부,대책,무역수지,개선,정부,이날,방안,수출,기업,지원,확대,수출입,위험,요인,대응,수출,산업,경쟁력,향상,정부,가동,수출,지원,체계,4가지,핵심,수출,기업,지원,리스크,대응,정부,자금,조달,어려움,수출,기업,무역,금융,지원액,수준,역대,최대,351조,확대,한도,무역,보험,체결,상향,기업별,선적,수출신용보증,수출,신용,보증,수출계약,체결,계약,이행,대출,보증,대출,한도,수출,중소기업,1000개,대상,내년,한시적,최대,포인트,혜택,금리,인하,부여,수출기업,물류비,획득,해외,인증,마케팅,비용,통관,비용,지원,협회,수출,업종,경제단체,접수,규제,완화,추진,해소,대표적,기업,보관,연구개발,R&amp;D,물품,반출입,절차,R&amp;D,지연,예방,바이오,원재료,수입,절차,검역,단축,원재료,변질,사례,방지,계획,무역시장,한국,부담,요인,위험,대응,강화,리스크,정부,최대,교역국,중국,경기,둔화,한국,중국,상대,무역,적자,정부,양국,공통,육성,정보통신기술,ICT,소재,부품,장비,분야,재생에너지,수출,협력,확대,30년,수교,계기,개최,산업,통상장관회의,정례화,양국,경제,장관,회의,정례,논의,계획,에너지,가격,정부,상대적,액화,천연가스,LNG,수요,도시가스,연료,LNG,액화석유가스,LPG,혼소,공급,확대,LNG,수입액,8억,달러,절감,계획,산업체,발전용,연료,도시가스,LPG,대체,4억,LNG,수입액,달러,주력,수출,품목,하락,반도체,가격,하락,리스크,정부,육성,반도체,산업,반도체,인재,양성,계획,산업,경쟁력,무역금융,반도체,특화,무역,금융,지원,정부,월간,무역,적자,기간,8월,무역적자,2008년,4월,14년,무역적자,연속,무역,적자,기록,무역투자실장,문동민,산업부,무역,투자,실장,특별,변수,무역수지,적자,전문가,고물가,환율,위기,정부,대책,약발,경고,정인교,인하대,국제통상학,교수,수출기업,환율,불안,원자재,조달,시작,리스크,국제,거래상,환율,안정,지원,원자재,조달,정부,비축,물량,탄력적,조달,조언</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1904,7 +2309,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>인하대,IPP,학습,병행,사업,평가,우수,대학,선정,인하대,고용노동부,한국산업인력공단,주관,IPP,장기현장실습,학습,병행,사업,성과,평가,우수대학,A등급,선정,31일,IPP,일학습병행사업,일터,학습,Work-based,Learning,우리나라,현실,적용,실무,인재,육성,제도,훈련,종료,고용,연계,프로그램,IPP,학습,병행,사업,운영,대학,대상,평가,인하대,실습,달성,훈련유지율,신규,참여율,우량,기업,국가직무능력표준,NCS,합격률,학습,병행,외부,평가,합격,다수,평가,항목,만점,획득,사업,인하대,IPP,기업,90명,학생,참여,참여학생,취업률,86.3%,학습,병행,사업,기업,43명,학생,참여,절반,학생,실습,기업,정규직,근무,기준,학습,병행,참여,학생,44.4%,NCS,학습,병행,외부,평가,합격,국가자격,취득,기간,평균합격률,기간,평균,합격,20%,2배,수치,인하대,IPP,듀얼,공동,훈련,센터,반도체,SW개발,디지털,마케팅,직무,중심,4차,산업,분야,인력,양성,역량,집중,1134명,학생,센터,주관,프로그램,참여,7년,센터,프로그램,참여,학생,취업률,89%,IPP듀얼공동훈련센터장,강재영,인하대</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1922,7 +2332,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>속도,폐지,정책,강화,파워인터뷰,장관,김현숙,여성,가족부,대통령,공약,동시,수행,필수,여성,가족,청소년,업무,형태,정부,조직,개편,논의,국민,입장선,서비스,제공,중요,인터뷰,유병권,사회,부장,100일,취임,장관,김현숙,여성,가족부,부처,장관,중요,여성,가족,청소년,정책,강화,업무,수행,한편,윤석열,대통령,대선,공약,지시사항,부처,폐지,업무,진행,모순,장관,가지,의식,장관,윤석열,정부,성공,중요,정권,교체,부처,장관,점령군,십상,장관,점령군,패전,처리,투수,국민,도움,방향,여가부,업무,조정,효율화,역발상,30여,현장,여가부,미래,여가부,조직,산업,혁명,중요성,여가부,업무,부처,역할,창조,파괴자,김현숙,장관,여가부,분야,특정,국정,국한,역할,부서,가족,청소년,저출산,부처,국가,차원,난제,보편,서비스,제공,강조,여가부,취임,장관,저출산,해결,아이,서비스,확대,맥락,학교,청소년,보호,부모,청소년,부모,지원,폭력,피해자,통합,서비스,제공,금전,지원,포괄적,서비스,차원,진행,장관,여가부,폐지,정부,조직,개편,국민,입장,공공,서비스,중요,부처,제공,중요,국가,서비스,국민,전달,부처,개편,대통령,고민,장관,여가부,폐지,속도,인터뷰,장관실,정부,서울청사,진행,전화,인터뷰,추가,대통령,폐지,로드맵,마련,지시,사전,업무보고,협의,업무보고,그날,대통령실,업무보고,대통령직인수위원회,국정과제,중심,이야기,인수위,인수위,여가부,개편,정부조직,부처,폐지,별도,대통령,업무보고,여가부,폐지,말씀,업무보고,여가부,폐지,포함,여가부,폐지,입장,입장,대통령,대선,공약,이행,중요,개인,생각,중요,이민청,신설,여가부,폐지,행정안전부,정부,조직,개편,조직,토론,방향성,논의,대통령,지시,이해,속도,활동,여가부,폐지,강화,방점,대통령,입장,여가부,역할,여가부,형태,고민,말씀,행안부,정부조직법,개편안,정부,조직법,개편,대통령,말씀,혼자,로드맵,정부,조직법,개편,부처,신설,통폐합,융화,여가부,폐지안,이해,장관,여가부,강화,강조,장관,취임,30여,여가부,개선,방안,정책,강화,의견,장관,여가부,폐지,공중분해,장관,이상민,행안부,29일,국회,행정,안전,위원회,출석,국회,회기,여가부,폐지,정부,조직법,개정안,제출,예상,아이,돌보미,2024년,17만,확대,제시,정도,정도,커버,민간,베이비시터,통계청,자료,14만,돌보미,정부,아이,2만,정도,민간,정부,돌보미,17만,정도,여가부,민간,제공,아이,서비스,안심,이용,제도,국가,자격,그동안,정부,민간,아이,돌보미,양성,교육,정부,돌보미,80시간,민간,40시간,통일,아이,서비스,표준,서비스,수준,개선,안심,국가,차원,아이,사람,부모,불안감,해소,아이,서비스,질적,담보,정부,인증,관리,자격증,제도,서비스,어린이집,서비스,기본,시간,제공,부모들,퇴근,아이들,아이,돌보미,아이,엄마,퇴근,간식,직장,엄마,10분,출근,시간,중요,어린이집,등원,하원,본인,퇴근,아이,서비스,부모들,가지,결합,서비스,대책,극복,재택근무,근무,활성,가정,양립,방안,제시,우리나라,일본,코로나19,팬데믹,세계적,대유행,경제협력개발기구,OECD,국가,데이터,파악,23개국,출산율,조사,결과,한국,일본,제외,19개국,재택근무,출산율,상승,결과,양육,부담,여성,나라,가사,육아,부담,아빠,엄마,공평,출산,상승,의미,결국,가정,양립,중요,근무제,직종,직종,직종,인센티브,아빠,육아,휴직,근로,가족친화인증기업,정도,확대,인센티브,제공,가족친화인증기업,정부,공사,납품,입찰,조달청,가점,금융,기관,융자,금리,우대,정책,혜택,인센티브,확대,조세재정연구원,정부,노무현,용역,저출산,보육문제,OECD,자료,출생률,영향,보육,육아휴직,나라,출산율,한국,보육,정도,재정,투입,해결,요즘,어린이집,무상보육,육아휴직,자유,아빠들,직장,문화,중소기업,현실,인력난,재정난,부담,가능,엄마,아빠,육아휴직,자유,육아휴직,급여,현실화,상황,정부,정책,지원,해결,출산휴가,육아휴직,고용보험,현실적,기업,부담,기업,부담,저출산,해결,정부,기업,부담,더하기,알파,재정지원,생각,여가부,아이,틈새,가족친화인증기업,가정,양립,문화,확산,244개,가족센터,부모,교육,상담,프로그램,계획,육아휴직,나라,출산율,아빠,자유,육아,휴직,인식,전환,급선무,부담,휴직,급여,현실,민간,아이,돌보미,자격제,국가,차원,안심,체계,구축,워라밸,근무,활성,기업,인센티브,부여,젠더,갈등,해소,최우선,복무,보상,강화,뒷받침,해소,젠더,갈등,최우선,복무,보상,언급,가산점,부활,보상,강화,복무,장병,만족도,획기적,향상,의식주,개선,개선,의료,체계,병영,생활,개선,봉급,인상,사회,진출,지원금,제공,추서,진급,계급,연금,각종,급여,예우,지원,군인,수당,개선,주거,지원,직업군인,처우,여건,초급,간부,복무,개선,제대,의무,복무자,지원,마련,근거,제대군인법,개정,기간,복무,근무,경력,산입,호봉,반영,의무화,복무,확대,학점,취득,지원,대학,검토,논란,남성,역차별,젠더,갈등,해소,차원,국방부,고용노동부,지원,실제,금전,국방부,사실,부서,인식,개선,남성,복무,여성,출산,육아,경력단절,사회,보상,필요성,남녀,공감,영역,정책,강화,갈등,해소,추진,활용,여성,인력,중요,대두,경력단절여성,포함,양성,여성,인력,방안,지난달,반도체,인력,양성,방안,합동,부처,사회관계장관회의,디지털,전환,미래,노동,시장,대응,반도체,현장,부합,양성,여성,인력,중요,이야기,여가부,차원,반도체,소프트웨어,분야,인재양성,개설,기업,맞춤,전문,직업,훈련,신규,추진,부처,협업,교육,연계,경력개발,유지,상담,프로그램,진행,계획,지점,여가부,정체,논란,직결,가족,청소년,저출산,남녀평등,여가부,업무,부처,연관,영역,독자적,사업,상대적,예산,인력,부처,협력,연계,사업,여가부,정체성,독립성,주목,정치,이념,진영,갈등,한복판,여가부,폐지,장관,생각,여가부,정체성,역할,여가부,여성,가족,청소년,대상,부처,국가,사각지대,국민,대상,중요,부처,국민,역할,여가부,국민,대상,보편,서비스,확대,방향,아이,서비스,사업,보편적,가족정책,확대,가족정책,부모,문화,가구,맞벌이,가구,딩크족,Double,자녀,Income,Kids,자녀,Income,Kids,자녀,부부,노인,가구,확대,청소년,활동,국민,입장,부처,서비스,중요,가족,관심,정책,변화,나라,기초,가족,생각,가족,가족들,친족,가족,47만,통계청,자료,가구,660만,부모,위기,가족,다문화,가족,초점,가족,정책,접근,가족,탄생,재구성,기초,자료,축적,정책,발굴,부처,여가부,여가부,정체성,연결,인하대,성폭력,사망,사건,젠더,폭력,성폭력,사건,논란,성폭력,얘기,안전,얘기,젠더,갈등,차원,남자,가해자,여자,피해자,갈등,이야기,오해,부각,측면,사안,생각,여성,폭력,여성,폭력,현장,점검,인하대,방지,피해,폭력,예방,교육,현장,조사,보고서,작성,장관,박근혜,정부,새누리당,국민,전신,국회의원,수석,청와대,고용,복지,정책,전문가,정부,정책,혼선,대통령,지지율,정권,교체,초반,성장통,걱정,혼선,정부,정책,지지율,대통령,영향,생각,박근혜,정부,청와대,정권,출범,2년,정권,임기,중간,점심,홍보수석,홍보,정부,출범,초기,청와대,보좌관들,이야기,정부,손발,생각,정도,정부,성공,국민,열망,경제,환경,국민,내기,내각,일원,성찰,최선,대통령,사회정책,책사,사회,정책,국회의원,수석,시절,연금,노동개혁,주도,김현숙,장관,윤석열,정부,선고,사실,사형,여성가족부,해체,작업,김현숙,장관,대표적,조세,연금,전문가,여성,복지,정책,전문성,장관,여성,가족부,장관,임명,여가부,업무,부처,유지,발전,조직,개편,완수,적임자,윤석열,대통령,판단,장관,한국개발연구원,KDI,연구원,한국조세재정연구원,위원,학자,출신,국회의원,선거,새누리당,국민의힘,비례대표,정계,입문,국회의원,시절,공무원,연금,제도,개혁,태스크포스,TF,위원,국회,공무원,연금,개혁,특별,위원회,국민,타협기구,위원,활동,박근혜,정부,대표,개혁,처리,공무원,연금,개혁,주도적,참여,박근혜,정부,대통령직인수위원회,여성,문화,인수위원,발탁,여성,정책,설계,입안,청와대,고용,복지,수석,노동,개혁,법안,주도적,추진,청와대,국회,추진력,리더십,발휘,평가,최순실,국정,농단,사태,숭실대,경제학,강의,고용복지정책본부장,대통령,대선,경선,후보,시절,고용,복지,정책</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1940,7 +2355,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>인하대,IPP,학습,병행,사업,성과,평가,인하대학교,고용노동부,한국산업인력공단,주관,IPP,학습,병행,사업,성과,평가,우수대학,A등급,선정,31일,평가,IPP,학습,병행,사업,운영,대학,대상,진행,인하대,실습,달성,훈련유지율,신규,참여율,우량,기업,국가직무능력표준,NCS,합격률,학습,병행,외부,평가,합격,평가항목,만점,사업,인하대,장기,현장,실습,기업,90명,학생,참여,취업률,참여학생,취업,86.3%,학습,병행,사업,기업,43명,학생,참여,절반,학생,실습,기업,정규직,근무,기준,학습,병행,참여,학생,44.4%,NCS,학습,병행,외부,평가,합격,국가자격,취득,기간,기간,평균,합격,20%,수치,IPP,일학습병행사업,일터,학습,Work-based,Learning,현실,적용,실무,인재,육성,제도,체계적,맞춤,훈련,제공,훈련,종료,학습근로자,역량,자격,평가,고용,연계,프로그램,인하대,IPP,듀얼,공동,훈련,센터,반도체,SW개발,디지털,마케팅,직무,중심,양성,산업,분야,인력,역량,집중,1134명,학생,센터,주관,프로그램,참여,7년,센터,프로그램,참여,학생,취업률,89%,반도체,설계,반도체장비,영업,분야,훈련,운영,기업,40명,학습근로자,참여,강재영,센터장,인하대,취업,유명,센터,우수,프로그램,기업,연계,현장,실습,역할,학생들,선호,기업들,센터,사업,다수,참여,학생들,열정,프로그램,참여,성과,유지,인천,김민</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,7 +2378,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>기초,연금,감당,국정,정부,예산안,세수,구조조정,20조,구상계획,국정,재원,구상,계획,부족,세수,구조조정,난제규모,가능성,기초,연금,좌초,가능,윤석열,정부,집권,원씩,연평균,국정,달성,내년,편성,예산,11조,재원,198조,수입원,세금,계획,부족,전망,국정과제,예산,규모,기초,연금,좌초,가능성,병사봉급,부모급여,국정,예산,기획재정부,예산안,공개,내년도,국정,예산,단추,209조,국정과제,임기,마지막,2027년,완수,나랏돈,사업,인상,병사,봉급,대표적,대비,3조,869억,책정,병장,월급,국정과제,205만,2025년,재원,5조,안팎,전망,2024년,자녀,부모,급여,예산,3,000억,내년,000억,000억,추산,65세,지급,기초연금,30만,000원,내년,000원,예산,18조,304억,2조,000억,증가,사업,병사,봉급,부모급여,기초연금,1인,지급액,인상,재정,영향,기초,연금,예산,임기,2조,000억,5년,2027년,50만,청년원가주택,역세권,건설,재원,내년,000호,공급,1조,000억,책정,산술적,요구,추가,예산,9조,000억,사업,나라,곳간,사정,여유,국가,재정,운용,계획,국세,수입,추가,경정,예산,기준,000억,000억,4년,63조,000억,증가,나라곳간,국정과제,궤도,수정,국정,재원,연간,추가,세수,마련,정부,감안,4년,80조,정작,국세,수입,전망,16조,000억,부족,심화,경기,위축,국정,구상,위협,기업,자영업자,매출,타격,국세,국정과제,투입,재원,부족,정부,국정,재원,확보,방안,제시,20조,지출구조조정,예년,수준,10조,24조,지출,구조,조정,사업,예산,삭감,추가,발굴,정부,지역화폐,예산,문재인,정부표,예산,코로나19,백신,사업,예산,감축,의무지출,재량,지출,비중,추경,기준,51.5%,44.4%,지출,구조,조정,제약,국정과제,정부,시점,기초,연금,40만,증액,실패,가능성,거론,정부,방안,기초,연금,인상,국민,연금,개편,내년,국회,제출,예정,정치권,도움,연금,개혁,외면,증가,노인,인구,기초,연금,예산,상황,증액,1인,지급액,기초연금,나라,살림,부담,연구위원,윤석명,한국보건사회연구원,위원,예산,기초,연금,소요,49조,000억,30만,유지,유지,000억,추계,강병구,인하대,경제학,교수,정부,지출,구조,조정,국정,재원,확보,축소,재량,지출,비중,한계,수입,결국,세금,방법,법인세,종합부동산세,감세,정책,수정</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1976,7 +2401,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>메타버스,수도,경북,전국,대학,메타버스,연합회,맞손,영남대,연합회,발대식,등연합회,메타버스,창작,페스티벌,협업,추진,메타버스,수도,선언,경북도,대학,메타,버스,동아리,경북도,전국,대학,메타버스,연합회,UNIMETA,유니메타,영남대,경북,메타버스,수도,발대식,전국,대학,메타버스,연합회,발대식,이철우,경북도,지사,연합회장,서승완,전국,대학,메타버스,동아리,대학,메타,버스,지도교수,민간기업,100여,참여,전국,대학,메타버스,연합회,전국,대학,참여,해외대학,멜론대,미국,카네기,캐나다,워털루대,국내대학,충남대,서울대,중앙대,성균관대,국민대,건국대,경희대,세종대,인하대,영남대,경북대,대구교대,대구대,동의대,경상대,이날,행사,대학생,아이디어,메타,버스,공간,현장,동시,진행,출범,이날,정식,메타버스,전국,대학,메타버스,대학,메타,버스,동아리,인적,네트워크,구축,조성,메타버스,생태,확장,결성,오픈,플랫폼,대학,메타,버스,구축,장기적,개방성,통합성,독자적,플랫폼,구축,메타,버스,아카데미,구축ᆞ지원,창작,생태,구축,지원,예정,시공간,제약,메타버스,해외,대학,글로벌,교류,프로그램,운영,대학,무한,확장,가능,메타버스,실현,계획,경북도,연합회,대학,메타버스,협업사업,사업,청년,메타버스,창작,페스티벌,국제,청년,메타버스,컨퍼런스,추진,크리에이터,디지털,콘텐츠,육성,청년ᆞ대학생,글로벌,교류,마련,이철우,경북도,지사,메타버스,경제,사회,변화,기회,대학생,ᆞ청년들,무한,상상력,발휘,경북,메타버스,수도,실현,지원</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1994,7 +2424,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>검찰,국정,지원,최재해,감사원장,강희철,논설위원,집무실,최재해,감사원장,윤석열,정부,국정지표,표구,독립적,국정,감찰,헌법기관,수장,원장,감사원,출신,의아,감사원,대통령,국정운영,지원,기관,생각,한마디,국회,답변,의문,요즘,공사판,감사판,이해,도움,감사,사후,정권,사안들,감사원,고유,판단,영역,감사,감사,정권,유불리,진영,이해득실,충돌,지점,정답,논란,십상,절차,감사건,적법,원칙,이론,진행,감사,3건,피살,서해,공무원,전현희,국민,권익,위원장,실태,영리,민간단체,지원,감사위원회의,의결,감사,결정,감사원법,감사정책,감사계획,감사위원회,의결,사항,명시,3건,절차,감사원,대변인,인정,3건,별도,감사위원회의,의결,상시,공직,감찰,주제,특정,원장,첩보,정보,구체적,아이템,감사,서해,사건,원장,권한,위임,위임,적법,법령,근거,감사원법,규칙,3건,감사,원장,권한,의결,원장,감사,사안,감사위원회의,감사,서해,사건,국방부,해경,자진,월북,입증,불가,다음날,감사원,감사,착수,보도,자료,전현희,위원장,정치,공방,가열,특별조사국,투입,법외,감사,이래,감사원,설립,대변인,설명,서해,공무원,피살,사건,감사,전격,지시,사무총장,유병호,감사원,호언,신동아,인터뷰,감사위원회의,모양,대선,감사,위원,이미현,교수,연세대,법학,전문,대학원,논의,안건,정부,정부,문재인,정부,임명,마지막,감사,위원,대통령,대학,동기,친구,위원,남편,고발사주,의혹,특별위원회,윤석열,캠프,정치,공작,진상,규명,특별,위원회,위원,활동,정치색,선명,사람,임명제청,원장,교수,12월,대통령,검찰,생각,김인회,인하대,법학,전문,대학원,교수,원장,제청,감사원,입성,총선,민주통합당,더불어민주당,공천,출마,낙선,대선,활동,문재인,후보,지원,포럼,감사위원,직전,이재명,민주당,후보,캠프,이름,신구,정권,밀접,인사,사람씩,감사위원,정당,가입,정치운동,관여,감사원법,제10조,원장,기념사,감사원,설립,직무,독립,정치,중립,불편부당,자세,견지,당부,직원들,빈축,정부,임명,자리,불안,원장,의도,늘공,퇴직,원장,복귀,3년,개월,야인,임기,3년,원장,노무현,대통령,임명장,검찰총장,국세청장,이명박,정부,임기,보장,오버,사달,과거사,사람,검찰,열심,원장,국정,지원,활동,윤석열,정부,의문,감사판,사방팔방,확대,대통령,직무,수행,지지율,20%대,한국갤럽</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2012,7 +2447,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>허리띠,긴축,서민지원,확대,건전,재정,내년도,예산안,윤석열,정부,약방,감초,언급,재정,긴축,정치,수사,레토릭,정부,허리띠,선언,확대,서민,지원,대처,민생,경제,상황,확보,재정,건전,마리,토끼,이야기,국무,회의,통과,예산안,5년,재정,운용,계획,경제,규모,정도,정부,지출,핵심,내년,예산,5.2%,증가,639조,편성,물가,상승,반영,내년도,성장,경상,성장률,전망치,수준,교수,우석진,명지대,경제학,문재인,정부,정부들,보통,경상,성장,만큼,정부,지출,정도,예전,기조,재정,운용,평가,정부,적자,국내총생산,GDP,차지,비중,과거,정부,임기,평균,유지,이명박,박근혜,정부,정부,4년,적자,비중,중반,관리,대응,코로나19,위기,대응,지출,적자,문재인,정부,비교,증가폭,축소,역대,정부,긴축적,기조,재정,운용,측면,색깔,지적,내년,증가,예산,이행,정부,국정,재원,물가,상승,복지,지출,자연,증가,내국세,수입,연동,지방,교부세,교부금,일반,행정,교육분야,제외,국정과제,예산,외국,취약,계층,지원,확대,반영,외교,통일부문,지출,증가,7.3%,200만,병사,월급,공약,월급,130만,내년,병장,월급,사회진출,지원금,포함,지급,예산,포함,증가율,국방,지출,증가,4.6%,그다음,예산,3분,남짓,차지,보건,복지,고용,지출,내년,4.1%,증가율,지출,증가,기초연금,내년,고령,기초,연금,4.5%,인상,32만,물가,상승,한국은행,전망,3.7%,사실,제자리걸음,윤석열,대통령,취약계층,지원,사회,약자,강조,예산,뒷받침,내년도,지출,증가액,지방,정부,교육청,교부세,교부금,증액분,제외,정부,순수,재원,9조,대선,공약,예산,국정,이행,11조,반영,마이너스,정부,5년,60조,규모,추진,감세,재정,여력,부메랑,정부,코로나,대응,예산,24조,규모,예산,삭감,내년,신규,지출,수요,지출,구조,조정,재원,확보,가능성,당장,내년,예산,반영,비용,국정,이행,148조,정부,재정,운용,계획,내년,2026년,지급의무,명시,각종,연금,의무,지출,제외,정부,재량,지출액,연평균,증가,1.5%,국정과제,예산,국정,우석진,교수,세입,여건,공약,사업,지적,교수,윤홍식,인하대,사회복지학,재량,지출,연평균,증가,물가,상승,설정,제도화,이외,복지,제도,사회,위험,대응,복지,제도,선언,지적,정책위원장,오건호,복지,국가,정책,위원장,윤석열,정부,감세,진취적,조세,부담,공공부조,확대,기조,확장,재정,지속,조언,무늬,긴축,증세,사회,안전망,지출,확대,정공법</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2030,7 +2470,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>전국,대학,GTEP,베트남,미용,박람회,참가,가시적,기록,대학,전국,구성,지역특화청년무역전문가양성사업단,GTEP,사업단,26일,호치민,사흘간,베트남,사이공전시컨벤션센터,SECC,개최,미용박람회,베트남,미용,박람회,통합박람회,참가,고객,바이어,주목,성과,기록,산업통상자원부,지원,한국무역협회,운영,GTEP사업,중소기업,강화,수출,경쟁력,무역업계,요구,부합,무역인재,양성,추진,사업,인문,유일,실습,프로그램,2007년,1만,청년,무역,전문가,양성,양성,우리나라,무역,인재,공헌,중소기업들,글로벌화,촉진,계기,학생들,현장,무역,무역,실전,경험,산학,동반,성장,협력,모델,13해,베트남,미용,박람회,국가,지역,180개,450개,브랜드,참여,1만,방문,베트남,대표적,B2B,B2C,전시회,행사,동남아,최대,뷰티,전문,정평,한국외대,대학,전국,한국무역협회,규모,학생,참가자,GTEP,통합,사업단,박람회,마련,부스,협력,업체,K-뷰티,상품,해외,바이어,소개,수출,상담,지원,참가대학,GTEP,사업단,운영,대학,전국,건국대,경희대,계명대,광주대,단국대,목포대,순천향대,영남대,인제대,인하대,전북대,청주대,충북대,한국공학대,한국외대,전시회,참가,사업단,경희대,GTEP,단장,김학민,교수,75건,하루,평균,1만,가량,바이어,상담,요원,대학,홍수</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2048,7 +2493,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>인하대,1대,수시,모집,맞춤,집중상담,제공,인하대학교,입학처,접수,수시,모집,원서,마지막,점검,주말,제외,8일,1대,인하대학교,수시,집중상담,30일,집중상담,대입,전형,상담,학생부,종합,전형,심층,상담,전공,상담,입시결과,입학사정관,1대,상담,학생,정보,제공,수험생,진단,입학,상담,솔루션,프로그램,준비,상담,수험생,학부모,홈페이지,인하대,입학처,신청,고교,연계,프로그램,이용,신청,접수,선착순,상담,방식,유선,화상,선택,입학처장,전태준,인하대,입학,처장,수시,집중,상담,1대,맞춤형,진행,원서,접수,지원,전략,수립,기회,변경사항,전형,안내,전년도,결과,심층,정보,만큼,수험,도움,기간,인하대,수시,모집,원서,접수,13~17일,인천,김민</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2066,7 +2516,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>학생부종합전형,자기소개,폐지,면접,배수,인하대,인하대학교,학년도,수시,모집,3,873명,모집,인원,67.9%,2,631명,선발,변화,학생부종합전형,자기소개서,폐지,면접배수,3배수,3.5배수,학생부,종합,인하,미래,인재,전형,905명,선발,단계,전형,서류,종합,평가,100%,,결과,서류,평가,결과,70%,,면접,평가,30%,반영,전형,학생부,종합,인하참,인재,298명,선발,예정,서류,종합,평가,100%,인하미래인재,전형,진로탐구역량,45%,반영,인하참,인재,전형,기초학업역량,45%,반영,지역,균형,전형,학생부교과전형,교과,100%,선발,수능최저학력기준,적용,전형,학교장,추천,운영,제한,고교,추천,인원,폐지,학교장,추천,지원,가능,진로선택과목,반영,성취도,등급,변환,과목,상위,반영,논술전형,논술,70%,교과,30%,일괄,합산,469명,선발,논술문항,자연,계열,수학,논술,문항,난이도,예년,소폭,예정,정시,자유전공학부,신설,70명,모집,대학,자유전,공학부,진입,전공,선택,완전,보장,의과대,사범대,제외,파격적,학사제도,인하대,선정,교육부,일반,재정,지원,대학,시작,SW중심대학,AI융합혁신대학원,미래우주교육센터,부처,협업,인재,양성,사업,링크,LINC,3.0사업,수주,정부,사업,1,800억,연구비,확보,미래,인재,양성,고도화,추진</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2084,7 +2539,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>현실,우영우,자폐,마스킹,우영우2,우영우,이야기,상업적,미니시리즈,장애인,자폐,스펙트럼,주인공,관계성,주목,변호사,우영우,우영우,장애인,등장,드라마,진일보,방송,입소문,신드롬,장애인,주인공,드라마,제작,가능성,우영우,인기,이야기,시즌,제작,우영우,시즌,시즌,우영우,배우,실제,장애인,우영우,성장,시즌2,시즌1,애정,드라마토크,드라마톡평가단,시즌2,의견,인터뷰,성인자폐,자조모임,자폐인,estas,장지,인터뷰,장애여성공감,장애인,일상,고민,31일,공개,예정,6월,중순,8주,드라마,드라마,변호사,우영우,우영우,방영,장지용,언론사,인터뷰,요청,자폐,천재,변호사,우영우,박은빈,주인공,드라마,우영우,신드롬급,인기,자폐,장애,사회,관심,지용씨,자폐,당사자,언론,인터뷰,참여,2013년,당사자들,성인,자폐,당사자,성인자폐,자조모임,에스타스,estas,공동,조정자,장애인,언론,에이블뉴스,칼럼니스트,활동,고등학교,자폐,장애,진단,등록,대학교,장애인,정부,기준,등록,자폐,장애인,3만,보건복지부,장애인등록현황,여의도,서울,카페,지용씨,자폐인,사이,드라마,평가,단체,에스타스,드라마,종영,우영우,회원들,의견,취합,위키백과,방식,토론,이날,지용,자신,이야기,단체,입장,대변,자폐,당사자,사람,개인,의견,전제,자폐인들,시청자,자폐,당사자,드라마,자폐,모습,간접적,영향,자폐인,경험,비자폐인들,영화,드라마,자폐인,모습,비교군,지용씨,자폐인,영화,말아톤,인기,학교,놀림,기억,자폐,장애,인정,애들,자신들,눈치,영화,대사,활용,아이들,지용씨,우영우,한국,드라마,영화,클리셰,발달,장애,캐릭터,측면,그동안,영화,말아톤,윤초원,조승우,맨발,기봉이,엄기봉,신현준,지적장애,동반,중증,남성,자폐인,등장,보호자,가족,역할,유년기,청소년기,양육,고통,강조,우영우,성인,여성,자폐인,전문직,활약,모습,지용씨,자폐인,표현,설명,대체,단어,표현,에스타스,자폐,자폐인,능력,기능성,계급화,차별화,효과,지적장애,동반,자폐인,지속적,교육,훈련,자폐,특성,행위,위장,마스킹,masking,대화,훈련,결과,자폐인끼리,가슴,머리,자조,사람들,감정,농담,자연,습득,사회,중심,위장,가능,밥벌이,드라마,우영우,3회차,중증,자폐,장애인,김정훈,문상훈,등장,우영우,박은빈,자신,김정훈,자폐,장애인,분류,천차만별,강조,김정훈,중증,자폐인,살인,누명,생각,부모,의대생,자폐인,국가,손실,온라인,댓글,현실,목도,독백,장애,무게,자폐인,특성,자폐,편견,우영우,회사,사표,지용씨,자폐인들,현실,비평,우영우,3회,독백,드라마,인상적,장면,3회,중증,자폐인,차별,극단적,사례,감정,나치,부역,한스,아스퍼거,진실,언급,자폐,에이,제트,논쟁,극명,의미,전문직,자폐인,존재,판타지,현실,지용씨,에스타스,공동조정자,윤은호씨,자폐,장애,공개,사람,사람,박사,학위,인하대,문화,콘텐츠학,초빙교수,미국,사례,미국,플로리다,2019년,자폐,변호사,헤일리,모스,언론,소개,자폐,의대생,전문의,에이디아이,ADI,Autistic,Doctors,International,모임,존재,지용씨,우영우,자폐,교육,고용,현실,직장,문화,성찰,논의,드라마,우영우,대한민국,자폐인,드라마,자폐,이야기,시작,계기,제공,자폐인,현실적,본격적,논의,시민들,관심,대학,사진영상미디어전공,지용씨,졸업,직장,생활,한곳,평균,2020년,직장,입사,회사,3개월,회사,사정,퇴사,구직,생활,한국장애인고용공단,장애인,경제,활동,실태,조사,자폐,장애인,고용률,28.1%,고용률,장애인,고용,34.6%,지용씨,사정,우영우,판타지,명문대,입학,정규직,전환,기억,한국,자폐인,고등교육,취업,취업,성공,고용,유지,현실,에스에이피,SAP,마이크로소프트,MS,글로벌,기업,자폐인,채용,국제,흐름,에스에이피,자폐인,관찰력,장점,발휘,자폐,대상,직업,훈련,프로그램,운영,하버드비즈니스리뷰,기업,비주류,구분,인재들,아이디어,포용,조직,다양성,혁신,도움,신경다양성,자폐성,장애,ADHD,신경학,차이,인식,존중,개념,기업,경쟁력,얘기,지용씨,우영우,시즌,제작,당장,자폐,배우,주인공,극적,변화,생각,발달,장애,극단,정극,최소,조연,자폐,당사자,배우,연예,스타,존재,현실,자폐,스타,존재,현실,사회,중심,방송,연예계,구조적,원인,현실,연예기획사,방송사,점진,노력,작가,배우,공부,한계,시즌2,자폐,당사자,의견,반영,당사자,자문,드라마,단역,스태프,당사자,대안,모색,우영우,10회,한국임상연극심리치료협회,산하,발달,장애인,극단,네모와세모,출연자,크레딧,단체,이름,차례,등장,흔적,장애인,당사자,참여,할리우드,한나,웬트워스,밀러,진단,자폐,장애,공개,스타,한국,스타,자폐,배우,등장,드라마,제작진,노력,넷플릭스,우영우,영어,더빙판,우영우,역할,장애,실제,자폐,배우,대만,미국인,피엔,성우,기용,사실,언급,한국,이름,외국,자폐,한국,자폐,배우들,얘기,지용씨,맞장구,기회,연기,도전</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2102,7 +2562,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D93" t="n">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>대회,경남,도내,대학,전국,규모,운동,우승,쾌거,경남,경남대,국립,창원대,운동대회,전국,규모,운동,대회,우승,쾌거,경남대,19일,25일,경북,김천,전국,대학,레슬링,선수권,대회,단체전,우승,차지,29일,19일,25일,경북,김천,전국,대학,레슬링,선수권,대회,단체전,우승,차지,경남대,선수,경남대,경남대,제공,대회,금메달,은메달,동메달,메달,경남대,4월,레슬링대회,회장기,레슬링,대회,단체전,우승,우승,전국,대회,다체전,차지,기염,그레코로만형,출전,신윤빈,체육교육과,4학년,선수,출전,정영우,체육교육과,4학년,선수,자유형,출전,김민서,체육교육과,3학년,선수,금메달,출전,김한결,선수,김태민,선수,출전,이건섭,선수,은메달,양정훈,선수,은성준,선수,동메달,대회,박진성,코치,지도자상,신윤빈,선수,최우수선수상,노남선,감독,날씨,훈련,선수들,자랑,대회,성과,최선,20일,고창,전북,전국남녀학생종별,문화,체육,관광부,장관,전국,남녀,학생종,탁구대회,단체,우승,차지,창원대,탁구부,창원대,제공,창원대,탁구부,20일,고창,전북,전국남녀학생종별,문화,체육,관광부,장관,전국,남녀,학생종,탁구대회,단체,우승,차지,창원대,사실,결승전,준결승,공주대,풀세트,접전,3대,결승전,청주대,3대,우승기,단식,복식,단체,결승전,번째,노푸름,체육학과,4학년,도민지,체육학과,1학년,상태팀,2대,승기,번째,김고은,체육학과,4학년,선수,3대,상대,승기,창원,경기,선수,상대,선수,3대,여자,개인,복식,도민지,결승전,군산대,남가은,박채희,은메달,획득,개인단식,도민지,선수,동메달,남자부,단체전,예선,강호,인하대,3대,준결승,강원대,동메달,차지,개인단식,박태홍,체육학과,2학년,선수,동메달,개인복식,정운서,체육학과,3학년,김진택,체육학과,1학년,선수,동메달</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2120,7 +2585,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>가구,화양동,역삼,가구,반포본동,휴일,사람,가구,신림동,배달,서비스,이용,서울시,SK텔레콤,통계,빅데이터,이용,서울,가구,행동,패턴,행정동,결과,서울시,공공,민간데이터,입체적,시민,일상,조사,서울시,300만,시민,생활,데이터,결과,가구,서울,연령대별,특정,지역,거주,경향,20~30대,광진구,화양동,1만,서대문구,신촌동,9251명,성동구,사근동,5811명,관악구,신림동,9884명,거주,비율,지역,비율,가구,절반,수준,가구,을지로동,역삼1동,60대,가구,종로,노원구,월계동,강서구,등촌,분포,숙명여대,서용구,경영학,교수,화양동,신촌동,사근동,신림동,주변,대학,비율,가구,메카,비율,경제,활동,인구,가구,일자리,직장,인근,은퇴,지역,서울,외곽,자연생활,선호,특성,데이터,설명,서울시,가구,추적,주변,소통,혼자,주민,사회적,휴대,전화,데이터,지인,교류,빈도,단적,파악,근거,조사,가구,대상자,월평균,통화,18~19,4명,서울,도심,거주,중장년,가구,남성,상대적,지인,문자,통화,중구,명동,4.3%,을지로동,3.6%,회현동,3.6%,커뮤니케이션,비율,가구,가락동,송파구,중구,신당동,거주자,강남구,청담동,월평균,통화량,상대적,서용구,교수,가락동,종합도매시장,가락,농수산물,종합,도매,시장,신당동,골목,상점,청담동,고급,상점가,분포,사회성,사회적,가구,주변,시설,이용,소통,가구,소외,정도,추정,지표,외출,빈도,관악구,대학동,인구,대비,평일,외출,빈도,5.1%,종로구,창신,4.1%,도봉구,방학,4.1%,통화,외출,지역,상대적,동영상,서비스,접속,배달,서비스,이용,사람,관악구,신림동,월평균,배달,서비스,접속,건수,1위,18.4회,동시,월평균,동영상,서비스,사용,횟수,28.1회,최다,이은희,인하대,소비자학,교수,계층,부족,소통,동영상,서비스,음성,대면,교류,온라인,일상,선호,송파구,서초구,강남구,주민,강남,가구,통화,외출,서초구,반포본동,내곡동,강남구,세곡동,송파구,가락동,가구,휴일,이동횟수,상대적,강남,논현1동,18.1회,강남구,역삼1동,17.6회,비율,배달,서비스,접촉,강수영,서울시청,빅데이터,주무관,직장,주거지,40~50대,가구,역삼1동,논현1동,배달,서비스,애플리케이션,친숙,20~30대,배달,서비스,사용,설명,전종준,서울시립대,도시빅데이터,AI,연구원,교수,고령,가구,이동거리,외출건수,통화,건수,집단,사회적,고립,가능성,무료식사서비스,가구,무료,식사,서비스,밥차,여성,안심,서비스,바우처,취약,계층,교통,카드,가구,지원,정책,강화</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2138,7 +2608,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>구독경제,고객,만족,남성,후반,A씨,면도날,구독,서비스,와이즐리,장기간,이용,구독,서비스,시작,면도날,제때,위생적,걱정,와이즐리,면도날,사용,면도기,유명,타사,제품,절삭력,차이,가격,경쟁력,와이즐리,구독,유지,A씨,구독,서비스,이용,서비스,고객,관리,만족,면도날,정도,교체,와이즐리,교체,위생적,면도,구독경제,키워드,만족,고객,정기적,면도기,화장품,화장지,생리대,생필품,구독경제,편리,경쟁,우위,상황,구독,경제,스타트업,제품,품질,향상,충성,유지,고객,관리,시작,와이즐리,면도날,정기적,구독,서비스,제공,면도기,제품,2주,교체,부패,일상,면도날,구매,사람들,면도날,구독,얼굴,피부,와이즐리,면도날,가성비,덕분,재구매율,90%,정도,가격,경쟁사,제품,대비,유통사,고객,면도기,판매,가격,면도기,와이즐리,자체,구독,시작,면도,어려움,하루,면도,와이즐리,상품,이용,방식,제안,코로나19,건강,관심,영양제,구독,사람,건강기능식품,효과,사람들,실천,영양제,섭취,영양제,제때,구매,필리,영양제,정기,배송,서비스,제공,이용자,걱정,건강,건강상태,생활습관,영양제,추천,본인,영양제,조합,구독,서비스,신청,필리,영양제,박사들,약학,박사,자제,제작,것들,섭취,영양제,유통기한,제품,걱정,이용자,영양제,섭취,메시지,영양,출시,고객,설문,고객들,서비스,구독,술담화,전통주,하트노트,향수,닥터노아,대나무,칫솔,상품,대상,출시,요즘,세대,특징,가치,평가,정기배송,제품,선택,물건,주문,제품,회적,구매,서비스,정기,구독,지갑,소비자,전문가들,구독경제,매력,편리,큐레이션,인하대,이은희,소비자학,교수,생활,필수품,편리,소비자,입장,상품,업체,큐레이션,재미,만족감,고객,케어,구독,서비스,유지,해외,생활용품,구독,경제,개척,기업,코웨이,가전,렌탈,기업,말레이시아,무슬림,할랄,이슬람,국가,이슬람,율법,식품,적용,인증,인증,획득,필터교환,소독,서비스,정기,홈케어,제공,동남아시아,진출,성공,평가,미국,LA,한인,청년,시작,스낵피버,서비스,한국과자,구독,해외,인기,배송비,미국,제품,배송,세트,상품,선호,트렌드,공략,아이즈그램,캐나다,도수,안경,구독,서비스,제공,기업,교체,도수,안경,정기적,배송,안경,제품,정기적,교체,건강,정기,구독,안경,교체,아이즈그램,서비스,북미,안경가격,착안,안경,가격,안경,3분,정도,시력,고굴절,렌즈,청광차단렌즈,조건,선택,추가,비용,요구,구독,요금,아이즈그램,이용,한인,고객,제품,품질,서비스,고객,관리,만족,한국,일본,생산,안경테,제공,고객,구독,기간,제품,무상,교체,북미,안경테,구조,백인,얼굴,설계,아이즈그램,안경,프레임,아시아인,편안,제작,만족도,현행법,온라인,안경테,판매,가능,도수,렌즈,안경사,오프라인,안경원,판매,온라인,도수,안경,구독,서비스,등장,대표,아이즈그램,최영준,도수,안경,온라인,판매,캐나다,구독,서비스,시작,대표,안경,평생,착용,사람들,가격,렌즈,차이,속성,특징,일반,가격,부담,안경,구매,사람,구독,서비스,제품,가격,고객,안경,착용,기회,제공,만족,고객,요소,동아닷컴,전문</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2156,7 +2631,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>반포동,신림동,배달,데이터,서울,가구,일상,가구,반포본동,휴일,사람,가구,신림동,배달,서비스,이용,서울시,SK텔레콤,통계,빅데이터,이용,서울,가구,300만,행동,패턴,행정동,결과,서울시,공공,민간데이터,입체적,시민,일상,조사,서울시,300만,시민,생활,데이터,결과,서울,가구,연령대별,특정,지역,거주,경향,20~30대,광진구,화양동,1만,서대문구,신촌동,9251명,성동구,사근동,5811명,관악구,신림동,9884명,거주,비율,지역,1인,가구,비율,절반,수준,가구,을지로동,역삼1동,60대,가구,종로,노원구,월계동,강서구,등촌,분포,숙명여대,서용구,경영학,교수,화양동,신촌동,사근동,신림동,주변,대학,비율,가구,메카,비율,경제,활동,인구,가구,일자리,직장,인근,은퇴,지역,서울,외곽,자연생활,선호,특성,데이터,설명,데이터,서울,가구,일상,서울시,1인,가구,추적,주변,소통,혼자,주민,사회적,휴대,전화,데이터,지인,교류,빈도,단적,파악,근거,조사,가구자,대상자,월평균,통화,18~19,4명,서울,도심,거주,중장년,가구,남성,상대적,지인,문자,통화,중구,명동,4.3%,을지로동,3.6%,회현동,3.6%,커뮤니케이션,1인,가구,비율,가락동,송파구,중구,신당동,거주자,강남구,청담동,월평균,통화량,상대적,서용구,교수,가락동,가락농수산물종합도매시장,신당동,골목,상점,청담동,고급,상점가,분포,사회성,사회적,가구,주변,시설,이용,소통,가락동,신당동,청담동,통화량,1인,가구,소외,정도,추정,지표,외출,빈도,관악구,대학동,인구,대비,평일,외출,빈도,5.1%,종로구,창신,4.1%,도봉구,방학,4.1%,통화,외출,지역,상대적,동영상,서비스,접속,배달,서비스,이용,사람,관악구,신림동,월평균,배달,서비스,접속,건수,1위,18.4회,동시,월평균,동영상,서비스,사용,횟수,28.1회,최다,이은희,인하대,소비자학,교수,계층,부족,소통,동영상,서비스,음성,대면,교류,온라인,일상,선호,송파구,서초구,강남구,주민,강남,1인,가구,통화,외출,서초구,반포본동,내곡동,강남구,세곡동,송파구,가락동,가구,휴일,이동횟수,상대적,강남,논현1동,18.1회,강남구,역삼1동,17.6회,비율,배달,서비스,접촉,강수영,서울시청,빅데이터,주무관,직장,주거지,40~50대,가구,역삼1동,논현1동,배달,서비스,애플리케이션,친숙,20~30대,배달,서비스,사용,설명,전종준,서울시립대,도시빅데이터,AI,연구원,교수,1인,고령,가구,이동거리,외출건수,통화,건수,집단,사회적,고립,가능성,1인,가구,무료식사서비스,밥차,여성귀가안심서비스,바우처,취약,계층,교통,카드,1인,가구,지원,정책,강화</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2174,7 +2654,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>인하대,인하세컷,학기,맞이,개최,추억,인하대학교,개강,인하세컷,행사,개최,행사,학기,시작,마음가짐,추억,간직,즉석,기념,사진,촬영,마련,인하대,전면,대면,수업,원칙,학생들,행사,학기,다짐,친구들,포즈,사진,촬영,인하대,캐릭터,안뇽이,인덕이,인화지,학생들,눈길,학생,서현선,미디어,커뮤니케이션학,인하대생,기념사진,친구들,재미,즉석사진,학교,기회,마련,조명우,총장,학생들,마음,학교생활,안전,역량,지원,예정,학기,시작,친구,캠퍼스,사진,이야깃거리,추억,인천,김민</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2192,7 +2677,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>우영우,도전,조향현,드라마,변호사,우영우,선풍적,인기,마지막,방송,자폐,장애,천재,변호사,주인공,장애,국민,이해도,긍정적,장애인,비장애인,직업,세계,의미,우영우,실제,모델,미국,콜로라도주립대,교수,템플,그랜딘,자폐,진단,아스퍼거,증후군,진단,보호시설,평생,의사,이야기,어머니,선생님,헌신적,교육,세계적,석학,윤은호,인하대,문화,콘텐츠,문화,경영학,교수,우영우,모델,에스타스,성인,자폐,당사자,자조,모임,공동조정자,활동,교수,자폐,진단,자폐인,박사학위,인하대,초빙,교수,임용,우영우,언급,사람,장애인,대변,현실,드라마,드라마,펭수,러버,김정훈,장애,장애인들,직업생활,영위,생각,사회,편견,존재,편견,장애인들,비장애인,도전,자신,역량,발휘,성취감,우영우,사회,구성원,독립적,장애인들,분야,자신,능력,축제,23일,제주도,나흘간,전국장애인기능경기대회,우영우,영감,고래,기능경기대회,선수들,장애,편견,사회,인재,기회,제공,전국장애인기능경기대회,장애인,향상,장려,장애인,고용,사회,기업,인식,개선,관심,도모,개최,행사,대회,지역,경기,대회,실력,장애인,한자리,직종,자신들,기량,전국,대표,선수들,참가,대회,열정,집중력,정도,자신,속도,경기,집중,모습,바리스타,웹마스터,시각디자인,건축CAD,직종,참가,선수들,도전,자신,변화,우영우,신드롬,장애,차별,편견,마중물,대회,참가,선수들,관심,편견,자신,도전장,장애인,선수,용기,발걸음,사회,구성원,사회,주역,성장,도전,격려,응원,이사장,조향현,한국,장애인,고용,공단</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2210,7 +2700,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>조현병,환자,치료,선행,치료,탈원화,안착,조현병,환자,병원,입원,외래,진료,탈원화,세계적,추세,조현병,환자,자신,질병,인식,불능증,치료,거부,입원,환자,책임,보호자,전가,강제입원,부정,인식,반대,탈원화,치료,중단,부정,효과,미국,1990년,준비,탈원화,실패,경험,탈원화,성공적,안착,치료,인프라,구축,선행,인하대병원,정신,건강,의학,김원형,교수,세계일보,인터뷰,조현병,치료,극단,경계,강조,과거,강제,입원,환자,인권,침해,치료,구멍,지적,가구,직계혈족,환자들,증가,조현병,치료,관리,인하대병원,정신,건강,의학,김원형,교수,탈원화,퇴원,환자,외래치료,전제,연결,소송,민원,병원비,보호자,병원,지자체,비자,입원,현실,조현병,치료,과거,강제입원,치료,구멍,방향,경계,강조,조현병,인하대병원,제공,발병,중증,정신,질환,조현병,증상,의사소통,망상,환각,둔화,긴장증,와해,언어,횡설수설,교수,망상,환청,조현병,발생,치료,약물,사회적,회복,호전,환자,약물치료,임의,중단,지적,망상,환청,연속적,반복,치료,반응,사회적,회복률,사회,회복,설명,조현병,비율,약물,치료,중단,재발,90%,만큼,치료,중요,지적,치료,본인,가족,사실,보호입원,측면,중요,절차,보호자,동의,의사,자해,타해,판단,공립,병원,복지부,지정,2주,추가,일치,소견서,현장,인력,부족,2주,소견서,교수,환청,망상,자해,타해,가능성,간암,환자,음주,자해행위,알코올,중독자,음주,자해행위,위험,판단,지적,보호입원,무산,동의,가족,불안,시도,비자,입원,행정입원,응급입원,비율,주목,소송,병원비,병원,지자체,입원,소극적,대응,현실,교수,사법,입원,제도,강화,외래,치료,명령,활용,장기,지속,주사,강조,의사,치료,판단,사법입원,외래,치료,명령,최종,판결,집행,사법제도,개입,교수,장기,지속,주사,환자,확인,환자,치료,의지,활용,설명,경구약,장기,지속,주사,3개월,간격,주사,피해망상,교통사고,치료,환자,치료,장기,지속,주사제,본인,질병,인정,치료,교수,약물치료,정신건강복지센터,제공,직업훈련,대인,훈련,자조,모임,정신,사회,치료,진행,강조,미국,1960년대,정신,병원,탈원,시행,지역,사회,정신,보건,서비스,확장,시작,준비,부족,탈원화,진행,환자들,교도소,구치소,수감,비율,노숙자,비율,급증,의미,탈원화,병원,교도소,구치소,기관,이동,현상,발생,인프라,구축,인터뷰,강조,편견,폐렴,환자,정도,운동,사람,조현병,환자,마음,마음,조언,폐렴,환자,염증,항생제,조현병,환자,조현병,증상,완화,약물치료,치료,환자,범죄율,일반인,장기,지속,주사,약물,순응도,치료,옵션,환자,사회,구성원,역할,책임,수행하,치료,장기적,환자,진짜,조현병,인권</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2228,7 +2723,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>자폐증,용어,자폐,장애,국제표준,이진구,대화,이야기,유일,자폐,장애인,교수,윤은호,윤은호,인하대,문화,콘텐츠,문화,경영학,초빙,교수,인터뷰,교수,자폐,장애,등록,장애인,유일,교수,인터뷰,드라마,계기,현실,자폐,장애,분들,어려움,드라마,인기,작품,사회,약자,변화,생각,국립국어원,자폐,용어,자폐,당사자,의견,반영,순화,인터뷰,자폐,장애,무관심,드라마,자폐,교수,국제표준,분류,세계,표준,질병,사인,ICD,자폐,장애,자폐스펙트럼,장애,유일,공식용어,국립국어원,표준국어대사전,자폐증,自閉症,용어,설명,부정,자폐성,자신,현실,도피,상태,자폐,경향,사람들,의사소통,회피,주위,고립,경향,장애,시각장애인,청각장애인,병자,사람,사회,자폐당사자들,포함,발달장애인들,부정적,국립국어원,우리말샘,표준어,신조어,중세,한국어,근대,한국어,고어,방언,외래어,인정,외국어,110만,표제어,수록,샤랑,우리말샘,사랑,방언,평안북도,지방,우리말샘,샤랑트강,생전,강도,등재,프랑스,이름,자폐,장애,분들,스스로,지칭,자폐당사자,표준국어대사전,사회,특정,대상,생각,가늠,바로미터,인식,정책,이야기,인식,자폐당사자들,장애인,진단,병원,기준,자폐,진단,아이큐,IQ,테스트,우리나라,병원,IQ테스트,IQ,자폐,진단,본인,교수,자폐,장애,일종,저능아,치부,인식,자폐당사자들,장애,실제,장애,과잉,행동,현실,장애,장애인정,상태,연기,장애인,등록,자폐당사자,3만,정도,장애,자폐,장애,자폐진단,장애인,등록,분들,자폐,장애,부정적,사회,인식,영향,드라마,자폐,장애,관심,작품</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2246,7 +2746,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>추석,코앞,자영업자,알바,발동동,손봄85,연휴,1만,별따기,청년들,알바,배달,스트레스,서울,서대문구,떡집,운영,온라인,취업,중개,사이트,추석,연휴,9월,9~12일,아르바이트,알바,구인,공고,1000원,1만,제시,1주일,감감무소식,캄보디아,출신,노동자,고용,명절,일손,따름,배씨,외국인,지원,서울,마포구,정육,식당,운영,사정,추석,선물,세트,포장,2주,공고,지원자,연씨,명절,주문,평소,인력,물량,친구,지인,부탁,일손,확보,추석,명절,코앞,자영업자,연휴,직원,코로나,장기,확산,플랫폼,노동,세대,사이,비대면,초단기,알바,관심,식당,카페,전통,자영업자,구인난,추석,3년,거리,명절,명절,특수,자영업자들,사람,울상,인터넷,구인,구직,플랫폼,알바몬,26일,추석,알바,공고,2000건,최저,임금,시급,제시,알바생,명절,자영업자,알바천국,자영업자,대상,설문조사,응답자,85.2%,추석,3.3%,포인트,2020년,11.9%,포인트,수치,프랜차이즈,샌드위치,운영,일손,부족,영업시간,프랜차이즈,방침,불가능,알바생,혼자,생각,알바생,하늘,알바,추석,단기,국한,알바몬,등록,공고,알바,모집,243만,143만,70%,증가,알바,자리,사람,알바천국,1월,지난달,아르바이트,구직,공고,전년,대비,29%,증가,기간,지원자,전년,대비,14.5%,증가,사람,식당,카페,알바생,인건비,영업시간,제한,해제,자영업자들,경쟁적,임금,식당,서빙,아르바이트,평균,1만,업무,강도,술집,고깃집,최저임금,시급,50%,1만,1만,사람,서울,강남구,고깃집,운영,1~2년,최저임금,1000~2000원,시급,제시,알바,연락,5000원,문의,인건비,알바생,임금,최저,임금,수준,고집,장사,세대,배달,하루,아르바이트,시간,짜리,선호,배달,라이더,선택,시급,2만,정도,알바,연휴,쿠팡이츠,배달,아르바이트,고객,상대,사장님,식당,배달,스트레스,부담,혼자,걱정,임금,체불,배달,아르바이트,이은희,인하대학교,소비자학,교수,추석,인력,업종,식당,정육점,노동,강도,전통,업종,추석,거리,알바생,처지,인식,스트레스,일자리,세대,업종,선호</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2264,7 +2769,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>덕질,최애적금,아시나요,선수,안타,5000원,가수,3만,원씩,바람,인기,선수,프로,야구팀,한화,이글스,정은원,팬인,4월,은행,통장,자유,적립식,적금,적금,혼자,정은원,이름,경기,선수,안타,5000원,홈런,1만,원씩,적금,1년,70만,김씨,선수,경기,기분,연예인,운동선수,스타들,음악CD,유니폼,물건,구매,소비,중심,문화,고물가,금리,시대,저축형,문화,요즘,사이,최애,스타,특정,활동,일정,금액,저축,최애,적금,인기,통장,자유,적립식,적금,연예인,소셜미디어,사진,2000원,라이브,방송,3000원,재민,아이돌,그룹,NCT,멤버,5월,최애적금,재민,소식,3만,원씩,통장,입금,3개월,80만,저축형,문화,저축,유행,적금,금리,실제,최애,적금,사용,인터넷은행,12개월,금리,자유,적금,상품,중반,안팎,1년,3.5%,안팎,아이,그룹,데이식스,정아름,금리,3월,최애적금,통장,정씨,멤버,생일,전역일,만기일,설정,통장,4028원,4월,생일,1127원,11월,전역일,나머지,통장,멤버,사진,영상,정씨,덕질,연예인,행위,이은희,인하대,소비자학,교수,요소,의미,추구,Z세대,특성,반영,저축,문화,확산</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2282,7 +2792,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>전염병,지리,연결,건강,불평등,조명,전염병,지리학,박선미,갈라파고스,1만,콜레라,장티푸스,결핵,말라리아,에볼라바이러스,감염증,신종,코로나바이러스,코로나19,전염병,인류,습격,과거,풍토병,질병,세계,그물망,순식간,시대,상하수도,시설,시설,쓰레기,처리,위생,발전,전염병,신간,전염병,지리학,전염병,원인,환경,개인위생,과학,종식,모색,방식,주장,교수,인하대,사회,교육,저자,개인,지리,연결,지도,건강,주목,박선미,갈라파고스,1만,지리,연결,중심,전염병,경로,시작,지역,피해,개인별,차이,질병,지역,행위자,사이,권력관계,지표,코로나19,주거,환경,사람,고령자,어린이,약자,위험,노출,백신,빈부격차,사회안전망,피해,정도,균등,부국,빈국,부자,빈자,격차,건강,심화,현상,말라리아,결핵</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,7 +2815,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>언론법,언론,건전,발전,기여,철우,哲宇,언론법상,교수,백경희,인하대,한국언론법학회,주최,명예훼손,학술세미나,명예,훼손,학술,세미나,한국언론법학회,회장,교수,이승선,충남대,26일,기자회견장,서울,중구,한국프레스센터,회견장,철우,언론법,학술,수상자,백경희,인하대,법학전문대학원,사진,교수,선정,시상,교수,감염병,위기,정보,공개,감염병,환자,인격,침해,피해,구제,고찰,제목,제출,학회,교수,다수,업적,우리나라,언론법,언론,건전,발전,기여,시상,민사법,보건의료법,교수,2011년,공동,법률,사무소,해울,변호사,2011년,교수,인하대,법학,전문,대학원,근무,학회,시상식,명예훼손,판례,평가,쟁점,주제,세미나,개최,이재희,공주대,교수,명예훼손,판례,평가,쟁점,주제,박종현,국민대,교수,명예훼손,사실,의견,구별,주제,학회,2002년,철우언론법상,시상,철우,哲宇,하늘,섭리,지배,언론법,학회,학술지,언론,발행,표현,자유,주목,판결,판결,선정,시상,세미나,토론회,표현,자유,사회,법익,개인,법익,조화,방안,모색</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2318,7 +2838,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>한성우,교수,음식,솜씨,자신,음식,자부심,음식,짠맛,음식,해석,짠맛,재료,갖은양념,솜씨,정성,마음,자신,생각,음식,참맛,존중,음식,재료,소금,소금,소금,간장,된장,음식,짠맛,정도,조화,음식,짠맛,조화,반대,음식,요리사,소금,준비,중요,일상,결정,앞뒤,신중,지지,우유부단,핑계,행위,쓰임,노력,요리사들,음식,부족,음식,소리,맛집,음식점,결국,정체,방증,음식,등장,줄임말,단짠,단짠맵,조화,정체성,표현,교수,인하대,한국어,문학</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2336,7 +2861,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>바퀴벌레,능력자,온라인서,번역,벌레,각종,능력자,성행,인턴기자,사진,포토샵,인턴,거래,엄지손가락,바퀴벌레,베란다,설거지,제시,가격,온라인,중고,거래,사이트,게시물,사이트,각종,온라인,사람,게시물,거래,온라인,중고,확대,단순,상품,거래,개인,능력,능력,범위,수학,사람,번역,능력자,원고,사람,전문성,영역,벌레,사람,전구,사람,상상,초월,국민일보,인턴,능력,구매,수강,신청,예약,전화,가격,천차만별,온라인,커뮤니티,구인,구직,게시판,하루,능력자,게시물,벌레,사람,기본,번역,영어,원문,그림,사람,능력,구매자,대학교,행정실,전화,사람,구매자,수강신청,행정실,문의,자신,설명,사람,사례금,3000원,능력,제시,금액,천차만별,구매자,대학교,수강,신청,사람,성공,5만,사례금,치과,예약,전화,사례금,200원,소개,사례들,순식간,댓글,판매,개인,개인,능력,거래,사람들,편리,장점,온라인,커뮤니티,벌레,퇴치,게시물,대학,박수민,25,사람,단계,판매자,연락,능력,거래,이용,전문가들,개인,능력거래,배경,증가,가구,이은희,인하대학교,소비자학,교수,국민일보,통화,과거,농경,사회,마을,사람,산업,시대,가족들,도시,익명성,가구,가정생활,가구,구성원,혼자,감당,특정,서비스,타인,의뢰,빈자리,설명,포토샵,능력자,상품,인턴기자들,능력자,사진,수정,사진,포토샵,능력,구인,게시판,온라인,커뮤니티,구인,포토샵,하늘,사진,빌딩,커뮤니티,시세,포토샵,거래,확인,사례금,5000원,제시,하늘,사진,빌딩,요구,1분,2개,댓글,댓글,작성자,대댓글,사진,수정,요청,거래,일사천리,진행,댓글,사진,화질,오픈,채팅,이용,능력자,오픈,채팅,요구사항,사진,수정,요구,사항,확인,선입금,사진,작업,진행,먹튀,방지,사례금,입금,20분,예상,마음,능력,거래,성행,전문가,소정,대가,요구,장점,거래,A씨,포토샵,능력자,인터뷰,A씨,사진,업종,사진,학원,전문적,포토샵,초등학생,취미,능력,직장,포토샵,프리랜서,전향,A씨,사진,보정,합성,요즘,결혼,사진,바디프로필,수정,커뮤니티,포토샵,이용자,능력,거래,능력,거래,온라인상,비대면,의뢰,지급,먹튀,사례,실제,먹튀,선입금,거래,진행,설명,능력,거래,이용자,사이,인증,필수,A씨,본인,작업,사진,댓글,첨부,본인,포토샵,능력,인증,말주변,사람,통화,이용자들,인증,통화,내역,요구,거래,먹튀,피해,대처,전문가들,소액,신고,태도,당부,김영식,서원대,경찰,학부,교수,국민일보,사기,소액,거래,재수,피해,진술서,신고,가능,거래,수사대,경찰,사이버,신고,피해자,신고,누적,나중,가해자,검거,처벌,확률,교수,온라인,플랫폼,거래,익명성,범죄,전이,개인,거래,사전,상대방,정보,전화,신분,확인,검증,강조</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,7 +2884,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>인력,부당,조선4사,제소,한국조선해양,공정위,조선업계,인력,논란,공정,거래,위원회,신고,전망,삼성중공업,조선사,한국조선해양,부당,방법,핵심,인력,의혹,제기,방침,공정위,신고,업계,부당,방법,사용,증명,인력,경고성,신고,가능성,관계자,대우조선해양,통화,회사들,한국조선해양,부당,인력,법무법인,공정위,신고,계획,공정거래법,사업자,인력,부당,방법,유인,채용,행위,공정위,신고,삼성중공업,대한조선,케이조선,신고자,참여,조선업계,회사,한국조선해양,이동,인력,500여명,한국조선해양,현대중공업그룹,조선,중간,지주,회사,현대중공업,현대미포조선,현대삼호중공업,공정위,신고,준비,조선사들,구체적,정황,부당,유인,지원자,소속,회사,인근,면접,지인,이직,권유,월급,제안,직급,상향,설명,관계자,조선,업계,인력,스카우트,일반적,방식,그간,조선업,방식,인력,암묵적,합의,한국조선해양,관행,대규모,인력,한국조선해양,입장,회사,관계자,부당,인력,주장,사실,지원자,출신,부여,우대,절차,경력직,채용,지원자,동등,조건,진행,공정위,제소,절차,대응,한국조선해양,핵심,인력,가능성,인력,조선사,학연,업무,채용,지원,권유,지원자,평판,조회,구조,조선사,핵심,인력,엔지니어들,출신학교,한정,서울대,부산대,인하대,충남대,울산대,창원대,정도,학교,모임,조선학회,모임,현직자들,교류,회사,신고,공정위,제재,미지수,심사지침,공정위,공정,거래,행위,심사,지침,부당,유인,판단,기준,가지,인력,사업활동,차지,비중,채용,사용,수단,통상적,업계,관행,법령,매출액,감소,거래처,감소,미래,사업활동,곤란,가능성,업계,관계자,한국조선해양,설계,경력,채용,서류,6배수,접수,이야기,한국조선해양,포함,조선사,경력채용,진행,한국조선해양,경고,이직,고민,내부,직원,단속,공정위,제소,진행</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2372,7 +2907,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>김대중,대통령,추모,학술회의,평화,사상,담론,서거,주기,민주,인권,평화,정신,전라남도,김대중평화센터,주관,김대중,대통령,서거,주기,추모,학술회의,왕인실,도청,세계,지도자,평화,사상,가치,인류,공생,담론,김대중,대통령,세계,지도자,평화,사상,주제,학술회의,김영록,전남도,지사,서동욱,전남,도의회,의장,이사장,김성재,김대중노벨평화상기념관,전문가,100여,참석,김대중,대통령,세계,평화,지도자,사상,철학,공유,기후변화,식량부족,국가,분쟁,국가,인류,직면,위기,논의,기조강연,김성재,이사장,인류,지구,김대중,대통령,코스모,민주주의,글로벌,평화,황보윤식,인하대,교수,후광학,창시,김대중,사상,체계,거시적,명예교수,김우창,고려대,명예,교수,평화,세계질서,기초,이윤정,조선대,특임,교수,김대중,세계,평화,지도자,메모,리얼,파크,의의,진행,분야,세션,종합토론,참석자,민주주의,불평등,분쟁,공생,김대중,미국,김대중,오부치,선언,김대중,유럽정치,토론,김영록,지사,축사,코로나19,경기침체,사회,양극,국민,화해,통합,강조,김대중,대통령,정신,깨달음,학술행사,김대중,대통령,민주,인권,평화,정신,재조명,시대,해법,계기,전남도,개최,김대중,평화,회의,품격,세계적,국제행사,지속,발전,김대중,대통령,정신,계승,발전,지속,지원,강조</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2390,7 +2930,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>장기,압박,종격동,종양,로봇,정밀,안전,수술,중요,장기,공간,종격동,나이,종양,초기,증상,심장,식도,맥박,호흡,곤란,발생,사례,로봇,수술,절개,부위,출혈,최소,직장인,중순,동네,병원,건강검진,흉부,컴퓨터,단층,촬영,CT,결과,소견,평소,건강,자신,증상,며칠간,당혹,일손,인하대병원,정밀,검사,의료진,종격동,종양,진단,주치,윤용한,교수,인하대병원,흉부외과,의논,절개,수술,부위,최소화,수술,가능,로봇,수술,시행,종양,제거,8월,진행,수술,성공적,회복,주기적,추적,관찰,재발,예방,계획,이름,종격동,오른쪽,가슴,안쪽,오른쪽,왼쪽,사이,왼쪽,공간,역할,생명,유지,심장,기관지,식도,종격동,공간,물혹,양성,종양,악성,종양,질환,노출,종격동,종양,종격동,발생,질환,질환,양성,원발,종양,자리,종양,40,,중장년,악성,전이,종양,비중,초기,종격동,종양,환자,증상,종양,크기,특별,증상,증상,가슴,통증,기침,특징,증상,종양,압박,장기,기관,종양,기관지,압박,기침,호흡,곤란,종양,식도,음식,대동맥,압박,혈액,정상적,흐름,방해,평소,부위,정맥,혈관,현상,심장,압박,맥박,증가,후두신경,목소리,종격동,종양,치료,방법,종양,제거,절제,수술,보편적,종양,장기,압박,증상,유발,악성화,악성,정도,장기,수술,방사선,치료,항암,화학,요법,시행,로봇,수술,종격동,종양,제거,사례,증가,종격동,가슴,안쪽,위치,수술,절개,흉터,로봇,수술,절개,부위,수술,절개,부위,로봇,관절,수술,진행,의사,움직,도구,소형,수술,정밀,안전,수술,가능,출혈,신경,혈관,손상,예방,유리,침습,범위,수술,통증,교수,종격동,종양,기관지,식도,혈관,전이,중증,사망,확률,CT,선량,흉부,시행,검진,국가,폐암,정기적,검진,조기,종양,발견,치료,중요,강조</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2408,7 +2953,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>공공협력,중대형,도출,한국공학대학교,한국공학대,앰배서더,인천,경원재,인천대,성남산업단지관리공단,한국발명진흥회,참여,레보메드,계약,체결,행사,진행,한국공학대,인천대,협력,장치,세포,배양기,수분,공급,장치,1억,규모,융복합,성사,이전기술,교수,한국공학대,강대진,보유,세포,배양기,수분,공급,장치,특허기술,교수,인천대,이원종,보유,흡수,수지,이용,혈소판,혈장,Platelet-rich,plasma,농축,노하우,계약,한국공학대,교육부,주관,지원사업,대학,창의,자산,실용,지원,사업,BRIDGE,진행,성사,융복합,중대,의미,한국공학대,BRIDGE,사업,특화,프로그램,공공,협력,수요,발굴,프로그램,성남산단업지관리공단,한국발명진흥회,협력,레보메드,기술수요,발굴,인천대,협력,실용화,지원,대학,기업,참여,운영,융복합,연구회,혈장,농축,사업,검증,수행,성과,추진,한국공학대,이전기술,신속,사업,추진,레보메드,기술료지원,성남산업진흥원,사업화,R&amp;D자금,한국산업단지공단,지원,기여,한국공학대,인하대,건국대,한국발명진흥회,협력,공공,협력,수요,발굴,프로그램,서울,경기,인천지역,산업단지,확대,운영,추가적,융복합,중대,성과,정두희,산학,협력,단장,사례,바탕,혁신기관,대학,기업,네트워크,강화,기업,지원,프로그램,활성화,중대,융복합,도모,노력</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,7 +2976,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>토스,쌍웅,한솥밥,서로,빈틈,고공비행,대한항공,동갑,명세터,유광우,통산,세트,선수,삼성화재,왕조,주역,유광우,3년,예상,배구,1985년,동갑내기,포지션,세터,네트,사이,서로,최고,자리,허락,승부,세계,숙명,아이러니,승부,세계,상대,아군,프로,시즌,부담,다행,서로,감사,통합우승,시즌,연속,프로,배구,남자부,통합,우승,달성,대한항공,명세터,유광우,광양시,전남,호텔,순천,도드람컵,프로배구대회,참가,대한항공,숙소,선수,본격적,인연,3학년,고교,대표팀,첫인상,질문,유광우,선수,개구쟁이,장난기,친구,전국,1,,질문,선수,주목,광우,광우,학교,대회,김요한,인하대,재학,시절,동기,은퇴,전관왕,달성,유광우,프로,입단,삼성화재,왕조,주역,입지,우리카드,이적,현금,트레이드,대한항공,유니폼,세터,대표,성장,대한항공,원클럽,선수,동행,시작,베테랑,세터,동반,비행,성공적,시즌,KB,손해,보험,챔피언결정전,서로,빈자리,선수,광우,노장끼리,걱정,상황,코트,경기력,유지,선수,유광우,V리그,대표,세터,베스트,세터,트로피,2014시즌,세터상,5개,출범,트로피,절반,기록,최다,수상,남자부,통산,세트,성공,1,,한선수,1만,유광우,1만,삼성화재,대한항공,챔프전,우승,경험,유광우,시즌,10번,챔피언,반지,도전,선수,정상,그동안,챔프전,차례,기간,최고,세터,자리,양분,서로,선수,광우,컨트롤,전반적,배구,감각,유광우,선수,경기,분위기,순식간,능력,영상,운영,능력,시즌,서로,당부,선수,가지,이젠,부상,여파,만큼,유광우,코트,모습,롱런,유광우,후배들,미안,선수</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,7 +2999,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>신라면,새우깡,가격,상반기,가공식품,업계,외식,프랜차이즈,가격,인상,기업들,원재룟값,인상,제품,가격,울상,일각,과장,비판,농심,15일,라면,스낵,출고가격,평균,11.3%,5.7%,인상,가격,인상,8월,1년,인상,스낵,가격,3월,6개월,출고,가격,기준,신라면,10.9%,너구리,9.9%,새우깡,6.7%,꿀꽈배기,5.9%,인상,신라면,가격,대형,마트,기준,736원,봉지,평균,820원,새우깡,1100원,1180원,전망,hy,한국야쿠르트,1일,가격,인상,하루,야쿠르트,라이트,200원,220원,쿠퍼스,프리미엄,2500원,2700원,프랜차이즈,업체,가격,인상,맥도날드,25일,메뉴,가격,인상,평균,4.8%,대표,메뉴,빅맥,단품,4600원,4900원,신세계푸드,노브랜드버거,18일,40여,평균,5.5%,268원,도미노피자,피자,가격,일괄,인상,피자,라지,사이즈,1000원,미디움,500원,업체,가격,인상,상승,원재료,가격,농심,환율,상승,원가,부담,심화,가격,인상,결정,2분기,소맥분,전분,협력,원자재,납품가,인상,제조,원가,부담,가중,설명,농심,2분기,영업이익,영업,이익,24년,적자,전환,공시,해외,실적,포함,영업이익,43억,적자,기준,강조,업계,가격,인상,염두,해석,기업,hy,원당,포장재,원부자재,물류비,인건비,상승,제조,원가,부담,설명,노브랜드버거,구체적,수치,제시,소고기,6월,정부,할당,관세,적용,부담,밀가루,식용유,가격,대비,전년,동기,36.4%,55.6%,급등,설명,업체,비용,구조,개혁,원가,인상,가격,반영,지적,맥도날드,제품,가격,인상,평균,2.8%,6개월,가격,도미노피자,1월,7개월,1000원,가격,곡물,수입,4분기,하락세,전환,전망,유엔,식량,농업,기구,FAO,지난달,세계,식량,가격,지수,전월,8.6%,하락,140.9,기록,하락,이은희,인하대,소비자학,교수,식품,기업,인상,요인,가격,반영,반대,기업,요인,가격,인상,구체적,인상,자제,신뢰,소비자,방법</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2462,7 +3022,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>인하대,사건,날짜,낙서,입건,인하대,캠퍼스,발견,낙서,인하대,발견,성폭행,추락,사건,낙서,외부인,소행,파악,인천,미추홀경찰서,재물,손괴,혐의,남성,입건,23일,경찰,남성,18일,7곳,인천시,미추홀구,인하대,교내,래커,REMEMBER,낙서,시설,훼손,혐의,대학,교내,사건,성폭행,추락사,발생,날짜,낙서,피해,여학생,발견,5층,입구,단과대,건물,건물,외벽,발견,경찰,조사,사건,진술,학교,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,B씨,또래,여학생,성폭행,추락,혐의,구속,기소,B씨,2층,사이,복도,창문,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,건물,길가,혼자,건물,방치,행인,발견,병원,3시간,인하대,캠퍼스,동급생,성폭행,A씨,남성,지난달,구속,피의자,심문,영장,실질심사,미추홀구,인천지법,모습,인천,뉴스1,검찰,A씨,의식,보호,능력,결여,상태,피해자,상대,성폭행,시도,추락,사망,판단,범행현장,지상,높이,창틀,외벽,바닥,아스팔트,추락,사망,구조,A씨,만취,피해자,사람들,시선,범행,장소,물색,이동,계획,범죄,정황,의심,상황,주장,경찰,피해자,5층,건물,추락,층수,3층,A씨,정확,범행,시각,15일,사이,특정,범행,A씨,범행,휴대전화,불법,촬영,영상,근거,영상,촬영,소리,녹음,경찰,A씨,B씨,승강기,이용,3층,사실,확인,사건,현장,창틀,B씨,추락,A씨,행동,원인,경찰,판단,검찰,A씨,위험,장소,범행,장소,사망,결과,가능성,범행,B씨,사망,범행,B씨,범행,구호,행위,종합적,미필,고의,살인,혐의,적용,미필,고의,살인,사망,결과,발생,가능성,행위,적용,검찰,범행,상황,순간,순간,기억,B씨,추락,상황,기억,취지,진술,혐의,부인</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2480,7 +3045,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>신라면,빅맥,가격인상,기업들,팩폭,상반기,가공식품,업계,외식,프랜차이즈,가격,인상,기업들,원재룟값,인상,제품,가격,울상,일각,과장,비판,농심,15일,라면,스낵,출고가격,평균,11.3%,5.7%,인상,가격,인상,8월,1년,인상,스낵,가격,3월,6개월,출고,가격,기준,신라면,10.9%,너구리,9.9%,새우깡,6.7%,꿀꽈배기,5.9%,인상,신라면,가격,대형,마트,기준,736원,봉지,평균,820원,새우깡,1100원,1180원,전망,급등,원재료,가격,인상,hy,한국야쿠르트,1일,가격,인상,하루,야쿠르트,라이트,200원,220원,쿠퍼스,프리미엄,2500원,2700원,프랜차이즈,업체,가격,인상,맥도날드,25일,메뉴,가격,인상,평균,4.8%,대표,메뉴,빅맥,단품,4600원,4900원,신세계푸드,노브랜드버거,18일,40여,평균,5.5%,268원,도미노피자,피자,가격,일괄,인상,피자,라지,사이즈,1000원,미디움,500원,피자,슈퍼,디럭스,라지,2만,2만,업체,가격,인상,상승,원재료,가격,농심,분쟁,인플레이션,원재료,가격,급등,환율,상승,원가,부담,심화,가격,인상,결정,2분기,소맥분,전분,협력,원자재,납품가,인상,제조,원가,부담,가중,설명,농심,2분기,영업이익,영업,이익,24년,적자,전환,공시,해외,실적,포함,영업이익,43억,적자,기준,강조,업계,가격,인상,염두,해석,기업,hy,원당,포장재,원부자재,물류비,인건비,상승,제조,원가,부담,설명,노브랜드버거,구체적,수치,제시,소고기,6월,정부,할당,관세,적용,부담,밀가루,식용유,가격,대비,전년,동기,36.4%,55.6%,급등,설명,업체,비용,구조,개혁,원가,인상,가격,반영,지적,맥도날드,제품,가격,인상,평균,2.8%,6개월,가격,도미노피자,1월,7개월,1000원,곡물,가격,4분기,전망,하락세,전환,가격,곡물,수입,4분기,하락세,전환,전망,유엔,식량,농업,기구,FAO,지난달,세계,식량,가격,지수,전월,8.6%,하락,140.9,기록,하락,곡물,가격,지수,대비,11.5%,하락,농림축산식품부,우크라이나,러시아,북반구,수확,국제,가격,국제,하락,전체적,하락,곡물,가격,옥수수,팜유,대두유,유지류,쇠고기,돼지고기,유제품,설탕,가격,하락,가격,곡물,수입,국제,가격,일정,시차,반영,전환,만큼,하락세,4분기,한국,관계자,유통,업계,재료,수급,불안정,실적,악화,요인,가격,인상,제조원,상승률,대비,가격,상승,주장,가격,인상,논란,한국소비자단체협의회,CJ제일제당,가격,햇반,인상,CJ,액화,천연가스,LNG,포장재,가격,인상,90%,,15%,출고가격,인상,상승률,실제,소매,요금,상승,차이,포장,용기,가격,일시적,상승,지속,하락,요인,가격,인상,과장,주장,프랜차이즈,하이트진로,오비맥주,가격,인상,소비자단체,매출,영업이익률,상승세,가격,인상,안정,손익,구조,소주,트렌드,저도주,주정,함유량,이득,원가,절감,인상,근거,주장,이은희,인하대,소비자학,교수,식품,기업,인상,요인,가격,반영,반대,물가,기업,요인,가격,인상,구체적,상황,인상,자제,신뢰,소비자,방법,간사,허선영,한국소비자단체협의회,기준,미국,시카고상품거래소,CBOT,가격,하락,수준,전쟁,발발,무렵,회복,원자재,가격,상승,추세,가격,인상,기업들,원자재,하락,적용,소비자들,사항</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,7 +3068,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>유정복,사람,인천시,입성,김진용,인천,경제청장,유력,선거,유정복,인천,시장,인사들,민선,인천시,정부,입성,진용,민선,옛사람,지적,인천시,시민,소통,담당관,4급,연수구,공무원,유지원씨,평가담당관,이학규,인천시,인사과장,중앙협력본부장,보수,유튜버,권세경씨,임명,브랜드담당관,도시디자인단장,임용,예정,시장,보좌,정책,시민소통,대외경제,안보,대외협력,2명,홍보,2명,청년문화,9명,특보단,공모,진행,사실,인천시,정부,서열,인천경제자유구역청장,공모,절차,마무리,인천시,김진용,인천경제청장,임명,산업부,협의,진행,청장,취임,예정,유정복,인천,시장,시민,행복,도시,실현,문화복지정무부시장,1급,이행숙,이사장,인천시,서구,시설,관리,공단,시정혁신관,2급,류권홍,변호사,초일류도시기획관,2급,한상,인하대학교,교수,임명,인천시,산하,공기업,공단,사장,이사장,본부장,공모,절차,착수,인천교통공사,인천관광공사,인천환경공단,인천시설공단,인천신용보증재단,사장,이사장,선임,임원추천위원회,구성,인선,절차,유정복,시장,시장,민선,시장,옛사람,등용,인천경제청장,유력,김진용,인천경제청장,시장,임명,이학규,평가,담당관,시장,재임,인사과장,퇴직,공무원,공모중,인천교통공사,사장,재임,홍순만,코레일,사장,유력,하마평,임명,내년,인천도시공사,사장,시장,임명,황효진,인천도시공사,사장,임명,예상,인천시,박남춘,인천시장,임명,공사,공단,임원들,교체,표적감사,지적,인천시,감사실,16일,19일,공사,인천시,산하,공단,임원,복무,실태,감사,공사,인천시,산하,경영진,인천시,감사실,공사,공단,임원,감사,이례적,감사,결과,결과,신호,관계자,인천시,감사실,공사,공단,임원,복무,감사,특정인,염두,의도</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2516,7 +3091,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>동묘,와인바,고등어,MZ직원,MZ,소비자,엄지,뉴컨슈머,뉴컨슈머,마음,MZ,직원,성지,대성공,동묘,와인바,1인,가구,반마리,시리즈,인기,아이디어,차원,전권,행사,소비,히트상품,탄생,MZ소비자들,SNS,파급력,윗세대,시장,영향,서울,송파구,롯데마트,회의실,롯데,수입,단독,와인,LAN,멘시온,홍보,토론,또래,사이,성지,동묘,서울,종로구,동묘,와인바,마트,제품,홍보,간판,참석자들,평소,사이,마트,판매대,시음회,판촉,행사,마트,롯데마트,이름,회사,파격,제안,공간,섭외,운영,홍보,전권,동묘,인근,주택가,한옥,개조,와인바,팝업,스토어,형태,탄생,손님,와인,기분,와인바,쿠폰,롯데마트,와인,마트,방문,유도,소셜미디어,입소문,방문,동묘,와인,20,,손님,마트,와인,시작,MZ세대,밀레니얼,Z세대,소비자,영향력,기업,의사,결정,MZ,직원,입김,동아일보,소비재,유통기업,44곳,대상,설문조사,소비자,결과,MZ,MZ,직원,주도권,부여,기업,72.7%,32곳,기업,의사,결정,막후,영향력,행사,MZ,캐비닛,소비시장,히트,상품,탄생,히트상품,신입사원,80년대,임원,입사,홈플러스,수산,막내,바이어,최하림,주임,자취생,자취,경험,가구,특화,고등어,마리,고등어,삼치,마리,삼치,마리,시리즈,탄생,전자레인지,고등어,가시,순살,생선,자취,초보,생선들,기업들,MZ,직원,아이디어,참고,정도,전권,홈플러스,바이어,평균,나이,35.4세,3.6세,대비,20,,가구,겨냥,리빙,식품,분야,MZ,세대,바이어,집중,배치,바이어,나이,분야,매출,상승,평균,리빙,매출,리빙,70%,,생활용품,매출,생활,용품,110%,상승,안팎,MZ,직원,MZ,소비자,반응,공식,확인,1980년대,임원,전면,배치,기업,CJ그룹,신설,전략혁신부서,SID,임직원,평균,연령,30세,조직,책임자,지주사,임원,승진,이보배,경영리더,83년,아모레퍼시픽,마케팅디비전장,정가윤,설화수,마케팅,디비전장,상무,84년,신세계그룹,온라인TF팀장,김혜경,전략실,온라인,TF,팀장,상무,81년,임원,소비,패권,이동,입김,MZ,캐비닛,MZ,세대,발탁,변화,생존경쟁,도태,위기감,발굴,MZ세대,미술품,재테크,전시회,콘텐츠,발굴,롯데홈쇼핑,신설,컬처사업팀,전원,MZ,세대,성지,인증,325만,롯데월드타워,조형물,서울,잠실,롯데월드타워,벨리곰,MZ,세대,직원,기획,공략,MZ,소비자,중요,소비,영향력,덕분,본보,설문,조사,기업들,MZ세대,소비,기준,가격,가성비,재미,흥미,트렌드,환경,젠더,미닝아웃,Meaning,이은희,인하대,소비자학,교수,MZ세대,소비,본인,라이프,스타일,개선,소셜미디어,동참,유도,발화,공간,온라인,만큼,연령,지역,한계,광범위,영향,파격적,공간,구성,20,,소비자들,유입,여의,현대서울,매출,54.3%,지역,소비자들,정연승,단국대,경영학부,교수,MZ세대,윗세대,패턴,MZ세대,연령,소비시장,영향력,MZ세대,마음,또래,MZ,직원,활용,중요,MZ직원끼리,2030만,상품개발,영업,전진배치,평생,직장,개념,MZ세대,효능감,소속감,기업들,MZ,직원,전진,배치,평생직장,개념,20,,직원들,고육책,회사,로열티,강요,효능감,self-efficacy,효과,판단,CJ제일제당,사내,벤처,프로그램,MZ,직원,아이디어,사업화,사내벤처팀,조직,대표,이사,직속,팀원들,전략기획,마케팅,영업,생산,디자인,직무,최고,책임자,역할,음식,업사이클링,식품,부산물,재가공,브랜드,익사이클,식물,대체,우유,브랜드,얼티브,탄생,편의점,GS25,세대,직원,구성,신상품,프로젝트,갓생기획,PB,브랜드,갓생,기획,운영,상품,캐릭터,브랜드,자유,조합,세상,작품,노티드우유,틈새오모리김치찌개,팝잇진주캔디,100개,히트,상품,탄생,누적,이마트24,MZ,직원,구성,딜리셔스,탐험대,딜탐,브레인스토밍,시장,조사,상품,출시,참여,이마트,관계자,MZ세대,욕구,needs,구체화,적극,반영,롯데마트,입사,한우,브랜드,마블나인,한우,오마,카세,전문점,팝업,스토어,프로젝트,서울,시내,유명,한우,오마,카세,업장,제안서,전달,업무,프로젝트,병행,머릿속,상상,현실,작업,식품업계,10만,유튜브,구독자,실버버튼,아이스크림,마케팅,냉동BM1팀,팀장,제외,전원,팀원,MZ세대,관계자,경영진,MZ세대,통제,전폭적,지지,회사,브랜드,애정,성과,휴넷,온라인,교육,기업,입사,신입,사원,대상,설문,예상,근속,기간,평균,회사,5년,근속,답변,15.3%,위정현,중앙대,경영학부,교수,사내,문화,MZ,직원,시대,노동시장,평생직장,개념,시대,동기,부여,전폭적,권한,책임,중요</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2534,7 +3114,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>무선통신기기,ICT,수출,한국,산업,엔진,정보통신기술,ICT,수출,주력,산업,조선,자동차,수출,증가세,대조적,침체,글로벌,경기,ICT,수출,어려움,관세청,수출액,ICT,품목,중심,하락세,품목,최대,수출,반도체,62억,달러,전년,동기,대비,7.5%,무선통신기기,24.6%,컴퓨터,주변,기기,32.8%,감소,품목,수출,승용차,22%,선박,15.4%,자동차,부품,8.9%,증가,대비,반도체,월말,추세,코로나19,유행,한창,26개월,역성장,기록,경향,통계,직전,반도체,수출,7월,비교,2.5%,성장세,36.9%,증가율,반도체,수출,증가,전년,동기,대비,ICT,분야,컴퓨터,14.4%,무선통신기기,16%,하락세,승용차,26.3%,선박,30.3%,수출액,1년,기상도,ICT,수출,상반기,모습,산업통상자원부,수출액,상반기,ICT,달러,164조,전년,동기,대비,18.9%,상반기,1030억,달러,상반기,기준,최대,실적,반도체,품목,증가,중국,미국,5개국,ICT,수출,자릿수,성장,기록,전문연구원,김양팽,산업,연구원,전문,연구원,반도체,하락,수출,증가세,30~40%,성장,역기저,효과,상반기,수치,성장세,둔화,전망,장기화,우크라이나,사태,장기,중국,여파,코로나19,봉쇄,수요,위축,경기,전망,불투명,반등,여지,악재,인플레이션,금리,상승,침체,글로벌,경기,정보통신,기기,수요,미국,미시간대,소비자,심리,지수,55.1,사상,최저,50.2,소매판매,중국,소매,판매,증가,전년,동기,대비,2.7%,시장,전망,트렌드포스,대만,시장,조사,업체,공급,과잉,재고,증가,소비자,가격,2분기,최대,18%,전망,19일,무역,협회,보고서,중국,강화,장비,반도체,제조,LCD,액정표시장치,중국,수출,감소세,정인교,인하대,국제통상학,교수,미국,시즌,연말,쇼핑,수출,물량,대목,소비자,제품,구매,계획,수출,대안,기업,상황,ICT,수출,부정,전망,지배적,산업,연구원,지수,전문가,서베이,PSI,자동차,조선,수출,전망,PSI,반도체,휴대폰,상회,전월,대비,개선,의견,반대,악화,의견,의미</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2552,7 +3137,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>인하대,리멤버,인하대,낙서,40대,락카,인하대,캠퍼스,성폭력,추락,사망,사건,낙서,남성,입건,인천,미추홀경찰서,재물,손괴,혐의,A씨,남성,입건,23일,A씨,18일,7곳,인하대,교내,REMEMBER,낙서,재물,손괴,혐의,낙서,인하대,캠퍼스,발생,성폭력,추락,사망,사건,발생,날짜,관계자,학교,낙서,발견,경찰,신고,경찰,캠퍼스,폐쇄회로,CC,TV,확보,A씨,신원,특정,A씨,경찰,조사,락카,이용,학교,낙서,사건,범행,진술,사건,인하대,성폭력,추락,사망,캠퍼스,시간대,인하대,2~3층,단과대,건물,발생,학생,이날,의식,동급생,성폭행,추락,혐의</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2570,7 +3160,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>멸종,위기,흰발,소래,갯골,갯벌체험장,21일,3시,인천,남동구,소래습지생태공원,한쪽,마련,갯벌체험장,아이,어른,뜰채,호미,갈퀴,잡이,한창,갯벌,신발,양말,여럿,소래습지생태공원,재개장,사실상,마련,체험장,소래,갯골,공유,수면,1만,규모,주인,공원,매점,입소문,주말,체험장,귀띔,평화,풍경,걱정,눈길,소래,갯골,모니터,활동,정기적,인천,지역,환경,단체,체험장,소래,갯골,생태계,훼손,2급,멸종,위기,야생,생물,흰발농게,개체수,변화,주목,체험장,소래,갯골,흰발농게,대표,서식지,사무처장,박옥희,인천,환경,운동,모니터링,흰발농게,갯골,소래,습지,생태,공원,주변,발견,체험장,인근,갯벌체험장,생태계,영향,사람들,조개,놀이,흰발,영향,김태원,인하대,교수,해양과학과,실마리,송도,갯벌,대상,0.5,면적,1시간,흰발,농게,개체수,관측치,기준,절반,체험,활동,사람들,갯벌,압력,흰발농게,움직,둔화,이동,얘기,교수,통화,답압,활동,갯벌,6주,흰발농게,활동성,예전,수준,회복,인천시,해양,친수,체험장,정비,환경단체,주문,수용,계획,수정</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2588,7 +3183,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락사,리멤버,낙서,40대,외부,소행,경찰,재물,손괴,혐의,입건,사건,진술,인하대,캠퍼스,발견,추락사,교내,성폭행,사건,낙서,사건,외부인,소행,인천,미추홀경찰서,재물,손괴,혐의,남성,입건,23일,경찰,18일,인천,미추홀구,인하대,캠퍼스,7곳,래커,낙서,시설,훼손,혐의,낙서,리멤버,REMEMBER,인하대,사건,성폭행,추락사,발생,사건,학내,구성원,기억,의미,입건,경찰,조사,사건,성폭행,추락사,진술,낙서,피해,여학생,발견,입구,단과대,건물,건물,외벽,발견,대학,제거,신고,경찰,인근,CCTV,추적,신원,특정,학교,인하대,캠퍼스,단과대,건물,또래,여학생,성폭행,추락,혐의,구속,기소,2층,사이,복도,창문,1층,추락,장소,자취방,당일,경찰,체포,추락,건물,길가,혼자,건물,방치,행인,발견,병원,3시간,소속,공과대학,이날,징계,수위,결정,상벌위원회,심의,결과,퇴학,조치,학장,제청,학생상벌위원회,의결,총장,최종,처분</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2606,7 +3206,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>낙서,인하대,사건,40대,외부,소행,인천시,미추홀구,인하대,교내,발견,낙서,갈무리,온라인,커뮤니티,인하대학교,교내,발견,성폭행,추락사,사건,낙서,사건,외부,소행,파악,인천,미추홀경찰서,재물,손괴,혐의,A씨,남성,입건,23일,경찰,A씨,18일,7시,분쯤,7곳,인천시,미추홀구,인하대,교내,래커,낙서,시설,훼손,혐의,A씨,낙서,REMEMBER,7월,대학,교내,사건,성폭행,추락사,발생,날짜,사건,학내,구성원,기억,의미,추정,A씨,경찰,조사,사건,진술,낙서,피해,여학생,발견,5층,입구,단과대,건물,건물,외벽,발견,대학,제거,신고,경찰,인근,폐쇄,회로,CC,TV,추적,A씨,신원,특정,학교,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,C씨,또래,여학생,성폭행,추락,혐의,구속,기소,C씨,추락,건물,길가,혼자,건물,방치,행인,발견,병원,3시간</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2624,7 +3229,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>휴대폰,컴퓨터,성장,ICT,수출,한국,산업,엔진,정보통신기술,ICT,수출,주력,산업,조선,자동차,수출,증가세,대조적,침체,글로벌,경기,ICT,수출,어려움,관세청,수출액,ICT,품목,중심,하락세,품목,최대,수출,반도체,62억,달러,전년,동기,대비,7.5%,무선통신기기,24.6%,컴퓨터,주변,기기,32.8%,감소,품목,수출,승용차,22%,선박,15.4%,자동차,부품,8.9%,증가,대비,반도체,월말,추세,코로나19,유행,한창,26개월,역성장,기록,경향,통계,직전,반도체,수출,7월,비교,2.5%,성장세,36.9%,증가율,반도체,수출,증가,전년,동기,대비,ICT,분야,컴퓨터,14.4%,무선통신기기,16%,하락세,승용차,26.3%,선박,30.3%,수출액,1년,기상도,ICT,수출,상반기,모습,산업통상자원부,수출액,상반기,ICT,달러,164조,전년,동기,대비,18.9%,상반기,1030억,달러,상반기,기준,최대,실적,반도체,품목,증가,중국,미국,5개국,ICT,수출,자릿수,성장,기록,전문연구원,김양팽,산업,연구원,전문,연구원,반도체,하락,수출,증가세,30~40%,성장,역기저,효과,상반기,수치,성장세,둔화,장기화,우크라이나,사태,장기,중국,여파,코로나19,봉쇄,수요,위축,경기,전망,불투명,반등,여지,악재,인플레이션,금리,상승,침체,글로벌,경기,정보통신,기기,수요,미국,미시간대,소비자,심리,지수,55.1,사상,최저,50.2,소매판매,중국,소매,판매,전년,동기,2.7%,증가,시장,전망,트렌드포스,대만,시장,조사,업체,공급,과잉,재고,증가,소비자,가격,2분기,최대,18%,전망,19일,무역,협회,보고서,중국,강화,장비,반도체,제조,LCD,액정표시장치,중국,수출,감소세,정인교,인하대,국제통상학,교수,미국,시즌,연말,쇼핑,수출,물량,대목,소비자들,제품,구매,계획,수출,대안,기업들,상황,ICT,수출,부정,전망,지배적,산업,연구원,지수,전문가,서베이,PSI,자동차,조선,수출,전망,PSI,반도체,휴대폰,상회,전월,대비,개선,의견,반대,악화,의견,의미,무역,견인,ICT,업황,수출길,돌파구,상반기,35%,반도체,경기,악화,기업들,기업,속도,신규,투자,생산,라인,조절,정부,이달,종합적,수출,대책,예정,1차관,방기선,기획,재정부,19일,비상경제차관회의,수출,대책,마련,강화,첨단,산업,경쟁력,구조적,무역,체질,개선,노력,병행</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,7 +3252,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>인하대,동급,성폭행,추락사,날짜,낙서,입건,인하대학교,교내,동급,성폭행,추락사,사건,낙서,남성,경찰,인천,미추홀경찰서,재물,손괴,혐의,A씨,입건,21일,A씨,18일,7시,분쯤,7곳,인천,미추홀구,인하대,교내,래커,REMEMBER,낙서,혐의,경찰,낙서,인하대,교내,발생,동급,성폭행,추락사,사건,발생,15일,의미,A씨,경찰,조사,사건,진술,인하대,B씨,교내,3층,단과대,건물,동급,성폭행,추락,혐의,구속,기소,B씨,C씨,마지막,조사,인천,김민</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2660,7 +3275,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>40대,성폭행,추락사,인하대,낙서,사건,살인사건,성폭행,추락,살인,사건,발생,인하대,교내,리멤버,낙서,발견,리멤버,사건,발생,날짜,인하대,발견,추락사,교내,성폭행,사건,REMEMBER,사건,낙서,외부인,소행,파악,미추홀경찰서,인천,재물,손괴,혐의,A씨,미추홀구,주민,남성,입건,A씨,18일,7시,분쯤,7곳,인천시,미추홀구,인하대,교내,래커,낙서,시설,훼손,혐의,낙서,피해,여학생,발견,5층,입구,단과대,건물,외벽,4곳,발견,대학,낙서,제거,낙서,REMEMBER,대학,교내,사건,성폭행,추락사,발생,날짜,사건,학내,구성원,기억,의미,추정,낙서,피해,여학생,발견,5층,입구,단과대,건물,건물,외벽,발견,대학,제거,경찰,인근,폐쇄,회로,CC,TV,추적,A씨,신원,특정,A씨,경찰,조사,사건,진술,학교,1시,인하대,캠퍼스,2~3층,단과,대학,건물,의식,여학생,성폭행,시도,추락,혐의,구속기소,경찰,B씨,준강간치사,성폭력,처벌,특례법,카메라,이용촬영,반포,혐의,적용,사건,검찰,B씨,강간,살인,혐의,변경,구속,기소,2차례,현장,조사,법의학,감정,휴대,전화,동영상,현장,폐쇄,회로,CC,TV,감정,조사,범행,장소,출입자,전수,작위,살인죄,적용</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2678,7 +3298,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>REMEMBER,성폭행,추락사,현장,낙서,인하대,발견,추락사,교내,성폭행,사건,REMEMBER,사건,낙서,외부인,소행,파악,인천,미추홀경찰서,재물,손괴,혐의,A씨,미추홀구,주민,남성,입건,23일,경찰,A씨,18일,7시,분께,7곳,인천시,미추홀구,인하대,교내,래커,낙서,시설,훼손,혐의,A씨,낙서,REMEMBER,대학,교내,사건,성폭행,추락사,발생,날짜,경찰,인근,폐쇄,회로,CC,TV,추적,A씨,신원,특정,A씨,경찰,조사,사건,진술,낙서,피해,여학생,발견,5층,입구,단과대,건물,건물,외벽,발견,대학,제거,학교,A씨,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,B씨,또래,여학생,성폭행,추락,혐의,구속,기소</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +3321,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락사,사건,날짜,낙서,입건,인하대,발견,추락사,교내,성폭행,사건,낙서,사건,외부인,소행,파악,인천,미추홀경찰서,재물,손괴,혐의,A씨,남성,입건,23일,경찰,A씨,18일,7곳,인천시,미추홀구,인하대,교내,래커,낙서,시설,훼손,혐의,A씨,낙서,REMEMBER,대학,교내,사건,성폭행,추락사,발생,날짜,사건,학내,구성원,기억,의미,추정,A씨,경찰,조사,사건,진술,낙서,피해,여학생,발견,5층,입구,단과대,건물,건물,외벽,발견,대학,제거,신고,경찰,인근,폐쇄,회로,CC,TV,추적,A씨,신원,특정,학교,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,B씨,또래,여학생,성폭행,추락,혐의,구속,기소,B씨,2층,사이,복도,창문,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,건물,길가,혼자,건물,방치,행인,발견,병원,3시간</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2714,7 +3344,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3시,영업,은행,거리,공공기관,은행,단축,영업,사회,거리,해제,영업시간,은행,점포,코로나19,회복,팬데믹,요즘,은행문,금융,활성,점포,축소,개선,임직원,처우,추진,은행들,전환,불편,고객,고령층,취약계층,디지털,금융,취약,계층,전가,모습,점포,고령,발동동,코로나19,유행,은행,9시,4시,공공기관,기업,근무,영업시간,10년,엄수,확산,코로나19,사회,거리두기,일환,은행,영업시간,단축,금융,노조,노사,합의,영업시간,조항,임금,단체협상,합의서,추가,은행,코로나19,4시,노사,합의,선행,금융,관계자,논의,기준,영업시간,단축,논의,착용,실내,마스크,시행,논의,영업시간,회복,실내,마스크,연동,은행,뒷짐,점포,업무,지출,입금,작업,서류,정리,예금,대출,고객,관리,작업,전산,입력,마무리,처지,은행원들,영업시간,회복,금융노조,4.5일,시행,근무,시간,인상,6.1%,임금,처우,개선,요구,총파업,예고,상황,노조,영업시간,유지,지지,추세,금융,활성,오프라인,점포,직원,와중,영업시간,적극,추진,유인,은행,속내,얘기,금융감독원,기준,점포,은행,6094개,1년,311개,5년,비교,1000개,감소,임직원,KB국민,하나은행,시중,은행,상반기,1391명,은행,관계자,디지털,전환,은행들,오프라인,비용,축소,상황,영업시간,은행,상시적,단축,영업,안내,설명,소비자들,불편,배신감,호소,팬데믹,기간,임시,조치,단축,영업,은행,정상,영업,퇴로,봉쇄,행태,자영업자,은행,영업시간,은행,창구,사람,정도,회사원,어린이통장,업무,부모,은행,창구,가능,은행,업무,업무,금융,취약,계층,거리,조치,한시,영업시간,은행,금융,취약,계층,상대,판매,이민환,인하대,글로벌,금융학,교수,영업시간,단축,상황,합리,설명,은행,창구,이용,고령층,피해,총평</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2732,7 +3367,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>교역,사드,보복,시험대,경협,한중수교,30주년,30년,경협,기점,교류,팽창,전환,탈중국,러시,전략적,한계,협력,모델,연결고리,동국제강,지난달,중국,현지,제조,사업,3년,700억,누적,손실,감당,2001년,중국,진출,산업,중국,철강,제품,수준,업체,경쟁력,중국,업체,추격,동국제강,중국,베트남,멕시코,미국,나라,진출,박차,계획,30주년,수교,주년,경제,분위기,잔칫집,초상집,분야,과거,경제,중국,성장,기회,상징,단어,중국,탈중국,대세,기업들,중국,사업,비중,철수,속도,수출,효자,역할,중국,무역,수지,28년,적자,설상가상,미국,기조,중국,배제,강화,정책,모양새,전문가들,탈중국,거시,안목,협력,비전,30년,모델,전략,동반자,한계,인정,고리,경제,연결,얘기,63억,3,105억,달러,세계,초고속,초밀착,협력,수교,30년,나라,경제,협력,규모,전례,만큼,한국,교역,달러,달러,47배,기준,중국,한국,최대,교역국,23.9%,최대,수출,수입국,25.3%,22.5%,중국,한국,무역,파트너,한국,총액,중국,교역,비중,차지,교역국,중국,한국,일본,자리,교역국,성장,서로,서로,도움,동반,성장,가능,체제,시장,경제,초반,중국,공장,자금,유치,경제,규모,지상,기업들,한국,기업,임금,비용,상승,고민,한국,원재료,반제품,중국,공장,제품화,해외,가공,무역,중심,협력,구조,자리,한국,자본,중국,광대,시장,시너지,가죽,섬유,종이,중심,반도체,디스플레이,무선통신,기기,중간재,협력,분야,사드,보복,균열,28년,대중,무역,적자,2017년,기점,거대,균열,발생,기폭제,사드,THAAD,미사일,방어,체계,사태,정부,한반도,사드,배치,공식화,중국,정부,한한령,중국,한류,금지령,선포,한국,경제적,보복,중국,시장,진출,기업,직격탄,20%,삼성전자,점유율,중국,시장,휴대폰,점유,미만,추락,현대자동차,중국,판매량,23%,전년,대비,23%,점유율,1.8%,사드,보복,감염증,신종,코로나바이러스,코로나19,유통사들,상황,롯데,150곳,현지,백화점,대형,마트,점포,영업,중단,아모레퍼시픽,중국,매장,폐쇄,악재들,대중국,무역,수지,대중,무역,수지,지난달,000만,달러,적자,5,,적자,연속,대중,무역,적자,기록,선임연구위원,조철,산업,연구원,선임,위원,한국,흑자,대중,무역,나라,적자,중국,수출,교역,적자,설명,마지막,상품,수출,효자,반도체,무역,갈등,영향권,미국,반도체,동맹,칩4,한국,참여,결정,중국,빌미,경제,보복,한국,반도체,수출,달러,중국,홍콩,수출,차지,비중,60%,전통,협력,모델,종료,소비재,수출,돌파구,갈등,외부,요인,본질,시각,중국,인건비,상승,구인난,중국,기업,성장,경제,환경,구조적,주목,구조,중국,산업,고도화,한국,중국,보유,산업,반도체,전문가,진단,산업,치열,경쟁,만큼,과거,모델,전략,협력,지속,제품별,차별화,접근,주장,중간재,탈중국,전략,유효,소비재,중국,중요성,기준,중국,대한국,수입,총액,중간재,차지,비중,83.7%,일본,규제,보복,수출,소부장,소재,부품,장비,자립,역설적,대중,의존도,정인교,인하대,국제통상학,교수,대중국,수출,중간재,차지,비중,절대적,중국,수출,부진,한국,경제,지적,중국,내수,시장,겨냥,소비재,수출,돌파구,목소리,분위기,중국,시장,기회,수석연구원,전보희,한국무역협회,수석,연구원,중장기적,반도체,석유화학,품목,특정,중간재,구조,대중국,수출,탈피,소비재,포함,최종재,수출,비중,중국,소비재,수입,시장,규모,수입,대체,제품,브랜드,경쟁력,고급,소비재,시장,중국,내수,틈새,공략,조언</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2750,7 +3390,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3000원,카카오,장악,택시요금,인플레,플랫폼,택시요금,카카오택시,호출앱,시장,90%,독점,일반,택시,기본요금,즉시,배차,수수료,코로나,택시,승객들,수수료,이용,90%,카카오,호출,90%,일반,택시,0%,물가,통계선,택시,요금,상승,승객,실제,안돼,반영,서울,종로구,이영주씨,회사원,이영주,여의도,외근,택시,시도,택시,예약,상태,택시,호출,카카오T,카카오택시,일반,호출,시도,배차,실패,메시,반복,호출,배차,카카오,블루,3000원,고급형,블랙,요금,3만,요금,일반,택시,3배,결국,포기,지하철,이씨,택시,요금,카카오,결정,원래,요금,택시,사실,택시비,택시,승객,효율적,연결,택시,호출,플랫폼,각종,수수료,부과,요금제,사실,요금,불만,택시,호출,시장,90%,차지,카카오택시,시장,지배력,무기,공공,교통수단,택시,요금,정부,상황,통계청,집계,소비자물가,소비자,물가,택시비,상승,공식적,기본,요금,토대,0%,서울,기준,현실,지적,거리,대낮,기본요금,블루,카카오택시,운영,카카오,블루,거리,호출,최대,호출비,서울,택시,기본요금,3800원,인상,일반,택시,블루,이름,기본,요금,6800원,호출비,카카오택시,운영사,카카오모빌리티,택시,회사,절반씩,카카오택시,블루,요금,택시,벤티,블랙,고급,택시인,운영,택시,호출,평일,대낮,22일,3시,기본요금,거리,서울,종로구,정부서울청사,시청역,카카오택시,호출,요금,6600원,벤티,호출비,블루,거리,9700원,블랙,원래,기본요금,3800원,일반,택시,하단,카카오택시,운영,요금,택시들,우선적,점유율,폐해,가격,인상,카카오,카카오택시,호출,90%,추가,비용,일반,호출,사이,택시,기사,택시,겨자,택시,이은희,인하대,소비자학,교수,택시,기본요금,정부,업계,소비자,줄다리기,공공,서비스,카카오택시,기본요금,개념,무력화,소비자,상황,무료,호출,점유율,가격,독점,플랫폼,폐해,시장,한국,택시,가격,소비자,점유율,가격,온라인,플랫폼,약탈,가격,해외,뉴욕시,당장,미국,승차,공유,서비스,시장,장악,우버,리프트,각종,프로모션,종료,우버,요금,택시비,현상,발생,미국,유럽,수수료,전자,상거래,점유,1위,아마존,수수료,인상,논란,구글,무료,사진,무제한,구글,포토,서비스,용량,2400~1,1900원,부과,반발,서용구,숙명여대,경영학부,교수,서비스,소비자,록인,lock-in,효과,업체,독과점,플랫폼,가격,수익성,소비자,입장,물가,상승,부작용</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,7 +3413,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>8월,알림,포니정재단,22일,40살,혁신가,응원,포니정,영리더상,수상자,엔씽,글로벌,애그리,푸드,테크,스타트업,김혜연,대표,피아니스트,손열음,선정,시상식,10월,서울,삼성동,아이파크,타워,포니정홀,상금,국보,이사회,회장,최강,CY,그룹,신임,대표,이사,선임,하현,최강용,대표,이사,체제,전환,대표,신임,신격호,롯데그룹,총괄,회장,조카,미국,조지워싱턴대학,컴퓨터공학,전공,사이버포렌식전문가협회,KCFPA,회장,뷰티베이커리,회장,플라스큐,회장,남북,경제,협력,위원회,부이사장,불가리아,경제,협력,위원회,상임,대표,블록체인,활용,물류,모빌리티,디지털,병원,분야,사업,확장,계획,극단,큰들,대표,전민규,27일,새달,산청마당극마을,경남,산청군,산청읍,38돌,산청마당극마을,정기공연,찔레꽃,극단,마당극,초청공연,국악인,김성녀,초청,공연,산청마당극마을,특별,공연,구성,입장권,3만,안양대,총장,박노준,실용음악,게임,카카오,마술양품점,포트리스,게임사운드,제작사,스팟웍스,대표,함석길,사운드,디자,제작,제작,인재,육성,업무협약,추천,우수,인력,현장,학습,특강,지원,배양,실무,능력,협력,한국언론법학회,철우언론법상,철우,언론법,학술,수상자,학술,백경희,인하대,법학,전문,대학원,교수,선정,감염병,위기,정보,공개,감염병,환자,인격,침해,피해,구제,고찰,시상식,26일,기자회견장,서울,프레스,센터,회견장,명예훼손,판례,평가,쟁점,주제,세미나,공유,페스티벌,운영,위원회,공유,페스티벌,연극,생각,마무리,품평회,시상식,품평회,연기대상,바다,기사들,극단,연출,명장,윤현식,김은경,배우,최우수연기상,변신,극단,연출,가변,이성구,임진웅,배우,곰스크,기차,극단,연출,이화,최석원,이나경,배우,우수연기상,앙스트블뤼테,불안,극단,연출,아리,정주영,박상석,배우,스파르타,불구아이,극단,연출,어니스트씨어터,오광욱,안수현,배우,신인연기상,쁘리카,극단,theater,박예슬,연출,정희원,배우,비상,극단,연출,무변,김남우,정민주,배우,무대예술상,극단,황정원,연출,김민혁,조명,디자이너,프로덕션상,비상,극단,무변,현대차,19일,화훼농가,마켓,임직원,기부,캠페인,플라워,진행,조성,기부금,회사,추가,기부금,7600만,플리,사회,기업,기부,운영,플라워,마켓,사용,비용,제외,기부금,복지기관,원예,수업,진행,소외계층,활동,풀꿈환경재단,충북,사회,복지,공동,모금회,장학금,기부,재단,청주시,제공,LG,에너지,솔루션,7억,투입,청주시,청원구,북부,화승,센터,주차장,1만,규모,희망그린발전소,409.5,kW급,운영,광주기독병원,광주,거주,우크라이나,난민,외국인,대상,의료봉사활동,호흡기내과,소화기내과,소아청소년,재활의학과,진료,의료진,병원,26명,발혈,치유,봉사,직원,초음파검사,투약,수액,투여,지엠한마음재단코리아,사회복지공동모금회,인천,사회,복지,공동,모금회,업무협약,GM한국사업장,위치,인천,창원,보령,지역,가정,장애,아동,지원,사회복지시설,쉐보레,스파크,10대,지원,KT&amp;G,법무부,산하,입원,치료,시설,국립,법무,병원,환자,치료,재활,성금,기부,기부금,보호관찰대상자,법무보호대상자,주거,환경,개선,예정,문화재청,경북,상주,중동면,종택,조선,시대,가옥,상주,수암,국가민속문화재,지정,수암,종택,류성룡,아들,수암,류진,불천위,제사,녹</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2786,7 +3436,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>배터리,소재,중국산,수산화리튬,흑연,코발트,80%대,중국,의존도,급증,전기차,배터리,핵심,소재,중국,의존도,80~90%,전기차,시장,급성장,중국,배터리,광물,소재,기지,글로벌,생산,자리,측면,배터리,소재,관세,면제,정부,정책,경향,가속화,지적,미국,인플레이션,감축법,시행,중국,소재,사용,배터리,보조금,지급,제한,결정,대안,지적,흑연,수산화리튬,80%,한국무역협회,소재,전지,핵심,수산화리튬,코발트,천연,흑연,비율,중국,수입,80%,수산화리튬,수입액,달러,2조,중국산,14억,달러,84.4%,차지,코발트,1억,수입액,달러,중국,수입액,1억,달러,81%,천연,흑연,7195만,달러,중국,수입액,6445만,달러,89.6%,차지,수산화리튬,완충,배터리,핵심,소재,수입,급증,중국,비중,수산화리튬,2018년,수입액,달러,중국,비율,64.9%,수입액,폭증,84%,기록,중국,수입액,1년,관계자,전기차,배터리,업계,업체,수산화리튬,제조,중국,중국,비중,극재,핵심,원료,배터리,출력,안정성,역할,코발트,2019년,중국,의존도,50%대,이젠,80%,음극재,주원료,천연,흑연,비율,중국,초반,89.6%,채굴,글로벌,가공,중국,정책,할당,관세,수입,부추겨,중국,생산,전기차,소재,압도적,독점력,확보,BMI,글로벌,원자재,시장,조사,업체,중국,세계,양극재,업체,80%,114사,음극재,156사,78%,123사,리튬,회사,4사,중국,공장,흑연,업체,산둥,광둥,중국,매장량,채굴량,아프리카,호주,중남미,국가,광물,제련,가공,공장,중국,세계,각국,대중,의존도,코발트,콩고민주공화국,채굴량,기준,세계,시장,17만,70%,12만,콩고민주공화국,코발트,수출,물량,중국,시장,코발트,가공,중국,비중,3분,리튬,호주,칠레,채굴량,중국,중국,호주,칠레,아르헨티나,지분,리튬,광산,확보,중국,채굴량,세계,리튬,절반,시장,리튬,가공,60%,장악,초빙교수,강천구,인하대,초빙,교수,중국,화유코발트,간펑리튬그룹,기업들,소재,분야,세계,기업,보유,세계,산지,채굴,광물,중국,가공,정부,배터리,품목,5~8%,관세,중국,의존도,요인,교수,박철완,서정대,양극재,원료,유예,할당,관세,적용,기업,내재화,소재,수입,방향,정부,산업,미국,정부,인플레,감축법,시행,중국,광물,소재,사용,전기차,배터리,채택,2024년,제한,예정,미국,전기차,보조금,배터리,핵심,자재,리튬,니켈,코발트,미국,미국,자유무역협정,FTA,국가,공급,배터리,부품,양극재,음극재,전해액,분리막,북미산,동향분석실장,장상식,무역,협회,동향,실장,수입국,다변,대체,생산,업체,대책,마련,미국,정부,협의,기업,피해,최소화</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2804,7 +3459,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>교수,철우,언론법,백경희,한국언론법학회,수상자,철우,언론법,백경희,인하대,법학,전문,대학원,교수,46,선정,22일,교수,감염병,위기,정보,공개,감염병,환자,인격,침해,피해,구제,고찰,민법,보건의료법,다수,보건,의료법</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2822,7 +3482,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>연세,거리,활성화,폐지,신촌,상권,활성,vs,거리,문화,서울,대중교통전용지구,승용차,통행,버스,연명부,찬성,제출,불편,일부선,보행,손님,교통체증,사고위험,정체,위기,집단행동,대학,자치,단체,서울,길거리,공연,신촌,연세,거리,정기,공연,회원,대학,댄스,동아리,회원,거리,조성,매출,20%,신촌,인식,손님,연세로,주변,15년,술집,운영,서울,서대문구,거리,연세로,차량,통행,전면,허용,방안,추진,주변,상인,주민,대학,사이,찬반,의견,접근,저하,손님,연세대,정문,신촌역,550m,길이,연세로,과거,상습,정체,구간,서울시,연세로,서울,대중교통전용지구,지정,승용차,진입,버스,주말,버스,통행,거리,감염증,신종,코로나바이러스,코로나19,사태,주말,신촌물총축제,각종,문화,행사,사이,인근,상인,거리,대중교통,전용,지구,지정,상권,침체,의견,신촌,술집,운영,외부,축제,매출,생각,실제,상인,효과,체감,손님,서대문구,복귀,거리,원상,공약,이성헌,구청장,6,선거,당선,서울시,서울경찰청,참여,간담회,상인들,차량,통행,전면,허용,찬성,연명부,2000여,서명,서대문구,제출,서대문구,관계자,거리,정책,상권,상인,연세로,중순,거리,원상회복,신촌,상권,활성화,보행자,불편,상인들,거리,폐지,찬성,연세로,카페,운영,50대,도로,왕복,보행자,불편,동네,연세,인근,연세대,서강대,자치단체들,이화여대,학생,자치,단체,거리,폐지,반대,집단행동,연세로,차량,통행,전면,허용,교통사고,위험,증가,동시,교통,체증,문화,중심지,연세로,정체성,대학,대상,설문,결과,80%,거리,폐지,반대,주장,이승일,서울시립대,도시공학,교수,탄소중립,추세,보행자,친화,교통,정책,승용차,중심,회귀,이은희,인하대,소비자학,교수,주체,의견,만큼,의견,수렴,지적</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2840,7 +3505,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>신정호,국가정원,등록,추진,아산시장,박경귀,충남,아산,시장,아산항,아산항,대계,초석,아산시민,힐링,공간,신정호,저수지,문화예술,자연생태,신정호,아트밸리,국가정원,발전,아산시장,박경귀,충남,아산,시장,사진,동아일보,인터뷰,온천,관광,산업,아산,문화예술,도시,기억,시장,취임,시민,간담회,시정,방향,주민,공유,아이디어,한편,주민,시정,흡수,참여,자치,위원회,설치,운영안,결재,시장,승인,시장실,운영,맥락,인하대,행정학,박사,출신,시장,행정,자치,지방,공기업,혁신,단장,일문일답,선거,공약,정책,전공,그동안,중앙,지방,정부,발전,전략,수립,선거,패배,6년,시민들,현장,책상머리,지식,공약,100%,시정,미션,제정,지방자치단체들,비전,미션,제정,미션,시민,행복,공무원들,존재,체크리스트,시민,행복,아산,정체성,문화,예술,도시,아산,1980년대,온천,관광,신혼,여행지,역동적,산업도시,주목,문화,예술,도시,자리매김,생각,신정호,아트밸리,도시,브랜드,육성,국가,정원,지정,신정호,주변,건축미,카페들,30여,100여,갤러리,지정,수준,전시,공연,공간,토대,신정호,일원,음악,미술,조각,무용,영화,건축,장르,국제,비엔날레,2024년,지방정원,2030년,국가정원,등록,아산항,약속,총선,아산,항구,슬로건,시민들,슬로건,아산,항구도시,사실,기억,평택당진항,포화,상태,충남,물동량,해소,대중국,무역,활성화,아산항,평택,당진,아산,트라이포트,아산항만구역,갯벌,보존가치,국가항만계획,국가항만,계획,아산항,반영,아산,대계,얘긴,현대자동차,삼성디스플레이,아산,항구,날개,평택항,국제항,항구,씨앗,결과,지방자치,단점,가능,재임,시절,계획,아산항,완성,대계,아산,초석,평가</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2858,7 +3528,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>중국,수출,부진,반도체,경고등,20일,달러,무역,적자,이달,무역,수지,적자,규모,달러,중국,수출,부진,급증,에너지,수입,이중고,수출,효자,반도체,경고등,연속,무역,적자,무역,전망,지배적,관세청,무역수지,무역,수지,102억,달러,13조,적자,기록,적자,76억,달러,수출액,전년,동기,대비,3.9%,수입액,증가,22.1%,무역수지,4월,마이너스,연속,2008년,4월,14년,적자,눈덩이,규모,누적,무역,적자,254억,달러,34조,1996년,206억,달러,연간,최대,적자,기록,경신,30여,년간,수출,텃밭,중국,시장,이달,중국,수출,전년,동기,대비,11.2%,역성장,대중,무역,수지,6억,달러,적자,마이너스,연속,가능성,무역협회,19일,보고서,대중,무역,적자,둔화,중국,경기,편중,수입,공급망,수출,부진,복합적,작용,결과,해외,수출,견인,반도체,부진,62억,달러어치,수출,기간,비교,7.5%,감소,월말,추세,2년,개월,역성장,수출,품목,무선통신기기,24.6%,컴퓨터,주변,기기,32.8%,감소,고공행진,에너지,가격,수입,확대,석탄,143.4%,가스,80.4%,원유,54.1%,수입액,급증,주도,원유,수입국,사우디아라비아,수입액,1년,99.2%,상황,글로벌,경제,전반적,수출,부진,가시화,원화,가치,약세,원자재,수입,가격,상승,압박,특별,반등,요인,무역,적자,기조,정인교,인하대,국제통상학,교수,전반적,내수,위축,수출,물량,수출,상박하후,경향,연간,무역,적자,달러,반도체,업황,내리막길,모양새,산업,연구원,지수,전문가,서베이,PSI,PSI,반도체,현황,5월,8월,급락,PSI,전망,기준,전월,대비,악화,의견,의미,거시,경제,침체,인플레이션,정보기술,위축,제품,수요,반도체,경기,부정적,전문가,최대,무역,시장,중국,상하이,대도시,코로나19,봉쇄,경기,김정식,연세대,경제학부,명예,교수,중국,경제,저성장,우리나라,감소,대중,수출,가능성,중국,격차,무역흑자,예전,정부,이달,중소,중견기업,해외,마케팅,지원,업종,수출,경쟁력,강화,규제,개선,해소,현장,애로,대책,종합,수출,계획</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2876,7 +3551,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>이택,인하대병원,의료,원장,취임,이택,사진,교수,인하대병원,비뇨,의학,의료원장,인하대병원,의료,원장,취임,인하대,의무,부총장,겸직,임기,1일,3년</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2894,7 +3574,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>인하대병원,의료,원장,이택,교수,인하대병원,이택,교수,비뇨의학과,사진,의료,원장,선임,22일,신임,의료,원장,인하대학교,의무,부총장,겸직,임기,9월,신임,의료,원장,연세대학교,의대,졸업,대학원,비뇨,의학,박사,학위,세브란스병원,1997년,인하대병원,인하대병원,30일,신임,의료,원장,취임식,개최,예정</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,7 +3597,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>중국,에너지,반도체,경고등,이달,무역,적자,달러,이달,무역,수지,적자,규모,달러,부진,중국,수출,에너지,수입,급증,이중고,수출,효자,반도체,경고등,연속,무역,적자,무역,전망,지배적,관세청,무역수지,무역,수지,102억,달러,13조,적자,기록,적자,76억,달러,수출액,전년,동기,대비,3.9%,수입액,증가,22.1%,무역수지,4월,마이너스,연속,2008년,4월,14년,적자,눈덩이,누적,무역,적자,규모,254억,달러,34조,1996년,206억,달러,연간,최대,적자,기록,경신,30여년,수출,텃밭,중국,시장,이달,중국,수출,전년,동기,대비,11.2%,역성장,대중,무역,수지,6억,달러,적자,마이너스,연속,가능성,무역협회,19일,보고서,적자,대중,무역,둔화,중국,경기,편중,수입,공급망,수출,부진,복합적,작용,결과,해외,수출,견인,반도체,부진,성적,62억,달러어치,수출,기간,비교,7.5%,감소,월말,추세,역성장,수출,품목,무선통신기기,24.6%,컴퓨터,주변,기기,32.8%,감소,고공,에너지,가격,수입,확대,석탄,143.4%,가스,80.4%,원유,54.1%,수입액,급증,주도,원유,수입국,사우디아라비아,수입액,1년,99.2%,상황,글로벌,경제,전반적,수출,부진,가시화,원화,가치,약세,원자재,수입,가격,상승,압박,특별,반등,요인,기조,무역,적자,정인교,인하대,국제통상학,교수,전반적,내수,위축,수출,물량,수출,상박하후,경향,적자,연간,무역,달러,수출,지탱,반도체,업황,내리막길,모양새,산업,연구원,지수,전문가,서베이,PSI,PSI,반도체,현황,5월,8월,급락,PSI,전망,기준,전월,대비,악화,의견,의미,침체,거시,경제,인플레이션,정보기술,위축,제품,수요,반도체,경기,부정적,전문가,시장,반도체,수출,의미,시장,최대,무역,중국발,악재,상하이,대도시,코로나19,봉쇄,경기,경제,지표,6월,회복세,7월,그래프,중국,산업,강화,한국,기업,도전,김정식,연세대,경제학부,명예,교수,저성장,중국,경제,우리나라,감소,대중,수출,가능성,중국,격차,무역,흑자,예전,정부,이달,중소,중견기업,해외,마케팅,지원,업종,수출,경쟁력,강화,규제,개선,해소,현장,애로,대책,종합,수출,계획,정인교,교수,대중,유지,현장,기업인,어려움,한편,자국,우선주의,미국엔,대통령,정부,적극,불이익,노력</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2930,7 +3620,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>인하대병원,의료,원장,이택,교수,인하대병원,이택,교수,비뇨의학과,사진,의료,원장,선임,22일,신임,의료,원장,인하대학교,의무,부총장,겸직,임기,31일,신임,의료,원장,연세대학교,의대,졸업,대학원,비뇨,의학,박사,학위,세브란스병원,1997년,인하대병원,인하대병원,30일,신임,의료,원장,취임식,개최,예정</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2948,7 +3643,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>별세,홍정선,문학,평론가,문학,평론가,홍정선,인하대,명예,교수,별세,69세,문학과지성사,평론가,이날,숙환,별세,고인,지병,5년,투병,생활,경북,예천,고인,서울대,국문,졸업,대학원,박사,학위,국문과,한신대,국문,시작,2018년,교수,인하대,한국어,문학,재직,문학,시대,창간,비평,활동,시작,1987년,대표,무크지,세대,문학,동인,합류,대표이사,문학과지성사,대표,이사,역사적,비평,신열하일기,카프,북한,문학,프로메테우스,세월,대한민국,문학상,신인상,소천비평문학상,현대문학상,수상,유족,변호사,아들,홍승목,며느리,심초롱,빈소,1호실,서울아산병원,장례식장,발인,23일,장지,선영,경북,예천</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2966,7 +3666,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>전경련,국정원,세미나,첨단,보호,전국경제인연합회,국가정보원,특허청,공동,30일,컨퍼런스센터,서울,여의도,전경련회관,컨퍼런스,센터,경제,안보,시대,첨단,보호,세미나,개최,세미,세계적,첨단기술,무기,경쟁,치열,방지,유출,보안,국가,경제,안보,핵심,요소,부각,우리나라,실태,유출,정책과제,모색,마련,이날,김일규,특허청,산업,재산,보호,정책,과장,영업,비밀,보호,현황,정책,지원,계획,국가정보원,경쟁국,실태,탈취,대응,방안,종합토론,김민배,인하대,법학,전문,대학원,교수,좌장,변호사,김윤희,김앤장,법률,사무소,안성진,성균관대,컴퓨터,교육,교수,이규호,중앙대,법학,전문,대학원,교수,최성겸,특허청,수사,자문관,검사,김일규,과장,패널,참석,방안,첨단,보호,논의,참가,신청,전경련,홈페이지,www.fki.or.kr,가능,참가비,무료</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,7 +3689,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>N수생,대학,지원,가능,내신,반영,범위,체크,입시,학년도,대학,재수생,포함,장수생,N수생,전망,모의고사,응시,현황,재학,응시자,감소,졸업,응시자,증가,졸업,응시자,차지,비율,16.1%,역대,서울,대학,중심,교과전형,확대,이과,통합,대학,수학,능력,시험,여파,만족,결과,수험생,전문가들,입시,전문가,진단,정시,치열,경쟁률,예상,내신,학생부,졸업생,전형,원서접수,진행,졸업생,성공적,수시,지원,확인,졸업생,가능,전형,학생부,위주,입시업,전형,학생,교과전형,종합전형,전형,학생부,위주,중심,지원,졸업,확인,요소,여부,지원,가능,학생부종합전형,대학,졸업,지원,제한,예외,서울대,지역,균형,선발,전형,서울교대,사향,인재,추천,전형,학생부종합전형,졸업예정자,지원,대표,사례,한양대,학생부,종합,일반,전형,3수,지원,한국항공대,미래,인재,전형,2014년,졸업생,지원,학생부교과전형,졸업,제한,대학,경희대,서강대,서울교대,성균관대,연세대,교과,전형,재학생,지원,이화여대,중앙대,한양대,한양대,에리카,졸업생,지원,재수생,지원,광운대,동덕여대,숭실대,아주대,인하대,홍익대,3수,가능,반영,여부,확인,원서,마감,수능,내신,관리,소홀,학생,학생부종합전형,정성,대학,반영,평가,학기,특수성,진행,유의,학생부,대학,반영,여부,정량평가,진행,관리,불리,학생부교과전형,졸업생,관심,대학,반영,여부,확인,졸업생,교과전형,지원,가능,대학,가천대,가톨릭대,광운대,국민대,덕성여대,명지대,서울여대,세종대,아주대,이화여대,한양대,한양대,에리카,홍익대,반영,실패,경험,속단,금물,수시,학생부종합전형,도전,실패,학생들,자신,학생부,판단,시도,학생부,불합격,자기소개서,부족,본인,학생부,적합,대학,학과,지원,본인,불합격,생각,여부,고민,교과전형,전형방법,수능최저학력기준,변경,곳들,대학,전년도,입시결과,변경,전형,요소,자신,경쟁력,결과,포기,입시전략연구소장,우연철,진학사,입시,전략,연구소장,대학,선발인원,선발방법,지원자들,특징,교과,성적,학생부,수준,지원,경향,대입,요인,경쟁력,결과,전년도,입시,맹신,판단,교과성적,학생부,모의,평가,성적,자신,경쟁력,지원,결과,조언</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,7 +3712,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>교수,문학,평론가,홍정선,문학평론가,명예교수,홍정선,인하대,명예,교수,사진,별세,향년,서울대,국문,졸업,대학원,박사학위,고인,2018년,교수,인하대,한국어,문학,문학,시대,평론,등단,계간지,문학,사회,편집위원,2012년,문학과지성사,대표,역사적,비평,신열하일기,출간,유족,아들,승목,LG,전자,변호사,며느리,심초롱,국립중앙박물관,학예,연구사,빈소,서울아산병원,발인,23일</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,7 +3735,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>우영우,남자,군대,현실,자폐,당사자,이진구,對話,유일,자폐,장애인,교수,윤은호,여름,드라마,자폐,사회,고정관념,자폐,장애,자폐증,自閉症,집착,특징,흥미,인정,존중,자폐,장애인,박사,학위,취득,윤은호,인하대,문화,콘텐츠,문화,경영학,초빙,교수,얘기,현실,드라마,자폐,장애,자폐스펙트럼,장애,관심,실제,변화,드라마,우영우,서울대,학부,입학,전형,서울대,장애인,지원,원서,원서,서울대,장애인,전형,지원,서울대,지원,자격,사전,검증,통과,학생,원서,직원분,자폐,장애인,교육,돌발,행동,면전,장애,장애인,전형,지원,언론,투고,학교,며칠,전화,지원,수험,시험,인하대,인하대,장애인,전형,우영우,장애인전형,학생,장소,시험,경쟁,별도,고사장,제공,정부,분류,가지,장애,청각,시각,뇌병변,운동장애인,나머지,학생,교실,시험,시각장애인,점자,문제지,청각장애인,별도,시험실,뇌병변,운동장애인,1.5배,시험,배려,장애인,장애인,선수,선수,트랙,드라,실제,차이,생각,TV,반복,소리,자폐,장면,자폐당사자들,소리,3회,펭수,자폐당사자,현실,자폐,장애,물건,특징,펭수,2019년,성인,드라마적,요소,실제,자폐,당사자,얘기,우영우,사회,관심,긍정적,반대,혐오,발언,우영우,관심,자체,사람들,혐오,발언,드라마,평소,장애인,혐오,사람들,비하,소재,자폐당사자분들,이야기,혐오,비하,실례,자폐당사자들,우영우,드라마,덕분,자폐증,표현,자폐,표현,생각,자폐증,자폐,장애,스펙트럼,규정,장애,국제표준,분류,세계,표준,질병,사인,ICD,자폐,장애,유일,공식용어,표준어,자폐증,자폐적,등재,설명,부정적,설명,자폐적,사람들,의사소통,회피,내면세계,주위,고립,설명,자폐당사자,외부,접촉,거부,현실,도피해,내면세계,치료,부정적,존재,3년,기사,조사,정치권,언론,부정적,상황,비유,자폐,단어,자폐,역사관,청산,자폐,경향,사회문화,외국,자폐,장애,의사,교사,프로그래머,연구자,자폐,포함,정신,장애,사람,학교,대한민국,일반,진학,순간,학교,폭력,불가능,상처,물건,일상,시절,미래,일반학교,특수학교,특수학급,갈림길,특수학교,선택,학교,폭력,특수학교,학교,폭력,공부,대학,진학,뒷받침,가능성,학생들,자폐,포함,정신,장애,학생들,학교,폭력,나라,조사,조사,자폐,장애,장애인,등록,장애,등록,자폐,장애인,등록,3만,정도,미등록자,아이,자폐,장애,인정,부모님,불편,발달,치료,생각,부모님,아이,자폐,장애,사람들,통제,생활,지장,정도,진단상,자폐,장애,부모님,인정,장애인,등록,친구,입대,결국,관심,사병,복무,정신,질환,장애인,등록,도움,우영우,남자,군대,장애인,군대,기준,자폐,진단,아이큐,IQ,우리나라,IQ,사실,기준,수치,자폐,검사,2002년,재진단,병원,IQ검사,수치,검사,진단,검사,의사,선생,예약,3년,자폐,진단,검사,군대,가지,박사,학위,민원,사람,민원,등록,자폐,장애인,2년,진단,검사,재등록,영구적,장애인,등록,지자체,민원,지자체,자폐당사자,진단,검사,결과,제출,2018년,검사,박사,취득,박사,결국,비용,40만,50만,정부,보조,10만,나머지,우영우,현실,윤은호,교수,자폐,장애인,학위,박사,문화경영학,취득,2019년,모교,인하대,학생들,자폐,장애,등록,장애인,교수,유일</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,7 +3758,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>홍정선,문학과지성사,대표,홍정선,인하대,한국어,문학,명예,교수,별세,서울대,국문,졸업,대학원,박사,문학,평론가,등단,활동,1992년,교수,인하대,한국어,문학,재직,문지,동인,활약,출판사,문학과지성사,대표,유족,아들,홍승목,며느리,심초롱,빈소,서울아산병원,23일,시20분</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,7 +3781,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>별세,문학,평론가,홍정선,출판사,우리나라,대표,문학과지성사,대표,문학,평론가,홍정선,인하대,명예,교수,일기,별세,문학과지성사,지병,5년,투병,생활,평론가,이날,숙환,별세,고인,경북,예천,서울대,국어,국문,졸업,대학원,박사,학위,문학,시대,창간,비평,활동,시작,대표이사,문학과지성사,대표,이사,유족,변호사,아들,홍승목,며느리,심초롱,빈소,1호실,서울아산병원,장례식장,발인,23일,7시,장지,선영,경북,예천</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,7 +3804,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>정신,선대,독립운동,인술,민족병원,자생,한방,병원,신준식,신민식,형제,광복절,77주년,광복,세월,역사,독립운동가,발굴,재조명,작업,오늘날,대한민국,초석,확인,자생,한방,병원,설립자,신준식,박사,동생,신민식,사회,공헌,위원장,잠실자생한방병원,병원장,독립운동가,역사,발굴,인물,2018년,고군분투,숙조부,결과,신홍균,선생,독립군,군의관,업적,건국,훈장,애족장,수훈,광복절,선친,신광열,선생,항일투쟁,공훈,대통령,표창,서훈,독립운동가,세상,민족정신,고취,노력,결과,신준식,박사,신민식,사회,공헌,위원장,한의학,발전,원동력,민족정신,서훈,신광열,선생,축하,소회,신준식,박사,신준식,선친,독립운동,업적,90년,감개무량,따름,가문,영광,감사,선친,서훈,사람,자생한방병원,선대,독립운동,정신,설립,민족병원,설립,이념,긍휼지심,矜恤之心,환자,아픔,가족,아픔,진심,진료,마음,의미,가문,어르신들,독립운동,강조,정신,독립운동,입증,신민식,사회,공헌,위원장,신민식,유일,단서,선친,가문,독립운동,기록,월남유서,독립,일제,추적,가명,사용,행적,중심,유서,역사,사실,부합,확인,기관지,중국,공산당,언급,집안,어르신,독립운동,행적,일본,헌병,경무대,기록,광범위,선친,기록,미국,중앙정보부,CIA,보고서,일치,발견,경성,지방,법원,형사,사건,문서,지장,指章,기입,호주,戶主,이름,확인,입증,결정적,단서,독립운동,업적,책임감,신준식,집안,7대,한의사,가문,독립운동,역사,페이지,일조,사실,자긍심,한의사,독립운동,투신,선친,숙조부,선배,한의사,나라,희생,결국,나라,한의학,민족,자산,후대,세대,만큼,책임감,한의사,독립운동,조명,한의계,사학계,중심,한의사,독립,운동가,관심,부족,실정,한의사,독립,운동가,세상,노력,계획,발전,신민식,월남,유서,고증,작업,진행,전문적,영역,도움,각종,자문,독립운동,교수,국민대,이계형,시작,인하대,융합,고고학,박사,이수,저자,참여,대학원,인하대,융합,고고학,남대문호텔,코트,야드,메리어트,서울,한의사들,독립운동사,학술대회,독립운동,헌신,한의사들,주제,역사학자들,논의,예정,한의사,독립운동사,다각도,조명,이해,독립운동,한의학,신준식,선친,독립운동,일제,정책,한의학,말살,쇠퇴,한의학,걱정,지식,후대,전수,청파험방요결,기록,유지,노력,대표적,사례,추나요법,시절,선친,왕진,탈구환자,수기요법,치료,임상,활용,가능,한의대,입학,수기요법,시작,설립,학회,추나요,술기,術技,임상표준진료지침,정리,전국,한의대,표준화,교육,이젠,추나요,건강,보험,적용,통증,치료,동작침법,MSAT,선친,치료법,계기,선친,인대침법,침술,근육,환자,20여,바탕,동작침법,PAIN,통증,분야,세계,권위지,게재,급성,요통,감소,효과,진통주사제,5배,입증,마지막,청파험방요결,전수,청파전,과학,검증,천연물,청파전,척추,관절,환자,치료,가문,고유,처방,청파전,지속,결과,신경,재생,효과,신물질,신바로메틴,추출,미국,물질,특허,획득,2011년,제약사,공동,천연물,신바로,최종,시판,허가,한의학,민족,상징,전통,외세,침입,민족,노력,한의학,계승,국가보훈처,국가유공자,사회공헌활동,적극,전개,신민식,독립유공자,가족들,예우,정착,사회,분위기,노력,약속,자생의료재단,3억,재단,기금,투입,자생한방병,전국,자생,한방병,의원,독립유공자,후손,척추,관절,질환,치료,의료지원,2019년,국가보훈처,독립,유공자,손자녀,장학,사업,업무,협약,체결,100명,고교생,1인,100만,장학금,2019년,지원,후손들,영주,귀국,독립,유공자,후손,주거,지원,애국지사,자택,방문,의료서비스,제공,한방주치의,생존,애국지사,한방,주치의,사업,광복절,행사,대통령,강조,언급,국가보훈처,그간,활동,자생의료재단,표창,6,의료,지원,대상,계획,신준식,한의학,발전,민족병원,한의학,현대,재정립,노력,발전,자생한방병원,미국,평생,의학,교육인,증원,ACCME,제공기관,정식,보수,교육,제공,기관,인증,ACCME,미국,의사,지식,습득,향상,의료,수준,역량,강화,보수,교육,기준,제정,보수,교육,기관,인증,관리,비영리단체,자생한방병원,미국,의사,한국,한방의료기관,교육,자격,역할,방증,후학,양성,박차,신준식,장학금,한의과대,전국,한의,과대,한의학전문대학원,선정,학생,연간,등록금,지원,이외,지원,한의학,대학들,유수,대학,협력,국민,치료,확대,건강,보험,보장,계획,만세,시위,수감,독립운동,치료,한의사,독립,운동,발자취,신광열,선생,신준식,신민식,형제,한의사,선친,청파,신광열,신현표,해방,개명,선생,독립운동가,한의사,북청군,함경남도,9세,만주,일제,자행,침략,성인,1925년,제일,정몽학교,훈도,교원,재임,정몽학교,다수,독립운동가,배출,근무,교사,독립운동가,활동,독립운동,육성,간도,3,대대적,만세,시위,학생들,철조망,일본,조계지,철조망,집회,전개,일본총,영사관,기병대,무력,진압,시작,주동자,지목,신광열,선생,현장,경찰,경찰도,옆구리,자상,간도,일본,영사관,경찰,체포,경성,서대문형무소,수감,수감,1679번,석방,의사,시험,합격,만주,광생의원,개업,8년,의원,운영,부상,독립운동가들,비밀리,치료,1942년,숙부,독립운동,신홍균,선생,만주,목단강시,牡丹江市,동승촌,신광열,선생,군수품,독립운동,자금,항일연합군부대,조달,역할,수행,광복,선생,해동,신익희,주도,정치공작대,가입,신광열,선생,함경도,책임,위원,파견,구국,활동,분단,국가,자신,역할,고민,일제,정책,한의학,말살,위기,한의학,재정립,본격적,시작,시험,한의사,합격,한방,양방,의사,자격,취득,신광열,선생,아산시,도고역,청파,한의원,개원,의료시설,낙후,마을,17번,이사,지역,의료,활동,작고,의료활동,민족의학,부흥,토대,정부,공훈,독립,유공자,대통령,표창,서훈</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3092,7 +3827,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D148" t="n">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>이용수씨,이용수,별세,이인걸,국민은행,지점장,인호,한국무역보험공사,사장,은미씨,부친상,김명규씨,고려MS영상의학과의원,원장,장인상,19일,서울성모병원,22일,홍정선씨,문학평론가,인하대,명예교수,별세,홍승목씨,LG전자,변호사,부친상,21일,서울아산병원,23일,7시</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3110,7 +3850,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>별세,문학,평론가,홍정선,인하대,명예,교수,문학과지성사,대표,이사,문학,평론가,홍정선,인하대,명예,교수,숙환,별세,69세,투병,생활,교수,이날,타계,고인,경북,예천,서울대,국어,국문학,졸업,대학원,박사,학위,국문과,한신대,국문,강단,시작,인하대,한국어,문학,교수,재직,문학,시대,창간,비평,활동,시작,1987년,문학과지성사,출간,무크지,세대,문학,동인,합류,1999년,문학과사회,편집,동인,활동,대표이사,문학과지성사,대표,이사,저서,역사적,비평,신열하일기,카프,북한,문학,소천비평문학상,현대문학상,수상,유족,변호사,아들,홍승목,며느리,심초롱,빈소,1호실,서울아산병원,장례식장,마련,발인,23일,7시,장지,선영,경북,예천</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,7 +3873,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D150" t="n">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>별세,문학,평론가,홍정선,인하대,명예,교수,문학,평론가,홍정선,인하대,명예,교수,별세,향년,문학과지성사,지병,교수,이날,별세,고인,예천,경상북도,서울대,국어,국문학,졸업,대학원,박사,학위,국문과,한신대,국문,1992년,2018년,한국어문학과,인하대,인문,대학,한국어,문학,교수,창간,문학,시대,시작,비평가,이름,1987년,세대,문학,동인,합류,1999년,문학과사회,편집,동인,활동,2008년,2012년,대표이사,출판사,문학과지성사,대표,이사,역사적,비평,신열하일기,프로메테우스,세월,카프,북한,문학,인문학,문학,시대,폭력,문학인,저서,유족,변호사,아들,홍승목,며느리,심초롱,빈소,1호실,서울,송파구,서울아산병원,장례식장,마련,발인,23일,7시,진행,예정</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3146,7 +3896,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>문지,문학,평론가,홍정선,교수,별세,국문학자,문학평론가,명예교수,홍정선,인하대,명예,교수,지병,별세,향년,고인,예천,경북,서울대,국어,국문학,학사,박사,학위,문학,무크,시대,평론,등단,문학,지성,후신,계간지,문학,사회,편집위원,문지,한신대,인하대,후진,양성,문학과지성사,대표,이사,역임,고인,2007년,10여년,한국,중국,문인,상대방,나라,방문,작품,낭독,토론,중작가회의,주도적,저서,평론집,역사,비평,인문학,문학,연구서,카프,북한문학,신열하일기,여행,산문집,대한민국문학상,소천비평문학상,현대문학상,수상,유족,아들,승목,변호사,엘지전자,책임,며느리,심초롱,국립중앙박물관,학예사,빈소,서울아산병원,발인,23일,7시</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3164,7 +3919,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>별세,문학,평론가,홍정선,인하대,명예,교수,문학,평론가,홍정선,인하대,명예,교수,21일,향년,일기,별세,고인,4~5년,투병,생활,고인,경북,예천,서울대,국어,국문,졸업,대학원,박사,학위,국문과,한신대,국문,시작,교수,인하대,인문,대학,한국어,문학,재직,문학,시대,창간,비평,활동,시작,1987년,대표,무크지,세대,문학,문학과지성사,동인,합류,1999년,문학과사회,편집,동인,활동,2008년,2012년,문학과지성사,대표,이사,저서,역사적,비평,신열하일기,카프,북한,문학,프로메테우스,세월,수상,경력,대한민국,문학상,신인상,소천비평문학상,현대문학상,빈소,1호실,서울아산병원,장례식장,마련,발인,23일,장지,선영,경북,예천</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3182,7 +3942,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>문학과지성사,대표,홍정선,별세,문학평론가,문학과지성사,대표,명예교수,홍정선,인하대,명예,교수,21일,별세,고인,년간,투병,향년,고인,문학,시대,창간,문학,비평,활동,시작,대표이사,문학과지성사,대표,이사,1992년,2018년,교수,인하대,한국어,문학,재직,역사적,비평,신열하일기,카프,북한,문학,프로메테우스,세월,저서,대한민국,문학상,신인상,소천비평문학상,현대문학상,수상,유족,아들,홍승목,변호사,며느리,심초롱,국립중앙박물관,학예연구사,빈소,1호실,서울아산병원,장례식장,마련,발인,23일,7시,장지,선영,경북,예천,문의</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3200,7 +3965,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>조우경,HDC현대산업개발,홍보,부장,부친상,조성구,별세,김하자씨,남편상,우섭,삼성,SDI,전무,우택,SPC,차장,우경,HDC현대산업개발,홍보,부장,부친상,정은희,시부상,김성숙,육유리,20일,오전8시,분당,서울대학교병원,발인,정주상,별세,득시,삼성전자,영상,디스플레이,사업부,프로,부친상,이소영씨,시부상,호건씨,조부상,21일,오전10시,43분,경희의료원,홍정선,인하대,한국어,문학,명예,교수,별세,승목,변호사,부친상,심초롱씨,시부상,21일,오전0시,21분,서울아산병원,23일,7시</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3218,7 +3988,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>별세,문학,평론가,홍정선,인하대,명예,교수,문학평론가,명예교수,홍정선,인하대,명예,교수,별세,향년,교수,문학,시대,비평,활동,시작,저서,역사적,비평,열하일기,카프,북한,문학,프로메테우스,세월,인문학,문학,통시적,시각,작품,내밀,정평,교수,대한민국문학상,신인상,소천비평문학상,현대문학상,대표이사,문학과지성사,대표,이사,한국일보,제정,팔봉비평,문학상,운영,위원장,역임,빈소,서울,송파구,서울아산병원,장례식장,지하,마련,발인,23일</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3236,7 +4011,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>건국대,경희대,폐지,학생부,전형,수능,최저,기준,전략,수시,지원,수시,학년도,대입,건국대,학생부교과전형,경희대,학생부종합전형,수능,최저,기준,폐지,수도권,대학,수능,최저,기준,입시,전문가,수시,요강,확인,자신,유리,전형,선택,조언,성균관대,세종대,이화여대,경희대,중앙대,전형,수시,논술,적용,수능,최저,학력,기준,성균관대,글로벌리더학,글로벌경제학과,학년도,수능,최저,기준,국어,수학,탐구,2과목,평균,등급,영역,등급,영어,한국사,2023학년도,국어,수학,영어,탐구,1과목,등급,영역,등급,완화,건국대,경희대,폐지,전형,최저,기준,건국대,학생부교과전형,경희대,학생부종합전형,네오르네상스전형,최저기준,폐지,일정,대학,고사,적합형,고려대,계열,적합,연세대,추천,특기자,국제인재,전형,전형,이화여대,고교,추천,수능,면접,수능,면접,전형,수능,면접,동시,준비,부담,상대적,경쟁률,학교,수능,면접,면접일,가톨릭대,지역,균형,의예,포함,고려대,학업,우수,인문,서울대,일반,연세대,국제형,일정,대학,면접,원서,접수,주의,수능,논술고사,대학,논술고사,시행,연세대,성신여대,서울시립대,홍익대,가톨릭대,의예,제외,서경대만,수능,논술,대학들,수능,논술,수능,논술,숭실대,서울과학기술대,학과,제외,주말,시험,날짜,논술,전형,면접,일정,주의,수시,졸업생,졸업생,여부,지원,가능,학생부종합전형,대학,졸업,제한,예외,서울교대,사향,인재,전형,재학생,지원,한양대,학생부,종합,전형,일반,졸업생,한국항공대,미래,인재,전형,졸업생,지원,학생부교과전형,졸업,제한,대학,경희대,서강대,서울교대,성균관대,연세대,재학생,지원,이화여대,중앙대,한양대,졸업생,졸업,지원,광운대,동덕여대,숭실대,아주대,인하대,홍익대,3수,가능,건국대,고려대,동국대,서울시립대,제한</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3254,7 +4034,12 @@
           <t>내일신문</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>교사,대화고등학교,최승후,칼럼,교육부,개편방안,학년도,대학,입학,제도,개편,방안,고교,교육,혁신,방향,토대,자기소개서,학년도,대입,자기소개,자소서,문항수,4문항,3문항,글자,축소,2023학년도,인하대,이화여대,홍익대,숙명여대,세종대,서울과기대,한성대,차의,과학,인천대,자소서,폐지,수험,입장,자소서,본인,진술,유일,전형,수단,자소서,축소,폐지,수험생,자신,입장,소명,해명,주장,기회,통로,지원자,확인,자료,평가,중요,활용,자소서,공통,문항,자율,문항,구성,공통,문항,3문항,2문항,글자,축소,학업,노력,학습,경험,의미,노력,3개,교내,활동,작성,1번,문항,통합,진로,학습,경험,교내,활동,문항,설계,글자,통합,문항,인성,영역,배려,협력,갈등,관리,실천,사례,문항,제시,영역,분류,인성,영역,측정,문제점,지적,변경안,타인,공동체,노력,경험,범위,사회성,제한,글자,1,000자,800자,대학,1개,자율,문항,추가,활용,대학,자율,문항,지원동기,학업계획,진로계획,요구,서울대,독서,제외,대학,지원,동기,위주,글자,1,000자,1,500자,800자,축소,자소서,지원자,자질,역량,관심,스스로,소개,수험,입장,입학,수학,선택,목적,대학,입장,지원자,대학,선발,목적,적합,판단,전형,자료,자소서,성적,단순,활동,목록,지원자,확인,자료,평가,중요,활용,학교생활기록부,학생부,비교과,영역,위주,기록,자소서,사실,성취과정,스토리,파악,활동,실적,유무,기록,태도,자세,진학,동기,학업계획,발전가능성,확인,학생부,개인,성장과정,환경,특성,평가자,제공,전형요소,자소서,면접,유일,과도,입시경쟁,천문학적,사교육비,유발,원인,학생부종합전형,자소,귀책사유,국영수,이면,서열화,욕망,완성,자소서,초고,단언,학생부종합전형,전형,수시,모집,핵심,자소,위촉사정관,교수,학생부,독해,평가과정,자소서,학생부,행간,중요,활동,파악,자소서,학생부,자소서,항목,지원자,핵심,학교,활동,학생부,나침반,역할,자소,글자수,항목,800자,항목별,소재,글자,1.5,2배수,1,500자,1,000자,1,000자,1,500자,파워라이팅,기본,원리,대로,초고,논리적,순서,배열,자소,정답,해답,동기,결과,의미,변화,5단계,논리,정합,중요,1,500자,문장,정도,문장,80자,100자,단문,장문,단문,장문,변주,동기,계기,소개,문장,과유불급,동기,학교활동,학생부종합전형,지원,학과,지원동기,전제,동기,학교,수업,전제,상위,학생,오류,활동,동기,수업,우연,계기,공부,학생,학생,평가자,학자,탐구과정,학생,호기심,고민,탐구과정,지적,호기심,출발점,교과수업,연계활동,활동,호기심,심화탐구활동,연계,확장,심화,심화탐구활동,소논문,R&amp;E,교과연계활동,학교활동,연계,평가자,중계,동기,제시,지적,호기심,학생,그림일기,나열,평가,결과,동기,산출,구체적,구체,노력,자소서,평가요,지원자,구체적,활동,역할,구체,노력,명심,의미,자소서,항목,의미,정성적,정량적,수학,호기심,활동,수학,동아리,동아리,보고서,수학,성적,정량,의미,수학,공부,정성,의미,기재,동기,출발,지적,호기심,심화탐구활동,연계,지식,확장,본인,역할,의미,의미,의미,느낌,각오,깨달음,평가,마지막,변화,이유다,변화,자소,화룡점정,의미,단락,문장,단순,느낌,변화,단락,변주,變奏,형식,단계,전환,독자,환기,자소,변화,단락,변주,자소,평가자,만점,효과,변화,생각,변화,표현,실천,적용,행동,후속활동,추후연계활동,봉사활동,봉사활동,의미,마무리,깨달음,봉사,활동,캠페인,봉사동아리,조직,방식,자율활동,생명,과학,교수,강의,진로탐색,후속활동,독서,처리,강조,생각,행동,역량,변화,마지막,단락,매조지,평가자,지원자,성장,이해,구성,자소서,서사,호기심,심화탐구활동,지식,확장,역량,변화,자소서,서사,구성,호기심,심화탐구활동,지식,확장,역량,변화,이해,자소,초고,완성,부족,활동,2%,고민,소용,생각,표현,사유,완성,평가자,관심,정보,중심</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3272,7 +4057,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>한성우,교수,방아,남도,음식,원재료,냄새,음식,채소,모양,깻잎,박하,위치,이름,고유어,방아,한자어,배초향,排草香,사람,방하,박하,박하,한자,薄荷,발음,습관,울림소리,사이,발음,소리,현상,중국,동남아시아,음식,음식,독특,거부감,중국,샹차이,香菜,xiangcai,베트남,라우무이,rau,mui,고수,이름,음식,냄새,빈대,냄새,거부감,음식,자체,대개,재료,잡내,무침,찌개,자체,식재료,음식,샹차이,라우무이,거부감,외국인들,음식,깻잎,느낌,깻잎,장아찌,나뭇잎,의아,음식,재료,사람들,방아잎,지천,방아,방아,자체,음식,음식,교수,인하대,한국어,문학</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,7 +4080,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>인하대,리멤버,낙서,발견,경찰,조사,인천시,미추홀구,인하대,교내,발견,성폭행,추락사,사건,낙서,사건,인천,인하대학교,발생,성폭행,추락사,사건,일자,범행,낙서,교내,발견,경찰,조사,유족,가해,제기,작업,낙서,제거,상황,미추홀경찰서,인천,9시,분쯤,인천시,미추홀구,인하대,교내,래커,낙서,시설,훼손,신고,접수,신고,출동,경찰,피해,여학생,발견,5층,입구,단과대,건물,외벽,4곳,REMEMBER,문구,낙서,확인,7월,교내,사건,성폭행,추락사,발생,날짜,사건,학내,구성원,기억,의미,추정,경찰,낙서,정확,건물,훼손,정도,파악,폐쇄회로,한편,교내,폐쇄,회로,CC,TV,영상,토대,피의자,특정,방침,인천시,미추홀구,인하대,교내,발견,성폭행,추락사,사건,낙서,사건,갈무리,온라인,커뮤니티,학교,작업,낙서,제거,진행,인하대,총학생회,중심,구성,TF,학생,공동,대응,낙서,피해자,유족,2차,교내,낙서,전수조사,학교,원상복구,요청,낙서,제거,마무리,학생,TF,학내,익명,커뮤니티,에브리타임,성명서,사건,추모,기억,마음,이해,공중,다수,생각,상식적,정상적,추모,방식,지적,유가족분들,아픔,생각,행위,말씀,학생TF,학교본부,대책,논의,학생사회,자정작용,개선책,다방면,비극,피의자,인하대,캠퍼스,인천,미추홀구,용현동,인하대학교,대학,동료,20대,성폭행,3층,단과,대학,건물,혐의,구속기소,B씨,3시,건물,머리,부위,행인,발견,신고,출동,119구급대,현장,도착,호흡,맥박,상태,심폐소생술,응급처치,인근,병원,이송</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3308,7 +4103,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>21%,유죄,인하대,성폭행,단죄,인하대,성폭행,사망,사건,발생,가해자,의식,여성,동급,성폭행,사망,혐의,준강간,살인죄,기소,공판,가해자,피해자,부축,건물,모습,폐회로티브이,CCTV,혐의,적용,준강간,피해자,약물,심신상실,항거불능,상황,강간,폭행,협박,강제,처벌,강간죄,구별,사건,보통,준강간,피해자,절차,피해,인하대,사건,폐회로티브이,피해자,모습,가해자,피해자,만취,성관계,동의,주장,법원,인정,16일,인하대,성폭행,사망,사건,젠더,함구령,토론회,활동가,피해자,지원,단체,실제,현장,준강간,사건,사례,문제의식,공유,피해자,딜레마,이날,허용,주제,남성,천주교성폭력상담소,준강간,사건,정의,판결,공동,대</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3326,7 +4126,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>특수통,윤석열,사단,이원석,정치,중립,검수완박,대응,최대,윤석열,정부,초대,검찰,총장,사단,이원석,지명윤석열,검찰,고위,독식,기조,전국,고검장,후배,조직,우려도,후보자,윤석열,정부,초대,검찰,총장,이원석,대검찰청,차장,검사,지명,검찰,안팎,조직,안정,방점,인사,평가,직무대리,검찰,총장,직무,대리,조직,윤석열,사단,일원,대통령,장관,한동훈,법무부,친분,수행,총장,직무,대리,총장,후보자,취임,한동훈,장관,취임,차장검사,대검,차장,검사,임명,검찰,총장,직무,대리,활동,고검장급,승진,총장,직행,총장,직무,대리,간부,인사,직제,개편,관여,검찰,1순위,사실,총장,후보자,대검,월례회,메시지,공표,인하대,성폭력,추락사,사건,쌍방울,수사,기밀,유출,사건,개별,사건,철저,수사,지시,총장,행보,대검,관계자,후보자,총장,공석,정도,대검,장악,검찰,수사,복원,보강,검수완,박법,통과,검찰,분위기,대통령,장관,후보자,행보,평가,독식,윤석열,사단,고검장,줄사퇴,가능,성도,후보자,지명,존재,총장,자리,차지,윤석열,사단,법무부,검찰,고위,독식,흐름,화룡점정,후보자,전형적,특수검사,대통령,삼성,비자금,수사,장관,호흡,박근혜,정부,최순실,국정,농단,수사,참여,기획조정부장,대검,기획,조정부장,대통령,검찰총장,지근거리,보좌,대표적,검사,분류,후보자,총장,취임,관례,검찰,고위,줄사퇴,현직,고검장,후보자,사법연수원,27기,연수원,선배,여환섭,법무,연수원장,24기,김후곤,서울,고검장,이주,수원,고검장,노정연,부산,고검장,최경규,대구,고검장,조종태,광주,고검장,25기,고검장들,연쇄,고위,인사,전망,일각,조직,안정,고검장들,잔류,후보자,부담,검수,완박법,대응,확보,검찰,중립,확보,검수완박법,대응,검수,완박법,후보자,핵심,시행,검수완박법,대응,각종,범죄,수사,차질,대비,후보자,총장,직무,대리,수행,법무부,시행령,개정,검찰,수사,범위,헌법,재판소,권한,쟁의,심판,관여,후보자,윤석열,사단,꼬리표,만큼,검찰,확보,정치,중립,전망,관계자,검찰,고위,예산,독립,제도,장치,마련,중요,후보자,대통령,친분,총장,편향,결정,신경,정권,인사,겨냥,수사,동시다발적,진행,납득,수사결과,야당,반발,예상,지방검찰청,부장검사,서울중앙지검장,검찰,총장,시절,대통령,만큼,수사,후보자,비난</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,7 +4149,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>몸값,수도,물류,센터,해외,기관,매입,뉴컨슈머,경쟁,물류,기지,확보,최고가,행진,기관,투자가,인기,자산,로봇,자동,스마트,적용,스마트,인천,위치,물류센터,아스터항동,축구장,규모,연면적,24만,싱가포르투자청,GIC,물류,센터,최고가,5850억,서울,30분,저온,냉동,창고,신선식품,배송,적합,투자자들,눈독,서울,북부,경기,가능,삼송물류센터,경기,고양시,삼송,물류,센터,3900억,화제,투자업,관계자,2,,물류,창고,투자,급증,수도,고속도,인근,땅값,과거,공장,물류창고,물류,창고,부지,배송,클릭코노미,시대,확보,물류,인프라,오프라인,업체,치열,물류,기관투자가,큰손들,인기,자산,급부상,쿠시먼앤드웨이크필드,아시아태평양,국가,물류,센터,거래량,한국,달러,76조,중국,77조,2위,일본,호주,순위,아시아태평양,시장,차지,비중,24.4%,3.5배,대형,연면적,물류센터,수도,90%,6조,거래,비수도,거래액,9000억,전년,대비,2배,증가,부동산,업계,관계자,전국,배송,보편화,의미,사람,의존,물류창고,자동화,첨단,경기,용인시,처인구,백암,물류,센터,평일,카카오,11번,이커머스,주문,처리,파스토,물류,스타트업,운영,작업대,상자,바코드,스캔,상품,포장,오토스토어,적용,전용,쇼핑백,안내카드,로봇,CJ대한통운,경기,군포시,로봇,피킹,포장,검수,스마트,풀필먼트센터,상무,허신열,CJ,대한통운,배송,속도,스마트,물류,물량,효율적,처리,자동,설비,데이터,고도화,후방,산업,물류,유통,제조,변화,물류혁명,가능,기획,자문단,가나다,연구위원,나준호,한국교통연구원,위원,박근식,중앙대,국제물류학,교수,박종대,금융,투자,애널리스트,서상범,한국교통연구원,스마트,물류,시설,인증,센터장,서용구,교수,숙명여대,경영학부,송지연,보스턴컨설팅그룹,BCG,코리아,매니징디렉터,파트너,우수,중앙대,국제물류학,교수,위정현,교수,중앙대,경영학,이은희,교수,인하대,소비자학과,이준영,교수,상명대,경제,금융,학부,임명호,교수,단국대,심리,치료학,정연승,교수,단국대,경영학부,정태원,성결대,글로벌물,학부,교수,최창희,클랙스,턴파트너스,파트너,한종길,성결대,글로벌물,학부,교수</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3362,7 +4172,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>클릭,총알배송,클릭코노미,소비자,뉴컨슈머,팬데믹,선호,온라인,거래,20년,택배,이용,횟수,30배로,미국,뉴욕,4년,거주,아이,방학,귀국,한국,특유,배송,체감,보쌈,떡볶이,배달앱,그간,한국,음식,주문,30분,총알,배송,물놀,주문,스마트폰,방수,수영복,결제,당일,뉴욕,아마존프라임,배송,일주일,업체,배송,속도,평준화,코로나19,온라인,쇼핑,플랫폼,거래,선호,소비자,신속,배송,경제,클릭코노미,Click,Economy,영향력,확대,동아일보,빅데이터,업체,빅데이터,바이브컴퍼니,유통,소비재,기업,설문,바탕,소비,지형,변화,뉴컨슈머,영향력,결과,한국,클릭코노미,성장세,국가물류통합정보센터,2000년,국민,2.4건,건수,택배,이용,폭증,코로나19,직전,2019년,53.8건,30.7%,30분,배송,퀵커머스,시장,2조,성장,전망,클릭코노미,물류,시장,급팽창,쿠시먼앤드웨이크필드코리아,물류,창고,거래액,한국,76조,아시아,중국,2위,서용구,숙명여대,경영학부,교수,배송,소비재,산업,기본,경쟁력,물류혁명기,도래,주택가,물류,배달,퀵커머스,시장,17조,클릭코노미,배송,천국,먹거리,생필품,클릭,클릭,배송,세상,상상,전통,시장,과일,가세,이커머스,23%씩,이커머스,성장,동네,상가,카센터,물류기지,도심,연결,실핏줄,배달망,경기,성남시,주부,온라인,해결,일주일간,주문,건수,12건,하루,주문,주문,각종,국거리,과일,그날,주문,세제,휴지,도착,배송,세상,상상,소비,클릭코노미,시대,배송,한국,소비자,일상,핵심축,배송,속도,단위,도심,오프라인,매장,물류,거점,시작,클릭코노미,배송,천국,온라인,속옷,56m,17평,남짓,사무실,절반,택배,물품,쿠팡,네이버,스마트,스토어,하루,주문,택배,포장,4시간가량,화장품,김흥식,온라인,주문,100개,배송,물류,대행,풀필먼트,업체,점심,무렵,택배,포장,식사,배송,시장,대행업체,발달,자동화,풀필먼트,업체,자영업자들,배송,속도,로켓배송,마켓,컬리,샛별,배송,속도,업체,추격,국가물류통합정보센터,연간,택배,물동량,박스,36억,박스,158.2%,급증,소비,대이동,이커머스,5년,연평균,23.3%,성장,보스턴컨설팅그룹,시장,이커머스,오프라인,185조,추월,전망,한국,배송,속도,배송,원조,미국,아마존,이커머스업계,속도전,당일,단위,당일,퀵커머스,산업,2조,성장,전망,변화,전통시장,퀵커머스,단적,암사종합시장,서울,강동구,암사,종합,시장,과일,장보기,네이버,동네,시장,안팎,주문,하루,차례,당일,배송,암사시장,130명,절반,60여,배송,조선미,암사,시장,상인회,사무국장,신선도,중요,고기,과일,반찬,매출,코로나19,매출,코로나19,집중적,배송,일상화,변화,소비자,인식,바이브,빅데이터,업체,동아일보,6월,소셜미디어,코로나19,기간,소셜,미디어,게시,110억,문서,결과,배송,택배,상위,서술어,초기,코로나19,확산,후회,부정적,단어,코로나19,신속,효율적,편리,긍정적,인식,대체,온라인,쇼핑,언급,비중,쇼핑,대비,코로나19,2배,엔데믹,풍토병,단계,유지,최하,바이브,연구원,한국,배송,시장,성장,트렌드,온라인,쇼핑,일시,현상,정착,실핏줄,마을,물류,오프라인,매장,클릭코노미,도심,풍경,배송,거점,도심,물류센터,아파트,단지,주택가,물류센터,성수동,서울,성동구,3층,건물,사무실,피트니스센터,미용실,상가,한편,배달원들,100평,규모,배달,민족,운영,물류,창고,배달원들,능동,인근,광진구,성동구,군자동,배송,우유,샴푸,각종,생필품,우정,본부장,JLL,물류,산업,자산,서비스,물류시장,활황,도심,물류,센터,투자자,시내,카센터,상가,건물,주유소,자리,경쟁,치열,매물,오프라인,매장,배송,거점,다크스토어,배송,점포,변신,시작,대형마트,출현,1998년,롯데마트,강변점,변화,상징적,매장,2시간,배송,전용,물류,센터,배송,자체,물류망,특정업체,산업,보편화,올리브영,매장,화장품,안팎,평균,배송,오늘드림,서비스,SPC,해피오더앱,주문,파리바게뜨,매장,배송,정연승,단국대,경영학,교수,점포,판매,중심,체험,배송,픽업,거점,오프라인,물류화,기획,자문단,가나다,연구위원,나준호,한국교통연구원,위원,박근식,중앙대,국제물류학,교수,박종대,금융,투자,애널리스트,서상범,한국교통연구원,스마트,물류,시설,인증,센터장,서용구,교수,숙명여대,경영학부,송지연,보스턴컨설팅그룹,BCG,코리아,매니징디렉터,파트너,우수,중앙대,국제물류학,교수,위정현,교수,중앙대,경영학,이은희,교수,인하대,소비자학과,이준영,교수,상명대,경제,금융,학부,임명호,교수,단국대,심리,치료학,정연승,교수,단국대,경영학부,정태원,성결대,글로벌물,학부,교수,최창희,클랙스,턴파트너스,파트너,한종길,성결대,글로벌물,학부,교수</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,7 +4195,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>당당치킨,이마트,치킨,마트,논쟁,통닭,원가,소비자,오픈런,치킨,열광,홈플러스선,5마리,롯데마트,판매,마리,홈플러스,자체브랜드,PB,초저,치킨,논쟁,치킨,가격,소비자들,무더위,오픈런,치킨,열광,업계,치킨,프랜차이즈,소비자,유인,상품,미끼상품,폄하,대형마트,물가,안정,프로젝트,치킨,가격,강조,이마트,18일,1주일,9호,후라이드,치킨,마리,판매,경쟁,가세,제품,치킨,9980원,크기,원료,유사,방법,조리,이마트,행사,6만,마리,준비,치킨,판매량,1만,마리,1인,1마리,수량,제한,혜택,롯데마트,1.5마리,한통치킨,11일,1주일,반값,8800원,대형마트,초저,경쟁,홈플러스,6월,이름,마리,촉발,이달,38만,마리,인기몰이,매장별,하루,30~50마리,한정,판매,1분,5마리,프랜차이즈,원대,30%,가격,결국,가맹,폭리,확전,와중,BHC,재료,논란,대형마트,2010년,반값,치킨,가격,경쟁,롯데마트,5000원,통큰치킨,출시,논란,골목,상권,침해,열흘,판매,중단,소비자,반응,프랜차이즈,치킨,마리,가격,2만,30%,가격,화제,대형,마트,업계,대량구매,매입,가격,매장,조리,유통마진,최소화,단순,유통구조,광고료,가격,설명,치킨,인기,원가,논란,프랜차이즈,업계,원재료,인상,개선,가맹점,수익,가격,치킨,시대,코로나19,사태,배달특수,최대,실적,치킨값,인상,소비자들,사회관계망서비스,SNS,불매운동,프랜차이즈,업계,대형,마트,단순,비교,불가능,주장,재료비,개발비,입장,대형,마트,치킨,프랜차이즈,10호,8~9호,800~900,사용,일반,식용유,논란,치킨,가격,치킨업,BHC,가맹점주,공급,닭고기,가슴살,공급가,가맹,폭리,전선,확대,BHC,지난달,가맹점,공급,튀김,가격,61%,점주들,반발,BHC,관계자,인상,튀김유,가격,국제,시세,시세,인상,사육,원가,시장,추이,점주들,수익,보장,대응,검토,이은희,인하대,소비자학,교수,상품,가격,추가,소비자가격,반영,공급가,대기업,비용,혁신,노력,고통,분담,노력,지적</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3398,7 +4218,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D165" t="n">
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>여가부,장관,인하대,사건,여성,폭력,정정,장관,김현숙,여성,가족부,인하대,성폭력,사망,사건,여성,폭력,입장,정정,장관,여성가족위원회,국회,여성,가족,위원회,출석,인하대,사건,여성,폭력,성폭력,사건,말씀,관점,유지,의원,권인숙,더불어민주당,질문,여성,폭력,정정,장관,언론,인터뷰,인하대,사건,남성,가해자,여성,피해자,프레임,학생,안전,성폭력,여성,폭력,취지,남녀,젠더,갈등,증폭,자신,발언,논란,장관,업무보고,윤석열,정부,업무,보고,진행,브리핑,사건,젠더,갈등,성별,갈등,취지,성폭력,사건,해결,진상조사,엄단,여가부,부연,장관,이날,인하대,성폭력,사건,여가부,점검,현장,현장,점검,인하대,방지,피해,폭력예방교육,현장,조사,보고서,작성,장관,설명,공군,특수,임무비행단,성추행,사건,현장점검,조직진단,성희롱,방지,조직,진단,시행</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3416,7 +4241,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D166" t="n">
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>우영우,김명인,교수,인하대,국어,교육,문학평론가,마음,힐링,드라마,장안,화제,케이블티브이,TV,드라마,변호사,우영우,힐링,나중,기분,한번,얼마,아내,얼마,8회,온라인동영상서비스,OTT,주말,이틀,내친김,본방사수,케이,드라마,전성시대,요즘,이름,신생,채널,드라마,채널들,시간대,드라마,시청,15%,상회,정도,드라마,드라마,출생,비밀,자폐스펙트럼,증후군,장애,헌신적,성장,변호사,자격,취득,여성,대형,로펌,취직,사건들,법정드라마,형식,시추에이션,코미디,자폐스펙트럼,장애,소수자,주인공,사회,관습,윤리,제도,보호,소수자들,권리,변호,기본설정,차별,연대,감각,환기,주목,드라마,출생,불우,성장,역경,극복,성취,영웅,서사,골격,주인공,영웅,여성,장애인,이중,소수성,전통,영웅,서사,구별,암기력,집중력,서울대,법대,로스쿨,수석,졸업,주인공,우영우,천재,능력,영웅,자질,여성,장애인,이중,약점,영웅,영웅,전통,설화,바보,영웅,민중,영웅,형상,영웅서사,대중들,영웅,선망,의존,대리만족,우영우,영웅,한편,선망,의존감,한편,연민,동정,얼마간,해학,대중들,일종,양가감정,앰비밸런스,양가감정,동시발생,시청자들,매혹,드라마,미학,비밀,법정드라마,드라마,법정,쟁점,등장,의처증,노년,남성,부인,살인,미수,사건,동성애자,여성,상류계층,사건,혼인,분쟁,여성,연루,강도,상해,사건,동종업계,사건,산업,기밀,도용,막개발,마을,공동체,훼손,위기,사건,과대망상자,약취,유괴,사건,사건,형제간,상속,재산,분할,분쟁,장애인,결정,사건,로또,당첨금,분쟁,사건,발달장애인,사건,차별,구조,조정,사찰,문화재,관람료,징수,분쟁,사건,사건들,경제력,노년,여성,동성애자,여성,여성,동종,산업,후발,기업,토지,수용,대상자,발달장애인,해고,여성,노동자,사회,권력,위치,소수자들,약자들,변호사,우영우,변론,치열,법리,논쟁,반대,차별,변호,고통,자기성찰,소수자들,약자들,억압,차별,실상,사회,편견,부당,시스템들,제도,민낯,시청자,드라마,힐링,경험,드라마,약자,사회,소수자들,사회정의,처지,시청자들,현실,가능,위안,대리만족,웰메이드,드라마,공감,시청자들,드라마,사회,구성원,가지쯤,생각,점들,힐링,대표,시청자들,공통,반응,드라마,사회,의의,사회,소수자,약자들,억압,차별,사회,처지,시청자들,위안,힐링,생각,힐링,경험,개인,치유,체제,특징,개인주의,자기경영주의,대응,수동적,패배적,개념,사회,억압,차별,체계적,조직적,자행,극복,개인,이데올로기,사회,특징,사회,문제들,공동,제기,해결,개인,감당,주관,치유,방식,힐링,해소,우연,상처,치부,약자,소수자들,부당,억압,차별,제기,구성원들,실천,공동,인식,개인,힐링,방식,소비,자유주의,개인주의,폐쇄회로,이젠,드라마,소수자,약자,다수자,강자,억압,차별,소수자,약자,입장,스테레오타입화,선악,구도,권선징악,서사,드라마,사건,케이스,난제들,남편,다리미,폭행,노년,여성,진정,살의,어린,해방,주장,과대망상,청년,사상범,발달,장애인,여성,결정,존중,남자,연애,자유,권리,직업윤리,일반윤리,충돌,우선,난제들,난제들,소수자,약자,당위론,생각,자폐스펙트럼,증후군,우영우,인물,양가감정,드라마,단순,이분법,해결,사회,난제,나선형,해결,생각,이분법,적대,오늘날,한국,사회,드라마,중요,질문</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3434,7 +4264,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>가해,인하대,등장,리멤버,추락사,인하대,성폭행,의미,생각,학생,TF,유가족,아픔,가해자,재판,인하대,교내,REMEMBER,낙서,인하대,교내,동급,성폭행,추락사,사건,발생,추모,취지,유족,가해,제기,작업,낙서,제거,상황,인천,미추홀경찰서,18일,인천,미추홀구,인하대,교내,락커,낙서,시설,훼손,신고,접수,낙서들,외부인,소행,추정,경찰,조사,추후,현장,정도,건물,훼손,파악,혐의,적용,검토,낙서,글자,REMEMBER,기억,발생,인하대,성폭력,추락사,사건,학내,구성원,기억,의미,추정,낙서,피해,여학생,입구,단과대,건물,5곳,발견,정작,학내,낙서,비판,목소리,유족,가해,인하대,총학생회,중심,구성,TF,학생,공동,대응,학내,익명,커뮤니티,에브리타임,성명서,사건,추모,기억,마음,이해,공중,다수,생각,상식적,정상적,추모,방식,지적,유가족분들,아픔,생각,행위,말씀,학생TF,학교본부,대책,논의,학생사회,자정작용,개선책,다방면,비극,일각,충격적,사건,만큼,옹호론,학생,TF,교내,낙서,전수조사,학교,원상복구,요청,작업,낙서,제거,마무리,인하대,캠퍼스,건물,동급생,성폭행,추락,혐의,재판,성폭력,범죄,처벌법,준강,간살,혐의,구속기소,재판,학생,TF,재판,추가적,가해,정보,엄벌탄원서,예정</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3452,7 +4287,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>여가부,폐지,버터나이프크루,인하대,사건,김현숙,여가위,회의,장관,소신,질타인하대,사건,여성,폭력,정정,장관,소신,국회,여성,가족,위원회,회의,장관,김현숙,여성,가족부,질타,장관,여성,가족부,폐지,버터나이프크루,성평등문화추진단,인하대,성폭행,추락,사망,현안,속뜻,발언,여가부,폐지,강화,시점,로드맵,공개,장관,여성가족부,폐지,고수,여가부,유지,강화,입장,세계성격차지수,Global,Idex,Gender,Gap,Idex,2022년,한국,146개국,99위,정부,노력,포기,질의,장관,완화,정부,인정,여가부,부처,통폐합,유지,질의,강화,윤석열,정부,출범,장관,방향,여가부,개편,시점,청사진,여가부,학교,청소년,지원,교육부,업무,청소년,지원,보건복지부,아동,업무,아동,한데,추진,효율,정도,대통령,지시,로드맵,여가부,폐지,질의,행정안전부,국회,정부조직법,제출,즉답,행정,안전부,장관,논의,구체적,얘기,부처,논의,진척,시인,한마디,권성동,버터나이프크루,입장,야당,의원,장관,출범식,버터나이프크루,사업,축사,5일,사업,축사,입장,권성동,국민,원내대표,얘기,머리,위성곤,민주당,의원,장관,출범식,청년들,사회,당면,해결,주체,역량,발휘,적극,지원,야당,의원,질타,장관,취임,사업,계약,국민,눈높이,사업,생각,장관,사과,사안,생각,사업,추진,자인,버터나이프크루,사업,이념,세금,사업,페미니즘,경도,사업,원내,의견,동의,질의,장관,동의,동의,입장,인하대,성폭행,추락,사망,사건,인하대,성폭행,추락,사망,사건,입장,장관,지난달,언론,인터뷰,인하대,사건,학생,안전,성폭력,여성폭력,여성,피해자,사건,성폭행,살인,젠더갈등,프레임,의식,사건,본질,비판,제기,장관,이날,회의,여성,폭력,성폭력,질문,여성,폭력,정정</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,7 +4310,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>인하대,사건,가해자,목소리,이수정,낭패,의성어,범행,범행,멘탈,추정,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,A씨,남학생,구속,지난달,피의자,심문,영장,실질심사,미추홀구,인천지법,인천,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,가해,휴대전화,사건,상황,사건,동영상,이수정,경기대,범죄,심리학,교수,피해자,가해자,사이,상호작용,추정,교수,KBS,라이브,출연,피의자,A씨,인하대,언급,검찰,포렌식,휴대폰,디지털,A씨,고의,인정,사건,현장,발견,A씨,휴대전화,동영상,휴대,전화,성폭행,시도,직전,피해자,B씨,여성,추락,상황,29분,음성,화면,휴대,전화,바닥,촬영,소리,녹음,동영상,초반,반항,B씨,음성,20분,가량,소리,녹음,추락음,A씨,목소리,얼마,휴대전화,교수,파일,창틀,사이,피해자,강간,피해자,비명,호소,상황,추락,잡음,저장,피해자,추락,녹음,피의자,목소리,피의자,사건,반응,욕설,낭패,의성어,피해자,추락,시점,범행,시점,피의자,멘탈,상태,머릿속,생각,추정,설명,교수,피의자,피해자,기억,진술,번복,사람,진술,반복,자기방어적,진술,변경,주목,단계,초동,수사,본인,치명적,진술,번복,심리,상태,중요,증거,이수정,경기대,범죄,심리학,교수,1시,인천,미추홀구,인하대,캠퍼스,5층,단과대,건물,의식,동급,성폭행,추락,혐의,구속기소,B씨,건물,길가,방치,행인,발견,병원,3시간,A씨,피해,2층,사이,복도,창문,1층,추락,피해자,장소,자취방,당일,경찰,체포,A씨,조사,초기,경찰,성폭행,시도,창문,B씨,여성,진술,검찰,조사,기억,추락,상황,정확,진술,경찰,A씨,준강간치사,성폭력,처벌,특례법,카메라,이용촬영,반포,혐의,적용,사건,검찰,현장,조사,법의학,감정,휴대,전화,동영상,현장,폐쇄,회로,CC,TV,감정,조사,범행,장소,출입자,전수,토대,A씨,강간,살인,혐의,변경,구속기소,정은나리</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,7 +4333,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>인천시,남동구,기관,구축,도시,재생,협력,체계,인천시,남동구,기관,참석,남동구,도시,재생,사업,추진,업무협약,체결,17일,업무협약,참여,기관,포스코건설,한국산업단지공단,인천,지역,본부,인천논현경찰서,남촌농축산물도매시장,인하대학교,업무협약,남동구,원도심,물리,환경,개선,사회적,경제적,활성화,도시,주택,건축,환경,경제,산업,안전,교육,복지,분야,실현,포괄,재생,역할,역점적,준비,남촌동,1번지,공모,일원,도시,재생,사업,기관,공동,포스코건설,남촌동,대상,주거복지실현,집수리,사회공헌사업,대학들,공동,추진,도시혁신스쿨,추진,한국산업단지공단,인천,지역,본부,산업단지,경계,도시재생사업,연계,남동산단,영세,기업,근로자,남촌동,주민,정주,환경,개선,전망,인천,논현경찰서,범죄,안전,보행,환경,조성,모색,범죄,예방,환경,디자인,적용,방안,남촌농축산물도매시장,마을기업,자체,생산,제품,홍보,로비,업무,남동구,도시,재생,사업,홍보,전시,공간,제공,판로,개척,지원,국토,교통부,지정,도시,재생,전문,인력,양성,거점,대학,도시재생학,인하대학교,일반,대학원,도시,재생학,도시,재생,코디네이터,주민,활동가,양성,교육,프로그램,운영,자문,도시,재생,계획,수립,지원,박종효,구청장,민관산학,상호,협력,활성화,남동구,원도심,활성,성공적,모델,남촌동,창출,선정,남촌동,일원,도시,재생,사업,공모,성공,추진,최선</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3506,7 +4356,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>치킨,오픈런,대형,마트,5000원,BHC,출시,VS,가격,인상,홈플러스,자체브랜드,PB,초저,치킨,논쟁,치킨,가격,소비자들,무더위,오픈런,열광,업계,치킨,프랜차이즈,소비자,유인,상품,미끼상품,폄하,대형마트,물가,안정,프로젝트,치킨,가격,강조,이마트,18일,1주일,9호,후라이드,치킨,마리,판매,경쟁,가세,제품,치킨,9980원,크기,원료,유사,방법,조리,이마트,행사,마리,준비,치킨,판매량,마리,1인,1마리,수량,제한,혜택,롯데마트,1.5마리,한통치킨,11일,1주일,반값,8800원,대형마트,초저,경쟁,홈플러스,6월,이름,마리,촉발,이달,38만,마리,인기몰이,매장별,하루,50마리,한정,판매,1분,5마리,대형마트,2010년,반값,치킨,가격,경쟁,롯데마트,5000원,통큰치킨,출시,논란,골목,상권,침해,열흘,상품,중단,소비자,반응,프랜차이즈,치킨,마리,가격,2만,30%,가격,화제,대형,마트,업계,대량구매,매입,가격,매장,조리,유통마진,최소화,단순,유통구조,광고료,가격,설명,치킨,인기,원가,논란,프랜차이즈,업계,원재료,인상,개선,가맹점,수익,가격,치킨,시대,코로나,배달특수,최대,실적,치킨값,인상,소비자들,사회관계망서비스,SNS,불매운동,프랜차이즈,업계,대형,마트,단순,비교,불가능,주장,재료비,개발비,입장,대형,마트,치킨,프랜차이즈,10호,1kg,8호,9호,800~900,사용,일반,식용유,논란,치킨,가격,치킨업,BHC,가맹점주,공급,닭고기,가슴살,공급가,가맹,폭리,전선,확대,BHC,지난달,가맹점,공급,튀김,가격,61%,점주들,반발,BHC,관계자,인상,튀김유,가격,국제,시세,시세,인상,사육,원가,시장,추이,점주들,수익,보장,대응,검토,이은희,인하대,소비자학,교수,상품,가격,추가,소비자,가격,반영,공급가,대기업,비용,혁신,노력,고통,분담,노력,지적</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3524,7 +4379,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>통큰치킨,난리,치킨집들,치킨,반응,인천,간석동,김나연,15일,대기,이날,말복,후라이드,마리,5990원,행사,선착순,판매,마리,한정,손님,판매,김씨,물가,외식,치킨,장보기,부담,상품,만족도,이날,마리,5분,완판,프랜차이즈,대응,과거,까닭,홈플러스,이달,치킨,누적,판매량,마리,평소,후라이드,마리,6990원,의무,휴업일,제외,1분,5마리,인기,의식,이마트,이날,24일,후라이드,마리,5980원,판매,준비,물량,마리,지난달,9980원,치킨,판매,판매량,인지도,치킨,가격,4000원,풀이,지난달,2주일,가격,3000원,6980원,판매,치킨,가격,책정,후라이드치킨,50~100마리,점포,하루,마리,차례,판매,인당,마리,롯데마트,마리,분량,치킨,반값,8800원,판매,물가,급등,대응,차원,대형마트,치킨,소비자들,호응,치킨값,반발,여론,한몫,업계,치킨,프랜차이즈,과거,대응,배경,관심,롯데마트,마리,치킨,한국프랜차이즈산업협회,자영업자,생존권,위협,할인,행사,자제,요청,양상,2010년,5000원,통큰치킨,동네,치킨,지경,비판,일주일,판매,중단,온라인,프랜차이즈,점주,참여,2만,원대,치킨,프랜차이즈,비교,원가,영업,여부,미끼,상품,논란,판매,기간,상승,매출,20%,업체들,치킨,프랜차이즈,업체,반응,매출,타격,업체,관계자,판매,기간,매출,20%,상승,타격,길거리,마진,논란,업체,자체,검토,결과,치킨,마진,안팎,계산,임대료,인건비,배달,수수료,수수료,플랫폼,중개,가능,가격,설명,사용,크기,식용유,튀김기름,부재료,차이,염두,업체,관계자,프랜차이즈,물류,구매,수익,과도,얘기,주장,가격,실제,치킨,농가,생계,가격,가격,가공,업체,도계,프랜차이즈,프랜차이즈,계약,가격,가맹점,생닭,납품,가격,밀가루,식용유,소스,각종,재료비,구성,치킨무,음료,박스,포장봉투,수수료,배당,중개,배달,대행,비용,부가가치세,임대료,인건비,카드수수류,개별광고비,운영비,가맹점,마진,포함,치킨,비교,품질,차이,걱정,의견,다수,업체,관계자,제품,선호,소비자,제품,선호,소비자,차이,치킨,인기,일시적,현상,예상,업계,관계자,그동안,마트,치킨,고물가,소비자들,피로감,주목,마트,치킨,종류,한정,종류,만큼,차별,업체들,소비자,선택지,이해,가맹점,노력,가격,조정,점주들,프랜차이즈,가맹,점주,프랜차이즈,치킨,주변,인식,부담,사실,이은희,인하대,소비자학,교수,소비자,점주,프랜차이즈,가맹,골목,상권,자영업자,보호,치킨,가격,감수,주장,요즘,설득력,프랜차이즈,논란,가맹점,가격,조정,노력</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3542,7 +4402,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>성폭력,추락사,인하대,캠퍼스,리멤버,낙서,발견,인하대,성폭력,추락,사건,기억,의미,낙서,학교,캠퍼스,발견,경찰,조사,미추홀경찰서,인천,이날,인천시,미추홀구,인하대,교내,래커,낙서,시설,훼손,신고,접수,낙서,리멤버,REMEMBER,인하대,사건,성폭력,추락사,발생,사건,학내,구성원,기억,의미,추정,낙서,피해,여학생,입구,단과대,건물,건물,외벽,4곳,발견,대학,낙서,제거,경찰,조사,추후,현장,정도,건물,훼손,정확,낙서,파악,혐의,적용,검토,학교,학교,캠퍼스,건물,또래,여학생,성폭행,추락,혐의,구속,기소,경찰,살인,고의,준강간치사,지난달,준강,간치사,성폭력,범죄,처벌,특례법,위반,카메라,이용,촬영,혐의,검찰,송치,검찰,보완,수사,성폭행,시도,살인,미필,고의,판단,죄명,강간,살인,혐의,구속기소,경찰,적용,카메라등,이용,촬영,혐의,휴대,전화,카메라,피해자,신체,촬영,신체,촬영,의도,혐의,불기소,처분</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3560,7 +4425,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>인하대,리멤버,낙서들,성폭행,추락사,성폭행,추락사,사건,발생,인하대,캠퍼스,사건,기억,의미,낙서,발견,미추홀경찰서,인천,이날,인천시,미추홀구,인하대,교내,래커,REMEMBER,낙서,시설,훼손,신고,접수,낙서,여학생,인하대,교내,성폭행,건물,단과,대학,3층,추락,사건,발생,날짜,사건,기억,의미,낙서,추정,낙서,단과대,건물,입구,건물,외벽,4곳,발견,대학,낙서,제거,신고,경찰,조사,추후,현장,정도,건물,훼손,정확,낙서,파악,인하대,남학생,캠퍼스,5층,3층,단과대,건물,B씨,또래,여학생,성폭행,B씨,추락,사건,발생,A씨,B씨,장소,자취방,당일,경찰,체포,살인,혐의,구속,기소,B씨,추락,가량,혼자,건물,길가,방치,행인,발견,병원,3시간</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3578,7 +4448,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>성폭행,추락사,인하대,담벼락,리멤버,낙서,인하대,캠퍼스,성폭행,추락사,사건,기억,의미,낙서,발견,미추홀경찰서,인천,이날,인천시,미추홀구,인하대,교내,래커,낙서,시설,훼손,신고,접수,낙서,리멤버,REMEMBER,대학,교내,사건,성폭행,추락사,발생,날짜,사건,학내,구성원,기억,의미,추정,낙서,피해,여학생,발견,5층,입구,단과대,건물,건물,외벽,4곳,발견,대학,낙서,제거,경찰,조사,추후,현장,정도,건물,훼손,정확,낙서,파악,혐의,적용,검토,방침,학교,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,B씨,또래,여학생,성폭행,추락,혐의,성폭력범죄,처벌,특례법,구속기소,B씨,2층,사이,복도,창문,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,건물,길가,혼자,건물,방치,행인,발견,병원,3시간,사망</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3596,7 +4471,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>성폭행,추락사,인하대,교내,사건,날짜,낙서,경찰,조사,인하대,교내,성폭행,추락사,사건,기억,의미,낙서,발견,경찰,조사,미추홀경찰서,인천,이날,인천시,미추홀구,인하대,교내,래커,낙서,시설,훼손,신고,접수,인하대,캠퍼스,발견,낙서,낙서,독자,제공,REMEMBER,대학,교내,사건,성폭행,추락사,발생,날짜,사건,학내,구성원,기억,의미,추정,피해,여학생,발견,5층,입구,단과대,건물,건물,외벽,4곳,낙서,발견,대학,낙서,제거,신고,경찰,조사,추후,현장,정도,건물,훼손,정확,낙서,파악,경찰,관계자,신고,접수,단계,조사,상태,정황,종합적,판단,혐의,적용,검토,학교,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,B씨,또래,여학생,성폭행,추락,혐의,구속,기소,B씨,2층,사이,복도,창문,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,건물,길가,혼자,건물,방치,행인,발견,병원,3시간</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3614,7 +4494,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>인술,호국,선대,업적,독립운동,영웅,발굴,사회공헌위원장,신민식,자생,의료,재단,사회,공헌,위원장,독립군,군의관,활약,가문,증명,항일,독립운동,선친,대통령,표창,서훈,독립운동,헌신,한의사,학술,대회,개최,가명,영웅,독립운동,가문,후손,독립운동사,매진,영웅들,업적,한의사,주년,광복절,주목,사회공헌위원장,자생,의료,재단,신민식,사회,공헌,위원장,잠실자생한방병원,병원장,독립운동,정신,계승,중요,요즘,독립운동가,재조명,몰두,역사,퍼즐,실제,위원장,실제,독립운동,재조명,답사,숙조부,신홍균,선생,국가,보훈처,건국,훈장,애족장,추서,광복절,신광열,선생,대통령,표창,서훈이,결과,위원장,선대,독립운동가,지속,역사,민족,발굴,마음,독립운동사,위원장,10일,독립운동가,선대,어르신,독립운동,참전,사실,생각,한방병원,병원장,독립운동,활동,홍보수단,부담,독립운동가들,업적,사료,마음,역사,행적,중요,주변,설득,덕분,77주년,광복절,주년,기억,독립운동가들,소수,국가보훈처,일제,강점기,독립운동,참여,사람들,200만,보고,그중,99%,존재,긍휼지심,矜恤之心,마음,인술,仁術,의료진,민족영웅들,역할,고민,독립운동사,지속적,원동력,독립운동가,어려움,독립운동가,서훈,활동,사용,가명,독립,일제,추적,체포,가족,체포,친척들,피해,가명,활동,재판,판결문,신문,이름,가명,기재,사료,발굴,걸림돌,요소,숙조부,선친,일제,추적,가명,사용,숙조부,신흘,신굴,신포,선친,신호,가명,사용,선대,독립운동,사실,확인,월남유서,越南遺書,발견,가문,독립운동사,작용,월남유서,한의사,의사,아버지,신광열,이북,자손들,일대기,선친,독립운동,비화들,객관적,입증,중국,일본,수차례,각종,자료,숙조부,일제,추적,가명,독립운동,결정적,증거,발견,덕분,숙조부,독립군,군의관,활약,사실,대전자령,전투,사도,전투,동경성,전투,참전,독립군,승리,이바지,평가,11월,결과,건국,훈장,애족장,추서,선친,월남유서,입증,미국중앙정보국,CIA,보고서,발견,선친,공훈,대통령표창,서훈,역사,행적,세상,영광,생각,위원장,공적,신홍균,선생,한의사,독립군,군의관,독립,운동가,김중건,창설,조선독립군,대진단,시작,항일무력투쟁,일생,대첩,독립군,대전자령,전투,참전,약재,지식,한의사,활용,독립군,목이버섯,식량,활용,조직,재건,기여,신광열,선생,3,대대적,시위운동,경성,서대문형무소,수감번호,부여,옥고,군수품,독립운동자금,항일연합군부대,조달,역할,독립운동,신익희,선생,주도,정치공작대,함경도,책임,위원,활동,구국운동,헌병일지,경무대,기록,자료,자문,역사학,전문가,인연,전문적,발전,독립운동,교수,이계형,국민대,독립운동가,정상규,작가,도움,완성,신홍균,한의사,생애,독립운동,한국의사학회지,일제,강점기,활동,독립운동가,한의사,출신,독립,운동가,학회지,게재,자생의료재단,융합고고학과,인하대,융합,고고학,독립운동,헌신,한의사들,주제,학술대회,개최,예정,위원장,역사학자들,논의,발표자,한의사,독립운동사,이해,독립운동가,촉진,학술,마련,의의,계획,독립운동,발자취,만주,가족,독립운동,매진,독립운동가들,혈심,血心,공적,후손,도리,생각,글로벌,시대,과거,인물,조명,의미,국가,위기,국가,노력,인물,조명,동일,위기,국가,대처,바탕,선진국,영웅들,우선,생각,한의사,독립운동,입증,자신,이름,독립운동가들,선배,한의사,독립,운동가,흔적,일조,자생,의료,재단,공헌,활동,독립운동,후손,3년,지원,6,확대,자생의료재단,사회공헌활동,독립운동,정신,자생의료재단,경제적,독립운동가들,후손,지원,국가보훈처,진행,독립유공자,후손,한방,의료,서비스,지원,사업,필두,3억,규모,척추,관절,질환,치료,2019년,지원,6,대상,확대,독립,유공자,후손,대상,3년,3억,규모,생활지원금,장학금,전달,생존,애국지사,의료서비스,제공,한방주치의,생존,애국지사,한방,주치의,사업,해외,거주,귀국,후손들,영주,귀국,독립,유공자,후손,주거지원,진행,자생의료재단,2월,공적,국가보훈처장,독립,유공자,복지,증진,공로,감사패,사회공헌위원장,신민식,재단,사회,공헌,위원장,약자,연민,이웃,의술,醫術,인술,仁術,선대,가르침,후손들,사회공헌위원장,책무,형님,설립,자생한방병원,이념</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,7 +4517,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>대전시,성인지,정책,관실,폐지,정책,여성,후퇴,여성,발전,복지국,산하,업무,예고,조례안,입법,논란,확산,대전시,성인지정책담당관실,폐지,업무,부서,복지국,산하,조례안,발의,대전,지역,여성,여성,정책,후퇴,반발,신설,성인지정책담당관실,폐지,복지국,여성,가족,청소년,여성,양성,평등,정책,정책,업무,대전시,행정,기구,정원,조례,개정,조례안,예고,입법,대전여성단체연합,반대,성명,김명주,충남대,영문학,교수,충남대,여성젠더연구소장,교수,반대,조례안,이의제기,서면,제출,논란,확산,교수,서면,살해사건,인하대,성폭력,살해,사건,인구,절반,여성,불안,차별,정책,강화,시점,그동안,성과,축적,성인지정책담당관실,폐지,처사,이해,국립대,지역,거점,충남대,여성젠더학,석사과정,신설,내년,신설,계획,젠더,이슈,차원,사회,화두,판단,성인지정책담당관실,기획조정실,복지국,고유,업무,유지,동력,정책,유지,요청,제안,이날,교수,이날,동아일보,통화,전북대,강연,여성젠더학과,충남대,여성,젠더학,소개,대전시,성인지,정책,관실,조직,성과,소개,참석자들,성인지정책담당관실,그동안,조직,개선,인식,대전역,부근,성매매,집결지,대책,주류,정책,영향평가,전문,역량,발휘,평가,대전여민회,대전여성정치네트워크,대전여성장애인연대,대전여성단체연합,논평,성인지정책담당관,복지,수준,추진,정비,경제,과학,도시재생,교육,정책,관점,취지,업무,복지국,배속,정책,후퇴,비판,대전시,조례안,여성,정책,축소,후퇴,개편,입장,정책기획관,권경민,대전시,정책,기획관,업무효율,조직,축소,성인지정책관실,조직,통폐합,성인지정책관실,그동안,성과,내부,평가,만큼,인력,복지국,여성,업무,성인지정책담당관실,측면,그동안,정책,업무,성공적,수행,만큼,복지국,소속,구체적,사업,추진,업무,중점</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,7 +4540,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>관객들,감성,개성,음악가들,제16회,경향실용음악콩쿠르,인터뷰,대상,수상자,경향신문사,주최,수상자,경향,실용,음악,콩쿠르,보컬,보컬,고등부,대상,서윤혁군,차지,보컬,작곡,싱어송라이터,대학,일반부,대상,수상자,김화종씨,선정,악기,악기,고등부,대상,신동준군,578명,참가자,지원,7월,8월,열흘간,예선,8월,이틀간,본선,3명,대상,수상자,포함,23명,입상,보컬,중학부,보컬,작곡,싱어송라이터,고등부,악기,중학부,악기,대학,일반부,대상,수상자,경향실용음악콩쿠르,시작,실용,음악,분야,콩쿠르,JTBC,오디션,프로그램,슈퍼,밴드,우승자,김영소,가수,손승연,슈퍼밴드2,출연자,김진산,싱어게인2,서기,진출자,배출,심사,권오경,김창현,손무현,손성제,신연아,오종대,정원영,한원종,한충완,가나다순,실용음악,교수진,현역,아티스트,참여,시상식,연주회,라이브홀,서울,마포구,웨스트브릿지,라이브,예정,서윤혁,고등부,보컬,사랑,장르,음악,친구,오디션,얼떨결,데뷔,이야기,인기,연예인,단골,사연,서윤혁군,17,2학년,경향,실용,음악,콩쿠르,도전기,공연,코로나19,기회,친구들,콩쿠르,공연,본선,공연,생각,웃음,자신,대상,서군,경연곡,선택,의외,김광석,사랑,사랑,오아시스,영국,밴드,돈트,앵거,Don,look,back,anger,친구들,힙합,김광석,노래,가사,사랑,장르,존경,뮤지션들,음악,만큼,보컬,다이내믹,고음,감성,집중,시대,감성,표현,전략,적중,수상,경연,대상,또래,노래,사람,테크닉,발성,보컬,평소,노래,자신감,부모님,노래,정도,기회,친구들,노래들,음악,확신,서군,롤모델,김광석,유재하,김현식,1980~90년대,대표,뮤지션들,가요,애정,음악,보컬,대학,일반부,보컬,작곡,싱어송라이터,김화종,시작,만큼,투어,진행,마지막,생각,경연,김화종씨,28,2학년,대상,소식,회상,실연,實演,실수,수상,기분,김씨,콩쿠르,자작곡,위드,자작곡,데블,Deal,devil,미스터리,서커스,Mystery,circus,소개,자작곡,애정,마니악,광기,사람,이미지,번째,번째,플라멩코,라틴풍,음악,서커스,광대,이미지,연상,자작곡,연주,신경,기타,터치,음색,마음,만큼,집중,공학도,김씨,작곡,시작,중반,핑거스타일,기타,연주,생각,작곡,도전,얼마,코로나19,확산,무대,기회,마음,온라인,비대,공연,무관,라이브,시작,만큼,노력,덕분,작곡,시작,자작곡,콩쿠르,대상,결실,성실,대상,소식,생각,김씨,자신,앨범,관객,투어,미국,활동,마음,영어,공부,웃음,신동준,고등부,악기,입문,초등,색소폰,매력,신동준군,18,3학년,인터뷰,에너지,전철,대상,소식,기분,전철,소리,마음,로또,당첨,기분,사람,웃음,초등학교,색소폰,시작,교회,색소폰,외관,소리,색소폰,신군,색소폰,친구,색소폰,매력,신군,설명,색소폰,매력,자신,개성,악기,색소폰,콩쿠르,본선,신군,미국,주니어,퓨전,재즈,뮤지션,잭슨,사우,전드,벨기에,출신,재즈,기타리스트,장고,라인하르트,이탈리아,재즈,바이올리니스트,스테판,그라펠리,애프터,유브,ve,연주,대회,스트레스,경연,포기,생각,후회,무대,마음,솔로,집중,좌절,포기,포기,생각,에너지,색소포니스트,애니메이션,영화,음악,작곡가,편곡가,프로듀서,대학교수,당장,미국,버클리,유학,에릭,마리엔탈,미국,색소포니스트,연주,소원,마지막,질문,신군</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,7 +4563,12 @@
           <t>내일신문</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>인하대,총장,조명우,총장,선임,학교,법인,정석인하학원,이사장,현정택,이사회,총장,인하대,조명우,사진,총장,연임,결정,임기,1일,31일,4년,정석인하학원,이사회,총장후보추천위원회,후보,심사,선정,2명,최종,후보자,총장,연임,의결,총장,기계설계학과,서울대,기계,설계학,입학,대학원,공학,석사,학위,일리노이대학,미국,UIC,공학,박사,학위,인하대,기계,공학,교수,부임,공과대학장직무대행,2012년,교무처장,2013년,교학부총장,2014년,역임,총장,인하대,인하대,한국대학교육협의회,이사,한국사립대학총장협의회,부회장,경인지역대학총장협의회,회장,회장,인천,총장,포럼,초대,역임</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,7 +4586,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>인하대,추락사,가해자,피해자,초기,조사,진술,조사,지난달,검거,경찰,성폭행,시도중,취지,진술,기억,휴대,전화,영상,저항,소리,추락음,가해자,욕설,지난달,발생,피의자,인하대,성폭행,사망,사건,조사,초기,경찰,성폭행,피해자,신체,기억,진술,취재,동아일보,종합,성폭력,범죄,처벌,특례법,강간,살인,혐의,구속,기소,20,검거,성폭행,시도,피해자,피해자,진술,고의,성폭행,시도,신체,취지,검찰,사건,현장,조사,이정빈,가천대,의대,석좌,교수,동아일보,통화,피해자,추락,경찰,수사,기록,피해자,얘기,경찰,검찰,조사,진술,기억,추락,상황,정확,진술,혐의,취지,진술,검찰,설명,경찰,검찰,사건,현장,사건,발견,휴대전화,성폭행,시도,추락,추락,30분,촬영,영상,발견,영상,카메라,바닥,촬영,음성,음성,저항,소리,추락,발생,추정,소리,촬영,종료,검찰,정황,바탕,경찰,적용,준강간치사,강간,살인,혐의,적용,준강간치사죄,10년,징역,무기징역,성폭력,처벌법,강간,살인죄,무기징역,사형,재판,인천지법,검찰,관계자,사실,토대,법리,검토,살인,미필,고의,판단</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3704,7 +4609,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>인하대,조명우,총장,연임,의결,정석인하학원,이사회,인하대학교,조명우,총장,4년,학교,학교,법인,정석인하학원,이사회,총장,연임,결정,임기,4년,31일,이사회,이날,정석인하학원,총장후보추천위원회,후보,심사,선정,2명,최종,후보자,총장,의결,제16대,총장,기계설계학,서울대학교,기계,설계학,입학,서울대,대학원,공학,석사,학위,대학교,일리노이,공학,박사,학위,인하대,기계,공학,교수,부임,직무대행,공과,대학장,직무,대행,교무처장,교학,부총장,보직,총장,인하대,이사,그동안,한국대학교육협의회,한국사립대학총장협의회,부회장,경인지역대학총장협의회,회장,회장,인천,총장,포럼,초대,역임</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,7 +4632,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>조명우,인하대학교,총장,연임,총장,인하대학교,조명우,62,연임,학교,법인,정석인하학원,이사회,총장,연임,결정,총장,인하대,연임,총장,서울대,기계,설계학,학사,석사,미국,일리노이주립대,박사,학위,1997년,교수,인하대,기계,공학,재직,교무처장,교학부총장,총장,선임,인하대,총장,임기,다음달</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3740,7 +4655,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>소리,인하대,사건,남학생,휴대,전화,그날,음성,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,지난달,미추홀경찰서,인천시,미추홀구,검찰,송치,인천,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,기소,가해,남학생,휴대전화,음성,29분,동영상,확인,법조,사건,현장,발견,인하대,휴대전화,디지털,포렌식,B씨,결과,여학생,성폭행,시도,직전,B씨,추락,29분,음성,파일,확보,영상,화면,바닥,촬영,소리,녹음,동영,초반,B씨,반항,음성,20분,소리,녹음,추락음,욕설,목소리,휴대전화,검찰,자동,동영상,촬영,중단,강제,촬영,종료,A씨,검찰,조사,기억,추락,상황,정확,주장,조사,초기,경찰,성폭행,시도,창문,B씨,진술,사실,이날,검찰,사건,현장,조사,석좌교수,법의학자,이정빈,가천대,의과,대학,석좌,교수,경찰,수사,기록,피의자,진술,교수,피해자,윗배,창문,자국,발견,외벽,페인트,산화,물질,피해자,발견,피해자,창문,상태,창틀,추락,설명,A씨,오전1시,인천시,미추홀구,인하대,캠퍼스,3층,단과,대학,건물,지인,B씨,성폭행,추락,혐의,추락,피해자,길가,방치,행인,발견,병원,이송,결국</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3758,7 +4678,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>8월,알림,인하대,학교,법인,정석인하학원,이사회,총장,조명우,총장,재선임,임기,4년,총장,서울대,기계,설계학,학사,석사,미국,일리노이주립대,박사,학위,교수,인하대,기계,공학,부임,교무처장,교학부총장,총장,직무,대행,기후위기대응,에너지전환,지방정부협의회,회장,부안군수,권익현,전북,부안,군수,선출,결성,지방자치단체,전국,지방,자치,단체,회원,가입,활동,한국해비타트,가수,마라톤,광복절,기념,기부,행사,10억,성금,자비,자신,힙합,브랜드,MF,패션,브랜드,MCM,협업,팝업스토어,수익금,1630만,배우,박보검,윤세아,이시영,임시완,진선규,고한민,이영표,축구,국가,대표,조원희,공효석,사이클,국가,대표,연제성,장호준,육상,선수,3500명,달리기,기부,동참,의류,브랜드,노스페이스,카카오,카카오,사회,공헌,플랫폼,가치,기업,후원금,대한적십자사,회장,신희영,중부,지방,집중,호우,긴급재난구호대책본부,설치,15일,전국,직원,봉사원,파견,셸터,긴급,구호품,세트,비상식량,세트,담요,전달,이동샤워차량,급파,두나무,가상,화폐,거래소,업비트,운영사,대표,이석우,16일,중부,지역,수해,복구,성금,전국재,구호협회,기탁,고려아연,회장,최창근,16일,집중,호우,복구,성금,전국재,구호협회,기부,효성그룹,회장,조현준,16일,서울,경기,강원,충청,수재민들,성금,대한적십자사,전달,성금,지주사,효성,효성티앤씨,효성중공업,효성첨단소재,효성화학,회사,마련,새마을금고중앙회,회장,박차훈,수해,성금,전국재,구호협회,전달,셀트리온그룹,대표,기우성,주민,강원도,산사태,피해,성금,대한적십자사,강원,지사,기부,메가엠지씨커피,중부,지역,수해,복구,성금,전국재,구호협회,전달,작업,수해,복구,진행,자원봉사센터,서울,관악구,자원,봉사,센터,지역가맹점,음료,지원,본도시락,경기,남양주,오남,안전,센터,소방서,300만,도시락,전달,기부품,지난달,24일,진행,캠페인,고객,참여,마련,너머,고려인,지원,단체,사단,법인,안산시,고려인,문화,센터,전쟁,우크라이나,한국,고려인,동포,자녀,장학금,긴급생계지원금,전달,문화체육관광부,국립국어원,코로나19,사람,상태,네버,코비드,대체,우리말,코로나,선정,보건복지부,한국건강증진개발원,17일,포스트타워,서울,명동,포스트,타워,양치,아이들,치아,관리,방법,주제,육아,전문가,오은영,박사,토크콘서트,소아치,전문,박소연,교수,건강,아이,평생,것들,주제,강연,펄어비스,경기,안양시,소재,보육원,물놀,페스티벌,기부,행사,테르미안,워터,해변,온라인,롤플레잉,게임,사막,테르미안,컨셉,물놀이장,설치,미니,운동회,부채,그림,행사,블랙핑크,28일,현지시각,미국,대표적,대중음악,시상식,MTV,비디오,뮤직,어워즈,케이,걸그룹,출연,소속사,YG,엔터테인먼트,정규,핑크,베놈,CGV,씨네,명동역,라이브러리,일명,명씨네,2년,운영,계약,연장,김기영,감독,헌정,김기영관,장서,소장,도서관,영화,전문,운영,음악,시리즈,13일,7시,서울,한남동,전문,공연장,일신,영혼,주제,번째,권율,설유석,정새미,정현식씨,창작곡,이수민,정준재,정의경,김민진,안수진씨,연주,청년,음악가,자발적,출범,콘서트,프로젝트,페이스북,facebook.com,musiccombined2019,극단,선사,25일,서울,대학로스튜디오,극장,독립운동가,위장,일제,첩자,밀정들,이야기,밀정,리스트,공연,박재정,배우,김충옥,의열단,수장,김충옥,출연,정범철,작가,극본,송형중,감독,연출,프로젝트,그룹,낙타,새달,4일,서울,대학로,알과,전국,일제,강점기,유일,여성,주도,제주,해녀,항일운동,연극,불턱,공연,누리집,pgnacta.modoo.at,link,cq69tsf,참고,목포시,문화체육관광부,10월,브랜드화,전통,한옥,사업,춘화당,시내,죽동,윤진철,명창,그림전,춘화당,적벽,국가,무형,문화재,판소리,보유자,명창,보유자,매화,주제,한국화,공연,갤러리,민정,31일,새달,개관,기념,전시장,서울,삼청동,김현주,작가,초대전,네오,플라워,2022:기사,인생,이야기,휴관,10시,18시,운영,수요일,14시,20시,누리집,galleryminjung.com,exhibitions,upcoming,past.php,갤러리,아트,31일,전남,화순,능주면,전시장,이인호,초대전,미학,재료,캔버스,일상,자연물,일상,사람,입체감,작품,휴관,토11,30~16,운영,김해,진영역철도박물관,권용건씨,김해,시민,권용건,대전,시민,장준,우리나라,철도,현대,역사,행선,안내표,한국철도,기념,승차,자료,신호,열차,쿠폰,철도,철도,소장품,기증</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,7 +4701,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>성공,조명우,인하대,총장,연임,학교,법인,정석인하학원,이사장,현정택,이사회,총장,인하대,조명우,총장,연임,결정,임기,4년,31일,정석인하학원,총장후보추천위원회,후보,심사,선정,2명,최종,후보자,조명우,총장,의결,조명우,총장,기계설계학과,서울대학교,기계,설계학,입학,서울대,대학원,공학,석사,학위,대학교,일리노이,Illinois,Chicago,UIC,공학,박사,학위,총장,인하대,기계,공학,교수,부임,공과,대학장,직무,대행,교무처장,교학,부총장,요직,총장,인하대학교,인하대,한국대학교육협의회,이사,한국사립대학총장협의회,부회장,경인지역대학총장협의회,회장,회장,인천,총장,포럼,초대,역임</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,7 +4724,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>확정,인하대,조명우,총장,연임,학교,구성원,반발,학내,갈등,총장,인하대,조명우,총장,선임,학교,법인,정석인하학원,이사회,총장,최종,후보,조명우,총장,총장,결정,임기,1일,4년,총장,서울대,미국,일리노이주립대,박사,학위,교수,인하대,기계,공학,부임,교무처장,교학부총장,총장,직무,대행,2018년,총장,역임,총장,재임,기간,탈락,교육부,대학,역량,평가,추락사,교내,성폭행,화재,교내,건물,발생,학교,구성원,퇴진,압박,학내,갈등,예상,총창추천위원회,인하대,총창,추천,위원회,조명우,총장,총장,후보,이사회,추천,교수회,반대,성명,학생회,동문회,동창회,반대,입장,공개적,표명</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,7 +4747,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>캠퍼스,성폭행,추락사,여진,조명우,연임,인하대,총장,사망사건,캠퍼스,성폭력,사망,사건,선출,인하대,총장,진통,마무리,학교,법인,정석인하재단,이사장,현정택,서울시,중구,대한항공,서소문,빌딩,이사회,총장,인하대,조명우,총장,재선임,임기,31일,4년,4명,전임,총장,임기,총장,잔혹사,인하대,총장,연임,성공,16년,홍승용,총장,10대,재선,일신상,사임,이본수,총장,12대,정년제한,임기,3년,총장직,수행,박춘배,총장,13대,일신상,사의,최순자,총장,14대,부실채권,투자,학교재정,손실,중도,해임,총장,연임,정석인하재단,지난달,총장,후보,추천,위원회,추천위,11명,재단,4명,교수회,추천,1명,동창회,추천,외부,인사,구성,추천위,지원자,심사,5명,후보,총장,후보,소식,학내,반발,발생,캠퍼스,성폭행,사망,사건,반대,명분,작용,인하대,교수회,동창회,총장,재임,사망사건,캠퍼스,성폭력,사망,사건,책임,후보,총장,사퇴,주장,임기,인하대,교육부,일반재정지원사업,탈락,건물,학교,화재,발생,총장,책임,교수회,주장,인하대,교수회,총장,후보자,초청,공청회,총장,초청,총장,학교,구성원,후보,출마,정책,사퇴,의사,갈등,고조,하루,추천위,총장,후보,투표,총장,박기찬,경영대학장,최종후보,추천위,위원,2표,행사,총장,2배수,교수회,교수회,추천,위원,반발,사퇴,교수회,반대,총장,후보,총장,추천,재단,입맛,총장,선출,불통,태도,반발,이사회,결국,총장,결국,연임,결정,교수회,성명,이날,유감,한편,대의원회,소집,대응,방안,논의,방침,하주,인하대,교수회,의장,통탄,학교,재단,비판</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3830,7 +4770,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>성폭행,가해자,인하대,추락사,진술,경찰,조사서,캠퍼스,인천,인하대,여학생,성폭행,추락,남성,경찰,조사,성폭행,피해자,신체,진술,취재,동아일보,종합,성폭력,범죄,처벌,특례법,강간,살인,혐의,구속,기소,검거,검거,경찰,조사,성폭행,시도,창문,피해자,피해자,진술,표현,고의,성폭행,시도,신체,취지,진술,검찰,사건,현장,조사,이정빈,가천대,의대,석좌,교수,이날,동아일보,통화,경찰,수사,기록,피해자,현장,벽면,페인트,물질,발견,피해자,경찰,조사,검찰,조사,진술,기억,추락,상황,정확,기억,진술,경찰,인천,미추홀구,인하대,캠퍼스,5층,2층,단과,대학,건물,근처,사이,복도,창문,성폭행,추락,혐의,현장,사건,발견,휴대전화,성폭행,시도,추락,30분,촬영,영상,발견,영상,휴대,전화,카메라,바닥,촬영,음성,영상,추락,소리,촬영,종료,검찰,정황,바탕,경찰,적용,준강간치사,성폭력,처벌법,강간,살인,혐의,적용,준강간치사죄,법정형,징역,무기징역,성폭력,처벌법,강간,살인,법정형,무기징역,사형,검찰,관계자,혐의,중요,기억,기억,진술,상황,신중,법리,검토,살인,미필,고의,판단</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3848,7 +4793,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>인하대,사건,피의자,초기,경찰,조사선,피해자,인하대,캠퍼스,동급생,성폭행,남성,20,구속,피의자,심문,영장,실질심사,미추홀구,인천지법,인천,뉴스1,인하대학교,캠퍼스,동급생,여학생,성폭행,건물,추락,혐의,구속,기소,남학생,피의자,피해자,취지,진술,16일,이날,검찰,사건,현장,조사,석좌교수,법의학자,이정빈,가천대,의과,대학,석좌,교수,경찰,수사,기록,피의자,진술,준강간살,혐의,재판,인하대,조사,성폭행,초기,경찰,조사,시도,창문,B씨,여성,진술,검찰,조사,기억,추락,상황,정확,진술,교수,성폭행,시도,창문,피해자,진술,다리,의미,의식,피해자,창문,추락,사건,B씨,사건,추락,창문,지상,1m6,높이,교수,피해자,윗배,창문틀,자국,발견,페인트,외벽,산화,물질,피해자,발견,근거,피해자,창문,상태,추락,사건,현장,피의자,휴대전화,동영상,휴대,전화,성폭행,시도,직전,B씨,추락,상황,29분,음성,동영상,초반,반항,B씨,음성,20분,가량,소리,녹음,추락음,목소리,얼마,휴대전화,A씨,6월,인하대,캠퍼스,5층,단과,대학,건물,동아리,소속,동급,상대,성범죄,추락,혐의,이날,3시,분쯤,행인,발견,B씨,심정지,상태,병원,이송,7시,사망,B씨,A씨,성폭행,창문,건물,복도,1층,추락,사망,추정,A씨,피해자,장소,자취방,현장,휴대전화,당일,경찰,긴급체포,B씨,건물,추락,1시간,방치,사실,공분,A씨,도주,신고,B씨,지적</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,7 +4816,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D191" t="n">
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>소리,에이X,가해자,인하대,사건,초기진술,캠퍼스,인천,인하대,또래,여학생,성폭행,건물,추락,혐의,기소,가해,남학생,창문,피해자,취지,진술,법조,준강간살,혐의,구속,기소,인하대,조사,초기,경찰,성폭행,시도,창문,여성,진술,검찰,조사,기억,추락,상황,정확,주장,검찰,사건,현장,조사,석좌교수,법의학자,이정빈,가천대,의과,대학,석좌,교수,언론,인터뷰,경찰,수사,기록,피의자,진술,성폭행,시도,창문,피해자,진술,다리,의미,의식,피해자,바닥,1m,창문,추락,교수,피해자,윗배,창문틀,자국,발견,사건,현장,발견,휴대전화,동영상,휴대,전화,성폭행,시도,직전,추락,상황,29분,음성,화면,휴대,전화,바닥,촬영,소리,녹음,동영상,초반,반항,음성,20분,가량,소리,녹음,추락음,목소리,얼마,휴대전화,검찰,관계자,휴대전화,디지털,포렌식,결과,자동,동영상,촬영,중단,강제,촬영,종료,사실,확인,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,B씨,성폭행,추락,혐의</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3884,7 +4839,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D192" t="n">
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>희망,친구,기아,대책,우간다,쿠미,지역,농작물,가공,센터,완공,국제,구호,NGO,희망,친구,기아대책,회장,유원식,한국국제협력단,KOICA,지원,우간다,쿠미,지역,가공센터,쿠미,지역,협동조합,농작물,가공,센터,완공,12일,프로젝트,기아,대책,인하대학교,국제,협력,혁신,센터,서울에너지공사,재생,에너지,전문,에너지,공기업,협력,소득증대,우간다,쿠미,지역,농가,소득,증대,사업,신재생,에너지,활용,농업,일환,가공센터,현지,농가,증대,농작물,생산량,구축,가공,인프라,양성,부가,가치,사업,빈곤,퇴치,마련,지속가능,활용,신재생,에너지,서울에너지공사,협력,규모,제곱미터,부지,가공센터,쿠미,지역,협동조합,농작물,가공,센터,신재생,에너지,활용,농작물,분류,세척,저온,저장,가공,바탕,지역,수확물,보관,상품,개선,기여,전망,가공센터,소농인들,농작물,농가,가공해,현지,소득,증대,기여,농산,가공물,브랜딩,부가가치,창출,역할,가공센터,주축,지역,식량,보존,접근성,식량안보,강화,계획,마이클,오키로,쿠미,지역,협동조합,조합장,농작물,수확,처리,보관,손실,기아대책,한국,기관,도움,지역,가공센터,식량,해결,식량,지역,경제,활성화,기여,유원식,희망,친구,기아대책,회장,지역,우간다,쿠미,주민,90%,농업,종사,자원,부재,자립,여건,생존,지역,공동체,인프라,경제,활동,상황,설립,가공센터,중심,경쟁력,현지,농산업,빈곤,해</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3902,7 +4862,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,가해자,창문,피해자,동영상,음성,피해자,반항,추락음,가해자,욕설,인천,대학,캠퍼스,또래,여학생,성폭행,건물,추락,살해,혐의,기소,가해,남학생,창문,피해자,취지,진술,법조,준강간살,혐의,구속,기소,인하대,조사,초기,경찰,성폭행,시도,창문,여성,진술,검찰,조사,기억,추락,상황,정확,주장,검찰,사건,현장,조사,석좌교수,법의학자,이정빈,가천대,의과,대학,석좌,교수,통화,경찰,수사,기록,피의자,진술,성폭행,시도,창문,피해자,진술,다리,의미,의식,피해자,바닥,1m,창문,추락,교수,피해자,윗배,창문틀,자국,발견,외벽,페인트,산화,물질,피해자,발견,피해자,창문,상태,창틀,추락,설명,사건,현장,발견,휴대전화,동영상,휴대,전화,성폭행,시도,직전,추락,상황,29분,음성,화면,휴대,전화,바닥,촬영,소리,녹음,동영상,초반,반항,음성,20분,가량,소리,녹음,추락음,목소리,얼마,휴대전화,검찰,관계자,휴대전화,디지털,포렌식,결과,자동,동영상,촬영,중단,강제,촬영,종료,사실,확인,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,B씨,성폭행,추락,혐의</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3920,7 +4885,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,가해자,초기,진술,가해자,피해자,진술,추후,휴대전화,존재,현장,발견,휴대,전화,음성,녹음,인하대,교내,또래,학생,성폭행,건물,추락,살해,혐의,기소,가해,남학생,창문,피해자,자신,취지,진술,법조,준강간살,혐의,구속기소,1학년,조사,초기,경찰,성폭행,시도,창문,진술,검찰,조사,기억,검찰,조사,기억,추락,상황,정확,진술,검찰,사건,현장,조사,석좌교수,법의학자,이정빈,가천대,의과,대학,석좌,교수,경찰,수사,기록,피의자,진술,언론,성폭행,시도,창문,피해자,진술,다리,의미,의식,피해자,바닥,1m,창문,추락,설명,교수,피해자,윗배,창문틀,자국,발견,외벽,페인트,산화,물질,피해자,발견,피해자,창문,상태,창틀,추락,휴대전화,29분,휴대,전화,음성,욕설,종료,강제,촬영,사건,현장,발견,A씨,휴대전화,동영상,휴대,전화,성폭행,시도,직전,B씨,추락,상황,29분,음성,영상,화면,휴대,전화,바닥,촬영,소리,녹음,영상,추락,소리,A씨,촬영,종료,검찰,관계자,A씨,휴대전화,디지털,포렌식,결과,자동,동영상,촬영,중단,강제,촬영,종료,사실,확인,동급,성폭행,추락사,피해자,방치,도주,A씨,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,B씨,성폭행,추락,혐의,B씨,2층,사이,복도,창문,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,건물,길가,혼자,건물,방치,행인,발견,병원,3시간,검찰,살인,판단,작위,행동,인천지검,여성,아동,범죄,조사부,부장,구미옥,경찰,준강간,혐의,송치,A씨,인하대,죄명,성폭력,범죄,처벌,특례법,강간,살인,혐의,변경,구속기소,검찰,A씨,의식,피해자,상대,성폭행,시도,추락,사망,사건,수사,경찰,준강,간치사,혐의,적용,A씨,송치,검찰,보완수사,준강간살인,죄명,변경,준강간치사죄,유죄,인정,징역,무기징역,선고,준강간살인죄,법정형,무기징역,사형,검찰,미필,고의,살인,판단,검찰,A씨,B씨,성폭행,가능성,사망,가능,인식,상태,부작위,작위,살인,추락,피해자,방치,간접적,살해,살인,검찰,살인죄,적용,결과,법의학,감정,결정적,역할,교수,B씨,추락,가능성,A씨,외력,가능성</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3938,7 +4908,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락사,가해자,초기,진술,추락사,인하대,성폭행,가해자,초기,진술,영상,음성,인하대,캠퍼스,여성,동급,성폭행,건물,추락,혐의,기소,가해,남학생,창문,피해자,본인,취지,진술,법조,준강간살,혐의,구속,기소,인하대,A씨,조사,초기,경찰,성폭행,시도,창문,B씨,여성,진술,검찰,조사,기억,추락,상황,정확,검찰,사건,현장,조사,석좌교수,법의학자,이정빈,가천대,의과,대학,석좌,교수,경찰,수사,기록,피의자,진술,이날,성폭행,시도,창문,피해자,진술,다리,의미,의식,피해자,창문,추락,설명,사건,현장,발견,A씨,휴대전화,동영상,휴대,전화,성폭행,시도,직전,B씨,추락,상황,29분,음성,검찰,관계자,A씨,휴대전화,디지털,포렌식,결과,자동,동영상,촬영,중단,강제,촬영,종료,사실,확인,A씨,인천시,미추홀구,인하대,캠퍼스,5층,단과대,건물,B씨,성폭행,추락,혐의,B씨,2층,사이,복도,창문,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,건물,길가,혼자,건물,방치,행인,발견,병원,3시간</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,7 +4931,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>인하대,사건,남학생,피해자,인하대,교내,또래,여학생,성폭행,건물,추락,살해,혐의,기소,가해,남학생,창문,피해자,취지,진술,인하대,캠퍼스,동급생,성폭행,혐의,법조,준강간살,혐의,구속,기소,인하대,조사,초기,경찰,성폭행,시도,창문,B씨,여성,진술,검찰,사건,현장,조사,석좌교수,법의학자,이정빈,가천대,의과,대학,석좌,교수,경찰,수사,기록,피의자,진술,성폭행,시도,창문,피해자,진술,다리,의미,의식,피해자,바닥,1m6,높이,창문,추락,교수,피해자,윗배,창문틀,자국,발견,외벽,페인트,산화,물질,피해자,발견,피해자,창문,상태,창틀,추락,설명,A씨,검찰,조사,기억,추락,상황,정확,주장,사건,현장,발견,A씨,휴대전화,동영상,휴대,전화,성폭행,시도,직전,B씨,추락,상황,29분,음성,화면,휴대,전화,바닥,촬영,소리,녹음,동영상,초반,반항,B씨,음성,20분,가량,소리,녹음,추락음,A씨,목소리,얼마,휴대,전화,검찰,관계자,A씨,휴대전화,디지털,포렌식,결과,자동,동영상,촬영,중단,강제,촬영,종료,사실,확인,A씨,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,B씨,성폭행,추락,혐의,B씨,2층,사이,복도,창문,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,건물,길가,혼자,건물,방치,행인,발견,병원,3시간</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3974,7 +4954,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,인정,법정서,살인죄,전망,현장,조사,이정빈,교수,외력,추락사,가능성,검찰,추락사,인하대,성폭행,사건,피고인,살인죄,적용,법조,안팎,의견,살인,무리,주장,유죄,선고,전망,법조,인천지검,여성,아동,범죄,조사부,부장,구미옥,성폭력범죄,처벌,특례법,준강,간살,혐의,재학생,인하대,재학생,구속,기소,사건,인천지법,형사,부장,임은하,배당,재판,1일,새벽,인천,미추홀구,인하대,캠퍼스,5층,단과대,건물,여성,성폭행,추락,혐의,2층,사이,복도,창문,1층,추락,자취방,당일,경찰,체포,사건,수사,경찰,준강,간치사,혐의,적용,송치,검찰,보완수사,준강간살인,죄명,변경,준강간치사죄,유죄,인정,징역,무기징역,선고,준강간살인죄,법정형,무기징역,사형,경찰,살인,고의,검찰,미필,고의,살인,판단,미필,고의,살인,사망,가능성,예상,사망,인식,인정,경찰,살인죄,적용,검토,고의,치사죄,적용,판단,검찰,성폭행,가능성,사망,가능,인식,상태,부작위,작위,살인,추락,피해자,방치,간접적,살해,살인,행위,실행,상황,작위,행위,부작위,검찰,살인죄,적용,결과,법의학,감정,결정적,역할,검찰,사건,현장,조사,법의학자,이정빈,가천대,의대,석좌,교수,추락,가능성,외력,가능성,교수,제시,근거,사망,사망,혈중알코올농도,0.191,0.192%,복도,바닥,창문,높이,1m,두께,벽면,페인트,흔적,발견,교수,검찰,추락,복도,바닥,창문,높이,피해자,벽면,가능,미세,물질,검사,피해자,페인트,산화,물질,의견,제시,법조,안팎,무리,경찰,판단,정확,주장,준강간살인,유죄,선고,전망,형사,사건,전문,변호사,건물,복도,창문,인근,범행,장소,피고인,성폭행,시도,피해자,추락,인식,무리,변호사,피해자,신체,흔적,부검,결과,중요,증거,복도,창문,성폭행,시도,신체,접촉,피해자,추락,살인,유죄,선고,예상</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3992,7 +4977,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>반혼수상태,인하대,가해자,성폭행,추락,살인죄,적용,근거,검찰,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,살인죄,적용,결과,법의학,감정,작용,국민일보,검찰,사건,현장,조사,석좌교수,법의학자,이정빈,가천대,의과,대학,석좌,교수,피해자,추락,가능성,가해자,외력,가능성,교수,사망,피해자,사망,혈중알코올농도,0.191,0.192%,복도,바닥,창문,높이,1m,두께,피해자,벽면,페인트,흔적,발견,교수,피해자,추락,5시간,사망,병원,수액,혈액,투여,추락,직전,혈중알코올농도,사망,추정,세미코마,반혼수상태,의식,추락,복도,바닥,창문,높이,피해자,벽면,미세물질검사,피해자,페인트,산화,물질,승재현,한국,형사,정책,법무,연구원,박사,살인고,입증,사건,인천지검,공소,유지,검찰,기소,준강간살,혐의,무죄,대비,변경,추후,공소장,가능성,예비,청구,가능,소송,인천지검,여성,아동,범죄,조사부,부장,구미옥,경찰,준강간,혐의,송치,A씨,인하대,죄명,성폭력,범죄,처벌,특례법,강간,살인,혐의,변경,구속,기소,검찰,A씨,의식,피해자,상대,성폭행,시도,추락,사망,판단,A씨,인천시,미추홀구,인하대,캠퍼스,건물,학교,동급,성폭행,3층,추락,혐의,피해자,추락,1시간,건물,방치,행인,발견,병원,3시간,A씨,검찰,조사,성폭행,시도,사실,인정,추락,상황,추락,주장,검찰,관계자,A씨,피해자,추락,상황,취지,진술</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4010,7 +5000,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>대기업,부자,감세,공적,지원,축소,115년,폭우,전국,14명,목숨,6명,실종,15일,기준,반지하,서울,관악구,가족,3명,사망자,명단,포함,노동자,초등학생,노인,발달장애인,구성,가족,추모,재난,가혹,재난,불평등,심연,윤석열,대통령,100일,취임,취임,윤석열,정부,단어,대책,방향,이름,문장,단어,현실,비극,기업,노동자,대기업,영세기업,고소득자,저소득자,주류,소수자,불균형,조정자,정부,한마디,한마디,시민,변화,윤석열,정부,100일,부담,부담,태도,갈등,중재,중요,전문가들,정부,역할,10년,변화,평가,양상,심화,불평등,조정자,정부,역할,진단,박근혜,문재인,정부,실현,여부,정부,역할,다짐,박근혜,대통령,번째,2013년,3월,거시,정책,앞자리,문재인,대통령,정부,경제,정책,방향,2017년,7월,선도적,재정,투자,가계,소득,증대,약속,정세,교수,충남대,경제학,정부,중반,박근혜,대통령,노동,시장,개혁,추진,문재인,대통령,기업,활력,강조,방향,전환,격차,해소,정부,역할,부정,불평등,실태,불완전,정부,재분배,상위,20%,하위,20%,소득,비교,처분,소득,기준,배율,국민소득,고용,노동자,노동소득분배율,지표,그래픽,참조,초반,다소,개선,흐름,한국,사회,윤석열,정부,임기,시작,대통령,취임사,자유,35번,경축사,33번,불평등,자유,범람,불평등,부재,표현,100일,정책,세금,규제,대기업,부담,재정,운용,효율화,방점,노동자,회사,대기업,중소기업,갈등,제도,자율,해결,강조,대기업,초격차,규제,완화,여력,정부,시작점,세제,중심,감세,기조,법인세,최고,세율,인하,25%,22%,대표적,과세,표준,수혜,반도체,국가전략기술,대기업,세액공제율,8%,중견기업,수준,규제,기업,경제,활동,형벌,규정,완화,조직,경제형벌규정,TF,독과점,사업자,기준,완화,계획,경제정책방향,정부,대기업,부담,규제,반도체,첨단산업,초격차,경제정책방향,지원,글로벌,경쟁력,지원,이면,교육,지역,균형,해소,기업,양극,가치,후순위,교육부,양성,반도체,인재,수도,대학,정원,규제,완화,피해,지역,대학,반발,박상인,서울대,행정,대학</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,7 +5023,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D200" t="n">
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>은행,임금,정상적,수준,이민환,교수,인하대,글로벌,금융학,연봉,은행,연봉,우량,담보,대출,창출,정보,생산,키워야,리스크,관리력,시중,은행,노조,전국금융산업노동조합,임금,인상,요구,6년,총파업,준비,금융노조,6.1%,임금,인상,시간,근무,영업점,폐쇄,요구,코로나19,상황,순이익,떡고물,자신들,입장,일반,은행원,생각,시중,은행,과거,임원,성과급,1083억,지급,이익,증가,결실,임원들,금융,감독원,전자,공시,은행,임원,제외,직원들,세전,연간,평균,급여,일본,거대,은행,급여,미쓰이스미토모은행,평균,연봉,842만,8150만,미국,웰스파고은행,평균,연봉,보너스,포함,달러,씨티은행,달러,상황,장기,침체,일본,미국,1인,국내총생산,GDP,차이,한국,은행원,연봉,범위,은행장,금융,지주,회사,회장,차이,은행,대기업,종업원,성과급,부여,기업,주장,은행,역할,우리나라,은행,급여,불합리,정도,과다,금융,교과서,일반적,설명,은행,역할,화폐지급,금융중개,신용창조,가지,중요,금융중개,금융중개,흑자,주체,가계,조달,자금,적자,주체,기업,행위,행위,정보,생산,활동,사전,심사,사후,감시,수반,은행,다수,대출,계약,보유,리스크,평준화,가능,사전,심사,부실,가능,기업,대출,시행,지속적,감시,부실,미연,방지,손실,가능,은행,역할,수행,투자활동,국가,발전,원동력,우리나라,은행,정보,생산,수행,외환위기,특혜,금융,그늘,안주,은행들,사전,심사,사후,감시,충실,은행,파산,외환위기,규제,감독,강화,은행,그간,가계대출,담보,보증,대출,위주,신용,대출,시장,적극,진출,원가,예금,요구불예금,조달,자금,우량,대출,고객,대상,영업,수익,증가,연체,감소,금융,중소기업,대출,담보대출,보증,비중,증가,추세,담보,보증,의존,우리나라,은행,애초,정보,생산,리스크,최소화,리스크,부담,하이,리스크,하이,리턴,위험,고수익,리턴,리스크,하이,저위험,고수익,실현,기업,금융,밀접,은행,여타,금융업,공공재,성격,사회,후생,손실,판단,은행,규제,강화,글로벌,금융,위기,방지,도덕,해이,금융,기관,임원,조치,급여,제한,시행,은행,정보,생산,부활,은행,보증,대출,폐지,상호금융,지역,금융,기관,지역,중소기업,보증,지역,활성,금융,산업,발전,동시,달성,우리,나라,은행업,정보,생산,마지막,기회</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,7 +5046,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>의식,피해자,추락,추락사,인하대,성폭행,사건,피고인,참고,법의학자,이정빈,교수,소견,준강간치사,강간,변경,살인,죄명,검찰,인하대,성폭력,사망,사건,피고인,살인,고의,판단,배경,결과,법의학,감정,검찰,부검의,법의학,권위자,이정빈,가천대,의대,석좌,교수,소견,참고,살인,혐의,적용,A씨,본인,피해자,주장,법의학,취재,국민일보,종합,인천지검,여성,아동,범죄,조사부,부장검사,구미옥,교수,참여하,사건,현장,조사,소견,종합,애초,준강,간치사,송치,A씨,죄명,강간,살인,변경,피해자,혈중알코올농도,신체,페인트,물질,여부,A씨,녹음,사건,음성,파일,종합,결과,교수,가능성,피해자,가지,소견,검찰,교수,높이,사고,현장,창문,두께,주목,추락,사건,발생,복도,창문,창문,지상,높이,창문,건물,벽면,두께,가량,거리,외부,구조,사고,측정,피해자,혈중알코올농도,0.19%,교수,추락,혈중알코올농도,근거,피해자,교수,피해자,창문,바깥,자신,흔적,판단,피해자,현장,벽면,페인트,물질,발견,벽면,피해자,뒷받침,산화,반응,감지,녹음,파일,피해자,의식,피해자,추락,A씨,유형력,행사,일정,동반,A씨,피해자,추락,40~50초,추락,검찰,교수,A씨,현장,치료,결과,질문,교수,추락,장기들,다발,손상,진행,소견,검찰,부작위,살인,작위,살인,판단,구호,여부,피해자,추락,행위,자체,사망,초래,시작</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4064,7 +5069,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D202" t="n">
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>여학생,인하대,추락,창틀,자국,살인죄,적용,법의학,권위자,감정,소견,제출,피해자,창틀,자국,추락,검찰,살인,피고인,혐의,변경,피해,여학생,만취,사실,의식,상태,판단,피고인,성폭행,여학생,창틀,추락,피해자,창틀,자국,부검의,법의학,권위자,이정빈,가천대,의대,석좌,교수,지난달,발생,인하대,성폭행,사망,사건,소견서,법의학,감정,검찰,제출,확인,인천지검,여성,아동,범죄,조사부,부장,구미옥,감정,결과,바탕,준강간,치사,송치,혐의,강간,살인,변경,교수,동아일보,통화,피고인,주장,피해,학생,사고,발생,병원,측정,피해자,혈중알코올농도,0.191%,추락,혈중알코올농도,추정,교수,정도,농도,의식,상태,녹음,파일,피해자,의식,정황,피해자,추락,복도,창문,바닥,106cm,높이,벽면,두께,피해자,추론,뒷받침,피해자,창문,자신,흔적,교수,피해자,현장,벽면,페인트,물질,발견,벽면,피해자,뒷받침,산화,반응,감지,검찰,성폭행,피해자,추락,사망,초래,시작,재판,피해자,고의적,추락,치열,공방,예상</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4082,7 +5092,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>인재풀,인천,시민,강사,인재풀,발대식,학습,경험,지혜,공유,현장,명장,마련,독특,레시피,성공,요리전문가,농법,보급,사람,포함,인천,전문,지식,경험,경력,시민,교수,자격,평생,학습,무대,인천,인재,평생,교육,진흥원,지역,사회,전반,초빙,전문가들,인재풀,어진인,내달,발대식,가동,관내,평생,교육,시민,대학,라이프,칼리지,프로그램,멘토,비전,메이커,활동,예정,진흥원,라이프칼리지,지역,대학,연계,시민들,교육,인프라,제공,플랫폼,인천대,시민,캠퍼스,인하대,청년,시민,캠퍼스,대학,강의실,마련,특성화,캠퍼스,학생들,지식,100시간,강좌,시간,수료,명예,시민,학사,학위,진흥원,생활,밀착,분야,학력,경력,자격,제한,본인,모범사례,선발,지혜,자기,주도,학습,동기,부여,희망,메시지,전달,역할,지역,역사,문화,토대,독창적,작품,작가,예술가,포함,복지,종교,보건,의료,패션,미용,건축,제조,스포츠,망라,성공,스토리,시민들,강단,진흥원,어진인들,노하우,콘텐츠화,지원,평생,학습,문화,선순환,준비,원장,진흥원,김월용,어진인,체계적,시민강사,발굴,육성,일상,분위기,자발,학습,여건,시민대학,세대,지역,격차,공감,실현,전망</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4100,7 +5115,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>준강간,살인,적용,여대생,페인트,검찰,피고인,살인죄,적용,검찰,추락사,인하대,성폭행,사건,피고인,살인죄,적용,법조,인천지검,여성,아동,범죄,조사부,구미옥,부장검사,성폭력범죄,처벌,특례법,준강,간살,혐의,인하대,구속기소,살인,무리,주장,유죄,선고,전망,A씨,캠퍼스,새벽,시간,인천시,미추홀구,인하대,5층,단과대,건물,B씨,여성,성폭행,추락,혐의,B씨,2층,사이,복도,창문,1층,추락,자취방,당일,경찰,체포,경찰,A씨,살인,고의,검찰,미필,고의,살인,판단,미필,고의,살인,사망,가능성,예상,사망,인식,인정,경찰,살인죄,적용,검토,A씨,고의,B씨,치사죄,적용,판단,경찰,관계자,내부,변호사,상의,살인죄,적용,검찰,살인죄,기소,법원,판단,검찰,보완수사,준강간살인,죄명,변경,사건,수사,경찰,준강,간치사,혐의,적용,A씨,송치,검찰,보완수사,준강간살인,죄명,변경,준강간치사죄,유죄,인정,징역,무기징역,선고,준강간살인죄,법정형,무기징역,사형,검찰,A씨,B씨,성폭행,가능성,사망,가능,인식,상태,부작위,작위,살인,추락,피해자,방치,간접적,살해,살인,현장,조사,이정빈,교수,외력,추락사,방점,검찰,살인죄,적용,결과,법의학,감정,작용,검찰,사건,현장,조사,법의학자,이정빈,가천대,의과,대학,석좌,교수,B씨,추락,가능성,A씨,외력,가능성,교수,제시,근거,사망,B씨,사망,혈중알코올농도,0.191,0.192%,복도,바닥,창문,높이,1m,두께,B씨,벽면,페인트,흔적,발견,교수,피해자,추락,5시간,사망,병원,수액,혈액,투여,추락,직전,혈중알코올농도,사망,세미코마,반혼수상태,의식,추정,추락,복도,바닥,창문,높이,피해자,벽면,미세물질검사,피해자,페인트,산화,물질</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4118,7 +5138,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>여대생,성폭행,추락,여대,페인트,살인죄,결정적,검찰,피고인,인하대,성폭행,추락사,사건,살인죄,적용,법조,인천지검,여성,아동,범죄,조사부,구미옥,부장검사,성폭력범죄,처벌,특례법,준강,간살,혐의,인하대,구속기소,사건,수사,경찰,준강,간치사,혐의,적용,A씨,송치,검찰,보완수사,준강간살인,죄명,변경,보도,이날,국민일보,이정빈,가천대,의대,석좌,교수,소견,법의학,감정,죄명,변경,배경,피고,피해자,주장,법의학,3가지,반박,단서,창문,높이,두께,추락,사건,발생,장소,복도,창문,창문,높이,창문,건물,두께,사고,피해자,혈중,알코올,농도,0.19%,교수,정도,상태,단서,피해자,투신,창문,피해자,현장,벽면,페인트,물질,발견,벽면,조사,피해자,흔적,반응,부작위,단서,작위,가해자,피해자,추락,현장,치료,부작위,살인,의견,교수,추락,추락,장기들,다발,손상,부작위,살인,작위,살인,판단,사건,인천지법,형사,임은하,부장판사,배당,재판,1일,추락,피해자,과실,가해자,고의,형량,치열,법정,공방,예상</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4136,7 +5161,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D206" t="n">
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>출범,윤석열,행정부,정책,윤석열,행정부,사회,조금,정책관,다원화,세기,정책,생태,이해,요체,정책,결정,집행,국민,혼선,어려움,사실,직시,최종,의사,결정,당사자,각계,의견,논의,숙의,인식,윤석열,행정부,총체,난맥상,국정,전반,위기,경보,인사,실패,내각,공백,사면초가,무방향,외교,시대착오적,경제처방,교육,노동,사회,정책,혼선,열거,대선,승리,내홍,집권,여당,난맥상,한마디,윤석열,통치,모양새,역대급,대통령,지지율,상황,압축,상징,여권,정책,홍보,부족,정무,감각,부재,원인,대통령실,정무,보강,홍보,라인,수습책,핵심,한참,표피적,진단,난맥상,초래,요인,정책,난조,100일,정권,출범,난조,방위,정책,정부,행정부,난조,다발,정책,윤석열,대통령,행정부,정책결정자들,정책관,정책빈곤,연유,대한민국,정책,생태,몰이해,근본,요인,행정부,문재인,행정부,역대,행정부,사례,정책,실패,확인,행정부,몰이해,영역,정도,대통령,정책결정자들,정책,생각,경향,정치권,정책,태도,대선,태도,정책,즉흥적,결정,국민,호명,정작,국민,직결,정책,결정,태도,날림,정책,조기,입학,정책,결정,박순애,박순애,교육부,장관,보고,자리,대통령,강구,지시,대통령,교육부,장관,머릿속,정책,추진,사람들,아이들,학부모,어린이집,유치원,이해당사자들,결과,대로,정책생태계,교육정책,보육,일자리,정책,사회,교육문제,속성,이해,행정부,무모,정책,자연,생태,먹이사슬,생태계,정책,형성,결정,집행,정책,행위자,환경,구성요소들,영향,작용,작용,총체,정책생태계,정책,은유,직시,메시지,단순,세상,사회,해결,정책,결정,집행,요소,사회,해결,시작,김승섭,서울대,교수,정책,속성,정책생태계,핵심,표현,정책,사회문제,이해관계,안팎,요소,작동,사람들,행위자,사이,대립,갈등,타협,상호작용,정책,본질,정치,매개,실현,속성,설득,상호비판,의사소통,필수적,수반,정책결정자들,명제,간과,실패,정책,혼선,단순,명제,무시,결과,정책,실패,정책생태계,실패,정치,실패,칼럼,한차례,언급,한국,정책생태계,민주,구조변동,대통령,관료들,일방적,정책,결정,정책생태계,생산,소비,유통,국회,정당,법원,노사,시민단체,학계,언론,주체,참여,다원화,형태,대통령,정권,지지,정책,연계,여론,변동,대통령,청와대,대통령실,영향력,정책,주도권,정당,국가,유럽,의원,내각,한국,정책,생태,대통령,청와대,정책,결정,권한,집중,권한,정책생태계,몰이해,발휘,결정,대통령,리스크,청와대,대통령실,리스크,직면,한국,사회,진보,보수,정부,5년,리스크,반복,경험,대선,전후,실망,집단,트라우마,반복,윤홍식,인하대,교수,대통령,정책관,이해,여부,메커니즘,행정부,사회,조금,정책관,다원화,세기,정책,생태,이해,요체,정책,결정,집행,국민,혼선,어려움,사실,직시,최종,의사,결정,당사자,각계,의견,논의,숙의,인식,기후위기,디지털화,상징,정책,환경,숙의,정책,중요,결정,정책,결정,급변,변화,대응,중요,국가,정책,결정,능사,기록적,폭우,인명피해,서울시,정부,주택,침수,대책,반지하,가족,사람,8일,오세훈,서울,시장,참사,이틀,지하,반지하,주거,목적,20년,주택,주거,정책,대응,정책,서울시,다수,전문가,반지하,검토,대책,비판,정부,서울시,지하,주택,실상,전수,실태,조사,정부,서울시,계층,가구,조건,결과,인구,주택,조사,바탕,집계,수치들,대책,주택,사람,상습,침수,지역,현장,상황,가구,기초,생활,보장,수급,실상,실태,진단,근거,정책,서울시,2010년,대책,재탕,가지,국토교통부,생명,공공임대주택,확대,이달,출범,행정부,대한민국,시민,안전,생명,민생,직결,중요,정책,결정,집행,4년,개월,윤석열,행정부,난조,다발,정책,보수정부,경험,부족,무능력,치부,정책,실패,혼선,국민,감내,정부,출범,초기,난조,전화위복,대통령,정책,이해,대통령,포함,정책결정자들,행정부,정책,결정자,구체적,정책의제,사람들,의사,정책소통,주문,대통령,출근길,도어스테핑,약식,기자회견,즉문즉답,정책소통,소통,윤석열,대통령,정부,약속,이창곤,선임기자,논설위원,선임,논설,위원,사회,정책,박사,복지,중심,노동,주거,환경,사회,정책,이슈,관심,기동취재팀장,지역편집장,부국장,한겨레사회정책연구소장,한겨레통일문화재단,상임,이사,한겨레경제사회연구원장,역임,불평등,복지국가,생태위기,이슈,시대,핵심,의제화,복지국가,사람들,한국,복지국가,공저,성공,나라,불안,시민,공저</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,7 +5184,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D207" t="n">
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>의식,인하대,피해자,자진,추락,법의학,검찰,강간,살인,적용,배경,소견,이정빈,석좌,교수,참고,작위,검찰,인하대,성폭력,사망,사건,피고인,살인,고의,판단,배경,결과,법의학,감정,검찰,부검의,법의학,권위자,이정빈,가천대,의대,석좌,교수,소견,참고,살인,혐의,적용,A씨,본인,피해자,주장,법의학,취재,국민일보,종합,인천지검,여성,아동,범죄,조사부,부장검사,구미옥,교수,참여하,사건,현장,조사,소견,종합,애초,준강,간치사,송치,A씨,죄명,강간,살인,변경,피해자,혈중알콜농도,신체,페인트,물질,여부,A씨,녹음,사건,음성,파일,종합,결과,교수,가능성,피해자,가지,소견,검찰,교수,사고,현장,창문,높이,두께,주목,추락,사건,발생,복도,창문,창문,지상,높이,창문,건물,벽면,두께,가량,거리,외부,구조,사고,측정,피해자,혈중알코올농도,0.19%,교수,추락,혈중알콜농도,근거,피해자,교수,피해자,창문,바깥,자신,흔적,판단,피해자,현장,벽면,페인트,물질,발견,벽면,피해자,뒷받침,산화,반응,감지,녹음,파일,피해자,의식,피해자,추락,A씨,유형력,행사,일정,동반,A씨,피해자,추락,40~50초,추락,검찰,교수,A씨,현장,치료,결과,질문,교수,추락,장기들,다발,손상,진행,소견,검찰,부작위,살인,작위,살인,판단,구호,여부,피해자,추락,행위,자체,사망,초래,시작,재판,과실,고의,치열,공방,예상,강간,살인,인정,법정형,사형,무기징역,교수,미필적,판단,소견</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4172,7 +5207,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>대입,자기소개,최선,교육부,개편방안,학년도,대학,입학,제도,개편,방안,고교,교육,혁신,방향,토대,자기소개서,학년도,대입,자기소개,자소서,문항,4문항,3문항,글자,축소,2023학년도,서울과기대,세종대,숙명여대,이화여대,인천대,인하대,홍익대,세종대,차의과학대,한성대,자소서,폐지,9월,원서접수,대입,수시,모집,원서,접수,시작,수시,모집,기간,자소,레슨,포인트,공통,자율,문항,이해,자소서,공통,문항,자율,문항,구성,공통,문항,3문항,2문항,글자,축소,자소서,지원자,자질,역량,관심,스스로,소개,수험,입장,입학,수학,선택,목적,대학,입장,지원자,대학,선발,목적,적합,판단,전형,자료,자소서,성적,단순,활동,목록,지원자,확인,자료,평가,중요,활용,학교생활기록부,학생부,비교과,영역,위주,기록,자소서,사실,성취,스토리,파악,활동,실적,유무,기록,태도,자세,진학동기,학업계획,발전,가능,확인,학생부,개인,성장,환경,특성,평가자,제공,전형,요소,자소서,면접,여름방학,완성,초고,단언,종합전형,전형,수시,모집,핵심,자소,위촉사정관,교수,학생부,독해,평가,자소서,학생부,행간,중요,활동,파악,자소서,학생부,자소서,항목,자소서,지원자,핵심,학교,활동,학생부,나침반,구실,자소,글자,항목,800자,항목별,소재,글자,1.5,2배수,1500자,1000자,1000자,1500자,파워,라이팅,기본,원리,대로,초고,논리적,순서,배열,자소,정답,해답,동기,결과,의미,변화,5단계,논리,정합,중요,1500자,문장,정도,문장,80자,100자,단문,장문,변주,동기,계기,소개,문장,과유불급,동기,학교활동,종합전형,지원,학과,지원동기,전제,동기,학교,수업,전제,상위,학생,오류,활동,동기,수업,우연,계기,공부,학생,학생,평가자,학자,탐구,서사,구성,활동,호기심,심화탐구활동,연계,확장,심화,심화탐구활동,소논문,교과연계활동,학교활동,연계,평가자,중계,동기,제시,호기심,학생,그림일기식,나열,평가,결과,동기,산출,구체적,구체,노력,자소서,평가,요소,지원자,구체적,활동,역할,구체,노력,명심,의미,자소서,항목,의미,정성적,정량적,수학,호기심,활동,수학,동아리,동아리,보고서,수학,성적,정량,의미,수학,공부,정성,의미,기재,동기,출발,호기심,심화탐구활동,연계,지식,확장,자신,역할,의미,의미,의미,느낌,각오,깨달음,평가,마지막,변화,변화,자소,화룡점정,의미,단락,문장,단순,느낌,변화,단락,변주,형식,단계,전환,독자,환기,자소,변화,단락,변주,자소,평가자,만점,효과,변화,생각,변화,표현,실천,적용,행동,후속활동,추후연계활동,봉사활동,봉사활동,의미,마무리,깨달음,봉사,활동,캠페인,봉사,동아리,조직,방식,자율활동,강의,생명,과학,교수,진로탐색,후속활동,독서,처리,강조,생각,행동,역량,변화,마지막,단락,매조,평가자,지원자,성장,이해,자소서,서사,구성,호기심,심화탐구활동,지식,확장,역량,변화,이해,8월,여름,방학,자소,초고,완성,부족,활동,2%,평가자,관심,정보,중심,나열형,자소서,천적,자소,문항,평가자,답변,지원자,대학,진학,공부,고등학교,공부,활동,평가자,고등학교,기록,학생부,의미,평가자,지원자,등록,학업,역량,관심사,지원자,이야기,관심,히어,나우,앤드,이야기,지원,모집단위,노력,준비,구체적,노력,양적,표현,욕심,깊이,활동,위주,나열형,자소,천적,최소,문장,학생부,문항,지원자,친구,동료,성과,서술,소재,활용,봉사,활동,400자,동아리,활동,소재,단순,나열,활동,서술,활동,분절,연계,평가,유의,문항,여름방학,자소서,작성,교정,촉박,대학,자율,문항,문항,마무리,부실,제출,수험생,공통,문항,1,,준비,대학,요구,작성,문항,소홀,측면,대학,지원동기,노력,준비,포함,문항,관심,문항,작성,토대,문항,1,,연계,논리,완결,단축,문항,서울대,단순,독서감상문,지원동기,서사,중앙대,추가적,학생부,기재,지원자,우수성,사례,지원동기,노력,문항,지원동기,학업계획,진로계획,독서활동,800자,작성,문항,학업계획,진로계획,대학,입학,공부,진로,실현,대학,준비,그림,1학년,경영학원론,공부,2학년,3학년,4학년,커리큘럼,나열,지원동기,과목,특징,학업계획,학과,누리집,전공,가이드북,참고,핵심,역량,인재상,핵심어,자소서,평가자,문항,지원자,학업,역량,전공,적합,발전,가능,종합</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,7 +5230,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D209" t="n">
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>명단,검찰,총장,후보,7명,현직,고검장,압축,윤석열,정부,검찰,총장,후보군,검찰총장후보추천위원회,16일,지난달,국민,천거,총장,후보자,추천,법무부,주말,총장,후보,추천,현직,2명,검찰,출신,9명,명단,전달,현직,고검장,명단,출신지,대학,경력,각양각색,현직,후보,여환섭,사법연수원,24기,법무연수원장,김후곤,25기,서울고검장,노정연,25기,부산고검장,이두봉,25기,대전고검장,이주형,25기,수원고검장,조종태,25기,광주고검장,이원석,27기,대검,차장,검사,고검장급,이름,여환섭,고검장,출신,경북,김천,김천고,연세대,법대,졸업,2과장,1,2과장,대검,중수부,과장,서울중앙지검,특수,부장,대표적,특수통,분류,2과장,대검,중수,사건,파이,시티,이명박,이상득,대통령,의원,알선,수재,혐의,형사처벌,입찰,담합,비리,의혹,수사,김후곤,고검장,출신,경남,남해,경동고,동국대,법대,졸업,고검장,수원지검,특수,부장,서울중앙지검,특수,부장,특수통,검사,대검,대변인,법무부,기조실장,대구지검장,역임,검찰,내부,비윤,非尹,검수완박,입법,국면,검찰,목소리,대변,후배들,신망,중앙여고,이대,법학,출신,여성,고검장,노정연,고검장,부친,남편,검사장,출신,법조인,집안,서울서부지검장,정의연,후원금,유용,의혹,제기,윤미향,의원,수사,재판,시절,윤석열,검찰,총장,대검,공판,송무,부장,대통령,성남지청,수원지검,성남,지청,근무,시절,카풀,출신,강원,양양,강릉고,서울대,법대,졸업,이두봉,고검장,특수통,검사,대통령,대검,중앙,수사부,호흡,대통령,신설,서울,중앙지검장,시절,4차장,검사,기용,수석,차장,검사,1차장,측근,분류,대전지검장,시절,1호,월성,원전,경제,평가,조작,의혹,수사,강도,진행,이주,고검장,대구,출신,경원고,고려대,법대,졸업,대구지검,검사,생활,시작,서울중앙지검,형사,부장,서울남부지검,의정부지검장,울산지검장,수원지검,특수,부장,특별,수사,경력,형사,분야,잔뼈,조종태,고검장,출신,경남,함안,마산중앙고,서울대,국어국문학과,졸업,수원지검,검사,생활,시작,법무부,범죄,예방,기획,과장,법무부,정책,기획단장,성남지청장,춘천지검장,대검,기획,조정부장,요직,역임,검수완박,입법,국면,목소리,추진,의원,김용민,민주당,국민,문자,논란,출신,전남,보성,중동고,서울대,정치학과,졸업,이원석,차장,검사,대표적,특수통,윤석열,사단,검사,김오수,검찰총장,퇴임,검찰,총장,직무,대리,검찰,조직,안정적,신뢰,대통령,연수원,기수,후보,검찰,내부,조직,안전,연속성,차원,차장검사,총장,효율,얘기,2명,외부,인사,구본선,검찰,출신,차맹기,명단,총장,후보,검찰,출신,구본선,23기,광주고검장,차맹기,24기,의정부지검,고양지청장,이름,인천,출신,인하대사대부고,서울대,교육학과,구본선,고검장,대표적,기획통,검사,대통령,연수원,동기,대검,중수부,론스타,수사,대통령,검찰,총장,시절,대검,차장,보좌,출신,경남,밀양,창원고,서울대,법대,차맹기,지청장,차맹기,이명박,대통령,BBK,의혹,특검,대통령,인연,검사장,승진,검찰,김앤장,법률,사무소,김진태,검찰총장,위원장,총장후보추천위원회,회의,정도,후보자,장관,전달,장관,1명,대통령,제청,절차,국회,인사,청문회,총장,중순쯤,취임</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,7 +5253,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,인정,살인죄,법정서,추락사,인하대,성폭행,사건,피고인,검찰,적용,살인죄,법조,안팎,의견,살인,무리,주장,유죄,선고,전망,법조,인천지검,여성,아동,범죄,조사부,구미옥,부장검사,성폭력범죄,처벌,특례법,준강,간살,혐의,인하대,구속,기소,인하대학교,캠퍼스,동급생,성폭행,추락,사망,남학생,인천지법,인천시,미추홀구,구속,피의자,심문,영장실질심사,사건,인천지법,형사,임은하,부장판사,배당,재판,1일,A씨,캠퍼스,새벽,시간,인천시,미추홀구,인하대,5층,단과대,건물,B씨,여성,성폭행,추락,혐의,B씨,2층,사이,복도,창문,1층,추락,자취방,당일,경찰,체포,사건,수사,경찰,준강,간치사,혐의,적용,A씨,송치,검찰,보완수사,준강간살인,죄명,변경,준강간치사죄,유죄,인정,징역,무기징역,선고,준강간살인죄,법정형,무기징역,사형,경찰,A씨,살인,고의,검찰,미필,고의,살인,판단,미필,고의,살인,사망,가능성,예상,사망,인식,인정,경찰,살인죄,적용,검토,A씨,고의,B씨,치사죄,적용,판단,경찰,관계자,내부,변호사,상의,살인죄,적용,검찰,살인죄,기소,법원,판단,검찰,A씨,B씨,성폭행,가능성,사망,가능,인식,상태,부작위,작위,살인,추락,피해자,방치,간접적,살해,살인,행위,실행,상황,작위,행위,부작위,검찰,관계자,3층,창문,사이,복도,추락,위험,상황,성폭행,시도,살해,목적,자신,행위,피해자,사망,가능,인식,예견,살인죄,적용,가능,법조,안팎,무리,경찰,판단,정확,주장,준강간살인,유죄,선고,전망,형사,사건,전문,변호사,결국,과실,고의,건물,복도,창문,인근,범행,장소,피고인,성폭행,시도,피해자,추락,인식,무리,변호사,언론,공개,증거,성폭행,시도,상황,피고인,피해자,위치,건물,정황,검찰,살인죄,적용,피해자,신체,흔적,부검,결과,중요,증거,복도,창문,성폭행,시도,신체접촉,피해자,추락,살인,유죄,선고,예상</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4226,7 +5276,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D211" t="n">
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>정부,지출,내년,본예산,감축,예상,해외,경제브리핑,규모,한강로,확보,재정,건전,윤석열정부,내년,본예산,지출,규모,2차,추가,경정,예산,포함,지출,축소,코로나19,사태,자리,확장,재정,기조,나랏빚,증가,만큼,당장,내년,행동,풀이,정부,대대적,지출,구조,조정,삭감,장차관,고위,공무원,보수,예산,인하,법인세,최고,세율,내년,조치,각종,감세,예고,경기,침체,상황,사회안전망,예산,사회,안전망,축소,취약계층,어려움,가중,지적,추경호,배추,유형재,장관,추경호,경제,부총리,기획,재정부,안반데기,강원,강릉시,왕산면,출하,진행,작황,고랭지,배추,점검,yoo21,yna.co.kr,16:00:05,부총리,내년,본예산,규모,추경,포함,수준,기획재,정부,장관,추경호,부총리,기재부,고랭지,배추,재배지,안반데기,강원도,강릉,방문,자리,예산,편성,지출,그해,증가,상태,예산,편성,내년,본예산,추경,포함,규모,수준,추경,포함,지출,679조,수준,예산,편성,예산,총지출,전년,지출,전년,2010년,13년,윤석열,대통령,주재,국가재정전략회의,정부,내년,관리,재정,수지,적자,국내총생산,GDP,대비,3.0%,관리,증가율,만큼,총지출,증가,수준,중반,결정,가능성,전망,규모,본예산,총지출,607조,기준,증가율,5%,설정,내년,지출,638조,6%,644조,수준,나랏빚,증가세,재정,다이어트,사회안전망,예산,축소,부작용,우려도,정부,긴축,모드,증가세,나랏,문재,인정부,첫해,국가,채무,660조,추경,기준,연말,나랏빚,1068조,전망,국가채무비율,GDP,대비,국가,채무,비율,36.0%,49.7%,급증,예측,정부,방위적,재정,다이어트,계획,기준,정도,편성,재량지출,10%,정도,절감,대대적,작업,지출,구조,조정,진행,정부,보조사업,민간,보조,사업,440개,점검,사업,폐지,사업,감축,정부,장차관급,장차관,고위,공무원,임금,동결,10%,반납,국유재산,유휴,저활용,재산,5년,매각,예정,인하,법인세,최고,세율,5년,60억,정도,세수,감소,예상,긴축,급속,전환,부작용,초래,정부,총지출,사회,복지,분야,32.1%,195조,비중,사회안전망,예산,만큼,각종,사회,안전망,축소,세계적,경기,침체,한국,내년,경제,성장,2.0%,한국개발연구원,설문조사,예측,상황,축소,복지,예산,취약계층,위기,가속화,지적,강병구,인하대,경제학,교수,정부,추진,재정,지출,효율화,필요성,국면,경기,침체,재정,축소,재정,경기,안정,약화,지적,교수,대기업,자산가,고소득층,감세,정책,부자감세,평가,경기,사회,여유,계층,집단,세금,취약계층,사회안전망,고용안전망,재원,고용,안전망,지적,총재,이창용,한국은행,서울,여의도,국회,기획,재정,위원회,회의,업무보고,빅스텝,국회,사진,기자단,한은,정기예,적금,시중,자금,머니무브,가속화,지난달,한국은행,사상,빅스텝,기준,금리,0.5%,포인트,인상,은행,정기,적금,시중,자금,주식,부동산,시장,침체,위험자산,뭉칫돈,상대적,금리,안정성,담보,정기예,적금,집중,머니무브,금융권,은행,시중,KB국민,NH농협,정기,예금,잔액,718조,기준,지난달,6조,증가,정기,적금,잔액,기간,38조,집계,정기예,은행,정기,적금,지난달,42일,34조,급증,은행,상반기,은행,적금,증가액,32조,규모,빅스텝,시중,은행,적금,금리,최대,0.90%,포인트,인상,과거,기준,금리,인상,수신,예금,조정,금리,상향,경쟁,예금,유치,치열,은행들,인상,당일,다음날,수신,금리,상황,한은,금융,통화,위원회,통화,정책,방향,회의,기준금리,2.25%,0.25%,포인트,베이비스텝,예금금리,시중,은행,예금,금리,시대,관측,공시,이날,은행,연합회,은행,판매,정기예금,만기,정기,예금,적금,금리,우대,기준,적용,단리,3.60%,5.5,0%,게티이미지뱅크,해외송금,게티,이미지,뱅크,해외,송금,8조,규모,가상화폐,거래소,차익,거래,자금세탁,가능,은행,액수,해외송금,8조,65억,달러,금융당국,거래소,가상,화폐,김치,프리미엄,차익거래,자금세탁,가능성,자금,금융감독원,은행,검사,확대,금감원,기준,이달,신한은행,확인,액수,해외송금,33억,달러,은행,자체,점검,확인,액수,31억,달러,의심,65억,달러,원래,예상,7조,53억,달러,액수,금감원,신한은행,이달,검사,의심거래,해외,송금,의심,거래,파악,여타,은행,추가,검사,예정,은행들,자체,점검,가상,자산,거래소,연계,계좌,운영,은행,입금,거래,업체,대표,업체,실재,의심,사례,발견,거래당사자,제3자,거래,당사자,송금,한국은행,신고,법규,위반,업체,업력,규모,대비,송금,사례,파악,금감원,검찰,국가정보원,수사기관,사건,주시,대구지검,특정금융거래정보,보고,이용,법률,외환,관리법,위반,혐의,송금,해외,관여,유령,법인,관계자,구속,서울중앙지검,국제,범죄,수사부,금융정보분석원,FIU,금감원,외화,거래,자료,자금,흐름,추적,김치,프리미엄,차익거래,가상,자산,거래소,자금세탁,불법,범죄,자금,연관,가능성,국정원,흐름</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,7 +5299,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>정부,본예산,축소,편성,허리띠,정부,내년,본예산,지출,규모,2차,추가,경정,예산,포함,지출,축소,감염증,신종,코로나바이러스,코로나19,사태,확장재정,나랏빚,증가,내년,만큼,당장,재정,건전,확보,정부,대대적,지출,구조,조정,삭감,장차관,고위,공무원,보수,예산,인하,법인세,최고,세율,내년,조치,각종,감세,예고,경기,침체,상황,사회안전망,예산,사회,안전망,축소,취약계층,어려움,가중,지적,장관,추경호,경제,부총리,기획,재정부,강릉,강원도,위치,고랭지,배추,방문,배추,생육,상태,점검,기획,재정부,제공,기획재,정부,장관,추경호,부총리,기재부,고랭지,배추,재배지,안반데기,강원도,강릉,방문,자리,예산,편성,지출,그해,증가,상태,예산,편성,내년,본예산,추경,포함,규모,수준,추경,포함,지출,679조,수준,예산,편성,예산,총지출,전년,지출,전년,2010년,13년,윤석열,대통령,주재,국가재정전략회의,정부,내년,관리,재정,수지,적자,국내총생산,GDP,대비,3.0%,관리,증가율,만큼,총지출,증가,수준,중반,결정,가능성,전망,규모,본예산,총지출,607조,기준,증가율,5%,설정,내년,지출,638조,6%,644조,수준,정부,긴축,모드,증가세,나랏,문재,인정부,첫해,국가,채무,660조,추경,기준,연말,나랏빚,1068조,전망,국가채무비율,GDP,대비,국가,채무,비율,36.0%,49.7%,급증,예측,정부,방위적,재정,다이어트,계획,기준,정도,편성,재량지출,10%,정도,절감,대대적,작업,지출,구조,조정,진행,정부,보조사업,민간,보조,사업,440개,점검,사업,폐지,사업,감축,정부,장차관급,장차관,고위,공무원,임금,동결,10%,반납,국유재산,유휴,저활용,재산,5년,매각,예정,인하,법인세,최고,세율,5년,60억,정도,세수,감소,예상,긴축,급속,전환,부작용,초래,정부,총지출,사회,복지,분야,32.1%,195조,비중,사회안전망,예산,만큼,각종,사회,안전망,축소,세계적,경기,침체,한국,내년,경제,성장,2.0%,한국개발연구원,설문조사,예측,상황,축소,복지,예산,취약계층,위기,가속화,지적,강병구,인하대,경제학,교수,정부,추진,재정,지출,효율화,필요성,국면,경기,침체,재정,축소,재정,경기,안정,약화,지적,교수,대기업,자산가,고소득층,감세,정책,부자감세,평가,경기,사회,여유,계층,집단,세금,취약계층,사회안전망,고용안전망,재원,고용,안전망,지적</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,7 +5322,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>한국,강조,K-힙,확산,기업,박물관,러브콜,직장인,고예진,요즘,약과,막걸리,쉐이크,막걸리,쉐이크,생각,유튜브,레시피,고씨,K-힙,음식,물론,굿즈,한국적,개성,전통,의미,한국,강조,일명,인기,전통,경험,가치,소비,중시,MZ세대,1980년대,2000년대,출생,특성,고유,개성,감각,최신,유행,한국,느낌,가미,노력,트렌드,유통,기업,한국,느낌,가미,제품,출시,미국,버거,브랜드,쉐이크쉑,헤리티지,지난달,코리안,Korean,Heritage,주제,한정판,메뉴,버거,370년,전통,기순,명인,가문,씨간장,첨장,진장,원료,활용,헤리티지,이름,버거,궁채,장아찌,명인,진장,활용,감칠맛,제품,상반기,출시,한정,메뉴,판매,48%,차지,세븐일레븐,지난달,마패,티머니,교통,카드,조선,시대,암행어사,마패,모습,착안,마패,현대적,재해석,상품,1억,텀블벅,펀딩시,제품,서울관광재단,주최,서울,상징,관광,기념품,공모전,대상,수상,MZ세대,중심,SNS,소셜네트워크서비스,컨텐츠,국립박물관문화재단,제품,굿즈,전통,시도,임금,곤룡포,무늬,곤룡포,세트,반가사유상,미니어처,인기,국립박물관문화재단,유통,업체,협업,문의,국립박물관문화재단,관계자,12일,분야,콜라보,요청,의류,업체,반가사유상,로고,제의,연예인들,사용,유명,핸드폰,케이스,업체,전통,무늬,활용,제의,검토중,국립박물관문화재단,매출,11배,증가,대비,상반기,전년,동기,대비,매출,33%,정도,국립박물관문화재단,매출,30~40%,MZ세대,파악,하이트진로음료,브랜드,국립,박물관,상품,뮷즈,MU,DS,협업,국립중앙박물관,국립경주박물관,상품관,온라인,뮤지엄숍,일정,액수,구매,고객,블랙보리,제품,증정,방식,가마솥,보리숭늉,현대화,블랙보리,국립,박물관,상품,대표,뮷즈,고유,문화,계승,일상,공통,분모,협업,성사,출시,30만,제품,전통주,시장,MZ세대,전통주,관심,주류,메인스트림,발돋음,신세계백화점,지난달,SSG,닷컴,쓱닷컴,백화점몰,전문관,오프라인,매장,막걸리,팔팔막걸리,MZ세대,겨냥,제품,판매,쓱닷컴,니모메,배도가,SNS,소셜네트워크서비스,인기,제품,계룡,백일주,무작,한산소곡화주,상반기,신세계백화점,전통주,매출,전년,동기,대비,51%,영향,세대,고객,48%,,63%,증가,롯데마트,상반기,전통주,누계,매출,50%,전년,대비,50%,MZ세대,스파클링,막걸리,6월,140%,매출,140%,이외,요리연구,백종원,백걸리,프리미엄,막걸리,가수,임창정,참여,임창정미숫가루꿀막걸리,막걸리,시장,한국농수산식품유통공사,2016년,3000억,원대,막걸리,소매,시장,규모,5000억,돌파,막걸리,선호,MZ세대,겨냥,제품,인기,파리바게뜨,서울장수,막걸리,브랜드,서울,장수,비알콜,장수,막걸리,쉐이크,막걸리향,첨가,이색,메뉴,평가,출시,30만,이은희,인하대,소비자학,교수,K팝,K드라마,한국적,세계적,인기,SNS,MZ소비자들,외국인,고유,한국적,자부심,생각,소통,유통가,한국적,모티브,상품,적용,차별화,시도</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,7 +5345,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>한성우,교수,사위질빵,줄기,초근목피,독초,식물,나물,독성,나물,사위질빵,나물,사위질빵,수레나물,사위질빵,이야기,사위질빵,사위,질빵,질빵,질빵,지게,어깨,바지,멜빵,방법,단어,본래,북한,질방,문헌,사전,사위,질빵,사위,질빵,이야기,처가,추수,사위,장모님,지게,질빵,마디,질빵,사위,걱정,장모님,사랑,질빵,남편,아들,무언,압력,장인,처남들,누이,부탁,사위,며느리,며느리밑씻개,가시,며느리,등골,꽃잎,밥풀,모양,흰점,며느리,밥풀,며느리밥풀꽃,며느리,미움,사위,며느리,아들,씨암탉,사위,아들,며느리,질빵,사위,교수,인하대,한국어,문학</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,7 +5368,12 @@
           <t>내일신문</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>희망,친구,기아,대책,우간다,농작물,가공,센터,완공,국제,구호,정부,기구,NGO,희망,친구,기아,대책,우간다,아프리카,쿠미,지역,가공센터,쿠미,지역,협동조합,농작물,가공,센터,완공,기아대책,한국국제협력단,KOICA,지원,완공,가공센터,규모,신재생,에너지,활용,농작물,분류,세척,저온,저장,가공,시설,가공센터,기아대책,인하대학교,국제,협력,혁신,센터,재생,에너지,전문,공기업,서울에너지공사,협력,소득증대,우간다,쿠미,지역,농가,소득,증대,신재생,에너지,활용,농사업,일환,가공센터,지역,소농인,농작물,증대,가공해,현지,농가,소득,기여,농산,가공물,브랜딩,부가가치,창출,역할,전망,쿠미지역협동조합장,마이클,오키로,쿠미,지역,협동조합장,농작물,수확,처리,손실,한국,기관,도움,가공센터,식량,해결,식량,활성화,지역,경제,활성,기여,회장,유원식,기아대책,완공,가공센터,중심,경쟁력,현지,농산업,빈곤,해소,지역,문제들,발굴,후속,지원,예정</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,7 +5391,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>조선일보,독자,권익,보호,위원회,정례,회의,대우조선,사태,원청,하청,계약,부각,조선일보,독자,권익,보호,위원회,위원장,김도연,교육,과학,기술부,장관,정례,회의,지면,조선일보,온라인,기사,토론,위원장,고산,에이팀벤처스,대표,김별아,소설가,김재련,법무법인,세상,대표,변호사,민세진,동국대,경제학,교수,박상욱,서울대,과학학,교수,장부승,일본,관서외국어대,교수,정윤혁,고려대,미디어,학부,교수,한준,연세대,사회학,교수,위원,부국장,안덕기,편집국,참석,금현섭,서울대,행정,대학원,교수,김태수,변호사,박원호,서울대,정치,외교,학부,교수,위원,의견,지지율,조선일보,A1면,지지기반,포용,보수,중도,연대,A4면,70대,연령,부정평가,지지율,A5면,하락,대통령,지지율,중점,보도,정책,혼선,인사,실패,개인,스타일,다각적,지지율,하락,정치,함의,심층,아쉬움,대의민주주의,국정,지지율,선거,파급력,생각,총선,공천,원내,역학,이야기,지지율,윤석열,대통령,24%,보수지,스탠스,기사,조선일보,정치,소재주의,인상,기사,특정,정치인,인용,기사,요즘,핫이슈,포퓰리즘,네포티즘,친족,관직,지위,정면,야당,얘기,인용,보도,위기,지지율,회복,언론,얘기,언론,이슈,제기,문제점,지적,활력,공직,사회,8월,1~2일,기획기사,예전,발전,국가,경제,주도,요즘,공무원,사회,문제점,공무원,생활,생각,공직,사람,언론,공직,사회,개혁,어젠다,위기,상황,개혁,어젠다,언론,적극,주문,정부,자극,코로나,0.4%,확진자,해외,유입,비중,입국자,음성,확인서,8월,1일,A10면,OECD,확인서,입국,전후,코로나,음성,제출,나라,한국,지적,국가,위드,코로나,전환,우리나라,코로나,갈라파고스,나라,사례,동원,다면적,조선일보,대우조선해양,파업,막바지,손실액,논란,책임,중심,기사,막판,쟁점,손배소,노조,지도부,책임,무리,요구,7월,22일,A3면,7100억,피해,불법점거,생떼,대우조선,위기,손실액,8000억,강조,갈등,노사,한쪽,죄악시,해결,정규직,하청,임금차,개혁,고용,이중,구조,극단,파업,하청,계약,정규직,비정규직,격차,임금,조선업,구조적,지적,기사,균형,여성가족부,보고,대통령,업무,보고,1단,여가부,폐지,사항,대통령,공약,대선,이슈,논란,사안,여가부,폐지,여가부,핵심,중</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,7 +5414,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>대우건설,광양,센터파크,분양,대우건설,광양,센터파크,분양,대우건설,전남,광양시,광양,센터파크,투시도,분양,11일,지하,지상,29층,10개,전용면적,992가구,조성,광양시,지난달,조정,대상,지역,해제,청약,통장,가입,6개월,19세,면적,예치금,충족,주택,세대주,여부,자격,청약,전매제한,중도금,60%,전액,대출,가능,인근,광양,IC,남해고속도로,진입,순천,여수,동광양,주변,지역,이동,편리,롯데건설,굿피플,걸음,기부금,1000만,롯데건설,걸음,여름,부탁,전달식,캠페인,모금,사진,개최,캠페인,걸음,기부,모금,1000만,국제,구호,정부,기구,NGO,굿피플,전달,기부금,아동들,다문화,가정,아동,예정,롯데건설,임직원,가족,지난달,이달,캠페인,참여,걸음,수인,달성,116%,초과,캠페인,빅워크,사회,기업,애플리케이션,스마트폰,설치,걸음,자동,기록,방식,진행,코오롱글로벌,업계,디자인,컬러,유니버설,코오롱글로벌,건설업계,디자인,컬러,유니버설,사진,적용,시각,제한,사람,기준,공동주택,불편,색약자,고령자,디자인,코오롱글로벌,디자,적용,KCC컬러디자인센터,디자인,컬러,유니버설,배색,연구개발,디자인,정보,위주,그래픽,명도,이용,특징,벽면,기둥,바닥면,적용,사인,픽토그램,명도,3단계,보행,보행자,안전,시인성,형광,안료,페인트,적용,코오롱글로벌,디자인,안전,취약,주차공간,적용,추후,공용,공간,인포메이션,확대,적용,방침,포스코건설,해양,오염,예방,콘텐츠,공모전,포스코건설,해양경찰청,인하대,경기,인천씨그랜트센터,공동,해양,오염,예방,콘텐츠,공모전,포스터,사진,개최,공모전,주제,해양오염,바다,해양,환경,보전,블루,카본,보호,블루카본,갯벌,어패류,염생식물,잘피,해양생태계,흡수,탄소,의미,공모전,포스터,홍보영상,UCC,진행,참여,방법,포스코건설,해양경찰청,인하대,경기,인천씨그랜트센터,홈페이지,확인,11월,전문가,심사,참가작,최종,선정,시상,대상,660만,상금,지급</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,7 +5437,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>김상조씨,김상조씨,경북도의원,별세,배미자,남편,김정록,LG디스플레이,정욱씨,부친상,10일,남구미요양병원,13일,8시,김홍씨,경찰공무원,별세,이위늠,남편상,김윤경,한중,윤정씨,부친상,김정기,최현목씨,월간중앙,장인상,10일,경북대병원,12일,박노홍,별세,박효민,네이버,광고,상품,기획,리더,수민씨,EY한영,감사,본부,파트너,부친상,신철우씨,삼성SDS,디지털PLM팀장,장인상,채정원씨,신한은행,차장,시아버지상,11일,서울성모병원,13일,10시,유정구,별세,장순종,남편상,유혜진,부친상,변종철씨,한국남부발전,차장,장인상,10일,인하대병원,12일,임성남,별세,임동준씨,청주시,상수도,사업,본부,시설,팀장,부친상,10일,청주성모병원,12일</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4370,7 +5460,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>에너지,중국발,악재,예상,무역,적자,최소,달러,이달,적자,누적,무역,수지,역대,최대,연간,무역,수지,적자,206억,달러,기록,관세청,수출입,통계,기간,수출액,잠정,23.2%,동기,대비,23.2%,156억,달러,기간,수입액,34.1%,증가,233억,달러,집계,이달,10일,무역,수지,적자,76억,달러,10조,기간,기준,수출입,통계,집계,이래,적자,수출,수입,증가,수입,품목,원유,50.1%,가스,96.4%,석탄,162.5%,전년,동기,대비,증가,흐름,무역,수지,적자,연속,적자,기록,2008년,연간,무역,수지,경고등,10일,적자,누적,무역,수지,229억,달러,29조,역대,최대,연간,적자,기록,96년,기록,3분,시점,정인교,인하대,국제통상학,교수,무역,수지,적자,달러,기록,최소,달러,역대,최대,가능성,행진,무역,수지,적자,국제,에너지,원자재,가격,상승,첫손,대중,對中,무역,수지,적자,장기화,기름,중국,한국,수출,텃밭,5월,대중,수출,수입,이달,적자,연속,대중,무역,수지,유력,이달,10일,대중,무역,수지,8억,달러,적자,코로나19,확산,중국,봉쇄조치,영향,중국,제조,업체,향상,구조,요인,작용,정인교,교수,해외,수요,수출,가능성,제한적,대중,무역,에너지,가격,악재,당장,해소,설명,박명섭,성균관대,글로벌,경영학,교수,중국,무역구조,중간재,수출,수입,구조,적자,가능성,수입,에너지,농산물,가격,만큼,연말,정도,적자,완화,한국,무역구조,일본,상황,일본,재무,상반기,일본,무역,수지,적자,7조,77조,상반기,기준,사상,최대,규모,적자,기록,엔화,가치,24년,수준,수입,의존,국제유가,식량,가격,상승,일각,노동력,자본,발생,수익,포함,경상수지,정부,실질적,재정,상태,재정수지,마이너스,쌍둥이,적자,가능성,제기,정부,가능성,무역수지,경상수지,기준,상반기,누적,247억,달러,흑자,1년,흑자,40%가량,한은,예상,흑자,달러,지난달,경상수지,흑자,기록,추산,경제수석,최상목,대통령실,경제,수석,연간,기준,쌍둥이,적자,발생,가능,무역,수지,적자,경상수지,300억,400억,달러,흑자,예상,배경,기재부,관계자,나라,외화,수입,지출,차이,최종,성적표,무역수지,경상수지,한국,행진,연속,경상수지,흑자,전망,무역,적자,상황,경상수지,타격,성태윤,연세대,경제학부,교수,무역적자,상황,경상수지,흑자,환경,대외,경제,의미</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,7 +5483,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>무역,수지,누적,적자,달러,기록,역대,최대,1월,이달,적자,누적,무역,수지,달러,기록,역대,최대,외환,위기,직전,기록,적자,연간,무역,수지,206억,달러,기록,4월,연속,무역,수지,적자,기록,열흘,무역,수지,적자,적자,연속,무역,수지,관세청,수출입,통계,기간,수출액,잠정,23.2%,동기,대비,23.2%,156억,달러,기간,수입액,34.1%,증가,233억,달러,집계,이달,10일,무역,수지,적자,76억,달러,10조,기간,기준,수출입,통계,집계,이래,적자,수출,양호,실적,수입,러시아,우크라이나,침공,국제유가,원유,에너지,품목,수입,물가,영향,품목별,실제,수입,품목,원유,50.1%,가스,96.4%,석탄,162.5%,증가율,전년,동기,대비,증가,흐름,무역,수지,적자,연속,적자,기록,2008년,무역,수지,적자,장기화,연간,무역,수지,경고등,10일,적자,누적,무역,수지,229억,달러,29조,기록,역대,최대,적자,기록,206억,달러,누적,적자,3분,시점,특별,반등,적자,규모,역대,최대,가능성,수출,품목,1일,10일,석유제품,177.0%,승용차,191.9%,수출액,기간,반도체,5.1%,무선통신기기,17.7%,수출,감소,복합,원인,전망,암울,행진,무역,수지,적자,국제,에너지,원자재,가격,상승,첫손,대중,對中,무역,수지,적자,장기화,기름,중국,한국,수출,텃밭,5월,대중,수출,수입,이달,적자,연속,대중,무역,수지,유력,이달,10일,대중,무역,수지,8억,달러,적자,감염증,신종,코로나바이러스,코로나19,확산,중국,봉쇄조치,영향,중국,제조,업체,향상,구조,요인,작용,원인,복합적,흐름,만큼,당장,무역,수지,적자,요소,전문가,판단,정인교,인하대,국제통상학,교수,무역,수지,적자,달러,최소,달러,기록,역대,최대,가능성,달러,보수적,수치,교수,해외,수요,수출,가능성,제한적,대중,무역,에너지,가격,악재,당장,해소,박명섭,성균관대,글로벌,경영학,교수,중국,무역구조,중간재,수출,수입,구조,적자,가능성,단기간,무역수지,개선,수입,에너지,농산물,가격,만큼,연말,정도,적자,완화,교수,한국,수출,시장,상품,다각화,수출,둔화,반전,일본,최대,상반기,무역,수지,적자,역대,상황,일본,무역,한국,유사,한국,원자재,해외,수입,제조,수출,의존도,일본,재무,상반기,1~6월,통계,적자,일본,무역,수지,7조,77조,상반기,기준,사상,최대,규모,적자,기록,엔화,가치,24년,수준,수입,의존,국제유가,식량,가격,상승,산업,관계자,독일,1991년,31년,무역,수지,적자,기록,의존도,원자재,수입,국가들,공통적,무역,수지,적자</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,7 +5506,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>현장,시민,집중,여군사망,보호,보도,피해자,위원회,양승찬,교수,위원장,출범,회의,헌재,사형제,공방,기사,질문,부각,긍정적,기사,질문,중심,쟁점,정리,부족,한국일보,이용자,위원회,지난달,양승찬,숙명여대,미디어,학부,교수,위원장,위원회,구성,회의실,서울,중구,한국일보사,회의,진행,위원회,지면,이날,한국일보,온라인,플랫폼,제공,콘텐츠,방향,논의,위원들,관심사항,전공분야,7월,달간,한국일보,콘텐츠,플랫폼,운영,위원장,김여진,손경호,케이스탯리서치,팀장,이현우,한국언론진흥재단,선임연구위원,최원석,미디어리,교육,활동가,최종헌,법무법인,YK,변호사,김수아,건국대학교,학생,위원,참석,한국일보,이충재,주필,에디터,조철환,오피니언,디지털기획부문장,양홍주,디지털,기획부,문장,손경호,한국일보,사건,인하대,성폭행,추락,사망,보도,철저,가해자,집중,인상적,언론,역할,측면,행태,독자들,핵심적,궁금증,신상공개,살인죄,적용,가능,여부,기사,구성,가해자,칼럼,기획기사,사건,언론,가해,이야기,언론,차별점,발생,공군,부대,여군,사망,사건,기사,헤드라인,구성,부대,성범죄,사건,여군,사망,발생,추정,이예람,중사,근무,부대,피해자,보호,조치,부족,동일,부대,범죄,발생,전달,효과적,방식,피해자,근무,부대,가해자,근무,부대,프레임,노력,한국일보,홈페이지,최신순,인기순,구분,기사,제공,방식,이용자,편리성,기여,독자들,신문,온라인,지면,최신,기사,니즈,needs,특정,주제,분야,인기,이슈,확인,니즈,존재,인기,기사,조회,댓글,헤드라인,썸네일,날짜,제시,화제,한눈,확인,개선,최종헌,한국일보,뉴스매체,법조,기사,법조,중심,비교,한국일보,헌재,사형제,공방,기사,신문,헌법재판소,재판관들,질문,부각,질문,전달,공개,현장감,간접적,당사자들,주장,재판관들,질문,중심,기사,작성,쟁점,정리,부족,청구인,대리인,이해관계기관,법무부,참고인,주장,정리,경찰,인하대생,사건,피의자,신상,공개,기사,죄명,살인죄,공개,대상,죄명,취지,정보전달,현행,특정강력,범죄,처벌,특례법,형법,강간,살인,치사,특정강력범죄,기본범죄,강간,형법,준강간,포함,결국,죄명,준강간치사,살인,자체,신상,정보,공개,대상,정보,여부,경찰,사건,신상정보,공개,비교,설명,이용자들,이해,사회,한국일보,홈페이지,인기,기사,카테고리,일주일,인기기사,신문사들,보통,인기기사,비교,인기기사,정리,주기,관심,기사,노출,오랜만,일주일간,이슈,확인,장점,인기,기사,목록,20개,기사,2~3개,통상,하루,기사,인기기사,사회,분야,인기,기사,사람들,불만,김수아,한국일보,뉴스레터,서비스,한국일보,성격,뉴스레터,발행,그중,공략,뉴잼,뉴스레터,위클리,스토리,위클리,브리프,발간,뉴스레터,뉴스룸,제작,콘텐츠,정돈,발견,기회,목적,발간,발행,레터,위클리,스토리,이야기,이야기,주제,반려,키워드,이야기,시작,이야기,반려,흥미,유발,오프닝멘트,식물집사,사용,전체적,레터,구성,방해요,작용,사실,오프닝,흐름,이용자,집중력,역효과,양승찬,뉴스이용자위원회,확인,저널리즘,추구,정파,독립,균형,유지,공공,포럼,제공,언론,역할,검토,한국일보,권력,감시,목소리,시민들,목소리,제공,한국일보,현장,시민,이야기,집중,현실,경제,편의점,결식아동,점심,부담,구내식당,기사,1면,배치,시민들,이야기,공감,출근,다이어트,화장,강요,기업,문화,지적,21일,휴가,문화,시민,경험,취재,사회,변화,생각,이슈,제공,언론,보도,정치,영역,부각,출입처,중심,보도,시민,일반,취재,현장,중시,기사,아베,일본,총리,피격소식,언론들,여과,보도,한국일보,피격,사진,모자이크,처리,제기,선정성,사전</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,7 +5529,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>N수생,수시,지원,급증,예상,졸업,시기,제한,3학년,내신,반영,확인,N수생,통합,수능,영향,지원,졸업,제한,확인,정성평가,학종,학생부,교과,전형,중요,자신,미반영,대학,입시,학년도,대학,재수생,포함,n수생,지원,전망,통합,수능,영향,만족,결과,졸업생,반영,모의,평가,졸업,비율,16.1%,모의평가,역대,모의,평가,내신,학생부,졸업생,전형,원서접수,17일,진행,입시전략연구소장,우연철,진학사,입시,전략,연구소장,n수생들,수시,지원,입시,전략,점검,졸업생,지원,가능,여부,학생부종합전형,대다수,대학,졸업,제한,예외,학교,서울교대,사향,인재,전형,재학생,지원,한양대,학생부,종합,전형,일반,졸업생,졸업,3수,한국항공대,미래,인재,전형,졸업생,졸업,지원,학생부교과전형,졸업,제한,대학,경희대,서강대,서울교대,성균관대,연세대,재학생,지원,이화여대,중앙대,한양대,졸업생,졸업,재수생,지원,광운대,동덕여대,숭실대,아주대,인하대,홍익대,3수,가능,건국대,고려대,동국대,서울시립대,졸업,제한,여부,학생부,반영,수능,준비,내신,관리,소홀,학생,학생부종합전형,대다수,대학,성적,반영,실제,평가,마지막,학기,특수성,정성평가,당락,영향,정량,진행,학생부교과전형,성적,중요,학생부,반영,대학,지원,방법,가톨릭대,국민대,아주대,이화여대,한양대,홍익대,성적,반영,전형,실패,학생들,수시,불합격,복기,자기소개서,부실,학생부,기록,학교,학과,지원,탈락,소장,대학,입시전형,수험생,경쟁력,수시,학생들,위축</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,7 +5552,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D223" t="n">
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>강남,목동,22만,폭포비,거대,구멍,1390억,보람,목동빗물펌프장,서울,양천구,목동빗물펌,프장,치수,김명보,양천구,주무관,서울,강남,침수,폭포비,양천구,신월동,강서구,화곡동,상대적,피해,설명,안내,목동유수지,빗물,펌프장,근처,목동,유수지,거대,구멍,크기,축구장,목동유수지,바닥,지름,7.5,구멍,구멍,지점,지하,40m,터널,지름,10m,터널,목동,서쪽,신월동,화곡동,4.7,길이,8~9일,5000t,5000t,빗물터널,신월,화곡동,하수구,터널,끝자락,목동유수지,역할,저장고,수해,홍수,안양천,터널,구멍,구조,빗물터널,빗물,터널,완공,강수량,사흘간,양천구,291mm,빗물,터널,용량,53%,8,,22만,배수시설팀장,강종구,양천구,배수,시설,팀장,상습,침수,지역,신월동,폭우,침수피해,덕분,빗물,터널,39만,흡수,3년,홍수,빗물터널,대심도,지하,터널,공식,명칭,신월,빗물,저류,배수,시설,양천구,신월,목1동,4.7,구간,지점,지하,40m,자리,제주도,만장굴,8.9,연상,평소,폭우,빗물,임시,저장,한강,빗물,10m,신월동,지점,지하,10m,거대,직수구들,빗물,흡수,설계,빗물저류배수시설,용량,671t,올림픽,규격,수영장,양천구,빗물터널,폭우,시간당,폭우,건물,침수,중반,목동,지역,상대,신월동,침수,피해,대책,가스카베,도쿄,북쪽,사이타마현,春日部,6.3,터널,중앙일보,지면,소개,관계자,서울시,고위,현장,방문,추진,신월,빗물,터널,2년,기간,흡수,기간,빗물,60만,공사비,강남,무산,계획,빗물터널,11년,강남역,논의,서울시,후보지,효자동,청계천,사당역,한강,삼각지역,한강,강남역,한강,신대방역,여의도,길동,천호동,기후변화,국지,폭우,도시,도심,콘크리트,재해,반복,예상,서울,면적,47%,불투수,不透水,지역,강남,광화문,도심,불투수율,90%,신월동,제외,지역,대심,터널,건설,비용,위험성,무산,서울시,터널,건설비,8500억,신월동,제외,배수시설,확충,판단,작업,지하,발파,위험성,걱정,여론,강남역,일대,대형,하수관,분산,방향,광화문,일대,빗물받이,확충,방향,정책,도림천,월류,서울대,3개소,중규모,저류,시설,설치,신월동,대심,터널,사업,승인,평탄,분지,구조,반지하,지역,특성,신월,빗물,저류,배수,시설,공사비,1390억,강종구,팀장,신월,빗물,터널,시간,100mm,폭우,비용,연간,유지,보수,침수,피해,판단,도시,스펀지,전문가들,신월,빗물,터널,대심,터널,서울,평가,폭우,강남역,물난리,서울시,후보지,과거,대심,터널,건축,추진,변병설,인하대,행정학,교수,예산,투입,침수,용량,배수,시설,상습,침수,지역,강남,빗물받</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4460,7 +5575,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>경찰,비판,안철수,재정,정책,이상민,나라,살림,연구소,위원,송치,경찰,대선,재정,정책,발언,비판,수석연구위원,이상민,나라,살림,연구소,수석,위원,기소,의견,검찰,재정전문가,공약,검증,사법,심판대,표현,자유,위축,비판,경향신문,취재,결과,서울,마포경찰서,인터넷상,의원,재정,정책,발언,허위사실,공표,명예,훼손,혐의,공직선거법상,허위사실공표,적시,정보,통신망법,허위,사실,명예훼손,위원,서울,서부,지검,송치,국민의당,국민의힘,3월,공직선거법,혐의,정보,통신망법,위반,위원,서울서부지검,고발,주체,표면,고발,국민,의원,고발,의사,전제,조치,서울서부지검,사건,마포경찰서,사건,국가,부채,개념,D4,의원,위원,논쟁,시작,의원,대선,후보,1월,삼프로TV,유튜브,채널,삼프로,TV,출연,국가,부채,유형,D4,언급,정부,규모,공개,주장,위원,유튜브,채널,출연,후보,주장,개념,재정,사람,D1,2,D3,국가부채,단위,별개,연금충당부채,재무제표,부채,D4,안철수,후보,네이밍,개념,부연,경찰,관계자,위원,발언,D4,안철수,의원,개념,허위사실,상황들,송치,위원,통화,의원,토론,정치인과,학자들,기소,갑설,다수설,사람,계설,소수설,사람,고발,국제통화기금,IMF,정의,개념,의원,개념,수사관,IMF,D4,수사,자체,세기,대한민국,상상,시민사회단체들,여권,정책,비판,형사범죄화,비판,민주사회,변호사모임,공익인권변론센터,참여연대,포용재정포럼,기자회견,지난달,회견,형사,사법,절차,이용,학술,비판,제약,시민,표현,학문,자유,침해,지적,강병구,인하대,경제학,교수,IMF,부채수단,기준,정부,부채,D1,D4,개념,분류,우리나라,D1,D3,별도,재무제표,부채,산출,연구위원,문제제기,정리뉴스,안철수,촉발,고발,논란,D4부채,동명,개념,위원장,혼합,오개념,대통령직인수위원장,안철수,윤석열,대통령,인수,위원장,이상민,나라실림,연구소,수석,위원,검찰,고발,사실,https://www.khan.co.kr/economy/economy-general/article/202205011956001/NUrl</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,7 +5598,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>관리,구축을,불법,체류,외국인,관리,코로나19,사태,외국인,체류,감소,불법,체류,외국인,급증,법무부,6월,외국인,기준,불법,체류,39만,체류,외국인,19%,차지,사회적,가시화,코로나19,방역,잠식,국민,일자리,불법,이민,정책,분야,회색,코뿔소,현상,방면,점진적,지구촌시대,국가,교류,증대,불법체류자,발생,주권국가,통제,가능,수준,관리,불법,체류,외국인,관리,불법,체류,외국인,책임,한계,단속부서,법무부,불법,체류자,단속,부서,의존,이민정책,이민,정책,컨트롤,타워,부재,이민,업무,부처,수행,대처,한계,컨트롤타워,가칭,이민동포청,설치,부처,칸막이,부처,법무부,중심,불법체류자,통제,가능,수치,감소,대책,마련,외교,채널,불법체류율,특정,국가,대책,요구,외국인,근로자,정책,변경,체류질서,확립,부처,전문가,태스크포스,TF,구성,정부,대책,악순환,고리,일본,컨트롤타워,이민,정책,컨트롤,타워,출입국재류관리청,설치,불법,체류자,관리,규모,10만,유지,교수,서광석,인하대,이민다문화정책학,코로나19,시국,불법체류자,노동력,덕분,농촌,제조,업체,인력난,해소,위기,건설현장,취약,계층,국민,일자리,잠식,고용허가제,합법,인력,제도,근간,훼손,역기능,순기능,정도,인정,3년,불법체류자,순기능,활용,난국,타개,발상,전환,고국,단속,강제,귀국,조치,이야기,시골,구석구석,불법,취업,코로나19,외국인,근로자,수요,공급,균형,수요자,불법,고용,사회,순기능,활용,조치,사다리,합법,고용자,신원보증,의거,임시,체류,허가,정부,관리,부처,불법,체류,외국인,취업,실태,조사,체류,취업,조치,한시,합법,임시체류,노동,허가,단계적,한국,문화,이해,세금,납부,단계,체류,허가,원칙,유도,고용자,불법,체류,취업자,처벌유예,인정,일정,기간,합법,취업,고용자,책임,자진출국,불이행,가중,고용자,요구,재입국,보장,포함,동시,형성,국민,공감대,검경,공조,불법,체류자,단속,강화,불법,체류자,신고,포상금,단속,원칙,엄벌,정책,실효,외국인,체류,질서,확립,건강,다문화사회,교수,서광석,인하대,이민다문화정책학</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4496,7 +5621,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>헤드라인,헤드라인,경제,콘텐츠,부족,경향신문,독자,위원회,정기,회의,파업,대우조선,하청,노동자,쌍용차,용산,피해자,인터뷰,인상적,어민,북송,사건,양립,흉악범,귀순,찬반,주장,접근,추모의,인하대,학생,행태,피해자,공격,언론,적절,보도,비판,비판,비판,리더십,복원,선도,기사,경향신문,독자,위원회,서울,정동,경향신문사,정기회의,정기,회의,김호기,위원장,연세대,사회학,교수,주재,회의,곽경란,법무법인,지평,변호사,김나리,미디어인큐베이터오리,대표,박영흠,한국언론진흥재단,연구위원,신지영,고려대,국문학,교수,윤희웅,오피니언라이브,여론분석센터장,표미정,동명여고,수학교사,위원,참석,오지혁,청년기후긴급행동,공동대표,위원,서면,의견,제출,경향신문,김준기,콘텐츠,부문장,이날,회의,참변,인하대,성폭행,파업,대우조선해양,하청,노동자,논란,취학,연령,하향,논란,보도들,북송,사건,논란,보도,윤석열,정부,인선,서오남,서육남,서울대,50,남성,관점,지적,기사,설득력,근거,의견,신문,헤드라인,표현,여성,차별,전수분석,기획콘텐츠,데이터,문제의식,결합,평가,경제,독자들,관심,상황,경제,콘텐츠,지적,표미정,파업,대우조선,하청,노동자,지역주민들,긍정,반응,조선업계,구조,문제점,회사,파업노동자,손해,배상,소송,충실,윤석열,대통령,강경,발언,쌍용자동차,파업,용산,사태,피해자,반응,보도,기사,인상적,강제진압,트라우마,피해자들,자신,경험,바탕,사태,대응,정부,문제점,지적,느낌,철제,구조물,스스로,장기농성,유최안,부지,회장,인터뷰,기사,사건,보도,사건,사람,느낌,노동자들,포스코,사내,하청,노동자,기사,고용,판결,11년,법정투쟁,법정,투쟁,당사자들,목소리,대유행,코로나19,극복,전문가,기고,시리즈,국가,거리,개입,의견들,소개,독자들,판단,재료,제공,윤희웅,7월,일자,기재부,법인세,감세,효과,판단,정권,180도,기사,단순,비판,근거,제시,정권,기획재정부,태도,시각,정부,국정,운영,문제점들,부각,비판,시각,기사들,보수,진보,정권,청와대,역대,정부,국정운영,관여,인물들,인터뷰,건설적,조언,방향,제시,미디어,단순,비판,보도,차별화,생각,7월,온라인,출고,한국,열차,도둑,나라,하루,494명,연간,적발,부정승차,경각심,기사,도둑,표현,독자들,다음날,종이,신문,제목,부정승차,드라이,표현,포함,국민들,경제,관심,경향신문,경제,콘텐츠,양적,부족,경제면,경제,콘텐츠,경제,깊이,비중,고민,박영흠,10년,일간지,전국,여성,여성,헤드라인,헤드라인,데이터,저널리즘,콘텐츠,헤드라인,기획,기획,노처녀,인터랙티브,콘텐츠,작성,신문,헤드라인,여성,차별적,비하적,표현,감소,10년,노처녀,단어,신문,경향신문,인상적,언론사들,데이터저널리즘,시도,데이터,활용,자체,데이터,중요,기획,문제의식,과학,방법,논란,북송,사건,한쪽,법정,기소,유죄,흉악범,귀순,주장,반대쪽,국민,헌법,대한민국,사형,강제,북송,주장,양립,후자,주장,후자,무시,흉악범,인권,경향신문,외면,7월,일자,사설,흉악,범죄,용의자,인권,보호,원칙,북한,범죄인인,협약,상황,송환,법제도,공백,문제의식,기사,확장,김나리,대나무들,선택,극단,산림업계,최대,미스터리,기사,인상적,대나무,평생,남부지역,중심,집단적,상황,원인,규명,취재,재미,읽을거리,참변,인하대,성폭행,언론,자극적,헤드라인,사진,피해자,피해자,보도,초반,경향신문도,사건,자극적,표현,후속기사들,윤리,언론,보도,전달,노력,성폭력,피해자,공격,사람들,언론,보도,문제점,심층,취재,인하대,학생,추모,방해,기획,정부,노인,일자리,정책,축소,문제제기,세상,노인,일자리,기획,언론,관심,사안,시의,발굴,기사,노인,일자리,노인들,인간,효용감,즐거움,기회,노인들,노인,일자리,이용,부모,사람들,공감,기사,신지영,경향신문,단독,보도,엄단,장애인,시위,경찰서,승강기,기사,경찰서,법적,의무시설,장애인,편의,시설,지하철,시위,조사,경찰서,출석,장애인들,승강기,휴게실,조사,현실,장애인단체,출근길,지하철,시위,설명,대학,기사,성폭행,참변,사건,이름,대학,낙인효과,사건,대학,학생,발생,언론,사건,이름,신중,고민,강제징용,기사,강제징용,자체,일본,제국주의,관점,징용,국가,국민,강제,일정,업무,종사,징용,제국주의,순간,일본,한반도,지배,합법적,인정,의미,내포,징용,표현,피해자들,강제동원,강제노역,표현,곽경란,정부,추진,취학,연령,하향,추진,공부,뒷받침,기사,평가,장관님,위로,기자메모,정부,아마추어리즘,지적,중요,국제,아베,신조,일본,총리,피격,기사,깊이,부족,느낌,도쿄,특파원,언론사,기사,정보,윤석열,정부,인선,후보자,서오남,서육남,지적,기사,남성,서울대,출신,주장,근거,인사권,독자,설득,인구,통계학,법철학,다양성,담보,반론,사례,여성,법관,여성,우호,판결,성역할,편견,반론,제기,세상,과거,여성,최고,법관,존재,의미,시절,최고,법관,여성,비율,산술적,현직,여성,비율,후보군,20년,법조,경력,여성,비율,3배,가량,상황,여성,안배,요구,기사,오지혁,수도권,러브버그,박사,인터뷰,기사,곤충학자,정부희,러브버그,벌레,생명체,인간,생태계,통제,생태,균형,피해,경고,구체적,사회,이슈,계기,중요,메시지,전달,시도,대홍수,독일,현지,르포,기사,인간,경제활동,초래,기후위기,인간,물류,생산,방해,역설적,상황,기름,상승,겨울,액화천연가스,LNG,파동,소식,글로벌,공급망,위협,식량보급,차질,상황,정치권,관심,언론,지속적,보도,경고,위기,한국,영향,국가,불평등,심화,조명,김호기,경제위기,갈등,코로나19,우크라이나,전쟁,한국,대내외,상황,리더십,중요,시점,위기,언론,국민들,갈증,리더십,위기,깊이,대안,비판,비판,동시,리더십,복원,경향신문,선도적,기사,정리</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4514,7 +5644,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>인하대,졸업,모교,11억,기부,인하대학교,제1회의실,인하대,본관,회의실,김덕영,동문,보미건설,회장,발전,기금,전달식,진행,9일,이날,행사,총장,조명우,인하대학교,최기영,교학,부총장,원혜욱,대외,부총장,사무처장,대외협력처장,교무위원들,인하대학교,동창회,양우석,상근,부회장,보미건설,임직원,인하대,건축,공학,졸업,김덕영,동문,모교,발전,인재,양성,7억,기부금,약정,동문,4억,기숙사,건립,기금,6000만,기타,발전,기금,쾌척,기부금,약정,모교,기탁,누적,기부액,11억,김덕영,동문,보미건설,창업,성과,이래,매출,증대,성장,전문가,집중력,회사,경영이념,바탕,품질,추구,회사,성장,보미건설,최고,품질,건축물,사회,공헌,매진,김덕영,동문,모교,애정,공헌,휴게공간,학생,휴게,공간,보미프라자,건립,기부,2021년,4호,화재,전소,공과,대학,실습실,복원,가칭,보미관,준공,진행,김덕영,동문,선배,사회,책임,기업인,인재,양성,학교,역할,조금,도움,기부,후배들,사회,구성원,총장,조명우,인하대학교,모교,관심,기부,버팀목,김덕영,동문,기부,후배들,내실,규모,사용</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4532,7 +5667,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>포스코건설,공모전,해양,오염,예방,콘텐츠,연다,포스터,홍보영상,UCC,콘텐츠,분야,공모,선정,시상,포스코건설,해양경찰청,인하대,경기,인천씨그랜트센터,공동,공모전,해양,오염,예방,콘텐츠,개최,10일,포스코건설,해양,경찰청,해양,환경,보전,업무,협약,체결,공모전,해양,오염,예방,포스터,해양,오염,방지,공모전,주제,해양오염,바다,해양,환경,보전,블루카본,blue,carbon,갯벌,어패류,염생식물,잘피,해양생태계,흡수,탄소,보호,해양,쓰레기,기름,오염,갯벌,블루,카본,자원,보호,폐어구,플라스틱,해양,쓰레기,선박,해양시설,오염,물질,유출,사고,예방,해양,쓰레기,생활,실천과제,생활,실천,경험,해양환경,보전,공감대,형성,출품,공모전,포스터,홍보영상,UCC,진행,참여,방법,완성,작품,참가신청서,제출,사항,포스코건설,홈페이지,www.poscoenc.com,www.kcg.go.kr,해양,경찰청,누리집,www.kcg.go.kr,인하대,경기,인천씨그랜트센터,홈페이지,www.gisg.or.kr,확인,접수,작품,11월,전문가,심사,분야,최종,선정,시상,계획,대상,660만,상금,지급,최종,선발,우수작들,해양오염예방,블루,카본,보호,활동,국민,인식,개선,활용,예정,310건,작품,접수,우수작,시상,포스코건설,관계자,국민,해양오염,관심,바다,동참,환경,사회,지배구조,ESG,분야,사회공헌활동,적극,전개,기업,시민,역할</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,7 +5690,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>사망,인하대,성폭행,적용,피의자,살인죄,인하대학교,성폭행,사망,사건,가해,남학생,검찰,살인죄,적용,준강간치사,혐의,경찰,송치,보완수사,검찰,살인,미필,고의,판단,죄명,인천지검,여성,아동,범죄,조사부,성폭력범죄,처벌,특례법,강간,살인,혐의,인하대,A씨,구속,기소,9일,검찰,A씨,바닥,아스팔트,지상,높이,B씨,추락,사망,사실,방치,판단,인하대학교,캠퍼스,동급생,성폭행,추락,사망,남학생,인천지법,인천시,미추홀구,구속,피의자,심문,영장실질심사,모습,관계자,뉴시스,검찰,피해자,의식,보호,능력,결여,상태,A씨,범행,현장,건물,중간,계단,피해자,성폭행,창밖,사망,미필,고의,살인,사망,가능성,예상,사망,인식,인정,A씨,인천시,미추홀구,소재,인하대,캠퍼스,5층,단과,대학,건물,동급,여학생,3층,추락,혐의,B씨,사건,당일,3시,행인,발견,병원,3시간,7시,검찰,단계,경찰,수사,A씨,적용,카메라,이용,촬영,반포,혐의,불기소,공소장,적시,A씨,휴대전화,동영상,촬영,사실,인정,피해자,신체,입증,자료,부족,설명,경찰,조사,B씨,건물,추락,인정,자신,고의,A씨,진술,치사,혐의,구속영장,신청,치사,살인,고의성,적용,혐의,경찰,지난달,사건,송치,검찰,전담수사팀,A씨,구속,기간,연장,보강수사</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,7 +5713,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>거리,해제,배달,시장,정체,뉴시스,시장,음식,배달,주문,플랫폼,레드오션,블루오션,시장,코로나19,확산,2년,성장,최대,최고,전성기,사회,거리,전면,해제,물가,상승,소비,여력,감소,성장세,상황,뉴시스,업계,소비,여력,회복,2년,고성장,플랫폼,배달,주문,등장,2010년,코로나19,확산,배달,시장,배달,시장,등장,소리,반복,생각,시장,배달,서비스,구조,배달,주문,플랫폼,수익,입점,음식점,수수료,광고비,수수료,최소,자릿수,최대,자릿수,플랫폼,배달,주문,사람들,배달료,플랫폼,배달,주문,생각,플랫폼,배달,주문,입점,음식점,소비자,중개,플랫폼,중개,수수료,수익원,운영,배달료,입점,음식점,소비자,플랫폼,배달,대행,일반,규모,배달,시장,기준,만큼,성장,시장,진출,배달,영업이익,업체,시장,점유율,매출,성장,플랫폼,운영비,집객,프로모션,비용,흑자,한계,플랫폼,배달,주문,관계자,코로나19,정체기,시장,성장,가능성,플랫폼,배달,주문,이용,소비자들,지역,수도,이외,확대,성장세,배달,시장,모습,통계청,사회,거리,해제,쇼핑액,온라인,배달,음식,2조,감소,전년,동기,대비,3.7%,이래,통계,작성,감소,수치,이은희,인하대,소비자학,교수,배달,시장,경기,악화,물가,상승,고성장,소비자,배달,이득,서비스,추가,수익</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4586,7 +5736,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락사,살인죄,적용,고의,가해자,미필,살인,혐의,피해자,사망,도주,판단,검찰,인하대,여학생,성폭행,건물,추락,가해,남학생,살인죄,적용,추락,피해자,사망,사실,방치,도주,검찰,판단,인천지검,여성,아동,범죄,조사부,부장,구미옥,경찰,준강간치사,혐의,송치,인하대,죄명,성폭력,범죄,처벌,특례법,강간,살인,혐의,변경,구속,기소,9일,검찰,A씨,건물,3층,사이,복도,추락,B씨,사망,사실,방치,도주,미필,고의,살인,혐의,적용,혐의,사망,가능성,예상,사망,인식,인정,검찰,관계자,범행,현장,지상,높이,창틀,외벽,바닥,아스팔트,추락,사망,구조,A씨,만취,보호,능력,상실,피해자,성폭행,추락,미필,고의,인정,경찰,A씨,적용,카메라,이용,촬영,반포,혐의,증거,처분,A씨,건물,인하대,단과대,B씨,복도,창문,추락,경찰,체포,B씨,90분,가량,방치,행인,발견,병원,3시간,A씨,검찰,조사,사실,성폭행,시도,인정,추락,상황,추락,입장</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4604,7 +5759,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>위안부,화해,치유재단,아베,신조,安倍晋三,일본,총리,피습,2015년,위안부,합의,아사히신문,일본,위안부,제기,이래,정대협,한국,위안부,운동가,요구,일본,국가,책임,시절,아베,총리,일본,수용,그전,일본,1965년,청구권,협정,종결,주장,총리,무렵,아베,중국,전략,위협,예견,한국,일본,중심,그림,안보협력체,구상,위안부,갈등,작용,박근혜,대통령,한국,정부,설득,일본,한국,인도,쿼드,결국,미국,일본,호주,인도,결성,2015년,합의,정치,사법적,혼선,결실,정부,징용,배상,현실,해법,박근혜,정부,압박,덕분,2015년,극적,성사,위안부,합의,양국,과거,미래,성과,탄핵,정권,문재인,정부,장관,강경화,외교,일본,정부,출연,10억,예산,한국,정부,충당,선언,여성가족부,2015년,위안부,합의,집행기구,화해,치유재단,해산,신년,회견,문재인,대통령,2015년,위안부,합의,양국,정부,공식,합의,공표,며칠,강창일,주일,대사,일본,부임,화해,치유재단,해산,이사장,이사들,사퇴,책임,갈등,변수,판결,징용,배상,대법원,1965년,청구권,협정,식민지,지배,불법성,지적,징용,근로자,일본,기업,청구권,징용,피해자,주심,김능환,대법관,김능환,건국,심정,정치,수사,논란,미쓰비시,신일본제철,대법원,재상고,일본,정부,국제사법재판소,ICJ,제소,항의,양승태,대법원장,대법원,쟁점,파기환송,여지,검토,해결책,골몰,판결,지연,나중,문재인,정부,사법,농단,프레임,정부,체제,김명수,대법원장,전원,합의체,재상고,사건,기각,롤러코스터,정부,노무현,민관위원회,회담,문서,공개,대책,민관,위원회,위안부,쟁점,1965년,청구,협정,범위,주장,회담,도중,한국,대표,일본군,위안부,청구권,언급,사실,일본,회의록,일본,징용,근로자,청구권,청구,협정,포함,대통령,삼권분립,대법원,판결,징용,배상,옹호,삼권분립,헌법,원리,국제조약,위반,판결,근거,조약법,협약,서문,회원국,각국,헌법,빙자,약속,국가,사이,명시,일본,패망,연합군,최고,사령부,GHQ,22억,남한,소재,일본,자산,달러,몰수,통째,대한민국,정부,이양,1965년,청구권,협정,일본,달러,무상,장기저리,차관,달러,10년,한국,제공,식민지,지배,자금,청구,자금,10년,성장,한국,경제,기여,윤석열,정부,선택,화해,치유재단,복구,예정,재단,사업,한국,정부,징용,피해자,배상,그다음,포스코,수혜기업,보전,현실,해법,일본,기업,갈등,주한,일본,대사관,위안부,소녀상,협약,준수,차원,전향적,검토,일제,한반도,침탈,중심지,통감부,서울,남산,통감부,위안부,소녀상,대안,홍승기,인하대,법학,전문,대학원,교수</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4622,7 +5782,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>검찰,추락사,인하대,성폭행,학생,살인죄,적용,기소,검찰,인하대학교,캠퍼스,발생,성폭행,추락사,학생,살인,혐의,적용,재판,인천지검,여성,아동,범죄,조사부,구미옥,부장검사,강간,살인,혐의,A씨,구속기소,9일,경찰,지난달,A씨,준강간치사,카메라,이용촬영,반포,혐의,검찰,송치,검찰,A씨,죄명,강간,살인,혐의,변경,기소,카메라,이용촬영,반포,혐의,입증,자료,부족,불기소처분,경찰,A씨,적용,준강간치사,심신상실,항거불능,상태,이용,간음,추행,처벌,준강간치사,법정형,무기,10년,징역형,검찰,적용,강간,살인,사형,무기징역,A씨,2층,인하대,건물,중간,계단,만취,의식,B씨,상대,성폭행,시도,창밖,혐의,검찰,관계자,A씨,B씨,8m,아스팔트,바닥,추락사,의식,보호,능력,결여,상태,성폭행,시도,추락,만큼,살인,미필,고의,인정,미필,고의,살인,사망,가능성,예상,사망,인식,인정,검찰,수사,인하대,성폭행,추락사,사건,전담수사팀,구성,A씨,구속,기간,연장,현장,조사,법의학,감정,폐쇄회로,CC,TV,음성파일,휴대폰,동영상,음성,파일,음질개선,전수조사,범행,장소,출입자,전수,조사,추가,확보,블랙박스,영상,종합,결과,살인,고의성,인정,설명,검찰,A씨,경찰,적용,카메라,이용촬영,반포,혐의,혐의,처분,검찰,관계자,A씨,상응,처벌,공소유지,B씨,가해,발생,최선</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4640,7 +5805,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>검찰,추락사,인하대,성폭행,학생,살인죄,적용,미필적,인정,불법촬영,혐의,불기소,검찰,인하대학교,캠퍼스,발생,성폭행,추락사,학생,살인,혐의,적용,재판,인천지검,여성,아동,범죄,조사부,구미옥,부장검사,강간,살인,혐의,A씨,구속기소,9일,경찰,지난달,A씨,준강간치사,카메라,이용촬영,반포,혐의,검찰,송치,검찰,A씨,죄명,강간,살인,혐의,변경,기소,카메라,이용촬영,반포,혐의,입증,자료,부족,불기소처분,경찰,A씨,적용,준강간치사,심신상실,항거불능,상태,이용,간음,추행,처벌,준강간치사,법정형,무기,10년,징역형,검찰,적용,강간,살인,사형,무기징역,A씨,2층,인하대학교,건물,중간,계단,만취,의식,B씨,상대,성폭행,시도,창밖,혐의,검찰,관계자,A씨,B씨,8m,아스팔트,바닥,추락사,의식,보호,능력,결여,상태,성폭행,시도,추락,만큼,살인,미필,고의,인정,관계자,A씨,B씨,추락,구호,행위,B씨,방치,현장,이탈,미필,고의,살인,사망,가능성,예상,사망,인식,인정,검찰,수사,인하대,성폭행,추락사,사건,전담수사팀,구성,A씨,구속,기간,연장,현장,조사,법의학,감정,폐쇄회로,CC,TV,음성파일,휴대폰,동영상,음성,파일,음질개선,전수조사,범행,장소,출입자,전수,조사,추가,확보,블랙박스,영상,종합,결과,살인,고의성,인정,설명,검찰,A씨,경찰,적용,카메라,이용촬영,반포,혐의,혐의,처분,검찰,A씨,결과,휴대폰,포렌식,동영상,촬영,사실,인정,B씨,신체,촬영,설명,검찰,관계자,A씨,상응,처벌,공소유지,B씨,가해,발생,최선</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,7 +5828,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>검찰,인하대,성폭행,추락사,가해자,살인죄,적용,검찰,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,살인죄,적용,재판,인천지검,여성,아동,범죄,조사부,부장,구미옥,경찰,준강간,혐의,송치,인하대,죄명,성폭력,범죄,처벌,특례법,강간,살인,혐의,변경,구속,기소,9일,검찰,A씨,복도,건물,추락,피해자,사망,사실,방치,도주,미필,고의,살인,혐의,적용,A씨,의식,피해자,상대,성폭행,시도,추락,사망,검찰,판단,검찰,관계자,범행,현장,높이,지상,아스팔트,지상,추락,사망,구조,A씨,의식,보호,능력,결여,상태,B씨,상대,성폭행,시도,추락,사망,관계자,부검,감정서,검토,결과,범행,현장,구호,조치,B씨,손상,다발,장기,사망,가능성,부작위,살인,작위,살인죄,적용,검찰,경찰,A씨,적용,불법,촬영,반포,혐의,A씨,동영상,촬영,사실,인정,B씨,신체,촬영,처분,A씨,인천시,미추홀구,인하대,캠퍼스,건물,B씨,학교,동급,성폭행,3층,추락,혐의,B씨,추락,1시간,건물,방치,행인,발견,병원,3시간,A씨,검찰,조사,성폭행,시도,사실,인정,추락,상황,추락,주장,검찰,관계자,A씨,피해자,추락,상황,취지,진술</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4676,7 +5851,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>인하대,사건,학생,주장,인하대,캠퍼스,동급생,여학생,성폭행,추락,혐의,남학생,인하대학교,캠퍼스,동급생,여학생,성폭행,추락,혐의,남학생,범행,상황,범행,기억,주장,파악,인천지검,여성,아동,범죄,조사부,부장검사,구미옥,인하대생,준강간치사,성폭력,범죄,처벌,특례법,강간,살인,혐의,변경,기소,구속,A씨,검찰,조사,범행,상황,범행,기억,진술,검찰,순간,피해자,추락,상황,취지,A씨,성폭행,시도,사실,인정,피해,여성,추락,상황,추락,고의,도주,주장,검찰,A씨,건물,추락,피해자,사망,사실,도주,미필,고의,살인,혐의,적용,이날,검찰,관계자,백브리핑,피의자,피해자,사망,초래,위험,상황,범행,피해자,보호,능력,상태,피해,부검,감정서,검토,결과,피의자,범행,현장,피해자,다발,장기,손상,사망,가능성,부작위,살인,작위,살인죄,적용,설명,A씨,6월,인하대,캠퍼스,5층,단과,대학,건물,B씨,학교,학생,상대,성범죄,추락,혐의,이날,3시,분쯤,행인,발견,B씨,심정지,상태,병원,이송,7시,사망,B씨,A씨,성폭행,창문,건물,복도,1층,추락,사망,추정,A씨,피해자,장소,자취방,현장,휴대전화,당일,경찰,긴급체포,B씨,건물,추락,1시간,방치,사실,공분,A씨,도주,신고,B씨,지적</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4694,7 +5874,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>피해자,인하대,성폭행,추락,사건,가해자,기억,주장,인하대,캠퍼스,동급생,성폭행,A씨,남성,지난달,구속,피의자,심문,영장,실질심사,미추홀구,인천지법,모습,인천,뉴스1,인하대,캠퍼스,동급생,성폭행,건물,추락,사망,혐의,남학생,재판,인천지검,여성아동범죄조사부,부장검사,구미옥,성폭력,범죄,처벌,특례법,위반,강간,살인,혐의,20대,구속기소,9일,경찰,A씨,준강,간치사,혐의,적용,검찰,송치,검찰,살인,고의성,인정,판단,살인,혐의,변경,기소,검찰,지난달,여성,아동,범죄,조사부,부부장,검사,팀장,검사실,구성,전담수사팀,구성,전담수사팀,보완수사,법리분석,피고인,성폭행,시도,살인,미필,고의,확인,검찰,A씨,의식,보호,능력,결여,상태,피해자,20대,상대,성폭행,시도,추락,사망,판단,범행현장,지상,높이,창틀,외벽,바닥,아스팔트,추락,사망,구조,만취,피해자,사람들,시선,범행,장소,물색,이동,계획,범죄,정황,의심,상황,주장,경찰,피해자,5층,건물,추락,층수,3층,A씨,정확,범행,시각,15일,사이,특정,범행,A씨,범행,휴대전화,불법,촬영,영상,근거,영상,촬영,소리,녹음,경찰,A씨,B씨,승강기,이용,3층,사실,확인,사건,현장,창틀,B씨,추락,A씨,행동,원인,경찰,판단,검찰,A씨,위험,장소,범행,장소,사망,결과,가능성,범행,B씨,사망,범행,B씨,범행,구호,행위,종합적,미필,고의,살인,혐의,적용,미필,고의,살인,사망,결과,발생,가능성,행위,적용,검찰,범행,상황,순간,순간,기억,B씨,추락,상황,기억,취지,진술,혐의,부인</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4712,7 +5897,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D238" t="n">
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>추락사,검찰,성폭행,가해자,살인죄,적용,경찰,인하대,캠퍼스,성폭력,사망,사건,가해자,강간,살인,혐의,재판,인천지검,여성,아동,범죄,조사부,구미옥,부장검사,경찰,송치,준강간치사,송치,적용,변경,성폭력,처벌법,강간,살인,혐의,구속기소,9일,김씨,살인,고의,확인,피의자,조사,현장조사,법의학,감정,보완수사,검찰,관계자,이날,검찰,기소,브리핑,김씨,인하대,건물,중간,계단,만취,의식,여성,상대,성폭행,시도,창밖,사망,검찰,범행현장,지상,높이,창틀,외벽,바닥,아스팔트,추락,사망,추락,구조,김씨,자체,성폭행,행위,A씨,추락,원인,판단,작위,살인,설명,검찰,김씨,부작위,살인,적용,구체적,설명,A씨,추락,1시간,생존,법조,일각,김씨,A씨,추락,사실,구호,조치,부작위,살인죄,적용,가능,의견,작위,살인,유죄,인정,부작위,살인,형량,검찰,관계자,A씨,부검,결과,법의학자,동반,현장검증,결과,즉시,구조,결국,사망,판단,부검,결과,추락,동시,머리,심장,손상,다발,장기,김씨,범행,A씨,구조,현장,이탈,확인,검찰,인과관계,부작위,살인,혐의,적용,판단,유사사례,설명,검찰,검찰,부연설명,사건,사례,가해자,건물,옥상,의도,피해자,행위,피해자,추락,사망,사건,검찰,관계자,가해자,자신,행위,사람,예상,인식,행동,상황,사망,결과,발생,가해자,피해자,사망,즉시,구호,도주,상황,살인죄,인정,설명,검찰,경찰,김씨,적용,성폭력,처벌법,카메라,이용,촬영,반포,혐의,처분,사건,김씨,사건,휴대전화,동영상,촬영,피해자,신체,촬영,증거,검찰,설명,A씨,추락,촬영,영상,사건,정황,사건,영상,음성,녹음,검찰,관계자,영상,분량,김씨,범행,촬영,시작,A씨,추락,촬영,종료,김씨,버튼,촬영,종료,포렌식,확인,김씨,검찰,조사,성폭행,사실,인정,촬영,휴대전화,기억,진술,법조계,김씨,살인,고의,인정,법정,치열,공방전,전망,김한규,법무,법인,공간,변호사,김씨,A씨,추락,예상,주장,미필,고의,쟁점,착수,강간,실행,상태,피해자,추락,미필,고의,살인,인정,검찰,관계자,강간,치사,혐의,법정형,10년,무기,강간,살인,혐의,무기징역,사형,법정형,기소,신중,기소,사실관계,법리,검토,공소,유지,방침</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4730,7 +5920,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D239" t="n">
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>동급생,강간살,부인,인하대,혐의,인하대학교,캠퍼스,동급생,성폭행,추락,혐의,남학생,범행,상황,범행,주장,인천지검,여성,아동,범죄,조사부,부장검사,구미옥,성폭력,범죄,처벌,강간,특례법,위반,살인,혐의,구속기소,검찰,관계자,기소,백브리핑,피의자,피해자,사망,초래,위험,상황,범행,피해자,보호,능력,상태,피해,범행,지상,높이,창틀,외벽,바닥,아스팔트,추락,사망,추락,구조,검찰,위험,장소,범행,장소,사망,결과,범행,사망,검찰,범행,범행,구호,행위,종합적,미필,고의,살인,혐의,적용,미필,고의,살인,사망,결과,발생,가능성,행위,적용,신고,조치,도주,피해자,방치,가량,파악,행인,신고,구급대,현장,도착,호흡,맥박,상태,혐의,부인,검찰,조사,순간,피해자,추락,상황,취지,진술,1시,인천,미추홀구,인하대학교,캠퍼스,2~3층,단과,대학,건물,의식,동급생,동급,성폭행,시도,창밖,추락,혐의,경찰,캠퍼스,CCTV,영상,토대,동선,파악,유력,용의자,특정,자취방,참고인,신분,조사,범죄,혐의,확인,피의자,신분,전환,준강간치사,준강,간치사,성폭력처벌,특례법,카메라,이용촬영,반포,혐의,구속송치,검찰,죄명,변경,성폭력범죄,처벌,특례법,강간,살인,혐의,구속기소</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4748,7 +5943,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D240" t="n">
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>사망,인하대,성폭행,가해학생,주장,상황,검찰,조사서,피해자,추락,진술,검찰,미필,고의,살인죄,적용,인하대,캠퍼스,또래,여학생,성폭행,추락,혐의,남학생,범행,상황,범행,주장,파악,인천지검,여성,아동,범죄,조사부,부장검사,구미옥,준강간치사,혐의,경찰,송치,A씨,혐의,성폭력,범죄,처벌,특례법,강간,살인,혐의,변경,기소,구속,A씨,검찰,조사,범행,상황,범행,기억,진술,검찰,순간,피해자,추락,상황,취지,성폭행,시도,사실,인정,추락,상황,추락,고의,도주,주장,검찰,A씨,건물,추락,피해자,사망,사실,도주,미필,고의,살인,혐의,적용,검찰,관계자,기소,백브리핑,피의자,피해자,사망,초래,위험,상황,범행,피해자,보호,능력,상태,피해,부검,감정서,검토,결과,피의자,범행,현장,피해자,다발,장기,손상,사망,가능성,부작위,살인,작위,살인죄,적용,설명,행위,실행,상황,작위,행위,부작위,작위,살인,유죄,인정,부작위,살인,형량,미필,고의,살인,사망,가능,예상,사망,인식,인정,A씨,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,B씨,동급,여성,성폭행,추락,혐의,B씨,2층,사이,복도,창문,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,건물,길가,건물,방치,행인,발견,병원,3시간,A씨,경찰,조사,B씨,성폭행,사실,인정,B씨,고의성,부인</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4766,7 +5966,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D241" t="n">
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>검찰,인하대,성폭행,남학생,피해자,추락,사망,가능,가해자,의식,피해,여학생,성폭행,시도,추락사,건물,창틀,너머,외벽,지상,검찰,준강간치사죄,강간살인죄,기소,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,남학생,살인죄,재판,인천지검,여성,아동,범죄,조사부,부장,구미옥,위반,성폭력,범죄,처벌,특례법,강간,살인,혐의,인하대,구속기소,A씨,인천,미추홀구,인하대,캠퍼스,2층,단과대,건물,계단,사이,B씨,성폭행,시도,창밖,사망,혐의,검찰,경찰,사건,송치,전담수사팀,보완수사,진행,여학생,상태,추락,직전,추락,상황,추락,구체적,파악,법의학자,대동,현장,조사,진행,단과대,건물,출입자,전수조사,그동안,블랙박스,영상,확보,경찰,살인,고의,인정,준강,간치사,혐의,사건,검찰,A씨,강간,살인죄,적용,검찰,B씨,의식,보호,능력,결여,상태,범행,현장,지상,8m,추락,사망,구조,주목,A씨,B씨,건물,사망,가능성,범행,살인,미필,고의,판단,경찰,A씨,적용,성폭력,범죄,처벌,특례법,위반,카메라,이용촬영,혐의,처분,A씨,결과,휴대폰,포렌식,휴대폰,저장,동영상,파일,종합적,검토,결과,휴대폰,B씨,신체,촬영,검찰,A씨,동영상,촬영,사실,인정,입증,증거,부족,검찰,관계자,사건,직권,피해자,유족,국선변호사,선정,절차,피해자,지원,개시,검찰,공소유지,피해자,가해,발생,최선</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4784,7 +5989,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D242" t="n">
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>회장,김덕영,보미건설,모교,인하대,전달,발전,기금,인하대,동문,회장,김덕영,보미건설,모교,발전,기금,전달,인하대,회장,4억,기숙사,건립,기금,6000만,기타,발전,기금,기부,기부금,화재,전소,복원,공과,대학,실습실,예정,가칭,보미관,준공,예정,보미건설,창업,김덕영,회장,공간,학생,휴게,보미프라자,건립,회장,후배들,사회,구성원,총장,조명우,인하대,김덕영,동문,후배들,내실,규모,사용</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4802,7 +6012,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D243" t="n">
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>검찰,인하대,성폭행,추락사,적용,남학생,살인죄,검찰,인하대,캠퍼스,동급생,성폭행,건물,추락,혐의,구속,남성,살인죄,적용,남성,살인,고의성,적용,치사죄,검찰,송치,연장,구속,기간,보강수사,진행,검찰,살인죄,적용,남성,재판,인천지검,여성,아동,범죄,조사부,부장검사,구미옥,준강간치사,혐의,경찰,송치,인하대,A씨,죄명,성폭력,범죄,처벌,특례법,강간,살인,혐의,변경,구속,기소,9일,검찰,A씨,복도,건물,추락,B씨,여성,사망,사실,방치,도주,미필,고의,살인,혐의,적용,미필,고의,살인,사망,가능성,예상,사망,인식,인정,수사,단계,적용,준강간치사죄,유죄,인정,무기,10년,징역,기소,단계,A씨,적용,강간,살인죄,재판,인정,사형,무기징역,검찰,관계자,범행,현장,지상,높이,창틀,외벽,1층,바닥,아스팔트,추락,사망,추락,구조,A씨,의식,보호,능력,결여,상태,피해자,상대,성폭행,시도,추락,사망,보완수사,규명,사실관계,토대,법리,검토,결과,피고인,살인,미필,고의,인정,설명,검찰,단계,경찰,수사,A씨,적용,성폭력범죄,처벌,특례법,카메라,이용,촬영,반포,혐의,처분,검찰,A씨,휴대전화,디지털,포렌식,결과,동영상,촬영,피해자,신체,촬영,피해자,신체,촬영,경찰,지난달,사건,송치,검찰,전담수사팀,A씨,구속,기간,연장,보강수사,A씨,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,B씨,성폭행,추락,혐의,A씨,B씨,2층,사이,복도,창문,1층,추락,B씨,장소,자취방,A씨,당일,경찰,체포,A씨,경찰,조사,B씨,건물,사실,인정,B씨,고의성,부인</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4820,7 +6035,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D244" t="n">
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>검찰,인하대,성폭행,학생,살인죄,적용,미필적,규명,검찰,인하대학교,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,살인죄,적용,인천지검,여성,아동,범죄,조사부,부장검사,구미옥,준강간치사,혐의,경찰,송치,인하대,죄명,성폭력범죄,처벌,특례법,강간,살인,혐의,변경,구속기소,검찰,지난달,여성,아동,범죄,조사부,부부장,검사,팀장,검사실,구성,전담수사팀,구성,지난달,만료,예정,구속기간,연장,수사,검찰,성폭행,시도,살인,미필,고의,인정,판단,죄명,변경,검찰,관계자,피고인,상응,처벌,공소,유지,피해자,방지,가해,피해자,지원,만전,예정,검찰,단계,경찰,수사,적용,성폭력범죄,처벌,특례법,카메라,이용,촬영,반포,혐의,처분,휴대,전화,포렌식,결과,동영상,촬영,사실,인정,피해자,신체,촬영,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,여성,성폭행,3층,추락,혐의,자신,휴대전화,이용,범행,장면,촬영,혐의,추락,건물,길가,방치,당일,행인,발견,호흡,맥박,상태,심폐소생술,CPR,응급처치,병원</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4838,7 +6058,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>인하대,김덕영,동문,발전,기금,약정,누적기부액,규모,인하대학교,총장,조명우,본관,회의실,김덕영,동문,보미건설,회장,발전,기금,전달식,진행,9일,이날,행사,총장,조명우,인하대학교,최기영,교학,부총장,원혜욱,대외,부총장,사무처장,대외협력처장,교무위원들,인하대학교,동창회,양우석,상근,부회장,보미건설,임직원,인하대,건축,공학,졸업,김덕영,동문,모교,발전,인재,양성,7억,기부금,약정,동문,4억,기숙사,건립,기금,6000만,기타,발전,기금,쾌척,기부금,약정,모교,기탁,누적,기부액,11억,김덕영,동문,보미건설,창업,성과,이래,매출,증대,성장,전문가,집중력,회사,경영이념,바탕,품질,추구,회사,성장,보미건설,최고,품질,건축물,사회,공헌,매진,김덕영,동문,모교,애정,공헌,휴게공간,학생,휴게,공간,보미프라자,건립,기부,2021년,4호,화재,전소,공과,대학,실습실,복원,가칭,보미관,준공,진행,김덕영,동문,선배,사회,책임,기업인,인재,양성,학교,역할,조금,도움,기부,후배들,사회,구성원,총장,조명우,인하대학교,모교,관심,기부,버팀목,김덕영,동문,기부,후배들,내실,규모,사용</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,7 +6081,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D246" t="n">
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>인하대,성폭,행범,살인죄,적용,검찰,추락,사망,검찰,인하대,교정,사건,성폭행,사망,가해자,살인,혐의,적용,재판,인천지검,여성,아동,범죄,조사부,부장,구미옥,준강간치사,혐의,경찰,송치,가해자,인하대,성폭행,사망,사건,가해자,성폭력,범죄,처벌,특례법,강간,살인,혐의,적용,기소,9일,검찰,ㄱ씨,작위,살인죄,적용,성폭행,ㄱ씨,피해자,직접적,행위,검찰,부작위,살인,혐의,적용,검토,피해자,구조,상황,판단,적용,검찰,ㄱ씨,미필,고의,인정,살인,직접적,의도,8미터,창틀,의식,피해자,성폭행,행위,피해자,추락,위험성,범행,미필,고의,피해자,가능성,예상,인식,인정,검찰,범행,현장,지상,높이,창틀,외벽,바닥,아스팔트,추락,사망,구조,피고인,의식,보호,능력,결여,상태,피해자,상대,성폭행,시도,추락,사망,검찰,ㄱ씨,방어,능력,피해자,상황,이용,근거,강간,혐의,적용,인천지검,이날,브리핑,강간,준강간,포함,피해자,방어,능력,상황,이용,사건,결과적,준강간,성폭행,피해자,피고인,성폭행,인정,검찰,ㄱ씨,불법,촬영,혐의,기소,ㄱ씨,동영상,촬영,사실,인정,피해자,신체,실제,피해자,촬영,입증,자료,부족,판단,ㄱ씨,순간,피해자,추락,상황,취지,검찰,진술</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4874,7 +6104,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D247" t="n">
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>사건,검찰,인하대,남학생,구속기소,살인죄,적용,구속,기소,인하대,캠퍼스,동급생,성폭행,건물,추락,혐의,남학생,검찰,살인죄,적용,여성아동범죄조사부,인천지검,여성,아동,범죄,조사부,구미옥,부장검사,준강간치사,혐의,검찰,송치,인하대,죄명,성폭력범죄,처벌,특례법,강간,살인,혐의,변경,구속기소,검찰,경찰,수사,단계,A씨,적용,카메라,이용,촬영,반포,혐의,공소장,적시,A씨,캠퍼스,인천,미추홀구,용현동,인하대,20대,성폭행,3층,단과,대학,건물,추락,혐의,B씨,3시,분쯤,건물,행인,발견,신고,출동,119구급대,병원,A씨,경찰조사,살인,고의,주장</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4892,7 +6127,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>검찰,인하대,성폭행,살인죄,남성,기소,검찰,인하대,캠퍼스,여학생,성폭,건물,추락,가해,남학생,살인죄,재판,인천지검,여성아동범죄조사부,부장,구미옥,성폭력범죄,처벌등,특례법,위반,강간,살인,혐의,인하대,구속기소,A씨,인천,미추홀구,인하대,캠퍼스,2층,단과,대학,건물,중간,계단,B씨,여성,성폭행,시도,창밖,사망,혐의,A씨,범행,도주,범행,당일,경찰,체포,B씨,추락,가량,방치,행인,신고,구급대,병원,3시간</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4910,7 +6150,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>검찰,추락사,인하대,성폭행,적용,남학생,살인죄,검찰,인하대,캠퍼스,여학생,성폭행,건물,추락,남학생,살인죄,적용,기소,인천지검,여성,아동,범죄,조사부,구미옥,부장검사,1학년,인하대,성폭력,범죄,처벌,특례법,강간,특례법,살인,혐의,구속,기소,경찰,준간강치사,혐의,검찰,사건,송치,검찰,건물,3층,복도,추락,여학생,사망,사실,방치,도주,미필,고의,살인,혐의,적용,미필,고의,살인,사망,가능성,예상,사망,인식,인정,검찰,범행현장,지상,높이,창틀,외벽,바닥,아스팔트,추락,사망,구조,주목,검찰,관계자,만취,의식,보호,능력,상실,피해자,성폭행,추락,사망,미필,고의,인정,설명,검찰,단계,경찰,수사,적용,성폭력범죄,처벌,특례법,카메라,이용,촬영,반포,혐의,처분,검찰,피해자,신체,촬영,증거,설명</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4928,7 +6173,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,검찰,준강간치사,살인죄,기소,캠퍼스,인천,인하대,또래,여학생,성폭행,건물,추락,혐의,남학생,검찰,살인죄,적용,기소,인천지검,여성,아동,범죄,조사부,구미옥,부장검사,준강간치사,혐의,경찰,송치,인하대,죄명,성폭력범죄,처벌,특례법,강간,살인,혐의,변경,구속,기소,9일,검찰,결과,경찰,수사,바탕,조사,현장,A씨,의식,피해자,상대,성폭행,시도,피해자,추락,사망,판단,검찰,관계자,규명,사실,토대,피고인,살인,미필,고의,인정,강간,살인,구속,기소,검찰,경찰,수사,단계,A씨,적용,카메라,이용,촬영,반포,혐의,피고인,동영상,촬영,사실,인정,피해자,신체,촬영,피해자,신체,촬영,실행,착수,입증,자료,부족,처분,A씨,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과,대학,건물,B씨,여성,성폭행,3층,추락,혐의</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4946,7 +6196,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>검찰,인하대,성폭행,남학생,살인죄,적용,검찰,만취,피해자,사망,미필,고의,불법,촬영,혐의,불기소,증거,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,검찰,살인죄,적용,여성아동범죄조사부,인천지검,여성,아동,범죄,조사부,부장,구미옥,준강간치사,혐의,경찰,송치,인하대,죄명,성폭력범죄,처벌,특례법,강간,살인,혐의,변경,구속,기소,검찰,A씨,추락,피해자,사망,사실,방치,도주,미필,고의,살인,혐의,적용,검찰,관계자,A씨,만취,의식,보호,능력,상실,피해자,성폭행,추락,사망,미필,고의,인정,검찰,단계,경찰,수사,A씨,적용,성폭력범죄,처벌,특례법,카메라,이용,촬영,반포,혐의,처분,검찰,A씨,휴대전화,디지털,포렌식,결과,동영상,촬영,피해자,신체,촬영,증거,설명,A씨,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,B씨,여성,성폭행,3층,추락,혐의,자신,휴대전화,이용,범행,장면,촬영,혐의,A씨,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,가량,건물,길가,건물,방치,행인,발견,병원,3시간</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4964,7 +6219,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>검찰,사망,인하대,성폭행,남학생,살인죄,적용,미필,고의,살인죄,적용,검찰,인하대,캠퍼스,또래,여학생,성폭행,추락,혐의,남학생,살인죄,적용,인천지검,여성,아동,범죄,조사부,부장검사,구미옥,준강간치사,혐의,경찰,구속,송치,인하대,A씨,죄명,성폭력,범죄,처벌법,강간,살인,혐의,변경,구속,기소,9일,검찰,건물,추락,피해자,사망,사실,가해자,도주,미필,고의,살인,혐의,적용,현장,범행,높이,창틀,외벽,검찰,관계자,바닥,아스팔트,추락,사망,추락,구조,A씨,만취,의식,보호,능력,상실,피해자,성폭행,사망,미필,고의,살인,사망,가능,예상,사망,인식,인정,수사,단계,적용,준강간치사죄,유죄,인정,무기,10년,징역,기소,단계,A씨,적용,강간,살인죄,재판,인정,사형,무기징역,단계,경찰,수사,적용,카메라,혐의,이용,촬영,처분,검찰,A씨,디지털,포렌식,결과,피해자,신체,촬영,증거,설명,영상,범행,장면,음성,녹음,A씨,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,B씨,여성,성폭행,3층,추락,혐의,A씨,B씨,마지막,조사,A씨,경찰,조사,B씨,건물,사실,인정,B씨,고의성,부인</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4982,7 +6242,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>성폭행,인하대,살인죄,적용,미필적,규명,검찰,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,살인죄,적용,재판,인천지검,여성,아동,범죄,조사부,구미옥,부장검사,A씨,성폭력,범죄,처벌,특례법,위반,강간,살인,혐의,구속기소,9일,검찰,사건,발생,관할,경찰,협력체계,구축,송치,즉시,여성,아동,범죄,조사부,부부장,검사,팀장,전담수사팀,구성,보완수사,법리분석,피고인,성폭행,시도,살인,미필,고의,규명,설명,미필,고의,살인,사망,가능성,예상,사망,인식,인정,검찰,단계,경찰,수사,A씨,적용,성폭력범죄,처벌,특례법,카메라,이용,촬영,반포,혐의,처분,검찰,A씨,휴대전화,디지털,포렌식,결과,동영상,촬영,피해자,신체,촬영,증거,판단,A씨,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과,대학,건물,B씨,여성,성폭행,3층,추락,혐의,검찰,관계자,피고인,상응,처벌,철저,재판,대비,피해자,가해,방지,피해자,지원</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5000,7 +6265,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,학생,살인죄,적용,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,가해,남학생,검찰,살인죄,적용,인천지검,여성,아동,범죄,조사부,구미옥,부장검사,준강간치사,혐의,경찰,송치,인하대,죄명,성폭력범죄,처벌,특례법,강간,살인,혐의,변경,구속,기소,9일,검찰,단계,경찰,수사,A씨,적용,카메라,이용,촬영,반포,혐의,공소장,적시,A씨,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과,대학,건물,B씨,여성,성폭행,3층,추락,혐의,자신,휴대전화,이용,범행,장면,촬영,혐의</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5018,7 +6288,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>정부,협상,강제동원,협상,강제,동원,보상,피해자,과오,사과,이석우,국제법,포럼,천동설,지동설,나라,징용,보호,피해,외교,미쓰비시,상표,주식,매각,압류,현금화,기각,올가을,위법,불법,발생,피해자,대상,외교,보호,일괄,협정,배상,보상,동일,사안,행사,피해자,정책대안,일정,제시,현금화,손해,배상금,지급,일제,강점기,강제,동원,판결,생산,군수,물자,사실,강제,징용,피해자들,회사,군수,뿌리,일본,기업,상대,불법행위,손해배상,청구,사안,피해자들,청구권,한일,청구,협정,소멸,핵심,쟁점,대법원,동일,소송,일본,법원,진행,원고,청구,기각,원심,헌법,정신,배치,일본,법원,판결,인정,청구,협정,피해자들,개인,청구,소멸,판단,일본,기업,손해,배상,책임,인정,취지,원심,판결,파기환송,법원,피해자,원고들,1억,8000만,위자료,지급,판결,일본,기업,불복,재상고,대법원,기각,판결,확정,피고,기업,원고,손해배상금,지급,원고,피고,기업,자산,소유,강제집행절차,현금화,막바지,단계,대전지방법원,미쓰비시중공업,상표권,특허권,매각,명령,상황,신일철주금,한국,포스코,합작,법인,설립,주식회사,PNR,주식,압류,명령,상태,미쓰비시중공업,재항고,대법원,기각,올가을,현금,정부,강제동원,강제,동원,해법,모색,민관협의회,출범,대법원,해결책,마련,현금,절차,의견서,제출,민관협의회,참여,원고,정부,대법원,의견서,회의,불참,선언,정부,해법,피해자들,설득,주목,상황,한일협상,대일,청구,범위,법인,포함,원고,대리인,지원,시민단체,외교부,외교,외교,보호,가지,질의,정부,강제동원,일본,기업,불법행위,판단,일본,정부,기업,공동불법행위,판단,정부,강제,동원,불법,행위,한국,정부,외교,보호,성립,요건,충족,판단,외교,보호,성립,요건,충족,판단,질의,외교부,구체적,답변,외교부,국제법,외교적,해법,적합,1952년,국교정상화,전후,보상,협의,한일,정부,국교,정상,대한민국,일본국,기본관계,조약,부속,협정,대한민국,일본국,재산,청구권,해결,경제,협력,협정,체결,한일청구권,협정,일본,한국,10년,달러,무상,달러,차관,제공,동시,청구권,최종적,해결,확인,의사록,한국,요강,대일,청구,범위,피징,한국인,미수금,보상금,기타,청구,변제,청구,한국인,일본인,일본,법인,청구,포함,한국,정부,강제,징용,피해자,보상,청구권,협정,대상,포함,일본,협상,일본,정부,청구권,협정,강제,징용,피해자,청구권,소멸,주장,해석,한일협정,해석,효력,일본,기업,불법,행위,성격,번째,정답,판결,일제,식민지,강제,동원,불법행위,구체적,일본,정부,기업,조직적,공동불법행위,원고들,손해,배상,소송,피고,일본,기업,한정,일본,정부,피고,포함,판결,판단,일제,강점기,강제,동원,불법성,일본,정부,일본,기업,단독불법행위,해석,빈약,주장,한일협정,대법원,해석,효력,한일,체결,조약,효력,영향,한국,주장,일제,식민지,지배,불법성,식민지,강제,동원,불법성,일본,주장,식민지,지배,합법성,타협,식민,지배,합법,불법,타협,한일,기본,조약,한일,기본,조약,체제,내재,일제강점기,한일,대립적,인식,자체,인정,외교,보호,번째,상호,연관,외교,보호,국가,타국,국민,신체,재산상,피해,피해,국민,국적국,외교,조치,평화,수단,가해국,구제,청구,관습국제법,인정,국가,고유,권리,국가,자국민,대리,자국민,주장,포기,피해국,자국민,청구,제기,의무,피해국,포기,피해국,행위,추론,묵인,默認,합의,외교,보호,포기,피해국,외교,보호,행사,여부,수단,결정,국익,기준,가해국,정치,외교적,영향,행정부,재량,행위,행사,외교,보호,각국,사법부,외교,정책,영향,사법심사,자제,경향,외교,보호,판단,기준,타국,위법,불법행위,손해,발생,여부,중요,사법부,판결,국가기관,기속,羈束,판결,근거,정부,일본,위법,불법행위,원고들,손해,발생,강제동원,피해자,한국,정부,외교,보호,성립,요건,보호,대상,포함,이견,외교,보호,보호,대상,정부,외교,보호,행사,별개,국적국,정부,자국민,피해,회복,가해국,정부,외교,보호,행사,일괄,협정,배상금,보상금,양자,사이,해결,국내적,배상금,보상금,지급,동일,보호권,외교,보호,행사,여지,한국,외교,보호,행사,피해자,원고,손해,일괄,협정,배상,한일,사이,해결,기업,피해,피해,구제청구,한국,정부,일본,국교정상화,청구권,협정,체결,일제,강점기,피해자,반영,과오,피해자들,진심,사과,사안,이해,당사자,합의,노력,피해자,신속,보호,과거사,해결,정책,대안,포함,구체적,로드맵,제시,선행,조치,일본,기업,자산,현금,손해,선지급,종국적,특별법,제정,입법,행위,일제,강점기,피해자,일률적,공정,기준,선배상,외교,협의,일본,정부,기업,수준,신탁금,피해자,유족들,지원,정책,실행,방안,조치,일본,기업,자산,현금,일본,정부,피해,기업,국적국,가해국,한국,구제,청구,외교,보호,행사,결국,한일,파국,교수,인하대,법학,전문,대학원</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,7 +6311,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>수학,논리학,집합,함수,현대,논리학,기초적,필수적,개념,칼럼,우리나라,학생,논리,교육,강화,중학교,수학,교육,집합,함수,개념,얘기,역사학자,집합,함수,논리,중요,수학자,사실,대다수,사람들,수학,개념,논리,연관,이해,자신,대학생,대학,철학,친구,수학,전공과목,집합론,수강,세기,유럽,수학,과학,발전,속도,시작,학문,분야,전문성,분야,세분화,시작,2000년,학문,기초,바탕,논리학,세기,후반,프레게,칸토어,독일,수학자들,중심,그전,독립적,체계적,학문,분야,프레게,수학,개념,완전,구체적,논리,정의,주장,논리,서술,형식적,기호화,언어,산술,체계,논리학,유도,노력,집합론,창시자,칸토어,오랫동안,수학,논리학,금기시,무한,개념,자연,논리적,집합,논리학,중요,개념,독자들,이해,수학,논리학,한마디,현대적,논리학,수학,부분집합,체계적,현대,논리학,철학자,수학자,공유,고전,논리학,구별,수리논리학,기호논리학,수리논리학,집합,연산,함수,무한,수학,개념,포함,집합론,근간,배경,지식,사람들,이해,학문,수학,논리학,수학기초론,논리학,100년,힐베르트,형식주의,철학,입각,수학,최선,기초,발전,수학기초론,중요,결점,논리적,완벽,산술체계,존재,오스트리아,수학자,괴델,불완전성,정리,세상,아인슈타인,유명,사람,힐베르트,페아노,러셀,화이트헤드,현대,논리학,개척,최고,수학자들,달성,완벽,논리체계,구성,불가능,증명,물리학,패러다임,양자역학,물리학,주류,자리,시작,하이젠베르크,불확정성,원리,불완전성,정리,지식인들,세상,완전,진리,존재,세계관,자연과학,철학,경제학,학문,영향,완벽,추구,논리학,수학,기초,발전,논리적,완벽,수학,기초,자체,존재,논리적,증명,아이러니,논리,불완전성,괴델,이론,거론,학교,집합,개념,완벽,정의,집합,원소,러셀,패러독스,발생,집합,원소,정도,수학자들,기준,수학자들,논리,세계,활동,직관,관찰,논리,사고,서술,우선시,논리,세계,완벽,수학자들,논리,의존,수학,기초,세계적,논리학자들,대다수,수학자들,의식적,무의식적,힐베르트,추구,수학,형식주의,방향,수학자들,최종,존재,방향,방향,송용진,인하대,수학,교수</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5054,7 +6334,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>승용차,버스,인천,물폭탄,잠겨,지역,인천,강풍,동반,폭우,도로,시장,침수,운행,경인국철,열차,지연,피해,인천소방본부,이날,11시,5시,85건,신고,호우,피해,접수,피해,유형,83건,배수,지원,안전,조치,파악,인명피해,보고,이날,호우,기준,도로,침수,통제,15개소,이날,지하차도,미추홀구,인하대병원,사거리,고속,종점,지하,차도,침수,신고,출동,경찰,방향,도로,통제,배수,조치,도로,통제,해제,1시,중봉,서구,원창동,구간,침수,통제,해제,구간,교통,혼잡,중구,운서,통제,경인국철,주안역,도화역,인근,침수,열차,운행,한동안,지연,인천경찰청,도로,인천경찰청,나무,도로,주안역,인근,도로,승용차,침수,시민,5명,차량,모습,목격,이날,인천,지역,12시,호우경보,발효,지역,강우량,이날,0시,6시,중구,부평,113.5,영종도,90.5,인천공항,연수,강화,인천시,비상,발령,10개,직원,투입,만일,사태,대비,수도권,기상청,관계자,인천,10일,자정,예상,호우,피해,대비,당부</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,7 +6357,12 @@
           <t>내일신문</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>정권,지속가능성,김종대,인하대,녹색,금융,대학원,주임,교수,센터장,지속,가능,경영,연구소,ESG,ESG,지속,가능,평가,중요,기후변화,DEI,다양성,형평성,포용성,주목,지속가능성,유엔,보고서,공동,미래,경제,성장,일변도,사회,환경,사회,측면,구조,문제점,지속적,성장,반성,탄생,개념,환경청,미국,EPA,지속가능성,정책목표,제시,미래세대,사회,환경,기타,요구,충족,인간,자연,생산적,조화,상황,창조,유지,정의,지속가능성,국가,지자체,공공정책,탄생,공공정책,시장경제,경제성장,효율,자원,배분,파생,구조,문제점,보완,해결,시장,실패,외부효과,externalities,최소화,환경규제,강화,시장경제,악화,소득,평등,해소,조세,임금,복지,인권,정책,실행,정부,공공기관,실현,본래,지속,가능,사회적,존재,정권,경제적,창출,정부,역량,효율성,부족,사회,환경,가치,보존,미래세대,배려,현세대,평등,공정성,촉진,지속가능성,지속가능성,결여,기업,파산,정권,정권,지속,가능,의지,역량,출범,정권,지속,가능,위기,기후,변화,대응,평등,인권,사회,가치,표방,정권,원칙,자유주의,시장,경제,훼손,기업,경쟁력,약화,결과적,사회,불공정,비난,해소,공정,사회,갈망,국민,정서,정권,탄생,지속가능성,의지도,정책,역량,사실,기후변화,에너지정책,동전,양면,탄소배출,책임,화석,연료,사용,감축,달성,확대,재생,에너지,사용,감소,화석,연료,사용,의존,정책,무능,비전,결여,정권,확대,원자력,에너지,대안,기후,변화,정책,제시,원자력,에너지,저탄소,에너지,지속가능,에너지,기후,변화,대응,비즈니스,모델,창출,미래,산업,경쟁력,좌우,핵심,수단,정부,재생,에너지,확산,탄소,중립,정책,퇴보,생물다양성,미래,환경,이슈,현명,대응,사회,측면,주장,공정,권력,핵심,측근,과거,행적,인사정책,허구,성찰,감세정책,심화,소득,평등,해소,저소득층,사회,정의,포용적,사회,모습,거리,다양성,자체,사회,가치,기업,사회,경쟁력,검찰공화국,비아냥,상황,개탄,경제정책,성장,주도,역량,붕괴,글로벌,공급망,기업,미래,불안,산업정책,제시,양병설,반도체,양병,주장,고도,전문적,반도체,설계,공정기술,양성,석박사,연구원,상황,미래수요,전문학사,대졸자,양성,교육,역량,예산,낭비,반도체,산업,협업,강화,효과적,인력양성,교육,파행,조장,사회적,경제,환경,사회,가치,충족,지속가능성,환경,사회,가치,강조,경제,지속,가능,전제,환경,사회,지속,가능,논의,의미,기업,환경,사회,가치,논의,정부,경제,성과,유지,환경,사회,성과,추구,동시,환경,사회,지속,가능,경제,지속,가능,불가능,사회적,경제,환경,사회,가치,기둥,국민,눈높이,충족,정권,지속,지속가능,정권,지속</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5090,7 +6380,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D259" t="n">
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>반도체,반사,이익,칩4,참여,타격,참여,펠로시,반도체,패권,변화,움직임,미국,유럽,탈대만,논의,의존,시급,수출,다변,한국,대중,對中,변수,수출,최대,대만,반도체,움직임,패권,변화,중국,긴장,대만,사이,고조,의존도,대만,반도체,세계,움직임,산업,한국,반도체,상황,이용,단기적,반사이익,장기적,타격,정부,차원,전략,지원,목소리,대만,하이테크,품목,수출,시장,한국,국제무역통상연구원,지난달,한국무역협회,국제,무역,통상,연구원,발간,하이테크,수입,시장,동향,한국,수출,시사점,보고서,대만,기준,세계,하이테크,수출,비중,6.1%,5.3%,한국,파운드리,세계,최대,반도체,위탁생산,업체,TSMC,실적,하이테크,품목,제조,R&amp;D,비중,제품,반도체,전자통신기기,통칭,품목,하이테크,전자통신기기,교역액,수입액,기준,1조,달러,품목,하이테크,55.6%,차지,연평균,증가세,4.6%,급등,반도체,세계,교역,중심,공급망,다변,목소리,시작,우크라이나,사태,중국,대만,무력,침공,발생,단절,반도체,공급망,낸시,펠로시,미국,하원,의장,대만,방문,증폭,실제,중국,대만,무력시위,대만,감귤,수입,수출,천연,모래,수출,단행,부연구위원,경희,산업,연구원,부연구,위원,미국,유럽,중국,대만,무력,침공,가능,대만,첨단,반도체,의존도,논의,제기,대만,수요,선점,전략,마련,미국,유럽연합,EU,대만,의존,불안,욕구,공급선,다변,한국,미국,EU,대만,아시아,반도체,의존도,타격,산업,전망,미국,하이테크,수입,시장,중국,40%,육박,점유율,차지,2018년,기점,점유율,급락,점유율,30%,본격화,무역분쟁,중국,하이테크,제품,수입,영향,풀이,미국,중국,고립,인도태평양경제프레임워크,IPEF,반도체,공급망,동맹,Chip4,구축,추진,한국,칩4,입장,구도,강화,결국,동참,관측,중국,교역,위축,정인교,인하대,국제통상학부,교수,양국,양국,무역,규모,축소,추세,전망,결국,결국,반도체,산업,전략적,지원,방식,중국,의존도,수출선,다변화,제언,부연구,한국,압도,경쟁력,보유,메모리,분야,정부,지속,관심,정책,지원,해외,한국,첨단,메모리,의존도,축소,시도,무력화,세종,심희정</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5108,7 +6403,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D260" t="n">
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>중국,진출,실적,체감,아사,직전,매출,BSI,분기,불과,현대,기아차,전망,점유,중국,진출,한국,기업,실적,날개,추락,코로나19,영향,실적,개선,여지,대중,對中,수출,기업,실적,체감도,반도체,제외,울상,형국,산업,연구원,2분기,5년,개월간,기업경기실사지수,중국,진출,기업,매출,기업,경기,실사,지수,BSI,분기,5차례,매출,BSI,기점,분기,매출,기업,수치,반대,분기,매출,하락,기업,수치,코로나19,사태,시작,2020년,매출,BSI,3차례,3분기,분기,101,,기록,대중,개선,대중,상황,문재,인정부,초기,영향,정부,노력,제외,나머지,분기,매출,BSI,중국,시장,진출,기업들,상황,코로나19,해석,2020년,상황,매출,BSI,통계,집계,시작,2015년,최저치,일정,회복,2분기,4분기,기록,기저,효과,영향,평가,분기,실적,비교,봉쇄,조치,실적,1,기록,진출,중국,시장,수출,기업,체감,기준,중국,시장,점유,2.7%,기록,현대차,기아,대표적,1%대,기록,암울,전망,정인교,인하대,국제통상학,교수,중국,과거,흑자,시장,경고,세종,신준섭</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5126,7 +6426,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D261" t="n">
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>대세론,세대교체론,단일,무용,더불어민주당,전당,대회,세대교체론,97세대,90년대,학번,70년대,부진,비전,제시,세대,차별화,실패,지적,민주당,출신,직전,대통령,선거,후보,이재명,의원,등판,만큼,후보,존재감,애초,당내,충청,호남,수도,경선,일정,만큼,박용진,강훈식,의원,의미,득표,관계자,의원,캠프,세계일보,통화,지역,권리당원,투표,결과,바탕,압도,대세,자신,경선,지역,강원,대구,경북,출신,만큼,경북,후보,유리,대세론,입증,의원,약점,지목,사법,리스크,공세,사당,논란,풀이,남동체육관,인천,민주당,대표,민주당,합동연설회,최고,위원,후보자,인천,지역,합동,연설회,이재명,오른쪽,박용진,강훈식,강훈식,대표,후보,국기,경례,의원,반등,의원,대의원,투표,여론조사,일반,국민,여론,조사,의원,고향,충청,반전,의원,리더십,모양새,박상병,인하대,정치,외교학,교수,사당,논란,사법,리스크,당원들,윤석열정부,리더십,비주류,사람,당내,사람,당대표,국민,호재,인식,해석,친이재명계,당내,세력,정점,의원,당대표,민주당,분열,취지,경선,초반,비이재명,주자,단일,변곡점,만큼,세대교체론,물거품,지적,의원,득표,30%,중진,의원,세대,교체,결국,세력,후보,제시,비전,시점,매력,초반,대국민,여론,조사,주말,양상,기대감,수도권,초선,의원,통화,충청,호남,수도권,투표,일각,의원,당선,최소,과반,승리,저지,분위기,감지</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5144,7 +6449,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>보수,실력,정도,윤홍식,교수,인하대,사회,복지,학과,소셜코리아,운영위원장,정부,정권,출범,이래,윤석열,일관,정책기조,성장,민생,해결,1990년대,성장,둔화,불평등,심화,동반,생각,해법,경제,보수,세간,믿음,보수정부,공언,고도성장,부자,국민,욕망,국민,욕망,실현,가능성,세금,경제,성장,논리,신화,크루그먼,지적,보수주의자,금과옥조,호황,미국,레이건,정부,감세정책,결과,1970년대,시작,이자,상승,인위,경기,침체,기저효과,금리,금융완화,결과,역설,레이건,정부,감세,경기하강,부채,수요,자극,감세,부족,재정,부채,정부,아들,부시,감세정책,보수,공언,경기침체,금융위기,종말,이명박,정부,감세,이명박,정부,법인세율,25%,22%,종합부동산세,무력화,기업,부자,세금,부담,감세,이명박,정부,경제,민생,회복,성장률,이명박,정부,연평균,성장,김대중,노무현,정부,3.2%,감세,재벌,사내유보금,비판,이명박,정부,레이건,정부,감세,부족,재정,보충,국채,발행,김대중,노무현,정부,발행,국채,연평균,5.6,이명박,정부,민주당,정부,4배,연평균,발행,증세,복지,박근혜,정부,감세,부족,재정,증세,윤석열,정부,경제,활력,민생,안정,부자,재벌,감세,당황,기획,재정부,장관,감세정책,경제,글로벌,스탠더드,주장,기준,금융위기,팬데믹,국제통화기금,세계은행,강조,글로벌,기준,정부,불평등,적극,경제,장기침체,지속성장,장관,세상,물정,유행,정책,유효,착각,글로벌,기준,노동,복지,대통령,본인,대통령,수사,정책,문외한,논외,기재부,장관,실질적,결정권,관료,전문가,사실,부자,대기업,세금,경제,민생,과학,주장,국민,집권,경험,초보,여당,행동,보수,실력,정도,팬데믹,인플레이션,경기,서민,중산층,위협,대책,부자,혜택,인플레이션,자극,감세,정부,경제,보수,세간,믿음,근거,믿음,생각,감세,글로벌,기준,인플레이션,경제위기,시대,윤석열,정부,보수,이념,위기,민생,구차,변명,국민,체감,유류세,인하,계획,감세,5년,60조,마련,보수,색깔,기준중위소득,현실화,취약계층,선별,복지,확대,인플레이션,시대,세계경제,흐름,기본,보수정부,체면,경제,민생,정책,낙제</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5162,7 +6472,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>반도체,전쟁,대만,맹폭,기로,한국,신냉전,대비,반도체,격변,한국,대중,對中,변수,수출,최대,대만,반도체,움직임,패권,변화,중국,긴장,대만,사이,고조,의존도,대만,반도체,세계,움직임,산업,한국,반도체,상황,이용,단기적,반사이익,장기적,타격,정부,차원,전략,지원,목소리,대만,하이테크,품목,수출,시장,한국,국제무역통상연구원,지난달,한국무역협회,국제,무역,통상,연구원,발간,하이테크,수입,시장,동향,한국,수출,시사점,보고서,대만,기준,세계,하이테크,수출,비중,6.1%,5.3%,한국,파운드리,세계,최대,반도체,위탁생산,업체,TSMC,실적,하이테크,품목,제조,R&amp;D,비중,제품,반도체,전자통신기기,통칭,품목,하이테크,전자통신기기,교역액,수입액,기준,1조,달러,품목,하이테크,55.6%,차지,연평균,증가세,4.6%,급등,반도체,세계,교역,중심,공급망,다변,목소리,시작,우크라이나,사태,중국,대만,무력,침공,발생,단절,반도체,공급망,낸시,펠로시,미국,하원,의장,대만,방문,증폭,실제,중국,대만,무력시위,대만,감귤,수입,수출,천연,모래,수출,단행,부연구위원,경희,산업,연구원,부연구,위원,미국,유럽,중국,대만,무력,침공,가능,대만,첨단,반도체,의존도,논의,제기,대만,수요,선점,전략,마련,미국,유럽연합,EU,대만,의존,불안,욕구,공급선,다변,한국,미국,EU,대만,아시아,반도체,의존도,타격,산업,전망,미국,하이테크,수입,시장,중국,40%,육박,점유율,차지,2018년,기점,점유율,급락,점유율,30%,본격화,무역분쟁,중국,하이테크,제품,수입,영향,풀이,미국,중국,고립,인도태평양경제프레임워크,IPEF,반도체,공급망,동맹,Chip4,구축,추진,한국,칩4,입장,구도,강화,결국,동참,관측,중국,교역,위축,정인교,인하대,국제통상학부,교수,양국,양국,무역,규모,축소,추세,전망,결국,결국,반도체,산업,전략적,지원,방식,중국,의존도,수출선,다변화,제언,부연구,한국,압도,경쟁력,보유,메모리,분야,정부,지속,관심,정책,지원,해외,한국,첨단,메모리,의존도,축소,시도,무력화,세종,심희정</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5180,7 +6495,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>헬스,크로스,트레이닝,선택,양종구,건강법,시대,평소,수영,헬스,요가,순간,그동안,운동,보디,프로필,Body,Profile,사진,마음,자신,동기부여,보디프로필,시작,도전,얘기,프로필,순간,보디,생각,운동,근육,선명도,유산소,운동,러닝머신,근처,서울,한강,한강공원,세상,헬스장,요가장,광경들,나무,사람,야경,느낌,풍광,신종,코로나바이러스,감염증,코로나19,발생,2019년,보디,프로필,달리기,마니아,지방,유산소,운동,권유,시작,달리기,최애,最愛,스포츠,조금,거리,2~3,5km,관절,부담,웨이트트레이닝,근육,호흡,특정,거리,완주,기분,요가,정적,운동,활기,그해,가을,10km,마라톤,참가,55분,완주,한참,달리기,2020년,여파,코로나19,확산,대회,취소,남산,트레일러닝,도로,통제,자유,인터넷,서핑,남산,트레일러닝,동호회,찰스런,목요일,남산,겨울,찰스런,사람들,모임,오르막,풍광,주위,나무,바위,신비,자연,기분,다음날,기분,냄새,즐거움,강원도,정선,트레일러닝,22km,3시간,완주,경험,상태,대회,출전,바람,무릎,2021년,대회,출전,자제,본격적,대회,출전,거제지맥,트레일러닝,24km.,북한산,종주,트레일러닝,14km,출전,7월,울릉도,트레일러닝,울릉천국아트센터,출발,나리분지,성인봉,대아리조트,15km,코스,생각,원시림,울릉도,느낌,육지,자연,보존,느낌,운동,10km,월요일,테니스,수요일,금요일,헬스,목요일,트레일러닝,주말,사이클,라이딩,장거리,달리기,수영,철인,대회,출전,사이클,코로나19,대회,취소,바람,주말,라이딩,대회,대회,참가,엄두,사이클,한강공원,남산,북악산,코스,일요일,달리기,동호회,질주,운동,방식,운동,즐거움,부상,예방,크로스트레이닝,Cross-Training,종목,흥미,순간,운동,스트레스,부상,크로스,트레이닝,정의,스포츠,피트니스,현장,운동,부위,향상,특정,운동,특정,근육,향상,크로스,트레이닝,불균형,훈련법,마라톤,사이클,마라톤,사이클,사이클,마라톤,교수,김병준,인하대,스포츠심리학,종목,스트레스,성취감,운동,지속적,실천,가능성,교수,사이클,순간,마라톤,반대,특정,종목,해결,종목,해결,마라톤,사이클,종목,성취감,설명,운동,달리기,즐거움,사이클,적응,사이클,달리기,스피드,사이클,상황,거리,완주,달리기,매력적,5월,20km,연속,도전,동호회,챌린지,성취감,기분,선의,경쟁심,시작,친구,제자리,측면,바리스타,운동,매니저,종합,스포츠,용품,업체,자리,회사,서울,강남구,신사동,가로수길,근처,헬스클럽,수영장,무료,이용,사이클,라이딩,회사,직원,직업,생각,이직,스포츠,42.195,마라톤,풀코스,도전,도로,결국,능동적,풀코스,주말,25km,LSD,Long,Slow,Distance,하프코스,훈련,풀코스,30km,35km,훈련,완주,세계,최고,트레일러닝,대회,UTMB,울트라트레일,몽블랑,생각,보디,프로필,시작,트레일러닝,풀코스,이젠,마라톤,트레일러닝,100km,도전,단계,도전,자체,운동,프로필,2019년,보디,프로필,5월,3차례,운동,보디프로필,노력,산물</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,7 +6518,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>일탈,비상식,열등,자폐,이슈,자폐,사람,한스,아스페르거,자폐,긍정적,생각,일탈적,비정상적,열등,자폐아들,사고방식,경험,훗날,성과,작품성,화제성,인정,인기리,방영,ENA,드라마,변호사,우영우,주인공,우영우,대사,우영우,장애,자폐,스펙트럼,변호사,서울대,로스쿨,수석,졸업,만점,변호사,시험,1500점,합격,한바다,법무,법인,입사,비장애인,시각,법정,맹활약,ENA,드라마,변호사,우영우,스틸컷,ENA,6월,방영,드라마,넷플릭스,영어,시청,1위,기록,관심,장애,자폐,스펙트럼,사회,관심,발달장애,일종,장애,자폐,스펙트럼,자폐,自廢,한자어,마음,특징,자폐,스펙트럼,장애인,주변,관심,사람,소통,어려움,한편,특정,행동,반복,증상,성향,드라마,우영우,의사소통,불가능,장애인,자폐,스펙트럼,피고인,등장,기준,15세,1만,한국장애인고용공단,조사,드라마,실제,자폐,스펙트럼,장애,변호사,분야,진출,방식,세상,소통,현실,존재,지난달,현지시간,미국,노스캐롤라이나,장애인,오픈,우승,프로,골프,선수,이승민,이승민,미국골프협회,프로,골프,선수,대표적,이씨,지난달,현지시간,미국,노스캐롤라이나주,장애인,오픈,자리,초대,챔피언,미국골프협회,개최,대회,이씨,세계,각국,77명,장애인,골퍼,경쟁,이씨,진단,무렵,선천,자폐,스펙트럼,장애,외교관,아버지,미국,이씨,관심,골프,타이거,우즈,전성기,후반,TV,초반,골프,경기,만화영화,관심,이씨,골프,이씨,본격적,골프채,중학생,프로,선수,지망,이씨,어머니,박지애,승민이,바깥,사람,방법,골프,생각,회상,이씨,고등학생,본격적,기량,5기,KPGA,투어,프로,선발전,합격,세상,주목,중학교,발달,장애,판정,이씨,고등학교,무렵,조정,사회적응지수,박씨,골프,승민이,사람들,소통,유지,방법,박씨,각자,상황,장애,가족,아이,생각,화가,자폐,장애,라이브,드로잉,부열,작가,한부열,부열,작가,작가,화가,자폐,장애,라이브,드로잉,타이틀,라이브,드로잉,밑그림,즉석,순식간,그림,완성,장르,작가,이용,세상,독특,시각,표현,미술계,작품성,발달장애인,한국미술협회,정회원,등록,작가,미술,교육,작가,어머니,임경신,작가,아버지,직업,사우디아라비아,거주,아들,미술,특별,재능,발견,수업,초등학교,미술,학생들,나무,작가,꽃잎,줄기,작가,자신,11년,혼자,그림,양손,엄지,손가락,지문,정도,몰입,임씨,아들,스케치북,그림,도중,작업,일정,가족,1시간,우연,계기,참가,전시회,호평,작가,전국,개인전,전시회,제안,대중,활동,임씨,장애,자폐,스펙트럼,아들,엄마,부모들,단시간,싸움,강조,자식,성장,부모,휴식기,편안,생각,강조,윤은호,초빙교수,인하대,문화,콘텐츠,문화,경영학,초빙,교수,우리나라,박사,학위,취득,장애인,자폐,스펙트럼,인하대,문화,콘텐츠,전공,학사,석사,박사,학위,교수,철도신문,1년,개월간,근무,모교,임용,수업,수업,한국,대학,자폐,장애인,강의,역사적,순간,통합학급,일반,학교,통합,학급,재학,교수,학창,시절,학교,폭력,도서관,서브,컬처,해방구,관심사,코스프레,문화,정체성,사회,의미,서적,출간,교수,자폐,컨설팅,기관,AP,코리아,과거,인터뷰,연구공동체들,협업,의미,사람,개인적,자폐,당사자,선례,장애,과장,묘사,우영우,주변,사람들,경기,시흥시,거주,손성락,ENA,드라마,변호사,우영우,시작,방영,손씨,시청,8세,손씨,수아,중증,자폐,스펙트럼,장애,예전,영화,장애인,자폐,스펙트럼,범죄,노출,모습,기억,변호사,우영우,억양,말투,초점,시선,반향어,손씨,드라마,결국,눈물,모습,주인공,우영우,수아양,우영우,말문,우영우,아버지,장면,자신,모습,판타지,판타지,목소리,라이브,드로잉,부열,작가,어머니,임경신,우영우,활약,모습,통쾌,현실,거리,우영우,고래,얘기,설명,장면,대표적,임씨,장애인,자폐,스펙트럼,90%,자신,몰입,대상,흥분,드라마,설명,돌발,행동,시선,비장애인들,자폐,장애인,잠재적,천재,시선,가족들,부담,우영우,천재성,장애인,가족,도움,일상생활,자체,한국장애인고용공단,공개,발달장애인,실태,결과,도움,혼자,응답,가구,자폐,장애,54.5%,세수,양치,머리,감기,혼자,응답,가구,48.9%,절반,자녀,재능,주변,무심,질문,가족들,고통,아이,우영우,생각,낙담,부모들,장애,자폐,스펙트럼,자녀,부모들,드라마,위로,과장,현실적,장애,묘사,장애인,사회,일원,성장,모습,평가,손씨,세계일보,통화,우영우,주변,사람,사람들,생각,수아,세상,사람,걱정,드라마,미래,느낌,걱정</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5216,7 +6541,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>통일부,통일부,기획조정실,통일,법제,지원,팀장,이선민,국립통일교육원,스마트,교육,팀장,백대현,보건복지부,과장급,전보,인구정책총괄과장,이선영,건강정책과장,곽순헌,환경부,과장급,신규,낙동강유역환경청,환경,감시단장,최영희,방위사업청,국장급,임용,방위사업감독관,최행관,금융결제원,원장,박종석,인하대,법학전문대학원장,정영진</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5234,7 +6564,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>방위사업청,최행관,방위,사업청,국장,임용,방위,사업,감독관,세종시,승진,시민,안전,실장,조수창,승진,보건,복지,아동,청소년,과장,정영진,인하대,법학,전문,대학원장,신규,환경부,과장,최영희,낙동강유역환경청,환경,감시단장,한국폴리텍대학,학교,법인,학교,법인,한국폴리텍,홍보,부장,구연욱,대학,한국폴리텍,대학,행정처장,이영화,곽순헌,보건,복지,과장,전보,인구,정책,총괄,과장,이선영,건강,정책,과장,백대현,통일부,과장,전보,기획,조정실,통일,법제,지원,팀장,이선민,국립,통일,교육원,스마트,교육,팀장</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,7 +6587,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>8월,인사,통일부,전보,백대현,과장,기획,조정실,통일,법제,지원,팀장,이선민,국립,통일,교육원,스마트,교육,팀장,보건,복지,전보,건강정책,인구,정책,총괄,과장,이선영,건강,정책,곽순헌,최영희,환경부,과장,낙동강유역환경청,환경,감시단장,방위,사업청,국장,방위,사업,감독관,최행관,내외경제TV,NBN,TV,제작,보도국장,이승익,이승,본부장,온라인,한윤식,경영,지원,황선욱,방송,김양하,보도국,산업,부장,이정석,디지털,자산,안정,제작국,매체,사업,국장,한영호,정영진,인하대,법학,전문,대학원장,이영화,한국폴리텍대,학교,법인,홍보,부장,구연욱,행정처장</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,7 +6610,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>바람,교육정책,취학,폐지,박순애,사퇴,반발,학부모,정부,전문가,초등,교사,5세,방침,외고,폐지,사퇴,학부모,박순애,윤석열,정부,교육,정책,반발,연령,초등학교,입학,5세,학제개편안,5일,반대,집회,기자회견,토론회,정책,반대,목소리,방침,외국어고,폐지,학부모,단체,규탄,회견,장관,박순애,사회,부총리,교육부,퇴진,요구,학부모,정부,느낌,교육,시민,단체,사교육,걱정,세상,이날,서울,용산구,사무실,진행,간담회,장애,아들,A씨,정책,사회적,목소리,학부모,느낌,교육부,장애,아동,조기,취학,대안,의문,제기,정책,폐기,윤석열,대통령,부총리,사과,목소리,아이,철회,자존심,생각,미안,사과,나모씨,나라,사람들,국민,편안,학부모,아이들,사과,전문가들,초등학교,교사,기피,교육,교육,전문가,토론회,정책,반대,이날,국회,조기,입학,반대,긴급,토론회,한국영유아교육과정학회장,교수,임부연,부산대,유아기,인지발달,언어,수학,능력,신장,존재,학제개편안,어린이,발달,특성,무시,전문,정책,규정,한국아동학회장,교수,이완정,인하대,덴마크,연령,아동,취학,정신,발달,결과,인용,초등취학연령,1년,아동,비교,집단,7세,11세,주의력,부족,과잉,행동,수준,조기,취학,놀이,중심,유아교육,아동,발달,중요,강조,초등학교,교사,유아,지적,유치원,교사,초등학교,교사,양성,교육,자체,한국교원교육학회장,교수,임승렬,덕성여대,교사들,일선,초등학교,교사,학급,담임,배정,기피,취학,조기,초등학교,교사,부담,결과적,초등교육,학부모,불만족,사회,신뢰,학부모,전교조,박순애,사퇴,교육,정책,혼선,부총리,사퇴,요구,기자회견,전국교직원노동조합,전교조,집무실,이날,서울,용산구,대통령,집무실,기자회견,교육정책,신뢰도,장관,사안,책임,사퇴,요구,교육부,대통령,업무,보고,방침,외국어고,폐지,전국외고학부모연합회,국회,기자회견,백년지대계,교육정책,졸속,장관,사퇴,촉구</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5288,7 +6633,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>교육부,교육부,장관,정책,보좌관,별정직,고위,공무원,정영진,인하대,법학,전문,대학원장</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5306,7 +6656,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>한성우,교수,꽃다지,시장,밥상,음식,냉이,사람들,뿌리,모양,냉이,사람들,추억,간직,꽃다지,생김새,모양,꽃다지,노란색,꽃다지,냉이,꽃다지,봄꽃,여름,꽃다지,의아,여름철,꽃다지,오이,호박,참외,가지,열매,일상,말뜻,설명,닫이,결합,가능,역할,열매,꽃닫이,사람,향기,기억,나비,원천,목적,곤충,유혹,수정,열매,과업,열매,생각,꽃다지,잔혹,작물,열매,대가,열매,생물,일대기,결국,세상,세대,자신,작물,열매,꽃다지,정확,표현,꽃다지,운명,책임,증거,오이,한번,생각,오이,자신,꽃다지,교수,인하대,한국어,문학</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5324,7 +6679,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D272" t="n">
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>공유,원도심,인프라,인천,두산위브,센트럴,분양,두산건설,사업,인천,동구,송림,지구,더센트럴,인천,두산위브,분양,지하,지상,29층,12개,1231가구,조합원,물량,제외,785가구,일반,분양,일반,분양,물량,수요자,선호도,전용면적,중소형,구성,두산건설,단지,송림동,일대,포함,14곳,정비사업,진행,사업,마무리,원도심,2만,가구,신규,아파트,인천,원도심,만큼,편의,시설,학군,병원,인프라,장점,주변,이마트,트레이더스,송현근린공원,송림체육관,인천지방합동청사,규모,일반,병상,인천,백병원,200m,인근,서흥초,서림초,동산중,동산고,포함,17개,고교,인하대,인천대,재능대,반경,위치,직주,근접,수요,입지,장점,주변,1만,근무,현대제철,현대두산인프라코어,동국제강,사업장,사업소,인천산업용품유통센터,단지,10분,이동,서울지하철,동인천역,도원역,이용,인천대로,경인고속도로,수도권,제2외곽,순환고속도로,광역교통망,인근,송림삼거리역,가칭,부평연안부두선,수도,광역,급행,철도,GTX,예정,정차,부평역,이동,예정,두산건설,채광,통풍,효율,극대화,설계,남향,위주,적용,비규제지역,공급,만큼,인천,서울,경기,거주자,청약,가능,중도금,대출,최대,50%,정당계약,이달,19일,나흘간,진행,입주,예정</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,7 +6702,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>학교,인하대,대자보,총공전,2일,7시,분께,여성혐오범죄,과목,필수,교양,해시태그,동시다발,인하대,성폭,행사망,사건,동시,다발,성명문,인스타그램,대학,경남,지역,경상국립대,진주교대,창원대,경남대,페미니즘,동아리,아우르니,기획,온라인,총공,공격,온라인,용어,총공,고려대,공주대,경희대,숭실대,충북대,숙명여대,성신여대,전국,대학,페미니즘,동아리,유니브페미,여성,단체,참여,인하대,발생,사건,성폭행,사망,대학가,여성,안전,대학,목소리,사건,젠더,폭력,혐오,만연,학내,문화,학생들,목소리,행동,움직임,사건,발생,인하대,시작,평등,안전,학교,대자보,운동,전국,대학,확산,모습,온라인,총공전,기획,대표,이주현,25,사학과,4일,사건,안전,생각,대학,캠퍼스,여성,안전,공간,젠더,권력,존재,공간,증명,주변,학내,성폭력,경험,학생들,강남역,살인,사건,당사자성,온라인,총공,방식,동아리들,전국,각지,대학,페미니즘,동아리,오프라인,어려움,세대들,에스엔에스,SNS,동시,다발,파급력,판단,설명,성명문,사건,인하대,사망,여성혐오범죄,규정,대학,교육,과목,필수,교양,개설,지정,요구,학생들,사건,인하대,사망,여성,혐오,범죄,사회구조,규탄,경남도청,긴급,회견,온라인,총공,참여,숭실대,페미니즘,백마,암탉님,운영진,사건,여성,젠더,폭력,사회적,합의,생각,여성,가족부,장관,가해자,개인,치환,젠더,폭력,논의,강남역,살인,사건,6년,상황,에브리타임,대학,커뮤니티,익명성,젠더,폭력,인정,소수자들,외면,규탄,대학,캠퍼스,대자보,서강대,캠퍼스,행동,서강,페미니스트,명의,익명,인하대,에이,공감,목소리,대자보,손글씨,대자보,그동안,여성,소수자,목소리,사람들,목숨,목숨,안전,자유,사회,학교,문화,평등,존엄,학교,외침,소리,응답,대자보,인하대,학생,형식,응답,관련기사,인터뷰,인하대,대자보,온라인,광장,http://www.hani.co.kr/arti/society/society,general/1053375.html/NUrl</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,7 +6725,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D274" t="n">
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>아동,명시,권리,아동기본법,토론회,제정,정부,제정,추진,아동기본법,아동,권리,명시,주장,교수,이완정,인하대,충무아트센터,서울,보건복지부,아동,권리,보장원,주최,제정,아동,기본법,공개토론회,연속,아동,권리,공개,토론회,놀이,아동,권리,보장,설명,교수,권리,유엔아동권리협약,명시,아동,권리,행복추구권,도출,기본권,놀이,각종,스트레스,건강,위협,아동,보호,아동,신체적,사회적,발달,중요,역할,강조,사회,놀이,중시,태도,아동,권리,침해,아동기본법,제정,아동,권리,명시,아동,증진,권리,정책,구체적,수립,시행,교수,박현선,세종대,놀이,창의적,인재,육성,학교,공간,자체,놀이,요소,강화,권리,보장,중요,요소,설명,아동,기본법,제정,연속,공개,토론회,보장,아동,권리,아동,정책,발전,방향,논의,결과,아동기본법,반영,시행,지난달,2차,토론회,복지부,디지털,환경,아동,참여,보호,방향,아동,기본법,제정,주제,4,진행,예정</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,7 +6748,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>여가부,인하대,사건,계기,예방교육,대학,성폭력,예방,교육,집중,지원,플랫,여성가족부,인하대학교,사고,성폭력,사망,계기,대학,성폭력,예방,교육,집중,지원,여성가족부,2학기,시작,9월,대학,폭력예방교육,집중,3일,플랫,인하대,성폭행,추락사,가해자,퇴학,검토,플랫브리핑,인하대,학생,추모,방해,여성가족부,2013년,폭력예방교육,이름,희망,국민,성폭력,가정폭력,성희롱,성매매,디지털,성범죄,예방교육,교육,대학,대상,데이트폭력,스토킹,디지털,성범죄,방지,피해,성폭력,성폭력,중심,진행,예정,여성가족부,교육,희망,대학,신청,9월,전국적,100회,교육,진행,계획,참여율,대학,폭력,예방,교육,저조,대학,지원,참여율,폭력,예방,교육,대학,50%,미만,대학,명단,성폭력방지,피해자보호,법률,대학,고등학교,기관장,구성원들,1시간,교육,참여,강제력,대학생,참여율,기준,대학생,폭력,예방,교육,참여율,46.5%,각급,학교,학생,평균,81.6%,학생,참여,교육,효과,전문강사,대면교육,원칙,현장,교육,소통,쌍방향,가능,화상회의,형식,진행,권익증진국장,최성지,여성,가족,권익,증진,국장,교육,대학,전반,폭력,예방,문화,상호,존중,확산,기관,수요,콘텐츠,교육,지원,대학,성폭력,예방,플랫팀,twitter.com,flatflat38</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5396,7 +6771,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>금리,3년,4대,은행,임원들,성과급,국회,정무,위원회,소속,김종민,더불어민주당,의원,금융감독원,자료,시중,은행,5월,2년,개월,임원,임원,직원,1000억,성과급,지급,3일,의원실,2020년,5월,2년,개월간,국민,신한,하나은행,시중,은행,임원급,본부장급,수령,성과급,1083억,은행별,지급,성과급,우리은행,347억,국민,299억,신한,254억,하나,183억,은행,성과급,내역,성과급,시중,은행,2년,개월,성과급,임원,1047명,본부장,경영진,포함,임원,숫자,연간,단위,합산,임원,중복,성과급,임원,우리은행,455명,신한,국민,하나은행,136명,우리은행,관계자,의원실,제공,수치,퇴직,임원,지급,장기,성과급,포함,설명,제외,2년,개월간,221명,176억,지급,우리은행,설명,연간,기준,성과급,지급액,수령자,임원,연간,평균,성과급,국민은행,신한,7986만,하나은행,은행,이자,안정,대출,성과급,잔치,국민,의원실,시중,은행,신용,대출,최고,금리,평균,4.68%,기준,평균,4.68%,2020년,2.72%,1.96%,포인트,주택,담보,대출,금리,고정,변동,기간,포인트,기준,금리,인상,대출자,이자,부담,어려움,상황,은행,대출금리,예금,금리,차이,예대금리차,비판,대출,금리,상승,이자,이익,상반기,은행,9조,당기순이익,은행들,속앓이,익명,요구,은행,관계자,기간,성과급,지급,숫자,대기업,비교,시중,은행,관계자,임원,책임경영,성과급,비중,평균,연간,수준,성과급,비판,이민환,인하대,글로벌,금융학,교수,제조,기업,제품,수출,위험,부담,이익,은행,안정적,담보,대출이자,정도,비판,감수,하준경,한양대,경제학,교수,은행,성과급,위험,감수,리스크,테이킹,보상,성과급,비판적,시각,은행,공공성,국민,납득,수준,책임,모습,비판,강조</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5414,7 +6794,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D277" t="n">
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>인하대,사건,지원,여가부,대학,성폭력,예방,교육,집중,여성가족부,인하대학교,사고,성폭력,사망,계기,대학,성폭력,예방,교육,집중,지원,여성가족부,2학기,시작,9월,대학,폭력예방교육,집중,3일,여성가족부,2013년,폭력예방교육,이름,희망,국민,성폭력,가정폭력,성희롱,성매매,디지털,성범죄,예방교육,교육,대학,대상,데이트폭력,스토킹,디지털,성범죄,방지,피해,성폭력,성폭력,중심,진행,예정,여성가족부,교육,희망,대학,신청,9월,전국적,100회,교육,진행,계획,참여율,대학,폭력,예방,교육,저조,대학,지원,참여율,폭력,예방,교육,대학,50%,미만,대학,명단,성폭력방지,피해자보호,법률,대학,고등학교,기관장,구성원들,1시간,교육,참여,강제력,대학생,참여율,기준,대학생,폭력,예방,교육,참여율,46.5%,각급,학교,학생,평균,81.6%,학생,참여,교육,효과,전문강사,대면교육,원칙,현장,교육,소통,쌍방향,가능,화상회의,형식,진행,권익증진국장,최성지,여성,가족,권익,증진,국장,교육,대학,전반,폭력,예방,문화,상호,존중,확산,기관,수요,콘텐츠,교육,지원,대학,성폭력,예방</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5432,7 +6817,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D278" t="n">
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>서민,대출,금리,비명,4대,은행,임원,성과급,평균,잔치,시중,은행,성과급,논란,국회,정무,위원회,소속,더불어민주당,김종민,의원,금융감독원,자료,시중,은행,5월,임원,임원,직원,1000억,성과급,지급,3일,장사,논란,임원,논란,성과급,의원실,2020년,5월,국민,신한,하나은행,시중,은행,임원급,본부장급,수령,성과급,1083억,은행별,지급,성과급,우리은행,347억,국민,299억,신한,254억,183억,은행,성과급,내역,성과급,시중,은행,성과급,임원,1047명,본부장,경영진,포함,임원,숫자,연간,단위,합산,임원,중복,성과급,임원,우리은행,455명,43%,차지,신한,238명,국민은행,218명,200명,하나은행,136명,우리은행,관계자,의원실,제공,수치,퇴직,임원,지급,장기,성과급,포함,설명,일반적,금융권,단기,최소,장기,성과,임원,퇴직,성과급,지급,성과급,제외,221명,176억,지급,우리은행,설명,연간,기준,2020~21년,성과급,지급액,수령자,임원,연간,성과급,국민은행,신한,7986만,하나은행,수준,성과급,임원,국민은행,2020년,12억,임원,우리은행,최대,퇴직자,제외,2억,제외,하나은행,최대,신한은행,임원,최대,은행,관계자,코로나19,금리,상승기,지원,적극,취약,차주,사회,공헌,활동,분담,서민,고통,인색,지적,납득,성과급,기간,임원,대기업,비교,잔치,수준,익명,요구,시중,은행,관계자,임원,일반,직원,월급,비중,책임경영,성과급,비중,연간,평균,수준,성과급,과도,비판,은행,임직원,보수,공개,성과급,잔치,비판,속내,은행,속앓이,기준,금리,인상,대출자,이자,부담,어려움,상황,은행,대출금리,예금,금리,차이,예대금리차,곳간,시선,금융당국,장사,경고,부담,의원실,시중,은행,신용,대출,최고,금리,평균,4.68%,기준,평균,4.68%,2020년,2.72%,1.96%,포인트,주택,담보,대출,금리,기간,포인트,변동금리,3.69%,2020년,2.39%,대비,1.3%,포인트,상승,평균,2.3%,수준,주담대,고정,금리,3.3%,기준,3.3%,사상,최대,실적,행진,은행,눈총,대출,금리,상승,이자,이익,상반기,은행,9조,당기순이익,순이익,기준,리딩,뱅크,자리,KB금융,상반기,이익,5조,1년,18.7%,신한금융,이익,5조,1년,17.3%,증가,김종민,의원,상승,대출,금리,서민,이자,상환,상황,시중,은행,성과급,잔치,사실,유감,경제,상황,예대,금리차,해소,정부,강조,이민환,인하대,글로벌,금융학,교수,대기업,은행,성과급,실적잔치,비판,경영,방식,차이,기업,제품,수출,위험,부담,이익,은행,안정적,담보,대출이자,경영,정도,비판,감수,하준경,한양대,경제학,교수,은행,성과급,위험,감수,리스크,테이킹,보상,성과급,비판적,시각,은행,기업,공공성,사회,책임,국민,납득,수준,모습,비판,강조</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5450,7 +6840,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D279" t="n">
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>인하대,대자보,온라인,광장,인하대,발생,사건,성폭행,사망,열흘,학생들,지난달,학생,손글씨,대자보,학내,게시판,피해,사건,전대미문,사건,표현,구체적,묘사,꼴페미,메갈,공격,사건,학내,성폭력,발언,검열,문화,학내,차별,학교,내부,공개적,제기,학교,사전,승인,3시간,대자보,대자보,에스엔에스,SNS,익명,인하대,학생,이름,활동,20학번,인하대,사회,과학,대학,학번,1일,자신,입학,등교,코학번,코로나,학번,22학번,소개,사건,가해자,피해자,코학번,ㄱ씨,코학번,대학,생활,감수성,환기,활성화,공간,대학,온라인,혐오,코로나,학교,공동체,회복,강조,학교,교육부,대책,재발,방지,단편적,지적,학생,자치,기구,조직,학생들,평등,안전,학교,강조,ㄱ씨,일문일답,익명,활동,안전,국면,여부,이름,공개,중요,이름,사람,집중,메시지,집중,목소리,학내,전반,방식,제기,진행,열흘,사건,발생,대자보,사건,몰상식,학교,공간,살인,성폭행,가지,생각,학내,커뮤니티,에브리타임,피해자,겨눈,가해,발언,팽배,아무것,무기력,와중,학우,본격적,생각,무기력,목소리,생각,대자보,세대,대자보,옛날,방식,형식,유효,관심,걱정,대자보,시작,학교,4년,선배,학교,대자보,대자보,교수님,학교,대자보,대자보,응원,사회,오늘날,대학,비판적,목소리들,볼륨,학교,수동적,공간,사건,코학번,연관성,사건,발생,핵심적,원인,코학번,온라인,수업,전환,감수성,환기,기회,학생,공동체,영향력,에브리타임,학내,커뮤니티,익명성,여성,소수자,외국인,혐오,자행,지적,상식적,신고,삭제,계정,정지,혐오,공감,사건,언급,학교,명예,입결,입시결과,논의,자체,소멸,시도,실명,누리집,학교,공식,인하광장,온라인,광장,학내,반응,반응,학교,철거,미승,게시물,규정,학교,학생들,목소리,노력,학생,반응,재학생,졸업생,응원,지지,20여명,후속,행동,에브리타임,페미,대자보,학교,철거,요청,계획,온라인,응원,지지,공중전,한계,학내,학교,비판적,입장,견지,학교,요구,기구,마련,학생회,학교,문제의식,비판적,입장,기구,경비,노동자,학생들,얘기,성평등위원회,학생인권위원회,설치,학생들,제기,대안,제시,방안,구상,경비,학내,노동자,시작,목소리,학내,견제,동시,공동체성,학교,교육부,대책,재발,방지,학교,교육부,권고,폐회로텔레비전,CCTV,추가,설치,야간,통행,교육,성폭력,폐회로텔레비전,모니터링,경비,노동자,언급,회성,성폭력,교육,실효성,성인지감수,교육,관련기사,인하대생,경비,CCTV,무용지물,http://www.hani.co.kr/arti/area/capital/1051397.html/NUrl</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5468,7 +6863,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D280" t="n">
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>인하대,성폭력,여가부,대학,대상,폭력예방교육,여성가족부,인하대,성폭력,사망,대책,사건,후속,대학,대상,폭력예방교육,집중,교육,학생,참여도,교육,효과성,영상물,시청,전문강사,대면,교육,원칙,현장,교육,쌍방향,소통,가능,화상,회의,형식,진행,여가부,이달,접수,전국적,100회,예정,희망대학,한국양성평등교육진흥원,양평원,전문강사양성부,신청,참여율,대학,폭력,예방,교육,대학,지원,계획,전문강사,양평원,위촉,전문,강사,교제,폭력,스토킹,디지털,성범죄,성폭력,예방,방지,피해,중심,진행,여가부,대학,폭력,예방,교육,내실,폭력,예방,교육,운영,지침,개정,기준,폭력,예방,교육,부진,기관,기준,대학,참여율,신설,대학,참여율,미만,명단,부진,대학,기준,각급,학교,학생,평균,성폭력,예방,교육,참여,81.6,대학,참여율,46.5,권익증진국장,최성지,여가부,권익,증진,국장,교육,대학,전반,폭력,예방,문화,상호,존중,확산,기관,수요,콘텐츠,교육,지원,대학,성폭력,예방</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5486,7 +6886,12 @@
           <t>내일신문</t>
         </is>
       </c>
-      <c r="D281" t="n">
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>수시,대학,수시,인하대,교과,전형,추천,인원,제한,폐지,인하대,모집,학년,수시,67.9%,2천,선발,대학,인원,정시,대비,수시,모집,수험생,부담,전형,학생부,종합,수능,최저,학력,기준,자기소개서,폐지,제출,서류,학년,수시,변경,종합,전형,평가,항목,대표,전형,인하미래인재,인하참,인재,전형,차이,평가,비율,전형,학생부,교과,지역,추천,인재,전형,전형,지역,균형,명칭,변경,7명,인원,학교장,추천,제한,인하대,모집,수시,특징,책임연구위원,입학,서재현,책임,위원,노준호,입학,사정관,대학,전형,자문단,김원석,교사,인천하늘고등학교,박영출,교사,경남,남해해성고등학교,오원경,교사,경기,용인홍천고등학교,허준일,교사,대구,경신고등학교,이미지확대,사진,제공,인하대학교,입학처,이미지확대,결과,수시,종합,전형,경쟁률,소폭,상승,합격자,등록,전년,대비,상승,지원자들,소신,상향,지원,경향,확인,수도권,대학,증가,교과,전형,모집,인원,지역,추천,인재,전형,경쟁률,상승,충족률,최저,기준,충족,성적,전년,대비,합격자,내신,범위,논술,우수자,전형,경쟁률,전년,대비,경쟁,수도권,대학,증가,약대,논술,선발,인원,증가,풀이,학생부,기록,제출,서류,변화,결과,학년,입시,평가,수상,실적,반영,축소,제한,학생부,수상,실적,제출,학생,수상,경력,참조,학교,방식,교내,대회,운영,학생,특성,장점,학교생활,적극성,평가,제출,수상,실적,제한,상황,학교별,방식,교내,대회,운영,학생,수상,실적,사항,제한적,과거,비교,수상,실적,평가,영향력,교육과정,개정,교육,학생들,과목,선택,학생,선택,과목,이수,이력,대학,관점,평가,대학,수학,역량,기초,학업,평가,공통,일반선택,과목,중요,인하대,기본,공통,일반선택,과목,이수,희망,전공,계열,진로,선택,과목,이수,선택,과목,이수,현황,개별,지원자,학업,의지,관심,분야,주도성,파악,전형,단위,이수,공통,일반선택,과목,반영,비율,90%,진로,선택,과목,상위,반영,평균적,공통,일반선택,단위,과목,이수,96단위,과목,진로,선택,과목,상위,반영,정도,단위,동점자,발생,결정,정도,영향력,입시,결과,정도,진로,선택,과목,실질,반영,검토,예정,종합,전형,인하미래인재,인하참인재,평가,요소,반영,비율,변경,구체적,설명,인하대,창학정신,바탕,자기주도적,창의성,인재,지성,적성,인성,종합,기준,평가,구체적,세분화,역량,기초,학업,역량,진로,탐구,공동체,역량,기준,평가,항목,수정,전형,인재상,차이,인하미래인재,역량,진로,탐구,반영,비율,45%,자신,진로,고민,이해,활동,진로,탐구,지원,전공,관심,열정,인재,선발,평가,기준,진로,성취,활동,진로,탐구,강조,인하참인재,역량,기초,학업,45%,반영,만큼,학교생활,성실성,바탕,자신,진로,역량,기초,학업,인재,선발,학업,성취도,태도,주도,학습,중점적,평가,자신,인재상,전형,전략적,지원,인하미래인재,면접,영향력,수험생,면접,조언,2022학년,인하미래인재,인하,미래,인재,지원자,합격자,3배수,2천,선발,면접,결시자,137명,5%,결시율,인원,선발,3.5배수,의예,3배수,기회,확대,2단계,70%,서류,평가,점수,70%,면접,평가,점수,30%,합산,최종,선발,면접,중요,전년,최종,합격자,비율,서류,평가,학생,비율,최종,등록,47.7%,학생,39.3%,학생,13%,최종,등록,추가,합격,면접,평가,결과,합격,영향,서류,평가,부족,점수,면접,평가,만회,기회,면접,준비,전형,전형,지역,균형,고교,추천,인원,제한,폐지,최저,기준,충족률,정도,지역,추천,인재,전형,전형,지역,균형,명칭,졸업,예정자,포함,졸업생,대상,고교,추천,인원,제한,수험생,경쟁,완화,기회,부여,인원,제한,교과,전형,경쟁,10:1,충족률,최저,기준,충족,49.1%,충원률,실질,경쟁,2.1,정도,최저,기준,충족,가능성,합격,가능,논술,전형,논술,고사,70%,,학생부,교과,30%,합산,선발,성적,실질,영향력,의예과,최저,기준,적용,전형,논술,우수자,논술,고사,영향력,학생부,평가,합격자,교과,등급,평균,3등급,6등급,환산,점수,6점,논술,점수,치환,만점,수준,영향력,논술,점수,성적,학생부,교과,만회,논술,전형,수험생,부담완화,대입,준비,부담,완화,최저,기준,적용,의예,학생들,의예과,입학,수학,역량,기초,학업,확인,논술,고사,별도,문항,출제,최저,기준,설정,논술,고사,대비,유사,유형,출제,기출문제,논술,모의고사,논술,출제,경향,유추,인문,계열,논술,고사,중요,제시,조건,답안,작성,제한,분량,수험생,논리,사고력,평가,분량,감점,제시문,문장,서론,본론,작성,자연,계열,논술,고사,수학,풀이,수학,오해,답안,단순,수식,나열,점수,수식,제시문,바탕,논리적,도출,수식들,완전,문장,서술,자연,계열,논술,고사,풀이,평가,풀이,점수,부여,의예,별도,제시,확인,답안,작성,이미지확대,이미지확대,이미지확대,이미지확대,인하대,대표적,종합,전형,학교생활,적극성,바탕,지원,전공,관심,열정,인재,선발,전형,서류,항목,학생부,평가,반영,비율,변경,지성,적성,인성,종합,반영,수시,역량,기초,학업,학업,능력,학습,태도,30%,,진로,탐구,역량,탐구역량,진로,관심,45%,,공동체,역량,25%,반영,자기소개서,폐지,인원,선발,3배수,3.5배수,변경,유의,의예,3배수,유지,이미지확대,학교생활,성실성,바탕,진로,역량,기초,학업,인재,선발,인하미래인재,전형,단계,전형,인하참,인재,전형,면접,전형,일괄,전형,영역,서류,평가,반영,비율,역량,역량,30%,기초,학업,역량,45%,,진로,탐구,역량,25%,,공동체,역량,30%,인하미래인재,전형,비교,기초,학업,역량,중점,전형,이미지확대,졸업예정자,졸업자,소속,졸업,고등학교장,추천,학생,지원,전년,추천,인원,고교당,제한,추천,인원,제한,인문,사회,계열,국어,수학,영</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,7 +6909,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D282" t="n">
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>여가부,폭력,예방,교육,참여,50%,미만,대학,공개,여성가족부,9월,참여율,대학,폭력,예방,교육,50%,명단,부진,대학,예정,3일,발생,사망사고,인하대,성폭행,사망,사고,후속,조치,대학생,폭력,예방,교육,참여율,고교,부진,참여율,대학,평균,교육,46.5%,81.6%,고교,참여율,35.1%,포인트,성폭력방지,피해자보호,법률,가정폭력방지,피해자보호,법률,고등,교육,기관장,대학,소속,사람,학생,대상,성폭력,가정폭력,예방교육,1시간,규정,대학들,행사,신입,대상,폭력예방교육,포함,교육,이수,학생,수강신청권,방식,참여,독려,1년,시간,짜리,교육,폭력,예방,교육,참여율,저조,폭력,예방,교육,자체,학생,반감,원인,한국여성정책연구원,대학,포함,공공,기관,소속,남녀,1040명,대상,설문조사,결과,교육이,남성,취급,잠재,가해자,경향,동의,비율,여성,30.4%,남성,59.7%,차이,여가부,그동안,대학,비정규직,고위,종사자,정규,폭력,예방,교육,참여율,공개,9월,재학,참여율,50%,미만,대학,명단,추가,교육,참여율,계획,여가부,폭력예방교육,9월,대학,지역주민,10명,개인,단체,신청,한국양성평등진흥원,위촉,강사,폭력예방교육,진행,여가부,위주,동영,시청,교육,탈피,교육,원칙,화상,강의,형식,진행,방침,교육,교제폭력,디지털,성범죄,2차,피해,다변화,누리집,예방,교육,통합,관리,shp.mogef.go.kr,전화,폭력,예방,교육,대표,신청</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5522,7 +6932,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D283" t="n">
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>여가부,대학,대상,성폭력,예방,교육,강화,인하대,사건,계기,교육,참여율,46.5%,인하대,25.9%,여성가족부,인하대,동급,성폭행,추락,사망,사건,계기,대학,교육,성폭력,예방,강화,3일,학생들,교육,참여,영상물,시청,한국양성평등교육진흥원,위촉,전문강사,대면,교육,진행,원칙,데이트,폭력,스토킹,디지털,성범죄,성폭력,예방,방지,피해,교육,대학,신청,교육,진행,방식,여성가족부,8월,접수,9월,전국적,100회,교육,예정,인하대,사건,계기,대학,성폭력,예방,교육,사각지대,지적,제기,조치,대학,직장,중학교,고등학교,학생들,교육,참여,강제,지적,전국,기준,대학,성폭력,예방,교육,참여율,46.5%,인하대,참여율,25.9%,여성가족부,교육,운영,지침,개정,폭력,예방,교육,부진,기관,평가,기준,대학,참여율,신설,9월,참여율,대학,교육,50%,미만,대학,폭력,예방,교육,부진,명단,예정</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5540,7 +6955,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D284" t="n">
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>8월,알림,이타미준건축문화재단,이사장,유이화,3~6학년,초등학교,학년,10명,보호자,대상,어린이건축학교,이타미준,마스터클래스,어린이,건축,학교,튜터건축,황두진,조남호,소장,서울,남태령,이타미준,서울,뮤지엄,재난,상황,시나리오,한정,자원,재난,셸터,진행,모집,5일,수강료,40만,누리집,www.itamijun.com,참조,한국디지털인증협회,한국,FIDO,산업,포럼,코리아,얼라이언스,통합,출범,이기혁,중앙대,융합,안보학,교수,초대,회장,선임,보건복지부,중앙,사회,서비스원,초대,원장,조상미,이화여대,사회,복지,학과,교수,임명,중앙사회서비스원,복지부,위탁,상담,사회서비스,품질,관리,업무,서비스원,설립,운영,지원,서울과기대,총장,이동훈,서울시교육청,교육감,조희연,산업,사회,대응,자기주도적,지원,진로,역량,강화,업무협약,기관,진로특강,산업,분야,진로,특강,멘토링,AI,융합,진로,직업,교육원,운영,프로그램,지원,협력,예정,다옴홀딩스,회장,김주영,서울구치소,수감자들,1만,얼음,생수,기부,대신파이낸셜그룹,창립,기념행사,헌혈,임직원,단체,헌혈증,한국백혈병어린이재단,효성,종로여성인력개발센터,서울,종로,여성,인력,센터,사업,경력,보유,여성,취업,활성,7천만,포스코ICT,26일,신청자,장애인,대상,유튜브,공모전,모집,주제,개선,장애인,인식,사회,해결,문화,예술,요리,14세,장애인,개인,참여,비장애인,장애인,동반,신청,입상자,공모전,우수,취업,기회,서울식물원,20일,썸머나이트,가족,체험,야간,프로그램,어린이,보타닉,썸머,나이트,참여,초등,3년,80명,동반,보호자,모집,9시,화관,곤충,탐험,참가비,예약,3일,누리집,botanicpark.seoul.go.kr,선착순,한국출판문화산업진흥원,경기,부천시,문화,센터,구축,운영,공모,사업,선정,업무협약,양측,부천,책문화,센터,꿈빛도서관,리모델링,조성,운영,독서,문화,프로그램,노력,예정,창무예술원,30일,아르코예술극장,서울,종로구,창무,국제,공연,예술제,예술감독,최지연,차이,반복,주제,서울교방,아트,컴퍼니,호소,국립발레단,호이,16팀,작품,티켓,29일,누리집,theater.arko.or.kr,예매,반크,9일,한국,문화유산,한지,세계인들,홍보대사,글로벌,한지,홍보,대사,100명,모집,홍보대사,선발,한지,디지털,홍보,자료,소셜미디어,세계인,한지,인류무형문화유산,유네스코,인류,무형,문화유산,등재,활동,누리집,반크,지구촌,장학교,school.prkorea.com,신청,평화,전북,군산,소녀,기념,사업회,전북,군산,동국사,피해자,일본군,위안부,평화,소녀,문화제,헌시,헌화,살풀이춤,음악,공연,진행,예정,인하대,다문화,융합,연구소,BK21글로컬다문화교육연구단,정석학술정보관,인천,미추홀구,인하대,정석,학술,정보관,다문화,교육,방안,사회,통합,모색,다문화,교육,국제,학술,대회,김진영,연구단장,다문화,사회,세계,시민,교육,세계,평화,주제,기조,강연,중국,베트남,네팔,20여,다문화,교육,전문가,참여,참관,희망자,18일,신청,한국타이어앤테크놀로지,한국타이어,6일,운전,휴가철,장거리,대비,타이어,상태,차량,기본,무상,점검,가평,서산,여산,칠곡휴게소,드라이브,스루,방식,진행</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,7 +6978,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락사,외양간,박미랑,범죄,인하대학교,단과대,건물,학생,추락,사건,학교,사람,신고,시작,확보,폐쇄회로,CC,TV,학생,부축,학교,장면,건물,가해자,휴대폰,발견,피해자,당일,사망,가해자,수사,사건,관심사,가지,사인,이야기,가해자,성폭행,불법촬영,시도,초점,피해자,가해자,책임,만취,심신,상실,상태,피해자,부축,건물,장면,CCTV,덕분,가해자,합의,성관계,주장,상황,다행,준강간,혐의,피해자,사망,죄명,적용,추락,고의성,수사,피해자,수치심,자발적,극단,선택,가능성,제기,만취,몸속,알코올,수치심,정도,분해,2시간,증명,수사,재판,사회,발생,장소,일터,발생,재범,방지,반성,사건,장소,사건,발생,가해자,피해자,소속,인하대,증원,순찰,인력,설치,CCTV,추가,야간,승인,학생,건물,출입,허용,대책,재발,방지,대학교,성폭행,추락사,사건,대학교,추락사,초점,대책,학내,성폭행,대안,재발,방지,학교,학생들,안전,범죄,학교,발생,생각,입장,대학,당국,맥락,여성민우회,대책,대학,만연,강간,문화,20대,감수성,근본적,비판,비판,정확,대학,안전,수준,인하대,제시,미봉책,정도,엉망,연구실,방문,판매원,협박,단과대,복도,학생들,사물,외부인,화장실,음란행위,학교,학교,범죄,예방,정책,범죄자,내부인,외부인,구분,전략,외부인,범죄,출입,통제,전략,해결,내부,범죄,물리,환경,강화,해결,교육,작동,인하대,순찰,출입,통제,전략,학교,범죄,외부인,발생,작동,예방,애초,내부인,학생,발생,사건,외부인,통제,전략,제시,문제점,대학교,학생들,성폭력,추락사,음란물,감수성,체득,신입생,교육,방치,성폭력,포함,범죄,교육,대학,문화,고등학교,생활,등록금,대학,왜곡,성문화,안전,둔감,대학,행정,학생들,미래,인하대,대학,외양간,학부모,마음</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5576,7 +7001,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D286" t="n">
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>강수현,경기,양주시장,장인상,심재영,별세,강수현,경기,양주시장,장인상,1일,오후5시,22분,회천농협장례문화원,장점순,별세,홍운기씨,모친상,2일,오전7시,30분,부산대동병원,김대식,별세,이상희씨,남편상,수연,아이디병원,보연,부친상,설재근,한라,홍보팀장,장인상,2일,오전4시,30분,건국대병원,10분,김진수,별세,대중,인천시의회,산업,경제,위원회,부위원장,부친상,2일,오후2시,8분,인하대병원,김정숙,별세,신용화,LIG넥스원,상무,미영,공무원,모친상,이진이,공무원,시모상,강동훈,사업,장모상,2일,마산의료원,신영구,별세,철홍,신안그린에너지,대표,희정,트위터코리아,상무,부친상,김효진,김포,고창중,교사,시부상,정낙수,네이버클라우드,이사,장인상,30분,인천국제성모병원</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5594,7 +7024,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D287" t="n">
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>휴가,불참,여가위,파행,여가부,폐지,인하대,현안,윤석열,대통령,지시,여성,가족부,폐지,로드맵,마련,인하대,성폭행,사망,사건,현안,산적,전체회의,국회,여성,가족,위원회,회의,여당,국민의힘,의원,전원,불참,개회,산회,2일,10시,전체회의,국회,여성,가족,위원회,회의,9명,더불어민주당,의원,권인숙,유정주,양이원영,홍정민,한준호,김한규,이소영,장경태,이원택,의원,기본,소득,용혜인,10명,참석,6인,국민의힘,의원,정경희,김미애,김선교,전주혜,조은희,최승재,김현숙,장관,여가부,관계자,참석,야당,간사,유정주,의원,국민,휴가,상임위,개회,거부,주장,의원,국힘,입장,국힘,당사자,8월,회의,여당,간사,국민의힘,의원,휴가,여가위,행정실,휴가,성토,의원,윤석열,대통령,로드맵,여가부,폐지,마련,7월,업무보고,지시,상황,여가부,업무보고,여가부,폐지,6월,7월,7월,간담회,차례,전문가,개최,회의,참석자,자료,제출,지적,의원,양이원영,더불어민주당,국회,53일,공전,여름,휴가,운운,얘기,상임위,회의,11건,여가부,폐지,상황,인하대,발생,사건,성폭력,사망,현안,여당,협조,여가위,정상,운영,생각,의원,국힘,의원,휴가,핑계,거짓말,정경희,의원,교육위원회,이날,국회,교육,위원회,김미애,의원,국회,보건,복지,위원회,출석,국힘,의원,거짓말,상임위,출석,거부,조치,여가위원장,검토,국민,거짓말,여당,간사,의원,정경희,국민의힘,국회,여가위,기자회견,민주당,회의,단독,개최,국회법,위반,다수당,폭거,민주당,협치,운운,실행,비판,여당,개최,상임위,거부,구체적,언급,2항,국회법,위원장,위원회,의사일정,개회일시,간사,협의,동시,국회법,재적,위원,요구,상임위원회,개회</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5612,7 +7047,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D288" t="n">
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>한의사,아빠,교도소,감옥합숙,장경진,사연,징벌,공정,대체,복무,심층,리포트,헌법,재판소,결정,그해,판결,종교,신념,집총,거부,양심,병역,거부,법적,허용,대체,복무,시행,평균,집총,감옥행,선택,국회,이듬해,대체역법,대체,복무자,개월,교도소,합숙,복무,시작,입소자들,반환점,6월말,기준,887명,대체복무,복무,현역,보충역,41만,대비,0.2%,대체복무자,중앙일보,징벌적,비판,현역,입소자,공정성,지적,사이,논란,대체복무제도,현실,목차,아빠,교도소,2화,대체,복무자,심사,입소,위협,러시아,핀란드,대체복무제,보수,핀란드,진보,대체복무제,대체,복무,상근,예비역,대상,4급,판정자,복무,대체,복무,입소자,장경진,아이,아빠,초등학교,어린이집,한의사,아빠,3년,감옥,이해,코로나,입소,휴가,장씨,아빠,교도소,근처,배치,외출,외박,잠시,가족,장씨,3주,집총,훈련,대학,동기,공중보건의,병역,종교,신념,여호와의증인,집총,거부,선택,시작,재판,병역법,위반,7년,판결,대전교도소,복무,법무부,교정,본부,배려,기혼자,대원,가족들,거주,서울,성북구,의정부,교도소,복무지,장씨,현역병,자녀,기혼,복무자,퇴근,제도,상근,예비역,조건,복무,대체역법,제도,대상,사회,복무,요원,판정자들,신체,등급,판정자,일괄적,대체복무,형평성,규정,정비,현역,복무,기간,대체복무,정도,대체역,편입,복무,법률,대체역법,시행령,복무,교도소,구치소,교도소,구치소,지소,법무부,수용,합숙,시설,마련,예산,393억,집행,2020년,170억,178억,편성,업무,급식,물품,보건위생,교정,교화,시설관리,업무보조,행정기관장,대체,복무,기관,소관,행정,기관장,인정,업무,한정,그간,급식,행정,영치품,업무,세탁,업무,장씨,과거,병역,거부,수형자,업무,수감,생활,수감,느낌,구매,업무,택배,하차,복무관리관,상대적,업무,배정,세탁,업무,수형자,오물,수형자들,욕설,곤란,중앙일보,3명,이외,대체복무자,복무관리팀장,천안교도소,개인,신념,대체,복무자,1명,대체복무팀,법무부,교정,본부,대체,복무,서면,전화,인터뷰,대체,복무,관계자,현행,제도,실태,운영,생각,기간,형태,징벌적,얼마,아내,헌법,소원,얼마,수박,입소,출산,개월,아이,아내,육아,전념,수입,55만,월급,육군,일병,동일,입대,타일공,8년,가족,생계,가족들,천안교도소,근처,이사,외출,외박,조금,복무,기간,경제,현역병,퇴근,복무,상근,예비역,제도,대체복무제,현역,규정,사회,복무,요원,불리,규정,제도,천안교도소,복무,박지훈,얘기,박씨,일률적,복무,개월,합숙,규정,1항,대체,역법,징벌,요소,기본권,침해,헌법,소원,청구,역법,헌법소원,1월,접수,시작,47건,접수,헌법재판소,각하,제외,45건,심리,기관,규정,이외,대체,복무,대체업무,규정,시행령,심판,대상,393억,합숙,예산,178억,졸업,편성,약대,약사,입소,이호영,주변,약제,장교,전문연구요,복무,복무,이씨,교도소,이외,노동,보건,복지,업무,사회,코로나,기간,철저,심사,징벌,요소,최소화,형태,사회,도움,복무,적정,인권위,현역병,대체,복무자,장효진,미래,불투명,상황,서울,소재,공대,졸업,재판,병역,거부,상황,수학,강사,활동,장씨,신념,선택,또래들,병역,직업인,3년,복무,기간,공백,강사,전공,직업,미래,상황,대체복무자,복무,기관,교정시설,논란거리,복무기간,논쟁,현재진행형,국가,인권,위원회,UN,인권,이사회,국제,인권,기준,근거,현역병,2배,복무,기간,징벌적,1.5배,권고,연구용역,인권위,용역,결과,양심,병역,거부,대체,복무,방안,용역,건국대,산학협력단,집단,병역,판정,검사,대상자,527명,합숙,형태,복무,육군,기간,응답,38.8%,퇴근,복무,복무,기간,응답,28.4%,국방부,현역병,대상,조사,2018년,9월,현역병,59.3%,2배,18.2%,기간,복무,복무,형태,44.3%,합숙,14.8%,퇴근,35.2%,병행,대체복무자,여호와의증인,신도,정시우,반전사상,페미니즘,개인,신념,대체복무,대다수,동료,대체,복무자,여호와의증인,신도,신앙관,부담,존중,정씨,대체복무제도,개선,입장,휴대,전화,이용,6~9시,1시간,처우,개선,제도,취지,기간,형태,징벌적,시민,접점,차단,사회적,의미,교도소,이외,재난,현장,시설,손길,시민들,접점,법무부,장기,복무,분야,검토,대체,복무,운영,관리,책임,법무부,교정,본부,고충,법무부,교정,본부,복무형태,사회,합의,국회,결정,사안,현역병,병역거부자,대상,교정,시설,한정,업무,범위,제도,안정적,운영,부담감,법무부,제도,안정적,정착,복무,방안,논의,장기적,소방,보건,복지,다양화,복무,분야,검토,입장,지적,규정,정비,자녀,대원,정책,상근예비역,제도,병역법,대체역법,법령,정비,제도적,전향적,반응,대원들,병역,판정,검사,대원,법무부,건강,상태,대체업무,지정,대원,형평성,근본적,한계,대원,관리,어려움,대원,병역,판정,검사,기준,46명,복무,인원,5%,시작,제도,점검,심사위,정부,개선,현행,대체,복무,제도,준비,병무청,산하,대체역,심사,위원회,대체복무,입소자들,복무,기간,반환점,5월,방안,제도,발전,용역,사업,시작,제도,점검,법학전문대학원,이석우,인하대,법학,전문대학원,국제법,교수,복무,기간,형태,징벌,요소,민간대체복무,성격,반영,시각,국제,인권법,조사,운영,실태,제도,개선,인터뷰,황민욱,21년,천안교도소,복무,관리,팀장,교정공무원,천안교도소,근무,황민욱,복무,관리,팀장,중앙일보,팀장,대체복무자들,관리,감독,교정,직원,입장,부족,교정,인력,수형자들,대체,복무자,관리,부담,측면,대체복무자들,병역기피자,존중,복무,환경,근무,환경,대원들,8시,5시,복무관리관,7시,6시,근무,복무관중,10시,대원,안전,확인,퇴근,대원들,요즘,세대,애로사항,고충,자유,얘기,직원들,병역거부자,존중,당부,복무자들,가까이,사회,눈높이,우수,대원들,거부자들,과거,병역,거부자,수형자,시절,업무,유사,개선,의견,공감,이외,교정,시설,기관,복무,국가,기여,제도,발전,소방,시설,요양,복지,일손,복무,국가,차원,이익,복무,기간,형태,징벌적,주장,기간,국방부,국회,각종,자문,위원회,언급,복무,형태,군인,야간,경계,합숙,필수적,18시,교도소,합숙,합숙,경제적,합숙,현역병,상근,예비역,제도,사회복무요원,6개월,노령,연금,수급,혜택,대체복무요원들,적용,제도,개선,관리,어려움,일반,조직,20%,우수,60%,그룹,나머지,열외자,정신병,질병,호소,대원,군대,계급,통제,동등,부담,복무관,교정직,인력,부족,인원,대체,복무,관리,교도소,일선,교정,업무,부담,가중,교정직들,불만,대체복무자들,당부,개월,합숙,제도,합의,복무,자체,기본,침해,태도,대원,개선,공감,대면,복무관,입장,교정,당국,당혹,복무,관리,부담,측면,만큼,이해,배려</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5630,7 +7070,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D289" t="n">
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>인하대,서머스쿨,참가,개국,인하대,3년,외국인,학생,한국,문화,소개,인하대,인하대,주년,기념관,서머스쿨,인하,서머,스쿨,입학식,개최,2일,코로나,2019년,3년,인하,서머스쿨,영국,웨스트민스터경영대,홍콩,항생,대학,포함,대학,개국,75명,대학생,참가,서머스쿨,18일,진행,외국인,대학,3주,문화,경제경영,건강,보건,한국,수업,한국,수업,수준,한국어,5학점,이수,한국,대중문화,영화,수업,영화,강의,실기,워크숍,형태,진행,선학,빙상,경기장,수업,연계,현장,방문,프로그램,운영,예정,인하,서머,스쿨,외국인,학생,대상,진행,인하대,대표,단기,초청,프로그램,시작,인하,서머,스쿨,비자,제한,조치,대학,중국,교류,참가,중앙아시아,유럽권,국가,지역,해외,대학,참여,국제처장,민경진,인하대,인하,서머스쿨,한류,지역사회,세계,전도사,역할,서머스쿨,개최,코로나,단기,초청,프로그램,활성화,계기</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,7 +7093,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D290" t="n">
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>CNN,1번지,경고,성형,사람,AI,로봇,13만,인스타,보유,가상인간,로지,계정,댓글,CNN,지난달,현지시간,서울발,기사,한국,가상인간,산업,가상,인간,급성장,가상,인플루언서,인기,현상,명암,조명,22살,수식어,로지,엑스,싸이더스,스튜디오,탄생,가상인간,CGI,컴퓨터,생성,이미지,활용,가상인간,등장,고도,문화산업,분야,가상,실제,혼동,정도,경계,활약,로지,롯데홈쇼핑,7만,인스타,보유,가상,인플루언,루시,CNN,가상,인플루언서,팬덤,형성,시장,주목,대표,백승엽,싸이더스,스튜디오,엑스,CNN,한국,대기업,로지,광고모델,로지,활동,수익,20억,예상,로지,이름값,샤넬,에르메스,명품,브랜드,각종,잡지,미디어,업계,협찬,디지털,문화,사이,가상,인플루언서,인기,고객,확보,은행,보험사,모델,기용,전문가들,연예인,인간,모델,광고,기용,노동력,소요,장점,가상,인간,열풍,그늘,CNN,지적,CNN,1번지,세계,성형,한국,가상,인플루언서,비현실적,외모,기준,대중,선망,이은희,인하대,소비자학,교수,CNN,로지,루시,가상,인플루언서,한국,요구,기준,달성,모방,여성,사이,성형,수술,화장품,수요,경고,나라,가상인간,인종,제작,문화유용,위험성,모델,상품,광고,실제,인간,소비자들,갑론을박,CNN,문화유용,특정,집단,문화,자신,선입견,사용,인종,차별,행위</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5666,7 +7116,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D291" t="n">
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>연속,무역,수지,적자,150억,누적,적자,달러,역대,최악,기록,예상,對中,무역,30년,적자,연속,우리나라,무역,수지,수출액,수입액,적자,연속,기록,7월,누적,적자,150억,달러,19조,금융,위기,2008년,132억,달러,통계,작성,시작,1956년,66년,최대,기록,엔진,경제,성장,수출,증가,둔화,한국,경제,비상등,산업,통상,자원부,수출,9.4%,증가,607억,달러,79조,수입,21.8%,증가,653억,달러,무역수지,46억,달러,적자,기록,우리나라,무역,수지,4개월,적자,글로벌,금융,위기,2008년,6~9월,14년,추세,무역,수지,적자,IMF,외환,위기,직전,기록,역대,최고,206억,달러,가능성,수출,증가세,개월,연속,에너지,수입액,증가,전월,25억,달러,적자,배럴,달러,수준,두바이유,지난달,달러,LNG,액화,천연가스,석탄,가격,대비,전년,동월,급등,114%,,174%,에너지원,원유,가스,석탄,지난달,수입액,185억,달러,7월,97억,달러,육박,월간,기준,사상,최고,기록,우리나라,무역,수지,적자,출발,2월,3월,10억,달러,1억,달러,흑자,4월,적자,행진,수출,수출,품목,석유제품,자동차,이차전지,수출,월간,기준,역대,기록,선전,석유화학,일반기계,컴퓨터,디스플레이,품목,감소,지역별,최대,시장,중국,수출,2.5%,대중,對中,무역수지,30년,적자,연속,기록,코로나,확산,봉쇄,중국,단기적,악재,영향,근본적,제품,중국,경쟁력,지적,명예교수,김정식,연세대,명예,교수,에너지,원자재,가격,고공,행진,수출,대중,무역,수지,개선,상황,중국,격차,대중,수출,실장,주원,현대경제연구원,한국,제품,중국,느낌,아세안,시장,확대,중국,부진,만회,침체,글로벌,경기,본격화,수출,자릿수,증가,수출,5.2%,기록,7월,9.4%,자릿수,역대,월간,기준,최고인,달러,기록,대미,수출,금리,인상,영향,미국,수요,위축,축소,가능성,조상현,국제,무역,통상,연구원장,위기,러시아발,에너지,경기,침체,대형,변수,4~5개,동시,발생,이례적,각국,정부,카드,상황,교수,정인교,인하대,추세,연말,무역,적자,300억,달러,확대,정부,리스크,관리,시점</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5684,7 +7139,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D292" t="n">
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>리뷰,테러,속수무책,SNS,홍보,포기,점주들,인사이드&amp;인사이트,음식점,악성,후기,논란,음식,풍뎅이,악성,후기,리뷰,관리,업무,가중,이중고,파급력,플랫폼,리뷰,작성자,점주,소비자,수용,가능,리뷰,정책,기준,마련,지적,사람,음식,평가,악성,후기,리뷰,손님,점주,테러리스트,분당구,경기,성남시,숍인숍,Shop-in,shop,형태,배달,전문점,운영,고객,리뷰,골칫거리,배달,애플리케이션,상호,중식,6월,고객,주문,짬뽕,풍뎅이,환불,요청,사진,리뷰,게시판,주문자,전화,풍뎅이,진짜,파악,배달,업체,배달,업체,허위,판단,삭제,평판,훼손,정신,충격,하소연,동아일보,악성,리뷰,계기,중식,네이버,카카오,배달,민족,플랫폼,소비자,악성,리뷰,자영업자들,피해,반복,플랫폼,업체,폐해,나름,노력,해명,자영업자들,악성,리뷰,대응,영업,지경,목소리,악성,리뷰,점주들,악성,리뷰,온라인,플랫폼,시장,확대,리뷰,파급력,막강,리뷰,작성자,책임,발생,플랫폼,식당,정보,후기,식당,이미지,물론,주문,여부,직결,식당,검증,취약,악의,목적,악성,리뷰,기분,사실,리뷰,사용자,진실,거짓,가락수산시장,서울,송파구,가락,수산,시장,횟집,운영,4월,평점,영수증,리뷰,영수증,리뷰,작성,구매,영수증,그날,사회,거리,영향,단골,손님,소수,평판,영수증,고의,악성,리뷰,플랫폼,업체,삭제,리뷰,요청,업체,확인,지난달,쇼핑몰,서울,프랜차이즈,식당,카레,증상,식중독,의심,신고,소셜네트워크서비스,SNS,확산,점주,게시자,기억,직원,확인,결과,음식,고객,말씀,해명,카레,원본,SNS,게시,삭제,점포,타격,상태,점주들,피해,구제,플랫폼,점주,플랫폼,리뷰,권리,침해,신고,작성자,리뷰,게시물,중단,게재,요청,작성자,신청,객관,검증,게시물,복원,실효성,지적,허경옥,성신여대,소비자,생활,문화,산업학,교수,리뷰,작성자,익명성,의도,후기,점주들,대응,방법,운동장,게임,지적,갑질,새우튀김,논란,논란,리뷰,게시판,전화,소비자,폭언,점주,배달,배달,고객,기분,주문,환불,요청,사무국</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5702,7 +7162,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D293" t="n">
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>넉달,무역적자,걱정,한국,무역,비상등,한국,경제,수출,증가세,둔화,에너지,원자재,수입액,급증,지난달,무역,수지,적자,기록,4월,연속,무역적자,연속,무역,적자,2008년,14년,흑자,유지,중국,무역수지,30년,적자,연속,기록,글로벌,경기,위축,상황,한국,무역,전선,악화,전망,산업,통상,자원부,통계자료,수출입,통계,자료,지난달,무역,수지,46억,달러,6조,적자,기록,수출,비교,9.4%,달러,증가세,개월,연속,최고치,역대,최고,경신,수입,증가,1년,21.8%,21.8%,653억,달러,집계,무역,수지,4월,24억,달러,마이너스,연속,글로벌,금융,위기,14년,적자액,누적,150억,달러,19조,정인교,인하대,국제통상학,교수,연간,적자,안팎,달러,달러,적자,기록,14년,적자,연간,무역,수지,기록,가능성,에너지,수입액,영향,지난달,원유,가스,석탄,수입액,에너지원,7월,97억,달러,달러,우크라이나,전쟁,공급,불안,심화,에너지,가격,두바이유,72.93달러,배럴,달러,달러,액화,천연가스,LNG,가격,1년,여름,에너지,수요,수입,급증,영향,산업부,무역,수지,악화,한국,의존도,에너지,수입,일본,독일,공통,설명,무역,반등,실마리,에너지,원자재,가격,상황,수출,성장세,둔화,수출,경제,버팀목,정부,원전,방산,수주,국가,지원,수출액,증가,5월,대비,전년,동기,자릿수,성장,6월,16개월,자릿수,5.2%,기록,7월,9.4%,1위,수출,비중,차지,중국,수출,수출액,대중,1년,비교,2.5%,감소,6월,0.8%,역성장,연속,대중,무역,수지,5억,달러,적자,5월,10억,달러,6월,12억,달러,마이너스,적자,연속,30년,중국,총생산,GDP,성장률,0.4%,경기,둔화,영향,걱정,국제무역팀,한국은행,조사국,국제,무역,둔화,지난달,글로벌,경기,수출,영향,보고서,여건,글로벌,경기,종합적,수출,둔화,글로벌,경기,부정,영향,확대,증가세,약화,정부,수출,방안,마련,장관,이창양,산업부,이달,수출,기업,활동,제약,규제,개선,해소,현장,애로,지원,업종,특화,대책,종합,수출,계획,정인교,교수,무역금융,물류,안정화,지원,맞춤,기업,원자력,방위산업,해외,프로젝트,수주,지원,국가,정책,병행</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,7 +7185,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D294" t="n">
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>장관,김현숙,여성,가족부,부처,해체,유일,세상,권김현영,여성학,연구자,교정,인천,인하대학교,사망,사건,사건,기사,대학,캠퍼스,대학,학생,성폭행,사망,사건,보도,사건,발생,언론,재해,수준,피해자,여성,표기,발견,상황,묘사,불필요,범죄,피해자,선정,호기심,조장,보도,제외,신문,제목,보도,가능,정은주,한겨레,콘텐츠,총괄,정은주,선정적,지난달,선정,성차별적,제목,고백,제목,칼럼,한겨레,기사,편집자,젠더데스크,게이트키핑,제목,수정,성폭력보도,젠더데스크,노력,결과,보도,교안,초점면접인터뷰,사건,보도,신경,겨를,데스크,속보,경쟁,중시,정신,다음날,언론,보도,면피,보도,고백,개인,수준,의식,데스크,얘기,신문,방송사,데스크,기회,대학,성폭력,사건,차원,정부,책임자,여성,가족부,장관,그중,인터뷰,지난달,장관,김현숙,여성,가족부,인하대,성폭력,사망,사건,학생,안전,문제지,남녀,젠더갈등,증폭,디지털성,범죄,피해자,20%,남성,대학,강의,군대,남학생들,수업,남성들,가부장,지위,사회,남성,우위,결혼,남성,고정관념,원인,파악,대책,마련,책임,발언,자리,여성,가족부,장관,여성,폭력,사망,사건,발생,피해,보도,상황,구조,대통령,반복,자신,무능,전시,부처,폐지,참고,교육부,사흘,사건,발생,보도자료,야간,출입,관리,강화,확대,취약,시간,순찰,방범시설,안전,관리,강화,학내,성폭력,예방,교육,점검,특별,교육,추진,피해,확산,방지,지원,심리,안정,프로그램,종합대책,예산,확보,인하대,인력,경비,노동자,35명,15명,2021년,대학,기본,역량,진단,평가,낙제점,정부,일반,재정,지원,대상,제외,대학,구조,조정,예산절감,안전,대학,건물,관리,인력,동료,여학생,외모평가,강간,모의,발언들,각종,폭력,발언,농담,소비,톡방,성희롱,해결,성폭력,예방,교육,징계,사건,인하대,대자보,익명,학생,inhamoksori,오늘날,학교,위기,비판,목소리,동의,여성,가족부,장관,얘기,여성,가족부,장관,자격,고사,어른,양심,완벽,반면교사</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,7 +7208,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D295" t="n">
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,가해자,구속,기간,연장,검찰,살인,고의,여부,파악,수사력,집중,인하대,캠퍼스,동급생,성폭행,건물,추락,혐의,구속,남성,구속기간,연장,법조,인천지검,여성,아동,범죄,조사부,부장검사,구미옥,준강간치사,성폭력범죄,처벌,특례법,카메라,혐의,이용,촬영,구속,인하대,A씨,구속기간,10일,연장,단계,검찰,수사,피의자,구속,기간,10일,형사소송법,수사,인정,구속기간,최대,연장,검찰,수사,사건,전담팀,상태,전담팀,살인,고의,여부,수사력,집중,A씨,캠퍼스,시간,인천시,미추홀구,인하대,단과대,건물,여학생,학교,또래,B씨,성폭행,추락,혐의,구속,B씨,사건,당일,3시,분쯤,캠퍼스,행인,발견,머리,심정지,상태,구급대,병원,사망,경찰,5층,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,A씨,B씨,마지막,파악,A씨,경찰,조사,B씨,건물,사실,인정,B씨,고의성,부인,경찰,A씨,B씨,확인,실험,진행,법리,검토,살인,고의성,입증,치사죄,적용,검찰,송치,경찰,사건,현장,발견,A씨,휴대전화,범행,영상,확보,불법,촬영,혐의,추가,적용,영상,범행,장면,음성,녹음,조사,추후,검찰,A씨,고의,B씨,건물,정황,확인,죄명,살인</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5756,7 +7231,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D296" t="n">
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>에너지,수입,감소,대중,수출,14년,무역수지,무역,수지,연속,적자,수출입,경고등,수입액,지난달,에너지,급증,무역,수지,적자,달째,적자,연속,금융위기,글로벌,금융,위기,그간,흑자,유지,중국,무역수지,30년,적자,연속,기록,침체,글로벌,경기,심화,한국,무역,전선,악화,전망,산업,통상,자원부,수출입,통계,자료,지난달,무역,수지,46억,달러,6조,적자,기록,수출,비교,9.4%,달러,증가세,개월,연속,최고치,역대,최고,경신,수입,증가,1년,21.8%,21.8%,653억,달러,집계,무역,수지,4월,24억,달러,마이너스,연속,글로벌,금융,위기,14년,적자액,누적,150억,달러,19조,정인교,인하대,국제통상학,교수,연간,적자,안팎,달러,적자,2008년,132억,달러,에너지,수입액,영향,지난달,원유,가스,석탄,수입액,에너지원,7월,97억,달러,달러,러시아,우크라이나,전쟁,공급,불안,심화,에너지,가격,두바이유,72.93달러,배럴,달러,달러,액화,천연가스,LNG,가격,1년,여름,에너지,수요,수입,급증,영향,고공행진,에너지,가격,고공,행진,월별,수입액,3월,연속,달러,산업부,무역,수지,악화,우리나라,의존도,에너지,수입,일본,독일,공통적,설명,무역,반등,실마리,에너지,원자재,가격,상황,경제,버팀목,수출,성장세,둔화,수출액,증가,5월,대비,전년,동기,자릿수,성장,5.2%,9.4%,자릿수,1위,수출,비중,차지,중국,수출,수출액,대중,1년,비교,2.5%,감소,6월,0.8%,역성장,연속,반도체,수출,무선통신,컴퓨터,수출,감소,대중,무역,수지,5억,달러,적자,5월,10억,달러,6월,12억,달러,마이너스,기록,적자,연속,30년,중국,총생산,GDP,성장률,0.4%,경기,둔화,영향,중국,정부,코로나,정책,상하이,조치,도시,봉쇄,생산,물류,소비,타격,추가,봉쇄,L자형,장기,침체,한국은행,보고서,이날,통계청,온라인,해외,판매액,침체,중국,내수,여파,해외,온라인,판매,역직구,금액,5060억,58.6%,대비,58.6%,감소,비중,중국,감소,3471억,1조,3분,1토막,서비스업동향과장,통계청,이민,서비스업,동향,과장,여파,봉쇄,조치,중국,소비,전반적,위축,소비재,화장품,의류,패션,상품,패션,감소세,설명,걱정,각국,인플레이션,금리,인상,경기,침체,수출,차장,한국은행,성병묵,차장,경기둔화,지난주,글로벌,경기,둔화,수출,영향,보고서,여건,글로벌,경기,종합적,감안,수출,둔화,글로벌,경기,부정,영향,확대,증가세,약화,무역투자실장,문동민,산업부,무역,투자,실장,연말,수출,성장세,상황,글로벌,경기,수요,위축,진행,무역,수지,적자,위기,정부,수출,방안,마련,장관,이창양,산업부,수출,성장세,유지,정책,지원,시점,이달,수출기업들,활동,제약,규제,개선,해소,현장,애로,업종,특화,지원,대책,종합,수출,계획,정인교,교수,수출,시장,수입,에너지,양쪽,전망,무역금융,물류,안정화,지원,맞춤,기업,원전,방산,프로젝트,해외,수주,지원,국가,정책,병행</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5774,7 +7254,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D297" t="n">
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,연장,남학생,구속,기간,이달,검찰,살인죄,적용,남학생,보강,수사,진행,가해,살인,고의,주장,인하대,캠퍼스,여학생,성폭행,건물,추락,가해,남학생,구속,기간,연장,검찰,살인죄,적용,보강,수사,진행,인천지검,여성아동범죄조사부,부장,구미옥,준강간치사,성폭력범죄,처벌,특례법,카메라,혐의,이용,촬영,인하대,구속,기간,연장,검찰,연장,신청,법원,지난달,종료,예정,A씨,구속,기간,이달,사건,보강수사,전담팀,검찰,살인,고의,인정,적용,치사,혐의,송치,A씨,가능성,살인죄,적용,가능,검토,A씨,인천,미추홀구,인하대,캠퍼스,단과,대학,건물,B씨,여성,성폭행,3층,추락,혐의,자신,휴대전화,이용,범행,장면,촬영,혐의,A씨,B씨,창문,복도,1층,추락,당일,경찰,체포,B씨,추락,가량,방치,행인,신고,구급대,병원,3시간,경찰,조사,A씨,B씨,건물,사실,인정,살인,고의,주장,경찰,고의성,증거,확보,살인죄,준강간치사죄,적용,A씨,검찰,송치</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5792,7 +7277,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D298" t="n">
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>인하대,성폭력,추락사,사건,가해자,남학생,구속,기간,연장,인하대,캠퍼스,동급생,성폭력,추락,사망,혐의,남학생,구속,기간,연장,법조,인천지검,여성,아동,범죄,조사부,법원,준강간치사,성폭력처벌,특례법,카메라,이용,촬영,혐의,구속,남성,구속,기간,연장,청구,지난달,만료,예정,구속,기간,이달,형사소송법,단계,검찰,수사,피의자,구속,기간,10일,최장,연장,가능,검찰,여성,아동,범죄,조사부,부부장,검사,팀장,검사실,구성,수사,1시,인천시,미추홀구,인하대,캠퍼스,단과,건물,동급생,동급,성폭력,추락,혐의,행인,발견,신고,당일,주거지,무렵,검거,조사,결과,범행,만취,대학,건물,범행,확인,범행,현장,범행,휴대전화,주거지,은신,폐쇄회로,CC,TV,휴대폰,추적,경찰,검거,경찰,강간치사,혐의,적용,긴급체포,항거,불능,상태,범행,판단,강간치사,혐의,적용,구속영장,신청,경찰,휴대전화,이용,촬영,사실,파악,혐의,추가,검찰,송치</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5810,7 +7300,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D299" t="n">
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>인하대,사건,가해자,연장,구속,기간,살인죄,적용,인하대학교,성폭행,사망,사건,수사,검찰,남학생,구속,기간,연장,법조,인천지검,여성,아동,범죄,조사부,준강간치사,성폭력범죄,처벌,특례법,카메라,혐의,이용,촬영,인하대,구속,기간,연장,법원,검찰,구속,기간,연장,신청,A씨,구속,기간,이달,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,A씨,남학생,구속,피의자,심문,영장실질심사,인천지방법원,인천시,미추홀구,전담,검찰,살인,고의성,치사,혐의,송치,A씨,상대,살인죄,적용,가능,A씨,인천시,미추홀구,인하대,캠퍼스,건물,B씨,동급,여성,성폭행,건물,추락,혐의,범행,장면,자신,휴대전화,이용,촬영,혐의</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,7 +7323,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D300" t="n">
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>검찰,성폭행,추락사,남학생,구속,기간,연장,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,가해,남학생,구속,기간,연장,법조,인천지검,여성,아동,범죄,조사부,구미옥,부장검사,준강간치사,성폭력범죄,처벌,특례법,카메라,혐의,이용,촬영,인하대,구속,기간,연장,인하대,캠퍼스,동급생,성폭행,가해자,검찰,송치,인천,미추홀경찰서,검찰,연장,신청,법원,종료,지난달,예정,A씨,구속,기간,이달,형사소송법,단계,검찰,수사,피의자,구속,기간,10일,법원,허가,추가,1차례,최장,10일,연장,사건,보강수사,전담팀,검찰,살인,고의,인정,적용,치사,혐의,송치,A씨,가능성,살인죄,적용,가능,검토,A씨,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과,대학,건물,B씨,여성,성폭행,3층,추락,혐의,자신,휴대전화,이용,범행,장면,촬영,혐의,A씨,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,가량,혼자,건물,길가,방치,행인,발견,병원,3시간,경찰,A씨,B씨,고의,확인,법리,검토,증거,확보,살인,혐의,적용</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5846,7 +7346,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D301" t="n">
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>견학,바이오,생산,현장,연구자,도움,아카데미,청소년,바이오,세계,석학,리버먼,교수,강연,기업,방문,바이오,기업,세계적,교수님,강의,아카데미,대한민국,청소년,바이오,교육,7월,30,,참가,이유리,18,NLCS,국제,학교,학년,연구자,바이오,분야,도움,행사,동아일보,채널A,공동,주최,바이오클러스터,인천,송도,국제도시,바이오,클러스터,일대,교육,학생,참가,송도,삼성바이오로직스,셀트리온,기업,바이오,분야,기관들,세계,최대,바이오,의약품,생산,기지,학생들,관심,프로그램,정밀,의학,의료,미래,형성,주제,강의,유전체,분야,유전체,세계,권위자,교수,미국,하버드대,토위아,리버먼,하버드대,의대,박사,출신,이원다이애그노믹스,EDGC,이민섭,부회장,강사,강의,학생,질문,정도,열기,리버먼,교수,한국,고교,강의,질문,강의,생각,학생들,열의,삼성바이오로직스,셀트리온,써모피셔사이언티픽,기업,생산,현장,견학,울산,동생,최준혁,16,강남중,수준,세계,최고,교수님,생각,며칠,바이오,기업,경험,기업,방문,인하대,인천대,가천대,실험,실습,행사,첫날,이완규,법제처장,동창회장,인천,송도고,모교,송도고,후배,격려,현장,최우수교,전국,과학,중점,학교,선정,송도고,교육,150여,단체,참가,투자유치사업본부장,김태권,인천경제자유구,역청,투자,유치,사업,본부장,현장,교육,6,,1주차,2주,1600여,학생,참가,예정</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5864,7 +7369,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D302" t="n">
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>허준이,교수,아버지,인터뷰,최고야,心深,토크,부모,한국,특유,자녀,동일체,의식,서로,성공,실패,공유,운명,공동체,부모,대리만족,불행,감수,자녀,부채의식,성공,동력,신뢰,자율성,전제,친밀,정신건강,정서,마음,이야기,수학계,노벨상,필즈상,수상자,허준,교수,미국,프리스턴대,39,고등,과학원,석학,교수,5일,현지시간,호명,한국,언론,관심,교수,부모,교수,아버지,통계학,허명회,고려대,명예교수,어머니,노어노문학,이인영,서울대,노어,노문학,명예교수,허명회,교수,수학,연관,통계학과,교수,언론,인터뷰,집중,교수,학업성취도,교육법,질문,기사,자녀,부모,부모,자식,댓글,세계,수학,국격,주인공,환경,성장,궁금증,스타탄생,특별,상황,아부지,부모,직업,반대,자녀,대학,진학,취업,성패,부모들,부모,자녀,사람,중요,부모,자녀,운명공동체,심리학,교육학,현상,부모,자녀,동일체,개념,설명,부모,자녀,서로,성공,실패,공유,운명공동체,의미,한성열,고려대,심리학,명예,교수,한국,문화,부모,자녀,독립,존재,인식,자녀,표면적,분리,생각,마음,부모,인식,부모,자녀,반대,설명,문화,동양,관계주의,기인,개인,중심,동양,가정,운명,공동체,가정,중심,부부,부모,자녀,서양,개인주,문화,부부,가정,중심,부모,자녀,독립적,한국인,심리,특징,최상진,중앙대,심리학,명예,교수,부자유친성정,父子有親性情,명명,삼강오륜,부자유친,父子有親,부모,자녀,친밀,부모,자녀,서로,한국,특성,개념화,교수,저서,한국인,심리학,한국,자녀,부모,미안,측은,고마움,부모들,자식,측은,서양,부모들,자녀,자랑,생각,유교문화,교육열,종영,tvN,드라마,블루스,최한수,차승원,아내,미국,유학,즉석,혼자,끼니,아빠,기러기,아버지,도랑,평생,가난,공부,결혼,골프,유학,기러기,아빠,자녀,성공,헌신,대표,사례,드라마,최한수,만큼,포기,아내,부모,포기,한숨,심리학,교육학,한국,교육열,부모,자녀,동일체,의식,유교,입신양명,立身揚名,정서,영향,결과,한은,부당,차별,교육,자녀,부모,수단,주변,엄친아,엄친딸,사례,자녀,성취,압박,현상,연장선,성공,부모님,작품,자녀,부모,애정,부채의식,동시,세계,축구,스타,손흥민,선수,감독,아버지,손웅정,에세,추천사,축구,아버지,작품,아버지,아들,코치,매니저,코치,감독,선수,세계,선수,유명,감독,설기현,경남,FC,어머니,홀몸,포장마차,과일,노점,축구뒷바라지,감독,활동,유럽,리그,활동,성공,어머니,보답,현지,언론,관심,박영신,인하대,교육학,교수,자녀,성공,개인,노력,능력,뿌리,부모,희생,헌신,인정,관계주,문화,특징,대학생,대상,조사,부모,보답,효도,의식,청소년학연구,청소년,효도,지각,학업성취,1706명,대상,자녀들,효도,방법,순종,22.1%,학업충실,19.8%,효도,혈연관계,37.8%,부모,희생,보답,30.2%,무한,책임,의식,일가족,살해,부모,자녀,동일체,의식,비극적,지난달,전남,완도,앞바다,조유나,가족,발견,비관,부모,실패,자녀,실패,일가족,목숨,극단,선택,한국형사,법무정책연구원,살인범죄,실태,유형,특성,연구보고서,가족,살해,자살,미수,포함,426건,사건,41.4%,부모,자녀,살해,범행,동기,처지,비관,25.6%,생활고,24.6%,금전문제,12.9%,진행,홍영오,한국,형사,법무정책연구원,선임연구위원,가해자,가족,구성원,독립적,존재,인정,경향,동반자살,가족,제거,계획,일환,설명,서영석,연세대,교육학,교수,자녀,무한,책임,의식,자녀,투사,결과,설명,사회,세습,관행,재벌,chaebol,옥스퍼드,영어,사전,한국,집단,특징,세계,정치인들,자녀,지역구,대형,교회,담임목사,세습,일체감,중요,의존,의지로,부모,자녀,의식,동일체,병적,개선,전문가들,의견,자녀,소유물,과도,교육열,세습,관계주,문화,이해,필요성,선임연구위원,최인재,한국청소년개발원,선임,위원,서양,부모,자녀,일체감,독립,부정,상태,정서,부모,유대관계,아이,성인기,자아,분화,부모,자녀,신뢰,기본,박영신,교수,부모,자녀,자신,헌신,서양,개인주,문화,열등,문화,치부,시각,서양,자녀,부모,생각,성취,동력,각자,자율성,전제,강조,서영석,교수,주관,자율성,확보,과도,밀착,스스로,외로움,유발,상대방,세계,인정,의존,상호,의지</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5882,7 +7392,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D303" t="n">
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>경제,복합,위기,수출,동력,동아시론,정인교,자이언트스텝,연속,유출,외국인,자금,무역,적자,악화,역할,경제,위기,불쏘시개,환율,안정,중기,지원,수출경쟁력,격변,시대,일들,사이,2,,중반,세계경제,규칙,국제통상질서,안정적,성장,인플레이션,무역자유화,국제,분업,구조,경제,번영,정반대,양상,저성장,고인플레이션,동시,발생,의미,스태그플레이션,보호무역주의,세계,확산,미중,경제분리,경제,분리,디커플링,패권경쟁,러시아,우크라이나,침공,러시아,우크라이나,침공,장기화,세계은행,WB,경제협력개발기구,OECD,금년도,세계,경제,성장,전망,1.2%,포인트,1.5%,포인트,글로벌,인플레이션,내년,완화,예상,우크라이나,전쟁,공급,측면,교란,인플레이션,압력,유지,러시아,침공,공급망,왜곡,투자,무역,경제심리,악화,세계적,금리,인상,통화,긴축,내년,내후년,세계,경제,성장,유사,전망,패권,경쟁,신냉전,투자심리,위축,인상,금리,가계,부담,가계,소비,위축,미국,6월,자이언트스텝,기준금리,0.75%,포인트,인상,단행,한미,한미,금리,역전,외국인,자금,한국,이탈,둔화,세계,경제,성장,공급망,교란,원화,평가절하,물가,인상,금리,역전,신호,각종,경제,위기,퍼펙트,스톰,불안,제기,워크숍,윤석열,대통령,경제,호전,기획재정부,산업통상자원부,경제부처,물론,국토교통부,국방부,농림부,부처,경제,매진,주문,무역수지,6월,연속,무역,적자,기록,금융,위기,14년,세계적,경기,둔화,갈등,러시아,전쟁,수출,여건,악화,원유,가스,석탄,곡물,원자재,국제가격,고공행진,인플레이션,실질소득,감소,비즈니스,환경,악화,투자,위축,상황,내수,진작,위기,상황,수출동력,경제,버팀목,역할,상황,무역,수지,적자,악화,경제위기,불쏘시개,역할,대중국,무역,위기,한국무역협회,수출액,상반기,우리나라,달러,증가,전년,동기,대비,15.6%,중국,수출,6.9%,증가,수출,중국,비중,23.2%,전년,25.1%,2%포인트,가량,미국,15.7%,전년,동기,대비,소폭,수출,증가,18.2%,평균,국제통상환경,영향,중국,장기,제로코로,봉쇄,2분기,경제성장률,0.4%,우리나라,대중국,수출,과거,목소리,수출,다변,중국,지리적,산업,구조,측면,상대국,우리나라,교역,중요성,중국,산업정책,국제통상,환경,변화,상호협력적,유지,외교,통상,노력,경주,무역협회,조사,기업,애로점,최대,수출,인상,원재료,가격,물류비,상승,환율,변동,확대,환율,평가절,생산비용,산업,평균,생산,비용,2.9%,수출,경쟁력,약화,차원,수출,지원,대책,환율,안정화,2년,팬데믹,글로벌,봉쇄,경영난,심화,공급망,교란,인상,원자재,가격,어려움,중소기업,기업,긴급경영안정자금,자금,수출,기업,글로벌,확대,공급,물류비,수출기업,부담,중소기업,물류,애로,완화,무역금융,40조,301조,확대,대내외,여건,탄력적,해외,전시회,참여,지원,제작,디지털,광고,글로벌,전자,상거래,입점,지원,지원,디지털,마케팅,비축물자,탄력,운용,방안,수출,지원,적극,추진,정인교,인하대,국제통상학,교수</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5900,7 +7415,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D304" t="n">
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>장관,김현숙,여가부,여성,폭력,의미,구독,한겨레,뉴스레터,휴가,산속,캠핑장,평화,장관,김현숙,여성,가족부,여가부,장관,의문,발언,여럿,기사화,차관,이기순,여가부,장관,경쟁,여가부,생각,기색,공개적,여성,가족부,넘버,발언,표준국어대사전,유엔,총회,결의안,채택,여성폭력철폐선언,Declaration,Elimination,Violence,Women,결의안,여성,폭력,정의,여성,신체적,성적,심리적,피해,고통,가능성,종류,젠더,폭력,공적,생활,협박,강압,임의적,자유,박탈,포함,정의,29년,세상,여성,폭력,만연,대학,사람,사람,여성,자신,여성,폭력,피해자,사실,치마,폐회로티브이,CCTV,여성,폭력,피해자,가부장적,성차별적,사회구조,여성,폭력,용인,문화,자신,행동,범죄,생각,가해자,장관,김현숙,여가부,인터뷰,인하대,성폭행,사망,사건,안전,문제지,남녀,젠더,갈등,증폭,다음날,업무보고,대통령,업무,보고,사전,브리핑,발언,질문,성별,갈등,취지,남녀,갈등,증폭,현존,여성,폭력,직시,목숨,사회,갈등,증폭,행위,차관,이기순,여가부,불교방송,BBS,라디오,전영신,아침저널,요즘,아이,아이,분위기,과거,남아선호사상,성비,균형,취지,남아선호사상,사회,달성,성비,균형,실질적,수준,상승,사회,분위기,선호,폭력,여성,여가부,넘버,발언들,수식어,윤석열,대통령,마련,여가부,폐지,로드맵,신속,주문,여성,폭력,공부,부족,6항목,정도,유엔,여성,폭력,철폐,선언,정독,여가부,수장,발언,이정연</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5918,7 +7438,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D305" t="n">
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>인하대,국제,세계,데드콘,관측,성공,인하대학교,교수,권민정,물리학,한국대표,참여,ALICE,국제공동연구팀,데드콘,dead,cone,효과,세계,관측,28일,결과,세계적,국제,학술지,네이처,게재,ALICE,Large,Ion,Collider,Experiment,연구팀,거대강입자가속기,LHC,수년,축적,데이터,양성자,충돌,적용,상호작용,설명,이론,근본,특성,데드콘,효과,관측,성공,상호작용,설명,표준,모형,이론,양자색소역학,입자,충돌,생성,기본,입자,파톤,쿼크,글루온,에너지,파톤,연속적,방사,진행,파톤,샤워,shower,파톤,샤워,글루온,방사,영역,데드콘,그간,데드콘,양자색소역학,기본,방정식,간접적,예측,연구팀,데드콘,관측,독창적,데이터,방법,세계,데드콘,관측,파톤,샤워,패턴,조사,데드콘,존재,직접적,입증,강입자,속박,맵시,쿼크,charm,quark,유한,질량,사실,확인,ALICE,유럽핵입자물리연구소,CERN,진행,거대강입자가속기,이용,국제,공동,프로젝트,기관,개국,소속,1900여,연구자들,참여,ALICE,ATLAS,CMS,LHCb,프로젝트,운영,CERN,세계,최대,연구소,입자,물리학,물질,우주,초기,생성과정,상호작용,우주,진화,예측,설립,ALICE,참여,한국팀,기관,연구자,구성,과학기술정보통신부,한국연구재단,추진,유럽,입자물리,연구소,협력,사업,지원,수행,인하대,물리학,권민정,윤진희,교수,복정수,비트,쿠체라,Vit,Kucera,박종한,조소연,권지연,서진주,연구원,28명,기관,연구자,공동,참여,한국팀,대표,권민정,인하대,물리학,교수,LHC,데이터,양성자,충돌,데이터,방법,데이터,이용,데드콘,존재,연구팀,고안,독창적,분석방법,쿼크,질량,측정,제시,의미,강조</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5936,7 +7461,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D306" t="n">
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>한성우,교수,곱창,눈곱,곱창,곱돌,공통점,한글,단어,글자,가지,눈곱,윤활,작용,기름,곱창,지방,창자,곱돌,비빔밥,본래,기름,흰색,기름,독특,먹거리,곱창,의문,지방,소화액,창자,응고,소화,먹이,구별,구이용,대창,안쪽,본래,창자,바깥쪽,지방,창자,지방,창자,지방,대창,창자,곱창,대창,먹거리,이름,단어,역사,구성법,특이,창자,한자,腸子,한자음,장자,단어,창즈,중국어,발음,chang,창자,발음,대창,한자,大腸,대장,발음,고유어,곱창,막창,한국어,중국어,곱창,가축,소화기관,불편,소화기관,손질,위생상,기름,동물,지방,섭취,권장,교수,인하대,한국어,문학</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5954,7 +7484,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D307" t="n">
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인하대,사건,CCTV,부족,교육부,탁상행정,폐회로티브이,CCTV,범죄,사람,숫자,인하대,발생,사건,성폭행,사망,교육부,중심,폐회로티브이,증설,대책,재발,방지,최일선,대학,안전,경비,노동자,고개,확충,경비,인력,학내,안전,얼마,보강,가늠,교육부,보장,대학,자율,학교,경비,인력,현황,파악,확인,연세대,국제,캠퍼스,경비,업무,25일,통화,교육부,인하대,성폭행,사망,사건,교육부,대책,탁상행정,교육부,인하대,학생,사망,사건,대응,조치,계획,강화,야간,출입,통제,시시티브이,증설,핵심,계획,교육부,대학,대학안전관리계획,표준안,경비,인력,실태분석,확충,정씨,과거,5명,1명,순찰,비상,상황,사무실,강조,인력,상황,폐회로티브이,모니터링,사람,부족,학내,안전,구멍,이름,연세대,국제,캠퍼스,경비,직원,근무,형태,인력,충원,맞교대,3교대,1개,조당,정원,5곳,기숙사,경비,초소,인력,배치,야간,순찰,번씩,외부인,대응,사건,발생,인하대,형태,경비,인력,경비,출동,경비,35명,경비,노동자,13명,폐회로티브이,765대,야간,순찰,차례,경찰,출동,대학,자체,사건,발생,까닭,인천시,운영,인천,글로벌,캠퍼스,보안,업무,최승조씨,폐회로티브이,감시,화면,사람들,증원,순찰,인력,순찰,강화,가능,의문,교육부,학내,안전,요원,규모,추산,현황,파악,교육부,학교,안전,총괄,통화,폐회로,티브이,추가,설치,계획,파악,대학,문의,대학,파악,상황,현황,경비,인력,파악,현실,대학들,학교,운영,자율성,침해,인식,폐회로티브이,범죄,예방,사안,적정,대수,운영,여부</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,7 +7507,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D308" t="n">
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>장관,김현숙,여성,가족부,NCND,플랫,학생,안전,문제지,남녀,젠더,갈등,증폭,인하대,성폭력,사망,사건,장관,김현숙,여성,가족부,발언,인터뷰,보도,성차별,외면,성폭력,사건,개인,치부,비판,장관,사건,구조적,취지,질의,여가부,대결,구도,취지,답변,장관,유무,구조,질문,즉답,국회,인사,청문회,구조,생각,질문,제도,개선,노동시장,불공정성,출산,육아,경력단절,해소,노력,생각,세계성격차지수,한국,장관,NCND,시인,부인,Confirm,Deny,대응,최선,전략,구조,인정,여가부,폐지,명분,부정,여론,질타,남녀,경제활동참가율,남녀,경제,활동,참가,임금,자신,기재,팩트,부정,자가당착,장관,젠더갈등,공식석상,단어,반복,구조적,사회적,맥락,차별,단어,젠더,이슈,원인,해법,대등,당사자,충돌,내포,갈등,단어,여성,성소수자,사회,약자,현실,플랫,지지율,여가부,폐지,카드,대통령,플랫,근거,정영애,장관,여가부,폐지,작심,비판,플랫,구조,증거다,장관,취임,정부,실재,차별,사이,피해자,양산,차별,차별,사람,공격,장관,NDNC,장관님,구조,생각,플랫팀,twitter.com,flatflat38</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5990,7 +7530,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D309" t="n">
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>기사,사진,정치,목소리,반영,신문,편집국,논의,중요,사건,주목,의제,한정,지면,선택,편집국,시각,반영,21일,대회의실,서울,공덕동,한겨레신문사,회의,편집,위원회,1면,경제,기사,집중,검토,이날,회의,이승윤,시민,편집인,편집,위원장,중앙대,사회,복지,학부,교수,김경식,고철,高哲,연구소장,대표,김준일,뉴스톱,연구원,오동재,기후,솔루션,대학,위지혜,편집기획위원,이명재,자유,언론,실천,재단,편집,기획,위원,참여,일정,참여,미디어연구센터장,김영주,한국언론진흥재단,미디어,센터장,성폭력상담소장,이소희,한국여성민우회,성폭력,상담소장,서면,의견,한겨레,권태호,저널리즘,책무실장,정은주,콘텐츠,총괄,정환봉,소통,데스크,이승윤,한겨레,경제,기사,검토,위원님,의견,부탁,이소희,7월,18개,윤석열,정부,여당,기사,여당,8개,정상,회담,기사,아베,일본,총리,사망,기사,포함,정치,외교,기사,외교,10개,나머지,경제,사회,기사,3개,코로나,기사,기후,위기,기사,1개,사진,차례,사용,정치인,국회,외교,사진,외교,등장,계절,4차례,계절,사회,기후,위기,코로나,경제,1차례,집계,대우조선해양,하청,노동자,투쟁,지지,시민,무더위,계곡,청소년,보궐,선거,국회의원,입성,국회의원,여성,의원,기사,주제,사진,일치,여학생들,운동장,7월,기사,통계,정치,55.5%,사진,28.3%,비중,차지,정치,기사,비중,생각,정부,행보,여당,권력,투쟁,정부,기사,시민,한겨레,신문,사회,목소리,반영,사진,등장,한겨레,한번,생각,김용균들,7월,일치,기사,신문,첫날,심정,존재,기록,울림,청년노동자들,산업재해,흔적,독자들,전달,인터랙티브,입체성,부각,문제의식,여성,청년,노동자,장애,청년,노동자,기사,오동재,정치,비중,이번달,기사,기후,변화,사회,기사,1면,배치,평균,정치,기사,보통,절반,1면,차지,김경식,업무,과거,신문,신문사별,1면,제목,사진,신문사,차이,재미,종이,신문,습관적,여성,기본,청년,산재,한겨레,추구,가치,기획,1면,임팩트,흐름,현안,기사,기억,요즘,휴대전화,1면,의미,김용균들,기사,사고,원인,예방,아쉬움,이승윤,의미,예전,한겨레,중요,김영주,인상적,1면,15일,세계,각지,3장,기후,현상,사진,기후,위기,직관적,경각심,지면,활용,예전,폭설,노숙자,자신,모습,한겨레,사진,독자,기억,한겨레,1면,정치인,대통령,중심,사회,약자,모습,정치인,모습,이명재,자체,의견,사실,존재,발견,사실,정도,비중,의견,압축적,지면,이야기,한겨레,생각,지적,7월,윤석열,대통령,아베,사진,총리,조문,한국,대통령,총리,일본,전직,조문,이례적,자체,비판,아베,총리,아시아,번영,기여,대통령,조문록,한겨레,사진,사건,비판적,관점,기사,임명,박순애,교육부,장관,7월,일치,기사,7일,박지원,국가정보원장,고발,사건,기사,건조,사건,비판,정치,기사,정도,적정,판단,생각,정치적,대격,정치,정책,걸림돌,상황,정치,기사,중요,사회,일상,정치적,함의,생각,위지혜,정책,의제,역할,한겨레,정책,의제,설정,정치,논의,위원님,정치,기사,1면,부정적,3년,퍼레이드,중요,순간,생각,보도,언론,한겨레,1면,보도,김용균들,1면,방식,인상,발달,장애,가족,기획,기사,당사자,이야기,아쉬움,윤석열,대통령,취재,남성,형식,카카오톡,방담,진행,1면,기사,신뢰성,방식,취재,비판,보수언론들,한겨레만,관점,바탕,접근,김준일,김용균들,형식,2019년,기획,기사,김용균,유사,상상력,발휘,스타일,아베,총리,사망,한겨레만,사진,긍정적,부정적,사진,자체,의미,논의,정은주,선택,기로,중요,스트레이트,기사,준비,기획,기사,사진,선택,대통령,아베,사진,총리,참배,1면,내부,회의,차례,말씀,해설,기사,추가,아베,총리,사진,지면,내부,회의,고민,1면,사진,최종,결정,김용균들,상상력,발휘,생각,고민,위원님,지혜,의견,도움,이승윤,여학생,운동장,사진,헤드라인,유기적,연동,기억,1면,의제,제시,경제,기사,논의,김준일,진보,언론,경제,산업,숫자,보수언론,경제지,비교,진보언론,경제산업부,측면,한겨레,보도,생각,대우조선해양,하청,노동자,파업,이슈,노동,접근,조선업,미래,산업구조,하청,노동자,어려움,부각,예전,한겨레,조선업,불황,공장,연재,기사,도시,군산,관점,접근,경제,위기,자영업자,부채,숫자,기사,경제산업부,고민,김경식,건설업,조선업,수주산업,특징,수주,차이,경제,위기,조선,기업,고정비,시작,다단계,하도급,구조,중대재해,일거리,수주,산업,특성,제도,정책,일거리,춘궁기,대비,제도,마련,노동,사회,안정,결합,이야기,조선산업,이야기,한겨레,사안,대기업,비판,설명,6월,일치,1면,그룹,경제,기사,이야기,내부거래,알앤디,R&amp;D,신상품,측면,인정,재벌,대기업,중소기업,자리,생각,재벌,중소기업,성장,재벌,연관성,업체,위축,요인,지적,이명재,한겨레,보도,기사,경제,위기,긴박감,국민,체감,경제,위기,한겨레,지면,한국,경제,인식,온도,차이,일반,경제,기사,자본,압도적,우위,한겨레,매체,노동,생각,노동,친화,인권,관점,사회,약자,노동,취재,편향,비판,편향,생각,오동재,대우조선해양,조선업,수주,증가,엘엔지,LNG,수주,촉매,수주,하청,재하청,조선업,호황,지속,미래,언론,문제들,반복,전문가들,호황기,기후,변화,대응,에너지전환,엘엔,수요,전망,이슈,기후,변화,경제,산업,밀접,경제산업부,기사,기후,변화,측면,접근,바람,한국전력,재무,위기,보수,탈원전,한겨레,반론,한겨레,걸음,화석연료,한국,의존도,재생에너지,화석,연료,대비,재생,에너지,가격경쟁력,확보,시점,전력산업,영향,보도,정책,정부,에너지,취재,7월,에너지,계획,한겨레,기후변화팀,기사,추가,전기,요금,결정,전기위원회,거버넌스,집권,여당,구조,전기위원회,독립,언급,시사점,정부,관점,자원,안보,가스전,자원,자원,추진,목소리,사실,과거,이명박,정부,자원외교,가스,유전,사업,신규,투자,세계적,기후,변화,대응,좌초,위험,기업,부실투자,10년,경제산업부,주목,위기,위지혜,경제,긴박감,보도,심층적,생각,정부,경제,정책,비판,경제,위기,독자들,대비,정보,전달,중요,세계적,석학,애널리스트,인터뷰,상황,위기,양상,기사,사람들,경제,위기,관심,대처,혼란,개별,기사,윤석열,정부,추진,반도체,산업,집중,육성,지적,생각,반도체,업계,경도,보도,균형,7월,일치,임금,인플레,취약,노동자,숨통,기사,이슈,대우조선해양,협상,구조적,기사,임금,인플레이션,보수언론,이야기,한겨레,대응,이승윤,이슈,말씀,이야기,이명재,일치,아베,총리,평가,칼럼,생각,내재,접근,내재,접근,평가,대상,유지,거리,함정,박정희,신념,정치인,이야기,한겨레,언론사,칼럼,자유,책무,생각,무게,염두,김경식,생각,칼럼,생각,한일,국제정치,리더,아베,시각,한일,우익,장악력,위안부,박근혜,정부,일본군,합의,정도,의견,개인적,한겨레,다양성,위지혜,인하대,교내,성폭력,사망,사건,7월,일치,선정적,성차별적,제목,고백,칼럼,한겨레,지향,제목,가해,최소화,노력,노동자,인하대,경비,기사,한겨레,보도,중요,지적,생각,숫자,경비,노동자,피해자,방치,기사,중요도,지면,구조적,피해자,청년,산재,피해자,편집,위원,7월,생산,콘텐츠,18건,콘텐츠,기사,추천,위원,평가,기사,노동자,청년,산업,재해,이야기,김용균들,기사,기사,추천,위지혜,위원,저임금,미만,사업장,근무,피해자,청년,산재,구체적,기사,평가,김용균들,연재,장필수,김가윤,정환봉,탐사기획팀,심사평,한겨레,노력,인터뷰,피해자들,청년,산재,피해자,용기,2.,성차별적,제목,고백,정은주,콘텐츠,총괄,심사평,실천,인정,메시지,칼럼,3.,비극,선택,발달장애,가족,국가,장예지,이우연,박지영,사회부,심사평,발달장애인,국가,책임,당사자,목소리,전달,추방,4.,살해,흉악범,범죄,강제,북송,선임기자,이제훈,정치부,선임,심사평,어민,북송,정부,여당,주장,허구성,전문기자,지적,기사,5.,운동장,장수경,토요,판부,심사평,사진,기사,주제,기억,의제,제기,정환봉,소통데스크</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6008,7 +7553,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D310" t="n">
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>장관,김현숙,여가부,NCND,학생,안전,문제지,남녀,젠더,갈등,증폭,인하대,성폭력,사망,사건,장관,김현숙,여성,가족부,발언,인터뷰,보도,성차별,외면,성폭력,사건,개인,치부,비판,장관,사건,구조적,취지,질의,여가부,대결,구도,취지,답변,장관,유무,구조,질문,즉답,국회,인사,청문회,구조,생각,질문,제도,개선,노동시장,불공정성,출산,육아,경력단절,해소,노력,생각,세계성격차지수,한국,장관,NCND,시인,부인,Confirm,Deny,대응,최선,전략,구조,인정,여가부,폐지,명분,부정,여론,질타,남녀,경제활동참가율,남녀,경제,활동,참가,임금,자신,기재,팩트,부정,자가당착,장관,젠더갈등,공식석상,단어,반복,구조적,사회적,맥락,차별,단어,젠더,이슈,원인,해법,대등,당사자,충돌,내포,갈등,단어,여성,성소수자,사회,약자,현실,장관,취임,정부,실재,차별,사이,피해자,양산,차별,차별,사람,공격,장관,NDNC,장관님,구조,생각</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6026,7 +7576,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D311" t="n">
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>발암물질,LG생건,검출,가습기,살균제,유통,도마,안전,관리,유통업계,유발,유해,물질,검출,몸살,스타벅스,캐리백,LG생활건강,물티슈,GS25,우유,유해물질,제품,업체들,부실,대응,일관,실태,상품,안전,관리,도마,스타벅스코리아,고객,서머,캐리백,발암물질,폼알데하이드,검출,소비자,제기,2개월,시인,모습,폼알데하이드,자극적,냄새,독성,물질,세계보건기구,발암,물질,분류,스타벅스,이날,입장문,기관,공인,의뢰,시험,결과,개봉,외피,서머,캐리백,평균,kg,내피,평균,244mg,kg,폼알데하이드,검출,개봉,2개월,경과,제품,외피,평균,271mg,kg,내피,평균,22mg,정도,수치,인정,캐리백,착용,기타,제품,분류,유해,물질,안전,요건,대상,제품,적용,기준,시험,결과,해석,시일,스타벅스,설명,스타벅스,행사,증정,제품,안전,검사,지적,인정,행사,사실,폼알데히드,검출,제품,증정,스타벅스,제조사,시험,성적,첨부,자료,폼알데하이드,포함,이취,집중,사과,스타벅스,보상,차원,캐리백,고객,굿즈,제공,굿즈,스타벅스,리워드,카드,온라인,적립,스타벅스,카드,등록,회원,기프트,카드,3만,원권,발송,방침,논란,커뮤니티,익명,자신,FITI,한국원사직물시험연구원,연구원,이용자,캐리백,시험,결과,폼알데하이드,검출,확산,지난달,사회관계망서비스,SNS,악취,민원,스타벅스,초반,정확,조사,미온,태도,대응,자초,비판,LG생활건강,물티슈,사상자,원료물질,가습기,살균제,원료,물질,제품,에센셜55,베비,언스,온리,에센셜,핑크퐁,물티슈,제조번호,1LQ,제품,식품의약품안전처,제품,살균,보존제,메칠클로로이소치아졸리논,CMIT,메칠이소치아졸리논,MIT,혼합물,검출,적발,명령,판매,중지,회사,홈페이지,이틀,언론,나흘,늑장,고지,비난,CMIT,MIT,세척제,물티슈,위생용품,사용,LG생활건강,검출,가습기,살균제,협력업체,세척,작업,잔여물,원단,혼입,파악,동원F&amp;B,제조,GS25,자체,브랜드,PB,상품,초코우유,스누피우유,기준치,초과,세균,대장균,검출,GS25,우유,스누피,바나나맛,신고,판매,중단,제품,논란,딸기,커피,초코우유,판매,중지,판매,중단,소비자,홈페이지,공지,식약처,GS25,동원F&amp;B,제품,관할,지자체,회수,계획,보고,제품,자체,회수,사실,적발,경고,과태료,원씩,행정처분,이은희,인하대,소비자학,교수,제작,관리,물품,검수,유통,기업,책임,회피,부실,대응,소비자들,브랜드,제품,만큼,사태,계기,신속,보상</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6044,7 +7599,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D312" t="n">
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>가방,물티슈,우유,유해물질,업체들,뒷북,대응,유통업계,유발,유해물질,검출,몸살,스타벅스,캐리백,LG생활건강,물티슈,GS25,우유,유해물질,제품,업체들,부실,대응,일관,안전,관리,실태,도마,스타벅스코리아,고객,서머,캐리백,발암물질,폼알데히드,검출,폼알데히드,자극적,냄새,독성,물질,세계보건기구,발암,물질,분류,스타벅스,이날,입장문,공인,기관,의뢰,시험,결과,개봉,외피,서머,캐리백,평균,내피,평균,폼알데히드,검출,개봉,2개월,경과,제품,외피,평균,내피,평균,정도,수치,인정,스타벅스,행사,증정,제품,안전,검사,인정,행사,사실,폼알데히드,검출,제품,증정,논란,커뮤니티,익명,자신,FITI,한국원사직물시험연구원,연구원,이용자,캐리백,시험,결과,폼알,데히드,검출,확산,LG생활건강,물티슈,사상자,가습기,살균제,원료,물질,제품,에센셜55,베비,언스,온리,에센셜,핑크퐁,물티슈,제조번호,1LQ,식품의약품안전처,제품,살균,보존제,메칠클로로이소치아졸리논,CMIT,메칠이소치아졸리논,MIT,혼합물,검출,적발,명령,판매,중지,회사,홈페이지,이틀,언론,나흘,CMIT,MIT,세척제,물티슈,위생용품,사용,LG생활건강,협력업체,세척,작업,잔여물,원단,혼입,파악,동원F&amp;B,제조,GS25,자체,브랜드,PB,상품,초코우유,스누피우유,기준치,초과,세균,대장균,검출,GS25,우유,스누피,바나나맛,신고,판매,중단,제품,논란,딸기,커피,초코우유,판매,중지,판매,중단,소비자,홈페이지,공지,이은희,인하대,소비자학,교수,제작,관리,물품,검수,유통,기업,책임,회피,부실,대응,소비자들,브랜드,제품,만큼,신속,보상</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6062,7 +7622,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D313" t="n">
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>K-대학생,시험,기간,언론,편집위원,위지혜,이화여대,재학생,하버드대학교,4시,하버드대학교,한국,중간고사,기말,고사,기간,학교,학생들,강의당,60쪽,파워포인트,PPT,파일,10개,400쪽,전공서적,녹화,강의,하루,강행군,진로,과목들,공부,도서관,도착,다짐,시험,다짐,시험,기간,효과,5시,책상,소파,쪽잠,시험장,마지막,벼락,시험,다짐,한국,대학생,공감,모습,사회적,이슈,인하대학교,캠퍼스,사망,사고,배경,피해자,개인,집중,특별,사고,캠퍼스,사망,보도,화제,사건,선정적,불필요,묘사,언론,한겨레,언론,보도,제목,수정,언론,젠더데스크,젠더,보도,마련,결과,보도,성폭력,사건,한겨레만,고민,긍정적,조처,묘사,중요,프레임,범죄,요인,집중,대중,인식,해결,방안,성폭력,사건,프레임,피해자,책임,가해자,피해자,여성,초점,피해,행동,주목,대표적,강조,자신,간수,피해자,책임,연결,여성,음주,사회적,보장,자유,자제,범죄자,면죄부,피해자,책임,2차,개인,요인,집중,대책,논의,사각지대,사건,양상,사건들,대상,정책,관심,인하대,캠퍼스,사망,사고,논의,통제,캠퍼스,출입,대학,음주,문화,개선,캠퍼스,상황,발생,성폭력,사건,구조,접근,중요,요즘,언론,주목,젠더,갈등,프레임,접근,방해,여성,혐오,사회,구조,지적,젠더갈등,강조,사건,남성,잠재,가해자,위험,젠더갈등,경계,기사,형태,인용,보도,언론,성폭력,가해자,사이코패스,소아기호증,사회,존재,격리,존재,묘사,묘사,성폭력,범죄,특이,사람,왜</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6080,7 +7645,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D314" t="n">
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>새내기,문화,예술,교육사,부평서,현장,탐방,연수,문화체육관광부,주최,한국문화예술교육진흥원,주관,연수,문화,예술,교육사,현장,길라잡이,프로그램,현장,탐방,부평,문화,도시,진행,문화,예술,교육사,현장,길라잡이,연수,문화,예술,교육사,자격,제도,자격증,취득,역량,강화,2020년,추진,문화,예술,교육사,대상,연수,프로그램,문화,예술,교육사,자격,제도,예술가,전문성,교육가,자질,전문,교육인,양성,운영,자격증,취득,현장,탐방,자격증,취득,1~3년,신진,문화,예술,교육사,현장,역량,강화,현장,실제,문화,예술,교육,활용,접목,프로그램,기획,문화예술교육사들,부평,문화,도시,사업,현장,목소리,부평구,문화,재단,문화시설,탐방,관계자,네트워킹,마련,신진,문화,예술,교육사,현장,강의,사업,부평,문화,도시,기획,진행,성과,확인,문화,도시,사업,디지털,뮤직랩,교육,프로그램,참관,지역,예술가,협업,진행,문화예술교육,실제,사례,체험,기회,부평생활,문화,센터,공감,마련,문화,공간,문화,도시,사업,각종,프로그램,제작,부평구,문화,재단,기획,사업,부평,문화,도시,사례,문화,예술,교육,프로그램,토대,문화,예술,교육,프로그램,기획,운영,이해,부평아트센터,공연장,부대시설,입문,문화예술교육사,현장,체험,제공,질의,응답,문화예술교육,업무,역량,이해,특별,진행,주강사,부평구문화재단,문화,도시,센터,황유경,센터장,사업,부평,문화,도시,기획자,중심,시민들,주도,중심,프로그램,기획,기획자,역할,문화교육예술사,매개자,사업,전반,총괄,자신,역량,확장,연수,문화,도시,부평,문화,예술,교육,프로그램,사례,실제,운영,경험,기획자,역량,강화,중점,문화예술교육사,관심,영역,자신,활동,지역,확대,초점,상상예담,지역,마을,커뮤니티,부대표,활동,연수,참가자,문화,예술,교육사,심은혜,지역,문화,예술,교육,매개자,소외,계층,청년,주민들,사회,참여,일상,변화,역할,문화예술교육사,현장,활동,역량,네트워킹,필요성,실질적,현장,역량들,네트워킹,정보,연수,참여,연수,현장,사례,프로그램,공동체,접목,운영,문화,예술,교육,관계자,협업,프로그램,기획,소감,한국문화예술교육진흥원,협력,수도,지역,문화,예술,교육사,현장,길라잡이,연수,인하대,문화,예술,교육원,김상원,원장,결과,연수,수요,조사,문화예술교육사들,자격증,취득,현장,교육자,기획자,행정가,활동,현장,경험,네트워킹,기회,발견,현장,탐방,문화예술교육사들,실제적,활동,현장,고민,기획,만큼,관계자들,직접적,얘기,실질적,도움,자리,마련,진행,문화,예술,교육사,현장,길라잡이,연수,참여자들,의견,중심,프로그램,기획,자격증,취득,단순,취업,소개,문화,예술,교육,관계자,협업,환경,조성,네트워크,형성,기회,현장,경험,제공</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6098,7 +7668,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D315" t="n">
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>자료,캐리백,유해,성분,발암물질,스벅,스타벅스코리아,스타벅스,고객,증정품,서머,캐리백,유해,화학,물질,폼알데하이드,검출,논란,검사,결과,사과,스타벅스,28일,입장문,고객분,실망,머리,진심,폼알데하이드,검출,시험,결과,스타벅스,국가,전문,공인,시험,기관,의뢰,개봉,6개,캐리백,샘플,블랙,핑크,레드,크림,1개,그린,개봉,2개월,5개,캐리백,핑크,레드,크림,1개,그린,시험,진행,개봉,수치,500mg,육박,결과,개봉,제품,표면,284~585,평균,안쪽,29.8,평균,폼알데하이드,수치,검출,개봉,2개월,제품,표면,106~559,평균,수치,안쪽,검출,23.3,정도,수치,기록,전기용품,생활,용품,안전,관리법,가정,섬유,제품,기준치,폼알데하이드,안전,기준,속옷,내의류,중의류,티셔츠,바지,외의류,재킷,외투,침구류,외투,기준,개봉,스타벅스,캐리백,안전,기준,초과,현행법,유아,아동,제품,가방,쿠션,방</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6116,7 +7691,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D316" t="n">
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>우영우,자폐,마음청소,자폐,인터뷰,교수,윤은호,말씀,드라마,변호사,우영우,우영우,텔레비전,교수,윤은호,인하대,25일,화상,회의,프로그램,Zoom,윤은호,교수,인하대,문화,콘텐츠,문화,경영학,우영우,주제,예상,당사자들,정작,장애,당사자,드라마,양가감정,사실,비장애인,무지,반성,스펙,우영우,교수,주인공,우영우,장애,자폐,스펙트럼,서울대,법학,전문대학원,수석,졸업,로펌,최대,교수,자폐,진단,특수학교,일반학교,공부,자폐인,박사학위,인하대,초빙,교수,임용,인간,승리,장애,극복,서사,사람,교수,장애인,정체성,복합적,특성,장애인들,관점,당부,코스프레,철도,관심,우여곡절,대학,입학,교수,자폐인,대학,강의,3년,다양성,포용,부족,사회,어려움,아버지,월급,절반,본인,교육비,중학교,전학,정도,학교폭력,서울대,지원,자폐,장애,고배,학사,졸업,인하대,일반전형,정시,일반,전형,입학,회상,교수,우영우,서울대,장애인,전형,일반전형,농담,석박사,교수,분야,교수,심사,비장애인,소통,혼자,공부,학창시절,스트레스,몰두,해소,10대,코스프레,활동,바탕,2019년,코스프레,학문적,철도,교수,취미,철도신문,1년,연애,미래,보통,고민,인터뷰,진행,교수,장애,구성,정체성,생각,일상,당장,고민,비장애인,차이,초빙교수,나중,재임용,걱정,학생들,소통,강의,정작,질문,학생들,대답,연애,결혼,생각,여자사람친구들,얘기,여성분들,생각,고민,자폐인,학술,열차,운전,사회,교수,자폐,스펙트럼,장애인,당사자,자폐인,사회,편견,노력,성인,자폐,당사자,자조,모임,에스타스,공동조정자,활동,교수,10여,자폐증,용어,장애,자폐,스펙트럼,통합,당사자들,스펙트럼,용어,선호,자폐,고인지,특성,지적,바람,자폐인,학술,분위기,사회,조성,해외,자폐인,연구자,학술지,전무,자폐인,고등교육,접근,정부,지원,후반,40대,취득,항공,운전,면허,취득,철도,운전,면허,자폐,철도,관심,사람,철도기관사,편견</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,7 +7714,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D317" t="n">
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2개,인하대,대자보,성차별,인하대,학내,차별,대학,문화,비판,익명,대자보,사전,승인,철거,논란,학교,발생,교내,성폭력,사망,사건,부실,방범,도마,인하대,학생들,종합,게시판,학내,익명,인하대생,학내,구성원,목소리,응답,제목,대자보,대자보,사건,평등,학교,안전,학교,남자,의대,단톡방,여학우들,성희롱,총학생회,여학우,스토킹,일반화,잠재,가해자,하루,26일,성차별,성차별,제목,대자보,대자보,26일,철거,인하대,학생,운영,인스타그램,계정,대자보,학생,추정,학생,인하대,학생,지원,게시,대자보,미승,게시물,철거,통보,학생들,의견보장,인하대,관계자,통화,학내,규정,사전,승인,대자보,철거,철거,대자보,대학,본부,보관,승인,신청,대자보,인하대,학내,게시물,총무,승인,전제,게시,캠퍼스,이용,내규,운영,전문가들,인하대,규정,사전,승인,표현,자유,기본,침해,해석,여지,얘기,연구원,임은희,대학,교육,연구소,평소,적용,규정,사안,게시글,대학,규제,편의적,활용,근거,사례,학도호국단,학생들,통제,개정,활동,학생,자치,보장,고등교육법,규정,국가인권위원회,의견,인권위,9월,대학,간행물,제작,절차,사전,승인,규정,학칙,헌법,요소,기본,제한,국가안전보장,질서유지,공공복리,제시,학칙,헌법,보장,학생들,기본권,언론,출판,집회,결사,자유,제한,인권위,조성,면학,분위기,대학,자치,자율권,감안,학생들,기본권,제약</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6152,7 +7737,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D318" t="n">
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>흉악범죄,논란,피의자,신상,공개,제도,정리,15일,캠퍼스,인천,인하대,여성,심정지,상태,발견,경찰,학교,남학생,판단,A씨,남성,긴급,체포,하루,사건,발생,피의자,추정,인물,신상정보,온라인,정작,경찰,피의자,신상,공개,여부,범죄자,얼굴,이름,신상,제도,피의자,신상,공개,기준,공개,여부,결정,제도,찬성,반대,의견,피의자,인권,국민,권리,효과,범죄,예방,원칙,추정,의견,대립,제도,운영,비판,기준,일관성,대표적,신상공개제도,변천사,미국,일본,제도,운영,영상,정리</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6170,7 +7760,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D319" t="n">
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>이수,성폭력,예방,교육,대책,인하대,사건,인하대,성폭행,사망,사건,성폭력,특별,교육,대책,교육부,대학,교육,공문,대학,현장,성폭력,예방,교육,학생,참여,저조,실효성,반응,가해,불법촬영,방지,공문,교육부,교육부,대책,대학,성폭력,재발,방지,캠퍼스,보안,강화,학생,대상,성폭력,특별,교육,추진,교육부,전국,대학,공문,성폭력,예방,교육,가해,불법촬영,추가,포함,정도,교육부,관계자,교육,대학,자율적,정부,강제,대학,자율적,성폭력,예방,교육,학생,외면,2012년,대학,의무적,성폭력,예방,교육,기관,포함,절반,대학생,교육,교육부,대학,정보,공시,자료,기준,대학,성폭력,예방,교육,이수,46.1%,전국,평균,46.1%,학생,이수,50%,대학,부진,기관,분류,사건,발생,인하대,이수율,25.9%,인하대,2021년,이수율,53.2%,현행,성폭력,방지,기관장,고위,종사자,예방교육,의무적,이수,학생,의무,권고,대상,예비교원,배출,교대,사범대,예방교육,교원,자격,이수,유명무실,교육,대학,참여율,학칙,이수,성폭력,예방,교육,졸업,요건,신입,오리엔테이션,포함,학생,사이,불만,대학,성폭력,예방,교육,동영,강의,제공,서울,사립대,영상,성폭력,예방,교육,시청,퀴즈,학생,사이,꿀팁,공유,지역,거점,국립대,학생,교육,인하대,사건,발생,전교,대상,성폭력,특별,교육,2회,대책,인하대,관계자,오프라인,교육,병행,교육,사건,보완,계획,교육,의무,대학,강의,품질,전문가들,성폭력,예방,교육,의무화,횟수,효과,지적,교수,최인숙,한국양성평등교육진흥원,의무,교육,강조,실질적,참여도,학생들,필요성,교육,교수,프로그램,자체,예방,교육,서울대,사례,토론,사례,위주,대학,강의,학기제,운영,권장,정부,지침,참고,서울대,대학,교육,콘텐트,대학,자발적,예방교육,품질,유도,방법,일각,항목,정부,대학,평가,성폭력,예방,교육,주장,대학,반발,교육부,관계자,규제,강화,한계,전문,강사,양성,예산,지원</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6188,7 +7783,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D320" t="n">
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>치약,샤넬,인기,일반,치약,15%,상반기,매출,15%,마비스,루치펠,성장세,계면활성제,천연,추출물,이용,어필,고급,라이프,스타일,명품,관심,생필품,확대,수준,치약,유럽,명품,일반적,국산,치약,150g,사용,치약,85mL,일반,치약,가격,정도,일반,치약,회사,모임,핸드백,마비스,루치펠로,명품,치약,지인들,양치,디자인,CJ,올리브영,상반기,6월,프리미엄,치약,제품군,매출,전년,동기,대비,15%,치약,영국,핑크,유시몰,매출,대비,전년,동기,가까이,96%,고소영,치약,LG생활건강,루치펠로,전년,대비,매출,증가,2020년,30%,,15.3%,시장,프리미엄,치약,인기,이탈리아,피렌체,마비스,치약,치약계,샤넬,마비스,치약,이달,가격,인상,개당,85mL,1만,판매,소셜네트워크서비스,SNS,중심,이건희,삼성그룹,회장,인기,은색,바탕,민트색,보라색,포장재,특징,제품,출시,차인,20%,매출,성장세,마비스,시장,세계,10위,판매량,프리미엄,치약,일반,치약,계면활성제,천연,추출물,이용,고급,라이프,스타일,어필,마케팅,전략,직장인,가격,라이프스타일,치약,품질,차이,최소,기분,치약,차별화,패키징,욕실,인테리어,소품,역할,관계자,치약,제조,업체,프리미엄,치약,일상적,양치질,즐거움,그날,기분,선택,일상,치료,프리미엄,치약,인기,명품,소비자들,관심,생필품,이은희,인하대,소비자학,교수,남들,브랜드,사용,수준,라이프스타일,자부심,생필품,분야,명품,가방,과시,자기만족적,성격,전문가들,치약,효능,칫솔질,건강,영향,강조,창동욱,치주,전문의,대한치주과학회,홍보이사,치약,칫솔질,입속,작용,착각,의약외품,치약,치과,치료,개선,정확,칫솔질,중요,당부</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,7 +7806,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D321" t="n">
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>에너지,위기,합동,TF,구성,세계적,대란,겨울철,에너지,정부,비상,한국,수요,겨울철,전력,여름철,올겨울,세계,에너지,위기,국제금융센터,올겨울,가스,포함,폭등,에너지,가격,공급,대란,걱정,보고서,보고서,러시아,축소,천연가스,공급,유럽,천연가스,시장,선물,가격,연초,121%,폭등,사실,강조,유럽,에너지,위기감,지경,유럽,국가,중국,일본,아시아,국가,석탄,액화,천연가스,LNG,사재기,중국,여름철,전력난,겨울,난방,대비,민관,합동,해외,석탄,연료,확보,적극,한국,천연가스,공급,상황,수급,당장,화력,발전,석탄,흐름,국제,석탄,시장,석탄,우리나라,수입,절반,차지,유연탄,호주,발전,기준,가격,292달러,최대,달러,연평균,가격,127달러,2.8배,세계적,석탄,가격,급등,코로나19,전력,수요,회복,상황,러시아,우크라이나,전쟁,우크라이나,생산자들,유럽,전력,생산자,8월,발효,조치,러시아,석탄,수입,금수,석탄,재고,확보,산업통상자원부,전력수요,올여름,최대,전력,수요,8월,91.7,95.7,GW,기가와트,예상,산업부,예비율,전력,예비,최저,5.4%,산업부,올여름,전력,수급,상황,블랙아웃,대규모,정전,최악,사태,전망,전력,생산,석탄,천연가스,조달,확보,예비,전력,증가,전력,수요,감안,예상,불볕더위,중단,발전소,가동,돌발,상황,대란,전력,발생,가능성,배제,사용,가스,석탄,석유,에너지,가격,물량,확보,의지,역량,해결,정부,에너지,확보,총력전,태스크포스,합동,구성,안정적,에너지,확보,위기,정부,전기,에너지,소비,경각심,대국민,에너지,절약,홍보,적극,바람,준비,정부,하루,합동,에너지,위기,대비,에너지자원공학,강천구,인하대,에너지,자원,공학,초빙교수</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,7 +7829,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D322" t="n">
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>인천시,인하대,연구센터,미래,우주,탐사,센터,실무중심,교육,진행,인천시,인하대,송도,국제도시,항공,우주,산학,융합원,미래,우주,탐사,우주,자원,활용,센터,개소,27일,인하대,미래,우주,교육,센터,우주,핵심,인력,양성,센터,우주,탐사,우주,자원,활용,분야,실무,중심,교육,탐사,자율정밀천측항법,매장,자원,채굴,연구개발,진행,우주,전문,교육,45명,225명,박사급,전문,인력,양성,계획,센터,진행,인하대,인천대,뉴욕주립대,극지연구소,한국생산기술연구소,기관,인천,지역,산학연,참여,과학기술정보통신부,공모,선정,추진,사업,2026년,시비,인하대,지원금,118억,투입,관계자,미래우주교육센터,발전,우주,산업,우주산업,인천,선도,미래,산업,성장,적극,지원</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6242,7 +7852,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D323" t="n">
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>된장찌개,간편식,밥상물가,찌게류,한식,가정간편식,대체,정부,당국,선제적,서민,물가,관리,서울,동대문구,주부,요즘,가족,식비,부담,감당키,가정간편식,HMR,코로나19,거리,해제,외식,음식점,가격,동네,마트,삼겹살,수입,쇠고기,두부,감자,마늘,상추,시금치,가격,최씨,여름방학,중고생,아들,하루,식비,2~3배,공포,삼시세끼,설거지,된장찌게,간편식,돌밥,시절,물가,하루,주부들,절약,가정,식단,간편식,대체,코로나19,장기,일품요리,구입,가공,식품,메뉴,식탁,대표,폭등,식재료,찌개류,가공식품,추세,식재료,구입,조리,가격,가성비,유통업,이마트,이달,26일,간편식,밀키트,매출,전골,결과,불고기,판매,한식,메뉴,증가,자체브랜드,PB,피코크,소불고기,전골,5월,26일,판매량,95.6%,리북방,순대전골,35.7%,병천,순대곱창볶음,20.2%,매콤순대볶음,10.8%,이마트,관계자,모임,외식가격,주부들,고기,야채,신선,식품,가격,평소,한식,밀키트,분위기,홈플러스,매출,기간,간편식,증가,전년,동기,대비,35%,홈플러스시그니처,자체,브랜드,소불고기,버섯전골,490g,된장찌개,189%,,우삼겹,순두부찌개,154%,,감자,수제비,118%,판매량,급증,롯데마트,7월,밀키트,매출,55%,전월,대비,55%,캠핑,먹거리,요리,자체,브랜드,부대찌개,20%,신장,20%,한우,곱창전골,통마늘,들깨,볶음,호응,롯데마트,관계자,가격,합리적,요즘,한식,여름,캠핑,삼겹살,가격,부담,전골,찌게류,추세,11번,기간,한식,61%,중식,동남아,29%,일품,간편식,판매량,2배,11번,관계자,한식,전골,볶음요리,식재료,만큼,간편식,장바구니,부담,도움,우거지감자탕,추어탕,불고기,집밥,간편식,대체,고객들,증가,SSG닷컴,부대찌개,피코크,오뎅,식당,의정,부식,부대찌개,송탄식부대찌개,찌개,판매,매출,상위,기록,SSG,닷컴,관계자,날씨,삼계탕,삼계죽,해신탕,보양식,간편식,이은희,인하대,소비자학,교수,주부,사이,얘기,정도,물가,연일,식재료,폭등,가정간편식,정부,당국,서민들,밥상,물가,안정,선제적,적극,개입</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6260,7 +7875,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D324" t="n">
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>이원석,총장,대리,인하대,성폭행,추락사,수사,검찰,총장,직무,대리,차장검사,이원석,대검찰청,차장,검사,인하대학교,발생,사건,성폭행,추락사,수사,당부,대검찰청,직무대리,심우정,인천지검,검사장,인하대,성폭력,사망,사건,수사,상황,보고,지시,직무대리,자리,철저,수사,진실,규명,강조,대검찰청,형사부,과학수사부,중심,실체,파악,디지털포렌식,폐쇄회로,CC,TV,영상,법리,검토,지원,주문,방지,피해,피해자,유족,지원,대책,최선,인천,미추홀경찰서,준강,간치사,성폭력범죄,처벌,특례법,카메라,혐의,이용,촬영,인하대,검찰,송치,경찰,이달,인천,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,피해자,피해자,성폭행,건물,추락,자신,휴대전화,범행,장면,불법,촬영,혐의,성폭행,건물,추락,건물,입구,상태,행인,발견,발견,호흡,맥박,반응,7시,인근,병원,치료,22일,검찰,송치,경찰서,피해자,유족,진심,혐의,인정</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6278,7 +7898,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D325" t="n">
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>인천시,인하대,사업,추진,우주,핵심,사업,인천시,인하대,우주산업,선도적,역할,양성,미래,우주,분야,전문,인력,우주탐사,우주자원,활용,탐사,활용,사업,우주,핵심,추진,인천광역시,항공,우주,산학,융합원,컨소시엄,분야,사업,관계자,참여,미래,우주,자원,활용,센터,개소식,개최,이날,개소식,개회식,센터,소개,연구개발,교육,운영,워크숍,진행,워크숍,연구센터,참여,컨소시엄,인력,5년,진행,공유,미래우주탐사,우주,자원,활용,센터,사업,컨소시엄,구성,과학기술정보통신부,추진,미래우주교육센터사업,공모,최종,선정,미래우주탐사,우주,자원,활용,센터,우주탐사,분야,우주,자원,활용,실무,중심,교육,인천,소재,인하대,인천대,뉴욕주립대,극지연구소,한국생산기술연구소,다윈프릭션,지역,자원,포함,기관,기업,참여,달극지,탐사,자율정밀천측항법,매장,수자원,채굴,로버,탐사,채굴,자원,회수,수전,추력기,세계,수준,우주,수행,예정,미래,우주,분야,핵심,연계,우주,교육,전문,트랙,현장,실습,국제,협력,프로그램,운영,225명,연간,45명,박사급,수준,핵심전문인력,양성,계획,사업,추진,2026년,국비,시비,기업,항공우주산학융합원,지원금,인하대,자체,포함,118억,투입,인천시,센터,사업,우주산업분야,대표,우주,전문,인력,양성,항공산업,우주산업,연계,지역,산업,고도,다각화,기여,박영길,해양항공국장,박영길,해양,항공,국장,미래우주교육센터,인천,항공,우주산업,발전,발전,대한민국,미래,우주,산업,계기,항공산업,우주산업,인천,선도,산업,미래,성장,적극,지원,육성,계획</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6296,7 +7921,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D326" t="n">
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>지원,대검,인천지검,인하대,사건,지시,철저,수사,직무대리,이원석,검찰,총장,직무,대리,대검찰청,차장검사,인하대,발생,캠퍼스,학생,성폭행,추락사,사건,심우정,인천지검장,철저,수사,방지,피해,당부,대검,차장,지검장,수사,상황,철저,수사,진실,규명,한편,방지,피해,지원,피해자,유족,최선,강조,차장,대검,과학,수사부,형사부,디지털,포렌식,영상,법리,검토,지원,진행,지시,15일,인하대,단과대,건물,학생,학교,남학생,성폭행,3층,추락,피해자,추락,가량,방치,학생,추락,피해자,장소,피해자,행인,발견,병원,사망,A씨,당일,체포,경찰,A씨,피해자,고의,확인,사건,현장,상황,가정,실험,법리,검토,준강간치사죄,적용,검찰,구속,송치,상태,인천지검,여성아동범죄조사부,사건,배당,부부장,검사,팀장,전담수사팀,구성,검찰,A씨,살인,혐의,적용,조사,계획,인하대,이달,사건,사건,가해,대응,인하대,교육부,총장,위원장,성폭력,사망,사건,대책위,인터넷,피해자,가해,용납,피해자,모욕,고인,학교,명예,실추,대응,강구,방침,학교,교내,설치,폐쇄회로,CC,TV,증설,보안,순찰,인력,확충,검토,허민숙,국회입법,조사관,피해자,합리성,가장,가해,가해,인식,증거,학교,공간,성범죄,발생,구조적,환기,지적</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6314,7 +7944,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D327" t="n">
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>사건,이원석,총장,대리,인하대,철저,수사,2차,피해,방지,직무대리,이원석,검찰,총장,직무,대리,대검찰청,차장검사,인하대,발생,사건,성폭행,추락사,철저,수사,지시,대검,직무대리,인천지검장,심우정,인하대,사건,수사,상황,대면,보고,직무대리,철저,수사,진실,규명,한편,피해,방지,지원,피해자,유족,최선,당부,직무대리,대검,과학,수사부,형사부,중심,디지털,포렌식,영상,법리,검토,지원,신속,지시,15일,건물,인하대,교내,여학생,학교,남학생,성폭행,추락,발생,경찰,피해자,동급생,A씨,준강간치사,혐의,성폭력,처벌법,위반,검찰,송치,경찰,A씨,피해자,고의,확인,상황,가정,실험,법리,검토,살인,혐의,적용,판단,인천지검,경찰,사건,여성아동범죄조사부,배당,상태,부부장,검사,팀장,수사팀,검찰,살인,혐의,적용,가능,포함,사건,전반</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6332,7 +7967,12 @@
           <t>내일신문</t>
         </is>
       </c>
-      <c r="D328" t="n">
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>감세,윤석열정부,세제,개편,골자,감세,규모,연간,과세표준,현행,법인세,과세,표준,기업,순이익,소득,공제,제외,금액,3000억,초과,구간,적용,최고,세율,25%,22%,중소,중견기업,과표,5억,구간,세율,20%,10%,방침,기업,투자,여력,일자리,창출,투자,확대,유도,효과,경제,성장,추경호,부총리,발언,정부,논리,법인세,인하,정부,법인세,최고,세율,25%,경제협력개발기구,OECD,평균,21.2%,과세,구간,개편,대기업,주요선진국,세금,조정,조세체계,기업,경쟁력,법인세,인하,단행,사실,여야,이견,법인세,최고,세율,OECD,평균,상회,실제,기업,부담,세금,실효세율,반대,공인,사실,각종,세액,공제,비과세,감면,실질,부담,강병구,인하대,경제학,교수,실효세율,기준,한국,법인세,실효,세율,17.5%,수준,호주,24.8%,영국,19.8%,일본,17.7%,경제흐름,경제,전문가,후유증,코로나19,팬데믹,우크라이나,전쟁,장기,고물가,미국,고금리정책,내년,세계,경기,침체,판단,물가,금리,서민들,치명상,중산층,여건,여유,세금,국민들,수용,조세,형평,역행,법인세,최고,세율,25%,구간,폐지,2조,혜택,과표,초과,법인,103개,기준,90만,법인세,신고,기업,0.01%,중소,중견기업들,2조,원쯤,부담,추산,결국,1곳,2500억,중소,중견기업,평균,세금,중소기업,감세효과,연간,평균,남짓,감세,효과,추산,시중,세제개편안,세금,조치,비판여론,중소기업,감세,배경</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6350,7 +7990,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D329" t="n">
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>사건,이원석,대검,차장,인하대,성폭력,사망,철저,수사,인천지검장,보고,수사,상황,대검,디지털포렌식,지원,차장검사,이원석,대검찰청,차장,검사,검찰총장,직무대리,검찰,송치,인하대학교,성폭력,사망,사건,보고,철저,수사,지시,대검,차장,인천지검장,심우정,상황,인하대,성폭력,사망,사건,수사,철저,수사,진실,규명,한편,방지,피해,지원,피해자,유족,최선,지시,차장,지시,대검,과학수사부,형사부,디지털포렌식,영상,법리,검토,수사,적극,지원,15일,인하대,단과대,건물,여학생,학교,남학생,성폭행,3층,추락,피해자,길가,방치,행인,발견,병원,사망,인천,미추홀경찰서,피의자,피의자,준강간치사,성폭력처벌,특례법,카메라,이용,촬영,혐의,인천지검,구속,송치,경찰,피해자,고의,확인,사건,현장,상황,가정,실험,법리,검토,진행,살인,혐의,적용,판단,사건,인천지검,여성아동범죄조사부,사건,배당,부부장검사,팀장,전담수사팀,구성,검찰,살인혐의,적용,집중적</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6368,7 +8013,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D330" t="n">
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>사건,대구,여교사,추정,인물,신상,확산,명예훼손,가능성,대구,고등학교,여교사,학교,남학생,혐의,경찰,조사,교사,남편,학생,추정,인물,신상정보,온라인,무분별,확산,신상정보,명예훼손,처벌,각종,온라인,커뮤니티,대구,여교사,남편,여교사,제자,추정,남성들,신상정보,게시물,급속도,게시물,사건,남성,추정,인물들,얼굴,사진,누리꾼,남편,아내,이해,인물,평가,사건,관계자,추정,인물,사진,외모,평가,게시물,과거,인하대,발생,성폭행,사건,피해자,가해자,추정,인물들,신상정보,가해,지적,전문가,신상정보,명예훼손죄,처벌,지적,손정혜,법무,법인,혜명,변호사,YTN,인터뷰,법률적,정보통신망법,명예훼손죄,적용,사진,신상정보,취득,것들,범죄,변호사,사회,성숙,시민사회,자진,불법적,삭제,자성,촉구,반복적,사람들,고발,조치,변호사,피해,여부,신상정보,공개,자체,지적,변호사,관련법,신상,공개,자체,명예훼손죄,책임,신상정보,법적,처벌,절차,사법기관,사건,대구,여교사,여교사,남학생,수차례,혐의,경찰,조사,사건,혐의,아동,복지법,위반,여교사,남학생,성적,조작,의뢰,실행,의혹,사건,신고자,그동안,여교사,외도,의심,남편,여교사,남편,차량,블랙박스,영상,경찰,동행,모텔,폐쇄,회로,CC,TV,아내,외도,목격,학교,퇴직,처리</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6386,7 +8036,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D331" t="n">
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>이원석,인하대,성폭력,사망,사건,수사,지시,2차,피해,직무대리,이원석,검찰,총장,직무,대리,대검찰청,차장검사,인하대,성폭력,사망,사건,수사,지시,대검찰청,직무대리,심우정,인천지검,검사장,인하대,성폭력,사망,사건,수사,상황,보고,직무대리,철저,수사,진실,규명,방지,피해,유족,지원,최선,지시,대검,과학,수사부,형사부,중심,디지털포렌식,영상분석,법리,검토,지원,당부,15일,1시,캠퍼스,인천,인하대,건물,재학,동급,성폭행,추락,경찰,A씨,준강간치사,성폭력,처벌,특례법,카메라,이용,촬영,혐의,적용,검찰,구속,송치,사건,인천지검,전담팀,편성,수사</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6404,7 +8059,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D332" t="n">
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>인하대,사퇴,총장,재임,도전,의사,반발,교내,성폭행,추락사,사건,발생,인하대학교,조명우,총장,재임,의지,교수회,동창회,반발,인하대,마감,학교,법인,정석인하학원,인하대,총장,후보자,공개,모집,총장,7명,등록,총장,후보자,명예교수,박기찬,아태물류학부,명예,교수,교수,박승욱,경영학,교수,이승걸,정보,통신,공학,교수,이승배,기계,공학,정인교,국제통상학,과장,조남희,공학,대학원장,교수회,동창회,입장문,사태,비극,사건,총장,후보,등록,사실,좌절감,지적,경영자,대학,최고,총장,발생,화재,건물,교육부,일반,재정,지원,대상,탈락,추락사,교내,성폭행,중대,사안,책임,총장,인하대,대상,일반,재정,지원,탈락,부총장들,사의,표명,당면,해결,총장직,유지,인하대,11대,14대,총장,연속,임기,퇴진,전력,교수회,동창회,총장,퇴진,총장,과거,아픔,임기,용인,인하대,구성원,인내심,자리,보전,이용,사퇴,총장,후보,촉구,교수,추천,위원,학교,법인,대표,11명,총장,후보,추천위,후보,심사,복수,추천자,선정,의결,정석인하학원,이사회,새달쯤,총장,새달,임명,예상</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6422,7 +8082,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D333" t="n">
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>인하대,도전,총장,재임,교수회,동창회,사퇴,교내,성폭행,추락사,사건,발생,인하대,조명우,총장,재임,의지,교수회,동창회,반발,인하대,마감,학교,법인,정석인하학원,인하대,총장,후보자,공개,모집,총장,7명,등록,인하대학교,전경,총장,후보자,명예교수,박기찬,아태물류학부,명예,교수,교수,박승욱,경영학,교수,이승걸,정보,통신,공학,교수,이승배,기계,공학,정인교,국제통상학,과장,조남희,공학,대학원장,교수회,동창회,입장문,사태,비극,사건,총장,후보,등록,사실,좌절감,비판,대학,최고,경영자,총장,발생,화재,건물,교육부,일반,재정,지원,대상,탈락,추락사,교내,성폭행,중대,사안,책임,회피,취지,총장,인하대,일반,재정,지원,대상,탈락,부총장들,사의,표명,당면,해결,총장직,유지,인하대,11대,14대,총장,연속,임기,퇴진,전력,교수회,동창회,총장,퇴진,총장,과거,아픔,임기,용인,인하대,구성원,인내심,자리보전,이용,사퇴,총장,후보,촉구,교수,추천,위원,학교,법인,대표,11명,총장,후보,추천위,후보,심사,복수,추천자,선정,의결,정석인하학원,이사회,총장,임명,예상</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6440,7 +8105,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D334" t="n">
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>경제,위기,돌파,노동,개혁,추진,정부,비전,전략,일자리연대,경제위기,노동개혁,돌파,정책토론회,경직,정책,변화,경제,위기,극복,전문가,중심,기구,노동,개혁,추진,설치,노동,분야,경직,제도,불합리,행태,제언,일자리연대,26일,매화홀,서울,중구,한국프레스센터,매화,경제,위기,노동개혁,돌파,주제,정책,토론회,일자리연대,장관,노무현,정부,노동부,명예교수,김대환,인하대,명예,교수,상임대표,전직,장관,학자,법조인,50여,참여,토론회,김대일,서울대,경제학부,교수,유일호,기획,재정부,장관,이채필,고용,노동부,장관,김호기,연세대,사회학,교수,백경훈,시민,단체,청사진,대표,참석,정부,노동,개혁,방안,전략,추진,의견,일자리연대,개최,토론회,입장문,5년,노동존중사회,표방,문재인,정권,친노조,반시장적,정책,일관,성장,엔진,민생,경제,당면,경제위기,노동,시장,이중,구조,사회,양극,심화,일자리,감소,지적,윤석열,정부,산업,현장,행위,집단,불법,생산활동,타격,정부,노동,개혁,핵심,변죽,모습,주52시간,개편,임금,체계,지엽,이슈,개혁의제,진단,일자리연대,국제,기준,현실,노동,개혁,청사진,제시,추진,로드맵,작성,단계적,노동,개혁,실천,전략,수립,촉구,기득권,노사,당사자,협상장,전문가,중심,노동,개혁,추진,기구,설치,제안,노동,개혁,대통령,프로젝트,설정,대통령,실질적,사령탑,추진,소기,성과,주장</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6458,7 +8128,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D335" t="n">
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>벤티,퇴근,개인택시,사연,택시대,18시,기사들,서울,지역,개인택시,기사,운행,중단,본격적,퇴근,시작,택시승객,심야,운행,개인택시,승합,택시,서비스,카카오,고급,택시,서비스,카카오,블랙,출근,시작,심야,운행,대수,최대치,사실,카카오모빌리티,6월,서울,시내,개인택시,벤티,블랙,운행,패턴,결과,확인,개인택시,6시,운행량,시작,9시,5시,차량,운행,6시,운행,대수,시작,심야,피크,시간,0시,운행량,시간대,절반,수준,카모,관계자,심야,3시,비교,택시기사,1만,감소,설명,기준,서울,지역,택시,개인택시,대로,70%,개인택시,기사,야간,운전,고령화,음주,승객,기피,개인택시,기사,절반,65세,노인,벤티,블랙,11시,0시,운행,최대,중심,개인택시,기사,운영,벤티,블랙,상황,정반대,5~6시,출근,시작,심야,운행,대수,증가,경향,운행,대수,11시,0시,사이,최대,카모,서울,경기,인천,지역,운행,벤티,900대,블랙,500대,가량,벤티,스타리아,카니발,스타렉스,승합차,이용,블랙,외제,고급,세단,운행,일반,개인택시,벤티,블랙,운행패턴,극명,탄력요금제,설득력,서울,일반,중형,택시,기본요금,고정,주행요금,심야,0~4시,기본요금,4600원,요금,20%,할증,사실,경직,요금체계,벤티,기본요금,수요,공급,상황,기준,요금,0.8,4배,탄력요금제,적용,블랙,기본요금,6000원,0.8,4배,탄력요금,적용,탄력요금,증가,심야,수입,증가,택시,승객,공급,부족,심야시간,벤티,블랙,요금,수준,현행법,벤티,블랙,카카오,블루,플랫폼,택시,신고제,탄력,요금,적용,가능,교수,김응철,인천대,일반,개인택시,심야,벤티,블랙,운행량,수입,결국,차이,탄력요금,수입,증가,심야,운행,차량,얘기,승객,벤티,초기,사업,포기,법인택시,회사,벤티,시작,국토교통부,택시대,해소,탄력요금제,적극,검토,수입,야간,운행,개인택시,증가,법인택시,기사,판단,전문가,사이,단순,탄력,요금,확대,서비스,다양화,지적,상황,탄력요금,확대,인상,사실,택시,요금,이용객,반발,관측,교수,하헌구,인하대,택시,운송서비스,연계,차별화,요금체계,중요,서비스,업체,육성,정책</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6476,7 +8151,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D336" t="n">
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>유니스트,창립,이래,대학,조정,대회,종합,우승,유니스트,UNIST,조정부,전국,대학,조정,대회,종합우승,차지,유니스트,창립,이래,대학,조정,대회,종합,우승,유니스트,이달,24일,조정경기장,충남,예당호,조정,경기장,개최,대회,유니스트,서울대,고려대,연세대,한국외대,인하대,대학,조정부,참여,대학조정대회,재학생,졸업,경기,개최,결과,재학,경기,최종,우승,충남,예당호,조정,경기장,전국,대학,조정,대회,에이트,경기,1위,차지,유니스트,정부원,모습,유니스트,제공,유니스트,조정,남자,재학,에이트,종목,유타포어,종목,1위,여자,재학,유타포어,종목,2위,종합우승,차지,조정부,부주장,박현지,기계공학과,학생,유니스트,숙원,대학,조정,대회,종합,우승,차지,달간,합숙,훈련,부원들,자랑,영광,활동,소감,대학조정대회,서울대,연세대,대학,고려대,친선대회,발전,명실상부,최고,명실상부,아마추어,조정,대회,아마추어,대회,유일,대회,2000m,에이트,유명,대학,학생들,대회,여름방학,동시,합숙,정도,훈련,매진</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6494,7 +8174,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D337" t="n">
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>성폭력,지적,꼴페미,메갈,인하대생,호소,25~26일,인하대,익명,대자,비판,학내,문화,성폭력,사건,성차별적,문화,만연,안전,캠퍼스,학생,성폭행,추락사,사건,발생,인하대,문화,차별,대학,비판,대자보,게재,자신,익명,인하대생,소개,A씨,교내,목소리,응답,제목,대자보,사건,평등,학교,안전,학교,A씨,학교,사람,사람,사람들,사건,입시결과,입결,걱정,폭력,걱정,상황,친절,여성,사건,학내,성폭력,차별,문화,지적,꼴페미,메갈,공격,검열,사람들,사람,잠재적,가해자,입결,학벌,남성,대학생,위신,폭력,수치,걱정,사실,공포,자신,동료,시민,안녕,걱정,A씨,그간,인하대,성폭력,사건,발생,경시,목소리,지적,남자,의대,단톡방,여학우들,성희롱,총학생회,여학우,스토킹,일반화,잠재,가해자,주장,실제,인하대,사고,선거,총학생회장,단독,입후보,학생,여학생,온라인상,스토킹,사실,공론화,2016년,의예,남학생들,술자리,여학생들,성희롱,징계,26일,성차별,성차별,제목,대자보,익명,대자보,작성,인하대,대학가,여성,모욕,폭력,대상,사건,개별화,개인,일탈,오류,치부,비판,대학교,인천,하버드,대학교,인천,하와이,대학교,인천,하수구,노동자,장애인,성소수자,여성,안전,명예,입결,면접관,이력서,학력란,인상,생각,마음,안전,차별,환경,강조,15일,인하대,캠퍼스,건물,남학생,동급,여학생,성폭행,도주,사건,발생,여학생,이날,3시,분쯤,공대,건물,발견,병원,경찰,준강간치사,혐의,가해자,구속,검찰,송치,인하대,학칙,학생,징계,절차,착수,한편,피해자,방지,가해,성교육,강화,대책,보안,강화,12시,5시,건물,출입,방안,검토</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6512,7 +8197,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D338" t="n">
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>탐방,문화,도시,부평,역량,문화,예술,교육사,현장,길라잡이,연수,성료,실질적,문화,예술,교육,현장,역량,네트워킹,정보,문화체육관광부,주최,한국문화예술교육진흥원,주관,연수,문화,예술,교육사,현장,길라잡이,프로그램,현장,탐방,문화,도시,부평,진행,문화,예술,교육사,자격,제도,2020년,시행,연수,프로그램,자격증,취득,문화예술교육사,대상,역량,행사,문화,예술,교육사,자격,제도,예술가,전문성,교육가,자질,전문,교육인,양성,운영,3000명,자격증,취득,현장,탐방,자격증,취득,1~3년,신진,문화,예술,교육사,현장,역량,강화,현장,실제,문화,예술,교육,활용,프로그램,기획,문화예술교육사들,부평,문화,도시,사업,현장,목소리,부평구,문화,재단,문화시설,탐방,관계자,교류,신진,문화,예술,교육사,현장,강의,사업,부평,문화,도시,기획,진행,성과,확인,문화,도시,사업,디지털,뮤직랩,D-LAB,교육,프로그램,참관,지역,예술가,협업,진행,문화예술교육,실제,사례,체험,부평구,문화,재단,기획,사업,부평,문화,도시,사례,문화,예술,교육,프로그램,토대,문화,예술,교육,프로그램,기획,운영과정,이해,부평아트센터,공연장,부대시설,주강사,부평구문화재단,문화,도시,센터,황유경,센터장,사업,부평,문화,도시,문화,매개자,사업,전반,총괄,자신,역량,확장,연수,문화,도시,부평,문화,예술,교육,프로그램,사례,실제,운영,경험,기획자,역량,강화,중점,상상예당,지역,마을,커뮤니티,부대표,활동,연수,참가자,심은혜,문화,교육,예술사,연수,현장,사례,프로그램,지역,공동체,접목,운영,문화,예술,교육,관계자,협업,프로그램,기획,소감,한국문화예술교육진흥원,협력,수도,지역,문화,예술,교육사,현장,길라잡이,연수,인하대,문화,예술,교육원,김상원,원장,연수,프로그램,참여자들,의견,중심,기획,자격증,취득,단순,취업,소개,문화,예술,교육,관계자,협업,환경,조성,네트워크,형성,기회,현장,경험,제공</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6530,7 +8220,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D339" t="n">
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>기회,광주,복합쇼핑몰,유치,총력전,유통,공룡,중소,상인,반대,무산,대통령,유치,약속,현실화,광주,복합쇼핑몰,유통업계,감자,정치권,가세,양상,변질,측면,롯데,현대,신세계,빅3,유통,공룡,윤석열,정부,발전공약,호남,지역,발전,공약,유치,광주,복합,쇼핑몰,전례,공격적,부지,확보,현대,블루오션,광주,상권,선점,만큼,상대,입장,롯데,신세계,알짜배기,상권,그룹,차원,총력전,모습,현대,부지,확보,자신감,더현대,광주,전격,추진,계획,전격,롯데,신세계,발등,부지,확보,집중,그룹,역량,알짜,배기,광주,상권,대격돌,유통업,빅3,광주,쇼핑메카,호남,지역,쇼핑,메카,수년간,중소상인,시민단체,반대,고배,윤석열,정부,드라이브,광주,복합,쇼핑몰,현실화,설득력,승기,현대백화점그룹,현대,이달,테마파크,더현대,광주,가칭,호텔,프리미엄,영화관,야구,거리,역사문화,공원,지역,랜드마크,청사진,전격,현대,자신감,부동산,PFV,휴먼스홀딩스,부지,확보,PFV,휴먼홀딩스,공장,노후,전남방직,일신방직,공장,9만,규모,부지,매입,호텔,체인,복합문화시설,계획,현대서울,영업면적,8만,규모,부지,매입,현대,사업계획,구체화,전망,현대백화점,관계자,1998년,2013년,광주,송원백화점,위탁,운영,경험,3~4년,백화점,차원,복합쇼핑몰,발등,롯데,신세계,지역,수년,광주,백화점,대형,마트,운영,복합쇼핑몰,부지,확보,롯데,어등산,관광단지,부지,복합쇼핑몰,방안,검토,신세계,광주종합버스터미널,광주,서구,광주,종합,버스,터미널,유스퀘어,주변,후보지,모색,광주종합버스터미널,금호타이어,광주,공장,빛그린산단,예정,이마트,신세계타운,조성,판단,무궁무진,사업성,전통시장,상생,협력,방안,광주,복합쇼핑몰,유통,공룡,유치,광주,복합,쇼핑몰,경쟁적,기회,광주,전국,비교,경제규모,복합쇼핑몰,전무,서울,롯데월드,코엑스,스타필드,쇼핑,문화,레저,생활,복합공간,최신,복합,공간,인프라,구축,야구,확대,스포츠,시장,사업성,무궁무진,업계,판단,대선,대선,윤석열,국민,후보,수도권,전국,복합쇼핑몰,광역시,광주,광주시민들,쇼핑,원정,민주당,유치,반대,논란,현대,신세계,호텔,면세점,이마트,복합쇼핑몰,추진,광주시,협의,소상공인,반대,사업,신세계,광주,신세계백화점,1995년,이마트,운영,2019년,백화점,전관,리뉴얼,지역,유일,루이비통,보테가베네타,생로랑,몽클레르,명품,포함,브랜드,쇼핑명소,탈바꿈,신세계,관계자,서울,하남,고양,스타필드,성공,경험,광주,복합,쇼핑몰,유치,관계기관,협의,시일,대상,부지,확정,설계,마스터,플랜,수립,착수,롯데,지역,롯데백화점,광주점,롯데아울렛,수완,월드컵점,3곳,운영,롯데백화점,광주점,본점,부산,개장,지방,점포,시외버스,터미널,부지,입지,롯데시네마,문화센터,광주,동구,핵심,상권,평가,롯데백화점,롯데아울렛,광주월드컵점,가전,전문관,오픈,리빙전문관,점포,지역,맞춤,수완점,2009년,증축,매장,확대,메가숍,유명,브랜드,옥상공원,편의시설,가족,단위,쇼핑,명소,자리,롯데,관계자,광주,지역민,차별화,상품,서비스,소개,만큼,광주,니즈,수요,부합,복합쇼핑몰,복합,쇼핑몰,유치,정치,목적,악용,부작용,공산,광주시,복합,쇼핑몰,설립,국비,요구,뒷말,강기정,광주,시장,대통령,공약,근거,국비,지원,요청,국민,난색,광주,시민,단체,대통령,사과,요구,성명,사태,점입가경,논란,와중,해법,결국,근본,시민들,확대,쇼핑,기회,지역,상권,동반성장,지적,자영업자,지역,특성,중소상인들,만큼,상생,이은희,인하대,소비자학,교수,광주,복합,쇼핑몰,성공,가늠,잣대,상생협력,과언,전통시장,경쟁력,지자체,기업,지원책,마련,중요</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6548,7 +8243,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D340" t="n">
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>인하대,사건,대자보,대학,문화,비판,인하대,비판,대자보,사회관계망서비스,SNS,캡처,캠퍼스,학생,성폭행,추락사,사건,발생,인하대,문화,차별,대학,비판,학생들,대자보,인하대생,학생,교내,목소리,응답,제목,대자보,사건,평등,학교,안전,학교,학생,남자,의대,단톡방,여학우들,성희롱,총학생회,여학우,스토킹,일반화,잠재,가해자,교내,성희롱,성폭력,발생,사실,지적,학내,성폭력,문화,지적,꼴페미,메갈년,공격,검열,사람들,이윤,시한,학교,조치,해고,경비노동자들,이젠,강조,26일,성차별,성차별,제목,대자보,인하대생,학생,대자보,대학가,여성,모욕,폭력,대상,사건,개별화,개인,일탈,오류,치부,지적,성차별,사건,상관,총체,인하대,사건,성차별,15일,시간대,인하대,단과,대학,건물,여학생,학교,남학생,성폭행,추락,사건,가해,남학생,범행,범행,만취,상태,피해자,건물,사실,확인,피해자,사람들,시선,범행,장소,물색,이동,계획,범죄,정황,의심,상황,경찰,조사,주장,경찰,피해자,5층,건물,추락,층수,3층,경찰,피해자,추락,A씨,살인,혐의,적용,검토,살인,혐의,적용,판단,인천,미추홀경찰서,A씨,인하대,준강간치사,성폭력범죄,처벌,특례법,위반,카메라,이용촬영,혐의,적용,검찰,경찰,20,정확,범행,시각,15일,사이,특정,범행,A씨,범행,휴대전화,불법,촬영,영상,근거,영상,촬영,소리,녹음,사건,현장,창틀,B씨,추락,A씨,행동,원인,경찰,판단,상황,카메라,버튼,실수,진술,인하대,학칙,A씨,징계,절차,착수,피해자,방지,가해,성교육,강화,대책</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6566,7 +8266,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>성폭력,지적,메갈,공격,인하대,대자보,평등,학교,안전,학교,성폭력,사망,사건,인하대,대자보,대자보,학생,학내,성폭력,사건,여성,구성원,갈등,조장,공격,평등,존엄,학교,목소리,A씨,교내,목소리,응답,제목,대자보,A씨,자극적,가십거리,사람들,학교,커뮤니티,정치권,언론,사람들,폭력,걱정,상황,친절,여성들,사건,학내,성폭력,평소,학내,차별,문화,지적,꼴페미,메갈X,공격,검열,사람들,화나,무력감,공간,주장,사건,실추,위신,학교,위신,위신,지적,A씨,사람,잠재,가해자,입결과,학벌,남성,대학생,위신,체면,폭력,수치,걱정,사실,공포,자신,동료,시민,안녕,걱정,A씨,강조,남성,의대,단톡방,여학우들,성희롱,후보,남성,총학생회장,여성,학우,스토킹,남학생,여학생,자위행위,교내,커뮤니티,여성,조롱,게시글들,갈등,조장,일반화,잠재,가해자,학교,아웃풋,입결,체면,걱정,주장,폭력,수치,걱정,안전,평등,권리,서로,안녕,수치,폭력,역사,기억,평등,존엄,권리,성별,지위,구분,현실,자랑,인하대,역사,명예,입결,아웃풋,따위,의미,지적,A씨,전대미문,사건,평등,학교,안전,학교,오늘날,학교,위기,소리,대안,대안,목소리,움직임,시작,평등,존엄,학교,제안,외침,대자보,포스트잇,댓글,행동,응답,제안,대자보,26일,성차별,성차별,제목,대자보,학교,익명,인하대,인하대,내부,대학가,여성,모욕,물리적,폭력,대상,장면,목도,개인,일탈,오류,치부,비판,15일,건물,인하대,단과,대학,여학생,학교,남학생,성폭행,추락,경찰,준강간치사,혐의,가해자,인하대,구속,검찰,송치,인하대,학칙,A씨,징계,절차,착수,피해자,방지,가해,성교육,강화,대책,상태</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6584,7 +8289,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>성폭행,지적,꼴페미,공격,성폭행,추락사,인하대,대자보,캠퍼스,학생,성폭행,추락사,사건,발생,인하대,문화,차별,대학,비판,학생들,대자보,게재,인하대,교내,목소리,응답,제목,자필,대자보,학생,사건,실추,위신,학교,위신,위신,사람,잠재,가해자,입결과,학벌,남성,대학생,위신,체면,지적,남자,의대,단톡방,여학우들,성희롱,총학생회,여학우,스토킹,일반화,잠재,가해자,과거,인하대,발생,성폭력,사건,언급,A씨,학내,성폭력,문화,지적,꼴페미,메갈X,공격,검열,사람들,이윤,시한,학교,조치,해고,경비,노동자,사건,평등,학교,안전,학교,오늘날,학교,위기,소리,대안,강조,대자보,이튿날,26일,성차별,성차별,제목,대자보,이름,학생,대자보,인하대,내부,대학가,여성,모욕,물리적,폭력,대상,장면,목도,개인,일탈,오류,치부,비판,건물,인하대,단과,대학,15일,여학생,학교,남학생,성폭행,추락,경찰,준강간치사,혐의,가해자,인하대,구속,검찰,인하대,학칙,A씨,징계,절차,착수,피해자,방지,가해,성교육,강화,대책</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6602,7 +8312,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>성폭력,지적,꼴페미,공격,인하대,사건,대자보,평등,학교,안전,학교,사망,사건,인하대,대자보,대자보,익명,학생,그동안,인하대,발생,성폭력,사건,나열,여성,학생들,화나,무력감,평등,존엄,학교,제안,대자보,25일,A씨,대자보,철거,자진,자신,이메일,주소,A씨,대자보,자극적,가십거리,사람들,학교,커뮤니티,정치권,언론,사람들,폭력,걱정,상황,친절,여성들,사건,학내,성폭력,평소,학내,차별,문화,지적,꼴페미,메갈X,공격,검열,사람들,화나,무력감,공간,사건,실추,위신,학교,위신,위신,사람,잠재,가해자,입결과,학벌,남성,대학생,위신,체면,폭력,수치,걱정,사실,공포,자신,동료,시민,안녕,걱정,A씨,남성,의대,단톡방,여학우들,성희롱,후보,남성,총학생회장,여성,학우,스토킹,남학생,여학생,자위행위,교내,커뮤니티,여성,조롱,게시글들,갈등,조장,일반화,잠재,가해자,학교,아웃풋,입결,체면,걱정,폭력,수치,걱정,안전,평등,권리,서로,안녕,수치,폭력,역사,기억,평등,존엄,권리,성별,지위,구분,현실,자랑,인하대,역사,명예,입결,아웃풋,따위,의미,A씨,전대미문,사건,평등,학교,안전,학교,오늘날,학교,위기,소리,대안,대안,목소리,움직임,시작,평등,존엄,학교,제안,외침,대자보,포스트잇,댓글,행동,응답,제안,대자보,26일,성차별,성차별,제목,대자보,학교,익명,학생,인하대,내부,대학가,여성,모욕,물리적,폭력,대상,장면,목도,개인,일탈,오류,치부,문화,차별,대학,비판,단편적,대응,대증요법,뿌리,치유,강의,온라인,성교육,성차별,감정,불화,사람,사이,분란,중력,사회,강조,15일,인하대,단과,대학,건물,여학생,남학생,성폭행,추락,경찰,남학생,준강간치사,혐의,구속,검찰,송치,학교,학칙,A씨,징계,절차,착수,전교생,상대,성폭력,성폭력,특별,교육,진행</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6620,7 +8335,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D344" t="n">
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>노동개혁,극복,경제,위기,대통령,추진,일자리연대,경제위기,노동개혁,돌파,정책,토론회,개최,노동,개혁,경제,위기,극복,전문가,중심,노동,개혁,추진,기구,설치,제언,일자리연대,26일,프레스센터,서울,중구,프레스,센터,경제,위기,노동개혁,돌파,주제,정책,토론회,개최,일자리연대,노무현,정부,시절,노동부,장관,명예교수,김대환,인하대,명예,교수,상임대표,전직,장관,학자,법조인,50여명,참여,토론회,김대일,서울대,경제학부,교수,유일호,경제부총리,이채필,고용부,장관,정승국,중앙,승가대,사회,복지,학과,교수,김호기,연세대,사회학,교수,백경훈,시민,단체,청사진,대표,참석,일자리연대,이날,입장문,5년,노동존중사회,표방,문재인,정권,친노조,반시장적,정책,일관,성장,엔진,민생,경제,당면,경제위기,노동,시장,이중,구조,사회,양극,심화,일자리,감소,지적,윤석열,정부,산업,현장,행위,집단,불법,생산활동,타격,정부,노동,개혁,핵심,변죽,모습,주52시간,개편,임금,체계,지엽,이슈,개혁의제,진단,노동시장,이중구조,심화,경직,노동,법제,정책,불합리,행태들,개혁,경제위기,일자리연대,국제,기준,현실,노동,개혁,청사진,제시,추진,로드맵,작성,단계적,노동,개혁,실천,전략,수립,기득권,노사,당사자,협상장,전문가,중심,추진기구,노동,개혁,추진,기구,설치,제안,노동,개혁,국가,리더십,요구,시대,소명,노동,개혁,대통령,프로젝트,설정,대통령,실질적,사령탑,추진,소기,성과,강조,토론회,발제자,김대일,서울대,경제학,교수,국가,경쟁력,향상,인재,양성,고용,필수,시장원리,제도,고용,보호,연공,서열,체제,경직,임금,신산업,구조조정,걸림돌,진단,교수,ICT,정보통신기술,산업,특성,간과,52시간,정리해고,규제,임금,조정,정년,연장,플랫폼,경제,무리,근로자,적용,예시,노동,시장,제도,고용관계,다양성,훼손,노사,자율,인정,노사,정부,역할,중립적,제정,집행,제한,주장,교수,시장,지배력,중심,독점력,노조,탄생,노사관계,경제,정치논리,변질,불법행위,만연,지속적,정부,개입,노조,정치,권력,계기,제공,노사,상생,협력,대치,투쟁,합리적,전략,진단,교수,정승국,중앙승가대,해소,노동,시장,이중구소,일차적,중요,비정규노동자,사회,경제,상황,개선,고용안정성,개선,일자리,정규,전환,복지,급여,사회보장제도,수급권,개선,과잉,보호,대기업,공공,정규,고임금,연공제등,장기간,점진적,제안,대표,백경훈,청사진,선진적,노동개혁,정규,중심주의,결심,다층적,임금,고용,인사,제도,보편적,자리</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6638,7 +8358,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D345" t="n">
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>지지율,여가부,폐지,카드,대통령,플랫,윤석열,대통령,업무보고,여성,가족부,업무,보고,김현숙,장관,로드맵,여가부,폐지,마련,지시,강인선,대변인,장관,업무,부처,폐지,개편,포함,대통령,폐지,언급,속도,촉구,장관,업무보고,브리핑,여가부,전략추진단,전문가,간담회,폐지,추진,대통령,이해,여가부,폐지,개편,정부,조직법,개정안,국회,처리,169석,민주당,여가부,폐지,반대,상황,정부,조직법,개정안,국회,통과,가능성,부처,조율,대통령,여가부,폐지,배경,여가부,업무,보고,성평등,용어,가족정책,강화,부처,폐지,확정,대통령,업무보고,지시,여가부,폐지,이탈,겨냥,남성,지지율,대통령,여론조사,초반,유지,대통령실,채용,논란,청년,이탈,영향,권성동,국민,대표,직무,대행,9급,발언,대통령,대선,슬로,공정,상식,22일,대통령,국방부,업무,보고,안보,현안,200만,병사,봉급,인상,차질,추진,주문,대선,공약,봉급,인상,당장,폐지,국회,의석,분포,여가부,불가능,대통령,업무보고,공개,지시,일들,안티,페미니스트,남성,청년,지지율,방편,의심,국민,대선,후보,대통령,위기,지지율,급락,여성,가족부,폐지,글자,페이스북,지지율,반전,전기,젠더,주권자,발생,인하대,성폭력,사망,사건,여가부,존재,선명,구조,온존,여성들,실존,위협,여가부,여가부,업무,적극,지원,예산,성범죄,방지,문화,확산,플랫팀,twitter.com,flatflat38</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6656,7 +8381,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D346" t="n">
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락사,연기,피의자,상벌위,접견,검찰,의혹,제기,혐의,수사,인하대,교내,동급생,성폭행,건물,혐의,구속,학생,상벌위원회,연기,예정,절차,소명,인하대,준강간치사,혐의,검찰,구속,송치,인하대,상벌위,이날,연기,대학,관계자,사실관계,소명,요구,내용증명,학생,A씨,반송,절차,규정,소명,상벌위,대학,서면,소명,기회,접견,신청,소명,가지,방안,고심,대학,A씨,소속,단과대학장,A씨,징계,의뢰,제50조,인하대,학칙,징계,근신,유기정학,무기정학,퇴학,4가지,A씨,퇴학,조치,가능성,퇴학,소속,대학,상벌,위원회,심의,학장,제청,학생,상벌위,의결,총장,처분,징계,퇴학,재입학,불허,A씨,준강간치사,위반,성폭력,처벌법,카메라,이용,촬영,혐의,검찰,15일,5층,인천,용현동,인하대,교내,단과대,건물,동급생,성폭행,건물,추락,혐의,A씨,B씨,건물,장소,자취방,당일,경찰,체포,경찰,B씨,고의,진술,인천지검,사건,수사,여성,아동범죄조사부,부부장,팀장,전담팀,검찰,관계자,사안,중대성,사망사고,의혹,제기,감안,3명,검사,투입,혐의,철저,수사,예정</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,7 +8404,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D347" t="n">
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>녹조량,독성,물질,포함,중요,녹조,발생,녹조,독성,물질,중요,23일,현장,답사,김장수,탐사대,낙동강,녹조,대장,경북,고령군,이승준,부경대,교수,맹독,발암,물질,마이크로시스틴,낙동강물,재배,배추,검출,대장,정작,우리나라,녹조,독소,잔류,기준,정부,교수,시민,조사,위험성,대장,부산,출신,인하대,공대,졸업,조선소,퇴직,환경,관심,연산8동,부산,연제구,연산,지역,하천,온천천,수질,체감,주민들,환경단체,온천천,운동,참여,퇴직,낙동강변,경북,고령군,낙동강,귀촌,낙동강,녹조,환경운동연합,가입,탐사대,대장,녹조,물질,발생,단계,밥상,경로,조사,대장,탐사대,목적,설명,부경대,낙동강물,재배,농산물,녹조,독성,물질,발견,걸음,낙동강물,양수장,취수장,단계,확인,대장,탐사대원들,이날,양수장,채집,부경대,협의,대장,탐사,교수,이승준,채집,방법,방법,녹조,독소,잔류,기준,미국,채집,방식,녹조,물질,확인,채집법,일반적,강물,오염,채집법,표면,중간,바닥,깊이,차이,통상적,채집법,녹조,채집,수면,크기,격자,형태,9곳,표면,낙동강,호수,방법,대책,녹조,해결,대장,시작,탐사대,낙동강,녹조,지속적,탐사,안일,정부</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6692,7 +8427,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D348" t="n">
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수출,전선,하이테크,중국,미국,대중국,수출,수출,대상국,2위,한국,수출,대상국,1,,중국,미국,희비,수출,전략,지적,수출입무역통계,관세청,수출입,무역,통계,수출액,상반기,대중,달러,107조,수출액,23.2%,차지,1.9%,상반기,대비,1.9%,포인트,하락,수출액,대미,549억,달러,비중,대비,15.7%,1년,0.4%,포인트,수출액,대중,4월,3.4%,6월,0.8%,2.5%,이달,2.5%,전년,동기,대비,감소세,지속,대중,무역,수지,달러,적자,28년,적자,기록,이달,20일,달러,적자,마이너스,연속,위기,수출액,이달,대미,기간,19.7%,무역수지,대미,무역,수지,흑자,산업통상자원부,정보,통신,ICT,수출입,동향,대중,수출액,홍콩,포함,전년,동기,대비,2.6%,90억,달러,22개월,감소세,전환,수출액,대미,14.4%,29억,달러,증가세,개월,연속,지난달,ICT,수출액,역대,실적,달성,중국,한국무역협회,하이테크,수입,시장,동향,한국,수출,시사점,보고서,시장,중국,하이테크,한국,점유,2위,위상,2015년,대만,19%,15.9%,대만,격차,9.3%,포인트,미국,하이테크,시장,한국,점유,상승,기간,소폭,3.5%,4.2%,국가,순위,8위,6위,수출,반도체,분야,미국,점유율,대중,무역,축소,격차,재편,글로벌,공급망,중국,코로나19,봉쇄,중국,정부,일감,자국,기업,복합적,영향,정부,대중,수출,방안,고심,1차관,방기선,기획,재정부,비상,경제,차관,회의,무역,금융,지원,해소,물류,애로,규제,개선,대응책,강구,이창양,산업부,장관,증가세,수출,회복,추진,경제,협력,사업,강화,수출,마케팅,기업,지원,당장,효과,대책,인도,태평양,경제프레임워크,IPEF,반도체,공급망,동맹,일본,대만,이슈,변수,미국,주도,IPEF,참여,대미,수출,긍정적,대중,무역,악영향,정인교,인하대,국제통상학,교수,국제,정세,IPEF,칩4,참여,설명,가동,협력,채널,중국,반발,중국,무마,수석연구원,김민우,무협,수석,연구원,미국,중국,기회,위기,동시,반도체,전반,수출,역량,항공우주,의약품,차세대,주력,산업,확장</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6710,7 +8450,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D349" t="n">
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>대통령,지지율,여가부,폐지,윤석열,대통령,업무보고,여성,가족부,업무,보고,김현숙,장관,로드맵,여가부,폐지,마련,지시,강인선,대변인,장관,업무,부처,폐지,개편,포함,대통령,폐지,언급,속도,촉구,장관,업무보고,브리핑,여가부,전략추진단,전문가,간담회,폐지,추진,대통령,이해,여가부,폐지,개편,정부,조직법,개정안,국회,처리,169석,민주당,여가부,폐지,반대,상황,정부,조직법,개정안,국회,통과,가능성,부처,조율,대통령,여가부,폐지,배경,지지율,대통령,여론조사,초반,유지,대통령실,채용,논란,청년,이탈,영향,권성동,국민,대표,직무,대행,9급,발언,대통령,대선,슬로,공정,상식,22일,대통령,국방부,업무,보고,안보,현안,200만,병사,봉급,인상,차질,추진,주문,대선,공약,봉급,인상,당장,폐지,국회,의석,분포,여가부,불가능,대통령,업무보고,공개,지시,일들,안티,페미니스트,남성,청년,지지율,방편,의심,국민,대선,후보,대통령,위기,지지율,급락,여성,가족부,폐지,글자,페이스북,지지율,반전,전기,젠더,주권자,발생,인하대,성폭력,사망,사건,여가부,존재,선명,구조,온존,여성들,실존,위협,여가부,여가부,업무,적극,지원,예산,성범죄,방지,문화,확산</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6728,7 +8473,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D350" t="n">
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>성폭력,폭력,문화,인하대,성폭행,추락사,사건,학생,안전,문제지,남녀,젠더,갈등,증폭,장관,김현숙,여성,가족부,언론,인터뷰,해법,학교,폐쇄회로,CC,TV,설치,조치,학생,안전,강화,인하대,사건,전문가들,사회,감수성,재점검,계기,한목소리,사건,뿌리,젠더,인식,오윤성,순천향대,경찰,행정학,교수,언론,인터뷰,대학,CCTV,확대,통제,교내,출입,근본적,해결,방안,지적,대한민국,여가부,장관,전문가들,정반대,인식,박민영,국민,대변인,장관,맞장구,완벽,시대,지체,여가부,장관,여당,대변인,정도,정부,감수,수준,인하대,사건,학생,동아리,소속,가해자,평소,친구,사이,범죄,인간,근본,신뢰,자산,파괴,결과적,생명,파괴,남학생,성폭행,영상,촬영,N번방,그림자,N번방,일단락,사건,내면,진행,사건,인터넷,사이트,피해자,외모,피해자,책임,전가,글들,가해,일련,도착,사건,단순,안전,생각,사건,명의,인하대,총학생회,입장문,죽음,애도,학내,성범죄,부끄러움,반성,정부,학생들,현실,인식,고장,한국,남성들,야동,포르노,학습,체화,여성,주체성,무시,판타지,포르노,남성들,쾌락,여성,완벽,성적,대상화,극단,범죄,형태,N번방,여성,인격,무화,초등학생,스마트폰,세대,자극적,콘텐츠,노출,가치관,왜곡,가능성,이데올로기,여성,차별,근본,배후,완력,남성,여성,유일,우연,획득,동물적,인류,이데올로기,차별,구축,문화,가장,야만,완력,남성,여성,우월,입증,아무것,진화론,공감,능력,여성,발달,성폭력,남성들,추문,완력,차이,악랄,외화,여성,인격체,존중,성폭력,CCTV,사회,감수성,공부,감수성,기적,여가부,장관,여당,정치인,학습</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6746,7 +8496,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D351" t="n">
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>하이테크,ICT,수출,전선,중국,미국,대상국,2위,한국,수출,대상국,1,,중국,미국,희비,연구개발,R&amp;D,비중,하이테크,산업,주력,정보통신기술,ICT,분야,대중,대미,수출,온도,추세,전망,수출,전략,지적,수출입무역통계,관세청,수출입,무역,통계,수출액,상반기,대중,달러,10조,수출액,23.2%,차지,1.9%,상반기,대비,1.9%,포인트,하락,수출액,대미,549억,달러,비중,대비,15.7%,1년,0.4%,포인트,수출액,대중,4월,3.4%,6월,0.8%,2.5%,이달,2.5%,전년,동기,대비,감소세,지속,대중,무역,수지,달러,적자,28년,적자,기록,이달,20일,달러,적자,마이너스,연속,위기,수출액,이달,대미,기간,19.7%,무역수지,대미,무역,수지,흑자,하이테크,ICT,산업,경향,하이테크,전자통신기기,전기기기,화학품,무기류,제조,제조,R&amp;D,비중,기술제품,ICT,반도체,디스플레이,휴대전화,컴퓨터,제품,한국무역협회,하이테크,수입,시장,동향,한국,수출,시사점,보고서,시장,중국,하이테크,한국,점유,10년,2위,위상,2015년,대만,19%,15.9%,대만,격차,9.3%,포인트,주력품목,반도체,분야,통상,갈등,중국,대만,공급망,연계,강화,영향,통신,기기,분야,베트남,생산기지,가속화,미국,하이테크,시장,한국,점유,상승,기간,소폭,3.5%,4.2%,국가,순위,8위,6위,기간,38.9%,중국,1위,29.8%,대조적,한국,반도체,분야,수출,미국,점유율,산업통상자원부,ICT,수출입,동향,대중,수출액,홍콩,포함,전년,동기,대비,2.6%,90억,달러,22개월,감소세,전환,컴퓨터,디스플레이,수출액,수출액,대미,14.4%,29억,달러,증가세,개월,연속,지난달,ICT,수출액,역대,실적,달성,중국,대중,무역,격차,축소,재편,글로벌,공급망,중국,코로나19,봉쇄,중국,정부,일감,자국,기업,복합적,영향,대중,수출길,앞날,장담,한국은행,이달,보고서,중국,조치,코로나,봉쇄,강화,장기,침체,전망,미국,증가,상품,수요,강화,경제,협력,수출,호조,가능성,정부,대중,수출,방안,고심,1차관,방기선,기획,재정부,비상,경제,차관,회의,무역,금융,지원,해소,물류,애로,규제,개선,대응책,강구,이창양,산업부,장관,증가세,수출,회복,추진,경제,협력,사업,강화,수출,마케팅,기업,지원,당장,효과,대책,인도,태평양,경제프레임워크,IPEF,반도체,공급망,동맹,일본,대만,이슈,변수,미국,주도,IPEF,참여,대미,수출,긍정적,대중,무역,악영향,정인교,인하대,국제통상학,교수,대중,수출,대미,수출,추세,국제,정세,감안,IPEF,칩4,참여,설명,가동,협력,채널,중국,반발,중국,무마,정부,물량,원자재,비축,활용,중소기업,대중,수출,지원,해소,물류,애로,적극,수석연구원,김민우,무협,수석,연구원,세계,최대,첨단,산업,시장,미국,중국,기회,위기,동시,중장기적,대만,설계,패키징,반도체,전반,수출,역량,항공우주,의약품,차세대,주력,산업,적극,확장</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,7 +8519,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D352" t="n">
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>인하대,수주,정부,인재,양성,사업,분야,인하대,교육부,인재양성사업,부처,협업,인재,양성,사업,사업,분야,수주,3년,42억,지원,25일,사업,정부,신산업,첨단산업,분야,인재,양성,부처,대학,현장,실습,인턴십,실무,교육,지원,사업,분야,진행,전국,대학,선정,2024년,연간,혁신,인재,양성,인하대,이차,전지,시스템반도체,공간,정보,지식,재산,온실,가스,감축,분야,주관기업,선정,5개,사업,선정,대학,인하대,4개,인하대,지원,예산,바탕,시스템반도체,전공과정,반도체,전공,소재,공정,장비,소자,설계,개설,운영,공정,통합,인재,육성,계획,양성사업,분야,지식,재산,융합,인재,양성,사업,반도체,분야,전공지식,바탕,특허출원,특허,출원,역량,지식,재산,활용,겸비,융합인재,양성,전국,3개,선정,이차,전지,분야,이차,전지,사업,인력,양성,사업,진행,전지제조,설계,평가,분야,교과목,학과,연계,운영,기업체,요구,실무능력,글로벌,인재,양성,계획,인하대,관계자,인하대,우수,연구실적,확보,결과,인프라,인재,양성,연결,양성,미래,인재,중심기관</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6782,7 +8542,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D353" t="n">
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>대변인,군내,사고,피해자,99%,남성,남자,장관,김현숙,여성,가족부,인하대,성폭력,사망,사건,비율,남성,피해자,취지,발언,구설,국민,박민영,대변인,여자,구호,대표,젠더,이분법,해석,극단,반복,두둔,대변인,사회관계,SNS,해결,불안,구도,성별,대결,피해,형량,소모적,갈등,상황,초래,방식,젠더,이분법,규정,대변인,국민의힘,박민영,뉴스1,대변인,역지사지,산업,재해,피해자,99%,남성,군대,발생,각종,사고,피해자,99%,징집,남성,사건,남자,표현,논리,남성,정책,남성,혜택,성별,여성,보호,1%,여성들,정부,박탈감,주장,대변인,논리,여성,정책,통계적,남성,자살률,여성,자살률,여성,자살방지센터,남성들,박탈감,실책들,전반,여성,정책,분노,대변인,정책,그간,여성,한쪽,배제,특정,성별,피해,자연,성별,혜택,젠더,이분법,함정,해결,장관,인터뷰,인하대,사건,거론,학생,안전,문제지,남녀,젠더,갈등,증폭,인하대,학교,폐쇄회로,CC,TV,설치,학생,안전,조치,강화,디지털성,범죄피해자지원센터,비율,남성,피해자,20%,통계,제시</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6800,7 +8565,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D354" t="n">
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>대학,캠퍼스,성폭력,범죄,가해,상대적,피해자,특정,상대,여론,집중,분위기,압박도,대학,캠퍼스,발생,성폭력,범죄,피해자,특정,상대적,가해,발생,사건,인하대,캠퍼스,성폭행,추락사,온라인상,피해자,신상,악성,루머,대학,성폭력,피해자,행위,가해,상황,16일,커뮤니티,대학,온라인,중앙대,학과,학생,성추행,피해자,커뮤니티,피해,사실,공론화,가해자,지목,학생,단체,대화방,사과,사건,일단락,피해자,가해,커뮤니티,가해자,주변,사람,가해자,두둔,댓글,가해자,인정,1950년대,폭행,거짓,자백,피해자들,용기,작성,경찰,신고,피해,자체,의심,댓글,성추행,피해,사실,가해,파악,학과,학생회,교내,인권,센터,의사,사건,접수,상황,중앙대,관계자,24일,사안,학교,전달,학과,대학,학과,성범죄,피해자들,주변인들,2차,두려움,피해,사실,A씨,대학,학교,동아리,성추행,사건,A씨,피해,피해,당사자,소문,선후배,피해자,상황,A씨,증거,압박,피해,실제,성추행,선배들,얘기,공포,자체,걱정,주변,토로,생각,전문가들,캠퍼스,성범죄,구조,가해,취약,경고,여성학,전문가,대학,상황,발생,피해자,측근,학교,관계자,경향,사실,명예,학교,실추,압박,진짜,학생들,가해,피해자,압박,설명,김성미경,한국여성인,플러스,대표,학내,피해자,여론,집중,피해자,외모,범죄,피해,옷차림,거론,피해자,책임,결과,지적,사건,피해자,성범죄,피해자,결국,효과,범죄,강조</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6818,7 +8588,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D355" t="n">
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>중국,시장,한국,추억,제품,흑자,對中,수출,주력,품목,점유,급락,세계,TV,제조사,LG전자,중국,TV,시장,점유,0.1%,2009년,최대점유율,5.6%,달성,시장,확대,10여년,점유율,급락,존재감,중국,판매량,3만,수준,관계자,전자,업계,중국,인구,중국,감안,사실,중국,교포들,얘기,세계,TV,업체,삼성전자,중국,TV,시장,점유,4.1%,9위,한국,최대,교역국,중국,무역,수지,중국,정부,지급,보조금,중국,업체,비약적,성장,한국,업체,시장,결과,숫자,1993년,흑자,대중,對中,무역,수지,달러,6월,12억,달러,적자,기록,월간,기준,대중,무역,적자,적자,연속,30년,7월,대중,무역,적자,규모,20일,15억,달러,5월,6월,적자,규모,한국,그간,일본,적자,중국,흑자,구조,30년,흑자,무역,수지,경고등,한국,대중,수출,중간재,중국,점유율,한국,시장,점유,함량,부품,수입,중국,비율,2.9%,39.7%,급증,정인교,인하대,국제통상학,교수,대중,교역,의존,상황,한국,시장,원자재,공급처,다변화,차이나,플러스,전략,적극,추구</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,7 +8611,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D356" t="n">
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>학내,성폭력,범죄,근절,젠더,교육,범죄,엄벌,핵심,대학,성범죄,통제,교내,출입,1차원,대책,숙고,젠더,편향,교육,필수,인하대,발생,사건,성폭행,사망,대책,재발,방지,논의,상황,사건,교내,성폭력,본질적,접근법,목소리,대학,강화,젠더,의식,본질적,대책,집중,지적,인하대,대책위원회,성폭행,사망,사건,대책,위원회,사건,기본,대책,캠퍼스,성폭행,근절,재발방지,안전,강화,대책,예방교육,검토,캠퍼스,안전,강화,자정,통제,건물,출입,검토,교내,비상벨,확대,설치,예정,대학,성폭력,범죄,인하대,정청래,더불어민주당,의원실,자료,국립대,전국,발생,성희롱,성폭행,사건,급증,학생,성범죄,학생,증가,전문가들,기술적,대책,안전,강화,해법,허민숙,국회,입법,조사처,조사관,비상벨,확대,건물,출입,통제,대책,부차,대책,교내,성폭력,본질,대책,건강,인식,확립,지속적,성교육,온라인,여론몰이성,등장,남자,잠재,가해자,취급,성교육,진입,장벽,설명,추지현,서울대,사회학,교수,공동체,내부인,사이,성폭력,대책,통제,건물,출입,논의,20년,모습,젠더범죄,이해도,교수,사건,피해자,가해,여성,일상,젠더,폭력,노출,대학,교육,성폭력,1차원,수준,젠더,일상,편향,지식,남성,중심,치열,고민,사람,공간,성범죄,엄벌,기본,조사관,사회,성폭력,근절,수사관,감수성,사법기관,강화,처벌,실효율,자리</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6854,7 +8634,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D357" t="n">
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,피해자,신상,거론,가해,캠퍼스,특정,2차,빈번,주변,생각,피해자,침묵,범죄,캠퍼스,발생,성폭력,범죄,피해자,특정,상대적,2차,인하대,캠퍼스,발생,사건,성폭행,사망,피해자,목소리,대학,성폭력,피해자,가해,상황,16일,대학,커뮤니티,중앙대,학과,학생,성추행,폭로,피해자,커뮤니티,피해,사실,공론화,가해자,지목,학생,단체,대화방,사과,사건,일단락,커뮤니티,피해자,가해,가해자,주변,사람,가해자,두둔,댓글,가해자,성추행,인정,1950년대,폭행,거짓,자백,댓글,피해자들,용기,작성,경찰,신고,피해,자체,의심,댓글,성추행,피해,사실,가해,학과,학생회,교내,인권,센터,의사,사건,접수,상황,중앙대,관계자,사안,학교,전달,학과,대학,학과,피해,성범죄,피해자,사건,자체,가해,피해,사실,초반,대학,학교,동아리,성추행,사건,연루,A씨,피해,성추행,피해,소문,주변인들,피해자,상황,A씨,증거,압박,A씨,피해,실제,성추행,선배들,이야기,공포,자체,걱정,주변,생각,캠퍼스,인천,미추홀구,인하대,사건,성폭행,사망,피해자,소속,학과,신상,유추,가해,포털,사이트,검색창,학교,검색,피해자,신상,연관,검색어,노출,전문가들,캠퍼스,성범죄,가해,취약,경고,여성학,전문가,대학,상황,발생,피해자,측근,학교,관계자,사람,사실,명예,학교,실추,압박,진짜,학생들,가해,피해자,압박,설명,김성미경,한국여성인,플러스,대표,학내,피해자,여론,집중,피해자,외모,범죄,피해,피해자,옷차림,이야기,피해자,책임,결과,지적,사건,피해자,상황,성범죄,피해자,효과,범죄</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6872,7 +8657,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D358" t="n">
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>남학생,인하대,사건,피해자,3층,남학생,인하대,남학생,17일,동급생,여학생,성폭행,추락,혐의,준강간치사,구속,피의자,심문,영장,실질심사,미추홀구,인천지법,모습,인천,인하대,성폭행,추락사,사건,가해,남학생,만취,피해자,3층,단과,대학,건물,사실,추가,확인,공분,MBC,준강간치사,혐의,구속,인하대,정확,범행,시각,15일,2시,사이,특정,보도,경찰,범행,A씨,현장,휴대전화,불법,촬영,영상,발견,영상,화면,소리,3층,추락,피해자,3시,행인,발견,1시간,방치,경찰,A씨,만취,상태,B씨,승강기,이용,3층,사실,확인,B씨,사건,현장,창틀,추락,A씨,행동,원인,판단,A씨,경찰,조사,상황,카메라,버튼,실수,진술,A씨,15일,인하대,캠퍼스,5층,단과,대학,건물,B씨,학교,학생,상대,성범죄,추락,혐의,이날,3시,분쯤,행인,발견,B씨,심정지,상태,병원,이송,7시,사망,B씨,A씨,성폭행,창문,건물,복도,1층,추락,사망,A씨,피해자,장소,자취방,현장,휴대전화,당일,경찰,긴급체포,경찰,사건,현장,추락실험,진행,A씨,고의,B씨,건물,여부,조사,A씨,살인,혐의,적용,판단,준강간치사,불법촬영,혐의,성폭력처벌,특례법,카메라,이용,촬영죄,추가,적용,검찰,구속,송치,사건,인천지검,전담,수사,A씨,혐의,확인,방침</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6890,7 +8680,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D359" t="n">
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>가해자,인하대,사건,3층,만취,피해자,인하대,캠퍼스,동급생,성폭행,A씨,남성,17일,구속,피의자,심문,영장,실질심사,미추홀구,인천지법,인천,뉴스1,추락사,인하대,성폭행,사건,가해,남학생,범행,범행,만취,상태,피해자,건물,사실,확인,피해자,사람들,시선,범행,장소,물색,이동,계획,범죄,정황,의심,상황,경찰,조사,주장,경찰,피해자,5층,건물,추락,층수,3층,A씨,15일,2시,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,대학,B씨,여학생,성폭행,3층,추락,혐의,경찰,피해자,추락,A씨,살인,혐의,적용,검토,살인,혐의,적용,판단,인천,미추홀경찰서,A씨,인하대,준강간치사,성폭력범죄,처벌,특례법,위반,카메라,이용촬영,혐의,적용,검찰,MBC,보도,경찰,준강,간치사,혐의,구속,인하대,20,정확,범행,시각,15일,사이,특정,범행,A씨,범행,휴대전화,불법,촬영,영상,근거,영상,촬영,소리,녹음,경찰,A씨,B씨,승강기,이용,3층,사실,확인,사건,현장,창틀,B씨,추락,A씨,행동,원인,경찰,판단,상황,카메라,버튼,실수,진술,경찰,A씨,범행,B씨,범행,추락,살인,고의,직접적,행위,여부,수사,성폭행,살인,고의,판단,최종,준강,간치사죄,적용,A씨,8시,검찰,경찰서,모습,혐의,인정,의도,촬영,질문,구호조치,질문,피해자,유족,취재진,질문,피해자,유족,진심,호송차</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,7 +8703,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D360" t="n">
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>가해자,미래,피해자,과거,젠더살롱,강간,권리,현대인,머릿속,15일,선정적,헤드라인,인하대,학내,발생,성폭력,사망,사건,보도,기사,다수,언론사,기사,보도,언론사,성폭력,보도,위반,기사들,피해자,모욕,공격,댓글,시작,인터넷,커뮤니티,2차,게시글,댓글,사실상,언론사,초기,보도,가해,유도,언론사,반성,근본적,성폭력,사건,발생,피해,여성,원인,제공,피해자,문화,사회,만연,옷차림,여자,꼬리,여자,기사,헤드라인,기사,댓글,인터넷,게시,반응,여성들,일상,성폭력,증언,주위,말들,가해자,본인,지인,폭력,사건,발생,원인,가해자,성폭력,사건,발생,피해,여성,상대,여성,상황,성폭력,생각,젠더살롱,지면,각종,성폭력,사건,바탕,가부장,남성,권력,행사,전근대인,망탈리테,mentalit,기간,형성,집단적,사고방식,남성들,강간,권리,강간,권리,세상,권리,거부감,독자들,다들,강간,성폭력,권리,처벌,범죄,역사적,남성들,강간,권리,보장,21세기,건재,사건,각종,성폭력,보도,가해자들,행동,사람들,반응,피해자,책임,형태,상층,하층,계급,강간,권리,피라미드,사회,고대,가부장,가부장,처자식들,생살여탈권,生殺與奪權,처자식,권리,막강,권력,가족,구성원,가부장,복종,가부장,아내,정조,처녀성,강요,자신,이익,남성,집단,동맹,집안,여성들,물건,정략결혼,교환,가부장들,평등,농경,시작,사유재산,계급,발생,부유,권력,가부장,여성,일부다처제,일부다처,결혼,축첩,상류계급,현실적,역사,이래,현실,일부다처제,상층,계급,남성,여성,부족,계급,남성,불만,공격성,남성들,상층,계급,남성,성매매,상층,계급,남성,소유,여성들,성폭행,남성,본인,계급,계급,여성,성범죄,용인,남성들,계급,여성,성적,착취,권리,강간,권리,겁탈,성당지기들,어림,부엉이,대답,종지기,주제,자작,처녀,겁탈,천민,귀족,사냥감,밀렵,민음사,파리,노트르담,25쪽,빅토르,위고,소설,파리,노트르담,세기,중세,근대,이행기,파리,파리,민중,모습,인용,페뷔스,콰지모도,납치,에스메랄다,대목,페뷔스,종지기,주제,자작,처녀,겁탈,천민,귀족,사냥감,밀렵,주목,귀족,페뷔스,에스메랄다,집시,처녀,귀족,사냥감,콰지모도,여성,인권,차원,상층,계급,재산,강탈,남성들,상층,계급,남성,자신,계급,여성,강간,권리,귀부인,정신적,사랑,매너,중세,유럽,기사들,농민,여성,강간,범죄자,집단,우리나라,문학,작품,남성들,상층,계급,남성,강간,권리,행사,설화,도미,판소리,고전,소설,춘향전,계급,여성,처지,하층,계급,남성들,반발,동등,강간,권리,하층,계급,남성들,서로,아내,누이,강간,사회,하층,여성,최하층,여성,창녀,강간,권리,권리,행사,창녀,강간,판결,조항,창녀,강간,무죄,영국,12세기,프랑스,16세기,정숙,여인,순결,보호,실제,판결,직업,창녀,경험,파트너,여성,강간,시대,나라,선고,일쑤,우리나라,개정,성폭력,규정,형법,정조,여성,정조,유린,여성,주인,가부장,남성,피해,여성,남성,소유물,고대,사고방식,분노,조항,치명적,평소,정조,여성,성폭력,피해,남성,성폭행,해석,발생,사건,박인수,혼인,빙자,간음,사건,판결문,정숙,여인,건전,순결,정조,보호,보호,가치,정조,보호,성폭력,사건,발생,가해,남성,무죄,피해,여성,사생활,가해,근거,피해,여성,평소,행실,문란,여성,창녀,강간범,선고,가해자,지인들,가해자,지인,성폭력,사건,보도,기사,댓글,사람들,피해자,원인,피해,여성,아픔,분노,남성,앞날,걱정,현상,인터넷,명언,가해자,미래,피해자,과거,역사적,여성,강간,무죄,남성,강간,권리,행사,강간,유도,남성,미래,여성,생각,사고방식,비판,명언,음주,여부,차림새,면죄부,사망사건,인하대,성폭력,사망,사건,반응,성폭력,피해자,책임,생각,위험,피해자,가해,물론,피해자,직업,창녀,성녀,강간,음주,여부,옷차림새,피해자,여성,제공,가해자,면벌부,범죄자,구멍,강간,권리,보장,사고방식,성폭력,남성들,성범죄,폭력,원인,가해자,성폭력,범죄,원인,가해자,남성,잠재,가해자,여성,강간,권리,보장,남성들,가해자,사회,문화,제안</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6926,7 +8726,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D361" t="n">
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>후폭풍,인하대,사건,술자리,캠퍼스,대학,학내,범죄,비상,서울대,한국외대,홍익대,전국,대학,총학생회,구성,전국대학학생회네트워크,전대넷,24일,정기,회의,캠퍼스,성범죄,예방,방안,논의,1달,행사,성폭력,대응,지침,학생들,이날,지침,전대넷,소속,대학들,공유,예정,발생,인하대,성폭력,사망,사건,캠퍼스,남학생,또래,여학생,성폭행,건물,추락,혐의,구속,상태,거리,사회,해제,등교,수업,본격화,축제,각종,행사,단체,활동,재개,대학별,한동안,각종,성폭력,성범죄,발생,대학,안팎,비상,이달,서울,연세대,의대,재학,화장실,또래,여학생,모습,불법,촬영,고려대,서울,축제,남학생,여학생,치맛속,불법,촬영,적발,인하대,사건,범행,캠퍼스,건물,학교,안전,불안감,전대넷,원래,지침,각종,모임,성폭력,예방,생활수칙,남녀,팔짱,러브샷,게임,야외,화장실,이용,한국성폭력상담소,자문,보강,방안,집행위원장,김민정,전대넷,집행,위원장,인하대,사건,불안,사람,경각심,차원,지침,대학,음주,범죄,원인,만큼,술자리,지침,학교,젠더,의식,교육,필수적,개별,학교,학과,인하대,사건,계기,대책,성범죄,예방,학생회,한국외대,영어대학,개강,성폭력,자치규약,원래,학생회,과대표,학생회장,학생,대표,선출,사람들,성범죄,작성,공개,사과문,징계,2학기,일반,학생,규정,확대,적용,수사기관,강제성,학생회,차원,압박,성범죄,발생,피해,규정들,경희대,특별,자치,기구,경희대,학생,소수자,인권,위원회,4월,지침,인권,침해,대응,지침,교내,성범죄,방법,신고,안내,피해자,신상,노출,피해,위원회,서울,소재,대학교,관계자,인하대,사건,발생,11시,특별,사유,동아리실,건물,출입,교육부,야간,출입,통제,강화,CCTV,증설,대책,재발,방지,전문가,사이,대학,과도,음주,문화,의견,구정우,성균관대,사회학,교수,학생들,성범죄,자발적,실효성,일종,자정작용,모습,대학들,음주,코로나,부족,코로나,교육,홍보</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6944,7 +8749,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D362" t="n">
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>20대,53%,키스,애무,동의,대학,성폭력,위험,수위,위험수위,캠퍼스,성폭력,위험,수위,대학원생,3년,대학,동아리,불법,촬영,피해,불법,카메라,발견,가해자,학교,공론화,유야무야,대학,재학,사건,3~4차례,변화,곽씨,사건,탈의실,공중,화장실,이용,대학원,진학,남녀공학,여대,학교,공간,안전,인식,고등학교,욕구,자유분방,분출,불법촬영,성희롱,위험,주변,친구,도서관,휴게실,경고,곽씨,전언,불법촬영,공중,화장실,이용,인하대,성폭행,사망,사건,계기,안전,캠퍼스,의구심,인천,미추홀경찰서,남학생,가해,남학생,준강간치사,혐의,인천지검,구속,송치,A씨,15일,2시,인하대,캠퍼스,동급,여성,성폭행,3층,추락,혐의,경찰,A씨,고의,B씨,증거,살인,치사죄,적용,경찰,A씨,휴대전화,범행,영상,확보,불법,촬영,혐의,추가,적용,영상,범행,장면,음성,녹음,A씨,B씨,추락,B씨,교내,장소,자취방,당일,경찰,체포,B씨,가량,건물,방치,당일,행인,발견,병원,7시,운동,미투,본격화,사회,감수성,기성세대,개방,문화,성교육,세대,성희롱,성폭력,사건,교육부,국민,정찬민,의원실,대학,성희롱,성폭력,사건,코로나19,학교,2020년,1월,7월,94건,발생,가해자,교수,교직원,학생,비중,교수,김엘림,한국방송통신대,법학,1994년,2018년,분쟁,대학,성희롱,성폭력,사례,결과,90%,가해자,남성,교수,6년,발생,1206건,학생,가해자,사례,62%,748건,8월,한국항공대학교,4명,남학생,6개월,단톡방,여학생,교직원,대상,성희롱,발언,여학생,여교수,이름,언급,당장,몸캠,딥페이크,사람,이미지,합성,속옷,가능,대화,피해자,수업,대상,평가,조롱,구체적,범죄계획,포함,청주교대,남학생,단톡방,동기,여학생,사진,외모,비하,성희롱,발언,고발,대자보,대학,캠퍼스,성희롱,성폭력,남녀,감수,수준,간극,남성,감수성,세대,남성,한국여성정책연구원,교육,성폭력,예방,수강,2007명,공공,기관,종사자,대상,의식,사람,성관계,성범죄,항목,동의,여부,여성,96.1%,남성,94.1%,문장,동의,20대,여성,동의율,99.1%,연령대,여성,남성,동의율,86.8%,세대,남성,여성,남성,성관계,동의,항목,남성,27.4%,여성,9.3%,남녀,키스,애무,성관계,동의,문항,남성,절반,52.7%,긍정,여성,19.4%,동의,연령대,남성,동의율,여성,동의율,남성,상대,의사,상황,암묵,동의,경향,전문가들,20대,성교육,왜곡,성문화,세대,진단,행복한성,문화센터,대표,겸임교수,배정원,세종대,겸임,교수,인터넷,포르노,자극적,왜곡,동의,결정권,인식,부족,이성,태도,가치판단,훈련,발생,설명,오윤성,순천향대,경찰,행정학,교수,가해자,인하대,성폭행,성범죄,전과,가정환경,양호,온라인,선정적,콘텐트,왜곡,관념,가능성,20대,고등학교,졸업,전문성,강사,성교육,기회,사실,전무,고등학교,연간,시간,성교육,의무,이수,대학,의무,이수,과목,성폭력,방지법,시행령,교원,대학교,소속,학생들,1회,1시간,성교육,교육,성폭력,예방,이수,불이익,교육부,대학알리미,공시,대학,성폭력,예방,교육,현황,교육,성폭행,예방,이수,학생,46.1%,전국,평균,46.1%,절반가량,학생들,형식적,마련,1시간,동영상,교육,인하대,이수,25.9%,대학,전국,179위,서울과학기술대,2.3%,경희대,4.9%,동국대,6.3%,숙명여대,6.4%,서울시립대,7.6%,이수율,전문가들,성범죄,발생,장소,관심,집중,사회,감수,전반,점검,지적,감수성,사회,젠더,문화,역할,시각,영향,감수,부족,개인,치부,교수,대학,CCTV,확대,통제,교내,출입,근본적,비판,조치들,대학,성폭행,예방,장소,자체,성범죄,의미,교수,대학,성범죄,발생,후속,조치,성범죄,발생,사전,교육,사건,발생,형성,가치관,교육기관,역할,충실,존중,동의,적극,시대,흐름,교육,연인,성관계,연인,존중,동의,강조,데이트,성폭력,범죄,인식,시작,시대,사회,왜곡,관념,여성,성관계,홈런,표현,대표,연인,사이,남성,스킨십,리드,여성,성적,개방적,특정,성별,특정,역할,시각,세대,대상,상대,존중,동의,교육,선임연구위원,이미정,한국여성정책연구원,선임,위원,시대,차별,시각,문화,성적,공격적,남성적,사례,성적,자유,시대,세대,성관계,동의,동의,방법,자신,의사,표현,중요,맞춤,성교육,프로그램,성별,분리,교육,성폭력,예방,남성들,방어적,태도,역할,고정관념,해외,연구위원,남성,잠재,가해자,묘사,접근,해결,파트너,인식,전면적,변화,성교육,패러다임,출신,미식축구,선수,군인,스포츠,선수,대상,폭력,예방,교육,프로그램,시행,잭슨,캐츠,사례,대표적,자신,프로그램,남성,잠재,가해자,묘사,폭력,남성,violent,masculinity,문화,중단,동참,중점,캐츠,남성,주변,남성,여성,폭력,위협,상황,목격,목소리,시작,여성,성폭력,해결,성범죄,남성,주도적,참여,중요,연구위원,대화,단톡방,목격,남성들,침묵,의견,저지,각자,공동체,일상적,발생,성희롱,용납,분위기,조성,인식,변화,첫걸음</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6962,7 +8772,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D363" t="n">
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>성폭행,추락사,송치,가해자,구속,추가,불법,촬영,혐의,인하대학교,캠퍼스,발생,사건,성폭행,사망,가해자,검찰,송치,인천,미추홀경찰서,혐의,이날,준강,간치사,구속,A씨,인하대,성폭력범죄,처벌,특례법,카메라,혐의,이용,촬영,추가,검찰,송치,A씨,검찰,송치,경찰서,혐의,인정,의도,범행,장면,촬영,취재진,물음,피해자,추락,구호,조치,피해자,유족,질문,진심,A씨,15일,2시,인천시,미추홀구,인하대,캠퍼스,건물,지인,여성,20대,성폭행,추락,혐의,B씨,성폭행,자신,휴대전화,이용,범행,장면,촬영,혐의,A씨,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,1시간,분가량,혼자,건물,길가,방치,3시,분쯤,행인,발견,병원,3시간,발견,B씨,발견,호흡,맥박,상태,경찰,A씨,살인,혐의,적용,검토,최종적,적용,판단,경찰,A씨,B씨,고의,확인,사건,현장,상황,가정,실험,법리,검토,B씨,추락,직전,위력,흔적,A씨,강제력,사용,증거,확보,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,살인,고의성,부인,B씨,추락,신고,답변,경찰,사건,현장,발견,A씨,휴대전화,범행,영상,확보,혐의,불법,촬영,추가,적용,B씨,추락,촬영,영상,범행,장면,음성,녹음,사건,송치,검찰,사안,중대성,감안,전담팀,구성,인천지검,관계자,여성,아동,범죄,조사부,부부장,검사,팀장,검사실,구성,혐의,철저,수사,예정</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6980,7 +8795,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D364" t="n">
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>추가,불법,촬영,혐의,인하대,가해자,성폭행,촬영,인하대,캠퍼스,성폭력,사망,사건,가해,남학생,구속,상태,검찰,인천,미추홀경찰서,혐의,이날,준강,간치사,구속,인하대,성폭력처벌법,카메라,성폭력,처벌법,이용,촬영,혐의,추가,검찰,송치,경찰,김씨,살인,고의,확인,사건,현장,실험,조사,살인,혐의,적용,판단,결과,사건,인천지검,이날,사안,중대성,감안,검사,여성,아동,범죄,조사부,부부장,팀장,검사실,구성,혐의,철저,수사,예정,살인죄,고의,입증,김씨,경찰,수사,살인,고의,적극,김씨,취지,진술,경찰,부작위,적용,살인,혐의,검토,피해자,구호조치,적용,법리,경찰,증거,판단,김씨,송치,이날,검찰,미추홀서,구호,조치,피해자,유족,취재진,질문,진심,연구위원,윤해성,한국,형사,정책,연구원,위원,부작위,살인,고의범,피해자,생각,성립,부정,양형,위원회,양형기준,준강간치사,강간치사,징역,양형기준,적용,가중,13년,무기,적용,가능,경찰,김씨,휴대전화,발견,영상,파일,토대,불법,촬영,혐의,추가,영상,실체,관심,집중,경찰,적용,제1항,성폭력,처벌법,기계장치,이용,욕망,수치심,유발,사람,신체,촬영대상자,의사,촬영,처벌,규정,미추홀서,망자,피해,영상,성격,함구,경찰관계자,혐의,불법,촬영,적용,신체,촬영,고의,정황,의미,판례,자료,검토,혐의,인정,기소,의견,설명,A씨,이날,의도,범행,장면,촬영,취재진,물음,침묵,강간,치사,입증,고난도,기소,혐의,관심,법조,안팎,기소,단계,김씨,적용,혐의,가능성,경찰,단계,살인,혐의,적용,보강조사,피해자,추락,사실,김씨,구호,조치,현장,정황,진술,윤해성,위원,검찰,혐의,적용,공소장,변경,여지,쟁점,재판,김씨,준강간치사,유죄,인정,재판례,입증,혐의,살인,고의,입증,난제,준강간치사,성폭행,사망,인과,입증,여성,직장,상사,강제추행,아파트,추락사,사건,경찰,준강간치사죄,적용,피의자,송치,검찰,인과관계,입증,준강제추행죄,기소,징역,구형,추행,피해자,사망,사이,인과관계,재판부,구형,징역,선고,2019년,만취,여성,머리,성폭행,방치,남성,징역,선고,준강간치사,송치,행위,사망,사이,인과관계,판단,치사,혐의,무죄,준강간죄,유죄,인정,형사전문변호사,피해자,심신상실상태,이용,폭행,동반,준강간,사망,인과관계,기소,법정,공방</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6998,7 +8818,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D365" t="n">
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,중대,전담,편성,사안,검찰,인하대,캠퍼스,성폭행,추락사,사건,수사,전담팀,인천지검,준강,간치사,성폭력처벌,특례법,카메라,이용,촬영,혐의,구속,송치,인하대,A씨,사건,전담,구성,경찰,이날,사건,검찰,송치,검찰,여성,아동,범죄,조사부,부부장,검사,팀장,검사실,수사팀,구성,검찰,관계자,사안,중대성,감안,피해자,혐의,철저,수사,A씨,살인,고의성,적용,치사죄,검찰,송치,전담팀,살인,고의,여부,수사력,집중,A씨,15일,인천,미추홀구,인하대,캠퍼스,단과대,건물,여학생,학교,또래,B씨,성폭행,혐의,구속,B씨,사건,당일,3시,분쯤,캠퍼스,행인,발견,출혈,구급대,병원,사망,경찰,5층,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,A씨,B씨,마지막,파악,A씨,경찰,조사,B씨,건물,사실,인정,B씨,고의성,부인,경찰,A씨,B씨,건물,고의,가능성,배제,수사,과학수사대,17일,건물,여성,창문,복도,추락,상황,실험,B씨,창틀,건물,외벽,지문,유전자정보,DNA,확보,국립과학수사연구원,정밀,감정,의뢰,결과,경찰,적용,살인,혐의,판단,치사,혐의,적용,만일,추후,검찰,조사,A씨,고의,B씨,건물,혐의,입증,살인,죄명,변경,경찰,사건,현장,발견,A씨,휴대전화,범행,영상,확보,불법,촬영,혐의,추가,영상,음성,녹음</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7016,7 +8841,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D366" t="n">
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,수사,편성,검찰,전담,고의,추락,옥신각신,추락,여부,검찰,인하대,교정,발생,여학생,성폭행,추락,사망,사건,전담,편성,인천지검,준강간치사,성폭력처벌,특례법,카메라,이용,촬영,혐의,구속,사건,이날,경찰,여성,아동,범죄,조사부,부부장,검사,팀장,검사실,구성,검찰,관계자,사안,중대성,감안,구성,혐의,철저,수사,예정,경찰,여성,B씨,마지막,동행인,참고인,신분,조사,결과,범죄,혐의,판단,피의자,신분,전환,긴급체포,경찰,강간치사,혐의,적용,긴급체포,B씨,항거,불능,상태,범행,판단,강간치사,혐의,적용,구속,준강간,단어,강간,사건,무게,처벌,준강간치사죄,심신상실,항거,불능,상태,이용,간음,추행,피해자,사망,적용,유죄,인정,무기,10년,징역형,선고,법조인들,고의,추락사,살인,옥신각신,고의,부정,준강간,치사,영장,청구,A씨,공소장,변경,제도,살인,강간,살인</t>
+        </is>
+      </c>
+      <c r="E366" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7034,7 +8864,12 @@
           <t>내일신문</t>
         </is>
       </c>
-      <c r="D367" t="n">
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>교사,대화고등학교,최승후,칼럼,교육부,대입,공정,강화,방안,일환,대학,수도,소재,대상,지역균형전형,학교장추천전형,학생부위주전형,10%,선발,10%,권고,전형,학교장,전제,학생부교과전형,선발,서울대,지역균형전형,서울교대,사향인재추천전형,경인교대,학교장추천전형,가톨릭대,학교장추천전형,의예,약학,간호,학생부종합전형,선발,2022학년도,전형,신설,대학,2021학년도,학교장추천전형,학생부교과전형,활용,학교장추천전형,전형,모집,학교장,추천,전형,주목,2023학년도,수도권,학교장추천전형,12,875명,대학,선발,대학,동덕여대,삼육대,서경대,신한대,2023학년도,폐지,안양대,용인대,평택대,2023학년도,폐지,한경대,한국공학대,한국산업기술대,한국항공대,한성대,한신대,협성대,대학,33개,교과,100%,선발,이외,면접,서류,포함,선발,학교장추천전형,기준,추천,인원,대학,일정,인원,추천,재적인원,일정,비율,추천기준,적용,추천,인원,제한,대학,일선,고등학교,추천,형평성,지원,허용,1인,대학,대학,추천,가능,제한,경쟁,대학,기준,가톨릭대,세종대,인하대,강남대,단국대,2022학년도,추천,인원,제한,2023학년도,제한,폐지,내신,성적,수시,모집,카드,1장,학교장추천전형,배당,현명,전략,학생부교과전형,2장,카드,사용,코로나,학생,학교활동,강화방안,대입,공정,강화,방안,학생부종합전형,내신,영향력,증대,예측가능성,전형요소,내신,수능,최저,학력,기준,충족,학교장추천전형,2장,카드,인문계,통합,수능,충족률,수능,최저,학력,기준,충족,예상,학교장,추천,전형,지원,도전,모집,학교장추천전형,주목,수험생,선호,대학,수도,소재,선발인원,정도,시행,학년도,입학,결과,공개,전년도,예측가능,지원,가능,번째,지원자,내신,수준,대학,숫자,한계,수능,최저,학력,기준,고려대,학교장,추천,전형,상향지원,선발대학,인원,충원율,대학,경쟁률,수험생,매력적,전형,학령,인구,감소,영향,학교장추천전형,수시,모집,지원,변수,變數,상수,常數,학교장추천전형,학생부교과전형,지원,학교장추천전형,6장,카드,지원,무모,전략,학생부종합전형,배분,중요</t>
+        </is>
+      </c>
+      <c r="E367" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7052,7 +8887,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D368" t="n">
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>인하대,사건,최소,여자,썸싱21,한겨레,뉴스레터,썸싱,구독,http://url.kr/svmp2y/NUrl,인하대,인천,미추홀구,단과,대학,건물,학생,발견,행인,발견,병원,ㄱ씨,건물,추락,추정,계절,학기,시험,동급,휴대전화,근처,발견,경찰,ㄱ씨,성폭행,혐의,준간강치사,ㄴ씨,긴급체포,구속영장,신청,ㄴ씨,7월,구속,사건,7월,언론,보도,사건,자극적,선정적,표현,흥밋거리,보도,며칠,발견,발견,상태,알몸,제목,강조,기사들,온라인,커뮤니티,피해자,신상,가해,게시글들,사건,전형적,여성,살해,사건,페미사이드,여성,라틴어,femina,살인,homicide,합성어,살인사건,서울,강남역,여성,살인,사건,여성들,성폭력,살인,범죄,피해자,구조적,문제점,지적,사건,언론,사회,태도,김다슬,한국여성의,전화,여성,인권,상담소,정책,팀장,사건,공론,문제점,편집자,성폭력,피해,여성,대학교,건물,추락,피해자,대학,재학,가해자,성범죄,혐의,인정,구속,수사,진행,언론,사건,사망사건,인하대,성폭력,사망,사건,인하대,사망,사건,피해자,발견,상황,수사,경과,학교,정부,반응,보도,사건,사회,구성원,반응,한국,사회,여성폭력,민낯,언론,보도,성폭력,사건,기본,민주언론시민연합,7월,기준,보도,언론,자료,선정,표현,사용,언론사,60여,차별,표현,사용,언론사,40여,구체적,언론,피해자,여대생,피해자,발견,상황,선정적,묘사,피해자,발견,장소,혈흔,사진,보도,성폭행,거부,표현,여론,질타,기사,수정,보도윤리,언론,선정,보도,성폭력범죄,보도,기준,한국,협회,국가인권위원회,마련,성폭력,범죄,보도,권고,기준,한국기자협회,여성가족부,제정,성폭력,성희롱,공감기준,사건,보도,공감,기준,실천요강,한국신문윤리위원회,신문,윤리,실천,요강,성폭력범죄,무분별,보도,행태,각종,지침,존재,가부장적,남성중심적,문화,사고방식,사회,보도윤리,성폭력,사건,본질,왜곡,피해자,인권,보장,사회,노력,언론,스스로,먹칠,사건,태도,한국,사회,여성폭력,통념,확인,사건,본질,여성,폭력,폭력,극단,형태,여성살해,혐의,사건,언론,온라인,커뮤니티,반응,피해자,조심,피해자,조심,성폭력,착각,사건,피해자,가해자,피해자,만취,상태,기사,댓글,커뮤니티,각종,온라인,남성,피해자,행동,비난,유발,옷차림,성폭력,원인,피해자,위력,성폭력,사건,스쿨,미투,분야,성폭력,여성들,비난,가해자,정신적,사회,적응,비정상적,사람,시각,여성폭력,특정,개인,왜곡,피해자,가해자,신상정보,몰두,이면,가해자,악마화,시선,경계,사건,여성,폭력,사건,원인,파악,대책,마련,대학,음주문화,주장,가치,교육부,대책,재발,방지,강화,캠퍼스,야간,출입,통제,순찰,폐회로티브이,CCTV,증설,안전,관점,접근,방식,불평등,권력,여성폭력사건,핵심,여성들,여성,폭력범죄,노출,살해,한국여성의전화,여성폭력,여성살해,마련,사회,대책,촉구,언론,보도,여성,살해,사건,통계,2021년,최소,여성,친밀,남성,살해,살해,위험,평균,1명,언론,보도,사건,대상,수치,이해,정확,여성,살해,실태,유엔마약범죄사무소,UNODC,세계,살인범죄,자료,한국,일본,노르웨이,체코,슬로베니아,스위스,포함,비율,여성,살해,피해자,남성,국가,여성폭력,여성,살해,범죄,국가,통계,마련,국가,범죄,사회구성원,보호,인권,보장,국가,기본,책무,피해자,가해자,성별,범죄,발생,검거,수사,사건,처리,결과,유기적,파악,국가,통계,구축,시작,예외,가해자,처벌,피해자,지원,구축,피해,방지,체계,인식개선,여성,폭력,범죄,국가,묵인,정부,정치권,사법부,공범,대통령,지원체계,여성,폭력,피해자,지원,체계,주무부처,여성가족부,폐지,무고죄,처벌,강화,정치권,여성혐오,여성,폭력,사건,정쟁,도구,여성,폭력,살해,진짜,외면,정부,대책,사법부,학내,성폭력,사건,가해자,장래,걱정,양형,반영,여성,폭력,범죄,해결,여자,살인사건,강남역,살인,사건,외침,사건,인하대,유효,김다슬,한국여성의,전화,여성,인권,상담소,정책,팀장</t>
+        </is>
+      </c>
+      <c r="E368" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7070,7 +8910,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D369" t="n">
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>추락,적용,인하대,가해자,살인죄,추락사,인하대,성폭행,사건,피의자,살인죄,준강간치사,위반,성폭력,처벌법,카메라,이용,촬영,혐의,적용,인천,미추홀경찰서,1학년,인하대,혐의,검찰,송치,21일,A씨,15일,5층,인천,용현동,인하대,교내,단과대,건물,동급생,성폭행,건물,추락,혐의,B씨,당일,단과대,건물,발견,119구급대,병원,발견,호흡,발견,맥박,상태,머리,심정지,상태,A씨,B씨,건물,장소,자취방,당일,경찰,체포,A씨,범행,현장,자신,휴대전화,덜미,경찰,A씨,준강,간치사,혐의,적용,구속,수사,살인,고의성,확인,죄명,살인죄,변경,방침,살인,고의성,입증,고의성,적용,치사죄,적용,A씨,경찰,조사,B씨,고의,진술,경찰,A씨,사건,현장,휴대폰,범행,영상,확보,카메라,혐의,이용,촬영,추가,적용,영상,장면,범행,음성,녹음,A씨,이날,검찰,송치,피해자,유족,취재진,질문,진심,호송차,인하대,A씨,단과대학장,A씨,징계,의뢰,징계,절차,착수,학칙,징계,규정,A씨,근신,유기정학,무기정학,퇴학,징계,퇴학,유력,퇴학,조치,A씨,소속,심의,대학,상벌,위원회,학장,제청,학생,상벌,위원회,의결,총장,처분</t>
+        </is>
+      </c>
+      <c r="E369" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7088,7 +8933,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D370" t="n">
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>인하대,추락사,송치,가해자,살인죄,적용,검찰,캠퍼스,인천,인하대,여학생,성폭행,추락,가해자,검찰,사건,수사,경찰,살인,고의,증명,살인죄,치사죄,적용,불법,촬영,혐의,추가,적용,인천,미추홀경찰서,준강,간치사,성폭력범죄,처벌,특례법,카메라,혐의,이용,촬영,인하대,검찰,송치,경찰,이달,인천,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,피해자,피해자,성폭행,건물,추락,자신,휴대전화,범행,장면,불법,촬영,혐의,촬영,영상,범행,장면,음성,녹음,경찰,추락,살인,혐의,적용,검토,살인,혐의,적용,판단,경찰,건물,고의,확인,상황,가정,실험,고의성,발견,설명,경찰,15일,단과대,건물,건물,입구,상태,행인,발견,성폭행,건물,추락,반가량,거리,추락,신고,건물,파악,장소,자취방,당일,경찰,체포,발견,호흡,맥박,반응,7시,인근,병원,치료,22일,검찰,송치,경찰서,구호,조치,피해자,유족,취재진,질문,피해자,유족,진심,혐의,인정,질문,경찰,관계자,범행,시각,추락,시각,특정,추락,파악</t>
+        </is>
+      </c>
+      <c r="E370" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7106,7 +8956,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D371" t="n">
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>한성우,교수,맏물,끝물,고추,수확,한창,고추,수확,고추잠자리,하늘,가을,풋고추,한창,작물,풋고추,유래,풀색,고추,나름,쓸모,풀색,풋고추,고추,가을,한여름,초가을,햇볕,매운맛,고추,농부,맏물,맏물,맏이,자식,고추,맏물,차례,수확,시작,희아리,끝물,끝물,마지막,맏물,끝물,원래,모습,명사,명사,오늘날,과거,명사,오늘날,첫머리,자리,요즘,사람,감각,맏물,첫물,고추가,선사,매운맛,맏맛,입술,순간,첫맛,매운맛,만일,끝맛,재료,음식,고춧가루,음식,문화,건강,풋고추,맏맛,끝맛,정도,매운맛,풋고추,고추,매운맛,입맛,교수,인하대,한국어,문학</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7124,7 +8979,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D372" t="n">
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>떡볶이,2만,배달,선언,자취생,방문,포장,매장,식사,배달,8년,이제준,서울,자취,생활,떡볶이,배달,음식,배달비,2만,충격,요즘,마트,재료,요리,평소,요리,생활비,부담,결정,지방,서울,대학생활,윤현상,배달비,음식점,방문,포장,친구들,주변,친구,분위기,설명,물가,배달비,부담,음식,배달,선언,자취생,배달,대행,업계,평균,대행료,수도,배달,수준,하락,배달,이용,직결,모습,빅데이터,빅데이터,플랫폼,모바일,인덱스,배달,민족,요기요,쿠팡이츠,배달,이용자,3200만,100만,전달,대비,자영업자들,고물가,배달비,인상,어려움,호소,경기,성남시,치킨집,운영,김영진,배달,플랫폼,이용,치킨,후라이드,마리,배달비,1만,6000원,배달,플랫폼,기본,배달료,중개,수수료,405원,카드,결제,수수료,부가세,재료비,인건비,사실,이익,배달,서비스,고민,토로,이은희,인하대,소비자학,교수,배달비,노력,대표적,지출,자취생,음식,조리,포장,방향,저항감,표출</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7142,7 +9002,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D373" t="n">
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>성폭행,추락사,남학생,살인죄,적용,검찰,범행,영상,확보,적용,불법,촬영,혐의,추가,경찰,인하대,교정,여학생,성폭행,남학생,살인죄,적용,사건,검찰,인천,미추홀경찰서,준강,간치사,혐의,구속,인하대생,성폭력범죄,처벌,특례법,카메라,혐의,이용,촬영,추가,검찰,송치,22일,치사죄,살인,고의성,적용,경찰,A씨,살인,혐의,적용,방안,검토,B씨,추락,직전,위력,흔적,A씨,강제력,사용,증거,확보,A씨,검찰,송치,경찰서,혐의,인정,취재진,물음,피해자,추락,구호,조치,질문,진심,A씨,15일,인천,미추홀구,인하대,교정,5층,단과,대학,건물,또래,학생,B씨,성폭행,3층,추락,혐의,B씨,자신,휴대전화,이용,범행,장면,촬영,혐의,A씨,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,가량,혼자,건물,길가,방치,행인,신고,119구조대,병원,3시간,발견,B씨,발견,호흡,맥박,상태,B씨,추락,신고,답변,경찰,사건,현장,발견,A씨,휴대전화,범행,영상,확보,혐의,불법,촬영,추가,적용,경찰,관계자,검찰,수사,재판,피의자,대비,구체적</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7160,7 +9025,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D374" t="n">
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>여야,상임,위원장,선출,법사위,김도읍,행안위,이채익,과방위,정청래,사진,전송시간,기준,한눈,파악,실시간,업데이트,선출,5:00,여야,상임,위원장,법사위,김도읍,행안위,이채익,국회,과방위,정청래,본회의,위원장,상임,위원회,선출,국민,상임,위원장,운영위,권성동,법사위,김도읍,기재위,외통위,윤재옥,국방위,이헌승,행안위,이채익,정보위,의원,선출,더불어민주당,더불어민주당,상임,위원장,정무위,백혜련,교육위,유기홍,과방위,정청래,문체위,홍익표,농해,수위,소병훈,산자위,윤관석,복지위,정춘숙,환노위,전해철,국토위,김민기,여가위,권인숙,의원,예결위,우원식,선출,51일,4:30,대우조선해양,하청,노사,협상,노사협상,타결,대우조선해양,하청,노사,협상,극적,타결,옥포조선소,경남,거제시,대우조선해양,협력사,대표,대표,권수오,녹산,기업,왼쪽,부위원장,홍지욱,금속,노조,조합원,거제통영고성,조선하청,지회,51일,파업,현장,복귀,31일,1독,선박건조장,원유,운반선,VLCC,점거,농성,마무리,4:00,더위,잠수,전국,막바지,장맛,소나기,무더위,각지,전국,시민들,저마다,방법,더위,대서,大暑,토요일,23일,전국,소나기,전망,전북,동부,내륙,경상,서부,소나기,서해안,시작,밤사이,수도,충청도,지역,전라도,서쪽,확대,기상청,예보,예상,강수량,50mm,전국,최저기온,전국,최저,기온,23도,최고기온,30도,예보,중단,3:40,출고,주류,박스,민주,노총,공공,운수,노조,화물,연대,본부,소속,조합원,운송료,인상,요구,농성,22일,경기도,이천시,하이트진로,이천,공장,출고,제품,하이트진로,이날,이천공장,이틀간,이천,공장,생산,참이슬,진로,소주,제품,출고,중단,하이트진로,화물연대본부,민주,노총,공공,운수,노조,화물,연대,본부,3시,규모,집회,예고,상황,안전,이틀간,출고,중단,이날,3:00,대우조선,지회,금속,노조,탈퇴,탈퇴,찬반,투표,개표,대회실,노조원,경남,거제시,대우조선해양,원청,노조,노조원들,대우조선지회,투표,민주,노총,전국,금속,노조,탈퇴,찬반,개표,진행,대우조선지회,21일,이날,1시,탈퇴,민주,노총,금속,노조,찬반,투표,진행,조합원,투표,투표,89.4%,기록,투표자,3분,찬성,금속,노조,탈퇴,안건,가결,2:30,MZ,세대,그라운드,한국관광,홍보관,하이커,개관,서울,중구,한국관광공사,서울,센터,마련,한국관광,홍보관,하이커,그라운드,시민들,콘텐츠,체험,문화체육관광부,한국관광공사,규모,지상,한국,관광,홍보관,하이커,그라운드,HiKR,Ground,서울,중구,청계천로,관광공사,서울,센터,개관,20일,하이커그라운드,MZ세대,1980~2000년대,출생,세대,겨냥,인기,콘텐츠,한국,관광,스마트기술,한류,아트,분야,접목,제공,2:00,물장구,어린이들,이색,독서법,절기,대서,하루,물놀이장,서울,송파구,성내천,어린이들,물놀이,송파구,24일,작은도서관,성내천,워터파크,운영,도심,1:30,대구,등장,22일,이준석,대표,응원,광고판,범어네거리,대구,수성구,범어네,거리,전광판,빌딩,옥상,이준석,국민,대표,응원,광고,영상,송출,하청노동자,1:00,대우조선,하청,노동자,평화,해결,서울,도심,오체투지,스님,대한불교,조계종,사회,노동,위원회,관계자,22일,서울,시내,대우조선해양,하청,업체,노조,파업,노사,협상,자제,공권력,투입,촉구,오체투지,五體投地,행진,조계종,사회,노동,위원회,소속,승려,사회,활동가,10여명,이날,서울역,출구,대통령,집무실,맞은편,용산,청사,2.4,구간,도로,온몸,땅바닥,큰절,오체투지,조계종,사노위,위원장,지몽스,오체투지,사회,약자,정규,노동자,목소리,대타협,촉구,노동자들,대우조선해양,하청지회,노동자,지난달,옥포조선소,경남,거제,코로나19,사태,임금,원상회복,노조,활동,인정,요구,파업,항몽유적지,11:15,애월읍,항몽,유적지,백일홍,22일,제주시,애월읍,고성리,항몽,유적지,백일홍꽃,방문객,눈길,22일,전국,구름,영동,강원,제주도,제외,지역,소나기,예상,강수량,강원,영동,강원,영서,울릉도,독도,수도권,경기,북부,동부,제외,0.1,충청,북부,0.1,미만,최저,23도,최고기온,32도,예보,바다,물결,동해,앞바다,0.5,2.0,서해,남해,앞바다,0.5,1.0,53일,11:00,여야,국회,국회,구성,합의,상임위,배분,여야,22일,국회,구성,협상,타결,국민의힘,권성동,대표,직무,대행,원내,대표,원내대표,더불어민주당,박홍근,원내,대표,이날,김진표,국회,의장,주재,회동,국회,구성안,국회,구성,합의,5월,국회,임기,상태,국회,공백,최대,쟁점,상임,위원회,배분,국민,국회운영,법제사법,국방,외교통일,정보,행정안전,기획재정위원회,7곳,위원장,더불어민주당,정무,교육,과학기술정보방송통신,문화체육관광,농림축산식품해양수산,산업통상자원중소벤처기업,보건복지,환경노동,국토교통,여성가족,예산결산특별위원회,11곳,막판,쟁점,여야,핵심,부상,과방위,행안위,여야,1년,10:00,창경궁,종묘,연결,개방,복원,공간,서울시,일제,창경궁,종묘,90년,연결,시민,개방,원래,종묘,창경궁,담장,사이,일제,종묘관통,도로,율곡로,단절,서울시,율곡로,지하화,가량,녹지,녹지,참나무,소나무,귀룽나무,국수나무,진달래,수종,고유,6만,9:20,코로나19,신규,확진자,중앙방역대책본부,기준,신종,코로나바이러스,감염증,코로나19,신규,확진자,6만,누적,감염경로,발생,해외유입,323명,사망자,증가,위중증,환자,130명,8:20,인하대,성폭행,가해자,준강간치사,검찰,구속,송치,인하대,캠퍼스,여학생,성폭행,추락,혐의,남학생,검찰,송치,경찰서,인천,미추홀,이날,남학생,준강간치사,성폭력,범죄,처벌,특례법,위반,카메라,이용,촬영,혐의,인천지검,구속,송치,경찰,A씨,고의,B씨,건물,여부,수사,살인,혐의,적용,판단,살인,고의성,적</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7178,7 +9048,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D375" t="n">
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>인하대,성폭,행범,피해자,불법,촬영,혐의,추가,검찰,송치,인하대,교정,사건,성폭행,사망,피의자,검찰,인천,미추홀경찰서,준강간치사,성폭력범죄,처벌,특례법,위반,카메라,이용,촬영,혐의,적용,사건,검찰,송치,ㄱ씨,15일,인하대,단과,대학,건물,동급생,성폭행,높이,혐의,자신,휴대전화,이용,상황,불법,촬영,혐의,경찰,준강,간치사,혐의,적용,구속영장,신청,법원,도주,증거인멸,영장,구속,발부,ㄱ씨,구속,상태,수사,경찰,ㄱ씨,의사,심신상실,항거,불능,상태,피해자,성폭행,결과적,죽음,판단,강간,혐의,적용,폭행,협박,폐회로티브이,대학,ㄱ씨,ㄴ씨,부축,사건,발생,단과,대학,건물,모습,경찰,수사,치사,혐의,살인,검토,ㄱ씨,살인,고의성,인정,적용,경찰,ㄴ씨,고의,확인,사건,현장,실험,진행,확인,ㄱ씨,경찰,조사,살인,고의성,부인,ㄴ씨,취지,진술,검찰,ㄱ씨,부작위,살인,혐의,적용,가능성,경찰,부작위,살인,수사,보고서,포함,파악,혐의,적용,양형,사안,경찰,관계자,추락,ㄱ씨,구호,조치,현장,부작위,살인,수사,기록,법률적,영역,여지,설명,선임연구위원,윤해성,한국,형사,정책,연구원,선임,위원,부작위,살인,고의,미필,고의,고의성,경찰,ㄱ씨,고의성,판단,부담,경찰,사건,현장,발견,ㄱ씨,휴대전화,범행,영상,확보,불법,촬영,혐의,추가,적용,영상,범행,장면,음성,녹음,파악</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7196,7 +9071,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D376" t="n">
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,가해,남학생,송치,불법촬영,혐의,추가,인하대학교,캠퍼스,동급생,성폭행,추락,혐의,구속,남학생,혐의,불법,촬영,추가,검찰,인천,미추홀경찰서,혐의,준강,간치사,구속,남성,성폭력범죄,처벌,특례법,카메라,혐의,이용,촬영,추가,검찰,송치,이날,8시,검찰,송치,미추홀경찰서,모습,검은색,후드,집업,모자,마스크,착용,상태,혐의,인정,의도,촬영,취재진,질문,구호,조치,질문,피해자,유족,피해자,유족들,진심,호송차,경찰,자료,객관,증거,토대,범죄,혐의,다각적,수사,진행,강간치사,혐의,송치,피해자,유족,심리지원,피해자,보호,사건관계인,신상털이,피해자,피해,명예훼손,사건관계인,신상정보,확인,유포,자제,당부,15일,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,여성,성폭행,3층,추락,혐의,추락,건물,길가,방치,당일,행인,발견,호흡,맥박,상태,심폐소생술,CPR,응급처치,병원,범행,현장,범행,자신,휴대전화,옷가지,주거지,은신,폐쇄회로,CC,TV,휴대폰,추적,경찰,검거,경찰,참고인,신분,조사,범죄,혐의,판단,피의자,신분,전환,긴급체포,경찰,조사,건물,사망,사실,인정,살인,고의성,부인,경찰,고의,확인,사건,현장,상황,가정,실험,법리,검토,살인,혐의,적용,판단,경찰,사건,현장,발견,휴대전화,범행,영상,확보,혐의,불법,촬영,추가,적용,추락,촬영,영상,범행,장면,음성,녹음</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7214,7 +9094,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D377" t="n">
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>성폭행,추락사,남학생,송치,살인죄,적용,인하대,캠퍼스,여학생,성폭행,추락사,사건,수사,경찰,남학생,가해,살인,고의성,적용,치사죄,검찰,송치,인천,미추홀경찰서,혐의,이날,준강,간치사,구속,인하대,성폭력범죄,처벌,특례법,카메라,혐의,이용,촬영,추가,검찰,송치,인하대,캠퍼스,동급생,성폭행,가해자,검찰,송치,미추홀경찰서,인천,검찰,송치,경찰서,혐의,인정,의도,범행,장면,촬영,취재진,물음,피해자,추락,구호,조치,피해자,유족,질문,진심,A씨,새벽,시간,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,B씨,여성,성폭행,3층,추락,혐의,B씨,자신,휴대전화,이용,범행,장면,촬영,혐의,A씨,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,가량,혼자,건물,길가,방치,행인,발견,병원,3시간,발견,호흡,맥박,상태,파악,캠퍼스,인천시,미추홀구,인하대,여학생,사망,발견,지점,인근,건물,계단,폴리스라인,설치,경찰,사실,토대,A씨,살인,혐의,적용,검토,A씨,B씨,고의,확인,사건,현장,상황,가정,실험,법리,검토,살인,혐의,적용,판단,경찰,B씨,추락,직전,위력,흔적,A씨,강제력,사용,증거,확보,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,살인,고의성,부인,B씨,추락,신고,답변,경찰,수사,B씨,추락,구체적,경위,파악,공개,경찰,사건,현장,발견,A씨,휴대전화,범행,영상,확보,혐의,불법,촬영,추가,적용,B씨,추락,촬영,영상,범행,장면,음성,녹음,경찰,관계자,검찰,수사,재판,피의자,대비,구체적,카메라,이용촬영죄,음성,녹음,적용,의견,법률,전문가,판례,참고</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7232,7 +9117,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D378" t="n">
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>경찰,인하대,사건,송치,남학생,검찰,인하대,캠퍼스,동급생,성폭행,가해자,검찰,송치,미추홀경찰서,인천,성폭행,인하대학교,사망,사건,수사,경찰,남학생,준강,간치사,혐의,적용,검찰,송치,미추홀경찰서,인천,이날,인하대,준강간치사,성폭력범죄,처벌,특례법,카메라,혐의,이용,촬영,검찰,송치,A씨,혐의,준강,간치사,적용,B씨,성폭행,자신,휴대전화,이용,범행,장면,촬영,혐의,추가,영상,범행,장면,음성,녹음,조사,A씨,15일,2시,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,동급생,B씨,여성,성폭행,3층,추락,혐의,건물,추락,B씨,가량,혼자,건물,길가,방치,당일,시민,발견,병원,3시간,B씨,발견,호흡,발견,맥박,경찰,A씨,B씨,건물,가능성,살인,혐의,적용,적용,혐의,판단,A씨,경찰조사,B씨,건물,추락,사망,사실,인정,A씨,사실,살인,고의성,부인,창문,1층,A씨,추락,장소,자취방</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7250,7 +9140,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D379" t="n">
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,가해자,송치,가해자,카메라,촬영,추가,살인혐의,적용,안돼,인하대,캠퍼스,동급생,성폭행,추락,혐의,준강간치사,구속,남성,카메라등이용촬영죄,추가,검찰,인천미추홀경찰서,혐의,준강,간치사,구속,A씨,남성,준강간치사,성폭력처벌등,특례법상,카메라등,이용,촬영,혐의,검찰,송치,이날,8시,검찰,경찰서,모습,혐의,인정,의도,촬영,질문,구호조치,질문,피해자,유족,취재진,질문,피해자,유족,진심,호송차,경찰,조사,결과,단과대학,동급,여성,성폭행,추락,확인,범행,B씨,범행,촬영,혐의,추가,파악,경찰,A씨,범행,B씨,범행,추락,살인,고의,직접적,행위,여부,수사,성폭행,살인,고의,판단,최종,준강,간치사죄,적용,검찰,송치,A씨,15일,1시,인천시,미추홀구,인하대,캠퍼스,3층,단과,대학,건물,동급생,B씨,성폭행,추락,혐의,A씨,이날,행인,건물,노상,B씨,발견,신고,당일,주거지,무렵,검거,A씨,조사,결과,범행,B씨,만취,B씨,대학,건물,범행,확인,A씨,범행,현장,범행,휴대전화,주거지,은신,폐쇄회로,CC,TV,휴대폰,추적,경찰,검거</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7268,7 +9163,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D380" t="n">
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,송치,가해자,검찰,살인,못해,혐의,적용,확인,남학생,휴대폰,음성,불법촬영,혐의,추가,인천,대학,캠퍼스,여학생,성폭행,추락,사망,혐의,남학생,검찰,인천,미추홀경찰서,준강간치사,성폭력범죄,처벌,특례법,위반,카메라,이용촬영,혐의,구속,20대,검찰,송치,22일,15일,2시,인천,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,여성,성폭행,3층,추락,혐의,성폭행,자신,휴대전화,이용,범행,장면,촬영,혐의,창문,복도,1층,추락,장소,자취방,당일,경찰,체포,추락,가량,혼자,건물,길가,방치,당일,행인,발견,병원,3시간,발견,호흡,맥박,상태,경찰,사실,토대,살인,혐의,적용,검토,고의,확인,사건,현장,상황,가정,실험,법리,검토,살인,혐의,적용,판단,경찰,조사,건물,사망,사실,인정,살인,고의성,부인,경찰,사건,현장,발견,휴대전화,범행,영상,확보,불법,촬영,혐의,추가,적용,영상,범행,장면,음성,녹음,경찰,관계자,살인죄,적용,검찰,수사,재판,피의자,대비</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7286,7 +9186,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D381" t="n">
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,송치,피의자,구속,살인죄,적용,안해,준강간치사,카메라,피해자,이용,촬영,혐의,적용,가해자,유족,진심,인천지검,검사실,전담,수사,구성,추락사,인하대,성폭행,사건,수사,경찰,피의자,성폭력,범죄,처벌,혐의,특례법,위반,추가,적용,검찰,인천,미추홀경찰서,1학년,인하대,준강간치사,위반,성폭력,처벌법,카메라,이용,촬영,혐의,검찰,송치,A씨,15일,5층,인천,용현동,인하대,교내,단과대,건물,동급생,성폭행,건물,추락,혐의,B씨,당일,단과대,건물,발견,119구급대,병원,발견,발견,머리,A씨,B씨,건물,장소,자취방,당일,경찰,체포,경찰,B씨,준강,간치사,혐의,적용,구속,수사,살인,고의성,확인,죄명,살인죄,변경,방침,살인,고의성,입증,고의성,적용,치사죄,적용,A씨,경찰,조사,B씨,고의,진술,살인,고의성,부인,경찰,A씨,사건,현장,휴대폰,범행,영상,확보,카메라,혐의,이용,촬영,추가,적용,영상,장면,범행,음성,녹음,A씨,이날,검찰,송치,피해자,유족,취재진,질문,진심,호송차,경찰,관계자,객관,증거,자료,토대,범죄,혐의,다각,수사,진행,송치,피해자,유족,심리,지원,피해자,보호,인천지검,경찰,사건,여성,아동범죄조사부,배당,검찰,관계자,사안,중대성,감안,부부장,팀장,검사,참여,전담수사팀,구성,혐의,철저,수사,예정,인하대,A씨,소속,대학장,A씨,징계,의뢰,징계,절차,착수,제50조,인하대,학칙,징계,근신,유기정학,무기정학,퇴학,4가지,A씨,퇴학,조치,가능성,퇴학,소속,대학,상벌,위원회,심의,학장,제청,학생,상벌위,의결,총장,처분,징계,퇴학,재입학,허가</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7304,7 +9209,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D382" t="n">
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>인하대,성폭,행범,살인죄,적용,준강간치사,송치,인하대,캠퍼스,여학생,성폭행,추락,혐의,남학생,검찰,송치,인천,미추홀경찰서,남학생,가해,남학생,준강간치사,성폭력,범죄,처벌,특례법,위반,카메라,이용,촬영,혐의,인천지검,구속,송치,A씨,15일,2시,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,동급,여성,성폭행,3층,추락,혐의,경찰,A씨,고의,B씨,건물,여부,수사,살인,혐의,적용,판단,살인,고의성,적용,치사죄,검찰,송치,경찰,사건,현장,발견,A씨,휴대전화,범행,영상,확보,불법,촬영,혐의,추가,적용,영상,범행,장면,음성,녹음,A씨,B씨,추락,B씨,교내,장소,자취방,당일,경찰,체포,B씨,추락,가량,건물,방치,당일,행인,발견,병원,7시,사망</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7322,7 +9232,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D383" t="n">
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>인하대,가해자,살인,송치,피해자,추가,불법,촬영,혐의,경찰,적용,살인,혐의,판단,인하대,캠퍼스,여학생,성폭행,추락사,사건,가해,남학생,살인,고의성,적용,치사죄,검찰,송치,인천,미추홀경찰서,준강,간치사,혐의,구속,인하대,A씨,성폭력범죄,처벌,특례법,카메라,혐의,이용,촬영,추가,검찰,송치,22일,A씨,이날,8시,미추홀경찰서,검찰,송치,혐의,인정,구호,조치,의도,촬영,취재진,질문,피해자,유족,질문,피해자,유족들,진심,호송차,경찰,A씨,15일,2시,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,B씨,여성,성폭행,3층,추락,혐의,B씨,성폭행,자신,휴대전화,이용,범행,장면,촬영,혐의,A씨,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,추락,1시간,분가량,혼자,건물,길가,방치,당일,3시,분쯤,행인,발견,병원,3시간,발견,호흡,맥박,상태,경찰,사실,토대,A씨,살인,혐의,적용,검토,A씨,B씨,고의,확인,사건,현장,상황,가정,실험,법리,검토,살인,혐의,적용,판단,A씨,경찰,조사,B씨,성폭행,건물,사망,사실,인정,B씨,살인,고의성,부인,경찰,사건,현장,발견,A씨,휴대전화,범행,영상,확보,불법,촬영,혐의,추가,적용,영상,범행,장면,음성,녹음,경찰,관계자,살인죄,적용,검찰,수사,재판,피의자,대비</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7340,7 +9255,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D384" t="n">
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>슈퍼,감세,후폭풍,209조,국정,조정,긴축,포기냐,정부,세제,개편안,감세,건전재정,국정과제,달성,시험대,정부,나라,살림,살이,기획재정부,21일,개편안,세제,감세,기조,공식화,윤석열,정부,나라,살림살이,시험대,수입원,국가,운영,세금,상황,나랏빚,국가채무,최소,원칙,연간,국정,달성,지적,13.7조,세수,감소,MB,슈퍼,감세,기재부,세제,개편,세수,감소액,전년,대비,000억,000억,예상,2년,나라,살림,사용,세금,13조,000억,의미,출범,이명박,정부,출범,2008년,최대,최고,세율,인하,상향,과세,표준,구간,법인세,감소액,소득세,예상,2년,7조,4조,윤석열,정부,대기업,자산가,소득자,증세,바탕,확장,재정,추구,문재인,정부,감세,긴축,재정,패키지,나랏돈,긴축,재정,감세,정책,조합,국정과제,윤석열,정부,집권,기초,연금,40만,지급,상향,병사,봉급,단계,인상,청년,도약,계좌,신설,부모,급여,국정과제,209조,추계,재원,사업,예산,20조,지출,구조,조정,경제,성장,세수,자연,증가,충당,계획,세수,정부,구상,일리,수입,실제,국세,344조,100조,사이,연평균,증가,세제,개편,궤도,수정,20조,당장,세수,자연,증가,내년,세수,감소,000억,대입,세금,수입,13조,000억,예상,경기,세수,경기,악화,기업,소상공인,매출,타격,세금,기재부,경제,성장,전망,3.1%,지난달,2.6%,도달,관측,경기,세금,수도,문재인,정부,재정개혁특별위원장,강병구,인하대,경제학부,교수,스태그플레이션,물가,경기,불황,동시,발생,상황,경제,성장,세수,자동,증가,대기업,세금,위기,재정,여력,확보,기재부,관계자,내년,기준,6조,세수,감소,확대,세입,감내,수준,감세,기업,투자,세수,확대,반박,초점,기재부,공개,내년도,예산안,예산안,세트,세제,개편,세금,토대,나랏돈,국정과제,차질,반대,긴축,재정,추진,차원,재원,마련,국채,발행,윤석열,정부,공언,재정건전성,김우철,서울시립대,세무학과,교수,예상,초월,감세,국정과제,반영,수립,내년도,예산안,난도,감소,결국,세수,만회,지출,구조,조정,지적</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7358,7 +9278,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D385" t="n">
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>녹색,상생,소비자,경영,경영대상,K-ESG,경영,대상,지속가능,지구,ESG,진심,선정,기업,환경,사회적,책임감,밑바탕,기아,BGF리테일,종합,재킷,DON,BUY,JACKET,25일,뉴욕타임스,NYT,광고,1년,제품,블랙프라이데,대문자,메시지,미국,파타고니아,아웃도어,브랜드,광고,문구,환경,파괴,재킷,생각,의미,파타고니아,환경,자연,진정성,브랜드,수익성,사회,가치,상극,성공,ESG,환경,사회,지배구조,정석,이봉,쉬나르,파타고니아,창업가,지구,사업,기업들,파타고니아,환경,Environment,사회,책임,Society,지배구조,Governance,글자,ESG,경영,성장,생존,열쇠,부상,세계,산업,확산,ESG,경영,기업,자발,캠페인,기업,지속가능성,결정,심판대,세계,기관,투자가,은행들,ESG,위기,관리,요구,ESG,기준,준수,거래,대상,배제,위기감,까닭,과거,수익,가치,평가,기업,재무,요소,입체적,평가,기후,변화,흐름,속도,조금,기회,모래시계,얼마,투자자,일반,소비자,위기,인식,지구,기업,지난달,한국투자증권,진행,설문,10명,소비자,6명,기업,ESG,활동,제품,구매,영향,응답,기후위기,사회,책임,소비자,매출,영향,동아일보,지속적,활동,ESG,경영,사회,책임,기업,기관,사례,취지,경영대상,K-ESG,경영,대상,시상,평가위원회,동아일보,K-ESG,평가,위원회,주최,산업통상자원부,환경부,고용노동부,과학기술정보통신부,중소벤처기업부,여성가족부,공정거래위원회,동반성장위원회,후원,22일,시상식,중요성,환경,ESG,경영,기업,기관,사회,역할,재조명,사회,구성원,소비자,가치,공유,모범적,ESG,경영,제시,제정,심사,산업통상자원부,투명,객관적,K-ESG,지표,바탕,환경,경영,창출,사회,가치,확보,지배,구조,건전,분야,진행,토대,모범적,ESG,경영,실천,지속,가능,확산,경영,문화,기여,후보군,선정,기업,공공기관,응모,기관,포상,결격,사유,조사,심사,유창조,동국대,한상만,성균관대,김상훈,인하대,교수,권위,인사,사업전략팀,동아일보,미래,전략,연구소,사업,전략,구성,심사위원회,서류심사,최종심사,공정,심사,기업,기관,선정,경영대상,K-ESG,경영,대상,최종,심사,결과,전동,전환,가속,EV,기업,변신,선포,기아,CU,편의점,업계,운영,BGF리테일,영예,종합대상,차지,환경,탄소,중립,기업,친환경적,방식,원료,제품,생산,기업,사회,분야,업종,특성,반영,사회공헌활동,지속,기업,지배구조,이사회,다양성,전문성,윤리,준법경영,건전성,투명성,강화,기업들,강세,모델,협력,ESG,지속가능,미래,경영,전략,심사평,유창조,동국대,경영학,교수,ESG,시대,포스트,코로나,세계,기업,생존,성장,핵심,요소,기업,지속,가능,담보,경영전략,부상,과거,주주,자본주의,시대,기업,주주,극대화,이윤,창출,극대,경제,성과,초점,첨단기술,등장,지속,가능,발전,강조,시대,이해관계자,자본주의,기업,경제,성과,사회적,해결,환경,가치,보존,방향,진화,시점,동아일보,K-ESG,지표,바탕,환경,경영,창출,사회,가치,확보,지배,구조,건전,평가,지속,가능,확산,경영,문화,기여,기업,선정,우수사례집,발간,대한민국,기업,성장,지속,가능,기여,투자자,요구,본격화,시작,ESG,자금,조달,글로벌,경영,실질적,경영,활동,전반,영향,기업들,시대,흐름,부응,ESG,경영,구축,기업,기업,자체,ESG,활동,노력,전사적,개방적,정비,개방,부족,상황,시점,필자,기업,미래지향적,ESG,경영,협력,모델,제안,협력,모델,가지,기업,고객,참여,유도,ESG,활동,전개,영향력,활동,지속,가능,확보,윤리적,환경,가치,중시,소비자,MZ세대,자신,소신,표현,가치,자발,참여,BTS,청년,메시지,매료,아미,군단,테슬라,최고경영자,CEO,일론,머스크,환경,가치,공감,TOG,테슬라,오너스,그룹,브랜드,주인의식,활동,자발적,쓰레기,수거,BAC,Blackyak,Alpine,Club,미래,경영,전략,핵심,소비자,시장,무대,주인공,초대,능력,기업,이해관계자,가치,중심,네트워크,구성,소비자,완성도,가치,기업,가치,중심,이해관계자,공급사,유통사,정부,지자체,시민단체,협력,제품,서비스,완성도,시장,개척,경쟁사,협력,도모,급변,경영환경,대처,개방,경영,혁신,시점,동아일보,마련,K-ESG,경영,대상,수상사,선정,기업,축하,감사,마음,수상사들,공적,타사,지표,대한민국,지속가능,발전,초석,우리나라,기업,ESG,활동,걸음마,단계,우수,기업들,선정,활동,전파,지속,가능,사회,기업문화,정착,기업,대한민국,기여,선봉장</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7376,7 +9301,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D386" t="n">
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>개발호재,물량,경기,지역노른자위,개발호재,지역,실수요,투자수요,관심,교통망,개선,산업,단지,조성,개발호재,정주여건,개선,집값,상승곡선,분양시장,미래가치,단지,호재,수혜,주목,경기도,김포시,대우건설,풍무역,주거,오피스텔,시티,분양,풍무동,풍무,지구,지하,지상,10층,67,전용,면적,규모,풍무역,김포,골드라인,도보,거리,역세,단지,주변,풍무역,세권,도시,사업,인하대,김포메디컬,캠퍼스,한강시네폴리스,개발호재,경기도,고양시,덕양구,성사동,8번지,원당4구역,일대,롯데건설,스카이엘,원당역,롯데캐슬,분양,지하,지상,36층,11개,전용,면적,35~84,1236가구,고양,평선,추진,식사트램,추진,교외선,예정,계획,고양시청역,추진,국가,시범,지구,선정,성사혁신지구사업,진행,경기도,평택시,포승읍,만호리,평택항,인근,골드랜드제이앤제이,시행,오션센트럴비즈,공급,지하,지상,40층,연면적,24만,규모,제조형,섹션형,스마트형,공장,근린생활시설,구성,시공,대우건설,인근,서해선,복선,전철,안중역,예정,포승평택선,예정,교통망,개통,삼부토건,세교동,경기도,평택시,4번지,일원,주거,오피스텔,지제역,삼부르네상스,이달,분양,예정,지하,지상,10층,전용,면적,47~59,180실,단지,평택세교지구,주변,지제세교,영신,모산,영신,지구,다수,도시,사업,진행</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7394,7 +9324,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D387" t="n">
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>인천,여성,이행숙,문화,복지,정무,부시장,취임,인천시,여성,부시장,이행숙,문화,복지,정무,부시장,취임,인천시,8기,민선,정무부시장,문화복지정무부시장,취임,인천시의회,정무부시장,인사간담회,인하대학교,대학원,박사,정무부시장,이사장,인천,서구,시설,관리,공단,청운대학교,겸임,교수,국민,인천시당,서구,당협위원장,한국미래정책연구원,원장,위원,민선,유정복,인천,시장,인수,위원회,역임,정무부시장,인천시,청년,여성,복지,문화,체육,관광,소통분야,업무,총괄,정무부시장,취임사,유정복,시장,추진,시민,행복,인천,세계,일류,도시,역량</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7412,7 +9347,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D388" t="n">
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>3층,추락,피해자,신고,방치,인하대,사건,핵심,가해자,추락,여부,불법,촬영,현장,발견,휴대전화,영상,휴대,전화,추락,신고,상식,자체,살인,고의,인정,부작위,살인,적용,여지,신고,피해자,의도,시사,교수,이수정,범죄,심리학,인하대,캠퍼스,또래,남학생,성폭행,여학생,건물,추락,호흡,1시간,방치,혐의,구속,인하대,15일,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,B씨,여성,성폭행,도주,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,핵심,쟁점,피해자,추락원인,경찰,B씨,건물,추락,시간대,당일,사이,A씨,B씨,부축,건물,시각,B씨,길가,행인,발견,시점,경찰,주변,폐쇄,회로,CC,TV,B씨,추락,1시간,혼자,건물,방치,소방당국,행인,신고,119구급대,현장,도착,머리,심정지,상태,호흡,맥박,추락,A씨,추락,도주,소방당국,신고,B씨,목숨,지적,경찰,A씨,건물,B씨,고의,확인,상황,가정,현장,실험,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의성,부인,경찰,추가,수사,A씨,B씨,건물,정황,확인,준강간살인,죄명,방침,불법,촬영,휴대폰,외벽,이수정,교수,CBS,라디오,김현정,뉴스쇼,인터뷰,경찰,유리창,외벽,증거물,채집,DNA,사실,추정,중요,증거,여성,상황,주장,A씨,추락,전화,A씨,전화기,경황,발견,인멸,옷가,장소,추정,증거,인멸,가능,염두,외벽,시간대,중요,포인트,설명,교수,A씨,불법촬영물,확보,전화기,예상,상황,전개,피해자,추락,몸싸움,여성,추락,본의,외벽,상황,신체,접촉,압력,피해자,추락,인과관계,정도,추정,인하대,가해자,퇴학,징계,검토,인하대,A씨,상대,징계,절차,퇴학,유력시,인하대,징계,퇴학,학생,재입학,허가,인하대,사건,가해,전문,로펌,선임,대응</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7430,7 +9370,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D389" t="n">
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>사건,이수정,인하대,가해자,피해자,이수정,경기대,범죄,심리학,교수,범죄심리학자,교수,이수정,경기대,인하대,캠퍼스,발생,사건,성폭행,사망,가해자,학생,부작위,살인,혐의,적용,여지,주장,교수,CBS,라디오,김현정,뉴스쇼,인터뷰,상식,성인,건물,사망,가능,중상,가능성,예상,가해자,피해자,의도,생각,교수,자체,살인,고의,인정,대목,강조,교수,A씨,강간,인정,강간,기인,사망사건,치사,논쟁,적용,전망,사건,현장,발견,A씨,휴대전화,동영상,수사,중요,단서,A씨,휴대전화,피해자,추락,추정,외벽,사람,목소리,추정,음성,영상,교수,영상,녹화버튼,얘기,성관계,불법촬영물,확보,노력,전화기,불법촬영,목적,녹화,시작,목소리,녹음,예상,일들,발생,추측,인하대,캠퍼스,동급생,성폭행,추락,혐의,인하대,20,17일,미추홀구,인천지법,구속,피의자,심문,영장,실질심사,교수,외벽,시간대,여성,중요,포인트,휴대전화,상태,몸싸움,여성,추락,외벽,촬영,신체,접촉,압력,여성,추락,인과관계,정도,추정,교수,몸싸움,피해자,가해자,추락,가능성,전화,자신,입증,면책,가해자,추락,피해자,옷가지,제3,장소,은폐,목적,주장</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7448,7 +9393,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D390" t="n">
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>이행숙,인천시,정무,부시장,취임,인천시,여성,부시장,이행숙,균형,발전,정무,부시장,시장,유정복,임명장,취임,부시장,별도,취임식,생략,부서,방문,직원들,인사,업무,시작,부시장,청년,여성,복지,문화,체육,관광,소통,분야,업무,총괄,부시장,직책,이름,개편,조직,균형발전정무부시장,문화복지정무부시장,인하대,대학원,행정학,박사,이행숙,부시장,이사장,인천시,서구,시설,관리,공단,청운대,겸임,교수,국민,인천시당,서구,당협위원장,한국미래정책연구원,원장,인수위원,민선,인천,시장,인수,위원,부시장,취임사,유정복,시장,시정철학,균형,창조,소통,가치,핵심,시민,행복,인천,세계,일류,도시,역량,강조</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7466,7 +9416,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D391" t="n">
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>인하대,피해자,준강간,인하대,구속,영장,에그스토리,피해자,심신,상실,상태,성폭행,준강간,처벌,인정,피해자,책임,반발도,고의,법조,미필,부작위,살인,가능,에그스토리,사망사건,인천,인하대,여대,성폭행,사망,사건,수사중,경찰,남학생,구속영장,신청,적용,혐의,준강간치사,혐의,법원,도주,증거인멸,영장,발부,경찰,구속,추가,수사,피해자,성폭행,건물,범인,강간,준강간,살인,혐의,적용,법조계,기소,단계,혐의,추가,혐의,적용,사건,기말시험,계절,학기,기말,시험,등교,B씨,시험,A씨,이튿날,단과,대학,건물,A씨,성폭행,창문,건물,추락,3시,분쯤,행인,발견,병원,B씨,그날,7시,경찰,B씨,추락,행인,발견,추정,강간,살인,강간,치사,형법,제301조,2항,강간,범행,피해자,살해,강간살,살해,의도,결과적,목숨,강간치사,처벌,강간살인,사형,무기징역,강간치사,무기,10년,징역,중범죄,살인죄,형량,사형,무기,5년,징역,살인,치사,결정,차이,고의성,여부,피해자,강간,수치심,극단,선택,살인,치사,처벌,A씨,혐의,성폭행,인정,B씨,사망,주장,단계,구속,영장,청구,A씨,고의,B씨,추락,사망,경찰,살인,영장,청구,경찰,구속,살인,혐의,수사,강간,준강간,성폭력,형법,강간,유사강간,강제추행,구분,폭행,협박,위협,상황,범죄,강간,직접적,성관계,유사강간,도구,가혹,행위,추행,수치심,신체,접촉,형량,강간,3년,징역,유사강간,2년,징역,강제추행,10년,징역,1500만,벌금,성범죄,무게,처벌,범죄,규정,준강간,준유사강간,준강제추행,폭행,협박,심신상실,항거불능,상태,이용,성범죄,혐의들,적용,만취,사람,마취,환자,대상,범행,A씨,B씨,부축,건물,모습,CCTV,건물,성폭행,사실,자백,일반적,감정,일반,이해,대목,준강간,단어,강간,사건,피해자,음주상태,감안,피해자,책임,미필,고의,부작위,살인,A씨,살인,직접적,증거,적용,살인,혐의,가능,견해,검사장,출신,변호사,A씨,자신,건물,강간,범행,추락,피해자,119신고,구조,미필,고의,부작위,살인,혐의,적용,계곡,살인,사건,이은,수사,초기,남편,구조,혐의,부작위,살인,적용,수사,결과,보험금,계획,범죄,판단,작위,살인,기소,부작위범,위험,발생,방지,의무,위험,발생,원인,야기,사람,위험,처벌,A씨,강간,원인,제공,피해자,추락사고,조치,처벌,가능,해석,B씨,추락,사실,방치,미필,고의,불법,촬영,증거인멸,A씨,범행,준강간치사,범죄,혐의,추가,가능성,경찰,사건,현장,발견,A씨,휴대폰,디지털포렌식,진행,범행,상황,범행,영상,녹음파일,확인,피해자,신체,범행,장면,파일,혐의,성폭력,특례법,위반,적용,카메라,욕망,수치심,유발,사람,신체,촬영,7년,징역,5000만,벌금,경찰,B씨,옷가지,사건,현장,학교,장소,발견,A씨,성폭행,B씨,장소,자취방,경찰,관계자,피해자,행위,범죄,증거인멸,처벌,살인,고의성,뒷받침,정황</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7484,7 +9439,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D392" t="n">
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>인하대,가해자,선처,탄원,부탁,확인,인하대,남학생,징계,절차,돌입,전문,로펌,선임,2차,대응,인하대학교,캠퍼스,여학생,성폭행,추락,혐의,남학생,남학생,구속,부모,친구들,선처,탄원서,부탁,소문,확산,학교,대응,인하대,총학생회,중심,구성,태스크포스,학생,공동,대응,TF,게시판,홈페이지,각종,커뮤니티,언론,보도,탄원,가해자,선처,루머,학생TF,학생TF,루머,사실,확인,학교,추가,사실관계,파악,만일,가해자,선처,탄원,요구,학우,학생TF팀,제보,학생TF,루머,가해자,엄벌,요구,탄원서,준비,확인,사실,무분별,유포,상황,본부,추후,학교,협의,후속,조치,대응,강조,학우,확인,사실,유포,협조,부탁,17일,온라인,커뮤니티,부모,선처,탄원서,요구,작성자,연락,선처,탄원,부탁,진심,고민,주장,삭제,상태,인하대,피해자,사건,재학생,명예훼손,개인,정보,유출,도용,유포,악성,루머,추가,피해,대처,전문,로펌,법무법인,선임,강경,대응,인하대,징계,절차,착수,학칙,징계,규정,징계,근신,유기정학,무기정학,퇴학,퇴학,처분,가능성,퇴학,처분,소속,대학,상벌,위원회,심의,학장,제청,학생,상벌,위원회,의결,총장,최종,결정,징계,퇴학,학생,재입학,인하대,중순,징계,마무리,방침,15일,인천,미추홀구,인하대,캠퍼스,여성,성폭행,추락,혐의,방치,행인,신고,병원,범행,현장,범행,휴대전화,주거지,은신,폐쇄회로,CC,TV,휴대폰,추적,경찰,검거,법원,도주,증거,인멸,구속영장,발부</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7502,7 +9462,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D393" t="n">
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>이수정,인하대,피의자,휴대폰,외벽,시간대,추적,캠퍼스,인천,인하대,동급생,성폭행,추락,혐의,남학생,성폭행,사실,인정,피해자,고의성,부인,이수정,경기대,범죄,심리학,교수,사건,불법촬영,사건,불법,촬영,휴대전화,단서,21일,교수,CBS,라디오,김현정,뉴스쇼,인터뷰,강간,불법촬영,강간,불법,촬영,휴대전화,현장,발견,외벽,외벽,시간대,추적,시간대,여성,그다음,중요,포인트,경찰,휴대전화,피해자,추락,추정,외벽,피해자,추락,시간대,심야,촬영,영상,피해자,추정,음성,교수,음성,불법촬영물,확보,휴대전화,예상,상황,전개,외벽,음성,주장,휴대전화,상태,몸싸움,여성,추락,본의,외벽,상황,신체,접촉,압력,피해자,추락,인과관계,정도,추정,여성,상황,주장,추락,전화,신고,신고,본인,증거물,개연성,휴대전화,경황,휴대전화,발견,피해자,인멸,생각,장소,추정,증거,인멸,가능,염두,설명,경찰,적용,혐의,준강간치사,부작위,살인,전환,검토,피해자,추락,1시간,생존,법조,일각,추락,사실,구호,조치,부작위,살인죄,적용,가능,의견,교수,동일,의견,제시,추락,신고,상식,성인,3층,시멘트,바닥,예상,자체,살인,고의,인정,부작위,살인,적용,여지,신고,피해자,의도,시사,고의,가정,대목</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7520,7 +9485,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D394" t="n">
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>적용,이수정,인하대,피의자,살인죄,수사,포인트,A씨,인하대,성폭행,사망,사건,피의자,피해자,건물,고의성,부인,이수정,경기대,범죄,심리학,교수,범행,현장,확보,휴대전화,수사,포인트,교수,김현정,CBS,라디오,뉴스쇼,해결,증거,확보,추정,상황,피의자,휴대폰,현장,휴대,피해자,추락,추정,외벽,사람,추정,음성,영상,교수,외벽,시간대,여성,중요,포인트,상태,몸싸움,여성,추락,외벽,상황,신체,접촉,압력,여성,추락,인과관계,정도,추정,설명,음성,추락,상황,추락,개연성,디지털,포렌식,수사,유리창,시작,외벽,증거물,채집,피의자,DNA,창틀,가까이,추정,중요,증거,피해자,추정,바지,속옷,장소,발견,장소,추정,증거,인멸,가능,염두,교수,여성,고의,전화,입증,면책,은폐,시도,가능성,교수,부작위,살인,적용,피해자,발견,대목,피해자,의도,시사,고의,가정,대목,온라인상,피해자,2차,가해,유감,교수,유가족,사건,확대,젠더,경찰,실체,진실,인내심,가지,문제점,지적,재발,노력,당부</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7538,7 +9508,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D395" t="n">
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>부모,선처,탄원,부탁,인하대,가해자,루머,확산,파악,인하대,사실,논란,게시물,삭제,인하대,캠퍼스,동급생,성폭행,건물,추락,혐의,남학생,구속,부모,학생,친구들,선처,탄원서,부탁,확인,소문,온라인,인하대,사실,파악,가해자,엄벌,요구,탄원서,준비,입장,전문,로펌,선임,가해,적극,대응,방침,인하대,총학생회,중심,구성,TF,학생,공동,대응,학생,인하광장,인하대,홈페이지,인하,광장,게시판,각종,커뮤니티,언론사,보도,탄원,가해자,선처,루머,학생TF,학교,본부,사실관계,파악,17일,온라인,커뮤니티,부모,A씨,선처,탄원서,요구,작성자,선처,탄원,부탁,진심,고민,변호사,선임,저장,친구목록,연락,삭제,상태,TF,학생,공동,대응,확인,루머,사실,확인,추가,사실관계,확인,만일,가해자,선처,탄원,요구,사실,학우,학생TF,제보,학생TF,루머,가해자,엄벌,요구,탄원서,준비,추후,학우,안내,확인,사실,무분별,유포,상황,본부,추후,학교,협의,후속,조치,대응,학우,확인,사실,유포,협조,부탁,당부,인하대,전문,로펌,선임,법적,대응,방침,피해자,재학생,명예훼손,개인,정보,유출,도용,유포,악성,루머,추가,피해,대처,목적,인하대,A씨,징계,절차,착수,인하대,제50,학칙,징계,규정,준강,간치사,혐의,구속,A씨,징계,대학장,의뢰,징계,근신,유기정학,무기정학,퇴학,4가지,A씨,퇴학,처분,가능성,퇴학,처분,소속,대학,상벌,위원회,심의,학장,제청,학생,상벌,위원회,의결,총장,최종,결정,징계,퇴학,학생,재입학,A씨,15일,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,B씨,여성,성폭행,추락,혐의,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,1시간,방치,행인,신고,병원</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7556,7 +9531,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D396" t="n">
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>가해자,선처,탄원,부탁,루머,확산,인하대,확인,파악,학교,사실,준비,엄벌,탄원서,인하대,캠퍼스,동급생,성폭행,건물,추락,혐의,학교,남학생,구속,A씨,부모,친구들,선처,탄원서,부탁,소문,온라인상,인하대,사실,파악,가해자,엄벌,요구,탄원서,준비,입장,인하대,총학생회,중심,구성,TF,학생,공동,대응,학생,인하광장,인하대학교,홈페이지,인하,광장,게시판,각종,커뮤니티,언론사,보도,탄원,가해자,선처,루머,학생TF,학교,본부,사실관계,파악,17일,온라인,커뮤니티,부모,A씨,선처,탄원서,요구,작성자,선처,탄원,부탁,진심,고민,OO,변호사,선임,저장,친구목록,연락,온라인상,A씨,사회,공분,삭제,상태,TF,학생,공동,대응,확인,루머,사실,확인,추가,사실관계,확인,만일,가해자,선처,탄원,요구,사실,학우,학생TF팀,제보,추가,TF,루머,가해자,엄벌,요구,탄원서,준비,추후,학우,안내,확인,사실,무분별,유포,상황,본부,추후,학교,협의,후속,조치,대응,학우,확인,사실,유포,협조부탁,인하대,징계,절차,착수,인하대,A씨,징계,절차,착수,인하대,제50,학칙,징계,규정,준강,간치사,혐의,구속,A씨,징계,대학장,의뢰,징계,근신,유기정학,무기정학,퇴학,4가지,A씨,퇴학,처분,가능성,퇴학,처분,소속,대학,상벌,위원회,심의,학장,제청,학생,살벌,위원회,의결,총장,최종,결정,징계,퇴학,학생,재입학</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7574,7 +9554,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D397" t="n">
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>성공,밀실,포르쉐,카푸어,최후,밀실,카푸어,후회,벤츠,성공,기분,29살,7000만,원짜리,벤츠,신용,대출,중고,포르쉐,자영업자,200만,정도,유지비,포르쉐,45만,월세,원짜리,오피스텔,코로나,적자,지속,소득,0원,쇼핑,외식,외출,박씨,리스비,벤츠,월수입,세후,280만,정도,일정,65만,생각,포르쉐,수입,지인,1년,3억,충격,정리,2016년,차량,중고,크루즈,700만,설명,밀실,실험실,중앙일보,밀레니얼,줄임말,중앙일보,밀도,밀착,취재,공간,MZ,트렌드,공유,MZ,이야기,메일,목소리,6개월,통장,잔고,충동,구매,2008년,15만,주행,차량,중고,BMW,550만,고등학생,기쁨,보닛,주행,계약,고장,생각,이씨,카푸어,일상,시작,수리비,기름값,보험비,유지비,60만,100만,정도,비용,부모님,배달,아르바이트,병행,충당,BMW,결국,이씨,잔고,통장,3000원,경제,부담,생각,충동적,카푸어,강조,110만,연애,포기,차량,유지,여자친구,포기,저축,처분,예정,2017년,3100만,미니쿠퍼,차량,직장,할부,유예,진행,차쯤,은행,대출,대환,5년,할부,정도,유예,할부,할부금액,기간,이자,만기일,할부금,전액,납부,방식,투잡,250만,차량,유지비,정도,1년,기름값,10만,부담,지난달,수리값,지난달,수리,110만,할부,자산,카푸어,소득,수입차,대출,캐피털,차량,할부,금융,프로그램,일례,카드사,자산,자동차,할부,금융,2배,사이,금융,감독원,금융,통계,정보,카드사,신한,KB국민,삼성,하나,롯데카드,1분기,자산,자동차,할부,금융,10조,기록,9조,4105억,규모,13년,중고차,판매업,종사,전액,할부,구매,분들,할부,기간,설명,수입차,하차감,언급,외형적,중요,시대,기분,거래,인증,사진,영정사진,조롱,온라인,카푸어,하루살이,인생,악성,댓글,커뮤니티,딜러,차량,사진,영정사진,대출,파국,밀실팀,카푸어,장기적,측면,차량,구입,후회,행복,스트레스,동기부여,카푸어,본인,지향,가치,투자,소비,가치소비,시각,김중백,경희대,사회학,교수,개인,취향,만족,중요시,사회,현상,카푸어,일종,경험,교훈,활용,평가,현실성,소비,지적,이은희,인하대,소비자학,교수,미래,소득,감당,가능,경제력,소비,가치소비</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7592,7 +9577,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D398" t="n">
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>사회,방조,살인들,7.21,무카담,여성,파키스탄,무카담,Noor,Mukadam,자페르,동갑내기,남성,자히르,강간,살해,무카담,주한,대사,전직,외교관,범인,CEO,건설업체,아들,연인,가족끼리,사이,다음날,뉴욕행,비행기,출국,예정,자페르,전화,무카담,18일,무렵,자페르,공항,예약,택시,항공권,예약,변경,실패,택시,공항,도착,무카담,19일,이슬라마바드,부촌,Sector,F-,자페르,청혼,무카담,거절,너클,더스터,주먹,흉기,폭행,강간,살해,20일,무렵,발코니,피신,시도,자페르,경비원,장면,CCTV,영상,경찰,탈출,시도,살해,추정,범행,자페르,범행,부모,전화,부모,자페르,근무,재활,심리치료센터,Therapy,Works,전화,아들,도움,자페르,출동,센터,직원,현장,파키스탄,법원,자페르,이듬해,사형,선고,방조,혐의,정원사,경비원,10년,선고,여학생,이집트,만수르대,청혼,거절,며칠,여학생,요르단,데이트,거부,남성,살해,1년,한국,인천,인하대,여학생,유사,정황,피살,동급,남학생,준강간치사혐의,구속</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7610,7 +9600,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D399" t="n">
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>인하대,선임,전문,로펌,성폭행,사망,형사고발,인하대학교,캠퍼스,발생,사건,성폭행,사망,가해,적극,대응,전문,로펌,선임,인하대,로펌,전문,선임,대응,방침,인하대,관계자,사건,성폭행,사망,확인,피해자,재학,개개인,인격,모욕,사생활,침해,개인,정보,유출,도용,유포,악성,루머,명예훼손,피해자,재학생,정신적,물질,피해,인하대,각종,게시판,가해학생,탄원서,가해,학생,친구,공범,피해학생,비하,거짓,난무,언론,확인,기사,주장,인하대,발생,사건,거짓,명예훼손,형사처벌,위법사항,형사고발,예정,인하대,관계자,학교,감사,사이버대응팀,형사상,대응,제보,위법행위,대응,인하대,15일,학교,A씨,또래,학생,성폭행,추락,혐의,경찰,구속,혐의,A씨,구속,경찰,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7628,7 +9623,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D400" t="n">
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>선임,인하대,로펌,대응,인하대,캠퍼스,동급생,성폭행,A씨,남성,17일,구속,피의자,심문,영장,실질심사,미추홀구,인천지법,인천,뉴스1,피해자,인하대학교,재학,성폭행,사망,가해,문제시,익명성,보장,온라인,중심,피해자,재학생,명예,훼손,개인,정보,유출,도용,악성,루머,인하대,대응,시사,위법,행위,발견,즉시,형사상,대응,방침,가해,익명,보장,커뮤니티,발생,사건,발생,인하대,커뮤니티,피해자,가해,발생,눈살,커뮤니티,여자,혼자,피해,여학생,발견,사람,글들,게재,사진,커뮤니티,캡처,15일,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,B씨,여성,성폭행,추락,혐의,B씨,창문,복도,1층,추락,B씨,장소,자취방,피해자,나체,모습,발견자,상식적,생각,의문,대목,여학생,행실,지적,여자,OO,발언,모습,누리꾼,지적,삭제,요구,동조,모습,인하대,피해자,재학생,명예,훼손,추가,피해,대처,로펌,법무법인,선임,학교,감사팀,추후,교내,감사,사이버대응팀,제보,위법,행위,발견,즉시,형사상,대응,한편,남학생,상대,징계,절차,착수,인하대,학칙,징계,규정,준강,간치사,혐의,구속,1학년,징계,대학장,의뢰,퇴학,조치,유력,중순쯤,징계,마무리,예상,퇴학,조치,A씨,소속,심의,대학,상벌,위원회,학장,제청,학생상벌위원회,의결,총장,처분,징계,퇴학,재입학,인하대,관계자,일정,상태,규정,당사자,소명,절차,상황,심의,방식,검토,사건,성폭력,갈등,모습,여성단체,갈등,성폭력,해결,성폭력,계기,입장,바른인권여성연합,상임대표,이봉화,입장문,사건,보도,언론들,강남역,화장실,사건,연관,남성,여성,냄새,여초,커뮤니티,여성,혐오,범죄,근절,주장,여성,가족부,존치,카드,여성가족부,여성단체들,문제점,지적,여성,피해자,남성,가해자,규정,특정,프레임,성폭력,편협,시각,성폭력,해결,갈등,자신들,영향력,유지,확대,이용,일갈,성폭력,원인,남성성,남성,자체,죄악시,억제,해결,방식,남성,잠재,가해자,치부,성별,갈등,결과,초래,남성성,여성,자체,강조,사건,범죄사건,여성,혐오,범죄,사건,학문,전당,캠퍼스,새벽,자유,통행,CCTV,지역,여성,성폭행,성범죄,사건,강조,사회,범죄,반복,사회,해결,본질,문제점,접근,사건,갈등,논쟁,씨앗,해결,시발점</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7646,7 +9646,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D401" t="n">
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>인하대,추락사,추진,가해자,징계,인하대학교,캠퍼스,성폭행,동급,여학생,추락사,사건,가해자,남학생,징계,절차,착수,징계,퇴학,재입학,인하대,캠퍼스,동급생,성폭행,사망,혐의,인하대,20,17일,인천지법,인천시,미추홀구,구속,피의자,심문,영장,실질심사,인하대,학칙,징계,규정,준강,간치사,혐의,경찰,구속,A씨,징계,대학장,의뢰,20일,예정,절차,진행,중순,A씨,징계,마무리,인하대,규정,징계,근신,유기정학,무기정학,퇴학,구분,A씨,징계,퇴학,조치,유력,당장,경찰,적용,준강간치사죄,유죄,무기징역,유죄,무기,징역,10년,징역형,퇴학,기준,기준,학교,명예,손상,항목,학교,설명,퇴학,A씨,소속,심의,대학,상벌,위원회,학장,제청,학생,상벌위,의결,총장,최종,처분,인하대,관계자,규정,당사자,소명,절차,상황,심의,방식,검토,인하대,피해자,재학생,명예,훼손,개인,정보,유출,도용,유포,악성,루머,추가,피해,대처,로펌,선임,교내,감사,사이버대응팀,제보,위법,행위,발견,형사상,대응,A씨,15일,인하대,공과,대학,건물,평소,여학생,성폭행,건물,추락,혐의,창문,1층,여학생,장소,당일,경찰,체포</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7664,7 +9669,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D402" t="n">
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,사망,2차,가해,대응,로펌,선임,인하대,교정,발생,사건,성폭행,사망,행위,가해,전문,로펌,의뢰,대응,인하대,확인,피해자,재학생,인격,모독,사생활,침해,개인,정보,유출,도용,유포,악성,루머,명예훼손,피해자,재학생,가해,제보,위법,행위,확인,대응,인하대,전문,로펌,법률대리인,대학,감사팀,사이버대응팀,가칭,협력,대응,형사,진행,예정,피의자,징계,절차,논의,상벌위원회,소속,단과,대학,상벌,위원회,구성,징계,절차,본격화,단과대,상벌,위원장,ㄱ씨,부모,소명,자료,요청,상태,인하대,학칙,근신,유기정학,무기정학,퇴학,4가지,조처,퇴학,차원,단과,대학,상벌,위원회,상벌위원회,대학,본부,상벌,위원회,심의,총장,처분,징계,절차,지연,ㄱ씨,징계,마무리,전망,인하대,사안,중대성,수사,재판,결과,징계,절차,설명,인하대,관계자,수사,재판,보도,사실,사안,중요,징계,절차,진행</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7682,7 +9692,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D403" t="n">
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>부모,가해,학생,탄원서,전화,거짓,인하대,전문,로펌,선임,인하대,캠퍼스,동급생,성폭행,추락,혐의,인하대,20,17일,미추홀구,인천지법,구속,피의자,심문,영장,실질심사,인천,캠퍼스,성폭행,사망,사건,발생,인하대학교,전문,로펌,선임,20일,인하대,이날,사건,성폭행,사망,확인,피해자,재학,개개인,인격,모욕,사생활,침해,개인,정보,유출,도용,유포,악성,루머,명예훼손,피해자,재학생,정신적,물질,피해,관계자,가해학생,탄원서,가해,학생,친구,공범,거짓,난무,언론,확인,기사,지적,인하대,교내,감사,사이버대응팀,제보,위법,행위,확인,로펌,형사상,대응,방침,대학,동급생,성폭행,추락,혐의,남학생,부모,학교,친구,선처,탄원서,부탁,주장,온라인,제기,17일,인터넷,커뮤니티,선처,탄원서,가해자,부모,연락,작성자,연락,선처,탄원서,부탁,진심,고민,주장,휴대전화,저장,친구들,연락,압박,차단,동기,가해자,사람들,연락,토로,진위,확인,온라인,논란,A씨,15일,인하대,캠퍼스,5층,단과,대학,건물,B씨,학교,학생,상대,성범죄,추락,혐의,이날,3시,분쯤,행인,발견,B씨,심정지,상태,병원,이송,7시,사망,B씨,A씨,성폭행,창문,건물,복도,1층,추락,사망,추정,A씨,피해자,장소,자취방,현장,휴대전화,당일,경찰,긴급체포,19일,B씨,건물,추락,1시간,방치,사실,공분,A씨,도주,신고,B씨,지적,A씨,경찰,조사,B씨,고의,살인,혐의,부인,경찰,A씨,준강,간치사,혐의,적용,구속영장,신청,법원,발부,경찰,A씨,살인,혐의,적용,조사,한편,사건,검찰,송치,계획,인하대,A씨,소속,대학장,A씨,징계,의뢰,대학,A씨,최고,징계,퇴학,검토,보도,인하대,관계자,이날,심의,대학,상벌위,예정,대상자,규정,징계,소명,기회,방식,검토</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7700,7 +9715,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D404" t="n">
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>인하대,2차,로펌,선임,성폭행,추락사,대응,절차,학생,징계,착수,인하대,교내,발생,성폭행,추락사,사건,피해자,재학생,가해,유포,악성,루머,대응,인하대,성폭행,사망,사건,대책,위원회,확인,피해자,재학생,인격,모욕,사생활,침해,개인,정보,유출,도용,유포,악성,루머,명예훼손,행위,각종,위법,정신적,물질적,피해,전문,로펌,법무법인,선임,위법,행위,대응,인하대,교내,감사,사이버대응팀,제보,위법,행위,확인,로펌,형사상,대응,방침,인하대,학생,징계,절차,착수,대학,준강,간치사,혐의,구속,1학년,소속,대학장,A씨,징계,의뢰,제50조,인하대,학칙,징계,근신,유기정학,무기정학,퇴학,4가지,A씨,퇴학,조치,가능성,퇴학,소속,대학,상벌,위원회,심의,학장,제청,학생,상벌위,의결,총장,처분,징계,퇴학,재입학,허가,인하대,관계자,심의,대학,상벌위,예정,대상자,규정,징계,소명,기회,방식,검토</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7718,7 +9738,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D405" t="n">
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>2차,성폭력,사망,인하대,로펌,선임,대응,인격,모욕,개인정보,유출,접수,위법,행위,제보,착수,피의자,남학생,징계,절차,퇴학,조치,유력,인하대,교내,발생,여학생,성폭행,추락사,사건,가해,남학생,상대,징계,절차,착수,한편,가해,대응,인하대,캠퍼스,사건,성폭행,사망,가해,전문,로펌,선임,인하대,본교,감사,사이버대응팀,가칭,운영,가해자,대응,진행,제보센터,위법행위,제보,접수,행위,추후,위법,발견,즉시,형사상,대응,예정,인하대,관계자,확인,피해자,재학,개개인,인격,모욕,사생활,침해,개인,정보,유출,도용,수준,피해자,재학생,정신,물질적,피해,예방,학교,명예,대응,인하대,학칙,징계규정,혐의,준강간,치사,구속,A씨,가해,남학생,상벌위원회,회부,인하대,상벌,위원회,남학생,징계,예정,내용증명서,징계,근신,유기정학,무기정학,퇴학,퇴학,소속,대학,상벌,위원회,심의,학장,제청,학생,상벌,위원회,의결,총장,결정,징계,퇴학,학생,재입학,A씨,15일,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,B씨,여성,성폭행,추락,혐의,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,1시간,방치,행인,신고,병원</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7736,7 +9761,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D406" t="n">
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>추락전,외벽,그날,인하대,가해자,영상,15일,인하대,캠퍼스,성폭력,사망,사건,국면,사건,수사,인천미추홀경찰서,준강,간치사,혐의,구속,남성,휴대전화,피해자,20대,여성,추락,상황,파악,도움,영상,확보,확인,20일,경찰,관계자,현장,발견,포렌식,작업,가해자,휴대전화,수사,핵심자료,사건,발생일,경찰,현장,발견,B씨,휴대전화,건물,출입구,폐쇄회로TV,CCTV,영상,B씨,용의자,특정,체포,증거,작용,미추홀서,휴대전화,긴급,분류,인천경찰청,포렌식,작업,요청,휴대전화,파손,상태,미추홀서,형사과,인천청,휴대전화,휴대전화,저장,파일,전달,경찰,주목,추락,추정,외벽,영상,A씨,추락,시간대,심야,촬영,영상,사람,추정,음성,경찰,작업,추가,포렌식,B씨,심문,영상,촬영,정확,시점,촬영,경위,조사,경찰,관계자,의미,정황,정밀,포렌식,작업,조사,혐의,경찰,B씨,적용,혐의,준강간치사,부작위,살인,전환,검토,A씨,추락,1시간,생존,법조,일각,B씨,A씨,추락,사실,구호,조치,부작위,살인죄,적용,가능,의견,사건,수사,경험,경찰,간부,성범죄,여성,준강,간치사,혐의,적용,사람,자리,미필,고의,혐의,부작위,살인,경합적,적용,선행행위,후행,행위,행위,혐의,적용,수사팀,고민,부작위,살인,승객들,퇴선조치,혼자,탈출,선장,세월,이준석,인정,법리,인하대,이날,단과대학장,징계,의뢰,범행,학교,명예,실추,학칙,징계,규정,B씨,근신,유기정학,무기정학,퇴학,징계,퇴학,유력,퇴학,조치,B씨,소속,심의,대학,상벌,위원회,학장,제청,학생,상벌,위원회,의결,총장,처분,인하대,관계자,심의,예정,규정,당사자,소명,절차,서면,심의,방식,검토</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7754,7 +9784,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D407" t="n">
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>성폭행,사건,가해,대응,인하대,로펌,선임,교내,여학생,성폭행,추락사,사건,발생,인하대,남학생,상대,징계,절차,착수,대응,가해,인하대,제50,학칙,징계,규정,준강,간치사,혐의,구속,1학년,징계,대학장,의뢰,규정,징계,근신,유기정학,무기정학,퇴학,4가지,A씨,징계,퇴학,조치,유력,인하대,상벌,위원회,예정,징계,퇴학,재입학,인하대,피해자,재학생,명예,훼손,개인,정보,유출,도용,유포,악성,루머,추가,피해,대처,로펌,법무법인,선임,인하대,확인,피해자,재학,개개인,인격,모욕,사생활,침해,개인,정보,유출,도용,유포,악성,루머,명예훼손,각종,위법,행위,피해자,재학생,정신적,물질,피해,본교,감사,사이버대응팀,가칭,민형사상,대응,지속,진행,예정,수시,제보,위법행위,대응</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7772,7 +9807,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D408" t="n">
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>추모객,송이씩,인하대,꽃집,국화꽃,무료로,동급생,성폭력,건물,추락,마감,인하대,여학생,추모,발걸음,꽃집,인하대,인근,추모객,국화꽃,무료,소식,트위터,네티즌,울림,A씨,트위,사용자,추모,꽃집,인하대,근처,국화,송이,사장님,추모,분들,무료,송이씩,말씀,A씨,꽃값,부담,대학생,도움,홍보,세상,A씨,주인,꽃집,대화,A씨,국화,송이,구매,가능,꽃집,사장,국화,송이,송이씩,절망,꽃집,사장,구석,포장,국화,무료,감동,속마음,사연,A씨,2만,리트윗,누리꾼,꽃집,사장,선행,찬사,네티즌들,시대,다행,감사,눈물,존경,감동,꽃집,사장,언론매체,사건,피해자,인하대생,마음,원래,국화꽃,주말,국화꽃,학생들,전화,60송이,정도,구매,설명,피해자,위로,꽃집,무료,계획</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7790,7 +9830,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D409" t="n">
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>사장님,인하대,꽃집,사장,추모,국화,인하대,여대,사망,사건,추모,국화꽃,사람들,인근,꽃집,추모객,무료,소식,마음,감동,18일,트위,유저,인하대,추모,근처,꽃집,국화꽃,무료,꽃집,사진,작성자,사장님,추모,분들,무료,송이씩,꽃값,부담,대학생,도움,홍보,트윗,리트윗,온라인상,감동,반응,꽃집,운영,전화,인터뷰,요청,애석,사건,행동,주목,칭찬,분들,위로,추모,시작,사건,피해자,인하대생,마음,원래,국화꽃,주말,국화꽃,학생들,전화,세단,60송이,정도,구매,무료,구매,손님,추모,생각,손님,꽃시장,상황,사장,국화꽃,분들,각자,상황,인하대,여학생,추모</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7808,7 +9853,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D410" t="n">
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락사,가해자,징계,절차,착수,퇴학,유력,인하대,교내,발생,여학생,성폭행,추락사,사건,가해,남학생,상대,징계,절차,착수,인하대,학칙,징계,규정,준강,간치사,혐의,구속,1학년,징계,대학장,의뢰,20일,규정,징계,근신,유기정학,무기정학,퇴학,4가지,A씨,징계,퇴학,조치,유력,퇴학,조치,A씨,소속,심의,대학,상벌,위원회,학장,제청,학생상벌위원회,의결,총장,처분,징계,퇴학,재입학,상벌위원회,예정,A씨,15일,인천시,미추홀구,인하대,캠퍼스,단과,대학,건물,여학생,학교,또래,B씨,성폭행,추락,혐의,A씨,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,1시간,방치,행인,신고,병원,A씨,경찰,조사,B씨,건물,사실,인정,B씨,고의성,부인,경찰,관계자,가능성,수사,사건,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7826,7 +9876,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D411" t="n">
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>사장님,인하대,꽃집,사장,국화,무료,A씨,트위터,이용자,꽃집,인하대학교,근처,무료,국화꽃,한송이,갈무리,트위,여대생,성폭행,사건,인하대,준강,간치사,인하대학교,마련,추모공간,추모객들,발걸음,인근,인하대,꽃집,운영,사장님,마음,씀씀이,누리꾼,감동,18일,트위터,이용자,여학생,추모,꽃집,근처,국화꽃,무료,A씨,이용자,사장님,피해,여대,추모,분들,무료,송이씩,A씨,국화,송이,구매,가능,사장님,국화,송이,헌정,추모,국화,추모,소식,언론,인터뷰,꽃집,사장,인하대,인근,고객층,인하대생,사건,피해자,인하대생,마음,심경,원래,국화꽃,주말,국화꽃,학생들,전화,세단,60송이,정도,구매,캠퍼스,인천시,미추홀구,인하대학교,사건,인하대,준강,간치사,피해자,추모,공간,마련,인천,사장님,위로,추모,사장님,국화꽃,무료,생각,15일,인하대,재학중,여학생,머리,다량,상태,나체,발견,즉시,병원,피의자,A씨,경찰조사,피해자,건물,사망,사실,인정,살인,고의성,부인,경찰,폐쇄회로,CC,TV,피해자,확인,결과,건물,추락,1시간,방치,주변,피의자,피해자,추락,사실,경황,진술</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7844,7 +9899,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D412" t="n">
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>온라인,커뮤니티,인하대,가해자,부모,선처,탄원서,요청,VS,학생,TF,사실,확인,인하대,캠퍼스,동급생,성폭행,추락,사망,남학생,인천지법,미추홀구,구속,피의자,심문,영장,실질심사,모습,인천,뉴시스,인하대,캠퍼스,성폭행,추락,가해자,부모,주변,사람,선처,탄원서,요청,소식,논란,17일,온라인,커뮤니티,누리,선처,탄원서,가해자,부모,연락,고민,A씨,연락,선처,탄원서,부탁,진심,고민,휴대전화,저장,친구들,연락,압박,차단,동기,가해자,연락,가해자,부모,탄원서,사실,판결,영향,전문가,언론,인터뷰,선처,탄원서,법원,제출,양형,조건,형량,감소,도움,입장,가해자,부모,탄원서,요청,확인,상황,소식,네티즌들,피해자,부모,전화,가해자,탄원서,목숨,피해자,가족,인면수심,반응,사건,구성,TF,학생,공동,대응,전담팀,위원회,A씨,부모,친구들,탄원서,부탁,루머,온라인,사실,파악,학생,TF,안내문,각종,커뮤니티,언론사,보도,탄원,루머,가해자,선처,탄원,학교,본부,사실,여부,파악,루머,사실,확인,가해자,선처,탄원,요구,학우,제보,TF,루머,가해자,엄벌,요구,탄원서,준비,확인,사실,무분별,유포,상황</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7862,7 +9922,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D413" t="n">
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>사건,여성,단체,인하대,여성,피해자,남성,가해자,프레임,갈등,인하대,캠퍼스,동급생,성폭행,A씨,남성,17일,구속,피의자,심문,영장실질심사,인천지방법원,인천시,미추홀구,뉴스1,사건,인하대학교,재학,성폭행,사망,여성단체,갈등,성폭력,해결,성폭력,계기,입장,바른인권여성연합,상임대표,이봉화,입장문,사건,보도,언론들,강남역,화장실,사건,연관,남성,여성,냄새,여초,커뮤니티,여성,혐오,범죄,근절,주장,여성,가족부,존치,카드,여성가족부,여성단체들,문제점,지적,여성,피해자,남성,가해자,규정,특정,프레임,성폭력,편협,시각,성폭력,해결,갈등,자신들,영향력,유지,확대,이용,일갈,성폭력,원인,남성성,남성,자체,죄악시,억제,해결,방식,남성,잠재,가해자,치부,성별,갈등,결과,초래,남성성,여성,자체,강조,사건,범죄사건,여성,혐오,범죄,사건,학문,전당,캠퍼스,새벽,자유,통행,CCTV,지역,여성,성폭행,성범죄,사건,강조,사회,범죄,반복,사회,해결,본질,문제점,접근,사건,갈등,논쟁,씨앗,해결,시발점,동급생,성폭행,인하대학교,범행,불법촬영,범행,불법,촬영,시도,정황,보도,YTN,인천,미추홀경찰서,A씨,현장,범행,휴대전화,상황,동영상,파일,확보,조사,경찰,의도적,불법,촬영,시도,확인,상황,범행,경찰,영상,촬영,불법,촬영,혐의,적용,검토,방침</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7880,7 +9945,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D414" t="n">
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>인하대,사건,남학생,징계,절차,돌입,퇴학,유력,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,17일,구속,피의자,심문,영장,실질심사,미추홀구,인천지법,인천,인하대,교내,건물,발생,사건,성폭행,추락사,구속,학교,징계,절차,돌입,20일,인하대,학교,학칙,징계,규정,준강,간치사,혐의,구속,징계,대학장,의뢰,규정,징계,근신,유기정학,무기정학,퇴학,A씨,퇴학,처분,유력,조치,A씨,소속,심의,대학,상벌,위원회,학장,제청,학생,상벌,위원회,의결,총장,처분,퇴학,결정,A씨,재입학,인하대,관계자,심의,일정,규정상,당사자,소명,절차,서면,심의,방식,검토,지연,징계,절차,A씨,징계,다음달,중순,인하대,입장문,피해자,가해,대응,강구,학생,감수성,성평등,프로그램,정기적,성교육,강화,학생,심리,상담소,활성,교양,교육,확대,성폭력,방지,교육,프로그램,정기,순찰,확대,구체적,대책,재발,방지</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7898,7 +9968,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D415" t="n">
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>인하대,피의자,살인죄,적용,개연,이수정,주목,동급생,성폭행,건물,추락,혐의,구속,남학생,인하대,남학생,여부,살인죄,적용,주목,이수정,경기대,범죄,심리학,교수,살인죄,적용,개연성,교수,방송,KBS,라이브,A씨,준강간,인정,의도,주장,가지,추가,죄명,개연성,A씨,적용,혐의,준강간치사,혐의,교수,불법촬영,살인,혐의,추가,가능성,주장,교수,건물,생명,위협,상식적,신고,구조,미필,고의,부작위,살인,설명,경찰,A씨,범행,현장,휴대전화,확보,조사,교수,A씨,현장,휴대전화,영상,와중,완성,불법,촬영,영상물,경찰,영상,촬영,불법,촬영,혐의,적용,검토,피해자,A씨,고의,여부,입증,방법,A씨,경찰,조사,피해자,고의성,부인,교수,A씨,B씨,피해,학생,사건,발생,건물,B씨,행인,발견,사이,주목,교수,건물,시점,15일,1시,A씨,B씨,부축,행인,발견,시점,신고,시점,이날,3시,강간,행위,유리창,상황,2시,B씨,3시,1시간,화단,출혈,상태,구조,대목,살인죄,개연성,지점,교수,가해자,고의,여부,입증,방법,피해자,추락,유리창,바닥,1m,피해자,실수,추락,경찰,유리창,창틀,확인,국과수,상황,가해자,추정,DNA,지문,가해자,창밖,피해자,개연성,상상,설명,A씨,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,경찰,혐의,강간치사,적용,긴급체포,B씨,상태,항거,불능,범행,판단,강간치사,혐의,적용,구속영장,신청,A씨,경찰,조사,피해자,건물,사망,사실,인정,고의성,부인,경찰,추가,수사,A씨,B씨,건물,정황,확인,준강간살인,죄명,방침,경찰,관계자,가능성,수사,금요일,22일,사건,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7916,7 +9991,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D416" t="n">
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>심의,일정,추락사,인하대,성폭행,학생,징계,절차,돌입,인하대,교내,발생,남학생,성폭행,추락사,사건,가해,상대,징계,절차,착수,인하대,학칙,징계,규정,준강,간치사,혐의,구속,1학년,징계,대학장,의뢰,20일,규정,징계,근신,유기정학,무기정학,퇴학,4가지,A씨,징계,퇴학,조치,유력,상태,퇴학,조치,A씨,소속,심의,대학,상벌,위원회,학장,제청,학생상벌위원회,의결,총장,처분,징계,퇴학,재입학,불가능,지연,절차,중순,새달,A씨,징계,마무리,예상,인하대,관계자,일정,상태,규정,당사자,소명,절차,상황,심의,방식,검토,A씨,15일,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,성폭행,추락,혐의,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,1시간,방치,행인,신고,병원</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7934,7 +10014,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D417" t="n">
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>피의자,이수정,인하대,살인죄,적용,개연,이수정,경기대,범죄,심리학,교수,추락,피해자,119신고,구조,피해자,1시간,방치,추정,출혈,상태,인하대,캠퍼스,발생,성폭행,추락,사망,사건,이수정,경기대,범죄,심리학,교수,피의자,살인죄,적용,개연성,주장,동급,성폭행,학교,건물,추락,혐의,인하대,남학생,구속,A씨,적용,혐의,준강간치사,교수,KBS,라이브,출연,A씨,준강간,인정,의도,주장,가지,추가,죄명,개연성,교수,A씨,살인죄,적용,가지,신고,구조,피해자,1시간,방치,추정,교수,피해자,유리창,건물,생명,위협,상식적,신고,구조,미필,고의,부작위,살인,A씨,피해자,건물,피해자,행인,발견,사이,주목,교수,A씨,피해자,부축,건물,시점,15일,행인,발견,신고,시점,이날,강간,행위,유리창,상황,교수,A씨,피해자,1시간,화단,출혈,상태,구조,대목,살인죄,개연성,지점,설명,A씨,고의,여부,입증,방법,이야기,교수,피해자,추락,유리창,바닥,1m,피해자,실수,추락,경찰,유리창,창틀,확인,국과수,상황,가해자,추정,유전자정보,DNA,지문,가해자,창밖,피해자,개연성,상상,주장,A씨,불법촬영,정황,포착,혐의,추가,가능성,경찰,A씨,범행,현장,휴대폰,상황,영상,파일,확보,조사,교수,영상,와중,완성,불법,촬영,영상물,대학,학생,대상,교육,성폭행,예방,교수,대학교,교직원,학생들,상대,교육,성폭력,예방,강조,대학,성폭력,사전,60%,선배,동기,후배,학생,사이,발생,통계,근거,제시,교수,통계치,교직원,교육,성폭력,예방,학생들,교육,강제성,지적,학생,학생,성폭력,사건,범죄,진전,경계심,교내,폐쇄,회로,CC,TV,설치,시설적,개선,학생들,계도적,교육,시사,통계,설명,온라인상,피해자,가해,인물,가해,추정,신상,지적,교수,응징,심리,온라인상,가해자,신상,시작,상승효과,피해자,신상,젠더,갈등,유발,엉망진창</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7952,7 +10037,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D418" t="n">
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,사망,착수,남학생,징계,혐의,구속,퇴학,처리,인하대,캠퍼스,또래,여학생,성폭행,추락,혐의,구속,남학생,상대,징계,절차,착수,인하대,학칙,징계,규정,준강,간치사,혐의,구속,1학년,A씨,징계,대학장,의뢰,20일,규정,징계,근신,유기정학,무기정학,퇴학,4가지,A씨,징계,퇴학,조치,유력,퇴학,조치,A씨,소속,심의,대학,상벌,위원회,학장,제청,학생상벌위원회,의결,총장,처분,징계,퇴학,재입학,지연,절차,중순,A씨,징계,마무리,전망,인하대,일정,규정,당사자,소명,절차,상황,심의,방식,검토,A씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,단과대,건물,동급,성폭행,추락,혐의,구속,경찰,성폭행,B씨,3층,추락,사망,추정,A씨,경찰,조사,B씨,건물,사실,인정,B씨,고의성,부인,경찰,구속영장,진술,토대,치사,혐의,적용,A씨,고의,B씨,건물,정황,확인,살인,죄명,방침</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7970,7 +10060,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D419" t="n">
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>인하대,사건,가해,대학,캠퍼스,사건,성폭행,사망,가장,가해,2차,가해,성폭력,트라우마,캠퍼스,이달,인천,인하대,학생,발견,얼마,학교,학생,피의자,준강,간치사,혐의,구속,소식,사건,학교,안전,장소,성범죄,사망,충격,사건,가해,사회,파장,성범죄,피해자,행실,범죄,원인,가해자,피해자,현상,가해,인식,비난,사건,인하대,사망,피해자,직전,피의자,일각,범죄,주목,종합편성채널,사건,원인,캠퍼스,무분별,음주문화,사고,이야기,입법조사관,허민숙,국회,입법,조사관,반응,가장,비난,피해자,직설적,비난,피해자,행실,주목,결국,몸가짐,조심,처신,성범죄,논리,피해자,책임,결국,성범죄,개인,가해자,책임,승재현,한국,형사,법무정책연구원,박사,인터뷰,YTN,피해자,귀책사유,친구,시험,마음,악용,가해자,강조,단속,조심,반응,피해자,책임,형태,반응,스스로,가해,조심,위험,상황,조금,충고,가해,조사관,사건,원인,피해자,주의,생각,자체,가해,지적,한국성폭력상담소,성폭력,의심,지지,책자,피해자,조심,피해자,조심,피해,비난,질책,전달,조심,주의,범죄,김태경,서원대,상담,심리학,교수,용서,권리,범죄,여부,결정,피해자,가해자,범죄,피해자,피해자,적정,시선,태도,위로,시작,불필요,관심,가해,의미,성범죄,치명적,피해,성폭력,피해,피해,결국,지배적,권인숙,한국성폭력상담소,부설,연구소,울림,소장,2015년,피해자,토론회,소장,토론회,성폭력,피해자,자체,성폭력,피해,파생,피해,주변,사람,통념,피해,지배적,성범죄,피해,회복,가해,다수,지속,평생,피해자,자리,한국성폭력상담소,상담일지,심층,면접,조사,결과,피해,경험,성폭력,트라우마,성폭력,부정적,반응,낙인,주변,트라우마,영향,유의미,변수,피해,성범죄,피해자,극단,선택,사례,상급자,성추행,피해,공군,부사관,이예람,중사,회유,협박,가해,조직,유서,마감,조사,성범죄,피해,2명,청주,중학,사망,가해,원인,죽음,강원,고등학생,선배,성폭행,고소,주변,피해,세상,인하대,중앙,운영,위원회,총학생회,비상,대책,위원회,구성,대응,전담,TF,피해자,가해,대응,예고,TF,홈페이지,입장문,피해자,가해,용납,대응,강구,방침,학생들,감수성,사회,왜곡,성문화,교과,성평등,성교육,강화,폭력,발생,최선,고인,추모,기억,결정,사회,성범죄,피해자,태도,2015년,피해자,토론회,성폭력,피해자,대상,조사,결과,도움,사람,기관,도움,설명,판단,감정,이해,피해,대처,실질적,도움,정서,지지,도움,답변,소장,성폭력,피해자,진정,극복,도움,당장,신체적,심리,혼란,대처,신뢰,지지,평가,도덕,가치,조언,충고,지지</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7988,7 +10083,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D420" t="n">
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>인하대,사건,피해자,2차,가해,행동,처벌,가능,공유,인하대녀,사진,인하,캠퍼스,인하대,남성,동급생,성폭행,혐의,구속,사건,발생,남성,사용자,중심,온라인,커뮤니티,소셜미디어,글들,피해자,인하대녀,신상정보,언급,사진,공유,요청,피해자,모욕,학교,여성,비하,글들,피해자,행실,가해자,피해자,책임,게시,온라인,2차,가해,자정,요구,목소리,네티즌들,2차,가해,피해자,개인,정보,중요,가해자,행위,가해자,비판,전문가,피해자,2차,가해성,게시글,처벌,대상,강조,박사,승재현,한국,형사,법무,정책,연구원,조선닷컴,통화,피해자,사회,통념적,생각,사건,가해자,범행,초점,피해자,성폭력,범죄,행동,자체,처벌,규정,존재,비난,목적,사자,死者,명예훼손,박사,성폭력범죄,처벌,특례법,성폭력처벌법,근거,조항,피해자,주소,성명,나이,직업,학교,용모,피해자,특정,가능,인적,사항,사진,동의,인쇄물,정보통신망,공개,규정,위반,징역,3000만,벌금,박사,2차,가해성,댓글,행위,행동,처벌,처벌,양산,강조,인하대,대응,인하대,교학,부총장,위원장,성폭력,사망,사건,대책위,입장문,인터넷,피해자,가해,용납,피해자,모욕,고인,학교,명예,실추,대응,강구,방침</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8006,7 +10106,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D421" t="n">
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>여대,사망,인하대,꽃집,국화꽃,추모,발길,국화꽃,꽃집,인하대,인근,국화꽃,추모객,무료,소식,18일,A씨,트위,사용자,인하대,추모,근처,꽃집,국화꽃,무료,꽃집,사진,A씨,국화,송이,구매,가능,사장님,국화,송이,송이,생각,사장님,추모,분들,국화꽃,무료,송이씩,정성,포장,국화꽃,송이,A씨,소식,언론,매체,인터뷰,요청,사장님,꽃집,사장,인하대,인근,고객층,인하대생,사건,피해자,인하대생,마음,원래,국화꽃,주말,국화꽃,학생들,전화,60송이,정도,구매,사장님,위로,추모,사장님,무료,예정,캠퍼스,인하대학교,동급생,성폭행,추락,사망,사건,발생,인하대,캠퍼스,범행,여학생,인하대,추모,교내,건물,추모공간,마련</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8024,7 +10129,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D422" t="n">
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>인하대,가해자,가능성,살인죄,적용,가능,이수정,주목,인하대,여학생,성폭행,추락,사망,사건,이수정,경기대,범죄,심리학,교수,가해자,살인죄,적용,개연성,교수,방송,KBS,라이브,출연,캠퍼스,인천,인하대,동급생,성폭행,건물,추락,혐의,구속,남학생,인하대,남학생,A씨,준강간,인정,의도,주장,가지,추가,죄명,개연성,A씨,적용,혐의,준강간치사,혐의,교수,불법촬영,살인,혐의,추가,가능성,건물,생명,위협,상식적,신고,구조,미필,고의,부작위,살인,설명,교수,A씨,현장,휴대전화,촬영,불법,정황,포착,영상,와중,완성,불법,촬영,영상물,언급,교수,A씨,B씨,피해,학생,사건,발생,건물,B씨,행인,발견,사이,주목,교수,건물,시점,15일,A씨,B씨,부축,행인,발견,시점,신고,시점,이날,강간,행위,유리창,상황,B씨,1시간,화단,출혈,상태,구조,대목,살인죄,개연성,지점,교수,A씨,고의,여부,입증,방법,피해자,추락,유리창,바닥,1m,실수,추락,경찰,창틀,확인,국과수,상황,가해자,추정,DNA,지문,개연성,상상,15일,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,B씨,여성,성폭행,건물,추락,혐의,A씨,준강,간치사죄,구속,A씨,경찰,조사,피해자,건물,사망,사실,인정,고의성,부인,경찰,추가,수사,A씨,B씨,건물,정황,확인,준강간살인,죄명,방침,경찰,관계자,가능성,수사,금요일,22일,사건,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8042,7 +10152,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D423" t="n">
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>이수정,인하대,사건,가해자,개연성,살인죄,적용,개연,부인,혐의,고의,경찰,검토,살인죄,적용,교수,미필,고의,부작위,동급생,인하대,캠퍼스,건물,성폭행,추락,남학생,이수정,경기대,범죄,심리학,교수,살인죄,적용,개연성,주장,교수,KBS,라이브,출연,건물,생명,위협,상식적,신고,구조,미필,고의,부작위,살인,준강간치사,혐의,A씨,경찰,조사,피해자,고의성,부인,준강간치사죄,심신상실,항거,불능,상태,간음,추행,피해자,적용,교수,B씨,피해,학생,추락,유리창,바닥,1m,실수,추락,경찰,유리창,창틀,확인,국과수,상황,A씨,추정,DNA,지문,A씨,창밖,B씨,개연성,상상,교수,행위,차이,고의,여부,입증,단서,설명,건물,시점,15일,1시,A씨,B씨,부축,A씨,강간,행위,B씨,유리창,상황,2시,분쯤,설명,A씨,신고,시점,3시,1시간,화단,출혈,상태,B씨,구조,대목,살인죄,개연성,지점,주장,교수,교육,성폭력,예방,필요성,강조,교수,학생,학생,성폭력,사건,범죄,진전,경계심,설치,교내,CCTV,시설적,개선,학생들,계도적,교육,역설,교수,A씨,사건,사건,불법,촬영,정황,포착,영상,와중,완성,불법,촬영,영상물,소방당국,사건,건물,사건,추락,B씨,구급대,현장,도착,호흡,맥박,상태,A씨,범행,도주,B씨,비판,제기,경찰,구속,영장,단계,살해,고의,결과적,사람,혐의,적용,추가,수사,결과,고의성,입증,살인죄,혐의,적용</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8060,7 +10175,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D424" t="n">
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락사,남학생,징계,절차,착수,인하대,교내,발생,여학생,성폭행,추락사,사건,가해,남학생,상대,징계,절차,착수,인하대학교,캠퍼스,동급생,성폭행,추락,사망,남학생,인천시,미추홀구,인천지법,구속,피의자,심문,영장실질심사,뉴시스,인하대,학칙,징계,규정,준강,간치사,혐의,구속,1학년,징계,대학장,의뢰,20일,규정,징계,근신,유기정학,무기정학,퇴학,4가지,A씨,징계,퇴학,조치,유력,퇴학,조치,A씨,소속,심의,대학,상벌,위원회,학장,제청,학생상벌위원회,의결,총장,처분,징계,퇴학,재입학,지연,절차,중순,A씨,징계,마무리,예상,인하대,관계자,일정,상태,규정,당사자,소명,절차,상황,심의,방식,검토,A씨,15일,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,B씨,여성,성폭행,추락,혐의,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,B씨,1시간,방치,행인,신고,병원</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8078,7 +10198,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D425" t="n">
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>사건,이수정,인하대,죄명,적용,유족,생각,젠더,갈등,비화,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,20,17일,구속,피의자,심문,영장,실질심사,미추홀구,인천지법,인천,이수정,경기대학교,범죄,심리학,교수,추락사건,인하대,성폭행,추락,사건,구속,가능성,죄명,추가,가능,예상,피해자,겨냥,가해,댓글,온라인,남녀,갈등,교수,KBS,라이브,출연,강간치사,혐의,구속,A씨,학교,죄명,추가,가능성,예상,피해자,추락,건물,유리창,바닥,높이,실수,추락,A씨,신고,미필,고의,부작위,살인,피해자,정도,출혈,상태,대목,살인죄,개연성,미필,고의,행위,범죄,결과,발생,가능성,행위,심리,부작위,조치,의미,경찰,A씨,신상,공개,여부,검토,경찰,추가,수사,A씨,피해자,건물,정황,확인,준강간살인,죄명,방침,경찰,추가적,신상,공개,여부,검토,가능성,경찰,검찰,송치,예정,교수,가해자,추정,사람,신상,벌금,정보,공유,반응,진행자,비난,가능,행위,일종,응징,심리,온라인,당사자,동의,정보,명예훼손,소송,위험,존재,신상,시작,상승효과,온라인,가해자,신상,피해자,신상,가해,피해자,댓글,젠더,갈등,유발,나중,엉망진창,비난,전쟁,양상,강조,학교,아이,주검,부모,심정,생각,여론전,진실,유족,가슴,젠더,갈등,비화,이야기</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8096,7 +10221,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D426" t="n">
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>피해자,인하대,사건,추락,호흡,1시간,방치,영장,실질,심사,법원,남학생,인천,인하대,캠퍼스,또래,남학생,성폭행,여학생,건물,추락,호흡,1시간,방치,확인,경찰,준강,간치사,혐의,구속,인하대,20,앞줄,15일,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,B씨,여성,성폭행,도주,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,경찰,B씨,건물,추락,시간대,당일,사이,A씨,B씨,부축,건물,시각,B씨,길가,행인,발견,시점,경찰,주변,폐쇄,회로,CC,TV,B씨,추락,1시간,혼자,건물,방치,B씨,장소,행인,캠퍼스,발견,경찰,관계자,B씨,행인,발견,정확,추락,시각,소방당국,행인,신고,119구급대,현장,도착,머리,심정지,상태,호흡,맥박,소방,당국,관계자,피해자,구급차,이송,모니터링,호흡,맥박,심정지,상태,심정지,병원,치료,사망,추락,A씨,추락,도주,소방당국,신고,B씨,목숨,지적,법조,관계자,B씨,추락,상태,추락,3층,병원,혼자,병원,이송,A씨,범행,도주,기소,재판,사유,양형,참작,예상,경찰,A씨,건물,B씨,고의,확인,상황,가정,현장,실험,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의성,부인,경찰,진술,토대,고의성,적용,준강,간치사,혐의,구속영장,신청,추가,수사,A씨,B씨,건물,정황,확인,준강간살인,죄명,방침,경찰,현장,사건,발생,건물,확보,A씨,휴대전화,불법,촬영,조사,경찰,관계자,가능성,수사,금요일,22일,사건,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8114,7 +10244,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D427" t="n">
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>피해자,인하대,사건,병원,2시간,심장,피의자,신고,수도,인하대학교,성폭행,사망,사건,피해자,여대,건물,추락,자발적,자발,호흡,파악,병원,이송,A씨,심장,판정,최종,사망,정지,회복,2시간,반복,준강,간치사,혐의,구속,남학생,학교,남학생,A씨,추락,도주,추락,소방당국,신고,생명,지적,발견,여학생,사망,사건,여학생,발견,현장,인하대학교,인천,미추홀구,건물,추모공간,마련,경찰,뉴시스,소방당국,A씨,15일,인천시,미추홀구,건물,인하대,공과,대학,평소,B씨,성폭행,건물,추락,3시,행인,발견,병원,머리,신고,경찰,소방,공동대응,119구급대,3시,학내,소방당국,119구급대,사건,현장,도착,A씨,호흡,맥박,소방,관계자,피해자,구급차,이송,모니터링,호흡,맥박,심정지,상태,심정지,병원,치료,도중,사망,설명,A씨,남동구,소재,종합병원,도착,4시,분쯤,외상,센터,의료진,CPR,심폐소생술,진행,수차례,심정지,회복,상태,확인,병원,7시,A씨,최종,사망,기록,병원,당일,머리,부위,외상,응급실,외상센터,병원,관계자,구급차,심정지,CPR,심장,7시,위급,상황,발생,응급조치,경찰,A씨,건물,추락,시간대,1시,3시,사이,1시,B씨,A씨,부축,건물,시각,주변,폐쇄,회로,CC,TV,영상,경찰,A씨,1시간,혼자,건물,방치,추정,A씨,장소,행인,캠퍼스,발견,경찰,관계자,A씨,행인,발견,고통,추락,시각,경찰,B씨,A씨,성폭행,고의,건물,가능성,주목,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,구속,피의자,심문,영장실질심사,인천지방법원,인천시,미추홀구,수사,추가,건물,정황,확인,준강간살인,죄명,방침,남학생,경찰,조사,A씨,고의성,부인,B씨,창문,1층,A씨,추락,장소,자취방,당일,경찰,체포,경찰,현장,사건,발생,단과,확보,B씨,휴대전화,불법,촬영,조사,경찰,관계자,가능성,금요일,22일,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8132,7 +10267,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D428" t="n">
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>인하대생,추락,1시간,방치,구급대,현장,맥박,호흡,확인,추락,수도,인하대,교정,또래,남학생,성폭행,여학생,건물,추락,119구급,병원,이송,호흡,병원,확인,가해자,인하대,도주,추락,소방당국,추락,소방,당국,신고,A씨,목숨,인천,소방본부,15일,행인,신고,119구급대,6분,현장,도착,머리,호흡,맥박,소방,본부,관계자,현장,도착,호흡,맥박,구급차,병원,이송,맥박,CPR,심폐소생술,병원,도착,호흡,맥박,가천길병원,학생,희망,처치들,응급실,도착,3시간,판정,결국,사망,사정,B씨,기소,재판,사유,양형,참작,전망,경찰,A씨,건물,추락,시간대,당일,사이,B씨,A씨,부축,건물,시각,A씨,길가,행인,발견,시점,경찰,주변,폐쇄,회로,CC,TV,A씨,추락,1시간,혼자,건물,방치,A씨,장소,행인,교정,발견</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8150,7 +10290,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D429" t="n">
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,피해,여학생,추락,방치,가해,행인발견,호흡,맥박,캠퍼스,인천,인하대,또래,남학생,성폭행,건물,추락,여학생,추락,1시간,방치,미추홀경찰서,인천,준강,간치사,혐의,구속,인하대,학교,건물,시각,여학생,행인,발견,시각,1시간,차이,경찰,관계자,방범,카메라,CCTV,휴대,전화,자료,A씨,이동,발견,시점,차이,정황,파악,수사,A씨,15일,인하대,캠퍼스,5층,단과,대학,건물,B씨,성폭행,B씨,추락,혐의,구속,경찰,B씨,창문,복도,추락,A씨,B씨,장소,자취방,추정,A씨,15일,B씨,부축,건물,모습,CCTV,화면,단과,대학,건물,B씨,행인,발견,경찰,신고,경찰,B씨,행인,발견,정확,추락,시점,소방,당국,119구급대,현장,도착,다량,출혈,심정지,상태,호흡,맥박,구급차,이동,심정지,상태,병원,7시,판정,최종,사망,경찰,A씨,고의,도주,여부,수사,경찰,A씨,휴대전화,사건,상황,사건,동영상,확보,불법,촬영,여부,조사</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8168,7 +10313,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D430" t="n">
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>여학생,인하대,사망,추락,호흡,도착,의식,호흡,맥박,상태,신고,경찰,고의추락,불법촬영,여부,수사,캠퍼스,인천,인하대,성폭행,추락,여학생,추락,1시간,거리,방치,발견,호흡,맥박,가해자,현장,신고,사망,지적,취재,동아일보,종합,준강,간치사,혐의,수사,인천,미추홀경찰서,교내,폐쇄,회로,CC,TV,피해자,피해자,건물,추락,시점,건물,확인,15일,단과대,건물,건물,입구,상태,행인,발견,경찰,사이,성폭행,건물,추락,1시간,추락,신고,건물,119구급대,현장,도착,의식,호흡,맥박,상태,머리,모습,추락,구급,조치,생명,추정,결국,결국,이송,도중,심정지,상태,발견,인근,병원,치료,7시,사망,판정,경찰,건물,고의,수사,한편,현장,확보,휴대전화,여부,불법,촬영,조사,휴대전화,음성,포함,영상,당일,촬영,경찰,관계자,추가,수사,주중,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8186,7 +10336,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D431" t="n">
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>가해자,인하대,성폭행,수사중,영상,디지털,포렌식,경찰,디지털,포렌식,수사,범행,동영상,함구,음성,파일,존재,사건,인하대,여대,성폭행,사망,수사,경찰,구속,인하대,A씨,휴대전화,범행,영상,범행,여부,확인,미추홀경찰서,인천,경찰,구속,A씨,휴대전화,디지털,포렌식,수사,적용,파일,경찰,A씨,기기,삭제,자료,영상,복원,범행,현장,범행,영상,음성,파일,확인,경찰,범행,동영상,범행,존재,음성,파일,함구,A씨,휴대전화,현장,사건,발생,단과대학,발견,일각,A씨,범행,촬영,휴대전화,의견,A씨,전화,가능성,경찰,관계자,A씨,휴대전화,확보,파일,범행,동영상,범행,존재,음성,파일,경찰,A씨,여대,추락,방치,여부,조사,소방당국,B씨,구조,호흡,맥박,A씨,B씨,부축,단과대학,15일,B씨,단과대학,행인,발견,A씨,15일,1시,인천시,미추홀구,인하대,캠퍼스,3층,단과,대학,건물,동급생,B씨,성폭행,추락,혐의,계절학기,경찰,조사,결과,계절,학기,수강,A씨,시험,등교,뒤풀이,차원,B씨,확인,A씨,범행,현장,범행,휴대전화,주거지,은신,폐쇄회로,CC,TV,휴대폰,추적,경찰,검거,법원,도주,증거,인멸,A씨,구속영장,발부</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8204,7 +10359,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D432" t="n">
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>인하대,사건,가해자,현장,휴대전화,발견,동영상,파일,인하대,캠퍼스,동급생,성폭행,사망,혐의,인하대,20,17일,인천지법,인천시,미추홀구,구속,피의자,심문,영장,실질심사,인하대,캠퍼스,동급생,성폭행,혐의,남학생,범행,불법촬영,범행,불법,촬영,시도,정황,포착,보도,YTN,인천,미추홀경찰서,준강,간치사,혐의,구속,현장,범행,휴대전화,상황,동영상,파일,확보,조사,경찰,A씨,의도적,불법촬영,시도,확인,상황,음성,영상,촬영,불법,촬영,혐의,적용,검토,피의자,심리,의도,수사,방침,A씨,15일,인하대,캠퍼스,5층,단과,대학,건물,B씨,학교,학생,상대,성범죄,추락,혐의,이날,3시,분쯤,길가,인하대,캠퍼스,나체,상태,B씨,행인,발견,신고,B씨,심정지,상태,병원,이송,7시,사망,B씨,A씨,성폭행,창문,건물,복도,1층,추락,사망,추정,A씨,피해자,장소,자취방,현장,휴대전화,당일,경찰,긴급체포,19일,B씨,건물,추락,1시간,방치,사실,공분,A씨,도주,신고,B씨,지적,A씨,경찰,조사,B씨,고의,살인,혐의,부인,경찰,A씨,준강,간치사,혐의,적용,구속영장,신청,법원,발부,경찰,A씨,상대,조사,한편,사건,검찰,송치,계획</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8222,7 +10382,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D433" t="n">
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>가해자,인하대,성폭행,수사중,영상,포렌식,언론,범행,경찰,구체,함구,사건,인하대,여대,성폭행,사망,수사,경찰,구속,인하대,A씨,휴대전화,범행,영상,범행,확인,미추홀경찰서,인천,경찰,구속,인하대,휴대전화,PC,디지털,포렌식,파일,경찰,A씨,기기,삭제,자료,영상,복원,범행,현장,범행,영상,음성,파일,확인,경찰,범행,동영상,범행,존재,음성,파일,함구,언론,A씨,휴대전화,범행,음성파일,범행,음성,파일,존재,경찰,보도,범행,동영상,범행,존재,음성,파일,A씨,인하대,3층,단과,대학,건물,동급생,B씨,성폭행,추락,혐의,A씨,휴대전화,현장,사건,발생,단과대학,발견,경찰,CCTV,사건,당일,탐문,피해자,A씨,추적,참고인,조사,혐의,발견,A씨,주거지,긴급체포,A씨,범행,B씨,15일,1시,분쯤,B씨,단과대학,건물,B씨,행인,발견,3시,경찰,B씨,추락,시간대,1시,3시,사이,CCTV,조사,A씨,범행,현장,범행,휴대전화,주거지,은신,CCTV,휴대폰,추적,경찰,검거,법원,도주,증거,인멸,A씨,구속영장,발부</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8240,7 +10405,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D434" t="n">
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>피의자,이수정,인하대,살인죄,적용,개연성,캠퍼스,인천,인하대,동급생,성폭행,추락,혐의,남학생,구속,이수정,경기대,범죄,심리학,교수,가능성,살인죄,적용,가능,언급,피의자,신고,구조,의무,살인죄,적용,개연성,설명,교수,KBS,라이브,건물,생명,위협,상식적,신고,구조,미필,고의,부작위,살인,설명,준강간치사,혐의,교수,고의,여부,입증,방법,피해자,추락,유리창,바닥,1m,실수,추락,경찰,창틀,확인,국과수,상황,가해자,추정,DNA,지문,개연성,상상,경찰,성폭행,사실,인정,준강,간치사,혐의,입건,경찰,조사,피해자,진술,살인,혐의,적용,경찰,피해자,추락,지점,현장,교내,장소,발견,증거,인멸,혐의,조사</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8258,7 +10428,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D435" t="n">
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>국화꽃,사장님,인하대,꽃집,사장,인하대,캠퍼스,1학년,사건,동급,성폭행,마감,교내,마련,분향소,추모객들,발길,추모객,재학생,국화꽃,꽃집,인하대,인근,주머니,사정,학생들,무료,국화꽃,황준하씨,꽃집,사장,황준하,분들,피해자,위로,국화꽃,조선닷컴,황씨,국화꽃,무료,소식,트위터,이용자,트위터,이용자,국화꽃,송이,구매,인하대,근처,B꽃집,방문,국화꽃,송이,구매,가능,A씨,황씨,추모,분들,국화,무료,송이씩,정성,포장,국화꽃,송이,A씨,황씨,국화꽃,감동,A씨,사진,인류애,후기,트윗,1만,리트윗,온라인상,눈물,감동,반응,조선닷컴,취재,황씨,사건,다음날,16일,국화꽃,시작,황씨,꽃집,인하대,인근,주고객층,인하대생,사건,피해자,인하대생,마음,원래,국화꽃,주말,국화꽃,학생들,전화,세단,60송이,정도,구매,결정,분들,위로,추모,국화꽃,무료,이번주,예정,황씨,이번주,추모객들,방문,휴무,국화꽃</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8276,7 +10451,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D436" t="n">
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>피의자,이수정,인하대,개연성,살인죄,적용,개연,동급생,성폭행,건물,추락,혐의,구속,남학생,인하대,남학생,여부,살인죄,적용,주목,이수정,경기대,범죄,심리학,교수,살인죄,적용,개연성,교수,방송,KBS,라이브,A씨가,준강간,인정,의도,주장,가지,추가,죄명,개연성,A씨,적용,혐의,준강간치사,혐의,불법,촬영,혐의,경찰,A씨,범행,현장,휴대전화,상황,영상,파일,확보,조사,교수,영상,와중,완성,불법,촬영,영상물,경찰,영상,촬영,불법,촬영,혐의,적용,검토,살인,혐의,교수,A씨,B씨,피해,학생,사건,발생,건물,B씨,행인,발견,사이,주목,교수,건물,시점,15일,1시,A씨,B씨,부축,행인,발견,시점,신고,시점,이날,3시,강간,행위,유리창,상황,2시,분경,CCTV,건물,주변,확인,경찰,B씨,추락,1시간,혼자,건물,방치,추정,교수,B씨,3시,1시간,화단,출혈,상태,구조,대목,살인죄,개연성,지점,교수,B씨,유리창,건물,생명,위협,상식,신고,구조,사망,미필,고의,부작위,살인,살인죄,적용,개연성,A씨,고의,여부,입증,방법,질문,B씨,추락,유리창,바닥,1m,실수,추락,경찰,유리창,창틀,확인,국과수,상황,A씨,추정,DNA,지문,A씨,창밖,B씨,개연성,상상,사건,최대,A씨,B씨,건물,고의,A씨,B씨,고의,주장,경찰,입증,고의,여부,추락,현장,상황,가정,실험,경찰,구속,영장,단계,살해,고의,결과적,사람,혐의,적용,추가,수사,결과,B씨,고의,입증,혐의,살인,적용,방침</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8294,7 +10474,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D437" t="n">
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>미달,인하대,평균,이수율,성폭력,예방,교육,이수,대학,위험,대학,성폭력,사건,대학생,참여율,성폭력,예방,교육,고교생,참여율,절반가량,46.1%,캠퍼스,성교육,사실,공백,상태,지적,19일,교육부,대학알리미,공개,실시현황,성폭력,예방,교육,현황,2020년,기준,확인,정보,공개,재학생,대학,재학,평균,성폭력,예방,교육,이수,46.1%,캠퍼스,사고,성폭행,사망,발생,인하대,교육,대상,재학,교육,수강,이수율,25.9%,기록,전국,대학,평균,이수,20.2%,포인트,수준,인하대,대학알리미,공개,이수율,기준,성폭력,예방,교육,이수,53.2%,이수,대상,1만,이수,인원,의대,불법,촬영,사건,발생,연세대,23.2%,전국,평균,재학생,교육,이수,이수,제로,학교,3곳,대신대,사이버한국외대,예원예술대,캠퍼스,대학,공백기,성폭력,예방,교육,방지법,현행,성폭력,성폭력방지,피해자보호,법률,고등,교육,기관장,기관,단체,소속,사람,학생,대상,1회,1시간,성폭력,예방,교육,규정,학생,기관장,의무규정,대학,재학,이수,성폭력,예방,교육,의무,전국,대학,평균,이수,50%,대학생,무관심,거부감,이수율,성폭력,예방,교육,이수,고교생,교육,이수,90%,기록,수준,여성,가족부,성희롱,성폭력,성매매,가정폭력,예방,교육,실적,점검,결과,백래시,사회,진보,변화,반발,페미니즘,강의,폐강,문제점,거론,20대,문화,지식,학습,대학,성교육,공백,폭력,예방,교육,강사,대학,한마디,성폭력,예방,교육,공백기,고교생,학교,취업,직장,의무적,폭력,예방,교육,정작,활동,대학생,교육,인하대,사건,가해자,피해자,학교,건물,만류,또래,청년,재학,커뮤니티,가해,저지,동료,시민,피해자,상대,1,발생,역할,시민,교육,교육,당국,폐회로티브이,CCTV,확대,강화,교내,출입,관리,사후,약방문식,대책,대학,내실,성교육,고민,연령,성범죄,가해자,대학,성범죄,증가,추세,대학,성교육,부재,치명적,대검찰청,마련,범죄분석,성범죄자,차지,비중,29.8%,성범죄,20대,의원,정찬민,국민의힘,교육부,제출,전국,대학,성희롱,성폭력,발생현황,전국,대학,성희롱,성폭력,발생,건수,3년,90%,증가,선임연구위원,이미정,한국여성정책연구원,선임,위원,대규모,온라인,성폭력,예방,교육,교육,분리,또래,집담회,실질적,교육,효과성,방식,고민,지적</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8312,7 +10497,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D438" t="n">
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>정부,은행,금산,분리,규제,부동산,배달,진출,가능,정부,금융자본,산업,자본,소유,한정,금산,분리,규제,구체적,은행들,자회사,부수,업무,범위,확대,정보기술,부동산업,배달업,가상자산업,진출,가능,인터넷,전문,은행,등장,아이티,업체,금융,결합,금융회사,지적,규제,완화,규제,완화,금산,분리,근간,금융위원회,금융규제혁신회의,금융,규제,혁신,회의,금융산업,신기술,산업,구조,변화,대응,36개,개선,김주현,금융,위원장,금융산업,방탄소년단,BTS,글로벌,금융,시장,선도,플레이어,출현,조성,불가침,성역,규제,근본적,재검토,위원장,금산,분리,완화,금산분리,금융자본,산업자본,상대,업종,소유,지배,원칙,우리나라,대기업,금융,회사,소유,산업자본,금융,자본,지배,중요,규제,위원장,규제,반대,금융자본,산업자본,소유,규제,은행들,자회사,은행법,은행,자회사,가능,업종,은행업감독규정,제49조,열거,금융,분야,한정,시중은행,사용자,인터페이스,사용자,이용경험,UX,디자,회사,부동산,업체,소프트웨어,회사,소프트웨어,인수,희망,규제,불가능,상황,금융위,은행들,자회사,허용,범위,은행들,업체,생활,서비스,아이티,서비스,업체,자회사,사업,진출,전업주,규제,완화,금융업법,금융회사,업무,범위,고유업무,부수업무,구분,부수업무,은행업무,연관성,존재,허용,연관성,혁신금융서비스,지정,은행들,금융위,부수,업무,규제,플랫폼,음식,배달,중개,가상자산,업무,입장,금융위,완화,이날,금산,분리,운동장,금융회사들,불만,카카오뱅크,케이뱅크,인터넷,전문,은행,등장,아이티,업체,금융업,진출,은행들,영역,위협,은행들,자신들,사업,규제,요구,교수,위정현,중앙대,경영학,플랫폼,경제,등장,아이티,금융,금융자본,금산분리,아이티,결합,침식,금융자본,진화,계기,아이티,업계,경쟁,환경,은행들,진출,금융자본,벤처,생태,발전,문재인,정부,인터넷전문은행,규제,혁신,추진,4차,산업,육성,은행들,규제,완화,신산업,모색,분위기,시중,은행,관계자,금융위,개선,은행업,요구,수용,은행들,가상자산,데이터,비즈니스,사업,확장,고민,빅테크,금융회사,경쟁,가속화,금산분리,사회,지탱,중요,규제,만큼,조심,접근,당부,금융위,대기업,금융,회사,소유,산업자본,금융,자본,지배,규제,이날,회의,산업자본,은행,주식,소유,규제,장기과제,검토,얘기,금융위,금융자본,산업,자본,소유,규제,완화,방침,금산,분리,원칙,훼손,교수,김진방,인하대,경제학,우리나라,전통적,산업자본,금융자본,지배,금융자본,산업,자본,진출,허용,일정,규제,주장,금융기관,경제,자금,배분,동시,역할,업무,왜곡,조심</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8330,7 +10520,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D439" t="n">
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>인하대,사건,국민,공분,피의자,검토,신상,공개,여부,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,17일,구속,피의자,심문,영장실질심사,인천지방법원,인천시,미추홀구,인천,인하대학교,용현,캠퍼스,성폭행,사건,구속,학교,신상,공개,여부,경찰,검토,인천경찰청,경찰,준강,간치사,혐의,구속,A씨,신상,공개,여부,검토,혐의,살인,고의성,적용,혐의,경찰,추가,수사,A씨,피해자,건물,정황,확인,준강간살인,죄명,방침,경찰,추가적,신상,공개,여부,검토,가능성,피의자,신상공개,특정강력범죄,처벌,특례법,특정강력범죄법,성폭력범죄,처벌,특례법,성폭력처벌법,근거,결정,특정강력범죄법,제8조,피의자,얼굴,공개,항목,범행수단,잔인,중대,피해,발생,특정강력범죄사건,피의자,증거,국민,권리,보장,피의자,재범방지,범죄예방,공공,이익,피의자,청소년,보호법,규정,청소년,요건,피의자,얼굴,이름,나이,공개,규정,성폭력처벌법,성폭력,범죄,피의자,증거,국민,권리,보장,피의자,재범,방지,공공,이익,얼굴,이름,나이,정보,피의자,신상,공개,피의자,특정강력범죄법,언급,청소년,보호법,규정,청소년,공개,경찰,그동안,신상,공개,심의,위원회,강윤성,김병찬,이석준,최찬욱,조현진,신상,공개,피의자,범행,수법,잔인,중대,피해,발생,국민,권리,부합,경찰,판단,사건,인하대,캠퍼스,발생,온라인,커뮤니티,A씨,추정,인물,사진,정보,확산,경찰,신상,공개,요건,국민,공분,별개,원칙,수사</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8348,7 +10543,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D440" t="n">
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>여대생,인하대,사망,여대,심장,병원서,2시간,추락,호흡,자발,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,구속,피의자,심문,영장실질심사,인천지방법원,인천시,미추홀구,성폭행,인하대학교,사망,사건,피해자,여대,건물,추락,자발적,자발,호흡,파악,병원,이송,A씨,심장,판정,최종,사망,정지,회복,2시간,반복,준강,간치사,혐의,구속,학교,남학생,A씨,추락,도주,추락,소방당국,신고,생명,지적,경찰,소방당국,A씨,15일,인천시,미추홀구,건물,인하대,공과,대학,평소,성폭행,건물,추락,3시,행인,발견,병원,머리,신고,경찰,소방,공동대응,119구급대,3시,학내,소방당국,119구급대,사건,현장,도착,A씨,호흡,맥박,소방,관계자,피해자,구급차,이송,모니터링,호흡,맥박,심정지,상태,심정지,병원,치료,도중,사망,설명,A씨,남동구,소재,종합병원,도착,4시,외상,센터,의료진,CPR,심폐소생술,진행,수차례,심정지,회복,상태,확인,병원,7시,A씨,최종,사망,기록,병원,당일,머리,부위,외상,응급실,외상센터,병원,관계자,구급차,심정지,CPR,심장,7시,위급,상황,발생,응급조치,캠퍼스,인천시,미추홀구,인하대학교,추락사,인하대,성폭행,피해자,추모,공간,마련,경찰,A씨,건물,추락,시간대,1시,3시,사이,1시,B씨,A씨,부축,건물,시각,주변,폐쇄,회로,CC,TV,영상,경찰,A씨,1시간,혼자,건물,방치,추정,A씨,장소,행인,캠퍼스,발견,경찰,관계자,A씨,행인,발견,고통,추락,시각,경찰,B씨,A씨,성폭행,고의,건물,가능성,주목,추가,수사,건물,정황,확인,준강간살인,죄명,방침,남학생,경찰,조사,A씨,고의성,부인,B씨,창문,1층,A씨,추락,장소,자취방,당일,경찰,체포,인하대,캠퍼스,A씨,여대,사건,경찰,지인,B씨,남성,조사,캠퍼스,인천시,미추홀구,인하대,A씨,발견,지점,인근,건물,계단,폴리스라인,설치,경찰,현장,사건,발생,단과,확보,B씨,휴대전화,불법,촬영,조사,경찰,관계자,가능성,금요일,22일,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8366,7 +10566,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D441" t="n">
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>공개,인하대,성폭,행범,경찰,전문가,판단,경찰,캠퍼스,인천,인하대,또래,여학생,성폭행,추락,혐의,구속,공개,피의자,신상,정보,검토,온라인상,피의자,추정,남성,신상정보,속도,경찰,피의자,혐의,대상,신상,정보,공개,결정,형사법,전문가,의견,박사,승재현,한국,형사,법무,정책,연구원,사건,피의자,신상,공개,가능,박사,조선닷컴,신상,공개,요건,의견,특정강력범죄,처벌,특례법,특강법,가능,의견,대상,특강법,신상,공개,준강간,발생,강간치사,신상,공개,대상,범죄,공개요건,충족,박사,신상,공개,여부,결정,법률,특강법,성폭력범죄,처벌,특례법,성폭법,성폭법,피의자,얼굴,공개,조항,준강간치사죄,신상공개,가능,성폭법,피의자,얼굴,공개,제1항,검사,사법경찰관,성폭력범죄,피의자,증거,국민,권리,보장,피의자,재범,방지,범죄예방,공공,이익,얼굴,성명,나이,피의자,신상,정보,공개,성폭력범죄,준강간,포함,특강법,혐의,대상,신상,정보,공개,특강법,범죄,혐의,살인죄,미수,포함,약취,유인,인신매매,강간,상해,치상,살인,치사,미만,강간,강도,강간,상해,치상,살인,구성,조직,폭력,단체,활동,공개,신상,정보,검토,규정,범행,수단,잔인,중대,피해,발생,피의자,증거,보장,국민,피의자,재범방지,범죄예방,공공,이익,피의자,청소년,청소년,보호법,미만,요건,충족,박사,사람들,공분,온라인상,제재,국민,인식,경찰청,인식,검찰,송치,순간,얼굴,공개,공개,경찰,구속,기간,수사,신상공개,결정,신상공개,경찰,독단적,의견,결정,국민,공분,사건,신상,공개,위원회,결정,강조,경찰,피의자,준강,간치사,혐의,구속,A씨,경찰,조사,피해자,고의성,부인,고의성,살인죄,적용,가능,온라인상,A씨,추정,남학생,신상,정보,경찰,A씨,신상정보,공개,신상공개심의위원회,운영,인천경찰청,관계자,죄명,살인,변경,신상,정보,공개,검토,검토,공개,여부</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8384,7 +10589,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D442" t="n">
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>인하대생,병원,이송,도착,인천,소방본부,구급대,도착,호흡,맥박,병원,심장,박동,시그널,3시간,사망,인하대,교정,또래,남학생,성폭행,여학생,건물,추락,119구급,병원,이송,호흡,병원,확인,가해자,인하대,1학년,도주,추락직,소방당국,신고,피해자,B씨,목숨,인천,소방본부,15일,행인,신고,119구급대,6분,현장,도착,머리,호흡,맥박,소방,본부,관계자,피해자,구급차,이송,모니터링,현장,도착,호흡,맥박,구급차,병원,이송,맥박,CPR,심폐소생술,병원,도착,호흡,맥박,가천길병원,심장박동,시그널들,학생,희망,처치들,응급실,도착,3시간,판정,결국,사망,사정,A씨,기소,재판,사유,양형,참작,전망,경찰,B씨,건물,추락,시간대,당일,사이,A씨,B씨,부축,건물,시각,B씨,길가,행인,발견,시점,경찰,주변,폐쇄,회로,CC,TV,B씨,추락,1시간,혼자,건물,방치,B씨,장소,행인,교정,발견,경찰,관계자,B씨,행인,발견,방치,정확,추락,시각</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8402,7 +10612,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D443" t="n">
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>후회,장면,고용장관,파업장,현장,장관,이정식,고용,노동부,파업,현장,헬기,대우조선해양,경남,거제,고용부,장관,개별,분규,개입,이례적,윤석열,대통령,장관,불호령,지적,이날,11시,후보자,윤희근,경찰청장,헬기,현장,대우조선해양,파업,고용부,장관,방문,파업,현장,공권력,지휘,동원권,행안부,경찰청,의미,진압,노사,분규,조정,중재,역할,자리,정부,작전,강온,양면,목소리,사실,노사,분규,고용부,장관,개입,부작용,노무현,대통령,대통령,집권,두산중공업,장기,파업,발생,기업,손실,인명,피해,불상사,공권력,투입,청와대,권기홍,노동부,장관,현장,중재,지시,관계자,노동부,고위,장관,장관,해결,개별,노사,분규,현장,장관,목소리,자율,해결,해결,장관,소리,결국,국정,운영,부담,만류,장관,창원,10일,장관,개입,협상,조율,63일,파업사태,봉합,장관,두산중공업,이틀,장관,전면,등장,기업,압박,원칙,고수,기업,별수,합의서,사인,철도,노조,파업,화물연대,집단운송거부,전교조,투쟁,전국,분규,장관,정부,교섭,노조,목소리,대통령,대통령,토로,두산중공업,사태,봉합,21일,그해,장관,창원행,관계자,노동부,고위,대통령,호통,급거,거제,장관,모습,데자뷰,고용부,장관,거제행,회사,압박,장관,중앙일보,얘기,담화문,불법,타협,메시지,노조,불법행위,압박,얘기,하청,노사,대화,타협,해결,대통령,만큼,상황,공권력,투입,상황,장관,거제행,마지막,타협,기회,노사,의도,사실,최악,상황,충정,공권력,투입,불상사,국정,동력,손상,여당,참사,이명박,정부,시절,용산,걱정,목소리,장관,마지막,중재,현장,노사,분규,고용부,장관,등장,자체,진두지휘,모양새,상황,협상,타결,부담,정부,해결,능력,도마,민주,노총,금속,노조,노동계,집단행동,예고,고용부,장관,중재,부작용,20년,두산중공업,봉합,재판,가능성,배제,현장,노사,분규,타결,중요,원칙,메시지,대통령,장관,노동부,교수,김대환,인하대,경제학,임명,원칙,강조,위법,행위,엄단,개별,분규,정부,개입,노사관계,정상화,궤도</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8420,7 +10635,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D444" t="n">
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>인하대,사건,가해자,불법,촬영,시도,인하대,캠퍼스,동급생,성폭행,A씨,남성,17일,구속,피의자,심문,영장실질심사,인천지방법원,인천시,미추홀구,뉴스1,동급생,성폭행,인하대학교,범행,불법촬영,범행,불법,촬영,시도,정황,보도,YTN,인천,미추홀경찰서,A씨,현장,범행,휴대전화,상황,동영상,파일,확보,조사,경찰,의도적,불법,촬영,시도,확인,상황,범행,경찰,영상,촬영,불법,촬영,혐의,적용,검토,방침,성폭행,여학생,건물,추락,1시간,방치,A씨,도주,신고,피해자,경찰,준강,간치사,혐의,구속,인하대,A씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과,대학,건물,지인,B씨,여성,성폭행,도주,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,소방당국,행인,신고,119구급대,현장,도착,머리,상태,심정지,상태,호흡,맥박,B씨,병원,치료,결국,경찰,B씨,건물,추락,시간대,사건,당일,1시,3시,사이,1시,A씨,B씨,부축,건물,시각,3시,B씨,인근,건물,인근,행인,발견,시점,경찰,주변,폐쇄,회로,CC,TV,B씨,추락,1시간,혼자,건물,방치,추정,B씨,장소,인적,장소,발견,B씨,추락,도주,신고,B씨,지적,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의성,부인</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8438,7 +10658,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D445" t="n">
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>추락,인하대,호흡,가해,학생,도주,1시간,방치,진술,준강,간치사,혐의,구속,학생,추락,불법,촬영,여부,수사,인하대학교,교정,남학생,성폭행,학생,건물,추락,호흡,1시간,방치,경찰,준강,간치사,혐의,구속,인하대,15일,인천시,미추홀구,인하대,교정,5층,단과,대학,건물,B씨,학생,성폭행,도주,피해자,추락,장소,도주,A씨,B씨,창문,복도,1층,추락,B씨,장소,자취방,경찰,체포,경찰,B씨,건물,추락,시간대,당일,사이,A씨,B씨,건물,시각,B씨,길가,행인,발견,시점,경찰,주변,폐쇄,회로,CC,TV,B씨,추락,1시간,혼자,건물,방치,B씨,장소,행인,발견,경찰,관계자,B씨,행인,발견,정확,추락,시각,설명,범행,도주,사유,양형,참작,소방당국,행인,신고,119구급대,현장,도착,머리,심정지,상태,호흡,맥박,소방,당국,관계자,피해자,구급차,이송,모니터링,호흡,맥박,심정지,상태,심정지,병원,치료,사망,추락,A씨,추락,도주,소방당국,신고,B씨,목숨,지적,법조,관계자,B씨,추락,상태,추락,3층,병원,혼자,병원,이송,관계자,A씨,범행,도주,기소,재판,사유,양형,참작,현장,발견,휴대전화,경찰,A씨,건물,B씨,고의,확인,상황,가정,현장,실험,경찰,A씨,부인,진술,구속영장,준강,간치사,혐의,구속,영장,신청,추가,수사,A씨,B씨,건물,정황,준강간살인,죄명,방침,경찰,현장,사건,발생,건물,확보,A씨,휴대전화,불법,촬영,조사,경찰,관계자,가능성,수사,사건,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8456,7 +10681,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D446" t="n">
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>여대생,인하대,사망,여대,추락,호흡,맥박,방치,인하대,캠퍼스,또래,남학생,성폭행,여학생,건물,추락,1시간,방치,소방,당국,행인,신고,구급대,현장,도착,A씨,피해자,호흡,맥박,상태,머리,심정지,상태,소방,당국,관계자,발견,호흡,맥박,심정지,상태,심정지,구급차,이송,모니터링,병원,이송,결국,치료,사망,경찰,A씨,건물,추락,시간대,당일,1시,3시,사이,혐의,구속,인하대,B씨,A씨,부축,건물,시각,1시,건물,인근,바닥,A씨,행인,발견,시점,3시,경찰,주변,폐쇄,회로,CC,TV,A씨,추락,1시간,혼자,건물,방치,추정,사건,일반,시민,캠퍼스,발견,경찰,추정,경찰,관계자,A씨,행인,발견,B씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,단과,대학,건물,여학생,학교,또래,A씨,성폭행,추락,혐의,구속,B씨,A씨,창문,복도,1층,추락,신고,조치,A씨,장소,자취방,당일,경찰,체포,B씨,A씨,마지막,파악,B씨,경찰,조사,A씨,건물,사실,인정,A씨,고의성,부인,경찰,건물,A씨,고의,확인,현장,실험,진행,경찰,관계자,가능성,수사,사건,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8474,7 +10704,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D447" t="n">
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>피해자,인하대,사건,호흡,1시간,방치,사망,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,실질심사,영장,실질,심사,인천지법,인천,인하대,캠퍼스,또래,남학생,성폭행,여학생,건물,추락,호흡,1시간,방치,가해자,도주,신고,피해자,지적,경찰,준강,간치사,혐의,구속,인하대,15일,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과대,건물,지인,B씨,여성,성폭행,도주,A씨,창문,복도,1층,추락,피해자,장소,자취방,당일,경찰,체포,소방,당국,행인,신고,구급대,현장,도착,머리,심정지,상태,호흡,맥박,B씨,병원,치료,결국,경찰,B씨,사건,당일,건물,추락,시간대,1시,3시,1시,A씨,B씨,부축,단과대,건물,시각,3시,B씨,인근,건물,인근,행인,발견,시점,경찰,주변,폐쇄,회로,CC,TV,B씨,추락,1시간,혼자,건물,방치,추정,인적,장소,발견,B씨,추락,도주,신고,피해자,지적,A씨,재판,사유,양형,참작,승재현,한국,형사,법무,정책,위원,YTN,A씨,주장,고의성,우발적,사고,신고,지적,위원,A씨,신고,휴대전화,현장,자수,주장,현장,휴대전화,경찰,전화,가해자,경찰,범행,시인,A씨,경찰,조사,B씨,건물,사망,사실,인정,고의성,부인,경찰,진술,토대,살인,고의성,적용,준강,간치사,혐의,구속영장,신청,추가,수사,A씨,B씨,건물,정황,확인,준강간살인,죄명,방침</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8492,7 +10727,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D448" t="n">
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>포럼,칩4,참여,당위,지렛대,對中,협력,정인교,인하대,국제통상학,교수,통상,교섭,위원회,민간,위원장,5월,대통령,아시아,순방지,삼성전자,선택,자국,반도체,공급,구축,미국,행정부,의지,표현,반도체,생산,공정,국제적,분화,대표적,산업,설계,미국,기업,장비,미국,일본,유럽,생산,한국,대만,기업,구조,가전,자동차,사용,생산,범용,반도체,중요,첨단무기,인공위성,인공지능,AI,필수적,반도체,세계,최고,설계,생산기술,물질,제조장비,소프트웨어,미국,한국,일본,대만,칩4,반도체,동맹,제안,우리나라,3국,반도체,동맹,최적,미국,세계,파운드리,업체,TSMC,정부,전임,문재인,제안,반도체,동맹,사실,거부,일본,대만,미국,협력,중국,판단,우리나라,수출액,우리나라,25%,중국,미국,추구,반도체,동맹,정권,산업,정책,국가안보정책,행정부,도널드,트럼프,행정부,미국,AI,세계질서,게임체인저,판단,위원회,인공지능국가안보위원회,NSCAI,설립,국방수권법,NDAA,반영,위원회,명칭,반도체,적용,AI,국가안보,직결,보고서,NSCAI,최종,미국,반도체,생산,확충,제안,AI,소프트웨어,실현,컴퓨팅,설비,소프트웨어,미국,최강,첨단,반도체,설계,장비,장비,공정,유럽,동아시아,선점,바이든,대통령,전임,트럼프,정책,다수,대중국,정책,국가,안보,정책,계승,강화,NSCAI,보고서,백악관,반도체,회의,미국,장비,소프트웨어,일정,수준,포함,반도체,품목,반도체,서비스,국제,수출통제,심사,외국인,투자,강화,네덜란드,ASML,극자외선,EUV,첨단,반도체,장비,수출,사실,미국,결정,미국,8월,반도체,동맹,참여,여부,결정,한국,요청,중국,시장,미국,기술동맹,선택,동맹,선택,나라,산업,우리나라,반도체,주목,반도체,산업,미래,먹거리,유지,공급망,안정,국제,협력,우선,칩4,동맹,가입,미국,설계,핵심,장비,일본,핵심,소재,부품,반도체,생산,사실,대만,TSMC,중국,철수,상황,반도체,기업,중국,필수적,미국,주도,반도체,동맹,참여,중국,메모리,공급,중단,중국,반도체,안정적,공급,한국,기업,중국,반도체,반도체,공급망,협력,강화</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8510,7 +10750,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D449" t="n">
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>사건,인하대,강간,사망,피해자,발견,호흡,성폭행,건물,추락,피해자,발견,호흡,소방,당국,발견,맥박,인하대,캠퍼스,또래,남학생,성폭행,건물,추락,A씨,여성,구급,대원,도착,생존,확인,혐의,구속,인하대,B씨,신고,조치,도주,A씨,현장,방치,당국,소방,행인,신고,구급대,현장,도착,심정지,상태,관계자,소방,당국,발견,호흡,맥박,심정지,상태,심정지,구급차,이송,모니터링,병원,이송,결국,치료,사망,경찰,주변,CCTV,추정,A씨,추락,시간대,당일,1시,3시,사이,B씨,A씨,부축,건물,시각,1시,건물,인근,바닥,A씨,행인,발견,시점,3시,정확,추락,시점,확인,사건,일반,시민,캠퍼스,발견,경찰,추정,경찰,관계자,A씨,행인,발견,B씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,단과대,건물,여학생,학교,또래,A씨,성폭행,추락,혐의,구속,경찰,5층,건물,성폭행,A씨,3층,추락,사망,추정,B씨,A씨,마지막,파악,B씨,경찰,조사,A씨,건물,사실,인정,A씨,고의성,부인,경찰,구속영장,진술,토대,살인,치사,혐의,적용,B씨,고의,A씨,건물,정황,확인,살인,죄명,방침,경찰,건물,A씨,고의,확인,현장,실험,진행,경찰,관계자,가능성,수사,금요일,22일,사건,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8528,7 +10773,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D450" t="n">
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>인하대,성폭,행범,피해자,호흡,추락,맥박,범인,학교,시각과,발견,1시간,차이,인하대,캠퍼스,남학생,성폭행,건물,추락,여학생,추락,1시간,방치,경찰,준강,간치사,혐의,구속,인하대,학교,건물,시각,B씨,행인,발견,시각,1시간,차이,경찰,관계자,방범카메라,CCTV,휴대,전화,자료,A씨,이동,발견,시점,차이,정황,파악,수사,A씨,15일,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,B씨,여성,성폭행,B씨,추락,혐의,경찰,B씨,창문,복도,1층,추락,A씨,B씨,장소,자취방,추정,A씨,15일,1시,분쯤,B씨,부축,건물,모습,CCTV,화면,3시,분쯤,행인,건물,B씨,발견,경찰,신고,경찰,B씨,행인,발견,정확,추락,시점,소방당국,119구급대,현장,도착,다량,출혈,심정지,상태,호흡,맥박,A씨,B씨,추락,신고,B씨,지적,경찰,A씨,고의,도주,여부,수사,사안,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의성,부인</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8546,7 +10796,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D451" t="n">
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>커뮤니티,인하대,여성,화환,강제,철거,유족들,요청,인하대,성폭행,사망,사건,중심,여성,사용자,온라인,커뮤니티,근조화환,학교,강제,철거,유언비어,학교,대응,인하대,공식,홈페이지,학생,공동,대응,태스크포스,TF,이날,SNS,소셜네트워크서비스,유언비어,대응,유언비어,제목,공지,철거,화환,강제,정리,추모,공간,소문,해명,TF,소문,사실,유가족,사건,조명,가해,장례,기점,추모,공간,추모,행위,정리,의사,해명,화환,수량,추모,공간,배송,유가족,상황,유가족,요청,철수,추모,공간,화환,반송,혼동,유가족,마음,추모,부탁,당부,피해자,추모,공간,조성,성향,여초,온라인,커뮤니티,모금,근조화환,움직임,십시일반,마련,화환,130여,인하대,교직원,유족,추모,화환,조롱,철거,소문,커뮤니티,회원,근조화환,앞날,죽음,죽음,진실,연대,하루,결백,피해자,책임,범죄,직시,문구</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8564,7 +10819,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D452" t="n">
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>신고,인하대,피해자,추락,방치,인하대,캠퍼스,동급생,성폭행,여학생,건물,추락,1시간,방치,발견,경찰,준강,간치사,혐의,구속,남학생,인하대,남학생,15일,인천시,미추홀구,인하대,캠퍼스,단과,대학,건물,여학생,학교,여학생,성폭행,도주,창문,복도,1층,추락,자취방,경찰,당일,사이,추락,부축,건물,시각,입구,건물,입구,행인,발견,경찰,주변,폐쇄,회로,CC,TV,추락,1시간,혼자,건물,방치,추정,장소,행인,캠퍼스,발견,경찰,관계자,행인,발견,정확,추락,시점,소방당국,행인,신고,119구급대,현장,도착,머리,심정지,상태,호흡,맥박,소방,당국,관계자,피해자,구급차,이송,모니터링,호흡,맥박,심정지,상태,심정지,병원,치료,사망,추락,도주,신고,지적,경찰,조사,건물,사실,인정,고의성,부인,경찰,진술,토대,살인,고의성,적용,준강,간치사,혐의,구속영장,신청,추가,수사,건물,정황,확인,준강간살인,죄명,예정</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8582,7 +10842,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,사망,피해자,추락,1시간,방치,인하대,캠퍼스,또래,남학생,성폭행,여학생,건물,추락,1시간,방치,경찰,준강,간치사,혐의,구속,인하대,A씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과,대학,건물,지인,B씨,여성,성폭행,도주,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,경찰,B씨,건물,추락,시간대,이날,1시,3시,사이,1시,A씨,B씨,부축,건물,시각,3시,B씨,인근,건물,인근,행인,발견,시점,경찰,주변,CCTV,B씨,추락,1시간,혼자,건물,방치,추정,B씨,장소,행인,캠퍼스,발견,소방당국,행인,신고,119구급대,현장,도착,머리,상태,심정지,상태,호흡,맥박,소방,당국,관계자,피해자,구급차,이송,모니터링,호흡,맥박,심정지,상태,심정지,병원,치료,사망,B씨,추락,도주,신고,B씨,지적,경찰,A씨,건물,B씨,고의,상황,가정,현장,실험,진행,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의성,부인,경찰,진술,토대,살인,고의성,적용,준강,간치사,혐의,구속영장,신청,추가,수사,A씨,B씨,건물,정황,확인,준강간살인,죄명,방침,경찰,관계자,가능성,수사,22일,사건,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8600,7 +10865,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>인하대,사건,피해자,추락,1시간,방치,진술,준강,간치사,혐의,구속,학생,추락사,여부,추가,수사,인하대,캠퍼스,남학생,성폭행,학생,건물,추락,1시간,방치,파악,경찰,준강,간치사,혐의,구속,인하대,15일,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,성폭행,도주,장소,도주,A씨,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,경찰,B씨,건물,추락,시간대,당일,사이,A씨,B씨,건물,시각,B씨,인근,건물,인근,행인,발견,시점,경찰,주변,폐쇄,회로,CC,TV,B씨,추락,1시간,혼자,건물,방치,추정,B씨,장소,행인,캠퍼스,발견,경찰,관계자,B씨,행인,발견,정확,추락,시점,설명,도주,신고,소방당국,행인,신고,119구급대,현장,도착,머리,심정지,상태,호흡,맥박,소방,당국,관계자,피해자,구급차,이송,모니터링,호흡,맥박,심정지,상태,심정지,병원,치료,사망,B씨,추락,도주,신고,B씨,지적,법조,관계자,추락,상태,혼자,방치,병원,이송,A씨,범행,도주,기소,재판,사유,양형,참작,경찰,정황,죄명,방침,경찰,A씨,건물,B씨,고의,확인,상황,가정,현장,실험,경찰,A씨,부인,진술,구속영장,준강,간치사,혐의,구속,영장,신청,추가,수사,A씨,B씨,건물,정황,준강간살인,죄명,방침,경찰,관계자,가능성,수사,사건,검찰,송치,예정,설명</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8618,7 +10888,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>추락,인하대,호흡,1시간,방치,사망,인하대,캠퍼스,또래,남학생,성폭행,여학생,건물,추락,호흡,1시간,방치,확인,경찰,준강,간치사,혐의,구속,인하대,15일,인천시,미추홀구,인하대,캠퍼스,5층,단과,대학,건물,지인,B씨,여성,성폭행,도주,인하대,캠퍼스,동급생,성폭행,추락,A씨,남성,구속,피의자,심문,영장실질심사,인천지방법원,인천시,미추홀구,뉴스1,B씨,창문,복도,1층,추락,B씨,장소,자취방,당일,경찰,체포,경찰,B씨,건물,추락,시간대,당일,사이,A씨,B씨,부축,건물,시각,B씨,길가,행인,발견,시점,경찰,주변,폐쇄,회로,CC,TV,B씨,추락,1시간,혼자,건물,방치,B씨,장소,행인,캠퍼스,발견,경찰,관계자,B씨,행인,발견,정확,추락,시각,소방당국,행인,신고,119구급대,현장,도착,머리,심정지,상태,호흡,맥박,소방,당국,관계자,피해자,구급차,이송,모니터링,호흡,맥박,심정지,상태,심정지,병원,치료,사망,추락,A씨,추락,도주,소방당국,신고,B씨,목숨,지적,여학생,발견,현장,인천,미추홀구,용현동,인하대학교,단과,대학,건물,추모,공간,추모,행렬,관계자,뉴시스,법조,B씨,추락,상태,추락,3층,병원,혼자,병원,이송,A씨,범행,도주,기소,재판,사유,양형,참작,예상,경찰,A씨,건물,B씨,고의,확인,상황,가정,현장,실험,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의성,부인,경찰,진술,토대,고의성,적용,준강,간치사,혐의,구속영장,신청,추가,수사,A씨,B씨,건물,정황,확인,준강간살인,죄명,방침,경찰,현장,사건,발생,건물,확보,A씨,휴대전화,불법,촬영,조사,경찰,관계자,가능성,수사,금요일,22일,사건,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8636,7 +10911,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락사,가해자,퇴학,검토,플랫,인하대학교,캠퍼스,발생,사건,성폭행,사망,학교측,재학생,폭력,방지,교육,확대,재발,방지,대책,마련,경찰,준강,간치사,혐의,구속,학생,추가,조사,22일,검찰,송치,예정,인하대학교,사망사고,교내,성폭행,사망,사고,시설,개선,확대,폭력,방지,교육,퇴학,가해,학생,전반적,대책,마련,18일,학생증,시간,출입,캠퍼스,건물,사전,승인,학생,출입,출입,가능,조정,보완책,검토,교내,설치,폐쇄회로,CC,TV,765대,보안,순찰,강화,방침,전교생,상대,성폭력,특별교육,성폭력,특별,교육,2회,학생,A씨,재판,결과,선조치,일환,퇴학,징계절차,착수,예정,사건,수사,인천,미추홀경찰서,가해학생,A씨,준강,간치사,혐의,적용,구속,추가,조사,강간,살인,혐의,가능성,수사,준강간치사,심신상실,항거불능,상태,이용,간음,추행,처벌,준강간치사,법정형,무기,10년,징역형,강간,사형,무기징역,경찰,사망사건,인하대,성폭행,사망,사건,신상,공범,정보,난무,가해,자제,요청,경찰,보강수사,A씨,검찰,송치,예정,경찰,관계자,A씨,진술,증거,종합적,수사,언론,비판,추락,피해자,발견,상태,직설적,표현,피해자,성별,강조,제목,기사,언론,양태,초기,보도,사건,관음증,관심,부채질,비판,따름,https://t.co/hwzCrPf099/NUrl,플랫,flatflat38,18,,플랫팀,twitter.com,flatflat38</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8654,7 +10934,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>인하대,사건,여초,130개,커뮤니티,화환,철거,사진,커뮤니티캡처,커뮤니티,여초,온라인,인하대,마련,공간,성폭행,사망,피해자,추모,근조,화환,커뮤니티,사망자,모금,활동,130여개,근조화환,화환,의족,요청,설치,반송,인하대,유가족들,사건,주목,온라인커뮤니티,교직원,임의,철거,유언비어,논란,커뮤니티,인하대,TF,학생,공동,대응,유언비어,공지,사실,TF측,화환,철거,추모,공간,정리,SNS,유언비어,확인,상황,SNS상,총무부,유족들,철거,추모,화환,교직원들,추모,화환,총대,책임자,조롱,사실,유가족분들,사건,조명,가해,추모,공간,추모,행위,장례,기점,정리,의사,화환,수량,배송,유가족분들,상황,유가족분들,요청,추모,공간,철수,화환,반송,학생분들,화환,분들,유언비어,혼동,인하대,교내,발생,여학생,성폭행,사망,사건,가해,대응,인하대,교학,위원장,성폭력,사망,사건,대책위,사건,방지,가해,강화,시설,보안,전반적,대책,논의,대책위,입장문,인터넷,피해자,가해,용납,피해자,모욕,고인,학교,명예,실추,대응,강구,방침,학생들,감수성,교과,성교육,강화,학생,심리,상담소,활성화,정기적,순찰,확대,야간,치안,강화,상담,학생,심리,치료,지원,방안,제시,인하대,캠퍼스,동급생,성폭행,A씨,남성,17일,구속,피의자,심문,영장실질심사,인천지방법원,인천시,미추홀구,뉴스1,사건,인하대,캠퍼스,성폭력,사망,수사,인천,미추홀경찰서,긴급체포,A씨,재학,구속,영장,신청,준강,간치사,혐의,적용,인천지법,당직,판사,도주,증거인멸,A씨,구속영장,발부,준강간치사,만취,저항,피해자,상태,이용,성폭행,직접적,결과,피해자,죽음,적용,혐의,인천시,미추홀구,인하대,캠퍼스,단과,대학,건물,바닥,발견,신고,접수,B씨,병원,이송,이날,A씨,B씨,부축,학교,건물,장면,폐쇄,회로,CC,TV,건물,발견,A씨,휴대전화,토대,A씨,혐의자,특정,경찰,발생,당일,긴급체포,계절학기,경찰,조사,결과,계절,학기,수강,B씨,시험,등교,뒤풀이,차원,A씨,확인,경찰,B씨,건물,지상,추락,추정,진행,부검,국립과학수사연구소,사인,다발,손상,구두,소견,경찰측,전달</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8672,7 +10957,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>인하대,교직원,조롱,조화,철거,가짜,일침,네티즌들,조화,문구,연대,문구,중심,여성,사용자,온라인,커뮤니티,인하대,마련,성폭행,사망,피해자,추모,공간,근조화환,유족,철거,커뮤니티,인하대,TF,학생,공동,대응,유언비어,공지,화환,철거,추모,공간,정리,유언비어,해명,온라인,커뮤니티,추모,공간,소식,모금,화환,움직임,다수,네티즌,화환,인하대,교직원,유족,추모,화환,조롱,철거,소문,TF,사실,유가족분들,사건,조명,가해,추모,공간,추모,행위,장례,18일,기점,정리,의사,화환,수량,추모,공간,배송,유가족분들,상황,TF,유가족분들,요청,철수,추모,공간,화환,반송,학생분들,화환,분들,유언비어,분들,혼동,유가족분들,마음,추모,부탁,당부,소셜,미디어,커뮤니티,화환,사진,화환,죽음,죽음,진실,연대,하루,결백,피해자,책임,범죄,직시,문구,네티즌들,유족,슬픔,허락,화환,가족,세상,나라,거절,반응</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8690,7 +10980,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>현장,인하대,범행,가해자,전문가,자수,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,17일,구속,피의자,심문,영장,실질심사,미추홀구,인천지법,인천,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,A씨,학교,남학생,사건,현장,휴대전화,형사법,전문가,승재현,한국,형사,법무,정책,위원,인터뷰,YTN,피해자,추락,사실,신고,휴대전화,가해자,자수,경찰,현장,휴대전화,확인,전화,A씨,범행,시인,경찰,연락,피해자,가지,옷가지,현장,장소,이야기,증거인멸,범행,정황,양형,사유,판단,가중,사유,양형,참작,A씨,15일,인천시,미추홀구,인하대,캠퍼스,5층,건물,지인,B씨,여성,성폭행,3층,추락,혐의,준강간치사,구속,A씨,경찰,조사,B씨,건물,사실,인정,B씨,고의성,부인,준강간치사,피해자,항거,심신미약,상태,성폭행,피해자,강간,무기징역,10년,징역형,선고,강간살인,무기,사형,캠퍼스,인천시,미추홀구,인하대학교,추락사,인하대,성폭행,피해자,추모,공간,마련,혐의,준강,간치사,적용,조사,경찰,A씨,B씨,고의,창문,확인,살인,혐의,적용,방침,A씨,살인,혐의,부인,경찰,추락,시뮬레이션,입증,살인,혐의,확보,추가,증거,주력,위원,경찰,준강간치사,영장,청구,제도,공소장,변경,준강간살인,정확,명칭,강간살인,경찰,살인,고의,확인,대목,위원,A씨,B씨,학교,범죄,경찰,범죄,형량,가중,양형,인자,대표적,범죄,계획,A씨,의도,학교,수사,살인죄,최고형,우리나라,법정,범죄,생각,주장,정은나리</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8708,7 +11003,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D460" t="n">
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>침묵,최강욱,북송,논란,직격,장사,북한,이슈,의원,더불어민주당,최강욱,논란,성희롱,발언,지난달,당원권,정지,처분,자숙모드,의원,더불어민주당,최강욱,처분,침묵,강제,북송,논란,직격,18일,의원,페이스북,소개,나라,북한,이슈,장사,권력,기관,활용,언론,플레이,국민,시대,통찰,북한,이슈,발생,북송,사건,풀이,의원,야당,민주당,소속,정치인,책임,당내,권력,확보,정파,장사치,전락,언론,이름,장사,정치,자영업,연장,불법적,부당,권력,횡포,철저,견제,국민,나라,가치,생각,제언,의원,소개,윤홍식,인하대,사회,복지,학과,교수,성공,한국,불평등,복지국가,전날,북어민,강제북송,상황,촬영,영상,공개,당국,문재인,정부,발생,피살사건,서해,공무원,피살,사건,북송,사건</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8726,7 +11026,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D461" t="n">
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>행실,인하대,피해자,2차,분노,여성들,성범죄,피해자,온라인상,비난,신상,보도,선정,언론,발생,인하대,성폭행,사망,사건,가해,현상,분노,여론,20,중심,사건,피해자,성범죄,최악,반응,총집합,반응,분노,온라인,공간,여과,고인,모욕,비난,게시글,대학,인증,가입,커뮤니티,에브리타임,사건,상황,사건,추측,희화화,게시글,다수,사건,유튜브,영상,보도물,따위,댓글,포털,사이트,검색창,인하대,연관,검색어,피해자,신상,표현들,오유선,하루,성범죄,사건,사건,피해자,재학,대학,커뮤니티,학교,명예,운운,피해자,행실,지적,충격,재발,방지,약속,학교,총학생회,입장문,부족,인터넷,공간,성범죄,피해자,가해,언론,지적,조윤희,사건,공론화,기사,제목,피해자,성별,신상,특정,가해자,보도,피해자,과도,관심,성폭행,거부,언론,표현,만취,상태,정보들,피해자,조심,사건,개연성,부여,가해,지적,실제,민주언론시민연합,네이버,포털,사이트,검색,인하대,인하대,전수,결과,언론사,제목,선정적,표현,사용,제목,피해자,신상,여대생,여성,표현,언론사,42개,종합편성방송사,보도,사건,원인,캠퍼스,무분별,음주,문화,가해자,범죄사실,주목,황망,목숨,여성,피해자,이용,각종,상상,기사,비참,과거,보도,성폭행,비관,여대생,정조관념,멘트,시대,발짝,느낌,익명,요구,여성학,교수,비극적,죽음,온라인,플랫폼,언론,대학,가해,방관,상황,책임,성찰</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8744,7 +11049,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D462" t="n">
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>미국,여름,휴가,포기,VS,유럽,여행,7월,8월,여행,직장인,사이트,호텔,예약,가격표,휴가,포기,정씨,강릉,부산,리조트나,호텔,1박,원씩,감당,환율,해외여행,포기,여행,물가,푸념,사례,유행,20,고물가,환율,금리,3고,여파,휴가철,유럽,미국,등지,해외여행,기세,고급,식당,예약,마감,양극,현상,직장인,이유정,물가,금리,지출,코로나,확산,추세,휴가,포기,생각,코로나,여행,해외,상황적,여유,직장인,물가,생활비,휴가,여유,가족들,회의,여행,포기,보통,여행,지출,식비,여유,상황,식비,지출,생각,가족들,다들,아쉬움,물가,휴가,포기,휴포자,속출,상대적,비용,예약률,해외여행,상품,예약,변화,코로나,비교,수준,여행,수요,회복,30%,안팎,상황,미주,유럽,노선,수요,업계,설명,관계자,대형,여행사,예약,현황,체크,변동,회복세,물가,환율,예견,요소,영향,고물가,금리,현상,시대,양극,외식,분야,마포구,혼자,집밥,허리띠,사회관계망서비스,SNS,인기,사진,호텔,빙수,허탈,백씨,빙수,그릇,8만,모습,요즘,쓴웃음,빙수,2만,정도,가격,매장,대기,평일,1시간,비일비재,업체,설명,유명,셰프,운영,강남구,청담동,스시,오마,카세,주방장,특선요리,전문,식당,토요일,23일,예약,음식점,메뉴,가격,1인,20만,직원,주말,2주,연락,예약,가능,예약,오픈,토요일,예약,1인,식사,가격,19만,27만,원씩,청담동,스시,오마,카세,당장,평일,주말,예약,상황,직장인,강민지,나이,또래들,원씩,소릴,사람들,세상,얘기,일각,미래,저축,당장,만족,소비,집중,욜로,YOLO,청년,사이,소비,성향,분화,이명진,고려대,사회학,교수,경제,상황,자산,사람들,상태,세대,특성,경제,영향,상황,풀이,이은희,인하대,소비자학,교수,세대,자산,임금,안정,상황,그동안,플렉스,felx,과시,문화,상황,계기,안정적,미래,준비,움직임,긍정적,진단</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8762,7 +11072,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D463" t="n">
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>하늘나라,발길,성폭행,피해,여대,추모,추락,인하대,여대,사망,사건,피해자,추모공간,학생,교직원,발길,강승훈,이생,강승훈,하늘나라,18일,인하대학교,캠퍼스,동급,성폭행,추락,여학생,추모,마련,공간,A씨,15일,발견,정면,공과,대학,마지막,장소,추모,공간,A씨,애도,발길,입구,단과대,건물,화환,앞날,수천송,기억,고인,명복,바람,인하대,정보,통신,공학,신현민,피해자,A씨,또래,여학생,감정,서로,한참,눈물,자리,학내,구성원,비보,인근,지역,추모,행렬,주민,과거,학교,교정,현실,시대,여성들,세상,캠퍼스,인천시,미추홀구,인하대학교,추락사,인하대,성폭행,피해자,추모,공간,마련,분향소,게시판,고인,정성,글들,A씨,위로,글씨,메모,고통,세상,이별,마음,비통,심경,학기,대학생활,A씨,학내,분향소,유족,발인,이날,운영,A씨,장례,본인,생전,성장기,지방,부모님,포함,인원,유족,절차,사건,교육부,인하대,포함,대학,전반,강화,야간,출입,통제,순찰,폐쇄회로,CC,TV,증설,대책,재발,방지,교육부,이날,보도,자료,캠퍼스,안전,강화,대학들,협력,체계,구축,학생,대상,특별교육,성폭력,예방,특별,교육,추락,인하대,여대,사망,사건,피해자,추모공간,학생,교직원,발길,강승훈,일각,강승훈,사후,약방문식,처방,비판,대학별,보안시스템,천차만별,교육부,차원,관리,사실,인하대,캠퍼스,건물,학생증,시간,출입,관내,대학,중앙통제,CCTV,확충,예산,직결,사학,강제,현실</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8780,7 +11095,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D464" t="n">
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>인하대,교내,성폭행,피해자,가해,대응,대학,출입,검토,건물,출입,수사,결과,가능,가해자,퇴학,피의자,신상,논란,인하대,교내,발생,가해,여학생,성폭행,사망,사건,대응,인하대,교육부,총장,위원장,성폭력,사망,사건,대책위,인터넷,피해자,가해,용납,피해자,모욕,고인,학교,명예,실추,대응,강구,방침,대학교,익명,게시판,온라인상,피해자,모욕,조롱,댓글,다수,학교,남학생,정신줄,정도,피해자,책임,전가,댓글,잔소리,반응,온라인,가해자,이름,사진,얼굴,공개,신상털,논란,혐의,정도,입증,공개,입장,신상,공개,피의자,신상,임의,공개,제재,반응,경찰,구속,가해,남학생,신상,공개,검토,입장,대학,0시,5시,건물,출입,방안,검토,학생,학칙,수사,결과,퇴학,조치,전망,학교,교내,설치,폐쇄회로,CC,TV,증설,보안,순찰,인력,확충,검토,허민숙,국회입법,조사관,피해자,합리성,가장,가해,가해,인식,증거,학교,공간,성범죄,발생,구조적,환기,지적</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8798,7 +11118,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D465" t="n">
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>인하대,현장,가해자,전문가,자수,인하대,캠퍼스,여성,동급,성폭행,추락,혐의,구속,대학,남성,사건,현장,휴대전화,형사법,전문가,자수,지적,박사,승재현,한국,형사,법무,정책,연구원,인터뷰,YTN,피해자,추락,사실,신고,휴대전화,박사,A씨,자수,경찰,현장,휴대전화,A씨,확인,전화,A씨,범행,시인,A씨,경찰,연락,경찰,연락,강조,A씨,피해자,가지,옷가지,현장,장소,이야기,증거인멸,범죄,증거인멸,처벌,범행,정황,범행,정황,양형,사유,판단,가중,사유,양형,참작,설명,A씨,15일,1시,인하대,캠퍼스,3층,단과,대학,건물,동급생,성폭행,추락,혐의,행인,건물,노상,피해자,발견,신고,A씨,당일,2시,주거지,검거,경찰,준강,간치사,혐의,구속,준강간치사죄,심신상실,항거,불능,상태,이용,간음,추행,피해자,적용,유죄,인정,무기징역,10년,징역형,선고,박사,고의,추락사,살인,옥신각신,와중,고의,부정,준강간치사,영장,청구,공소장,변경,제도,준강간살인,정확,명칭,강간살인,경찰,살인,고의,확인,대목,A씨,경찰,조사,피해자,고의성,부인,이야기,자체,범죄,반성,핑계,모습,여성,대학교,성폭행,사망,반성,모습,죄질,판단,박사,피해자,귀책사유,친구,시험,마음,악용,가해자,피해자,가해,국가기관,가해,발본색원,처벌,A씨,노출,온라인,신상,가해자,사람,비난,목적,1항,형법,사실,적시,명예훼손죄,성립,국가기관,판단,혐의가,강간살인,신상,공개,대상,범죄,경찰,수사</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8816,7 +11141,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D466" t="n">
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>목소리,후두암,예방법,금연,스토리,인하대병원,메디,목소리,의심,발병,95%,흡연,증가,연령대,환자,완치,조기,발견,목소리,수도,1월,목소리,헛기침,일상생활,어려움,중년,20년,담배,생각,중순,덩어리,느낌,불안,마음,인하대병원,정밀검사,의료진,진단,후두암,최정석,교수,이비인후과,치료,절제술,림프선,절제술,시행,부위,피부,절개,조직,자리,후두,전이,림프선,제거,수술,수술,성공적,절개,부위,상처,암세포,제거,방사선,치료,시작,예정,후두,중앙,기도,식도,분리,지점,위치,호흡,발성,기도,보호,수행,후두암,특징,증상,목소리,변화,성대,표면,조금,불규칙,목소리,후두암,정도,목소리,후두암,임파선,전이,이물질,느낌,음식물,불편,소리,의학계,원인,후두암,발병,95%,흡연,흡연,후두암,발생,절대적,원인,담배,존재,유해,물질,후두,점막,접촉,세포,성장,50세,남성,발병,청소년,여성,흡연,발병률,반대,흡연,발병,원인,만큼,금연,예방,가능,질병,금연,정도,위험성,후두암,발생,위험,시작,15년,비흡연자,수준,학계,보고서,조기,발견,중요,조기,발견,수술,내시경,레이저,수술,생존율,통상적,후두암,완치,90%,,80%,,50%,,40%,정도,진행,치료율,후두암,조기,발견,치료,핵심,후두,보존,음성,보존,가능성,극적,증가,후두,음식물,섭취,중요,수행,완치,보존,중요,기간,흡연,사람,목소리,변화,통증,숨쉬기,음식물,증상들,무시,흡연자,장기간,자극,목소리,일시적,대수,주의,후두암,전반적,신체,건강,금연,다짐,지역,금연지원센터,체계적,도움,보건복지부,지정,인하대병원,운영,인천금연지원센터,금연,상담,서비스,금연,캠프,서비스,입원,환자,금연,지원,진행,최정석,교수,후두암,진행,후두,제거,음성,대화,정도,목소리,후두암,예방,조기,발견,금연,목소리,병원,강조</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8834,7 +11164,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D467" t="n">
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>캠퍼스,성범죄,비상,대학가,인하대,사망,불안감,축제,동아리,모임,술자리,성범죄,증가,영향,동기생,영향,동기,불안,목소리,인하대,설치,CCTV,추가,검토,야간,순찰,강화,논의,학교도,교육부,야간,출입,관리,강화,마련,술자리,방향,학생들,귀가,남학생,생각,서울,사립대,캠퍼스,여학생,캠퍼스,인천,인하대,발생,사건,성폭행,사망,남학생들,술자리,경계,동기생,걱정,불안,캠퍼스,인하대,학생,대학,동아리,성폭행,3층,추락,사망,거리,해제,대학,성범죄,거리,사회,해제,대면수업,재개,대학,캠퍼스,성범죄,연세대,서울,교내,여자,화장실,휴대전화,학생,촬영,현행범,체포,지난달,고려대,축제,기간,남성,캠코더,다수,여성,신체,촬영,5월,성균관대,축제,성추행,신고,접수,경찰,수사,대면수업,3년,대학,축제,부활,동아리,모임,술자리,성범죄,증가,영향,풀이,대학,서울,소재,거리,해제,술자리,동기,선후배,학생,스킨십,캠퍼스,CCTV,대학,교육,당국,캠퍼스,성범죄,예방,대책,마련,인하대,회의,캠퍼스,보안,강화,방안,검토,학교,교내,건물,사전,승인,학생,출입,출입,제한,방안,검토,교내,폐쇄,회로,CC,TV,추가,설치,보안,인력,확충,방안,인하대,관계자,전교생,대상,특별교육,성폭력,예방,특별,교육,예정,가해자,수사,결과,대로,학칙,퇴학,조치,대학들,고심,서울,소재,대학본부,관계자,학교,인하대,경각심,얘기,야간,캠퍼스,순찰,강화,방안,검토,교육부,인하대,성폭행,사망,사건,대학,캠퍼스,관리,야간,출입,강화,방범시설,대책,재발,방지,마련,18일,운영,대학,대상,성폭력,예방,교육,실효성,점검,별도,특별교육,추진,인하대,연일,학생,시민들,피해자,추모,학생들,요구,캠퍼스,마련,추모공간,나이,세상,피해자,성범죄,처벌,강화,인하대,유족,요청,추모,공간,운영,이날,중단</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8852,7 +11187,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D468" t="n">
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>대학,캠퍼스,CCTV,야간,출입,제한,순찰,강화,인하대학교,캠퍼스,여학생,성폭행,추락,사망,사건,교육부,대학들,야간,출입,순찰,강화,CCTV,설치,대책,재발,방지,마련,18일,대변인,교육부,최성부,폭력,대응,동시,안전,대학,캠퍼스,조치,강화,교육부,인하대,CCTV,증설,대학들,CCTV,계획,인하대,캠퍼스,CCTV,설치,교육부,대학,CCTV,설치,현황,파악,상태,대변인,현황,대학들,CCTV,부족,교육부,대학,대상,성폭력,예방,특별,교육,추진,계획,대학,시행령,성폭력,방지법,교원,학생,대상,1년,1시간,의무적,페널티,인하대,학생,교육,성폭력,예방,학생,4명,1명,25.9%,상황,특별,교육,추진,실효성,지적,인천,미추홀경찰서,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,대학,남학생,준강,간치사,혐의,구속</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8870,7 +11210,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D469" t="n">
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락사,학생,퇴학,검토,인하대학교,캠퍼스,발생,사건,성폭행,사망,학교측,재학생,폭력,방지,교육,확대,재발,방지,대책,마련,경찰,준강,간치사,혐의,구속,학생,추가,조사,22일,검찰,송치,예정,인하대학교,사망사고,교내,성폭행,사망,사고,시설,개선,확대,폭력,방지,교육,퇴학,가해,학생,전반적,대책,마련,18일,학생증,시간,출입,캠퍼스,건물,사전,승인,학생,출입,출입,가능,조정,보완책,검토,교내,설치,폐쇄회로,CC,TV,765대,보안,순찰,강화,방침,전교생,상대,성폭력,특별교육,성폭력,특별,교육,2회,학생,A씨,재판,결과,선조치,일환,퇴학,징계절차,착수,예정,사건,수사,인천,미추홀경찰서,가해학생,A씨,준강,간치사,혐의,적용,구속,추가,조사,강간,살인,혐의,가능성,수사,준강간치사,심신상실,항거불능,상태,이용,간음,추행,처벌,준강간치사,법정형,무기,10년,징역형,강간,사형,무기징역,경찰,사망사건,인하대,성폭행,사망,사건,신상,공범,정보,난무,가해,자제,요청,경찰,보강수사,A씨,검찰,송치,예정,경찰,관계자,A씨,진술,증거,종합적,수사</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8888,7 +11233,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D470" t="n">
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>어민,북송,전면,참전,대통령실,수사,제시,수사,논란,검찰,어민,강제,북송,의혹,사건,수사,와중,대통령실,전면,정부,관계자,위법성,주장,수사,제시,지적,홍보수석,최영범,대통령실,홍보,수석,정의,국가안보실장,입장,조사,어민,엽기,살인마,규정,대통령실,자료,자백,물증,전무,귀순,탈북자,헌법상,국민,간주,국내법,고문방지협약,강제송환,원칙,강제,송환,국제법,무시,강인선,대변인,의사,귀순,강제,북송,반인도적,반인륜적,범죄행위,진상규명,윤석열,대통령,지난달,우리나라,헌법,대한민국,국민,간주,통일부,북송,상황,북송,사진,동영상,공개,대통령,대통령실,관계자,발언,문재인,정부,조치,북송,반헌법적,위법,요약,검찰,전후,북송,조치,사실관계,위법,여부,수사,위법,대통령실,규정,검찰,수사,지침,대통령,검찰,직할,체제,구축,검찰,수사,정치,중립,의구심,제기,상황,최정학,방송통신대,법학,교수,대통령,정부,구체,사건,원칙적,검찰,일종,신호,한상희,건국대,법학,전문,대학원,교수,16명,한국,북한,주민,인신,구속,절차,권리,보장,북한,주민,인권,이야기,정부,어민들,몸부림,인권,침해,영상,사진,여과,공개,대통령실,모습,대통령,대선,발언,배치,지적,대통령,대통령,특정,사건,철저,수사,지시,청와대,집권,세력,특정,정치,목적,하명,수사,관행,일각,대상,검찰,수사,차례,남북정상회담,문재인,정부,대북,정책,전반,확대,관측,문재인,정부,국무위원장,김정은,북한,국무,위원장,답방,성사,어민,강제,북송,주장,국가정보원,남북정상회담,전후,자체적,조사,정태욱,인하대,법학,전문,대학원,교수,대통령,재량,통치행위,국민,기본권,인권,직접적,침해,실정법,통치행위,인정,범위,출신,고검장,변호사,고도,통치,외교행위,사법,적용,행위,거론,논리,부족</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8906,7 +11256,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D471" t="n">
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>위법성,대통령실,논란,북송,사건,수사,지침,국제법,무시,범죄행위,진상,규명,적극,부각,정부,대북,정책,전반,수사,대상,확대,전망,검찰,중립,논란,검찰,어민,강제,북송,의혹,사건,수사,대통령실,전면,정부,관계자,위법성,주장,수사,제시,수사,지적,홍보수석,최영범,대통령실,홍보,수석,정의,국가안보실장,입장,조사,어민,엽기,살인마,규정,대통령실,자료,자백,물증,전무,귀순,탈북자,헌법상,국민,간주,국내법,고문방지협약,강제송환,원칙,강제,송환,국제법,무시,강인선,대변인,의사,귀순,강제,북송,반인도적,반인륜적,범죄행위,진상규명,윤석열,대통령,지난달,우리나라,헌법,대한민국,국민,간주,통일부,북송,상황,북송,사진,동영상,공개,대통령,대통령실,관계자,발언,문재인,정부,어민,북송,조치,반헌법적,위법,요약,검찰,전후,북송,조치,사실관계,위법,여부,수사,위법,대통령실,규정,검찰,수사,지침,대통령,검찰,직할,체제,구축,검찰,수사,정치,중립,의구심,제기,상황,최정학,방송통신대,법학,교수,대통령,정부,구체,사건,원칙적,검찰,일종,신호,한상희,건국대,법학,전문,대학원,교수,16명,한국,북한,주민,인신,구속,절차,권리,보장,북한,주민,인권,이야기,정부,어민들,인권,침해,영상,사진,여과,공개,대통령실,모습,대통령,대선,발언,배치,지적,대통령,대통령,특정,사건,철저,수사,지시,청와대,집권,세력,특정,정치,목적,하명,수사,관행,일각,대상,검찰,수사,차례,남북정상회담,문재인,정부,대북,정책,전반,확대,관측,문재인,정부,국무위원장,김정은,북한,국무,위원장,답방,성사,어민,강제,북송,주장,국가정보원,남북정상회담,전후,자체적,조사,정태욱,인하대,법학,전문,대학원,교수,대통령,재량,통치행위,국민,기본권,인권,직접적,침해,실정법,통치행위,인정,범위,출신,고검장,변호사,고도,통치,외교행위,사법,적용,행위,거론,논리,부족</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8924,7 +11279,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D472" t="n">
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>피해자,여전,책임,전가,가해,인하대,대응,사건,인하대,강간,치사,난무,가해,학교,피해자,모욕,방침,대응,단속,여전,책임,전가,가장,가해,인하대,교내,발생,여학생,성폭행,사망,사건,가해,대응,인하대,교육부,총장,위원장,성폭력,사망,사건,대책위,인터넷,피해자,가해,용납,피해자,모욕,고인,학교,명예,실추,대응,강구,방침,대학교,익명,게시판,온라인,피해자,모욕,조롱,댓글,다수,피해자,신상,정보,소셜네트워크서비스,SNS,계정,학교,남학생,정신줄,정도,피해자,책임,전가,댓글,잔소리,반응,사회,성범죄,분노,비판,온라인,가해자,이름,사진,얼굴,공개,신상털,논란,혐의,정도,입증,공개,입장,신상공개,피의자,신상,임의,공개,제재,반응,경찰,구속,가해,남학생,신상공개,검토,입장,대학,자정,5시,건물,출입,방안,검토,학생,학칙,수사,결과,퇴학,조치,전망,학교,교내,설치,폐쇄회로,CC,TV,증설,보안,순찰인력,확충,검토,캠퍼스,마련,피해자,분향소,피해자,근조화환,130개,전달,허민숙,국회입법,조사관,피해자,합리성,가장,가해,가해,인식,증거,피해자,주의,학교,공간,성범죄,발생,구조적,환기,지적</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8942,7 +11302,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D473" t="n">
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>인하대,홈페이지,남학생,입장문,가해,징계,절차,진행,인하대,캠퍼스,발생,성폭행,사망,사건,피해자,신상,유포,가해,대응,마련,방침,인하대,성폭행,사망,사건,대책,위원회,대책위,홈페이지,학교,입장문,대책위,교내,발생,사고,성폭행,사망,유명,피해자,인하대,구성원,심정,머리,애도,자식,형언,슬픔,유가족,위로,말씀,대책위,최고,지성,전당,대학,동급생,성폭력,피해자,목숨,상상,전대미문,사건,상심,학생들,구성원들,시민들,유감,대책위,인터넷,중심,피해자,가해,용납,대응,마련,방침,학생,학칙,징계,절차,진행,인하대,처벌,수위,퇴학,대책위,슬픔,유가족,위로,방안,모색,사건,충격,학생들,심리상담,지원,학생들,감수성,사회,왜곡,성문화,대학,교과과정,성평등,성교육,강화,학생심리상담센터,활성화,교양,교육,확대,성폭력,방지,교육,프로그램,마지막,정기적,순찰,확대,주간,야간,치안,만전,폭력,안전,캠퍼스,지속,노력,폭력,근절,노력,시민사회,시행,약속</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8960,7 +11325,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D474" t="n">
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>사건,승재현,인하대,심신미약,적용,인하대,캠퍼스,동급생,성폭행,사망,혐의,인하대,A씨,20,17일,인천지법,인천시,미추홀구,구속,피의자,심문,영장,실질심사,인천,인하대학교,캠퍼스,동급생,여학생,성폭행,추락,혐의,남학생,대학,남학생,구속,형사법,전문가,자신,견해,승재현,한국,형사,법무,정책,위원,방송,YTN,출연,A씨,범행,범행,만취,상태,심신미약,주장,가능성,전망,성폭행,심신,적용,중요,이야기,자체,반성,핑계,모습,판사,모습,피의자,반성,생각,죄질,판단,생각,A씨,범행,현장,자신,휴대전화,A씨,자수,위원,휴대전화,현장,경찰,전화,가해자,범행,시인,위원,A씨,피해자,현장,장소,이야기,증거인멸,자기,범죄,증거인멸,처벌,범행,정황,범행,정황,양형,사유,판단,가중,사유,양형,참작,인천,미추홀경찰서,혐의,준강,간치사,A씨,인하대,재학,구속,고범진,인천지법,당직,판사,이날,A씨,구속,피의자,심문,영장실질심사,진행,증거,인멸,도주,영장,발부,A씨,15일,1시,인하대,캠퍼스,B씨,학교,학생,상대,성범죄,추락,혐의,이날,3시,분쯤,길가,인하대,캠퍼스,나체,상태,B씨,행인,발견,신고,B씨,심정지,상태,병원,이송,7시,사망,B씨,발견,건물,대학,공대,2호관,사잇길,주년,기념관,경찰,B씨,A씨,성폭행,건물,추락사,A씨,B씨,재학생,대학,재학,학부,동아리,소속,계절학기,수강,비대면,진행,사람,계절,학기,시험,등교,A씨,당일,2시,B씨,7시,분쯤,시험,사람,동아리,활동,이날,술자리,경찰,범행,현장,A씨,휴대전화,발견,참고인,조사,혐의,확인,피의자,긴급체포,혐의,준강,간치사,적용,A씨,구속영장,신청,A씨,경찰,조사,혐의,인정,B씨,고의,3층,살인,혐의,부인,경찰,A씨,살인,혐의,적용,검토,사건,현장,추락,실험,진행,경찰,B씨,추정,바지,속옷,교내,장소,경찰,A씨,증거인멸,시도,가능성,확인</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8978,7 +11348,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D475" t="n">
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,검토,피의자,퇴학,신상,공개,인하대,상벌위,회부,가해,대응,방안,도경찰,검찰,송치,예정,신상,공개,검토,인하대,교내,동급생,성폭행,건물,혐의,구속,남성,상벌위원회,회부,경찰,22일,수사,마무리,피의자,검찰,송치,예정,경찰,여부,신상,정보,공개,인하대,대책,위원회,혐의,준강,간치사,구속,1학년,상벌위원회,회부,예정,대학,관계자,상벌위,학칙,수사,결과,징계,수위,결정,퇴학,가능,인하대,총학생회,피해,학생,가해,대응,방안,마련,재학생,심리치료,지원,예정,전교생,대상,성폭력,특별,교육,1회,2회,보안,순찰,인력,확충,방침,캠퍼스,건물,학생증,시간,출입,현행,사전,승인,학생,출입,출입,가능,조정,폐쇄회로,CC,설치,TV,추가,검토,A씨,사건,당일,피해자,부축,교내,단과대,건물,범행,조사,건물,CCTV,설치,B씨,건물,지상,추락,장면,대학,CCTV,사각지대,증설,검토,A씨,15일,건물,인천,용현동,인하대,단과대,B씨,성폭행,3층,추락,혐의,B씨,당일,단과대,건물,발견,119구급대,병원,발견,발견,머리,경찰,B씨,고의,진술,토대,준강,간치사,혐의,적용,구속,수사,살인,고의성,확인,죄명,살인죄,변경,방침,경찰,여부,죄명,변경,A씨,신상,정보,공개,경찰,관계자,구속,A씨,상대,조사,사건,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8996,7 +11371,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D476" t="n">
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>사망사건,인하대,성폭행,사망,사건,대학들,학내,성범죄,예방,고심,술자리,방향,학생들,귀가,남학생,생각,서울,사립대,캠퍼스,여학생,캠퍼스,인천,인하대,발생,사건,성폭행,사망,남학생들,술자리,경계,동기생,걱정,불안,캠퍼스,인하대,학생,대학,동아리,성폭행,3층,추락,사망,거리,해제,대학,성범죄,거리,사회,해제,대면수업,재개,대학,캠퍼스,성범죄,연세대,서울,교내,여자,화장실,휴대전화,학생,촬영,현행범,체포,지난달,고려대,축제,남성,캠코더,다수,여성,신체,촬영,5월,성균관대,축제,성추행,신고,접수,경찰,수사,대면수업,3년,대학,축제,부활,동아리,모임,술자리,성범죄,증가,영향,풀이,서울,소재,대학,재학,거리,해제,술자리,동기,선후배,학생,스킨십,캠퍼스,폐쇄회로,CC,TV,대학,교육,당국,캠퍼스,성범죄,예방,대책,마련,인하대,회의,캠퍼스,보안,강화,방안,검토,학교,교내,건물,사전,승인,학생,출입,출입,제한,방안,검토,교내,폐쇄,회로,CC,TV,추가,설치,보안,인력,확충,방안,인하대,관계자,전교생,대상,성폭력,예방,특별,교육,예정,가해자,수사결과,대로,학칙,퇴학,조치,대학들,고심,서울,소재,대학본부,관계자,학교,인하대,경각심,얘기,야간,캠퍼스,순찰,강화,방안,검토,교육부,인하대,성폭행,사망,사건,대학,캠퍼스,관리,야간,출입,강화,방범시설,대책,재발,방지,마련,18일,운영,대학,대상,성폭력,예방,교육,실효성,점검,별도,특별교육,추진,인하대,연일,학생,시민들,피해자,추모,학생들,요구,캠퍼스,마련,추모공간,나이,세상,피해자,성범죄,처벌,강화,인하대,유족,요청,추모,공간,운영,이날,중단</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9014,7 +11394,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D477" t="n">
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>공개,북송,영상,최강욱,SNS,이슈,장사,의원,최강욱,더불어민주당,나라,북한,이슈,장사,권력,기관,활용,언론,플레이,국민,시대,통찰,의원,이날,페이스북,윤홍식,인하대,사회,복지,학과,교수,저서,성공,한국,불평등,복지국가,소개,윤석열,정부,어민,북송,영상,공개,문재인,정부,사건,정조준,저격,해석,의원,야당,민주당,소속,정치인,책임,확보,당내,권력,정파,장사치,전락,언론,이름,장사,정치,자영업,연장,불법적,부당,권력,횡포,철저,견제,국민,나라,가치,생각,제언,의원,확인,사실,발설,이름,보도,저널리즘,상습,따옴표,마음,정화,김소연,시인,산문집,시옷,세계,추천,의원,짤짤,발언,윤리,당원,자격,정지,징계,정치,현안,발언,자제,의원,징계,절차,재심,신청,사실,법리,추가,소명,판단</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9032,7 +11417,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D478" t="n">
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>캠퍼스,학생,사망,충격,교육부,인하대,야간,출입,관리,강화,교육부,안전관리계획,학과,재발,방지책,발표학생,대상,성폭력,예방,교육,점검,피해,학생,소속,동아리,지원,구성원,상담,건물,인하대,캠퍼스,여학생,또래,남학생,성폭행,3층,추락,사건,발생,교육부,대책,마련,교육부,안전,캠퍼스,재발방지대책,마련,시행,대책,사건,발생,인하대,마련,대학들,고등교육법,2월,학교,발생,재난,안전사고,감염병,확산,범죄,각종,위험,학교,구성원,보호,안전관리계획,수립,시행,인하대,수립,계획,성폭력,범죄,발생,조사,사고,재발방지책,마련,규정,교육부,인하대,안전관리계획,캠퍼스,학생,안전,관리,강화,방침,강화,야간,출입,관리,취약,시간대,순찰,확대,설치,방범,시설,예정,시행,학생,대상,성폭력,예방,교육,점검,특별교육,추진,계획,계획,사회관계망서비스,SNS,피해,확산,방지,피해,방지,포함,예정,교육부,이외,피해,학생,소속,학과,동아리,구성원,주변,학생,대상,상담,지원,프로그램,심리,안정,운영,교육부,관계자,폭력,안전,학교,조성,사회관계장관회의,점검,학교,구성원,안심,생활,캠퍼스,관계부처,협력,지속적,강화</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9050,7 +11440,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D479" t="n">
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>선정적,성차별적,제목,고백,편집국,정은주,콘텐츠총괄,캠퍼스,인천,미추홀구,인하대,단과,대학,건물,학생,추락,사망,사건,발생,이날,학교,건물,출혈,상태,발견,인근,병원,경찰,현장,조사,ㄱ씨,사망,휴대,전화,발견,경찰,ㄴ씨,조사,범죄사실,확인,긴급체포,ㄴ씨,ㄱ씨,성폭행,건물,추락,혐의,구속,사건,7시,인하대,여성,경찰,수사,제목,보도,언론들,탈의,나체,피해자,모습,묘사,제목,민주언론시민연합,이날,기준,포털,사이트,네이버,검색,사망사건,인하대,학생,사망,사건,전수,언론,보도,윤리,위반,지적,한국신문윤리위원회,신문,윤리,실천,요강,보도,준칙,범죄,폭력,동물학대,위법적,비윤리적,행위,보도,선정,자극적,표현,사용,저속,선정,보도,사건,발생,의도,나체로,알몸,선정적,불필요,묘사,보도윤리,사망사건,선정적,인하대,학생,사망,사건,선정,성차별적,표현,제목,사용,언론사,이름,공개,포함,사회관계망서비스,SNS,사건,기사,제목,언론사별,비교,화제,언론사,알몸,여대생,여성,표현,한겨레,제목,표현,한겨레,보도,윤리,생각,누리꾼,한겨레,언론,젠더데스크,2019년,5월,젠더팀,2020년,11월,구성,자체적,성평등,젠더,보도,2021년,5월,미디어,젠더,편향,극복,언론,언론,여대생,집중,학생,칭찬,1만,리트위트,민주언론시민연합,누리꾼,반응,한겨레,노력,마음,한편,불편,젠더편향,극복,언론,평가,생각,성차별,성범죄,보도,언론,반복,진화,언론,성범죄,기사,몰카,도촬,불법촬영,행위,강요,영상,성착취물,외모지상주의,고정관념,역할,강화,표현,관행,뿌리,표현,사용,편집자,젠더데스크,발견,내부,논의,수정,사망사건,인하대,학생,사망,사건,게이트키핑,취사선택,사례,기사,이날,한겨레,10시,제목,대학,알몸,상태,발견,수사,여대,경찰,10시,기사,편집자,알몸,단어,판단,제목,선정적,자극적,부각,규정,한겨레,젠더,보도,근거,사건,여대생,표현,불필요,여대생,알몸,단어,삭제,10시,인하대,교내,발견,수사,학생,경찰,제목,기사,표현,신속,단추,흔적,구글,한겨레,성차별,성범죄,보도,악습,노력,게이트키핑,작동,확인,균형점,고민,부족,진화,언론</t>
+        </is>
+      </c>
+      <c r="E479" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9068,7 +11463,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D480" t="n">
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>알림,넥서스,출판사,작가상,넥서스,경장편,시상식,온라인,대상,권석,작가,수영,소재,스피드,성장,소설,선정,상금,수여,권석,작가,무한도전,문화방송,프로그램,예능,피디,출신,대표,엠비시,아메리카,하이모,31일,맞춤가발,체험,구매,하이모,무료,체험,이벤트,30만,보증금,예치,체험,제품,구매,가격,보증금,차감,금액,지불,누리집,himo.co.kr,참고,안양대,총장,박노준,국어문화원,국어국립원,8월,수요일,경기문화재단,상상,캠퍼스,공공언어,강의실,운영,환경과생명을지키는전국교사모임,19일,화요공부모임,화요,공부,모임,곤충,소리,계절,노래,간담회,온라인,국가생물다양성,김태우,국립,생물,자원관,국가,생물,센터,환경연구관,발제,제주도,제주도,발달,장애인,지원,센터,21,뉴노멀시대,지원,발달,장애인,자립,주제,발달,장애,국제,심포지엄,미국,발달,장애인,지원,기관,레이그램,회장,임종,학장,인하대,의대,팀장,서해정,한국장애인개발원,참여,발달장애인,자립,통합돌봄,9월,지역,공익,단체,자발,활동,역량,강화,희망,사업,공모,10억,규모,지역사회,사각지대,해결,공동체,활성,사회,영역,해결,기후,위기,기후위기,취약계층,환경,영역,진행,누리집,nanum.beautifulstore.org,CJ,ENM,18일,설립,스튜디오스,콘텐츠,스튜디오,CJ,ENM,신임,대표,윤제균,감독,선임,공영홈쇼핑,사회,공헌,활동,사랑,행사,전북,군산장애인종합복지관,경기,안산,시장애인,복지관,서울,마포복지재단,기부</t>
+        </is>
+      </c>
+      <c r="E480" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9086,7 +11486,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D481" t="n">
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>인하대,현장,가해자,전문가,장면,동급생,성폭행,사망,혐의,구속,남학생,사건,현장,휴대전화,전문가,형사법,박사,승재현,한국,형사,법무,정책,연구원,인터뷰,YTN,신고,휴대전화,박사,자수,경찰,현장,휴대전화,A씨,확인,범행,시인,A씨,경찰,연락,경찰,연락,지적,피해자,가지,옷가지,현장,장소,이야기,증거인멸,범행,정황,양형,사유,판단,가중,사유,양형,참작,경찰,피의자,준강,간치사,혐의,구속,준강간치사죄,심신상실,항거,불능,상태,이용,간음,추행,피해자,적용,유죄,인정,무기징역,10년,징역형,선고,박사,고의,추락사,살인,옥신각신,와중,고의,부정,치사,영장,청구,공소장,변경,제도,준강,살인,정확,명칭,강간살인,경찰,살인,고의,확인,대목,A씨,경찰,조사,B씨,고의성,부인,이야기,자체,범죄,반성,핑계,모습,여성,대학교,성폭행,사망,반성,모습,죄질,판단,온라인상,피해자,신상,공개,피해자,신상,유출,피해자,신상,유출,정보,통신망법,규정,비난,목적,박사,피해자,귀책사유,친구,시험,마음,악용,가해자,피해자,가해,국가기관,가해,발본색원,처벌,강조,A씨,신상,노출,가해자,사람,비난,목적,1항,형법,사실,적시,명예훼손죄,성립,국가기관,판단,자중,혐의가,강간살인,신상,공개,대상,범죄,경찰,수사</t>
+        </is>
+      </c>
+      <c r="E481" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9104,7 +11509,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D482" t="n">
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>벌레,사회복지사,유튜버,사회,복지사,위협,유튜버,자극적,콘텐츠,조회수,조회수,결국,수익,연결,유튜버,방송,사회복지사,상대,욕설,모습,공개,논란,다수,온라인,커뮤니티,소셜네트워크서비스,SNS,유튜버,야외,방송,사회복지사,욕설,모습,영상,공개,A씨,부산,야외,방송,콘텐츠,이날,부산역,인근,야외,방송,진행,A씨,호루라기,시민들,인사,역전,설치,노숙,긴급지원팀,부스,노숙인,지원,센터,부스,A씨,사회복지사,A씨,얼굴,짜증,아무것,A씨,카메라,사람,벌레,시비,심경,A씨,37살,자해,수차례,A씨,돌발행동,당황,사회복지사,상황,일단락,A씨,부스,혼잣말,욕설,시작,사회복지사들,상대,소리,욕설,장면,송출,자극,프레임,의도,조회수,유튜버들,자극적,콘텐츠,가짜뉴스,생산,조회수,전문가들,유튜버,유튜브,책임,지적,18일,유튜브,채널,속보,서울,인하대,병원,응급실,아사,한국인,친아버지,눈물,김연아,선수,장악,실검,제목,영상,삭제,논란,사망설,아사다,마오,사망,충격,한국인,친아버지,수술,의식,회복,가짜뉴스,유튜버,아사다,마오,자택,서울,강남,극단,선택,동영상,논란,확대,영상,삭제,하루,가짜,유포,아사,검색량,조회수,풀이,유튜브,수익,사이트,녹스,인플루언서,유튜브,누적,조회,2036만,수입,예상,최대,추정,아사,사망,동영상,예측,수익,177만,308만,유튜브,스팸,현혹,행위,콘텐츠,폭력,위험,상품,콘텐츠,규제,정보,커뮤니티,콘텐츠들,관리,영상,검토,구조,콘텐츠,역부족,상황</t>
+        </is>
+      </c>
+      <c r="E482" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9122,7 +11532,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D483" t="n">
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>인하대,검토,동급,성폭행,사망,사건,가해,남학생,퇴학,인하대학교,동급생,성폭행,사망,혐의,구속,남학생,퇴학,조치,검토,인하대,18일,부서,회의,캠퍼스,성폭행,근절,안전,장치,보완,강화,시설,보안,재학,심리,치료,안전대책,교내,여학생,성폭행,사건,안전,대책,논의,인하대,남학생,혐의,수사,결과,입증,학칙,퇴학,조치,예정,교내,점검,CCTV,증설,예정,인하대,800여대,CCTV,설치,480곳,여자,화장실,비상벨,설치,사건,발생,공과,대학,83대,CCTV,설치,학생증,시간,출입,입구,통제,사전,승인,학생,출입,시간대,출입,가능,방안,검토,보안,순찰,인력,확대,사각지대,방침,사건,심리적,학생들,심리,치료,방안,검토,학생들,구성,인하대,중앙,위원회,총학생회,비상,대책,위원회,태스크포스,TF,대응책,가해,강구,조명우,총장,학교,관계자,이날,현장,사건,발생,마련,추모공간,방문,헌화,추모공간,유족,요청,18일,6시,운영,영장,실질,심사,당직판사,고범진,인천지법,당직,판사,도주,증거인멸,A씨,구속영장,발부,A씨,15일,1시,인천시,미추홀구,인하대,캠퍼스,3층,단과,대학,건물,동급생,B씨,성폭행,추락,혐의,A씨,이날,행인,건물,노상,B씨,발견,신고,당일,주거지,무렵,검거,A씨,조사,결과,범행,B씨,만취,B씨,대학,건물,범행,확인,A씨,범행,현장,범행,휴대전화,주거지,은신,CCTV,휴대전화,추적,경찰,검거</t>
+        </is>
+      </c>
+      <c r="E483" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9140,7 +11555,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D484" t="n">
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>경찰,검토,인하대생,사건,피의자,신상,공개,사건,인천경찰청,인하대,공개,범죄,대상,캠퍼스,인천,인하대,여학생,성폭행,추락,혐의,구속,피의자,추정,남성,신상정보,온라인상,속도,사건,수사,경찰,사건,공개,피의자,신상,정보,검토,신상,공개,심의,위원회,운영,인천경찰청,피의자,인하대,사건,여부,신상,정보,공개,검토,경찰청,관계자,죄명,살인,변경,신상공개,검토,설명,피의자,이름,얼굴,신상,정보,공개,근거,특정강력범죄,처벌,특례법,범죄,혐의,살인죄,미수범,포함,약취,유인,인신매매,강간,상해,치상,살인,치사,미만,강간,강도,강간,상해,치상,살인,치사,구성,조직,폭력,단체,활동,특정강력범죄,사건,추가,요건,충족,범행,수단,잔인,중대,피해,발생,피의자,증거,보장,국민,피의자,재범방지,범죄예방,공공,이익,피의자,청소년,청소년,보호법,미만,요건,인하대,사건,피의자,적용,혐의,준강간치,수사,진행,살인,고의성,살인죄,적용,가능,A씨,15일,인천시,미추홀구,인하대,캠퍼스,5층,건물,지인,여학생,성폭행,3층,추락,혐의,준강간치사,구속,여학생,당일,사건,발생,캠퍼스,건물,행인,발견,심정지,상태,119구급대,병원,A씨,죄명,준강간치사,신상,정보,공개,대상,혐의,신상,공개,요건,동시,충족,여부,검토,범행,수단,잔인,공공,이익,변수,전망,경찰,요건,부합,판단,신상,공개,심의,위원회,심의,공개,여부,인하대,피의자,온라인,신상,공개,명예,훼손,소지,구속,피의자,추정,신상정보,온라인상,속도,각종,온라인,커뮤니티,사회관계망서비스,SNS,유튜브,인하대,가해자,제목,피의자,추정,A씨,이름,사진,학과,나이,SNS,계정,A씨,팔로우,실명,공개,가족,직업,위치,공개,누리꾼,사이,범죄자,신상,갑론을박,법률,전문가,확산,신상정보,피의자,실제,정보,명예훼손죄,만큼,자제,요청,박성배,변호사,뉴스라이브,이날,YTN,라이브,출연,국민들,분노,사건,심정,이해,피의자,피해자,신상,공개,자체,법적,소지,정보,통신망법,명예,훼손,여지,판결,경고,대구고법,온라인상,성폭력,피의자,범죄,피의자,신상,정보,게시,디지털교도소,운영자,개인,정보,보호법,위반,징역,선고,변호사,피의자,피의자,피해자,연쇄적,사람,명예,훼손,행위,자제,법적,처벌,가능,차원,차원,피해자,보호,행위,자제</t>
+        </is>
+      </c>
+      <c r="E484" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9158,7 +11578,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D485" t="n">
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>유족,여성,커뮤니티,인하대,조화,철거,중심,여성,사용자,온라인,커뮤니티,인하대,마련,성폭행,사망,피해자,추모,공간,근조화환,철거,18일,공간,인하대,추모,근조,화환,차량,도착,이날,현장,설치,예정,화환,136개,화환,언니들,미안,눈물,마지막,조금,문구,화환,설치,반송,인하대,유가족들,사건,주목,권수현,인하대,총학생회,비상,대책위,수석,국장,유가족들,언론,보도,화환,피해자,기억,중요,유가족들,상황,공간,피해자,추모,이날,6시,운영,예정,인하대,1시,유가족,화환,철거,결정,확인,관계자,인하대,홍보,단체,설명,유가족,화환,오해,소지,유족들,판단,화환,철거,정리,추모,공간,소셜미디어,교직원들,유가족,상관,철거,유언비어,홍보,관계자,사건,조명,가해,유가족,요청,철수,추모,공간,화환,반송</t>
+        </is>
+      </c>
+      <c r="E485" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9176,7 +11601,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D486" t="n">
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>최강욱,장사,북한,이슈,나라,의원,더불어민주당,최강욱,나라,북한,이슈,장사,권력,기관,활용,언론,플레이,국민,의원,교수,이날,윤홍식,인하대,사회,복지,학과,저서,성공,한국,불평등,복지국가,페이스북,소개,사건,어민,강제,북송,평가,의원,소개,형식,현안,의견,야당,민주당,소속,정치인,책임,당내,권력,확보,정파,장사치,전락,언론,이름,장사,정치,자영업,연장,의원,불법적,부당,권력,횡포,철저,견제,국민,나라,가치,생각,제언,의미,의원,페이스북,언론,비판,김소연,시인,산문집,시옷,세계,소개,확인,사실,발설,이름,보도,저널리즘,상습,따옴표,마음,정화,의원,해명,윤리심판원,지난달,민주당,윤리,심판원,6개월,당원권,정지,징계,결정</t>
+        </is>
+      </c>
+      <c r="E486" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9194,7 +11624,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D487" t="n">
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>남자,공범,2차,대결,인하대,참극,성별,인하대,커뮤니티,게시,피해자,가해,지속,A씨,인하대,재학,발생,사건,인하대,캠퍼스,성폭력,사망,후폭풍,젠더,갈등,경찰,수사,마무리,갈등,확산,사건,책임,소재,정치권,공방,작용,박지현,더불어민주당,비상,대책,위원장,자신,페이스북,피해자,비극,죽음,공범,제목,대한민국,여성,안전,공간,성폭력,사건,발생,가해자,정치인들,여성가족부,폐지,대통령,범죄자,착취물,솜방망이,처벌,법원,사건,공범,주장,신주호,국민,대변인,페이스북,맞불,대변인,위원장,겨냥,공범,개인,성별,이익,커뮤니티,각종,온라인,여성,의견,위원장,얼까,억지,까임,남성,공범,소리,의견,충돌,여성,유저,커뮤니티,가해자,추정,인물,신상정보,공개,외모,비난,댓글,성폭행,강간,사건,한남,한국,남성,남성,커뮤니티,군대,남자들,사건,과민,반응,살인사건,강남역,살인,사건,사건,인천,층간,소음,흉기,난동,온라인,양상,대결,초기,유사,흐름,사건,발생,사회,인하대,재학,갈등,익명성,대학,커뮤니티,에브리타임,인하대,게시판,의견,인하대,게시판,인하대,재학,졸업생,인증절차,사람,재학생,교내,커뮤니티,여자,합의,성관계,여자들,살인,성폭행,댓글,난타전,피해자,2차,참담,인하대,가해자,퇴학,검토,인하대,총학생회,비상,대책,위원회,교내,마련,피해자,추모공간,근조,화환,양초,책상,주위,국화꽃,초콜릿,음료수,추모객,고인,명복,위로,연대,목소리,재학생,그날,합주,경찰차,생각,취객,기도,추모글,여성,학교,현실,시대,여성들,안전,세상,교내,온라인,공간,인하광장,인하대,총학생회,비상,대책,위원회,명의,비판,정확,상황,설명,대응,방안,가족,친구,동기,후배,위로,문장,구성,교내,구성원,입장문,학교,학생,가해자,언급,비판,의아,재학생,총학생회,입장문,인하대생,생각,학교생활,걱정,의견문,총학생회,관계자,비대위,체제,운영,유가족,학교,협의,사건,경과,입장,설명,입장문,인하대,이날,회의,가해자,퇴학,징계,논의,시작,한편,강화,시설,보안,지원,재학,심리,치료,대책,마련,야간,시간대,승인,학생,건물,출입,시간대,출입,가능,조정,대책,재발,방지,고심,폐쇄회로TV,CCTV,추가,설치,13명,근무,학내,보안,순찰인력,방안,사망,사건,수사,경찰,혐의,준강,간치사,구속,상대,A씨,추락,원인,제공,경찰,관계자,보강,조사,여부,혐의,변경,검토,계획</t>
+        </is>
+      </c>
+      <c r="E487" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9212,7 +11647,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D488" t="n">
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>인하대,사건,가해,남학생,퇴학,검토,인하대,캠퍼스,동급생,성폭행,사망,혐의,인하대,A씨,20,17일,인천지법,인천시,미추홀구,구속,피의자,심문,영장,실질심사,인천,인하대학교,회의,재학,성폭행,사망,사건,사고,기본대책,논의,이날,뉴시스,인하대,피해,학생,명복,기원,방지,피해,적극,노력,한편,가해자,처벌,수위,퇴학,조처,방안,논의,재발,방지,기본,대책,확대,성폭력,예방,교육,확대,출입통제,건물,출입,통제,설정,검토,대학,캠퍼스,건물,학생증,이용,출입,시간,상시,가능,인하대,13명,보안,순찰인력,배치,체제,근무,캠퍼스,폐쇄회로,CC,TV,중앙통제실,관제,인하대,관계자,안전,캠퍼스,면학,분위기,재발방지,최선,인천,미추홀경찰서,혐의,준강,간치사,인하대,구속,고범진,인천지법,당직,판사,이날,A씨,구속,피의자,심문,영장실질심사,진행,증거,인멸,도주,영장,발부,A씨,15일,인하대,캠퍼스,B씨,학교,학생,상대,성범죄,혐의,이날,3시,분쯤,길가,인하대,캠퍼스,나체,상태,B씨,행인,발견,신고,B씨,심정지,상태,병원,이송,7시,사망,B씨,발견,건물,대학,공대,2호관,사잇길,주년,기념관,경찰,B씨,A씨,성폭행,건물,추락사,A씨,B씨,재학생,대학,재학,학부,계절학기,수강,비대면,진행,사람,계절,학기,시험,등교,A씨,당일,2시,B씨,7시,분쯤,시험,사람,동아리,활동,이날,술자리,경찰,범행,현장,A씨,휴대전화,발견,참고인,조사,혐의,확인,피의자,긴급체포,혐의,준강,간치사,적용,A씨,구속영장,신청,A씨,경찰,조사,혐의,인정,B씨,고의,3층,살인,혐의,부인,17일,경찰,A씨,살인,혐의,적용,검토,사건,현장,추락,실험,진행,경찰,B씨,추정,바지,속옷,교내,장소,경찰,A씨,증거인멸,시도,가능성,확인</t>
+        </is>
+      </c>
+      <c r="E488" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9230,7 +11670,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D489" t="n">
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>인하대,사망,가해자,살인,준강간치사,사건,항거불능,사건,항거,불능,준강간,적용,살인,고의,여부,경찰,확인,캠퍼스,인천,인하대,또래,여학생,성폭행,건물,추락,혐의,구속,A씨,적용,혐의,준강간치사,준강간치사죄,심신상실,항거,불능,상태,이용,간음,추행,피해자,살인,고의성,인정,적용,경찰,A씨,구속영장,청구,범죄,사실,강간치사,강간살인,준강,간치사,혐의,적용,연구위원,승재현,한국,형사,법무,정책,연구원,위원,YTN,피해,여성,항거,심신미약,상태,현행법상,강간,성립,피해자,폭행,협박,사실,설명,경찰,확보,사건,현장,인근,CCTV,당일,1시,분쯤,A씨,피해자,부축,건물,학교,장면,토대,B씨,상태,항거,인정,준강간,연구위원,위원,설명,위원,A씨,살인,혐의,치사죄,적용,A씨,고의,B씨,추락사,살인,옥신각신,와중,B씨,고의,부정,공소장,변경,제도,만큼,혐의,입증,준강간살인,살인,고의,경찰,확인,대목,강조,경찰,A씨,자연사,옥신각신,추락,의도적,사람,질문,자백,경찰,능력,경찰,수사,역량,위원,혐의,형량,진행자,물음,준강간치사,법령,강간치사,강간치사,무기,10년,징역,강간살인,사형,무기,A씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,단과대,건물,여학생,학교,또래,B씨,성폭행,추락,혐의,구속,B씨,사건,당일,3시,분쯤,캠퍼스,행인,발견,머리,구급대,병원,사망,경찰,5층,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,A씨,B씨,마지막,파악,A씨,경찰,조사,B씨,건물,사실,인정,B씨,고의성,부인,경찰,구속영장,진술,토대,살인,치사,혐의,적용,A씨,고의,B씨,건물,정황,확인,살인,죄명,방침</t>
+        </is>
+      </c>
+      <c r="E489" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9248,7 +11693,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>인하대,교내,성폭행,추락사,가해,대응,인하대,교내,발생,여학생,성폭행,사망,사건,가해,대응,인하대,교학,부총장,위원장,성폭력,사망,사건,대책위,사건,방지,가해,강화,시설,보안,전반적,대책,논의,대책위,입장문,인터넷,피해자,가해,용납,피해자,모욕,고인,학교,명예,실추,대응,강구,방침,학생들,감수성,교과,성교육,강화,학생,심리,상담소,활성화,정기적,순찰,확대,야간,치안,강화,상담,학생,심리,치료,지원,방안,제시,대학,보안,강화,자정,5시,건물,출입,방안,검토,교내,설치,폐쇄회로,CC,TV,증설,보안,순찰인력,확충,가지,대책,논의,인하대,캠퍼스,건물,입구,통제,학생증,시간,출입,혐의,구속,남학생,인하대,남학생,사건,당일,시간대,피해자,동급,부축,단과,대학,건물,캠퍼스,13명,보안,순찰인력,배치,근무,폐쇄,CC,TV,관제,중앙상황실,캠퍼스,폐쇄회로,CC,TV,765대,사건,발생,5층,단과,대학,건물,CCTV,파악,인하대,관계자,유가족,위로,방안,모색,A씨,학칙,수사,결과,시일,퇴학,조치,인하대,중앙,운영,위원회,총학생회,비상,대책,위원회,학생,자치,기구,차원,대응,전담,TF,대응책,가해,강구,캠퍼스,마련,B씨,분향소,근조화환,130개,전달,분향소,유가족,이날,6시,운영,예정</t>
+        </is>
+      </c>
+      <c r="E490" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9266,7 +11716,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>인하대생,경비,CCTV,무용지물,인하대,발생,사건,성폭행,사망,관리,학내,치안,대학,당국,책임,지적,취재,종합,사건,발생,용현캠퍼스,인하대,용현,캠퍼스,야간,경비,인력,4명,종합관리실,교정,4곳,경비,업무,근무,매뉴,얼상,9시,5시,차례,순찰,신고,경찰,출동,사건,파악,근처,사건,현장,폐회로텔레비전,CCTV,현장,용현캠퍼스,36만,넓이,건물,교정,4명,시시티브이,캠퍼스,상황,캠퍼스,관리,불가능,얘기,인하대,경비,업무,형태,인력,경비,출동,경비,전환,35명,경비,노동자,15명,인력,경비,건물,2~3명,경비,노동자,상주,방식,2020년,업체,계약,경비,용역,13명,경비,노동자,근무,경비인력,시시티브이,532대,765대,확충,경비,인력,시시티브이,실시간,모니터링,학생증,인증,24시간,출입,출입통제,건물,입구,출입,통제,범죄,노출,대학당국,시간대,이날,건물,출입,가능,조정,구내,보안,순찰인력,방안,치안,대책,논의,교육부,이날,브리핑,폭력,대응,안전,캠퍼스,학교,총력,학생,학내,구성원,프로그램,심리,안정,지원,캠퍼스,안전,강화,야간,출입,통제,강화,폐회로티브이,증설</t>
+        </is>
+      </c>
+      <c r="E491" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9284,7 +11739,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,사망,검토,남학생,퇴학,인하대,수사,결과,퇴학,CCTV,증설,교내,출입,조정,캠퍼스,대책,마련,인하대학교,또래,여학생,성폭행,추락,혐의,남학생,경찰,구속,인하대,가해,남학생,퇴학,조치,검토,인하대,18일,회의,성폭행,사망,피해,학생,애도,사고,기본대책,논의,인하대,준강,간치사,혐의,구속,A씨,수사결과,대로,학칙,처벌,수위,퇴학,조치,강화,교내,보안,목적,교내,CCTV,증설,보안,순찰,인력,확대,방침,인하대,교내,765대,CCTV,설치,480곳,여자,화장실,비상벨,사건,발생,공과,대학,83대,CCTV,설치,캠퍼스,시간대,출입,가능,조정,보완책,검토,사건,발생,피해자,동급,부축,단과,대학,건물,대학,캠퍼스,건물,학생증,이용,출입,시간,상시,가능,사전,승인,학생,건물,출입,논의,인하대,관계자,안전,캠퍼스,면학,분위기,재발방지,최선,캠퍼스,인하대학교,동급생,성폭행,추락,사망,혐의,준강간치사,인하대,A씨,구속,A씨,15일,1시,캠퍼스,인천,미추홀구,용현동,인하대,20대,성범죄,건물,혐의,경찰,A씨,B씨,건물,고의,가능성,A씨,증거,인멸,여부,수사</t>
+        </is>
+      </c>
+      <c r="E492" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9302,7 +11762,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>인하대,단과대,폴리스라인,경향포토,인천,미추홀구,인하대학교,계단,단과,대학,건물,발생,추락사,경찰통제선,인하대,성폭행,추락사,경찰,통제,설치</t>
+        </is>
+      </c>
+      <c r="E493" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9320,7 +11785,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>인하대,단과대,폴리스라인,경향포토,인천,미추홀구,인하대학교,계단,단과,대학,건물,발생,추락사,경찰통제선,인하대,성폭행,추락사,경찰,통제,설치</t>
+        </is>
+      </c>
+      <c r="E494" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9338,7 +11808,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>인하대,단과대,폴리스라인,경향포토,인천,미추홀구,인하대학교,계단,단과,대학,건물,발생,추락사,경찰통제선,인하대,성폭행,추락사,경찰,통제,설치</t>
+        </is>
+      </c>
+      <c r="E495" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9356,7 +11831,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>인하대,단과대,폴리스라인,경향포토,인천,미추홀구,인하대학교,계단,단과,대학,건물,발생,추락사,경찰통제선,인하대,성폭행,추락사,경찰,통제,설치</t>
+        </is>
+      </c>
+      <c r="E496" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9374,7 +11854,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D497" t="n">
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>인하대,단과대,폴리스라인,경향포토,인천,미추홀구,인하대학교,계단,단과,대학,건물,발생,추락사,경찰통제선,인하대,성폭행,추락사,경찰,통제,설치</t>
+        </is>
+      </c>
+      <c r="E497" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9392,7 +11877,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D498" t="n">
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>인하대,교내,마련,추모공간,경향포토,교내,인천,미추홀구,인하대학교,마련,추락사,인하대,성폭행,피해자,추모공간,고인,추모,손편지</t>
+        </is>
+      </c>
+      <c r="E498" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9410,7 +11900,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D499" t="n">
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>인하대,교내,마련,추모공간,경향포토,인하대학교,학생,교내,인천,미추홀구,인하대학교,마련,인하대,성폭행,추락사,피해자,추모공간,고인,추모</t>
+        </is>
+      </c>
+      <c r="E499" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9428,7 +11923,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D500" t="n">
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>인하대,교내,마련,추모공간,경향포토,인하대학교,학생,교내,인천,미추홀구,인하대학교,마련,인하대,성폭행,추락사,피해자,추모공간,고인,추모</t>
+        </is>
+      </c>
+      <c r="E500" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9446,7 +11946,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D501" t="n">
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>인하대,교내,마련,추모공간,경향포토,인하대학교,학생,교내,인천,미추홀구,인하대학교,마련,인하대,성폭행,추락사,피해자,추모공간,고인,추모</t>
+        </is>
+      </c>
+      <c r="E501" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9464,7 +11969,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D502" t="n">
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>인하대,교내,마련,추모공간,경향포토,인하대학교,학생,교내,인천,미추홀구,인하대학교,마련,인하대,성폭행,추락사,피해자,추모공간,고인,추모</t>
+        </is>
+      </c>
+      <c r="E502" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9482,7 +11992,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D503" t="n">
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>인하대,교내,마련,추모공간,경향포토,인하대학교,학생,교내,인천,미추홀구,인하대학교,마련,인하대,성폭행,추락사,피해자,추모공간,고인,추모</t>
+        </is>
+      </c>
+      <c r="E503" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9500,7 +12015,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D504" t="n">
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>인상,치킨,가격,프랜차이즈,치킨,운동,등장,치킨,프랜차이즈,가격,인상,네티즌,사이,프랜차이즈,치킨,보이콧,운동,등장,18일,온라인,커뮤니티,중심,치킨,보이콧,프랜차이즈,주문,문구,포스터,사진,사진,일본,상품,불매,운동,노재팬,Japan,포스터,패러디,일장기,치킨,그릇,사진,합성,포스터,치킨,시대,소비자,선택,권리,문구,이날,온라인,커뮤니티,에펨코리아,공유,반나절,조회수,300개,댓글,네티즌,관심,18일,사진,네티즌들,치킨,동네,가성비,브랜드,치킨,가격,차이,차이,생각,치킨,가격,가격,다들,프랜차이즈들,소비자,눈치,가격,반응,물가,치킨,가격,반응,이은희,인하대,소비자학,교수,조선닷컴,시민들,배달,음식,애용,일상생활,밀접,인상,만큼,가격,체감,치킨,가격,반발,프랜차이즈,가격,인상,소비자,부담,원가,상승,전가,모습,배달비,불만,형식,불매,운동,설명,업체들,치킨,프랜차이즈,업체,치킨,가격,1000원,인상,가량,업계,코로나바이러스감염증,코로나,물류,대란,최저,임금,상승,국제,사룟,급등,원인,가격,인상,소비자들,배달비,치킨,시대,불만,목소리,교촌치킨,가맹점들,기본,배달비,3000원,4000원,33%,인상,논란,치킨,인상,소비자,교촌,배달비,바람,치킨집들,배달비,별도,시작,곳들,배달비,인상,시작,표시,교촌,2000원,배달비,별도,프랜차이즈들,기본,배달비,배달비,논란,교촌,배달비,가맹점,책정,관여,입장</t>
+        </is>
+      </c>
+      <c r="E504" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9518,7 +12038,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D505" t="n">
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,피해자,가해,법적,대응,추락,사망,사건,피해자,신상,유가족,학교본부,총학생회,공동대응,인하대,교정,신상,추락,사망,사건,피해자,사진,가해,유가족,학교본부,총학생회,공동,대응,TF,대응,총학생회,비상,대책,위원회,게시판,학교,언론보도,온라인,사건,윤리,보도,확인,악의적,허위,사실,유포,제보,접수,채널,운영,대처,위원회,피해,학생,가해,체계적,채널,제보,접수,운영,법적,방안,대처,강조,학교,징계,별개,형사상,조치,방안,강구,가해자,기소,예정,기소,제출,엄벌,탄원서,방법,가능,당부,온라인상,사건,인하대,사망,피해자,신상,글들,게재,영장실질심사,긴급,체포,남학생,영장,실질,심사,구속,혐의,치사,구속,청구,A씨,가해,남학생,20대,고의,살인,경찰,수사,본격화,인천지법,영장,전담,재판부,당직,판사,고범진,이날,도주,증거,인멸,구속영장,발부,인천경찰청,종합,A씨,15일,인하대,교정,단과,대학,건물,동급,성폭행,추락사,혐의,경찰,B씨,5층,학교,건물,성폭행,3층,B씨,3시,분쯤,건물,머리,출혈,상태,발견,인근,병원,A씨,경찰,사고사,주장,경찰,A씨,B씨,고의,살해,가능성,염두,수사,경찰,A씨,B씨,건물,모습,폐쇄회로,CCTV,영상,확보</t>
+        </is>
+      </c>
+      <c r="E505" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9536,7 +12061,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D506" t="n">
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,사망,검토,가해,혐의,남학생,퇴학,인하대,검토,수사,결과,대로,가해자,퇴학,CCTV,증설,교내,출입,조정,대책,마련,인하대학교,캠퍼스,또래,여학생,성폭행,추락,혐의,남학생,경찰,구속,인하대,남학생,퇴학,조치,검토,인하대,18일,부서,회의,강화,시설,보안,재학,심리,치료,교내,여학생,성폭행,사건,안전,대책,논의,인하대,준강,간치사,혐의,구속,A씨,수사결과,대로,학칙,퇴학,조치,강화,교내,보안,목적,교내,CCTV,증설,보안,순찰,인력,확대,방침,인하대,교내,765대,CCTV,설치,480곳,여자,화장실,비상벨,사건,발생,공과,대학,83대,CCTV,설치,캠퍼스,시간대,출입,가능,조정,보완책,검토,사건,발생,피해자,동급,부축,단과,대학,건물,인하대,통제시스템,학생증,시간,출입,사전,승인,학생,건물,출입,논의,사건,심리,고통,호소,학생들,방안,심리,치료,제공,검토,인하대,중앙,운영,위원회,총학생회,비상,대책,위원회,소속,학생,대응,전담,TF,자체적,대응책,가해,강구,A씨,혐의,준강,간치사,구속,A씨,15일,인천시,미추홀구,인하대,캠퍼스,단과,대학,건물,B씨,성폭행,추락,혐의,경찰,A씨,B씨,건물,고의,가능성,A씨,증거,인멸,여부,수사,A씨,혐의,인정,고의성,부인,경찰,보강,수사,A씨,검찰,송치,예정</t>
+        </is>
+      </c>
+      <c r="E506" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9554,7 +12084,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D507" t="n">
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>총력,교육부,인하대,사건,재발,방지,야간,출입통제,CCTV,증설,교육부,인하대학교,캠퍼스,여학생,성폭행,추락,사건,강화,야간,출입,통제,CCTV,증설,대책,재발,방지,대변인,최성부,교육부,정례브리핑,출입,기자단,정례,브리핑,인하대,캠퍼스,사건,학생,사망,피해,학생,명복,애도,위로,말씀,대변인,폭력,대응,안전,캠퍼스,학교,총력,재발방지대책,마련,캠퍼스,발생,교육부,상시,학생,대상,성폭력,예방,교육,점검,특별교육,추진,예정,사회관계망서비스,SNS,피해,확산,방지,피해,방지,포함,재발방지대책,예방교육,캠퍼스,안전,강화,야간,출입,통제,CCTV,증설,포함,학생들,학내,구성원,안정,상담,심리,안정,프로그램,적극,지원,예정,인천지방법원,준강,간치사,혐의,구속영장,청구,남학생,인하대,남학생,구속영장,발부,15일,인하대,캠퍼스,단과,대학,건물,학교,여학생,성폭행,추락,혐의,인하대,이날,부서,회의,사건,강화,시설,보안,재학,심리,치료,안전,대책,논의,수사결과,학칙,퇴학,조치,예정,인하대,800여,CCTV,설치,사건,발생,공과,대학,83대,CCTV,설치,파악,여자,화장실,교내,비상벨,설치,인하대,교내,점검,CCTV,증설,예정,인하대,학생증,시간,출입,입구,통제,사전,승인,학생,출입,출입,가능,시간대,방안,검토,보안,순찰,인력,확대,사각지대</t>
+        </is>
+      </c>
+      <c r="E507" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9572,7 +12107,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D508" t="n">
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>인하대,사건,학생,교육부,피해,학생,야간,출입,통제,강화,CCTV,증설,조명우,인하대,총장,인천시,미추홀구,인하대학교,공과,대학,건물,마련,추모공간,헌화,뉴스1,교육부,인하대학교,용현,캠퍼스,발생,학생,사망,사건,안전,캠퍼스,재발,방지,대책,마련,18일,인하대,강화,시설,보안,재학,심리,치료,안전,대책,논의,대변인,최성부,교육부,이날,캠퍼스,인하대,발생,학생,사망,사건,피해,학생,명복,애도,위로,말씀,폭력,대응,안전,캠퍼스,학교,총력,인하대,15일,재학생,학교,건물,성폭행,추락사,사건,발생,인천,미추홀경찰서,17일,학교,준강,간치사,혐의,구속,인하대,캠퍼스,건물,또래,여학생,성폭행,건물,추락,혐의,남학생,17일,구속,피의자,심문,영장실질심사,인천지방법원,인천시,미추홀구,인천,사건,재발,교육부,대책,캠퍼스,학생,대상,성폭력,예방,교육,안전강화,야간,출입,통제,강화,순찰,폐쇄,회로,CC,TV,증설,교육부,사회관계망서비스,SNS,피해,확산,방지,포함,특별,교육,추진,학생들,포함,학내,구성원,심리,안정,상담,프로그램,지원,예정,교육부,대책,재발,방지,마련,발생,약속,인하대,부서,회의,강화,시설,보안,재학,심리,치료,사건,전반적,대책,논의,학교,사전,승인,학생,건물,출입,시간대,출입,가능,조정,보완책,검토,CCTV,증설,보안,순찰인력,확충,방안,논의,학교,학칙,경찰,수사,결과,시일,A씨,퇴학,인하대학교,홈페이지,교직원,추도사,캡처,인하대,홈페이지,인하대,교직원,일동,명의,공식,홈페이지,학생들,학우,정성,학생,허망,상황,슬픔,부모님,위로,말씀,충격,혼란,학생,위로,추도사,사회,폭력,용납,인하인,터전,안전,인하대,중앙,운영,위원회,총학생회,비상,대책,위원회,학생,자치,기구,차원,대응,전담,TF,대응책,가해,강구</t>
+        </is>
+      </c>
+      <c r="E508" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9590,7 +12130,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D509" t="n">
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>인하대,사건,논란,총학,입장,감성,팔이,VS,조심,사망사건,여대,성폭행,사망,사건,인하대학교,총학생회,비상,대책,위원회,비대위,입장문,네티즌들,갑론을박,인하대,홈페이지,인하,광장,게시판,눈물,가슴,제목,입장문,게재,비대위,15일,가슴,참사,20살,후배,동기,입술,울음,고개,20살,친구,동기,허망,세상,인하대,총학생회,비상,대책,위원회,입장문,비통,머릿속,질문,눈물,가슴,가족,친구,동기,후배,위로,추모,추모,고인,명복,입장문,공개,온라인,커뮤니티,네티즌들,갑론을박,가해자,언급,지적,한편,비대위,입장,이해,의견,네티즌들,소설,감성팔이,가해자,분노,재발,방지,입장문,비판,수사,사안,조심,가해,피해자,공격,비판,재반박,의견,인하대학교,캠퍼스,동급생,성폭행,건물,추락,혐의,A씨,대학,구속,A씨,사고사,주장,피해자,고의,살해,가능성,염두,수사</t>
+        </is>
+      </c>
+      <c r="E509" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9608,7 +12153,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D510" t="n">
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>비극,인하대,사건,분향소,발길,추락,인하대,여대,사망,사건,피해자,추모공간,학생,교직원,발길,이생,하늘나라,18일,인하대학교,캠퍼스,동급,성폭행,추락,여학생,추모,마련,공간,A씨,15일,행인,발견,정면,공과,대학,마지막,장소,고통,A씨,애도,발길,이날,입구,단과대,건물,화환,앞날,수천송,기억,고인,명복,바람,인하대,정보,통신,공학,신현민,학생들,안전,학업,공간,캠퍼스,비극,사건,발생,나이,추락,인하대,여대,사망,사건,피해자,추모공간,학생,교직원,발길,A씨,또래,여학생,감정,서로,동시,한참,눈물,자리,학내,구성원,비보,인근,지역,추모,행렬,주민,과거,학교,교정,현실,시대,여성들,세상,분향소,게시판,고인,정성,글들,A씨,위로,글씨,메모,고통,세상,이별,마음,비통,심경,추락,인하대,여대,사망,사건,피해자,추모공간,학생,교직원,발길,학기,대학생활,A씨,학내,분향소,유족,발인,이날,운영,A씨,장례,본인,생전,성장기,지방,부모님,포함,인원,유족,절차,A씨,건물,추락,학교,남학생,혐의,준강,간치사,미추홀경찰서,구속,B씨,일행,사건,당일,학교,A씨,이동,단과,피해자,성폭행,경찰,범행,현장,B씨,휴대전화,발견,참고인,조사,조사,도중,B씨,혐의,인정,피의자,신분,전환,긴급체포,경찰,B씨,A씨,성폭행,고의,건물,가능성,주목,B씨,경찰,조사,A씨,고의성,부인</t>
+        </is>
+      </c>
+      <c r="E510" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9626,7 +12176,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D511" t="n">
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>인하대,마련,성폭력,사건,재발,방지책,추모,발길,교내,사건,성폭력,사망,발생,인하대,안전,대책,강화,인하대,18일,내부,회의,강화,시설,보안,지원,재학,심리,치료,사건,전반적,대책,논의,인하대,특정,시간대,건물,출입,통제,방안,구상,통제시스템,건물,입구,통제,학생증,시간,출입,대학,사전,승인,학생,출입,시간대,출입,가능,조정,보완책,검토,CCTV,증설,보안,순찰인력,확충,논의,인하대,13명,보안,순찰인력,배치,근무,CCTV,캠퍼스,내부,765대,사건,발생,5층,단과,대학,건물,CCTV,파악,여자,화장실,교내,비상벨,설치,상태,인하대,관계자,전교생,상대,성폭력,특별교육,성폭력,특별,교육,방안,가해,방지,대책,검토,가해자,학칙,수사,결과,시일,퇴학,조치,관계자,피해자,유족,지원,사건,사망,B씨,이날,발인,장지,이동,교육부,사건,이날,인하대,대학,캠퍼스,야간,출입,통제,강화,CCTV,증설,강화,학생,대상,성폭력,예방,교육,특별,교육,재발,방지,대책,마련,사건,발생,단과,대학,건물,마련,추모공간,이날,추모,발길,각지,조화들,쇄도,건물,인근,의과,대학,건물,자리,차지,판도,1개,메모지,부착,판도,이날,3개,학교,추모,공간,운영,종료,예정,추모객,유지,계획</t>
+        </is>
+      </c>
+      <c r="E511" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9644,7 +12199,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D512" t="n">
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>신고,휴대전화,학생,인하대,가해,자수,캠퍼스,인천,인하대,피의자,사망,사건,피의자,현장,휴대전화,전문가,형사법,박사,승재현,한국,형사,법무,정책,연구원,YTN,신고,휴대전화,박사,자수,경찰,현장,휴대전화,A씨,확인,범행,시인,A씨,경찰,연락,경찰,연락,피해자,가지,옷가지,현장,장소,이야기,증거인멸,범행,정황,양형,사유,판단,가중,사유,양형,참작,경찰,준강,간치사,혐의,구속,준강간치사죄,심신상실,항거,불능,상태,이용,간음,추행,피해자,적용,유죄,인정,무기징역,10년,징역형,선고,박사,고의,추락사,살인,옥신각신,와중,고의,부정,치사,영장,청구,공소장,변경,제도,준강,살인,정확,명칭,강간살인,경찰,살인,고의,확인,대목,A씨,경찰,조사,B씨,고의성,부인,이야기,자체,범죄,반성,핑계,모습,여성,대학교,성폭행,사망,반성,모습,죄질,판단,온라인상,피해자,신상,공개,피해자,신상,유출,피해자,신상,유출,정보,통신망법,규정,비난,목적,박사,피해자,귀책사유,친구,시험,마음,악용,가해자,피해자,가해,국가기관,가해,발본색원,처벌,강조,A씨,신상,노출,가해자,사람,비난,목적,1항,형법,사실,적시,명예훼손죄,성립,국가기관,판단,자중,혐의가,강간살인,신상,공개,대상,범죄,경찰,수사</t>
+        </is>
+      </c>
+      <c r="E512" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9662,7 +12222,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D513" t="n">
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>인하대,추락사,가해자,휴대,전화,현장,자수,캠퍼스,인천,인하대,여학생,성폭행,추락,혐의,남학생,대학,남학생,휴대전화,범행,현장,전문가,신고,휴대전화,승재현,한국,형사,법무,정책,위원,YTN,인터뷰,자수,휴대전화,현장,경찰,전화,가해자,범행,시인,우발적,사고,사건,신고,사건,고의성,판단,위원,피해자,현장,장소,이야기,증거인멸,범죄,증거인멸,처벌,범행,정황,범행,정황,양형,사유,판단,가중,사유,양형,참작,설명,신고,정신,피해자,정신,법정,정신,정도,만취,상태,주장,근거,진행자,물음,애당초,성폭행,심신,적용,번째,이야기,자체,범죄,반성,핑계,모습,지적,판사,모습,피의자,반성,생각,죄질,판단,생각,부연,경찰,긴급체포,구속,인천,미추홀경찰서,사건,발생,인하대,건물,주변,폐쇄,회로,CC,TV,15일,결과,피해자,피해자,부축,강의실,연구실,건물,엘리베이터,3층,3층,장소,사건,발생,CCTV,피해자,남학생,술집,인하대,인근,기말,시험,뒤풀이,동아리,소속,술자리,학교,15일,건물,입구,행인,발견,병원,경찰,성폭행,사실,인정,준강,간치사,혐의,입건,성폭행,피해자,건물,창밖,조사,경찰,조사,진술,피해자,혐의,적용,살인,경찰,피해자,추락,지점,현장,교내,장소,발견,증거,인멸,혐의,조사</t>
+        </is>
+      </c>
+      <c r="E513" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9680,7 +12245,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D514" t="n">
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>인하대,사망,사건,망인,존엄,가해자,플랫,가해자,인하대,사망,사건,준강,간치사,혐의,구속,피의자,A씨,대학,학생,15일,1시,피해자,부축,학교,건물,모습,폐쇄회로,CC,TV,포착,4시,바닥,발견,B씨,병원,이송,사망,A씨,B씨,건물,구조요청,도주,옷가지,경찰,살인,고의,증거,인멸,여부,수사,대학,캠퍼스,성폭력,사건,발생,피해자,죽음,충격,경찰,피해자,추락사,가해자,살인,진상,규명,비극,불법촬영,대학,성범죄,위험수위,징후,사건,청소년기,온라인,범람,성착취물,노출,왜곡,성의식,학생들,대학,사회,구성원,방식,대학,성폭력,예방,포함,감수,교육,필수화,사건,발생,망인,亡人,존엄,가해,남자,자체,옷차림,범죄,유발,피해자,모욕,온라인,게시,논란,야기,남성,본능,통제,성범죄,원인,피해자,전가,행태,건전,윤리의식,시민,대다수,남성,폄훼,남성혐오,피해자,신상털,시도,죽음,비극,말초,쾌락,소비,호기심,관련기사,인하대,사망,피해자,신상,가해,언론,비판,추락,피해자,발견,상태,직설적,표현,가해자,성별,피해자,성별,강조,제목,기사,클릭,장사,매체들,선정적,차별,표현,언론윤리,정면,위배,언론,양태,초기,보도,사건,관음증,관심,부채질,비판,따름,온라인,망인,유족,영혼,가해,시민,언론,사법당국,처벌,비극,재연,사태,책무,플랫팀,twitter.com,flatflat38</t>
+        </is>
+      </c>
+      <c r="E514" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9698,7 +12268,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D515" t="n">
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>가해자,인하대,성폭행,신상,논란,급속,확산,누리꾼,공익,목적,vs,캠퍼스,인천,인하대,여학생,성폭행,추락,혐의,구속,남성,추정,신상정보,온라인상,속도,각종,온라인,커뮤니티,소셜네트워크서비스,SNS,신상,인하대,가해자,신상,인하대,강간,살인범,설명,가해자,추정,남성,남성,사진,이름,학과,나이,전화번호,인스타그램,계정,활동,동아리,과외,사이트,등록,정보,정보,확산,초등학생,교육청,초등학생,모범,어린이,표창장,화제,가족,직업,위치,공개,고향,비하,여론,일자,누리꾼,사이,신상,갑론을박,한쪽,신상,공익,반응,한쪽,불법,목소리,확산,신상정보,가해,남성,확인,가해자,명예훼손,1항,형법,정보통신망법,제70,1항,사실,적시,타인,명예,훼손,처벌,미추홀경찰서,인천,준강,간치사,혐의,남성,구속,구속,피의자,심문,영장실질심사,진행,당직판사,고범진,인천지법,당직,판사,이날,도주,증거,인멸,구속영장,발부,경찰,호송차,남성,인정,성폭행,혐의,취재진,질문,모자,상태,대답,고개,피해자,질문,목소리</t>
+        </is>
+      </c>
+      <c r="E515" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9716,7 +12291,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D516" t="n">
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>인하대,사건,가해자,고의,살인,혐의,부인,인하대,캠퍼스,동급생,성폭행,사망,혐의,인하대,A씨,20,17일,인천지법,인천시,미추홀구,구속,피의자,심문,영장,실질심사,인천,인하대학교,캠퍼스,동급생,성폭행,혐의,남학생,구속,인천,미추홀경찰서,혐의,준강,간치사,인하대,구속,고범진,인천지법,당직,판사,이날,A씨,구속,피의자,심문,영장실질심사,진행,증거,인멸,도주,영장,발부,A씨,이날,구속,피의자,심문,영장실질심사,인천지법,모습,포승줄,상태,모자,마스크,얼굴,승합차,경찰,A씨,인정,성폭행,혐의,피해자,3층,취재진,질문,묵묵부답,일관,피해자,물음,인하대,캠퍼스,동급생,성폭행,사망,혐의,인하대,A씨,20,17일,인천지법,인천시,미추홀구,구속,피의자,심문,영장,실질심사,인천,A씨,15일,인하대,캠퍼스,B씨,학교,학생,상대,성범죄,혐의,이날,3시,분쯤,길가,인하대,캠퍼스,나체,상태,B씨,행인,발견,신고,B씨,심정지,상태,병원,이송,7시,사망,B씨,발견,건물,대학,공대,2호관,사잇길,주년,기념관,경찰,B씨,A씨,성폭행,건물,추락사,A씨,B씨,재학생,대학,재학,학부,계절학기,수강,비대면,진행,사람,계절,학기,시험,등교,A씨,당일,2시,B씨,7시,분쯤,시험,사람,동아리,활동,이날,술자리,경찰,범행,현장,A씨,휴대전화,발견,참고인,조사,혐의,확인,피의자,긴급체포,혐의,준강,간치사,적용,A씨,구속영장,신청,A씨,경찰,조사,혐의,인정,B씨,고의,3층,살인,혐의,부인,17일,경찰,A씨,살인,혐의,적용,검토,사건,현장,추락,실험,진행,경찰,B씨,추정,바지,속옷,교내,장소,경찰,A씨,증거인멸,시도,가능성,확인</t>
+        </is>
+      </c>
+      <c r="E516" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9734,7 +12314,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D517" t="n">
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>인하대생,미안,피해자,추모,발길,포착,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,학교,남학생,경찰,구속,인천,미추홀경찰서,혐의,준강,간치사,인하대,구속,준강간치사죄,심신상실,항거,불능,상태,이용,간음,추행,피해자,적용,유죄,인정,무기징역,10년,징역형,선고,A씨,이날,영장,실질,심사,출석,피해자,물음,A씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과,대학,건물,지인,B씨,여성,성폭행,3층,추락,혐의,A씨,B씨,범행,범행,건물,일행,확인,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의성,부인,B씨,당일,사건,발생,캠퍼스,건물,행인,발견,심정지,상태,119구급대,병원,A씨,범행,B씨,범행,도주,상태,경찰,A씨,건물,고의,B씨,확인,상황,가정,현장,실험,경찰,진술,토대,살인,고의성,적용,준강,간치사,혐의,구속영장,신청,추가,수사,A씨,고의,B씨,건물,정황,확인,준강간살인,죄명,방침,친구,허망,인하대학교,건물,마련,추모공간,국화꽃,사건,학교,학생들,건물,피해자,추모,공간,마련,고인,명복,100명,학생들,헌화,묵념,표현,추모공간,조화,하늘나라,이생,문구,미안,여성,피해자,세상,학생들,추모,글귀,비상대책위원회,인하대,총학생회,비상,대책,위원회,홈페이지,학교,사건,눈물,가슴,제목,입장문,총학생회,입술,울음,고개,20살,친구,동기,허망,세상,머릿속,질문,눈물,가슴,가족,친구,동기,후배,위로,추모</t>
+        </is>
+      </c>
+      <c r="E517" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9752,7 +12337,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D518" t="n">
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>대통령실,인하대,사건,질서,뉴시스,대통령실,고위,관계자,인하대,여학생,캠퍼스,또래,남학생,성폭행,사망,사건,비통,재발,방지,노력,관계자,17일,용산,청사,기자들,인하대,사건,비통,대학교,학생,참혹,만큼,애통,비통,심정,재발,질서,애통,세상,피해자,명복</t>
+        </is>
+      </c>
+      <c r="E518" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9770,7 +12360,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D519" t="n">
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>47일,민노총,하청,파업,경남,거제,안녕,7NEWS팀,1독,경남,거제,대우조선해양,옥포조선소,dock,작업장,7월,17일,거제,민주,노총,금속,노조,통영,고성,조선하청지회,지난달,47일,점거,하청지회,인상,임금,30%,인상,상여금,300%,제공,노조,사무실,요구,목숨,임금,하청,노동자,생존,여건,개선,주장,점거,피해,파장,눈덩이,1독,20만,30만,원유,운반,원유,운반선,규모,세계,최대,회사측,진수,선박,포함,선박,진수,건조,배들,차례,작업,본지,취재,결과,대우조선해양,지연,연쇄,작업,매출,감소액,5000억,인건비,포함,부담,각종,고정비,1000억,원쯤,노조,점거,선박,건조,선박들,인도,지연,배상금,130억,추정,대우조선해양,협력업체,사내,협력,업체,진형,동광기업,영일산업,폐업,지난달,삼주,31일,혜성기업,폐업,다음달,예정,기업들,하청,지회,불법,점거,경영상,간접적,피해,주장,이달,대우조선해양,임직원,가족,5000여명,가족,회사,팻말,4.5,인간,행사,민사2부,창원지방법원,통영지원,민사,하청,지회,조합원,제1독,폐쇄,배타적,점거,노조,대우조선해양,하루,원씩,지급,결정,한국,경제,희망적,복합,위기,국면,대우조선해양,7조,원어치,수주,수주액,67%,달성,상태,소모적,대립,조짐,조선업,호황,정부,산업,현장,사태,팔짱,원칙,대응,해결,귀순의사,정부,인사,북송,거짓,해명,논란,강제,북송,2명,귀순,어민,조사,정부,합동,조사,용지,자기소개서,대한민국,귀순,의사,시종일관,사건,수사,서울중앙지검,자료,진술,확보,정의용,청와대,국가,안보실장,소환조사,계획,기사보기,출마선언,이재명,출마,선언,총선,실패,소명,의원,이재명,더불어민주당,선거출마,선거,출마,공식,선언,3월,패배후,대통령,선거,패배,달만,지방선거,등판,지방선거,당대표,도전,이날,회견,친명,의원,지지자,국회,소통관,기사보기,외교장관,도쿄,방문,韓日,외교,장관,회담,장관,박진,외교,도쿄,방문,하야시,요시마사,일본,외무상,징용,피해자,포함,양국,현안,논의,장관,한국,외교,차원,양자,회담,일본,방문,박진,장관,총리,후미오,일본,윤석열,대통령,메시지,가능성,거론,기사보기,한국,고교,국제,수학,올림피아드,한국,고등학생,이달,16일,노르웨이,오슬로,국제,수학,올림피아드,IMO,종합,성적,전원,한국,대표단,학생,메달,획득,총점,허준이,교수,수학,노벨상,필즈상,입증,한국,수학,저력,확인,기사보기,충전후,500km,전기차,현대차,충전,524km,전기차,아이오닉,롱레인지,출시,아이오닉,800V,고전압,초급,충전,18분,10%,80%,충전,가능,전기차,완충시,주행,거리,시대,전기차,대중,기사보기,탕웨이,초밥,장면,메소드,관객,배우,극사실주의적,메소드,연기,완벽,재현,스크린,행동,관객,메소드,관객,영화,상징,음식,주인공,겸상,탕웨이,중국,배우,출연,영화,결심,기사보기,대통령,노동,개혁,의지,장관,노무현,정부,시절,노동부,명예교수,김대환,인하대,명예,교수,조선일보,인터뷰,윤석열,정부,노동,개혁,실천,주문,노동개혁,관장,컨트롤타워,노동개혁,대통령,프로젝트,추진,강조,노조,기득권,억제,보호,중소기업,직원,훈련,제안,기사,보기,운세,운세</t>
+        </is>
+      </c>
+      <c r="E519" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9788,7 +12383,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D520" t="n">
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>인하대생,한마디,고의성,부인,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,구속,피의자,심문,영장실질심사,인천지방법원,인천시,미추홀구,캠퍼스,인하대학교,동급생,성폭행,건물,추락,혐의,남학생,학교,경찰,구속,인천,미추홀경찰서,혐의,준강,간치사,인하대,구속,고범진,인천지법,당직,판사,이날,구속,피의자,심문,영장실질심사,진행,증거,인멸,도주,영장,발부,준강간치사죄,심신상실,항거,불능,상태,이용,간음,추행,피해자,적용,유죄,인정,무기징역,10년,징역형,선고,영장실질심사,인천지법,A씨,포승줄,수갑,상태,얼굴,모자,마스크,경찰,승합차,이동,A씨,성폭행,혐의,인정,여부,여부,증거,인멸,시도,취재진,질문,피해자,물음,경찰,A씨,15일,인천시,미추홀구,소재,인하대,단과대학,피해자,성폭행,B씨,건물,추락,A씨,B씨,포함,일행,학교,B씨,이동,인근,사건,현장,폐쇄회로,CC,TV,당일,1시,분쯤,A씨,B씨,부축,학교,건물,장면,범행,범행,건물,일행,경찰,범행,현장,A씨,휴대전화,발견,참고인,조사,조사,도중,A씨,혐의,인정,경찰,피의자,신분,전환,긴급체포,인천경찰청,과학,수사대,건물,단과,대학,1m가량,창문틀,B씨,가능성,현장,실험,사건,사건,추정,피해자,창문,건물,복도,추락,상황,가정,A씨,B씨,성폭행,고의,건물,가능성,주목,A씨,경찰,조사,B씨,건물,사실,인정,B씨,고의성,부인,인하대,캠퍼스,여학생,성폭행,건물,추락,혐의,학교,남학생,경찰,체포,조사,인천시,미추홀구,캠퍼스,추모공간,마련,당일,사건,발생,3시,분쯤,인하대,캠퍼스,발견,머리,심정지,상태,119구급대,병원,이송,결국,A씨,범행,B씨,도주,상태,경찰,진술,토대,살인,치사,혐의,구속영장,신청,치사,살인,고의성,적용,혐의,경찰,A씨,고의,B씨,건물,정황,확인,살인,죄명,방침,학내,마련,분향소,학생들,교수,교직원들,발길,총학생회,성폭행,추락,사건,입장문,비판,야기,피해자,배려,가해자,언급,비판,인하대,총학,비대위,입장문,비상대책위원회,홈페이지,캡처,인하대,총학생회,비상,대책,위원회,학교,홈페이지,입장문,눈물,가슴,총학생회,비대위,입장문,입술,울음,고개,머릿속,질문,눈물,가슴,가족,친구,동기,후배,위로,충격,혼란,학생,위로,A씨,별도,언급,재학생,총학생회,입장문,가해자,처벌,언급,비판,인하대,재학,익명,게시판,온라인,공간,호소,가해자,처벌,대책,재발,방지,개인,감성,입장문,경솔,부정,반응,수사기관,A씨,신상,공개,A씨,추측,인물,개인정보,온라인,급속도,유포,파악,페이스북,사회관계망서비스,SNS,A씨,사건,피의자,특정,인물,이름,나이,전화번호,소속,학과,학번,정보,사진들,공유,대통령실,사건,애통,비통,재발,방지,약속,관계자,대통령실,고위,청사,용산,기자들,재발,질서,애통,세상,희생자,명복,인천,강승훈,박명원,이창훈</t>
+        </is>
+      </c>
+      <c r="E520" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9806,7 +12406,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D521" t="n">
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>가해자,인하대,성폭행,삽시간,신상,확산,인하대,캠퍼스,여성,동급,성폭행,혐의,남학생,추정,신상정보,온라인상,속도,확산,SNS,각종,온라인,커뮤니티,인하대,성폭행,가해자,신상,신상,인하대,강간,살인범,설명,A씨,추정,남성,사진,이름,학과,나이,전화번호,인스타그램,계정,300명,인스타,팔로어,정보,순식간,4000명,급증,계정,셀카,인하대,사건,가해자,얼굴,삽시간,이날,인스타그램,계정,비공개,전환,게시물,가족,신상정보,A씨,고향,추정,지역,비하,여론,신상,털기,과열,네티즌,사이,갑론을박,신상,반응,사법기관,결정,공개,만큼,신상,불법,자제,촉구,의견,A씨,인하대,캠퍼스,동급,상대,성범죄,혐의,B씨,15일,3시,분쯤,행인,발견,경찰,B씨,건물,추락사,A씨,이날,준강,간치사,혐의,구속,피의자,심문,영장실질심사,인천지법,모습,포승줄,모자,마스크,얼굴,경찰차,A씨,인정,성폭행,혐의,피해자,3층,질문,묵묵부답,일관,피해자,물음,인천지법,이날,영장실질심사,진행,증거,인멸,도주,구속영장,발부,준강간치사죄,심신상실,항거,불능,상태,이용,간음,추행,피해자,적용,유죄,인정,무기징역,10년,징역형,선고</t>
+        </is>
+      </c>
+      <c r="E521" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9824,7 +12429,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D522" t="n">
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>구속,성폭행,인하대,적용,준강,간치사,혐의,인하대,캠퍼스,동급생,성폭행,대학생,구속,수감,영장당직판사,인천지법,고범진,영장,당직,판사,17일,준강,간치사,혐의,구속영장,청구,인하대,재학생,사전구속영장,발부,판사,도주,증거인멸,영장,발부,A씨,이날,영장실질심사장,영장,실질,심사장,혐의,성폭행,인정,살해,의도,피해자,3층,취재진,질문,피해자,질문,증거인멸,시도,구조,요청,질문,경찰,혐의,강간치사,적용,긴급체포,B씨,상태,항거,불능,범행,판단,강간치사,혐의,적용,구속영장,신청</t>
+        </is>
+      </c>
+      <c r="E522" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9842,7 +12452,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D523" t="n">
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>인하대,사망,구속,가해자,경찰,주력,추락,고의,여부,수사,인천,미추홀구,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,인하대,A씨,경찰,구속,고범진,인천지법,당직,판사,17일,구속,피의자,심문,영장실질심사,진행,증거,인멸,도주,영장,발부,A씨,이날,영장,실질,심사,출석,성폭행,혐의,인정,살해,의도,피해자,3층,취재진,질문,피해자,물음,경찰,이날,살인,혐의,적용,검토,현장,실험,진행,경찰,A씨,살인,고의,준강,간치사,혐의,구속영장,신청,3층,고의,추가,수사,범죄,정황,확인,살인,혐의,적용,방침,A씨,15일,캠퍼스,인천시,인하대,단과,대학,건물,지인,B씨,여성,성폭행,추락,혐의,A씨,B씨,마지막,범행,범행,건물,일행,확인,사건,현장,인근,CCTV,이날,1시,분쯤,A씨,B씨,부축,건물,학교,장면,3시,분쯤,캠퍼스,B씨,행인,발견,심정지,상태,병원,5층,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,경찰,A씨,B씨,건물,고의,가능성,수사,경찰,B씨,사건,현장,교내,장소,발견,A씨,증거,인멸,여부,수사,A씨,경찰,혐의,인정,B씨,고의,살인,고의성,부인,사건,발생,인하대,캠퍼스,단과,대학,건물,추모공간,마련,학생,국화꽃,묵념</t>
+        </is>
+      </c>
+      <c r="E523" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9860,7 +12475,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D524" t="n">
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>성폭행,추락,인하대,추모,쪽지,행렬,비극,세상,남학생,구속,캠퍼스,인천,인하대,또래,여학생,성폭행,건물,추락,혐의,남학생,구속,판사,인천지법,고범진,혐의,준강,간치사,구속영장,청구,남학생,인하대,남학생,도주,증거인멸,영장,발부,A씨,15일,인천시,미추홀구,인하대,캠퍼스,단과,대학,건물,여학생,학교,여학생,성폭행,추락,혐의,A씨,이날,구속,피의자,심문,영장실질심사,인천지법,피해자,취재진,질문,인천,미추홀경찰서,피해자,15일,단과,대학,건물,상태,행인,발견,경찰,신고,B씨,심정지,상태,병원,7시,사망,경찰,주변,방범,카메라,CCTV,화면,현장,발견,A씨,휴대전화,토대,A씨,용의자,특정,체포,A씨,경찰,조사,사실,성폭행,혐의,인정,경찰,B씨,옷가지,사건,현장,교내,장소,발견,A씨,증거,인멸,가능,수사,A씨,B씨,마지막,화면,인근,CCTV,당일,A씨,B씨,부축,건물,학교,장면,경찰,5층,학교,건물,성폭행,B씨,창문,복도,지상,추락,사망,추정,A씨,B씨,B씨,폭행,수사,A씨,경찰,조사,고의,주장,인천경찰청,과학,수사대,미추홀경찰서,A씨,고의,B씨,여부,확인,16일,상황,가정,현장,실험,진행,사건,발생,인하대,건물,마련,추모,공간,추모객,여성,피해자,세상,나이,추모,쪽지,추모,쪽지,서울,강남역,부근,건물,화장실,여성,남성,흉기,사망,사건,등장,서울시,3만,쪽지,영구,보존,관계자,대통령실,고위,이날,희생자,명복,재발,질서,사건,반응들,박지현,더불어민주당,비상,대책,위원장,페이스북,대한민국,여성,안전,공간,성폭력,사건,발생,가해자,정치인들,여성가족부,폐지,대통령,범죄자,착취물,솜방망이,처벌,법원,사건,공범,주장,여성,온라인,커뮤니티,운운,여가부,폐지,성폭력,근절,여성,비율,남성,커뮤니티,여가부,사고,남성,하루아침,공범,신주호,국민,대변인,페이스북,위원장,겨냥,공범,개인,성별,이익,가해자,추정,인물,이름,사진,프로필,주거지,휴대전화,온라인,피의자,신상,정보,공개,논란,신지인</t>
+        </is>
+      </c>
+      <c r="E524" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9878,7 +12498,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D525" t="n">
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>민노총,파업,정부,시험,불법,불법,곽래건,사람,장관,노무현,정부,시절,노동부,명예교수,김대환,인하대,명예,교수,윤석열,대통령,취임,연설,국회,시정,노동,개혁,연금,교육,개혁,위기,극복,3대,제시,산업구조,대변혁,경쟁력,일자리,창출,노동,개혁,필요성,강조,추진,사회,지속,가능,위협,정부,노조,속수무책,모습,화물연대,총파업,정부,일방적,양보,화물연대,요구,사항,전국,민주노총,생산,설비,가동,중단,사장실,점거,실력,행사,정부,대응,행위,불법,대응,장관,노무현,정부,시절,노동부,김대환,金大煥,인하대,명예,교수,7일,17일,차례,본지,인터뷰,민노총,조합원,서울,도심,집회,화물,연대,총파업,민노총,정부,시험,정부,5년,문재인,정부,대로,운동장,노사,勞使,비전,전략,상태,지엽적,이슈,정부,노동자,혜택,정작,실제,노조,장악,대기업,공공부문,정규직,중소기업,나머지,대다수,비정규직,소외,정부,노사관계,이중구조,해소,적극,강조,대통령,차원,노동,개혁,추진,정부,원칙,주장,정부,불법,불법,일주일,화물,연대,파업,정부,타협,민주노총,화물,연대,파업,집회,서울,도심,정부,테스트,화물연대,정부,타협,연말,정부,연말,화물,연대,요구,수용,분위기,화물연대,요구,정부,시한,안전운임제,컨테이너,시멘트,운송,최저운,제도,영구화,적용,대상,화물연대,전략,정부,전략,정부,대응,화물,연대,주장,화물,차주,생계,정부,보장,세상,직업,직업,시장,상황,화물차주,화물차,투자,시장,상황,요구,집단,화물연대,과시,정부,압박,결국,생각,합리적,사회,차주들,사업자,화주들,법적,노사,피해,화주들,보상,요구,권리,정부,불법,면허,취소,으름장,결국,형사상,책임,정리,정부,민주노총,방식,생각,정부,일관,정책,입장,불법,불법,원칙,테두리,경험,질서,대우조선해양,하청,노조,파업,중대,이슈,정부,대처,정부,불법,규정,정부,노조,경고,설득,공권력,투입,불법,해소,노력,형사,책임,운동장,문재인,정부,노사,노사,지형,노사,운동장,임기,노조,문재인,정부,임기,노조,무게추,전국경제인연합회,유명무실,한국경영자총협회,문재인,대통령,양극화,지목,기억,5년,강연,사용자,불평,경제단체,제기,경제단체들,노조,횡포,건설,현장,조합원,채용,사업주,노조,보복,아무것,불법,그동안,정부,통제,노조,정치활동,법적,보장,민노총,민노총,한노총,한노총,권력,거래,5년,노동,출신,노사,정치,풍향,노조,활용,노조,사용자,반론,대기업,공공부문,노조,조직,현장,권력,사실,노조,중소기업,비정규직,노조,노조,교섭력,결국,근로조건,노사관계,이중구조,합리화,대기업,중소기업,정규직,비정규직,차이,노동시장,이중구조,해결,정부,진보,미명,결과적,노동계,대기업,공공,노조,편중,정책,정부,노동,개혁,의지,핵심,노동,개혁,이중,구조,혁파,노동시장,이중구조,노사관계,이중구조,해소,개혁,결국,노동,동전,양면,구체적,대기업,생산성,중소기업,임금,과도,측면,기득권,노조,교섭력,임금,결정,노동,시장,수요,공급,노조,교섭력,영향,공공부문,직장,정도,대기업,공공부문,과도,기득권,대기업,공공부문,임금,노조,요구,일방적,관행,중소기업,비정규직,상대,직업,훈련,직업,능력,서비스,강화,보호,중소기업들,대기업,생산성,이중구조,정규,처우,개선,정부,취약,계층,아르바이트,일자리,정책,현금,살포,사용자,원칙,대등,사용자,부당노동행위,원칙,대응,기업들,노조,대화,설득,노력,노조,생각,기업인들,현실적,가능,노조,인정,고민,대통령,서야,노동,개혁,대통령,노동,개혁,언급,노동,개혁,목적,정리,느낌,정부,52시간,개편,임금,체계,지엽적,것들,노동,개혁,핵심,인식,부족,이중,구조,개혁,핵심,주제,생각,고용,노동부,장관,52시간,지난달,시간,개편,방안,포함,노동,시장,개혁,방안,다음날,대통령,다음날,정부,소통,얘기,의지,대통령,대통령,푸시,Big,push,차원,개별,부처,개혁,재정,수단,합법,불법,차원,원칙,복지,제도,근로,능력,사람들,고용친화적,교육,입시,위주,산업,현장,결국,정부,컨트롤,타워,대통령,프로젝트,용두사미,김대환,시절,노무현,정부,장관,번째,노동부,2004~2006년,진보,성향,노동경제학자,시절,박근혜,정부,노사정위원회,경제사회노동위원회,위원장,양질,일자리,창출,정책,제언,창립,일자리연대,시민,단체,일자리,연대,상임대표,멤버,참여,연대,창설,사회정책부</t>
+        </is>
+      </c>
+      <c r="E525" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9896,7 +12521,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D526" t="n">
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>여학생,추락사,성폭행,혐의,남학생,구속,범행,피해자,술마,신뒤,피해자,부축,건물,경찰,조사선,진술,캠퍼스,인천,인하대,여학생,성폭행,추락,혐의,경찰,긴급,체포,남학생,대학,남학생,구속,인천지방법원,도주,증거인멸,구속영장,발부,인천,미추홀경찰서,사건,발생,인하대,건물,주변,폐쇄,회로,CC,TV,결과,피해자,피해자,부축,강의실,연구실,건물,엘리베이터,3층,3층,장소,사건,발생,CCTV,피해자,남학생,술집,인하대,인근,뒤풀이,기말,시험,동아리,소속,술자리,학교,15일,건물,입구,행인,발견,병원,경찰,성폭행,사실,인정,준강,간치사,혐의,입건,성폭행,피해자,건물,창밖,조사,경찰,조사,진술,피해자,창문,바닥,건물,높이,피해자,혐의,적용,살인,경찰,피해자,추락,지점,현장,교내,장소,발견,증거,인멸,혐의,조사,영장실질심사,인천지법,출두,피해자,취재진,질문</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9914,7 +12544,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D527" t="n">
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>성장,현지,진출,기업,쇼크,경제성장률,중국,경제,성장,0%대,추락,기업들,기업,시름,중국,시장,업체들,시황,매출,하락,2년,최저,수준,기록,적자,대중,무역,수지,현지,진출,중국발,후폭풍,전망,산업,연구원,북경사무소,지난달,대한상공회의소,북경,사무소,중국한국상회,중국,진출,기업,7개,업종,경기실사지수,BSI,조사,결과,공개,BSI,항목,증가,개선,응답,업체,미만,반대,BSI,조사,결과,현황,전반적,하락세,시황,매출,1분기,시황,70,,하락,분기,연속,동반,최저,기록,전기전자,업종,중소기업,중심,매출액,어려움,매출액,영업환경,최저,현지판매,하락,분기,연속,상황,설비투자,8분기,중국,시장,진출,기업,경영,상황,전반적,악화,의미,업체,애로사항,부진,현지,수요,21.8%,어려움,가중,응답,원재료,부품,조달,어려움,가격,상승,원자재,18.5%,수출,부진,9.5%,중국,한국,기업,어려움,경기,둔화,작용,국가통계국,중국,국가,통계국,총생산,GDP,성장,전년,동기,대비,0.4%,1분기,4.8%,비교,수치,소매,판매,급감,청년,실업,경제,불안감,상하이,감염증,신종,코로나바이러스,코로나19,봉쇄,조치,영향,산업연구원,중국,진출,기업,8곳,79%,사태,코로나19,부정,영향,응답,비율,2년,최고,수준,부정,요소,도시,봉쇄,도시,공급망,차질,영향,조사,선임연구위원,조철,산업,연구원,선임,위원,예전,중국,나라,코로나19,여파,반대,중국,봉쇄,조치,경제활동,위축,위축,세계,수요,경기,만큼,중국,재작년,회복,중국,경제,의존도,한국,방위,위기,수출액,25.3%,차지</t>
+        </is>
+      </c>
+      <c r="E527" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9932,7 +12567,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D528" t="n">
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>인하대,여대,성폭행,사망,가해,혐의,남학생,구속,준강간치사,인하대,캠퍼스,성폭력,사망,사건,수사중,인천,미추홀경찰서,긴급체포,B씨,재학,구속,영장,신청,적시,혐의,준강간치사,만취,저항,피해자,상태,이용,성폭행,직접적,결과,피해자,죽음,적용,혐의,영장,실질,심사,당직판사,고범진,인천지법,당직,판사,도주,증거인멸,B씨,구속영장,발부,인천시,미추홀구,인하대,캠퍼스,단과,대학,건물,바닥,발견,신고,접수,15일,A씨,병원,이송,이날,B씨,A씨,부축,학교,건물,장면,폐쇄,회로,TV,CCTV,건물,발견,B씨,휴대전화,토대,B씨,혐의자,특정,경찰,B씨,발생,당일,긴급체포,계절학기,경찰,조사,결과,계절,학기,수강,A씨,시험,등교,뒤풀이,차원,B씨,확인,중앙일보,취재,종합,경찰,조사,B씨,사실,시인,A씨,사망,연관성,부인,경찰,A씨,건물,지상,추락,추정,진행,부검,국립과학수사연구소,사인,다발,손상,구두,소견,경찰측,전달,추락,충격,신체,손상,직접적,사망,원인,의미,A씨,소품,3층,발견,교내,설치,CCTV,3층,모습,경찰,추락지점,3층,특정,쟁점,B씨,의도,성관계,추락,준강간치사죄,고의,준강간,살인죄,성립,성폭행,정신,A씨,수치심,극단,선택,사망,책임,B씨,준강간,인정,법정형,3년,유기징역,경찰,영장신청서,적시,대로,준강,간치사죄,성립,무기,10년,징역,준강간,살인죄,법정형,사형,무기징역,준강간치사죄,적용,경찰,가능성,인천경찰청,과학,수사대,사건,현장,복도,창문,추락,상황,실험,경찰,창틀,건물,외벽,지문,유전자,정보,DNA,채취,국립과학수사연구원,상태,현장,실험,결과,경찰관계자,각종,진술,결과,각종,과학,수사,종합,최종적,혐의,확정,경찰,A씨,3층,건물,장소,발견,만큼,증거인멸,시도,가능성,확인,계획,학내,중범죄,발생,인하대,당혹,인하대,관계자,건물,연구실,학생들,방학,기간,출입,출입통제시스템,외부인,출입,차단,발생,순찰,교내,야간,강화,대책,마련,인하대,총학생회,비상,대책,위원회,교내,추모공간,마련</t>
+        </is>
+      </c>
+      <c r="E528" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9950,7 +12590,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D529" t="n">
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>참변,인하대,캠퍼스,남학생,구속심사,남학생,구속,심사,인하대학교,대학,성폭행,혐의,체포,학교,남학생,구속,여부,결정,인천지검,준강,간치사,혐의,경찰,신청,인하대,A씨,구속영장,법원,청구,A씨,구속,피의자,심문,영장실질심사,이날,3시,인천지법,고범진,당직,판사,심리,진행,예정,구속,여부,결정,A씨,15일,3시,분쯤,인하대,캠퍼스,학교,학생,B씨,성폭행,혐의,B씨,학교,머리,심정지,상태,발견,119구급대,B씨,병원,3시간,7시,경찰,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,A씨,경찰,조사,혐의,인정,B씨,15일,3시,분쯤,인하대,캠퍼스,행인,발견,머리,심정지,상태,119구급대,병원,경찰,A씨,B씨,고의,가능성,수사,인천경찰청,과학,수사대,수사요원들,건물,단과,대학,투입,정도,여성,창문,복도,추락,상황,실험,경찰,진술,토대,살인,고의성,적용,혐의,구속영장,신청,추가,수사,A씨,고의,B씨,건물,정황,확인,살인,죄명,가능성,경찰,B씨,사건,현장,교내,장소,발견,A씨,증거,인멸,여부,수사</t>
+        </is>
+      </c>
+      <c r="E529" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9968,7 +12613,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D530" t="n">
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>인하대,사망,피해자,신상,가해,사건,인하대,사망,온라인상,망자,피해자,모욕,신상,글들,동급생,성폭행,사망,피해자,피해,혐오글들,방치,사회,책무,인터넷사업자들,목소리,구글,경향신문,취재,결과,네이버,인하대,사망,사건,피해자,신상,사회관계망서비스,SNS,주소,문의,글들,누리꾼,사건,피해자,키워드,얼굴,사진,학과,단어,검색,온라인,커뮤니티,피해자,신상,제목,누리꾼,클릭,유도,발견,제목,전형적,낚시질,피해자,모욕,언사,사건,기사,영상,유발,옷차림,댓글,여성들,대한민국,남성,잠재,범죄자,확정,혐오,댓글,확인,표현,각양각색,사망,성폭행,사건,책임,피해자,여성,기사,댓글,원인,사건,발생,피해자,댓글들,분노,허탈감,익명성,피해자,모욕,사람들,표현,동조,사람들,범죄자,사실,잠재,생각,누리꾼,말초,호기심,자극,방향,언론,보도,비판,도마,민주언론시민연합,일자,보도,모니터링,결과,언론,사건,현장,선정적,묘사,기사,조회,목적,여대생,나체,표현,제목,기사들,자국,피해자,혈흔,사진,기사,한국기자협회,여성가족부,성폭력,성희롱,사건,보도,공감,기준,실천요강,명시,보도윤리,것들,권예원씨,언론사,제목,나체,여대생,표현,사안,여성,남성,프레임,가해자,두둔,기사,댓글,젠더,갈등,비화,논리,사무처장,신미희,민주언론시민,사건,구체적,선정적,보도,대중들,말초,호기심,자극,요인,포털사업자들,게시글,댓글,차단,포털사업자,사회,책무</t>
+        </is>
+      </c>
+      <c r="E530" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9986,7 +12636,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D531" t="n">
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>참변,인하대,캠퍼스,가해,학생,영장,심사,출석,피해자,인하대학교,또래,학생,성폭행,혐의,체포,학교,남학생,심사,구속,영장,실질,출석,혐의,인하대,A씨,이날,구속,피의자,심문,영장실질심사,인천지법,경찰,승합차,포승줄,모자,마스크,얼굴,상태,A씨,인정,성폭행,혐의,살해,의도,피해자,3층,취재진,질문,피해자,물음,A씨,영장실질심사,이날,3시,심리,고범진,인천지법,당직,판사,진행,구속,여부,결정,예정,A씨,15일,3시,분쯤,인하대,캠퍼스,학교,학생,B씨,성폭행,혐의,B씨,학교,머리,심정지,상태,발견,119구급대,B씨,병원,3시간,7시,경찰,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,A씨,경찰,조사,혐의,인정,B씨,15일,3시,분쯤,인하대,캠퍼스,행인,발견,머리,심정지,상태,119구급대,병원,경찰,A씨,살인,고의,증거,인멸,여부,추가,수사</t>
+        </is>
+      </c>
+      <c r="E531" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10004,7 +12659,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D532" t="n">
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>사건,인하대,사망,구속,가해,혐의,학생,도망,증거,인멸,인하대학교,캠퍼스,또래,학생,성폭행,혐의,학교,남학생,경찰,구속,인천,미추홀경찰서,혐의,준강,간치사,인하대,A씨,구속,고범진,인천지법,당직,판사,이날,구속,피의자,심문,영장실질심사,진행,도주,증거,인멸,영장,발부,A씨,이날,영장,실질,심사,출석,취재진,질문,피해자,물음,A씨,15일,캠퍼스,시간,인천,미추홀구,인하대,단과,대학,건물,학교,학생,B씨,여성,성폭행,혐의,3층,단과,대학,건물,추락,추정,B씨,이날,캠퍼스,건물,행인,발견,심정지,상태,119구급대,병원,A씨,B씨,확인,A씨,범행,B씨,범행,도주,상태,B씨,사건,현장,교내,장소,발견,경찰,A씨,건물,고의,B씨,확인,상황,가정,현장,실험,고의성,여부,증거,인멸,추가,수사,경찰,진술,토대,살인,고의성,적용,준강,간치사,혐의,구속영장,신청,추가,수사,A씨,고의,B씨,건물,정황,확인,준강간살인,죄명,방침</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10022,7 +12682,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D533" t="n">
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>공격,성폭력,피해자,사람들,인하대,사망,사건,가해,성별,가해자,피해자,사건,원인,신상정보,게시물,다수,행태,선정,보도,도마에,인하대학교,학생,사망,사건,온라인상,망자,피해자,모욕,신상,글들,동급생,성폭행,사망,피해자,피해,혐오글들,방치,사회,책무,인터넷사업자들,목소리,구글,경향신문,취재,결과,네이버,인하대,사망,사건,피해자,신상,사회관계망서비스,SNS,주소,문의,글들,누리꾼,사건,피해자,키워드,얼굴,사진,학과,단어,검색,온라인,커뮤니티,피해자,신상,제목,누리꾼,클릭,유도,발견,제목,전형적,낚시질,피해자,모욕,언사,사건,기사,영상,유발,옷차림,댓글,여성들,대한민국,남성,잠재,범죄자,확정,혐오,댓글,확인,표현,각양각색,사망,성폭행,사건,책임,피해자,여성,원인,사건,발생,피해자,댓글들,분노,허탈감,익명성,피해자,모욕,사람들,표현,동조,사람들,범죄자,사실,잠재,생각,누리꾼,말초,호기심,자극,방향,언론,보도,비판,도마,민주언론시민연합,일자,보도,모니터링,결과,언론,사건,현장,선정적,묘사,기사,조회,목적,여대생,나체,표현,제목,기사들,자국,피해자,혈흔,사진,기사,한국기자협회,여성가족부,성폭력,성희롱,사건,보도,공감,기준,실천요강,명시,보도윤리,것들,권예원씨,언론사,제목,나체,여대생,표현,사안,여성,남성,프레임,가해자,두둔,기사,댓글,젠더,갈등,비화,논리,사무처장,신미희,민주언론시민,사건,구체적,선정적,보도,대중들,말초,호기심,자극,요인,포털,사업자,게시글,댓글,차단,포털사업자,사회,책무</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10040,7 +12705,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D534" t="n">
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>인하대,사망,사건,망인,존엄,가해자,가해자,인하대,사망,사건,준강,간치사,혐의,구속,피의자,A씨,대학,학생,15일,1시,피해자,부축,학교,건물,모습,폐쇄회로,CC,TV,포착,4시,바닥,발견,B씨,병원,이송,사망,A씨,B씨,건물,구조요청,도주,옷가지,경찰,살인,고의,증거,인멸,여부,수사,대학,캠퍼스,성폭력,사건,발생,피해자,죽음,충격,경찰,피해자,추락사,가해자,살인,진상,규명,비극,불법촬영,대학,성범죄,위험수위,징후,사건,청소년기,온라인,범람,성착취물,노출,왜곡,성의식,학생들,대학,사회,구성원,방식,대학,성폭력,예방,포함,감수,교육,필수화,사건,발생,망인,亡人,존엄,가해,남자,자체,옷차림,범죄,유발,피해자,모욕,온라인,게시,논란,야기,남성,본능,통제,성범죄,원인,피해자,전가,행태,건전,윤리의식,시민,대다수,남성,폄훼,남성혐오,피해자,신상털,시도,죽음,비극,말초,쾌락,소비,호기심,언론,비판,추락,피해자,발견,상태,직설적,표현,가해자,성별,피해자,성별,강조,제목,기사,클릭,장사,매체들,선정적,차별,표현,언론윤리,정면,위배,언론,양태,초기,보도,사건,관음증,관심,부채질,비판,따름,온라인,망인,유족,영혼,가해,시민,언론,사법당국,처벌,비극,재연,사태,책무</t>
+        </is>
+      </c>
+      <c r="E534" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10058,7 +12728,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D535" t="n">
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>인하대,사건,남학생,구속,도주,증거,인멸,인하대,캠퍼스,학년,여학생,성폭행,건물,추락,혐의,남학생,17일,구속,피의자,심문,영장,실질심사,인천지법,미추홀구,소재,인천,인하대,캠퍼스,학년,여학생,성폭행,건물,추락,혐의,남학생,경찰,구속,인천,미추홀경찰서,혐의,준강,간치사,인하대,구속,고범진,인천지법,당직,판사,이날,구속,피의자,심문,영장,실질심사,진행,증거,인멸,도주,영장,발부,준강간치사죄,심신,상실,상태,항거,불능,이용,간음,추행,피해자,적용,유죄,인정,무기징역,10년,징역형,선고,A씨,15일,시간,인천시,미추홀구,소재,인하대,캠퍼스,5층,단과대,건물,지인,B씨,여성,성폭행,3층,추락,혐의,A씨,사건,피해자,사건,범행,건물,일행,확인,인근,폐쇄,회로,CC,TV,영상,당일,사건,발생,1시,분쯤,A씨,B씨,부축,건물,장면,피해자,3시,분쯤,캠퍼스,건물,행인,발견,심정지,상태,구급대,병원,결국,A씨,범행,B씨,범행,도주,경찰,조사,범죄,사실,인정,B씨,고의성,부인,A씨,실질심사,이날,영장,실질,심사,출석,피해자,물음,경찰,이날,건물,고의,B씨,확인,상황,가정,현장,실험,경찰,진술,토대,살인,고의성,적용,준강,간치사,혐의,구속영장,신청,추가,수사,고의,B씨,건물,정황,확인,준강간살인,죄명,방침</t>
+        </is>
+      </c>
+      <c r="E535" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10076,7 +12751,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D536" t="n">
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>인하대,사망,가해,혐의,학생,구속,도주,증거인멸,인하대학교,캠퍼스,또래,학생,성폭행,혐의,학교,남학생,경찰,구속,인천,미추홀경찰서,혐의,준강,간치사,인하대,A씨,구속,고범진,인천지법,당직,판사,이날,구속,피의자,심문,영장실질심사,진행,도주,증거인멸,영장,발부,A씨,이날,영장,실질,심사,출석,취재진,질문,피해자,물음,A씨,15일,캠퍼스,시간,인천,미추홀구,인하대,단과,대학,건물,학교,학생,B씨,여성,성폭행,혐의,3층,단과,대학,건물,추락,추정,B씨,이날,3시,분쯤,캠퍼스,건물,행인,발견,심정지,상태,119구급대,병원,사망,A씨,B씨,확인,A씨,범행,B씨,범행,도주,상태,B씨,사건,현장,교내,장소,발견,경찰,A씨,건물,고의,B씨,확인,상황,가정,현장,실험,고의성,증거,인멸,여부,추가,수사,경찰,진술,토대,살인,고의성,적용,준강,간치사,혐의,구속영장,신청,추가,수사,A씨,고의,B씨,건물,정황,확인,준강간살인,죄명,방침</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10094,7 +12774,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D537" t="n">
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>인하대,사건,가해자,호명,선정적,신파적,언어,해악,정지혜,빨간약,15일,캠퍼스,인천,인하대,재학,성폭행,사망,사건,충격,주말,안전,학교,범죄,학교,남학생,준강간치사,혐의,긴급체포,사건,여파,조짐,준강간치사죄,심신상실,항거,불능,상태,이용,간음,추행,피해자,적용,유죄,인정,무기징역,10년,징역형,선고,인천,경찰,가해,남학생,구속,피해자,고의,가능성,조사,검토,결과,강간,살인,죄명,상황,국민,공분,이날,대통령실,희생자,명복,참혹,만큼,애통,비통,심정,여론,핵심,참변,자체,충격,사건,보도,언론,사회,학교,차별,행태,무심,태도,구조,사건,근절,반복,형태,소비,학습,효과,사건,자극,추상적,감상,신파,소비,근절,사건,청년,여성,패턴,순간,사건,발생,여성,충격적,피해,이목,집중,가해자,처벌,재발,방지,관심,모습,앞날,가해,남성,감형,태세,사회,희생,여성,앞날,청년,무관심,사회,양상,남대생,사망,거대,연민,추모,물결,여대생,사망,발견자,모욕,피해자탓,실종사건,한강,의대,실종,사건,사건,사회,반응,실망,분노,여론,일각,남대생,사망,나라,추모,분위기,여대생,학교,성범죄,피해,추락사,성희롱,모욕,억측,난무,한강,사건,사고,범죄,음모,인하대,사건,범죄,사고,정반대,억측,시사,유튜브,남초,커뮤니티,커뮤니티,대학교,익명,에브리타임,사건,고인,2차,수위,수준,운운,학교,명예,여성,행실,발언,모욕,성범죄,피해자,공격,추상적,감상,언어,점철,인하대,추도사,역풍,교내,재학생,범죄,사건,의심,가해자,언급,재발,방지,의지,사회,폭력,용납,문장,단순,사고사,추도사,정도,성폭력,활동가,연대자,트위터,인하대,학교,학교,책임,인정,사건,철저,수사,촉구,가해자,엄벌,재발방지,구체적,노력,허망,운운,지적,추모,공동체,해결,책임,의무,대책,마련,방기,개인,일탈,마무리,신호,피해자,가족,입장,존중,빌미,책임,해결책,마련,회피,무책임,행위,관행적,추도사,청년,여성,반발,시작,사건,신파,소비,생각,경고,시선,사건,자극성,활용,대로,활용,수습,정작,사태,재발,방지,행태,어제오늘,사건,피해,여성,세상,반복,한탄,표현,의미,추도사,문구,가해자,처벌,범죄,예방,수준,미달,사회,피해자,문장,진정성,내포,학교,선정,묘사,2차,도구화,여성,피해,사건,선정성,주목,경쟁,우위,차지,수단,여성,도구적,이용,여성,피해자,표현,선정,조회수,팔이,동원,현실,참혹,언론,제목,사건,기사,탈의,나체로,선정적,눈길,묘사,본문,피해자,발견,모습,소개,사건,핵심,불필요,정보들,조회수,남발,측면,한국신문윤리위원회,신문,윤리,실천,요강,보도,준칙,범죄,폭력,동물학대,보도,선정,자극적,표현,사용,저속,유명무실,민주언론시민연합,사건,발생일,포털,기준,검색,전수,결과,매체,결과,구체적,선정적,표현,사용,기사,인하대,여성,제목,다수,언론,표현,민언련,표현,보도,YTN,SBS,YTN,기사,3건,나체로,알몸,표현,피해자,여성,여성,여대생,표기,가해자,남성</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10112,7 +12797,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D538" t="n">
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,남학생,구속,도주,증거인멸,캠퍼스,인천,인하대,여학생,성폭행,추락,혐의,경찰,긴급체포,남학생,대학,남학생,구속,인천지방법원,도주,증거인멸,구속영장,구속,영장,발부,인천,미추홀경찰서,사건,발생,인하대,건물,주변,폐쇄,회로,CC,TV,결과,피해자,피해자,부축,강의실,연구실,건물,엘리베이터,3층,3층,장소,사건,발생,CCTV,피해자,남학생,술집,인하대,인근,뒤풀이,기말,시험,동아리,소속,술자리,학교,15일,건물,입구,행인,발견,병원,경찰,성폭행,사실,인정,준강,간치사,혐의,입건,성폭행,피해자,건물,창밖,조사,경찰,조사,진술,피해자,창문,바닥,건물,높이,피해자,혐의,적용,살인,경찰,피해자,추락,지점,현장,교내,장소,발견,증거,인멸,혐의,조사,영장실질심사,인천지법,출두,피해자,취재진,질문</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10130,7 +12820,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D539" t="n">
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,가해자,구속,법원,도주,증거인멸,인하대,교정,여학생,추락,사망,사건,가해,남학생,고의,살인,경찰,수사,본격화,준강간치사,혐의,20,1학년,인천지법,영장실질심사,피해자,법원,이날,도주,증거인멸,구속영장,발부,인천경찰청,종합,ㄱ씨,15일,인하대,교정,단과,대학,건물,동급생,성폭행,추락사,혐의,경찰,ㄴ씨,5층,학교,건물,성폭행,3층,추정,ㄴ씨,3시,건물,머리,출혈,상태,발견,인근,병원,경찰,현장,ㄱ씨,휴대전화,발견,16일,긴급체포,ㄱ씨,ㄴ씨,직전,경찰,ㄱ씨,ㄴ씨,부축,건물,모습,폐회로텔레비전,CCTV,영상,확보,ㄱ씨,경찰,ㄴ씨,자신,건물,사실,인정,고의,ㄴ씨,주장,인천경찰청,과학,수사대,이날,추락,건물,정도,여성,창문,복도,추락,확인,실험,차례,현장,창문,건물,안팎,여성,정도,허리,높이,경찰,창틀,건물,외벽,지문,유전자,DNA,정보,채취,국립과학수사연구원,ㄴ씨,사건,현장,교정,구내,발견,ㄱ씨,증거,인멸,혐의,적용,방안,검토,경찰,ㄱ씨,진술,바탕,혐의,구속,추가,수사,ㄱ씨,고의,ㄴ씨,건물,정황,확인,강간살인,죄명,방침,충격,사건,학교,안팎,사건,현장,마련,추모공간,학생들,비통,심경</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10148,7 +12843,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D540" t="n">
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락사,남학생,구속,도주,준강간치사죄,적용,수사,결과,준강강살인,수도,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,학교,남학생,경찰,구속,인천,미추홀경찰서,혐의,준강,간치사,인하대,구속,이날,이날,구속영장심사,진행,고범진,인천지법,당직,판사,증거,인멸,도주,영장,발부,준강간치사죄,심신상실,항거,불능,상태,이용,간음,추행,피해자,적용,유죄,인정,무기징역,10년,징역형,선고,영장심사,법원,출석,피해자,물음,15일,캠퍼스,시간,인천,미추홀구,인하대,5층,단과,대학,건물,지인,여성,성폭행,3층,추락,혐의,범행,범행,건물,일행,확인,경찰,조사,건물,사망,사실,인정,고의성,부인,당일,사건,발생,학교,캠퍼스,건물,행인,발견,심정지,상태,119구급대,병원,경찰,진술,토대,살인,고의성,적용,준강,간치사,혐의,구속영장,신청,추가,수사,고의,건물,정황,확인,준강간살인,죄명,방침</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10166,7 +12866,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D541" t="n">
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>도주,성폭행,추락사,인하대,가해,남학생,구속,경찰,건물,추락,가능,실험,인하대,캠퍼스,또래,학생,성폭행,건물,추락,혐의,학교,남학생,경찰,구속,인천,미추홀경찰서,혐의,준강,간치사,인하대,구속,고범진,인천지법,당직,판사,이날,구속,피의자,심문,영장실질심사,진행,증거,인멸,도주,영장,발부,준강간치사죄,심신상실,항거,불능,상태,이용,간음,추행,피해자,적용,유죄,인정,무기징역,10년,징역형,선고,A씨,이날,영장,실질,심사,출석,피해자,물음,A씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과,대학,건물,지인,B씨,여성,성폭행,3층,추락,혐의,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의성,부인,B씨,당일,사건,발생,캠퍼스,건물,행인,발견,심정지,상태,119구급대,병원,A씨,범행,B씨,범행,도주,상태,경찰,A씨,건물,고의,B씨,확인,상황,가정,현장,실험,진행,경찰,진술,토대,살인,고의성,적용,준강,간치사,혐의,구속영장,신청,추가,수사,A씨,고의,B씨,건물,정황,확인,준강간살인,죄명,방침</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10184,7 +12889,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D542" t="n">
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,피의자,구속,추락,고의,여부,수사,사인,추락사,경찰,조사,대통령실,재발,질서,대학교,동급생,성폭행,건물,추락,남성,구속,인천,미추홀경찰서,혐의,준강,간치사,인하대,구속,판사,고범진,인천지법,이날,A씨,구속,피의자심문,영장실질심사,진행,도주,증거,인멸,구속,영장,발부,이날,영장실질심사,출석,법원,모습,A씨,피해자,취재진,질문,인정,성폭행,혐의,질문,경찰,A씨,15일,인천,용현동,인하대,교내,단과대,건물,1학년,성폭행,3층,추락,혐의,A씨,B씨,파악,경찰,사건,당일,A씨,B씨,부축,건물,장면,폐쇄회로,CC,TV,영상,확보,B씨,당일,단과대,건물,발견,119구급대,병원,발견,발견,머리,경찰,A씨,B씨,창문,건물,고의,성폭행,B씨,사고,추락,가능성,수사,3층,B씨,추락,지점,추정,경찰,현장,실험,진행,바닥,건물,복도,창문,1m가량,경찰,A씨,B씨,창문,실랑이,B씨,창문,상황,가정,실험,경찰,B씨,고의,진술,토대,준강,간치사,혐의,적용,수사,살인,고의성,확인,죄명,살인죄,변경,방침,경찰,관계자,사인,추락사,추락,조사,대통령실,이날,사건,재발,질서,관계자,대통령실,고위,이날,용산,청사,기자들,대학생,참혹,만큼,애통,비통,심정</t>
+        </is>
+      </c>
+      <c r="E542" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10202,7 +12912,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D543" t="n">
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,남학생,구속,도주,캠퍼스,인천,인하대,또래,여학생,성폭행,건물,추락,혐의,남학생,구속,판사,인천지법,고범진,준강,간치사,혐의,구속영장,청구,남학생,인하대,남학생,도주,증거인멸,영장,발부,A씨,15일,인천시,미추홀구,인하대,캠퍼스,단과,대학,건물,여학생,학교,여학생,성폭행,추락,혐의,피해자,단과,대학,건물,상태,행인,발견,경찰,신고,B씨,심정지,상태,병원,7시,사망,경찰,화면,주변,CCTV,현장,발견,A씨,휴대전화,토대,A씨,용의자,특정,체포,A씨,경찰,조사,범죄,사실,인정,경찰,B씨,옷가지,사건,현장,교내,장소,발견,A씨,증거,인멸,가능,수사,A씨,B씨,마지막,화면,인근,CCTV,당일,A씨,B씨,부축,건물,학교,장면,경찰,5층,학교,건물,성폭행,B씨,창문,복도,지상,추락,사망,추정,A씨,B씨,B씨,폭행,수사,A씨,경찰,조사,고의,주장,경찰,A씨,고의,B씨,여부,확인,상황,가정,현장,실험,가해자,추정,인물,이름,사진,소셜미디어,SNS,프로필,주거지,휴대전화,온라인,공개,피의자,신상,정보,찬반,논쟁,사건,발생,인하대,건물,마련,추모,공간,추모객들,여성,피해자,세상,남자,창피,미안,애도,쪽지,표현</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10220,7 +12935,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D544" t="n">
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,사망,사건,가해자,구속,법원,도주,증거인멸,인하대학교,캠퍼스,동급생,성폭행,추락,사망,남학생,구속,인천,미추홀경찰서,혐의,이날,준강,간치사,A씨,구속,A씨,구속,피의자,심문,영장실질심사,진행,당직판사,고범진,인천지법,당직,판사,이날,도주,증거,인멸,구속영장,발부,A씨,이날,3시,인천지법,영장,실질,심사장,도착,호송차,피해자,질문,성폭행,혐의,인정,살해의도,피해자,3층,증거인멸,시도,구조요청,취재진,질문,A씨,침묵,A씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,5층,단과,대학,건물,동급생,B씨,성폭행,3층,추락,혐의,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의성,부인,B씨,당일,사건,발생,캠퍼스,건물,행인,발견,B씨,심정지,상태,119구급대,병원,경찰,진술,토대,살인,고의성,적용,준강,간치사,혐의,구속영장,신청,추가,수사,A씨,고의,B씨,건물,정황,확인,준강간살인,죄명,방침</t>
+        </is>
+      </c>
+      <c r="E544" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10238,7 +12958,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D545" t="n">
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,남학생,구속,도주,인하대,캠퍼스,여학생,성폭행,건물,추락,혐의,학교,남학생,경찰,구속,인천지법,고범진,당직,판사,혐의,준강,간치사,인하대,A씨,구속,피의자,심문,영장실질심사,구속영장,발부,판사,증거,인멸,도주,사유,영장,발부,준강간치사죄,심신상실,항거,불능,상태,이용,간음,추행,피해자,적용,유죄,인정,무기징역,10년,징역형,선고</t>
+        </is>
+      </c>
+      <c r="E545" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10256,7 +12981,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D546" t="n">
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>대통령실,인하대,사망,비통,재발,질서,대통령실,건물,인하대,캠퍼스,여학생,또래,남학생,성폭행,3층,추락,사건,재발,질서,관계자,대통령실,고위,17일,용산,청사,기자들,사건,인하대,강간,치사,공분,대통령실,입장,질문,애통,세상,피해자,명복,관계자,인하대,사건,비통,대학교,학생,참혹,만큼,애통,비통,심정,이날,인천지법,인천,미추홀구,준강,간치사,혐의,구속영장,청구,가해,남학생,영장실질심사,인천지법,출석,인정,성폭행,혐의,살해,의도,피해자,3층,취재진,질문,대답,고개,피해자,물음,15일,미추홀구,인하대,캠퍼스,입구,학교,행인,발견,경찰,신고,발견,발견,머리,심정지,상태,인근,병원,7시,사망,판정</t>
+        </is>
+      </c>
+      <c r="E546" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10274,7 +13004,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D547" t="n">
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>인하대,사건,피의자,한마디,묵묵부답,인천,인하대학교,캠퍼스,동급생,성폭행,피해자,추락,혐의,A씨,학교,구속,피의자,심문,인천지방법원,인천,뉴스1,인하대학교,캠퍼스,동급생,성폭행,건물,추락,혐의,남학생,학교,구속,피의자,심문,영장실질심사,진행,법조,인천지검,혐의,준강,간치사,인하대,구속영장,법원,청구,인천지법,이날,A씨,영장실질심사,진행,혐의,A씨,영장실질심사,경찰,승합차,이동,A씨,성폭행,혐의,인정,여부,여부,증거,인멸,시도,취재진,질문,피해자,물음,A씨,15일,인천시,미추홀구,소재,인하대,캠퍼스,단과,대학,건물,피해자,성폭행,B씨,성폭행,건물,추락,A씨,B씨,포함,일행들,학교,B씨,이동,사건,현장,인근,폐쇄,회로,CC,TV,당일,1시,분쯤,A씨,B씨,부축,학교,건물,장면,범행,범행,건물,일행,조사,경찰,범행,현장,A씨,휴대전화,발견,참고인,조사,참고인,조사,도중,혐의,인정,경찰,피의자,신분,전환,긴급체포,경찰,A씨,B씨,성폭행,고의,건물,가능성,주목,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의성,부인,B씨,당일,사건,발생,3시,인하대,캠퍼스,발견,심정지,상태,119구급,병원,이송,A씨,범행,B씨,도주,상태,인천경찰청,과학,수사대,건물,단과,대학,고의,추락,가능,현장,실험,사건,사건,추정,피해자,창문,건물,복도,추락,상황,실험,경찰,A씨,조사,B씨,건물,추락,인정,자신,고의,주장,경찰,A씨,살인,치사,혐의,구속영장,신청,치사,살인,고의성,적용,혐의,경찰,A씨,고의,B씨,건물,정황,확인,혐의,살인,변경,방침,인하대,물결,성폭행,추락,피해,학생,추모,인천,인하대학교,마련,분향소,17일,학생,헌화,학교,마련,분향소,학생들,교수,교직원들,발길,총학생회,성폭행,추락,사건,입장문,비판,야기,피해자,배려,가해자,언급,비판,비상대책위원회,인하대,총학생회,비상,대책,위원회,학교,홈페이지,입장문,눈물,가슴,총학생회,비대위,입장문,입술,울음,고개,머릿속,질문,눈물,가슴,가족,친구,동기,후배,위로,충격,혼란,학생,위로,인하인,터전,안전,사건,피의자,A씨,별도,언급,재학생,총학생회,입장문,가해자,처벌,언급,비판,인하대,재학,익명,게시판,온라인공간,호소,가해자,처벌,대책,재발,방지,개인,감성,입장문,경솔,부정,반응,인하대,총학,비대위,입장문,수사기관,홈페이지,캡처,수사,기관,A씨,신상,공개,A씨,추측,인물,개인정보,온라인,급속도,유포,페이스북,사회관계망서비스,SNS,A씨,사건,피의자,특정,인물,이름,나이,전화번호,소속,학과,학번,개인정보,사진들,공유,인천,박명원,강승훈</t>
+        </is>
+      </c>
+      <c r="E547" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10292,7 +13027,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D548" t="n">
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>대통령실,인하대,사건,질서,대통령실,여학생,인하대,학교,남학생,성폭행,건물,추락,사건,재발,질서,입장,관계자,대통령실,고위,용산,대통령실,청사,사건,인하대,강간,치사,공분,대통령실,입장,질문,희생자,명복,관계자,대학교,대학생,참혹,만큼,애통,비통,심정,15일,A씨,인하대,여학생,인천시,미추홀구,인하대,캠퍼스,단과,대학,건물,추락,결과,경찰,조사,대학,B씨,사건,직전,A씨,범행,범행,건물,일행,사건,현장,인근,폐쇄,회로,CC,TV,당일,B씨,A씨,부축,건물,학교,장면,인천지검,경찰,준강,간치사,혐의,신청,B씨,구속영장,법원,청구,이날,구속,피의자,심문,영장실질심사,인천지법,B씨,성폭행,혐의,인정,살해,의도,피해자,3층,질문,대답,B씨,피해자,물음</t>
+        </is>
+      </c>
+      <c r="E548" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10310,7 +13050,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D549" t="n">
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>성폭행,여대,3층,추락,가해자,사건추적,준강간치사,인하대,캠퍼스,성폭력,사망,사건,수사중,인천,미추홀경찰서,긴급체포,A씨,재학,구속,영장,신청,적시,혐의,준강간치사,만취,저항,피해자,상태,이용,성폭행,직접적,결과,피해자,죽음,적용,혐의,영장,실질,심사,당직판사,고범진,인천지법,당직,판사,도주,증거인멸,A씨,구속영장,발부,학교,사람,인천시,미추홀구,인하대,캠퍼스,단과,대학,건물,바닥,발견,신고,접수,15일,B씨,병원,이송,결국,이날,A씨,B씨,부축,학교,건물,장면,CCTV,건물,발견,A씨,휴대전화,토대,A씨,혐의자,특정,경찰,A씨,발생,당일,긴급체포,계절학기,경찰,조사,결과,계절,학기,수강중,B씨,시험,등교,뒤풀이,차원,A씨,확인,중앙일보,취재,종합,경찰,조사,A씨,사실,시인,B씨,사망,연관성,부인,사인,다발,손상,쟁점,경찰,B씨,건물,지상,추락,추정,진행,부검,국립과학수사연구소,사인,다발,손상,구두,소견,경찰측,전달,추락,충격,신체,손상,직접적,사망,원인,의미,B씨,소품,3층,발견,교내,설치,폐쇄,회로,TV,CCTV,3층,모습,경찰,추락지점,3층,특정,수사,처벌,B씨,A씨,의도,성관계,추락,준강간치사죄,고의,준강간,살인죄,성립,성폭행,정신,B씨,수치심,극단,선택,사망,책임,A씨,준강간,인정,법정형,3년,유기징역,경찰,영장신청서,적시,대로,준강,간치사죄,성립,무기,10년,징역,준강간,살인죄,법정형,사형,무기징역,준강간치사죄,적용,경찰,B씨,A씨,성관계,실랑이,투신,A씨,고의,추락,가능성,인천경찰청,과학,수사대,사건,현장,복도,창문,추락,상황,실험,바닥,창문틀,높이,정도,성인,여성,가능성,확인,조사,경찰,창틀,건물,외벽,지문,유전자,정보,DNA,채취,국립과학수사연구원,상태,현장,실험,결과,경찰관계자,A씨,진술,결과,각종,과학,수사,종합,최종적,혐의,확정,경찰,B씨,3층,건물,장소,발견,만큼,증거인멸,시도,가능성,확인,계획,이날,영장,실질,심사,인천지법,출석,A씨,피해자,기자들,질문,답변,인하대,난감,인하대,순찰,강화,학내,중범죄,발생,인하대,당혹,인하대,범죄,그동안,학내,건물,입구,출입통제시스템,설치,외부인,침입,A씨,재학생,학생증,출입,가능,인하대,관계자,건물,연구실,학생들,방학,기간,출입,출입통제시스템,외부인,출입,차단,발생,순찰,교내,야간,강화,대책,마련,인하대,총학생회,비상,대책,위원회,교내,추모공간,마련,홈페이지,명의,교직원,일동,추도사,피해,학생,마지막,평안,최선,인하인,터전,안전,총학생회,입장</t>
+        </is>
+      </c>
+      <c r="E549" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10328,7 +13073,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D550" t="n">
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>가해자,인하대,사건,신상,공개,인하대,성폭행,가해자,신상,인하대,캠퍼스,여성,동급,성폭행,혐의,남학생,추정,신상정보,사건,발생,15일,주말,온라인상,속도,확산,트위터,인스타그램,페이스북,각종,소셜,미디어,온라인,커뮤니티,인하대,성폭행,가해자,신상,신상,인하대,범인,남성,사진,학과,나이,주소,전화번호,인스타그램,네티즌들,접근,인스타그램,300명,남성,순식간,4000명,급증,인스타그램,셀카,사진들,온라인상,인하대,사건,가해자,얼굴,17일,4시,계정,기준,인스타그램,비공개,전환,게시물수,주말,가족,신상,정보,게시물,등장,네티즌들,A씨,가족들,원색적,비난글,A씨,고향,추정,지역,비하글,신상,과열,네티즌,사이,자제,의견,온라인,신상정보,A씨,명예,훼손,혐의,고소,조심,네티즌,인민,재판,인권,보호,피해자,법원,가해자,명예훼손,폐지,반박,전문가,인하대,사망,사건,분노,세대,1020세대,가해자,신상,1020세대,주도,설명,이수정,경기대,범죄,심리학,교수,조선닷컴,통화,사건,가해자,피해자,나이,초반,사건,자체,1020세대,주목,사건,사건,발생,온라인,1020세대,인터넷,신상,가해자,혐의,인정,가해자,비난,여론,상황,A씨,이날,언론,카메라,포착,A씨,준강,간치사,혐의,구속,피의자,심문,영장실질심사,인천지법,모습,A씨,포승줄,상태,모자,마스크,얼굴,경찰차,A씨,인정,성폭행,혐의,피해자,3층,취재진,질문,묵묵부답,일관,피해자,물음,A씨,구속,여부,이날,결정,A씨,인하대,캠퍼스,동급,상대,성범죄,혐의,B씨,15일,행인,발견,경찰,B씨,건물,추락사,A씨,경찰,조사,혐의,인정,B씨,건물,살인,혐의,부인,경찰,사건,현장,추락,실험,진행</t>
+        </is>
+      </c>
+      <c r="E550" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10346,7 +13096,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D551" t="n">
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>남학생,인하대,사망,사고,가해,혐의,영장,심사,출석,경향포토,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,영장,실질,심사,인천지방법원,인천시,미추홀구,동행,경찰들,취재진</t>
+        </is>
+      </c>
+      <c r="E551" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10364,7 +13119,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D552" t="n">
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>남학생,인하대,사망,사고,가해,혐의,영장,심사,출석,경향포토,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,영장,실질,심사,인천지방법원,인천시,미추홀구,동행,경찰들,취재진</t>
+        </is>
+      </c>
+      <c r="E552" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10382,7 +13142,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D553" t="n">
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>남학생,인하대,사망,사고,가해,혐의,영장,심사,출석,경향포토,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,영장,실질,심사,인천지방법원,인천시,미추홀구,동행,경찰들,취재진</t>
+        </is>
+      </c>
+      <c r="E553" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10400,7 +13165,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D554" t="n">
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>남학생,인하대,사망,사고,가해,혐의,영장,심사,출석,경향포토,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,영장,실질,심사,인천지방법원,인천시,미추홀구,동행,경찰들,취재진</t>
+        </is>
+      </c>
+      <c r="E554" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10418,7 +13188,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D555" t="n">
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>인하대,남학생,영장,심사,고개,외마디,인하대,캠퍼스,동급생,성폭행,사망,혐의,인하대,A씨,20,17일,인천지법,인천시,미추홀구,구속,피의자,심문,영장,실질심사,인천,인천,미추홀구,인하대학교,캠퍼스,동급생,성폭행,혐의,남학생,언론,카메라,포착,인하대,17일,준강,간치사,혐의,구속,피의자,심문,영장실질심사,인천지법,모습,포승줄,상태,모자,마스크,얼굴,승합차,경찰,A씨,인정,성폭행,혐의,피해자,3층,취재진,질문,묵묵부답,일관,피해자,물음,A씨,영장실질심사,이날,3시,심리,고범진,인천지법,당직,판사,진행,A씨,구속,여부,이날,결정,A씨,15일,인하대,캠퍼스,B씨,학교,학생,상대,성범죄,혐의,이날,3시,분쯤,길가,인하대,캠퍼스,나체,상태,B씨,행인,발견,신고,B씨,심정지,상태,병원,이송,7시,사망,B씨,발견,건물,대학,공대,2호관,사잇길,주년,기념관,경찰,B씨,A씨,성폭행,건물,추락사,A씨,B씨,재학생,대학,재학,학부,계절학기,수강,비대면,진행,사람,계절,학기,시험,등교,A씨,당일,2시,B씨,7시,분쯤,시험,사람,동아리,활동,이날,술자리,경찰,범행,현장,A씨,휴대전화,발견,참고인,조사,혐의,확인,피의자,긴급체포,혐의,준강,간치사,적용,A씨,구속영장,신청,A씨,경찰,조사,혐의,인정,B씨,고의,3층,살인,혐의,부인,17일,경찰,사건,현장,추락실험,진행,경찰,B씨,추정,바지,속옷,교내,장소,경찰,A씨,증거인멸,시도,가능성,확인</t>
+        </is>
+      </c>
+      <c r="E555" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10436,7 +13211,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D556" t="n">
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>남학생,인하대,사망,사고,가해,혐의,영장,심사,출석,경향포토,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,영장,실질,심사,인천지방법원,인천시,미추홀구</t>
+        </is>
+      </c>
+      <c r="E556" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10454,7 +13234,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D557" t="n">
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>남학생,인하대,사망,사고,가해,혐의,영장,심사,출석,경향포토,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,영장,실질,심사,인천지방법원,인천시,미추홀구</t>
+        </is>
+      </c>
+      <c r="E557" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10472,7 +13257,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D558" t="n">
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>남학생,인하대,사망,사고,가해,혐의,영장,심사,출석,경향포토,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,영장,실질,심사,인천지방법원,인천시,미추홀구</t>
+        </is>
+      </c>
+      <c r="E558" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10490,7 +13280,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D559" t="n">
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>남학생,인하대,사망,사고,가해,혐의,영장,심사,출석,경향포토,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,남학생,영장,실질,심사,인천지방법원,인천시,미추홀구</t>
+        </is>
+      </c>
+      <c r="E559" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10508,7 +13303,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D560" t="n">
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,수갑,남학생,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,학교,남학생,사건,발생,언론,모습,혐의,인하대,17일,구속,피의자,심문,영장실질심사,인천지법,경찰,승합차,포승줄,수갑,상태,모자,마스크,얼굴,A씨,인정,성폭행,혐의,살해,의도,피해자,3층,취재진,질문,피해자,물음,증거,인멸,시도,범행,구조,요청,질문,답변,A씨,영장실질심사,이날,심리,고범진,인천지법,당직,판사,진행,구속,여부,결정,예정,A씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,단과,대학,건물,지인,B씨,여성,성폭행,3층,추락,혐의,B씨,마지막,범행,범행,건물,일행,확인,A씨,B씨,포함,일행들,학교,B씨,이동,사건,현장,인근,폐쇄,회로,CC,TV,당일,A씨,B씨,부축,건물,학교,장면,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의성,부인,B씨,당일,사건,발생,인하대,캠퍼스,행인,발견,심정지,상태,119구급대,병원,A씨,범행,B씨,도주,상태,경찰,A씨,B씨,고의,건물,확인,상황,가정,현장,실험,경찰,진술,토대,살인,고의성,적용,혐의,구속영장,신청,추가,수사,A씨,고의,B씨,건물,정황,확인,살인,죄명,방침,경찰,관계자,가능성,수사,결과,추가,수사,죄명,유지</t>
+        </is>
+      </c>
+      <c r="E560" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10526,7 +13326,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D561" t="n">
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>동갑,사망,인하대,여대,추모,물결,캠퍼스,인천시,미추홀구,인하대,사망,사건,피해자,학교,동문,심정,피해자,학과,졸업생,선배,마음,피의자,처벌,학생회,관계자,커뮤니티,피해자,폭력적,유가족,아픔,에브리타임,익명,커뮤니티,인하대,게시판,추모,분위기,새내기,명복,일면식,동문,사실,반응들,학생,학우,마음,입학,계절학기,후배,생각,후배,공부,온라인,커뮤니티,피해자,추모,게시글,동갑,여자,대학,유가족,생각,눈물,반응,게시글,피해자,모독,학교,평판,걱정,학생,집단,일탈,생명,피의자,옹호,댓글,피해,학생,추모,비대위,인하대,총학생회,인하대,사이,주년,기념관,추모,공간,마련,여름,방학,학생들,인근,주민,100여명,인천,미추홀경찰서,강간치사,혐의,피의자,구속영장,신청,경찰,5층,학교,건물,성폭행,피해자,3층,지상,추락,사망,추정,피해자,15일,인하대,캠퍼스,행인,발견,심정지,상태,발견,B씨,즉시,병원</t>
+        </is>
+      </c>
+      <c r="E561" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10544,7 +13349,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D562" t="n">
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,가해자,17일,결정,구속,여부,인하대,캠퍼스,또래,여학생,성폭행,건물,추락,혐의,학교,남학생,구속,피의자,심문,영장실질심사,출석,혐의,인하대,이날,영장실질심사,인천지법,출석,언론,모습,경찰,승합차,A씨,포승줄,모자,마스크,얼굴,상태,A씨,성폭행,혐의,인정,살해,의도,피해자,3층,취재진,질문,피해자,물음,A씨,영장실질심사,이날,심리,고범진,인천지법,당직,판사,진행,구속,여부,결정,예정,A씨,15일,인천시,미추홀구,인하대,캠퍼스,단과,대학,건물,지인,B씨,여성,성폭행,3층,추락,혐의,B씨,마지막,범행,범행,건물,일행,조사,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의성,부인</t>
+        </is>
+      </c>
+      <c r="E562" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10562,7 +13372,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D563" t="n">
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,피의자,혐의,영장,심사,출석,교내,동급생,성폭행,건물,추락,대학,구속,피의자심문,영장실질심사,출석,혐의,구속영장,청구,인하대,이날,인천지법,심리,고범진,판사,진행,영장실질심사,출석,법원,모습,A씨,인정,성폭행,혐의,피해자,취재진,질문,법정,A씨,구속,여부,이날,결정,전망,인천지검,경찰,신청,구속영장,법원,청구,경찰,A씨,15일,인천,용현동,인하대,교내,단과대,건물,1학년,성폭행,3층,추락,혐의,A씨,B씨,파악,경찰,사건,당일,A씨,B씨,부축,건물,장면,폐쇄회로,CC,TV,영상,확보,B씨,당일,단과대,건물,발견,119구급대,병원,발견,발견,머리,경찰,A씨,B씨,창문,건물,고의,성폭행,B씨,사고,추락,가능성,수사,경찰,B씨,추락,추정,건물,현장,실험,바닥,건물,복도,창문,1m가량,경찰,A씨,B씨,창문,실랑이,B씨,창문,상황,가정,실험,경찰,B씨,고의,진술,토대,치사,혐의,적용,수사,살인,고의성,확인,죄명,살인죄,변경,방침</t>
+        </is>
+      </c>
+      <c r="E563" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10580,7 +13395,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D564" t="n">
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>사건,박지현,인하대,공범,VS,국민의힘,궤변,박지현,비상대책위원장,더불어민주당,공동,비상,대책,위원장,선언,출마,박지현,비상대책위원장,더불어민주당,공동,비상,대책,위원장,성폭행,인하대,재학,사망,사건,정치인,대통령,법원,사건,공범,논란,국민,궤변,위원장,페이스북,대학교,대학생,남성,동급,성폭행,추락,사망,학문,지성,대학교,발생,상상,비극,인하대,성폭행,사망,사건,거론,사건,진상,가해자,허용,최고,처벌,대한민국,여성,안전,공간,공동체,여성,인격체,존중,여성,안전,사회,사회,합의,의문,위원장,언론,기사,피해자,가해자,표기,불만,공범,언론,자극적,보도,경쟁,선정적,단어들,남발,피해자,여대생,가해자,동급생,표현,피해자,피해자,피해자,피해자,여대생,호명,피해자,죽음,발생,사회,죽음,정치인,대통령,판사,생각,언론,선정적,보도,뉴스장사,태도,비극,반복,맹비판,성폭력,성희롱,사건,발생,피해자,가해자,정치인들,구조,여성가족부,여가부,폐지,대통령,성착취물,유통,중범죄자,솜방망이,처벌,법원,사건,공범,주장,신주호,국민,대변인,박지현씨,음주,운전,범죄,공범,궤변,국민,정당,비난,담론장,발언,언론,집중,결집,시도,좌파,정당,공범,개인,반박,대변인,박지현씨,본인,음주,운전,범죄,공범,비대위원장,수락,출마,자격,대표,출마,궤변,몰염치,하늘,개인,제도,것들,분간,안목,원내,당수,반발,비판,본인,억지,공부,성찰,마지막,모교,비극,가슴,고인,명복,범죄자,엄벌,박민영,국민,대변인,사건,범인,극단,갈등,갈등,산업,종사자,시민들,극단,배제,진짜,청년,직시,혐오,편승,정치,중단,사각지대,약자,정치권,시작,박지현,위원장,극단,배제,위원장,저격</t>
+        </is>
+      </c>
+      <c r="E564" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10598,7 +13418,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D565" t="n">
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>모습,추락사,인하대,성폭행,가해자,인하대,캠퍼스,또래,학생,성폭행,건물,추락,혐의,남학생,17일,언론,모습,혐의,긴급체포,인하대,이날,구속,피의자,심문,영장실질심사,인천지법,호송,포승줄,승합차,경찰,모자,마스크,얼굴,상태,A씨,혐의,인정,살해,의도,피해자,취재진,질문,피해자,물음,A씨,영장실질심사,이날,심리,고범진,인천지법,당직,판사,진행,구속,여부,결정,예정,A씨,15일,캠퍼스,인천시,인하대,건물,피해자,성폭행,추락,혐의,경찰,피의자,살인,혐의,적용,검토,과학수사대원들,사건,현장,상황,실험,한편,창틀,건물,외벽,지문,유전자,정보,DNA,채취,국립과학수사연구원,경찰,관계자,가능성,수사,결과,추가,수사,죄명,유지</t>
+        </is>
+      </c>
+      <c r="E565" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10616,7 +13441,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D566" t="n">
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>언니,손편지엔,인하대,추모소,미안,이름,언니,사건,인하대생,교내,성폭행,추락,사망,인천시,미추홀구,인하대,교내,고인,추모,공간,마련,추모공간,학생들,인근,시민들,고인,위로,헌화,마음,손편지,평소,교정,학생들,충격,학생,성폭행,3층,준강간치사,혐의,20,1학년,수사,경찰,ㄱ씨,고의,여부,수사,본격화,경찰,피해자,학교,건물,성폭행,3층,추락,사망,추정,3시,건물,상태,행인,발견,피해자,머리,출혈,심정지,상태,구급차,병원</t>
+        </is>
+      </c>
+      <c r="E566" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10634,7 +13464,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D567" t="n">
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,가해자,영장,실질,심사,출석,결정,구속,여부,인하대,캠퍼스,동급,여학생,성폭행,건물,추락,혐의,학교,남학생,발생,사건,언론,모습,혐의,인하대,A씨,이날,구속,피의자,심문,영장실질심사,인천지법,A씨,포승줄,모자,마스크,얼굴,상태,경찰,승합차,A씨,성폭행,혐의,인정,살해,의도,피해자,건물,취재진,질문,대답,피해자,물음,A씨,영장실질심사,이날,심리,고범진,인천지법,당직,판사,진행,구속,여부,결정,전망,A씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,단과,대학,건물,지인,B씨,여학생,성폭행,3층,추락,혐의,A씨,B씨,마지막,범행,범행,건물,일행,확인,A씨,B씨,포함,일행들,학교,B씨,이동,사건,현장,인근,폐쇄,회로,CC,TV,당일,A씨,B씨,부축,건물,학교,장면,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의성,부인,경찰,A씨,B씨,고의,건물,확인,상황,가정,현장,실험,경찰,진술,토대,살인,고의성,적용,혐의,구속영장,신청,추가,수사,A씨,고의,B씨,건물,정황,확인,살인,죄명,방침,경찰,관계자,가능성,수사,결과,추가,수사,죄명,유지</t>
+        </is>
+      </c>
+      <c r="E567" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10652,7 +13487,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D568" t="n">
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,사망,사건,피의자,인하대,캠퍼스,동급생,성폭행,혐의,대학생,구속,피의자,심문,출석,A씨,이날,3시,인천지법,영장,실질,심사장,도착,호송차,피해자,질문,성폭행,혐의,인정,살해의도,피해자,3층,증거인멸,시도,구조요청,취재진,질문,A씨,침묵,A씨,구속여부,이날</t>
+        </is>
+      </c>
+      <c r="E568" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10670,7 +13510,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D569" t="n">
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,구속,가해,혐의,학생,인하대,교정,여학생,추락,사망,사건,가해,남학생,고의,살인,경찰,수사,본격화,준강간치사,혐의,20,1학년,인천지법,영장실질심사,피해자,법원,이날,도주,증거인멸,구속영장,발부,인천경찰청,종합,ㄱ씨,15일,인하대,교정,단과,대학,건물,동급생,성폭행,추락사,혐의,경찰,ㄴ씨,5층,학교,건물,성폭행,3층,추정,ㄴ씨,3시,건물,머리,출혈,상태,발견,인근,병원,경찰,현장,ㄱ씨,휴대전화,발견,16일,긴급체포,ㄱ씨,ㄴ씨,직전,경찰,ㄱ씨,ㄴ씨,부축,건물,모습,폐회로텔레비전,CCTV,영상,확보,ㄱ씨,경찰,ㄴ씨,자신,건물,사실,인정,고의,ㄴ씨,주장,인천경찰청,과학,수사대,이날,추락,건물,정도,여성,창문,복도,추락,확인,실험,차례,현장,창문,건물,안팎,여성,정도,허리,높이,경찰,창틀,건물,외벽,지문,유전자,DNA,정보,채취,국립과학수사연구원,ㄴ씨,사건,현장,교정,구내,발견,ㄱ씨,증거,인멸,혐의,적용,방안,검토,경찰,ㄱ씨,진술,바탕,혐의,구속,추가,수사,ㄱ씨,고의,ㄴ씨,건물,정황,확인,강간살인,죄명,방침,충격,사건,학교,안팎,사건,현장,마련,추모공간,학생들,비통,심경</t>
+        </is>
+      </c>
+      <c r="E569" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10688,7 +13533,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D570" t="n">
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>추락사,인하대,성폭행,남학생,인하대,캠퍼스,여대,성폭행,학교,동급,구속,여부,결정,인천지법,고범진,당직,판사,17일,A씨,구속,피의자,심문,영장실질심사,시작,구속,여부,이날,예정,A씨,이날,영장,실질,심사,인천지법,수갑,마스크,모자,얼굴,모습,취재진,성폭행,혐의,인정,질문,A씨,대답,피해자,취재진,물음,A씨,대답,인천지검,16일,준강,간치사,혐의,경찰,신청,인하대,구속영장,법원,청구,A씨,15일,인천시,미추홀구,인하대,캠퍼스,단과대,건물,여대,B씨,성폭행,3층,추락,혐의,경찰,A씨,B씨,성폭행,창문,추락,여부,조사,A씨,B씨,건물,일행,확인,B씨,15일,행인,발견,발견,B씨,발견,심정지,상태,경찰,B씨,옷가지,추락,장소,발견,추정,바지,속옷,장소,A씨,증거인멸,시도,가능성,수사</t>
+        </is>
+      </c>
+      <c r="E570" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10706,7 +13556,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D571" t="n">
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>캠퍼스,안전,인하대,추모,발길,피해자,단과대,교직원,묵념,헌화범행,규탄,논란,총학생회,입장문,캠퍼스,범행,학생,인하대,추모,건물,인천,용현동,인하대,교내,건물,마련,추모공간,학생,교직원,발길,검은색,원피스,4학년,17일,준비,국화,추모공간,한참,고개,한참,피해자,학교,학생,추모,학교,인근,용현동,안전,캠퍼스,생각,당황,눈시울,추모공간,인하대,총학생회,비상,대책,위원회,설치,인하대,동급생,교내,건물,성폭행,건물,혐의,체포,하루,학생,교직원들,이날,검은색,흰색,학생들,묵념,헌화,애도,마음,총장,조명우,인하대,이날,장례식장,유가족,재발,방지,약속,대학,관계자,추모공간,방문,헌화,추모공간,마련,테이블,국화꽃,캔커피,쪽지,남성,쪽지,남자,창피,미안,사람,것들,여성,언니,여자,마음,사람,후배,현실,마음,진심,글들,테이블,인하대,교직원,총학생회,홈페이지,대학,추도사,입장문,교직원들,추도사,피해,학생,명복,부모님,위로,말씀,피해,학생,마지막,평안,최선,사회,폭력,용납,안전,강조,총학생회,15일,친구,동기,허망,세상,비통,가족,친구,동기,후배,위로,추모,총학생회,입장문,가해자,범행,규탄,피해자,추모,비판,제기,B씨,15일,추모공간,마련,단과대,건물,발견,119구급대,병원,발견,발견,머리,경찰,B씨,A씨,성폭행,건물,지상,추락,A씨,준강,간치사,혐의,적용,구속영장,신청</t>
+        </is>
+      </c>
+      <c r="E571" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10724,7 +13579,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D572" t="n">
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,사망,가해자,신상,유포,처벌,vs,인권,인하대,캠퍼스,건물,여학생,추락사,사건,발생,범인,추정,인물,신상,처벌,신상,유포,옹호,여론,학교,명예,유지,익명글,2차,가해,논란,인하대,재학,캠퍼스,또래,여학생,성폭행,건물,추락,사건,네티즌들,공분,온라인,가해자,지목,인물,신상정보,찬반,논쟁,가해자,비난,한편,신상,유포,처벌,지적,조심,분위기,여학생,성폭행,사망,사건,남학생,인하대,남학생,피의자,신분,경찰,조사,15일,이튿날,온라인,사이,A씨,추측,인물,이름,나이,전화번호,소속,학과,동아리,소셜미디어,SNS,계정,개인정보,사진들,가해자,추정,인물,신상,순식간,온라인상,게시판,네티즌,인물,동명이인,작가,언급,방식,힌트,얘기,네티즌,SNS,검색,이름,인하대,재학,신상,유출,시작,인물,신상,일파만파,300명,인물,SNS,계정,4000명,급증,계정,처리,상태,네티즌,신상,유포,동참,네티즌들,수사기관,신상,공개,결정,상황,A씨,확인,인물,신상,지적,일각,제기,신상,유포,인물,A씨,자체,유포,행위,처벌,지적,온라인상,신상,유포,옹호,네티즌들,목소리,커뮤니티,범죄자,인권,나라,공개,우리나라,우선,가해자,인권,얼굴,댓글,가해자,비난,진짜,계곡,살인,사건,이은해,공범,조현수,과거,악플,온라인상,신상,유포,가담,법적,염려,반응,소수,네티즌들,범죄,발생,시작,신상,유포,무죄추정,원칙,지적,사법부,행정부,원칙,범인,자백,반박,사건,언론,커뮤니티,인하대,익명,논란,재학생,추정,네티즌,합의하,사랑,창문,학교,명예,유지,최악,강제,시도,반항,투신,언론,어그,회복,명예,온라인,커뮤니티,피해자,2차,논란,네티즌들,뭇매,글쓴이,학교,학생들,비난,반응,네티즌,인하대생,학우,비참,학생들,호소,A씨,15일,1시,인천,미추홀구,인하대,캠퍼스,동급생,여학생,성폭행,건물,혐의,인천지검,16일,준강,간치사,혐의,경찰,신청,A씨,구속영장,법원,청구,A씨,구속,피의자,심문,영장실질심사,인천지법,진행,구속,여부,결정,전망,A씨,경찰,조사,혐의,인정,네티즌,세상,각종,이슈,네티즌들,목소리</t>
+        </is>
+      </c>
+      <c r="E572" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10742,7 +13602,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D573" t="n">
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>인하대,사건,가해자,고의,부인,살인,혐의,15일,인천시,미추홀구,인하대,캠퍼스,여학생,사망,발견,지점,인근,건물,계단,폴리스라인,설치,인천,경찰,인하대학교,캠퍼스,발생,사건,가해자,여학생,성폭행,사망,사건,살인,혐의,적용,검토,실험,현장,추락,인천경찰청,인하대,동급생,B씨,여성,인하대,캠퍼스,3층,단과,대학,건물,성폭행,고의,가능성,조사,17일,A씨,경찰,조사,B씨,건물,사망,사실,인정,B씨,고의,살인,고의성,부인,이날,과학수사대,사건,발생,건물,인하대,단과,대학,정도,여성,창문,복도,추락,상황,실험,경찰,시점,사건,발생,한밤,현장,실험,진행,남성,경찰관,남성,경찰관,창문,실랑이,상황,가정,남성,경찰관,창문,상체,상태,가능성,조사,B씨,추락,복도,건물,바닥,창문틀,높이,1m가량,안팎,성인,여성,허리,정도,경찰,창틀,건물,외벽,지문,유전자,정보,DNA,채취,국립과학수사연구원,상태,경찰,진술,토대,살인,고의성,적용,혐의,구속,영장,신청,추가,수사,A씨,고의,B씨,건물,정황,확인,살인,죄명,방침,경찰,관계자,가능성,수사,결과,추가,수사,죄명,유지,A씨,구속,피의자,심문,영장실질심사,17일,3시,인천지법,고범진,당직,판사,심리,진행,구속,여부,인하대,캠퍼스,여학생,성폭행,건물,추락,혐의,남학생,구속영장,신청,16일,캠퍼스,인천시,미추홀구,추모공간,마련,A씨,15일,인천시,미추홀구,인하대,캠퍼스,B씨,학교,학생,상대,성범죄,혐의,이날,3시,분쯤,길가,인하대,캠퍼스,나체,상태,B씨,행인,발견,신고,B씨,심정지,상태,병원,이송,7시,사망,B씨,발견,건물,대학,공대,2호관,사잇길,주년,기념관,행인,신고,신고,여성,A씨,B씨,재학생,대학,재학,학부,계절학기,수강,비대면,진행,사람,계절,학기,시험,등교,A씨,당일,2시,B씨,7시,분쯤,시험,사람,동아리,활동,이날,술자리,경찰,범행,현장,A씨,휴대전화,발견,참고인,조사,혐의,확인,피의자,긴급체포,경찰,B씨,추정,바지,속옷,교내,장소,경찰,A씨,증거인멸,시도,가능성,확인,계획</t>
+        </is>
+      </c>
+      <c r="E573" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10760,7 +13625,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D574" t="n">
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>경찰,실험,인하대,사망,사건,현장,실험,15일,인천시,미추홀구,인하대,캠퍼스,여성,상태,머리,발견,경찰,수사중,사망사건,인하대학교,재학,성폭행,사망,사건,수사,경찰,피의자,적용,살인,혐의,검토,현장,실험,인천경찰청,준강,간치사,혐의,인하대,학교,재학,피해자,인하대,캠퍼스,3층,단과,대학,건물,고의,가능성,수사,인천경찰청,과학,수사대,건물,단과,대학,사건,사건,추정,피해자,건물,복도,창문,추락,상황,실험,경찰,A씨,조사,B씨,건물,사실,인정,자신,고의,살인,고의성,부인,토대,경찰,A씨,살인,치사,혐의,구속영장,신청,치사,살인,고의성,적용,혐의,경찰,실험,A씨,고의,B씨,건물,정황,확인,살인,혐의,변경,방침,A씨,15일,인천시,미추홀구,인하대,캠퍼스,단과,대학,건물,B씨,성폭행,건물,추락,혐의</t>
+        </is>
+      </c>
+      <c r="E574" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10778,7 +13648,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D575" t="n">
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>죽음,감성팔이,인하대,총학,여대,사망,입장문,길래,비상대책위원회,인하대,총학생회,비상,대책,위원회,캠퍼스,사건,여대,사망,입장문,입장문,네티즌들,피해자,추모,학교,학생,가해자,언급,비판,비대위,인하대,총학,홈페이지,학교,눈물,가슴,제목,입장문,비대위,15일,가슴,참사,20살,후배,동기,시작,입술,울음,고개,20살,친구,동기,허망,세상,비통,머릿속,질문,눈물,가슴,가족,친구,동기,후배,위로,비대위,추모,입장문,온라인,커뮤니티,비판,입장문,정확,상황,설명,대응,방법,추상적,문장,지적,입장문,학교,학생,가해자,언급,비판,총학,비판,네티즌들,동급생,가해자,처벌,입장,발생,방지,문장,대학,죽음,감성팔이,비판,총학생회,비대위,이날,학교,추모공간,마련,방학,100명,학생,피해,학생,애도,이날,경찰,학생,인하대,A씨,남성,준강,간치사,혐의,적용,구속영장,신청,A씨,인하대,캠퍼스,B씨,학교,학생,성폭행,건물,추락,혐의,경찰,B씨,추정,의류,10여m,사건,현장,발견,A씨,증거인멸,시도,가능성,확인,A씨,구속,피의자심문,영장실질심사,17일,인천지방법원,예정</t>
+        </is>
+      </c>
+      <c r="E575" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10796,7 +13671,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D576" t="n">
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>강간치사,인하대,사건,경찰,현장실험,고의,추락,여부,현장,실험,캠퍼스,학교,여학생,성폭행,혐의,인하대,사건,수사,경찰,살인,혐의,적용,여부,판단,현장,실험,진행,인천경찰청,경찰,준강,간치사,혐의,인하대,A씨,동급생,B씨,여성,인하대,캠퍼스,3층,단과대,건물,고의,가능성,현장,실험,수사,인천경찰청,과학,수사대,수사요원들,건물,단과대,투입,정도,여성,창문,복도,추락,상황,실험,경찰,실제,사건,발생,시점,한밤,현장실험,B씨,조사,결과,추락,복도,건물,바닥,창문틀,높이,1m가량,확인,안팎,성인,여성,허리,정도,경찰,남성,경찰관,남성,경찰관,창문,실랑이,상황,남성,경찰관,창문,상체,상태,가능성,조사,경찰,창틀,건물,외벽,지문,유전자,정보,DNA,채취,국립과학수사연구원,상태,현장,실험,결과,A씨,경찰,B씨,건물,사망,사실,인정,B씨,고의,고의성,부인,경찰,진술,토대,혐의,적용,구속영장,신청,상태,추가,수사,A씨,고의,B씨,건물,정황,확인,살인,죄명,방침,A씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,단과대,건물,B씨,성폭행,높이,추락,혐의,B씨,당일,3시,분쯤,인하대,캠퍼스,행인,발견,병원</t>
+        </is>
+      </c>
+      <c r="E576" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10814,7 +13694,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D577" t="n">
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>여학생,성폭행,추락사,인하대생,구속,인하대,인하대,캠퍼스,또래,여학생,성폭행,건물,남학생,구속,여부,17일,인천지법,검찰,준강,간치사,혐의,구속영장,청구,인하대,구속,피의자,심문,영장실질심사,이날,3시,고범진,당직,판사,심리,진행,여부,구속,영장,발부,결정,전망,A씨,15일,인천,미추홀구,인하대,캠퍼스,단과,대학,건물,지인,B씨,여성,성폭행,추락,혐의,경찰,5층,학교,건물,성폭행,B씨,3층,지상,추락,추정,A씨,B씨,마지막,범행,범행,건물,일행,확인,A씨,경찰,조사,혐의,인정,B씨,사건,발생,당일,인하대,캠퍼스,행인,발견,발견,머리,발견,심정지,상태,119구급대,병원</t>
+        </is>
+      </c>
+      <c r="E577" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10832,7 +13717,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D578" t="n">
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>사람,가해자,인하대,사건,온라인상,신상,확산,인하대,캠퍼스,여학생,성폭행,건물,추락,혐의,학교,남학생,경찰,체포,조사,캠퍼스,인천시,미추홀구,추모공간,마련,인천,여성,동급,성폭행,건물,추락,혐의,인하대학교,남학생,추정,신상정보,온라인상,확산,누리꾼,정보,확산,가해자,신상정보,공개,의견,충돌,갑론을박,사건,발생,15일,인터넷,커뮤니티,인하대,강간,살인범,A씨,추정,신상,이름,본명,나이,전화번호,학력,SNS,계정,주거지,주소,개인정보,얼굴,사진,확인,정보들,공개,신상,공개,A씨,인스타,폭발적,증가,A씨,인스타그램,비공개,전환,상태,누리꾼,공개,피의자,신상,정보,찬반,논쟁,정보,남대,신상,개인,정보,침해,명예훼손,A씨,신상,명예훼손죄,고소,1항,형법,정보,통신망법,1항,사실,적시,타인,명예,훼손,처벌,공공,이익,비방,목적,처벌,A씨,인하대,캠퍼스,건물,지인,B씨,여성,성폭행,추락,혐의,경찰,5층,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,B씨,인하대,캠퍼스,행인,발견,머리,심정지,상태,119구급대,병원</t>
+        </is>
+      </c>
+      <c r="E578" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10850,7 +13740,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D579" t="n">
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>강간치사,인하대,구속,심사,학교,안팎,여부,구속,여부,물결,교내,추모,총학생회,입장문,가해자,비판,논란,가해자,신상,공개,논쟁,인하대,캠퍼스,학교,여학생,성폭행,건물,추락,혐의,남학생,구속,여부,결정,인천지검,준강,간치사,혐의,경찰,신청,인하대,A씨,구속영장,법원,청구,법원,이날,3시,고범진,당직,판사,심리,A씨,구속,피의자,심문,영장실질심사,진행,구속,여부,이날,결정,전망,A씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,단과대,건물,여학생,학교,또래,B씨,성폭행,추락,혐의,B씨,15일,3시,분쯤,캠퍼스,행인,발견,부위,머리,출혈,구급대,병원,경찰,5층,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,A씨,B씨,마지막,파악,B씨,조사,결과,추락,장소,발견,B씨,추정,바지,속옷,교내,장소,발견,A씨,여부,증거,인멸,수사,대상,경찰,범행,현장,A씨,휴대전화,발견,참고인,조사,혐의,확인,피의자,긴급체포,사건,현장,인근,CCTV,당일,1시,분쯤,A씨,B씨,부축,건물,학교,장면,A씨,경찰,조사,혐의,인정,캠퍼스,학교,학생,끼리,사건,인하대,충격,사건,발생,건물,마련,추모공간,16일,100명,학생들,국화꽃,묵념,표현,추모공간,조화,하늘나라,이생,문구,비상대책위원회,인하대,총학생회,비상,대책,위원회,홈페이지,학교,사건,눈물,가슴,제목,입장문,논란,총학생회,입장문,15일,가슴,참사,20살,후배,동기,입술,울음,고개,20살,친구,동기,허망,세상,비통,토로,머릿속,질문,눈물,가슴,가족,친구,동기,후배,위로,추모,마무리,입장문,온라인,공유,정작,가해자,비판,감성적,표현,비판,갑론을박,온라인커뮤니티,A씨,추정,인물,이름,사진,사회관계망서비스,SNS,프로필,주거지,휴대전화,공개,피의자,신상,정보,찬반,논쟁</t>
+        </is>
+      </c>
+      <c r="E579" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10868,7 +13763,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D580" t="n">
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>고개,입장문,인하대,총학,입장,피해자,가해자,15일,인천시,미추홀구,인하대,캠퍼스,여학생,사망,발견,지점,인근,건물,계단,폴리스라인,설치,인천,캠퍼스,인하대학교,여학생,성폭행,사건,학생회,홈페이지,다음날,학교,온라인,공간,논란,눈물,가슴,제목,입장문,총학생회,16일,입술,울음,고개,가슴,참사,20살,후배,동기,비통,머릿속,질문,눈물,가슴,가족,친구,동기,후배,위로,추모,고인,명복,인하광장,게시판,입장문,학생,가해자,피해자,사안,피해자,언급,논란,온라인,공간,백일장,호소,가해자,처벌,대책,재발,방지,라임,감성,부정적,반응,총학생회,비대위,이날,학교,추모공간,마련,방학,100명,학생들,피해,학생,애도,논란,홈페이지,인하대,명의,교직원,일동,추도사,학생들,학우,정성,학생,허망,상황,슬픔,부모님,진심,위로,말씀,사회,폭력,용납,인하인,터전,안전,인하대,캠퍼스,여학생,성폭행,건물,추락,혐의,남학생,구속영장,신청,16일,캠퍼스,인천시,미추홀구,추모공간,마련,인천,미추홀경찰서,인하대,재학,A씨,남성,강간치사,혐의,구속영장,신청,16일,A씨,구속,피의자,심문,영장실질심사,17일,3시,인천지법,고범진,당직,판사,심리,진행,예정,구속,여부,A씨,15일,인천시,미추홀구,인하대,캠퍼스,B씨,학교,학생,상대,성범죄,혐의,이날,3시,분쯤,길가,인하대,캠퍼스,나체,상태,B씨,행인,발견,신고,B씨,심정지,상태,병원,이송,7시,사망,B씨,발견,건물,대학,공대,2호관,사잇길,주년,기념관,행인,신고,신고,여성,A씨,B씨,재학생,대학,재학,학부,계절학기,수강,비대면,진행,사람,계절,학기,시험,등교,A씨,당일,2시,B씨,7시,분쯤,시험,사람,동아리,활동,이날,술자리,경찰,범행,현장,A씨,휴대전화,발견,참고인,조사,혐의,확인,피의자,긴급체포,A씨,경찰,조사,자신,혐의,인정,B씨,추정,바지,속옷,교내,장소,경찰,A씨,증거인멸,시도,가능성,확인,계획</t>
+        </is>
+      </c>
+      <c r="E580" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10886,7 +13786,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D581" t="n">
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>부화,성공,파랑새,행복,전령사,사진,전송시간,기준,한눈,파악,실시간,업데이트,성공,5:00,부화,파랑새,행복,전령사,17일,대전,유성구,둥지,야산,인공,행복,희망,부부,상징,파랑새,번식,성공,여름,철새,대상종,멸종,위기,관심,파랑새,부부,새끼들,먹이,둥지,4:30,비치,발리볼,프로,투어,대구,수성못,대구,참가,경북,지역,폭염주의보,17일,대구,수성못,상화동산,특설,경기장,FIVB,비치,발리볼,프로,투어,태국,일본,선수,경기,코로나19,여파,3년,개최,대회,참가,성폭행,3:30,동급,추락사,고개,인하대생,인하대,교내,동급생,성폭행,A씨,대학,영장심사장,출석,17일,인천지방법원,영장,실질,심사장,준강,간치사,혐의,구속영장,청구,A씨,구속,피의자,심문,영장실질심사,A씨,심사장,피해자,취재진,질문,2:10,이재명,출마,선언,민주당,상임고문,이재명,더불어민주당,상임,고문,민주당,정치,세상,시작,민주당,선거,대표,출마,공식,선언,고문,이날,국회,기자회견,국민,민주당,고문,총선,승리,민주당,임무,실패,이재명,시대,소명,강조,당내,일각,자신,요구,의식,대선,결과,연동,지방,선거,패배,책임,생각,책임,행동,1:50,포항,더위,3년,전국수상,오토바이,챔피언십,전국수상오토바이,포항,시장,전국수상,오토바이,제트스키,챔피언십,경기,17일,영일대해수욕장,경북,포항시,영일대,해수욕장,100여,선수,참가,이날,경기,코로나19,사태,3년,개최,사진,경기,출전,선수들,수면,질주,모습,채용,1:00,권성동,대통령실,논란,아버지,아들,별개,권성동,국민,대표,직무,대행,원내,대표,대통령실,행정,요원,취업,논란,입장,대행,이날,국회,원내,대표,취임,간담회,자리,행정,요원,부친,강릉시,선관,위원,질문,의원,거짓말,아버지,선관위원,아들,정치인,특정,정당,지지,아버지,아들,별개,대행,채용,주장,일반,별정직,절차,공무원,채용,방법,관행,국민,호도,프레임,강조,대통령실,사회,수석실,근무,우씨,부친,윤석열,대통령,친분,강릉,소재,통신,설비,업체,대표,채용,논란,11:15,평온,인하대,여대,추모,분향소,대학교,교내,여학생,성폭행,추락,동급생,구속,여부,결정,인천지방법원,이날,준강,간치사,혐의,구속영장,청구,A씨,구속,피의자,심문,영장실질심사,진행,A씨,15일,인천시,미추홀구,인하대,캠퍼스,단과,대학,건물,지인,B씨,여성,성폭행,건물,추락,혐의,사진,이날,인하대학교,마련,피해,여학생,추모,분향소,9:40,코로나19,신규,확진,일요일,중앙방역대책본부,최다,질병,관리청,중앙,방역,대책,본부,기준,코로나19,신규,확진자,4만,발생,1주,요일,10일,2만,2배,수치,신규,사망자,14명,위중증,환자,71명,제2여객,이날,인천국제공항,여객,터미널,코로나19,검사,센터,해외입국자,검사</t>
+        </is>
+      </c>
+      <c r="E581" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10904,7 +13809,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D582" t="n">
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>인하대,사망,남학생,가해,구속여부,결정,구속,여부,인하대학교,캠퍼스,동급생,성폭행,추락,혐의,남성,구속,피의자,심문,영장실질심사,17일,인천지법,준강,간치사,혐의,구속영장,청구,영장실질심사,이날,인천지법,인천,미추홀구,예정,경찰,강간치사,혐의,적용,긴급체포,20대,죄명,변경,구속영장,신청,15일,1시,캠퍼스,인천,미추홀구,용현동,인하대,성범죄,건물,혐의,1층,인하대,캠퍼스,상태,머리,부위,행인,발견,병원,이송,경찰,캠퍼스,폐쇄,회로,CC,TV,영상,토대,동선,파악,용의자,특정,현장,휴대전화,확인,탐문수사,경찰,자택,참고인,신분,조사,범죄,혐의,확인,피의자,신분,전환,사망,파악,경찰,인멸,범행,증거,시도,확인,인근,사건,현장,발견,추정,유류품,확보,국립과학수사연구원,정밀,감정,의뢰,정확,사망,원인,파악,국과수,부검,의뢰</t>
+        </is>
+      </c>
+      <c r="E582" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10922,7 +13832,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D583" t="n">
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>인하대,교내,사망,사건,남학생,구속심사,남학생,구속,심사,CCTV,모습,교내,발견,혐의,남학생,증거,인멸,조사,인하대학교,캠퍼스,학생,성폭행,건물,추락,학교,남학생,구속,여부,17일,인천지검,준강,간치사,혐의,경찰,신청,남학생,인하대,남학생,구속영장,법원,청구,A씨,구속,피의자,심문,영장실질심사,이날,인천지법,고범진,당직,판사,심리,진행,예정,구속,여부,결정,A씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,단과,대학,건물,성폭행,추락,혐의,경찰,5층,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,사건,현장,인근,폐쇄,회로,CC,TV,당일,A씨,B씨,학교,건물,장면,A씨,경찰,조사,혐의,인정,B씨,15일,인하대,캠퍼스,행인,발견,머리,심정지,상태,119구급대,병원,경찰,B씨,사건,현장,교내,장소,발견,A씨,증거,인멸,여부,수사</t>
+        </is>
+      </c>
+      <c r="E583" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10940,7 +13855,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D584" t="n">
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>추락사,인하대,여학생,준강간치사,혐의,20대,구속심사,인하대,캠퍼스,여학생,성폭행,건물,추락,학교,남학생,구속,여부,결정,인천지법,이날,3시,준강,간치사,혐의,구속영장,청구,A씨,남성,영장실질심사,진행,구속,여부,결정,전망,A씨,15일,캠퍼스,시간,인천시,미추홀구,인하대,단과,대학,건물,지인,B씨,여성,성폭행,추락,혐의,A씨,B씨,사망,파악,온라인,계절학기,수강,시험,사건,당일,학교,사건,현장,인근,폐쇄,회로,CC,TV,당일,A씨,B씨,부축,건물,학교,장면,B씨,15일,인하대,캠퍼스,행인,발견,머리,심정지,상태,119구급대,병원,경찰,A씨,증거인멸,시도,가능성,확인,현장,사건,10여m,B씨,추정,의류,발견,경찰,유류품,국립과학수사연구원,정밀,감정,의뢰,한편,B씨,정확,사망,원인,파악,국과수,부검,의뢰</t>
+        </is>
+      </c>
+      <c r="E584" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10958,7 +13878,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D585" t="n">
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>인하대,사건,박지현,정치인,대통령,법원,공범,여성,안전,공간,박지현,더불어민주당,공동,비상,대책,위원장,서울,여의도,국회,기자회견,민주당,출마,선언,회견,뉴시스,박지현,더불어민주당,비상,대책,위원장,사건,인하대,재학,사망,성폭력,성희롱,사건,발생,피해자,가해자,정치인들,구조,여성가족부,폐지,대통령,성착취물,유통,중범죄자,솜방망이,처벌,법원,사건,공범,비대위원장,이날,페이스북,대학교,대학생,남성,동급,성폭행,추락,사망,비통,마음,피해자,명복,학문,지성,대학교,발생,상상,비극,사건,진상,가해자,허용,최고,처벌,대한민국,여성,안전,공간,공동체,여성,인격체,존중,여성,안전,사회,사회,합의,의문,공범,언론,자극적,보도,경쟁,선정적,단어들,남발,피해자,여대생,가해자,동급생,표현,피해자,피해자,피해자,피해자,여대생,호명,보도행태,피해자,가해,자각,실제,보도,몰지각,네티즌들,사이버,공간,피해자,모욕,혐오,발언,피해자,인권,보도윤리,보도,반복,참담,비극,입법부,행정부,피해자,보호,정책,사법부,처벌,피해자,죽음,발생,사회,죽음,정치인,대통령,판사,생각,언론,선정적,보도,뉴스장사,태도,비극,반복</t>
+        </is>
+      </c>
+      <c r="E585" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10976,7 +13901,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D586" t="n">
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>인하대,성폭행,추락사,여부,결정,가해자,구속,여부,인하대,캠퍼스,동급생,성폭행,건물,추락,혐의,인하대,구속,여부,결정,법조,A씨,구속,피의자,심문,영장실질심사,이날,3시,인천지법,심리,고범진,당직,판사,진행,예정,여부,구속,이날,결정,전망,A씨,15일,인천시,미추홀구,인하대,캠퍼스,단과,대학,건물,지인,B씨,동급,여성,성폭행,추락,혐의,경찰,5층,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,A씨,B씨,마지막,범행,범행,건물,일행,확인,사건,현장,인근,폐쇄,회로,CC,TV,당일,A씨,B씨,부축,건물,학교,장면,A씨,경찰,조사,혐의,인정,경찰,B씨,사건,현장,교내,장소,발견,A씨,증거인멸,시도,수사,인천지검,준강,간치사,혐의,경찰,신청,A씨,구속영장,법원,청구,인하대,캠퍼스,마련,추모,공간,피해자,죽음,추모,발길</t>
+        </is>
+      </c>
+      <c r="E586" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10994,7 +13924,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D587" t="n">
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>신청,인하대,구속,영장,눈물,논란,총학,입장문,인하대,캠퍼스,여학생,성폭행,건물,추락,혐의,남학생,구속영장,신청,16일,캠퍼스,인천시,미추홀구,추모공간,마련,인천,경찰,인하대학교,캠퍼스,여학생,성폭행,혐의,동급,남성,구속영장,신청,인천,미추홀경찰서,인하대,재학,A씨,남성,강간치사,혐의,구속영장,신청,16일,A씨,15일,인천시,미추홀구,인하대,캠퍼스,B씨,학교,학생,상대,성범죄,혐의,이날,3시,분쯤,길가,인하대,캠퍼스,나체,상태,B씨,행인,발견,신고,B씨,심정지,상태,병원,이송,7시,사망,B씨,발견,건물,대학,공대,2호관,사잇길,주년,기념관,행인,신고,신고,여성,A씨,B씨,재학생,대학,재학,학부,계절학기,수강,비대면,진행,사람,계절,학기,시험,등교,A씨,당일,2시,B씨,7시,분쯤,시험,사람,동아리,활동,이날,술자리,경찰,범행,현장,A씨,휴대전화,발견,참고인,조사,혐의,확인,피의자,긴급체포,A씨,경찰,조사,자신,혐의,인정,B씨,추정,바지,속옷,교내,장소,경찰,A씨,증거인멸,시도,가능성,확인,계획,A씨,구속,피의자,심문,영장실질심사,17일,3시,인천지법,고범진,당직,판사,심리,진행,예정,구속,여부,인하대,총학생회,비상,대책,위원회,입장문,비상대책위원회,인하대,총학생회,비상,대책,위원회,사건,입장문,온라인,공간,뭇매,인하대,총학생회,홈페이지,학교,눈물,가슴,제목,입장문,총학생회,입술,울음,고개,20살,친구,동기,허망,세상,머릿속,질문,눈물,가슴,가족,친구,동기,후배,위로,추모,입장문,학생,가해자,피해자,언급,논란,온라인,공간,백일장,호소,가해자,처벌,부정적,반응,총학생회,비대위,이날,학교,추모공간,마련,방학,100명,학생들,피해,학생,애도,논란,홈페이지,인하대,명의,교직원,일동,추도사,학생들,학우,정성,학생,허망,상황,슬픔,부모님,진심,위로,말씀,사회,폭력,용납,인하인,터전,안전</t>
+        </is>
+      </c>
+      <c r="E587" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11012,7 +13947,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D588" t="n">
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>인하대,사건,가해자,현장,휴대폰,덜미,인하,인천,인하대,마련,성폭행,피해자,분향소,학생,추모,인천,뉴스1,인하대,캠퍼스,여학생,성폭행,건물,추락,학교,남학생,범행,현장,자신,휴대전화,덜미,파악,인천,미추홀경찰서,혐의,강간치사,대학,A씨,남성,구속영장,신청,A씨,인천시,미추홀구,인하대,캠퍼스,건물,지인,B씨,여성,성폭행,추락,혐의,경찰,5층,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,경찰,범행,현장,건물,A씨,휴대전화,발견,탐문수사,자택,확인,경찰서,A씨,참고인,신분,조사,혐의,확인,피의자,신분,전환,긴급체포,A씨,경찰,혐의,인정,경찰,A씨,B씨,성폭행,창문,조사,B씨,상의,추락,장소,발견,추정,바지,속옷,교내,장소,경찰,A씨,증거인멸,시도,가능성,확인,계획,사건,현장,인근,폐쇄,회로,CC,TV,당일,A씨,B씨,부축,건물,학교,장면,A씨,B씨,마지막,범행,일행,확인,B씨,인하대,캠퍼스,행인,발견,머리,심정지,상태,119구급대,병원,경찰,B씨,사인,확인,국립과학수사연구원,시신,부검,의뢰</t>
+        </is>
+      </c>
+      <c r="E588" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11030,7 +13970,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D589" t="n">
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>우영우,신드롬,오티즘,엑스포,ENA,드라마,변호사,우영우,흥행,성공,자폐스펙트럼장애,autism,편견,배우,박은빈,노력,코로나19,3년,양재시민의숲역,인근,센터,재개,오티즘엑스포,자폐스펙트럼,장애,청년,주축,estas,자조,모임,눈길,estas,자조,모임,자폐스펙트럼장애인,대학교수,교수,윤은호,인하대,인천,남동구,호구포역,인근,중소기업,풀타임근로자,취업,영어실력,급여,장지용씨,참여,변호사,우영우,자폐스텍트럼장애인들,소수,교수,칼럼니스트,전문직,종사,16일,오티즘,엑스포,현장,자폐스펙트럼장애,교수,윤은호,인하대,오티즘,엑스포,부스,참여,자폐,당사자,입장,부스,estas,자조,모임,부스,자리,현장,오티즘,톡스,자폐인들,자유발언,노래,진행,자폐청년들,만석,이날,페이스북,오티즘,엑스포,참여자,변호사,우영우,시청자들,폭발적,반응,보도,언론,사용,자폐증,표현,의견,제기,자폐스펙트럼장애,자폐증,표현,언론보도,자폐인들,독특,행동,정신과,증세,병적,인식,자리,자폐,오해,야기,오티즘,엑스포,현장,전국,자폐스펙트럼,장애인,가족들,정보교류,만남,장소,역할</t>
+        </is>
+      </c>
+      <c r="E589" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11048,7 +13993,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D590" t="n">
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>인하대,추도사,폭력,용납,총학생회,추모공간,인하대학교,추도사,피해,학생,마지막,평안,최선,입장문,총학생회,비상,대책,위원회,피해자,지칭,차이,홈페이지,인하대,인하대,교직원,일동,명의,추도사,인하대,A씨,남성,교내,건물,학교,여학생,성폭행,건물,추락,혐의,체포,경찰,수사,학생들,학우,정성,학생,허망,상황,슬픔,피해,학생,명복,유족,부모님,진심,위로,말씀,충격,혼란,학생,위로,생명,따름,교직원,일동,사회,폭력,용납,인하인,터전,안전,학생,기억,추모,학생,사랑,교정,노력,비대위,인하대,총학생회,홈페이지,학교,눈물,가슴,제목,입장문,입술,울음,고개,네티즌,총학생회,가해자,언급,추상,표현,입장문,비판,교직원,일동,사망,학생,피해,학생,지칭,폭력,사건,방지,전달,풀이,총학생회,비대위,이날,학교,추모공간,마련,방학,100명,학생들,인천,미추홀경찰서,강간치사,혐의,A씨,구속영장,신청,경찰,5층,학교,건물,성폭행,피해자,3층,지상,추락,사망,추정,B씨,15일,인하대,캠퍼스,행인,발견,심정지,상태,병원,경찰,범행,현장,건물,A씨,휴대전화,발견,A씨,조사,혐의,인정,B씨,추정,바지,속옷,교내,장소,경찰,A씨,증거인멸,시도,가능성,확인,계획</t>
+        </is>
+      </c>
+      <c r="E590" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11066,7 +14016,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D591" t="n">
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>박지현,인하대,사망,사건,정치인,대통령,법원,공범,박지현,더불어민주당,공동,비상,대책,위원장,인하대,재학,사망,사건,피해자,비극,죽음,공범,지적,위원장,자신,페이스북,대학교,대학생,남성,동급,성폭행,추락,사망,비통,마음,피해자,명복,참담,학문,지성,대학교,발생,상상,비극,사건,진상,가해자,허용,최고,처벌,강조,위원장,경찰,조사,피해자,동료,대학,성폭행,사실,대한민국,여성,안전,공간,공동체,여성,인격체,존중,여성,안전,사회,사회,합의,의문,지적,성폭력,성희롱,사건,발생,피해자,가해자,정치인들,구조,여성가족부,폐지,대통령,착취물,유통,중범죄자,솜방망이,처벌,법원,사건,공범,목소리,언론,비극적,죽음,여성,인권,보호,성범죄,관심,자극적,보도,경쟁,선정적,단어,남발,피해자,여대생,가해자,동급생,표현,피해자,피해자,피해자,피해자,여대생,호명,비판,보도,행태,피해자,가해,자각,비극적,자식,유족분,가슴,생각,당부,위원장,반복,참담,비극,입법부,행정부,피해자,보호,정책,사법부,처벌,피해자,죽음,발생,사회,죽음,강조</t>
+        </is>
+      </c>
+      <c r="E591" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11084,7 +14039,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D592" t="n">
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>인하대,추락사,강간치사,신청,남학생,영장,경찰,인하대학교,재학,여성,혐의,A씨,구속,영장,신청,인천미추홀경찰서,혐의,강간치사,A씨,남성,구속영장,신청,A씨,인천시,미추홀구,인하대,캠퍼스,여성,상대,성범죄,혐의,경찰,조사,A씨,자신,혐의,인정,인하대,단과,대학,건물,피해자,여성,머리,출혈,상태,발견,경찰,대학,CCTV,토대,여성,3층,단과대,추락,사실,직전,확인,경찰,국과수,B씨,부검,의뢰,구두,소견,A씨,진술조서,검찰,구속영장,신청,A씨,구속,피의자,심문,영장실질심사,17일,2시,예정,경찰,현장,B씨,추락,지점,발견,A씨,범행,현장,범행,주거지,은신,A씨,시도,증거,인멸,여부,수사</t>
+        </is>
+      </c>
+      <c r="E592" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11102,7 +14062,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D593" t="n">
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>경찰,강간치사,혐의,인하대,남학생,구속,영장,신청,인하대,캠퍼스,여학생,성폭행,건물,추락,혐의,남학생,경찰,구속영장,신청,인천,미추홀경찰서,강간치사,혐의,긴급체포,A씨,남성,구속영장,신청,16일,A씨,인천,미추홀구,인하대,캠퍼스,건물,학교,여학생,성범죄,건물,혐의,경찰,캠퍼스,폐쇄회로,CC,TV,영상,토대,B씨,동선,파악,A씨,유력,용의자,특정,현장,범행,A씨,휴대전화,발견,탐문수사,경찰,A씨,자택,A씨,참고인,신분,조사,범죄,혐의,확인,피의자,신분,전환,A씨,B씨,사망,파악,온라인,계절학기,수강,시험,사건,당일,학교,경찰,성폭행,B씨,건물,지상,추락,경찰,B씨,성폭행,3층,A씨,여부,조사,진행,B씨,인하대,캠퍼스,행인,발견,상태,머리,부위,B씨,신고,출동,119구급대,병원,경찰,A씨,증거인멸,시도,가능성,확인,현장,사건,10여m,B씨,추정,의류,발견,경찰,유류품,국립과학수사연구원,정밀,감정,의뢰,한편,B씨,정확,사망,원인,파악,국과수,부검,의뢰,A씨,구속,피의자심문,영장실질심사,17일,인천지방법원,예정</t>
+        </is>
+      </c>
+      <c r="E593" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11120,7 +14085,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D594" t="n">
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>사망,학내,성폭행,가슴,인하대,총학,입장문,논란,가해자,처벌,촉구,일기,인스타,감성,인하대,캠퍼스,학교,남학생,여학생,사망,사건,발생,총학생회,공개,입장문,논란,인하대학교,총학생회,학교,홈페이지,인하,광장,게시판,눈물,가슴,제목,입장문,게시,총학생회,15일,가슴,참사,20살,후배,동기,입술,울음,고개,20살,친구,동기,허망,세상,비통,총학생회,머릿속,질문,눈물,가슴,가족,친구,동기,후배,위로,추모,마무리,입장문,SNS,온라인커뮤니티,네티즌들,가해자,처벌,촉구,감성적,표현,문장,추모,성격,입장문,비판,네티즌,인스타,감성,일기,대자보,공식적,대회,출품,추모글,반응,사고,사건,사건,학교,학생,발생,학내,사건,사안,입장문,언급,인하대,성폭,행치사,혐의,인정,15일,인하대학교,캠퍼스,학생,발견,단과,대학,추락,사망,추정,A씨,발견,발견,심정지,상태,머리,출혈,A씨,교내,장소,발견,A씨,계절,학기,시험,사건,학교,사건,당일,시험,A씨,시험,B씨,학교,남학생,인근,폐쇄,회로,CC,TV,B씨,학교,남학생,A씨,부축,건물,학교,장면,포착,건물,일행,확인,범행,현장,B씨,휴대전화,발견,경찰,B씨,학교,건물,A씨,성폭행,파악,장소,옷들,증거인멸,시도,가능성,확인,경찰,조사,B씨,혐의,인정,피의자,신분,전화,긴급체포,인천,미추홀경찰서,구속영장,신청,경찰,A씨,사인,확인,국립과학수사연구원,시신,부검,의뢰,경찰,A씨,성폭행,3층,B씨,여부,조사,전문,인하대,총학생회,비대위,입장문,눈물,가슴,15일,가슴,참사,20살,후배,동기,입술,울음,고개,20살,친구,동기,허망,세상,비통,머릿속,질문,눈물,가슴,가족,친구,동기,후배,위로,추모,고인,명복,2022.,인하대학교,총학생회,비상,대책,위원회</t>
+        </is>
+      </c>
+      <c r="E594" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11138,7 +14108,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D595" t="n">
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>가해자,인하대,사망,사건,총학생회,입장문,비난,폭주,인하대,총학생회,캠퍼스,사망사건,입장문,여론,총학생회,비통,피해자,추모,학교,학생,가해자,언급,네티즌들,입장문,감성팔이,비판,총학생회,이날,인하대,학생들,인하광장,학교,홈페이지,인하,광장,게시판,사건,입장문,사건,게재,제목,눈물,가슴,총학생회,가슴,참사,20살,후배,동기,입술,울음,고개,20살,친구,동기,허망,세상,비통,총학생회,머릿속,질문,눈물,가슴,가족,친구,동기,후배,위로,추모,고인,명복,마무리,입장문,트위터,인스타그램,온라인,커뮤니티,속도,확산,반응,네티즌들,공식적,입장문,추상적,문장,가해자,피해자,부각,분노,네티즌,피해자,자연사,동급생,가해자,처벌,입장,발생,방지,문장,지적,네티즌,참사,라임,감성,비판,이날,조선닷컴,인하대,총학생회,입장문,입장,연락,추락사,인하대,새내기,그날,캠퍼스,인천미추홀경찰서,혐의,강간치사,긴급체포,인하대,남학생,조사,A씨,혐의,인정,경찰,A씨,1시,캠퍼스,5층,건물,동급생,여학생,성폭행,B씨,창문,추락,사망,B씨,추락,장소,발견,B씨,추정,바지,속옷,교내,장소,발견,경찰,A씨,증거,인멸,B씨,조사,사건,현장,휴대,전화,경찰,신고,출동,현장,휴대,전화,CCTV,토대,A씨,특정,주거지,은신,A씨,2시,검거,경찰,이날,국과수,B씨,부검,의뢰,구두,소견,전달,경찰,이날,추가,조사,결과,종합,구속영장,신청,예정,구속,피의자,심문,영장실질심사,17일</t>
+        </is>
+      </c>
+      <c r="E595" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11156,7 +14131,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D596" t="n">
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>인하대,사건,피의자,현장,휴대전화,덜미,증거인멸,확인중,인하대학교,캠퍼스,여학생,성폭행,혐의,학교,남학생,현장,자신,휴대전화,파악,인천,미추홀경찰서,혐의,강간치사,대학,남성,구속영장,신청,예정,인천시,미추홀구,인하대,캠퍼스,건물,지인,여성,성폭행,추락,혐의,현장,범행,휴대전화,발견,경찰,탐문수사,자택,참고인,신분,조사,혐의,확인,피의자,신분,전환,긴급체포,경찰,혐의,인정,경찰,성폭행,창문,여부,조사,현장,장소,발견,증거,여기저기,추가,조사,경찰,이날,국립과학수사연구원,부검,의뢰,구두,소견,전달,결과,추가,조사,종합,이날,구속영장,신청,예정,구속,피의자,심문,영장실질심사,17일</t>
+        </is>
+      </c>
+      <c r="E596" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11174,7 +14154,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D597" t="n">
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>추락사,새내기,대학,그날,인하대,15일,인하대학교,캠퍼스,학생,발견,단과,대학,추락,사망,추정,A씨,발견,발견,심정지,상태,머리,출혈,A씨,교내,장소,발견,A씨,계절,학기,시험,사건,학교,사건,당일,시험,A씨,시험,B씨,학교,남학생,인근,폐쇄,회로,CC,TV,B씨,학교,남학생,A씨,부축,건물,학교,장면,포착,건물,일행,확인,범행,현장,B씨,휴대전화,발견,경찰,B씨,학교,건물,A씨,성폭행,파악,장소,옷들,증거인멸,시도,가능성,확인,경찰,조사,B씨,혐의,인정,피의자,신분,전화,긴급체포,인천,미추홀경찰서,구속영장,신청,경찰,A씨,사인,확인,국립과학수사연구원,시신,부검,의뢰,경찰,A씨,성폭행,3층,B씨,여부,조사,박지현,더불어민주당,비상,대책,위원장,대한민국,여성,안전,공간,성폭력,성희롱,사건,발생,피해자,가해자,정치인들,구조,여성가족부,폐지,대통령,성착취물,유통,중범죄자,솜방망이,처벌,법원,사건,공범,지적</t>
+        </is>
+      </c>
+      <c r="E597" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11192,7 +14177,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D598" t="n">
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>현장,인하대,여학생,성폭행,추락사,휴대폰,가해,남학생,경찰,구속영장,신청,예정,국과수,의뢰,시신,부검,경찰,인하대,캠퍼스,여대생,성폭행,건물,추락,혐의,남학생,여부,증거,인멸,시도,확인,인천,미추홀경찰서,혐의,강간치사,대학,A씨,남학생,구속영장,신청,예정,A씨,인천시,미추홀구,인하대,캠퍼스,건물,지인,B씨,여성,성폭행,추락,혐의,경찰,5층,학교,건물,성폭행,B씨,3층,추락,사망,추정,남학생,범행,현장,자신,휴대전화,파악,경찰,범행,현장,건물,A씨,휴대전화,발견,탐문수사,자택,확인,경찰서,A씨,참고인,신분,조사,혐의,확인,피의자,신분,전환,긴급체포,A씨,경찰,혐의,시인,경찰,A씨,B씨,성폭행,창문,여부,조사,B씨,상의,추락,장소,발견,교내,장소,추정,바지,속옷,경찰,A씨,증거인멸,시도,여부,확인중,경찰,이날,국과수,B씨,부검,의뢰,구두,소견,전달,결과,추가,조사,종합,이날,구속영장,신청,예정,A씨,구속,피의자,심문,영장실질심사,17일,경찰,관계자,국과수,소견,여죄,조사,추가,사건,현장,인근,폐쇄,회로,CC,TV,당일,A씨,B씨,부축,건물,학교,장면,A씨,B씨,마지막,건물,일행,확인,B씨,인하대,캠퍼스,행인,발견</t>
+        </is>
+      </c>
+      <c r="E598" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11210,7 +14200,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D599" t="n">
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>사망,박지현,인하대,공범,대한민국,여성,안전,박지현,더불어민주당,비상대책위원장,서울,여의도,국회,기자회견,민주당,출마,선언,회견,공동,취재,박지현,더불어민주당,비상,대책,위원장,사건,인하대,재학,사망,피해자,비극,죽음,공범,위원장,이날,페이스북,대학교,대학생,남성,동급,성폭행,추락,사망,비통,마음,피해자,명복,성폭력,성희롱,사건,발생,피해자,가해자,정치인들,구조,여성가족부,폐지,대통령,착취,유통,중범죄자,솜방망이,처벌,법원,사건,공범,지적,위원장,학문,지성,대학교,발생,상상,비극,사건,진상,가해자,허용,최고,처벌,대한민국,여성,안전,공간,공동체,여성,인격체,존중,여성,안전,사회,사회,합의,의문,언론,공범,지목,자극적,보도,경쟁,선정적,단어들,남발,피해자,여대생,가해자,동급생,표현,피해자,피해자,피해자,피해자,여대생,호명,보도행태,피해자,가해,자각,피해자,인권,보도윤리,보도,강조,15일,인천시,미추홀구,인하대,캠퍼스,여성,상태,머리,발견,경찰,수사,여성,추락,건물,인하대,공대,폴리스,라인,설치,뉴스1,위원장,반복,참담,비극,입법부,행정부,피해자,보호,정책,사법부,처벌,피해자,죽음,발생,사회,죽음,정치인,대통령,판사,생각,언론,선정적,보도,뉴스장사,태도,비극,반복,인하대,캠퍼스,A씨,여대,출혈,머리,부위,심정지,상태,병원,사건,발생,발견,A씨,발견,상태,대학,B씨,남성,강간치사,혐의,경찰,조사,경찰,5층,학교,건물,성폭행,A씨,3층,지상,추락,사망,정은나리</t>
+        </is>
+      </c>
+      <c r="E599" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11228,7 +14223,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D600" t="n">
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>인하대,사건,범행,현장,가해자,휴대폰,15일,인천시,미추홀구,인하대,캠퍼스,여성,상태,머리,발견,경찰,수사,여성,추락,건물,인하대,공대,폴리스,라인,설치,캠퍼스,인하대,여대,성폭행,건물,추락,혐의,남학생,학교,범행,현장,자신,휴대전화,휴대전화,용의자,특정,단서,파악,인천,미추홀경찰서,혐의,강간치사,대학,A씨,남성,구속영장,신청,예정,경찰,피해자,사인,확인,국립과학수사연구원,시신,부검,의뢰,A씨,인천시,미추홀구,인하대,캠퍼스,건물,지인,B씨,여성,성폭행,추락,혐의,경찰,5층,학교,건물,성폭행,B씨,3층,지상,추락,사망,경찰,범행,현장,건물,A씨,휴대전화,발견,탐문수사,자택,경찰서,A씨,참고인,신분,조사,혐의,확인,피의자,신분,전환,긴급체포,A씨,경찰,혐의,인정,경찰,A씨,B씨,성폭행,창문,여부,조사,B씨,상의,추락,장소,발견,추정,바지,속옷,교내,장소,경찰,A씨,증거인멸,시도,가능성,확인,계획,사건,현장,인근,폐쇄,회로,CC,TV,당일,A씨,B씨,부축,건물,학교,장면,A씨,B씨,마지막,범행,일행,확인,수강,계절,학기,시험,사건,발생,전날,학교,A씨,당일,2시,B씨,시험,파악,B씨,인하대,캠퍼스,행인,발견,상태,B씨,출혈,머리,부위,심정지,상태,119구급대,병원,3시간,7시,정은나리</t>
+        </is>
+      </c>
+      <c r="E600" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11246,7 +14246,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D601" t="n">
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>휴대폰,현장,가해자,인하대,성폭행,구속영장,신청,경찰,강간치사,혐의,구속,영장,신청,피해자,장소,발견,증거,인멸,가능,조사,계획,인하대,캠퍼스,발생,여대,사망,사건,피의자,지목,남학생,범행,현장,자신,휴대전화,파악,경찰,남학생,증거,인멸,정황,조사,진행,계획,인천,미추홀경찰서,혐의,강간치사,학교,A씨,남성,구속영장,신청,경찰,A씨,인천시,미추홀구,인하대,캠퍼스,B씨,여성,성폭행,추락,경찰,범행,현장,건물,A씨,휴대전화,발견,탐문수사,A씨,자택,확인,경찰,A씨,참고인,신분,조사,피의자,신분,전환,A씨,경찰,조사,혐의,인정,경찰,A씨,긴급체포,이날,구속,영장,신청,A씨,B씨,마지막,범행,일행,확인,경찰,관계자,국민일보,통화,단독,범행,조사,경찰,B씨,창문,추락,추정,B씨,추락,구체적,경위,조사,대상,B씨,상의,추락,장소,교내,장소,B씨,추정,바지,속옷,발견,경찰,A씨,증거인멸,시도,가능성,조사,계획,B씨,3시,분쯤,인하대,캠퍼스,행인,발견,사건,현장,인근,폐쇄,회로,CC,TV,당일,1시,분쯤,A씨,B씨,부축,학교,건물,장면,경찰,B씨,사인,확인,국립과학수사연구원,시신,부검,의뢰,구두소견,확인,경찰,관계자,구두소견,유족,구체적,이야기</t>
+        </is>
+      </c>
+      <c r="E601" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11264,7 +14269,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D602" t="n">
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>인하대,교내,사망,사건,화장실,의류,수거,조사중,인하대,교내,사망,사건,경찰,긴급체포,남학생,학교,구속영장,신청,학생,범행,현장,자신,휴대전화,파악,경찰,건물,화장실,의류,발견,범행,조사중,인천,미추홀경찰서,혐의,강간치사,학생,대학,학생,구속영장,신청,예정,ㄴ씨,인천,미추홀구,인하대,교내,학교,20,성폭행,혐의,ㄱ씨,15일,3시,분께,학교,강의동,머리,의식,상태,발견,행인,신고,출동,119구조,ㄱ씨,인근,병원,경찰,5층,학교,건물,성폭행,ㄱ씨,3층,지상,추락,사망,경찰,ㄱ씨,마지막,ㄴ씨,용의자,긴급체포,경찰,주변,폐회로,텔리비전,확보,ㄱ씨,동선,확인,강의동,ㄴ씨,모습,포착,경찰,범행,현장,건물,ㄴ씨,휴대전화,발견,거주지,파악,경찰,수색,강의동,화장실,의류,종류,수거,여성,경찰,ㄴ씨,ㄱ씨,성폭행,창문,옷가지,증거인멸,시도,조사중,경찰,관계자,구체적,사건,경위,범행,동기,조사</t>
+        </is>
+      </c>
+      <c r="E602" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11282,7 +14292,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D603" t="n">
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>박지현,사건,인하대,사망,공범,박지현,더불어민주당,비상,대책,위원장,인하대,재학,사망,사건,폭력,성희롱,사건,발생,피해자,가해자,정치인들,구조,여성가족부,폐지,대통령,성착취물,유통,중범죄자,솜방망이,처벌,법원,사건,공범,16일,위원장,이날,페이스북,피해자,비극,죽음,공범,참담,학문,지성,대학교,발생,상상,비극,위원장,대한민국,여성,안전,공간,공동체,여성,인격체,존중,여성,안전,사회,사회,합의,의문,성폭력,성희롱,사건,발생,피해자,가해자,정치인들,구조,여성가족부,폐지,대통령,착취물,유통,중범죄자,솜방망이,처벌,법원,사건,공범,지적,언론,비극적,죽음,여성,인권,보호,성범죄,관심,자극적,보도,경쟁,선정적,단어,남발,피해자,여대생,가해자,동급생,표현,피해자,피해자,피해자,피해자,여대생,호명,비판,반복,참담,비극,입법부,행정부,피해자,보호,정책,사법부,처벌,피해자,죽음,발생,사회,죽음,정치인,대통령,판사,생각,언론,선정적,보도,뉴스장사,태도,비극,반복</t>
+        </is>
+      </c>
+      <c r="E603" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11300,7 +14315,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D604" t="n">
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>휴대폰,인하대,성폭행,추락사,현장,가해자,경찰,예정,피의자,동급,구속,영장,신청,국과수,의뢰,시신,부검,피의자,피해자,부축,건물,학교,인하대,캠퍼스,여대생,성폭행,건물,추락,학교,남학생,범행,현장,자신,휴대전화,파악,인천,미추홀경찰서,혐의,강간치사,대학,A씨,남성,구속영장,신청,예정,경찰,A씨,인천시,미추홀구,인하대,캠퍼스,건물,B씨,재학,성폭행,추락,혐의,경찰,5층,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,경찰,범행,현장,건물,A씨,휴대전화,발견,탐문수사,자택,확인,경찰서,A씨,참고인,신분,조사,혐의,확인,피의자,신분,전환,긴급체포,A씨,경찰,혐의,인정,경찰,A씨,B씨,성폭행,창문,여부,조사,B씨,상의,추락,장소,발견,교내,장소,추정,바지,속옷,경찰,A씨,증거인멸,시도,가능성,확인,계획,사건,현장,인근,폐쇄,회로,CC,TV,당일,A씨,B씨,부축,건물,학교,장면,마지막,범행,일행,확인,수강,계절,학기,시험,사건,발생,전날,학교,A씨,당일,2시,B씨,시험,파악,B씨,인하대,캠퍼스,행인,발견,머리,심정지,상태,119구급대,병원,경찰,B씨,사인,확인,국립과학수사연구원,시신,부검,의뢰</t>
+        </is>
+      </c>
+      <c r="E604" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11318,7 +14338,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D605" t="n">
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>비극,박지현,인하대,가부,폐지,대통령,공범,박지현,더불어민주당,공동,비상,대책,위원장,사건,인하대,사망,대한민국,여성,안전,공간,피해자,보호,가해자,처벌,위원장,자신,페이스북,참담,학문,지성,대학교,발생,상상,비극,위원장,경찰,조사,피해자,동료,대학,성폭행,사실,대한민국,여성,안전,공간,공동체,여성,인격체,존중,여성,안전,사회,사회,합의,의문,지적,성폭력,성희롱,사건,발생,피해자,가해자,정치인들,구조,여성가족부,폐지,대통령,착취물,유통,중범죄자,솜방망이,처벌,법원,사건,공범,목소리,언론,비극적,죽음,여성,인권,보호,성범죄,관심,자극적,보도,경쟁,선정적,단어,남발,피해자,여대생,가해자,동급생,표현,피해자,피해자,피해자,피해자,여대생,호명,비판,보도,행태,피해자,가해,자각,비극적,자식,유족분,가슴,생각,위원장,반복,참담,비극,입법부,행정부,피해자,보호,정책,사법부,처벌,피해자,죽음,발생,사회,죽음,강조</t>
+        </is>
+      </c>
+      <c r="E605" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11336,7 +14361,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D606" t="n">
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>인하대생,건물,범행,현장,결정,증거,인하대,캠퍼스,발견,여대,사망,사건,경찰,강간치사,혐의,긴급체포,동급,증거인멸,시도,조사,인천,미추홀경찰서,강간치사,혐의,대학,A씨,남성,증거인멸,시도,조사,16일,A씨,인천시,미추홀구,인하대,캠퍼스,건물,지인,B씨,여성,성폭행,추락,혐의,경찰,5층,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,B씨,상의,추락,장소,발견,B씨,추정,바지,속옷,교내,장소,발견,경찰,A씨,증거인멸,시도,가능성,확인,계획,경찰,B씨,추정,유류품,확보,국립과학수사연구원,정밀,감정,의뢰,경찰,B씨,정확,사망,원인,파악,국과수,부검,의뢰,한편,이날,A씨,구속영장,신청,방침,B씨,3시,분쯤,인하대,캠퍼스,행인,발견,B씨,머리,심정지,상태,119구급대,병원,경찰,범행,현장,건물,A씨,휴대전화,발견,탐문수사,자택,경찰서,A씨,참고인,신분,조사,혐의,확인,피의자,신분,전환,긴급체포,A씨,경찰,혐의,인정,경찰,A씨,B씨,성폭행,창문,여부,조사,사건,현장,인근,폐쇄,회로,CC,TV,당일,1시,분쯤,A씨,B씨,부축,건물,학교,장면,A씨,B씨,마지막,범행,일행,확인,수강,계절,학기,시험,사건,발생,전날,학교,A씨,당일,2시,시험,B씨,7시,분쯤,시험,파악,경찰,B씨,사인,확인,국립과학수사연구원,시신,부검,의뢰,경찰,관계자,A씨,범행,증거,시도,사실,조사,구체적,사건,경위,범행,동기,조사</t>
+        </is>
+      </c>
+      <c r="E606" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11354,7 +14384,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D607" t="n">
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>인정,인하대,여대,강간,치사범,혐의,현장,휴대전화,인하대,캠퍼스,여대,성폭행,학교,동급,혐의,인정,파악,미추홀경찰서,인천,혐의,강간치사,긴급,체포,인하대,A씨,경찰,조사,범죄,사실,인정,A씨,사고,현장,자신,휴대전화,현장,발견,경찰,탐문,수사,A씨,용의자,특정,경찰,A씨,범행,당일,15일,무렵,인하대,캠퍼스,5층,건물,여학생,대학,B씨,성폭행,B씨,창문,추락,사망,경찰,A씨,B씨,성폭행,창문,추락,여부,조사,B씨,옷가지,추락,장소,발견,추정,바지,속옷,A씨,증거인멸,시도,가능성,경찰,A씨,구속영장,신청,방침,A씨,B씨,마지막,범행,일행,확인,B씨,인하대,캠퍼스,행인,발견,머리,심정지,상태,병원,7시,경찰,관계자,A씨,경황,현장,사건,휴대전화,피해자,유가족,충격,구체적,사건,경위</t>
+        </is>
+      </c>
+      <c r="E607" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11372,7 +14407,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D608" t="n">
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>박지현,인하대,재학,성폭력,사망,사건,공범,가해자,허용,최고,처벌,박지현,더불어민주당,비상,대책,위원장,사건,인하대,재학,성폭행,사망,성폭력,성희롱,사건,발생,피해자,가해자,정치인들,구조,여성가족부,폐지,대통령,성착취물,유통,중범죄자,솜방망이,처벌,법원,사건,공범,16일,비대위원장,이날,페이스북,대학교,대학생,남성,동급,성폭행,추락,사망,학문,지성,대학교,발생,상상,비극,설명,사건,진상,가해자,허용,최고,처벌,대한민국,여성,안전,공간,공동체,여성,인격체,존중,여성,안전,사회,사회,합의,의문,공범,언론,자극적,보도,경쟁,선정적,단어들,남발,피해자,여대생,가해자,동급생,표현,피해자,피해자,피해자,피해자,여대생,호명,보도행태,피해자,가해,자각,실제,보도,몰지각,네티즌들,사이버,공간,피해자,모욕,혐오,발언,피해자,인권,보도윤리,보도,위원장,반복,참담,비극,입법부,행정부,피해자,보호,정책,사법부,처벌,피해자,죽음,발생,사회,죽음,정치인,대통령,판사,생각,언론,선정적,보도,뉴스장사,태도,비극,반복</t>
+        </is>
+      </c>
+      <c r="E608" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11390,7 +14430,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D609" t="n">
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>인하대생,화장실,인하대,정황,동급,증거,인멸,인하대,캠퍼스,여대,사건,경찰,지인,남성,조사,인천시,미추홀구,인하대,캠퍼스,피해,여대,발견,지점,인근,건물,계단실,폴리스라인,설치,인천,인하대,캠퍼스,여대,사망,사건,강간치사,혐의,긴급,체포,대학,동급,남성,증거인멸,시도,정황,포착,미추홀경찰서,인천,경찰,강간치사,혐의,대학생,20대,긴급,체포,조사,A씨,15일,동급생,20대,성폭행,혐의,B씨,학교,건물,발견,행인,여성,상태,경찰,신고,B씨,출혈,머리,부위,심정지,상태,119구급대,병원,3시간,7시,경찰,성폭행,B씨,3층,학교,건물,지상,추락,사망,A씨,범행,당일,15일,무렵,인하대,캠퍼스,단과,건물,B씨,대학,소속,성폭행,건물,창문,추락,혐의,A씨,신분,참고인,조사,수사,강간치사,혐의,피의자,신분,전환,입건,A씨,범행,B씨,범행,B씨,상대,범행,조사,경찰,조사,A씨,B씨,추정,바지,화장품,화장실,인근,건물,증거,정황,포착,B씨,부검,이날,국립과학수사연구원,진행,소견,부검,당일,경찰,전달,경찰,부검,의견,조서,피의자,진술,수사자료,검찰,구속영장,신청,방침,A씨,구속,피의자,심문,영장실질심사,17일,정은나리</t>
+        </is>
+      </c>
+      <c r="E609" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11408,7 +14453,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D610" t="n">
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>사건,인하대,사망,여대,발견,계단,인천시,미추홀구,소재,인하대,캠퍼스,건물,폴리스라인,설치,인천,인하대,캠퍼스,여대,사망,사건,남성,성폭행,인천미추홀경찰서,혐의,강간치사,대학생,20대,긴급,체포,조사중,A씨,이날,인하대,캠퍼스,건물,동급생,20대,성폭행,혐의,경찰,성폭행,B씨,3층,지상,추락,경찰,B씨,성폭행,3층,A씨,여부,조사,진행중,경찰,캠퍼스,폐쇄,회로,CC,TV,영상,B씨,직전,A씨,유력,용의자,조사,경찰,A씨,혐의,판단,피의자,신분,전환,A씨,B씨,학생,인하대,친분,파악,A씨,경찰조사,자신,범행,인정,경찰,B씨,사인,정확,파악,국립과학수사연구원,부검,의뢰,경찰,관계자,A씨,추가,조사,강간치사,혐의,구속영장,신청,방침,설명,이날,3시,캠퍼스,미추홀구,인하대,대학생,20대,행인,발견,B씨,신고,출동,119구급대,인근,병원,이송,이날,7시,B씨,수강생,인하대,계절,학기,수강,파악</t>
+        </is>
+      </c>
+      <c r="E610" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11426,7 +14476,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D611" t="n">
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>추락,여학생,화장품,증거,인멸,시도,사건,인하대,여학생,교내,사망,동급생,강간치사,혐의,체포,인하대,캠퍼스,여학생,대학교,건물,추락,사망,사건,강간치사,혐의,긴급,체포,피의자,증거,인멸,시도,정황,포착,인천미추홀경찰서,혐의,강간치사,대학,20대,긴급,체포,조사,A씨,이날,인하대,캠퍼스,건물,동급,성폭행,혐의,B씨,이날,3시,분쯤,건물,머리,주변,행인,발견,건물,병원,이송,결국,현장,정도,학교,B씨,추정,바지,화장품,발견,소지품,발견자,바지,검정,여자,바지,생각,JTBC,경찰,학교,CCTV,확보,B씨,A씨,건물,장면,확인,인근,CCTV,B씨,동선,파악,A씨,술자리,일행,조사,A씨,혐의,포착,경찰,A씨,B씨,B씨,정신,성범죄,B씨,사망,판단,범행,범행,학교,건물,사람,일행,경찰,A씨,경찰,조사,범행,자백,경찰,A씨,추가,조사,구속영장,신청,예정,경찰,B씨,부검,진행,정확,사건,경위,파악,방침</t>
+        </is>
+      </c>
+      <c r="E611" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11444,7 +14499,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D612" t="n">
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>삼성,자리,샤오미,무주공산,장악,9일,소치,러시아,남부,도시,올림픽공원,시민들,샤오미,중국,기업,주최,무비,로드,행사,참석,샤오미,영화,스튜디오,설치,시민들,러시아,시민,샤오미,스마트폰,스튜디오,영화,촬영,아이들,놀이,시설,공연,각종,음악,축제,분위기,행사장,진열,샤오미,제품,샤오미,지난달,카잔,중부,도시,행사,마케팅,러시아,시장,중국,러시아,시장,미소,글로벌,기업,철수,무주공산,無主空山,러시아,시장,중국,기업,접수,스마트폰,자동차,한국,기업,점유율,분야,중국,기업,약진,중국,기업,약진,시작,러시아,우크라이나,침공,기업,서방,글로벌,중심,러시아,시장,철수,움직임,통신,러시아,인테르팍스,180여개,해외,기업,러시아,상업,활동,러시아,상품,수출,중단,빈자리,기업,중국,카운터포인트리서치,미국,시장,조사,업체,카운터,포인트,리서치,5월,샤오미,리얼미,아너,오포,브랜드,중국,스마트폰,점유율,러시아,시장,점유,61%,기간,포인트,급증,1위,시장,점유,삼성전자,31%,18%,급감,애플,11%,5%,포천,경제,매체,러시아,우크라이나,침공,삼성,애플,시장,러시아,스마트폰,절반,차지,삼성,애플,러시아,수출,중단,빈자리,3개월,중국,브랜드,평가,현대,도요타,나이키,아디다스,브랜드,약진,중국,기업,약진,러시아,시장,분야,확산,시장,인포,러시아,자동차,시장,기관,아프토스타트,시장,기준,러시아,자동차,중국,자동차,점유율,16.9%,기간,6.9%,포인트,증가,러시아,25.2%,한국,24.7%,3위,3위,일본,12.3%,브랜드,중국,자동차,하포,哈佛,치루이,奇瑞,지리,吉利,자동차,인기,아프토스타트,인포,전문가,인용,서방,제재,현대,기아,닛산,도요타,인기,브랜드,러시아,가동,생산,공장,중단,중국,유리,고지,중국,자동차,러시아,시장,점유,증가,전망,패션,업계,중국,기업,진출,아디다스,푸마,지난달,나이키,철수,러시아,시장,선언,러시아,시장,브랜드,서방,스포츠,사실,전무,상황,중국,리닝,스포츠,브랜드,李寧,크라스노다르,러시아,남부,도시,스포츠,매장,진출,러시아,시장,공식화,리닝,모스크바,상트페테르부르크,매장,추가,개설,계획,코메르산트,러시아,매체,브랜드,서방,스포츠,자리,안타,安踏,스포츠,리닝,중국,브랜드,패션,중국,기업,러시아,시</t>
+        </is>
+      </c>
+      <c r="E612" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11462,7 +14522,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D613" t="n">
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>운동복,바지,Z세대,독서실룩,실속,패션,독서,실룩,주말,실용,동시,입는,1020세대,요즘,스타일,브랜드,로고,티셔츠,운동복,바지,스포티,디자인,샌들,배낭,12일,한양대,서울,성동구,한양대,차림,10대,20대,근처,스터디카페,모자,검정,야구,공부,불편,요새,이름,독서실,look,유행,스카,스터디카페,도서관룩,학원룩,패션,사이,요즘,유행,패션,트렌드,공부,친구,외출,자연,스타일,의미,패션,뷰티,커뮤니티,스타일쉐어,고객들,상반기,고객,구매,패턴,결과,독서,실룩,인기,Lee,브랜드,로고,티셔츠,아디다스,나이키,반바지,지프,러디칙스,합작,출시,야구,모자,독서실룩,포함,아이템들,독서실룩,해시태그,구매,후기,3000건,게재,스타일쉐어,쇼핑몰,온라인,의류,독서실룩,테마,기획전,독서실룩,마니아,브랜드,스포츠,캐주얼,챔피온,종류별,구매,브랜드,사이,인기,브랜드,식별,가능,로고,특징,챔피언,반소매,반바지,양말,여름,교복,의미,도서관,카페,에어컨,바람,어깨,용도,후드,집업,색깔별,이씨,독서실룩,중요,포인트,편안,이씨,코로나,편안,노출,친구들,사람들,올드,대학생,남자,친구,미국,명문,사립대,로고,티셔츠,커플룩,장만,최씨,독서실룩,의미,예전,원래,의미,아이돌,가수,사복,패션,공항,패션,후드티,트레이닝복,일종,트렌드,꾸안꾸,hip,편안,실용성,패션,고등학생,주부,이진영,딸아이,원래,사이즈,의아,부모,입장,학생,편안,흡족,독서실룩,사이,인기,인스타그램,소셜미디어,독서실룩,해시태그,OOTD,Outfit,오늘,Day,오늘,옷차림,인증샷,매일,패션크리에이터,쥬니뚜뗄라,지난달,유튜브,독서실,패션,영상,조회,50만,운영자,이지은,영상,남색,후드티,바지,회색,트레이닝복,캐주얼,티셔츠,청반바지,독서실룩,추천,독서실룩,실용적,추구,Z세대,특성,반영,트렌드,무신사,관계자,실용적,편안,패션,추구,원마일,웨어,실내,근처,반경,1.6,스타일,라이프,스타일,독서실룩,탄생,이은희,인하대,소비자학,교수,Z세대,코로나,유행,편안,옷차림,독서실룩,진화,느낌,나름,추구,인스타그램,소셜미디어,공유,특징</t>
+        </is>
+      </c>
+      <c r="E613" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11480,7 +14545,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D614" t="n">
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>추락사,여대,캠퍼스서,성폭행,혐의,동급,체포,계절,학기,시험,학교건물,경찰,조사,15일,인천,인하대,캠퍼스,건물,여대,성폭행,3층,추락,경찰,학생,지인,남성,강간치사,혐의,긴급체포,인천,미추홀경찰서,이날,미추홀구,인하대,캠퍼스,입구,학교,행인,발견,경찰,신고,발견,발견,머리,심정지,상태,인근,병원,7시,사망,판정,경찰,대학,남성,남성,성폭행,추락,긴급체포,경찰,성폭행,조사,경찰,발견,2시간,이날,건물,모습,폐쇄회로,CC,TV,확보,여름방학,학교,수업,계절,학기,대면,시험,학교,파악,사람,소속,평소,사건,발생,건물,사람,확인,경찰,관계자,마지막,참고인,조사,범죄,혐의,판단,체포,조사,혐의,인정,경찰,전담수사팀,편성,정확,사건,경위,조사,한편,한편,구속영장,신청,계획,사인,확인,국립과학수사연구원,시신,부검,의뢰,사건,발생,건물,야간,학생증,인증,구조,경비,인력,관제실,평소,통합,본관,교내,CCTV,CCTV,장소,사건,발생,파악</t>
+        </is>
+      </c>
+      <c r="E614" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11498,7 +14568,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D615" t="n">
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>사건,인하대,사망,체포,학교,남학생,강간치사,혐의,경찰,인하대학교,대학,성폭행,혐의,학생,학교,긴급체포,인하대,학과,확인,인천,미추홀경찰서,강간치사,혐의,A씨,긴급체포,조사,15일,A씨,이날,인천,미추홀구,인하대,캠퍼스,학교,학생,B씨,성폭행,혐의,B씨,학교,머리,심정지,상태,발견,구급대,B씨,병원,3시간,7시,결국,경찰,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,경찰,A씨,성폭행,B씨,여부,조사,A씨,B씨,그동안,진행,계절학기,대면,시험,등교,A씨,당일,2시,B씨,시험,파악,사람,평소,동아리,활동,이날,술자리,A씨,B씨,사망,학교,건물,경찰,사건,발생,건물,학교,A씨,이외,학생,경찰,참고인,신분,조사,A씨,혐의,시인,피의자,신분,전환,집중,추궁,경찰,관계자,B씨,부검,의뢰,정확,사망,경위,파악,A씨,B씨,조사,경찰,A씨,추가,조사,구속,영장,신청,방침</t>
+        </is>
+      </c>
+      <c r="E615" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11516,7 +14591,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D616" t="n">
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>인하대,수사,여학생,경찰,인천,인하대학교,캠퍼스,여학생,병원,경찰,여대생,대학,신병,확보,조사,인천,미추홀경찰서,15일,캠퍼스,미추홀구,인하대,A씨,학교,학생,행인,발견,신고,A씨,발견,행인,여성,길가,신고,A씨,출혈,머리,부위,심정지,상태,구급대,병원,3시간,7시,결국,경찰,대학,폐쇄회로,CC,TV,목격자,상대,정확,사건,경위,조사,A씨,대학,신병,확보,조사,경찰,관계자,여학생,폭행,여부,조사,인하대,관계자,방학,A씨,학교,여부</t>
+        </is>
+      </c>
+      <c r="E616" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11534,7 +14614,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D617" t="n">
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>인하대,캠퍼스,여성,경찰,조사,착수,머리,여성,인하대,캠퍼스,나체,상태,경찰,조사,여성,심정지,상태,병원,이송,인천,소방본부,이날,3시,분쯤,인천,미추홀구,인하대,캠퍼스,여성,신고,경찰,접수,신고,전달,출동,여성,추정,A씨,머리,출혈,심정지,상태,구급대,A씨,심폐소생술,인천,남동구,대학병원,이송,경찰,사건,경위,조사,경찰,관계자,구체적</t>
+        </is>
+      </c>
+      <c r="E617" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11552,7 +14637,12 @@
           <t>경향신문</t>
         </is>
       </c>
-      <c r="D618" t="n">
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>인하대,캠퍼스,참변,여대,3층,추락사,추정,강간치사,혐의,체포,남자,동급,경찰,부검,조사,경찰,인하대학교,여대,성폭행,혐의,남학생,학교,긴급체포,인하대,학과,확인,인천,미추홀경찰서,강간치사,혐의,A씨,긴급체포,조사,15일,A씨,이날,3시,분쯤,인하대,캠퍼스,학교,학생,B씨,성폭행,혐의,B씨,학교,머리,심정지,상태,발견,119구급대,B씨,병원,3시간,7시,경찰,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,경찰,A씨,성폭행,B씨,여부,조사,A씨,B씨,그동안,진행,계절학기,시험,등교,A씨,당일,2시,B씨,7시,분쯤,시험,파악,사람,동아리,활동,이날,술자리,A씨,B씨,사망,학교,건물,경찰,건물,학교,학생,경찰,참고인,신분,조사,A씨,혐의,시인,피의자,신분,전환,집중,추궁,경찰,관계자,B씨,부검,사망,경위,파악,A씨,B씨,조사,경찰,조사,구속,영장,신청,방침</t>
+        </is>
+      </c>
+      <c r="E618" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11570,7 +14660,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D619" t="n">
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>인하대,사건,피해자,결국,건물,추락,15일,여학생,상태,머리,발견,건물,인천시,미추홀구,인하대,공대,폴리스,라인,설치,인천,뉴스1,캠퍼스,인천,인하대,머리,발견,여대생,결국,사망,경찰,대학,남학생,긴급체포,조사,미추홀경찰서,이날,인천,A씨,이날,3시,분쯤,캠퍼스,미추홀구,인하대,학교,여학생,B씨,성폭행,혐의,경찰,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,A씨,성폭행,B씨,여부,조사,이날,3시,분쯤,길가,인하대,캠퍼스,B씨,행인,발견,신고,B씨,심정지,상태,병원,이송,7시,사망,B씨,발견,건물,대학,공대,2호관,사잇길,주년,기념관,행인,신고,신고,여성,A씨,B씨,재학생,대학,재학,계절학기,수강,비대면,진행,사람,계절,학기,시험,등교,A씨,당일,2시,B씨,7시,분쯤,시험,A씨,B씨,사망,학교,건물,경찰,범행,범행,학교,건물,A씨,이외,학생,파악,사람,학부,경찰,참고인,신분,A씨,혐의,시인,피의자,신분,전환,조사,진행,A씨,추가,조사,구속영장,신청,방침,국립과학수사연구원,B씨,시신,부검,의뢰</t>
+        </is>
+      </c>
+      <c r="E619" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11588,7 +14683,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D620" t="n">
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>사망,인하대,여대,강간치사,혐의,체포,15일,인천,인하대,캠퍼스,건물,여대,성폭행,3층,추락,경찰,학생,지인,남성,강간치사,혐의,긴급체포,인천,미추홀경찰서,이날,미추홀구,인하대,캠퍼스,입구,학교,행인,발견,경찰,신고,발견,발견,머리,심정지,상태,인근,병원,7시,사망,판정,경찰,대학,남성,남성,성폭행,추락,긴급체포,경찰,성폭행,여부,조사,경찰,발견,2시간,이날,건물,모습,폐쇄회로,CC,TV,확보,여름방학,학교,수업,계절,학기,대면,시험,학교,파악,사람,소속,평소,사건,발생,건물,사람,여부,확인,경찰,관계자,마지막,참고인,조사,범죄,혐의,판단,체포,조사,혐의,인정,경찰,전담수사팀,편성,정확,사건,경위,조사,한편,한편,구속영장,신청,계획,사인,확인,국립과학수사연구원,시신,부검,의뢰,사건,발생,건물,야간,학생증,인증,구조,경비,인력,관제실,평소,통합,본관,교내,CCTV,CCTV,장소,사건,발생,파악</t>
+        </is>
+      </c>
+      <c r="E620" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11606,7 +14706,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D621" t="n">
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>사망,인하대,교내,사건,경찰,참고인,조사,남학생,긴급,체포,인하대,캠퍼스,발생,사건,여대,사망,경찰,남학생,학교,강간치사,혐의,긴급체포,인천,미추홀경찰서,20,마지막,남학생,참고인,조사,범죄,혐의,긴급체포,15일,경찰,ㄴ씨,이날,인천,미추홀구,인하대,교내,학교,ㄱ씨,성폭행,의심,ㄱ씨,이날,3시,분께,학교,강의동,머리,의식,상태,발견,행인,신고,출동,119구조,ㄱ씨,인근,병원,결국,경찰,주변,폐회로텔레비전,확보,ㄱ씨,동선,확인,강의동,ㄴ씨,모습,포착,ㄴ씨,참고인,신분,조사,범죄,혐의,판단,경찰,ㄱ씨,강의동,추락,추정,ㄱ씨,ㄴ씨,재학생,학교,재학,학과,경찰,정확,사망,원인,ㄱ씨,부검,국립과학수사연구원,의뢰,한편,ㄴ씨,상대,ㄱ씨,조사,경찰,관계자,현장,감식,진행,ㄴ씨,추가,조사,구속영장,신청,방침,수사,구체적</t>
+        </is>
+      </c>
+      <c r="E621" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11624,7 +14729,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D622" t="n">
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>사망,인하대,여대,남학생,강간치사,혐의,긴급,체포,인하대,캠퍼스,발생,사건,여대,사망,수사,경찰,여대생,마지막,순간,남성,긴급체포,인천미추홀경찰서,혐의,강간치사,인하대,학생,20대,긴급체포,조사,A씨,이날,인하대,캠퍼스,여학생,20대,성범죄,건물,혐의,경찰,이날,3시,분쯤,B씨,머리,행인,발견,신고,상태,B씨,인근,병원,이송,7시,경찰,학교,CCTV,B씨,직전,A씨,유력,용의자,수사,경찰,조사,결과,B씨,인하대,확인,경찰,관계자,B씨,추가,조사,강간치사,혐의,구속영장,신청,방침</t>
+        </is>
+      </c>
+      <c r="E622" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11642,7 +14752,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D623" t="n">
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>사망,인하대,여대,동급,강간,혐의,체포,학교,동급생,범행,자백,인하대,캠퍼스,발생,사건,여대,사망,수사,경찰,15일,대학교,동급,남학생,체포,인천,미추홀경찰서,이날,여성,인하대,여성,사건,수사,지인,남성,강간치사,혐의,긴급체포,경찰,이날,인천시,미추홀구,인하대,캠퍼스,강간범행,시도,추락,수사,사망,마지막,이날,인하대,캠퍼스,자세,행인,발견,머리,상태,심정지,상태,119구급대,병원,경찰,사건,발생,이날,경찰,연락,참고인,신분,조사,혐의,확인,피의자,신분,전환,경찰,조사,범행,자백,경찰,상대,정확,사건,경위,범행,동기,추가,조사,구속,영장,신청,방침,경찰,관계자,사건,발생,수사전담반,편성,신병,확보,시신,부검,정확,사망,경위,확인,예정</t>
+        </is>
+      </c>
+      <c r="E623" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11660,7 +14775,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D624" t="n">
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>사건,인하대,사망,20대,긴급체포,강간치사,혐의,긴급,체포,경찰,피의자,조사,체포,학교,남성,인하대,캠퍼스,발생,사건,여성,사망,수사,경찰,15일,남학생,학교,긴급,체포,인천,미추홀경찰서,A씨,남성,강간치사,혐의,긴급체포,경찰,용의자,A씨,피의자,신분,전환,조사,경찰,A씨,이날,인천시,미추홀구,인하대,캠퍼스,지인,B씨,여성,성폭행,사망,경찰,A씨,상대,구체적,사건,경위,범행,동기,추가,확인,구속영장,신청,방침,경찰,B씨,3층,추락,사망,추정,경찰,B씨,구체적,경위,조사,A씨,B씨,사망,마지막,조사,범행,범행,학교,건물,일행,확인,수강,계절,학기,시험,사건,발생,전날,학교,파악,A씨,사건,발생,경찰,연락,경찰,A씨,참고인,신분,조사,혐의,확인,피의자,신분,전환,A씨,경찰,범행,자백,B씨,이날,인하대,캠퍼스,행인,발견,B씨,머리,119구급대,병원,경찰,관계자,사건,발생,수사전담반,편성,시신,부검,정확,사망,경위,확인,예정</t>
+        </is>
+      </c>
+      <c r="E624" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11678,7 +14798,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D625" t="n">
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>인하대,발견,여대생,학교,남성,긴급,체포,사진,뉴시스,인하대학교,캠퍼스,발견,여대,사망,사건,수사,경찰,용의자,특정,A씨,남성,강간치사죄,적용,긴급체포,여성,마지막,파악,인천,미추홀경찰서,15일,사건,학교,A씨,남학생,강간치사,혐의,체포,조사,A씨,캠퍼스,미추홀구,인하대,평소,혐의,경찰,사건,발생,A씨,연락,참고인,조사,정도,혐의,확인,피의자,신분,전환,경찰,수사,전담,B씨,동행,술자리,A씨,용의자,특정,B씨,이날,3시,분쯤,인하대,캠퍼스,상태,행인,발견,노상,자세,머리,심정지,상태,119구급대,병원,B씨,조사,결과,학생,학교,계절,학기,강의,수강,대면,온라인,수업,경찰,추후,부검,피해자,사망,경위,확인,한편,상대,정확,사건,경위,조사,구속영장,신청,방침</t>
+        </is>
+      </c>
+      <c r="E625" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11696,7 +14821,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D626" t="n">
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>인하대,여학생,사망,사건,동급생,강간치사,혐의,긴급체포,경찰,피해자,성폭행,3층,추락,사망,추정,인하대,캠퍼스,발생,사건,여대,사망,수사,경찰,신분,피의자,조사,남학생,학교,강간치사,혐의,긴급체포,인천,미추홀경찰서,이날,남성,강간치사,혐의,긴급체포,경찰,A씨,이날,인천시,미추홀구,인하대,캠퍼스,동급생,B씨,여성,성폭행,혐의,경찰,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,경찰,A씨,B씨,성폭행,건물,조사,A씨,B씨,마지막,범행,범행,건물,일행,확인,사람,수강,계절,학기,시험,14일,학교,파악,경찰,이날,사망,A씨,연락,참고인,신분,조사,혐의,확인,피의자,신분,전환,A씨,경찰,혐의,인정,범행,자백,B씨,이날,인하대,캠퍼스,행인,발견,머리,B씨,심정지,상태,119구급대,병원,경찰,A씨,상대,정확,사건,경위,추가,확인,구속영장,신청,방침,B씨,정확,사망,원인,확인,국립과학수사연구원,시신,부검,의뢰</t>
+        </is>
+      </c>
+      <c r="E626" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11714,7 +14844,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D627" t="n">
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>사망,인하대,여대,동급,강간치사,혐의,긴급,체포,성폭행,경찰,자백,용의자,남학생,특정,경찰,성폭행,B씨,3층,추락,사망,인하대,캠퍼스,여대,사망,사건,용의자,대학,남학생,인천미추홀경찰서,혐의,강간치사,A씨,남성,긴급체포,경찰,수사,전담,편성,여대,동행,술자리,A씨,남성,용의자,특정,확보,폐쇄회로,CC,TV,자료,B씨,인하대,여대,동선,파악,마지막,행적,A씨,임의동행,참고인,조사,A씨,이날,인천,미추홀구,인하대,캠퍼스,지인,B씨,여성,성폭행,혐의,B씨,사망,마지막,확인,경찰,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,경찰,A씨,상대,성폭행,B씨,여부,A씨,B씨,마지막,범행,일행,확인,수강,계절,학기,시험,사건,발생,전날,학교,A씨,당일,2시,B씨,시험,파악,경찰,A씨,혐의,피의자,신분,전환,A씨,B씨,인하대,학생,사이,파악,경찰,사건,발생,A씨,연락,참고인,신분,조사,혐의,확인,피의자,신분,전환,A씨,경찰,범행,자백,B씨,이날,인하대,캠퍼스,행인,발견,머리,심정지,상태,119구급대,병원,경찰,A씨,상대,정확,사건,경위,범행,동기,추가,확인,구속,영장,신청,방침,경찰,관계자,사건,발생,수사전담반,편성,A씨,신병,확보,시신,부검,정확,사망,경위,확인,예정</t>
+        </is>
+      </c>
+      <c r="E627" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11732,7 +14867,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D628" t="n">
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>사망,인하대,여대,동급생,강간치사,혐의,긴급,체포,종합2보,피해자,성폭행,3층,추락,추정,인천,미추홀경찰서,인하대,캠퍼스,발생,여대,사망,사건,동급생,학교,동급,A씨,남성,강간치사,혐의,긴급체포,15일,A씨,이날,피해자,마지막,인물,A씨,이날,인천시,미추홀구,인하대,캠퍼스,지인,B씨,성폭행,혐의,경찰,사건,발생,A씨,연락,참고인,신분,조사,혐의,확인,피의자,전환,A씨,경찰,조사,범행,자백,경찰,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,경찰,A씨,상대,성폭행,B씨,여부,조사,A씨,B씨,마지막,범행,일행,확인,수강,계절,학기,시험,사건,발생,전날,학교,A씨,당일,2시,B씨,시험,조사,B씨,이날,캠퍼스,상태,모습,행인,발견,경찰,신고,119구급대,도착,병원,경찰,A씨,상대,정확,사건,경위,범행,동기,추가,확인,구속영장,신청,방침,경찰,관계자,사건,발생,수사전담반,편성,A씨,신병,확보,시신,부검,정확,사망,경위,확인,예정</t>
+        </is>
+      </c>
+      <c r="E628" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11750,7 +14890,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D629" t="n">
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>경찰,여대생,인하대,사망,여대,남학생,긴급,체포,인천시,미추홀구,인하대,캠퍼스,건물,계단,폴리스라인,설치,경찰,인하대,여대,남학생,긴급,체포</t>
+        </is>
+      </c>
+      <c r="E629" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11768,7 +14913,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D630" t="n">
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>인하대,여대,교내,사망,학교,피의자,조사,인하대,캠퍼스,사건,여대,사망,수사,경찰,15일,학교,남학생,피의자,신분,전환,조사,인천,미추홀경찰서,사건,여대,사망,A씨,남성,조사,A씨,인천시,미추홀구,인하대,캠퍼스,지인,B씨,여성,혐의,A씨,B씨,사망,마지막,파악,경찰,사건,발생,A씨,연락,참고인,신분,조사,정도,혐의,확인,피의자,신분,전환,경찰,A씨,살인혐의,적용,치사,혐의,적용,B씨,이날,3시,분쯤,인하대,캠퍼스,행인,발견,머리,심정지,상태,119구급대,병원,경찰,A씨,상대,정확,사건,경위,범행,동기,추가,확인,구속,영장,신청,검토,경찰,관계자,피해자,마지막,남성,신병,확보,조사,사건,용의자,조사</t>
+        </is>
+      </c>
+      <c r="E630" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11786,7 +14936,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D631" t="n">
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>인하대,여대,동급,강간치사,혐의,체포,인하대,캠퍼스,사건,여대,사망,수사,경찰,15일,학교,남학생,강간치사,혐의,긴급체포,인천미추홀경찰서,혐의,강간치사,A씨,남성,긴급체포,경찰,A씨,이날,인천시,미추홀구,인하대,캠퍼스,건물,지인,B씨,여성,성폭행,사망,혐의,경찰,학교,건물,성폭행,B씨,3층,지상,추락,사망,추정,경찰,A씨,상대,성폭행,B씨,여부,조사,경찰,수사,전담,편성,B씨,동행,술자리,A씨,용의자,특정,확보,폐쇄회로,CC,TV,자료,B씨,동선,파악,마지막,행적,A씨,임의동행,참고인,조사,결과,혐의,피의자,신분,전환,A씨,B씨,사이,파악,A씨,B씨,마지막,범행,일행,수강,계절,학기,시험,사건,발생,학교,A씨,당일,2시,B씨,7시,분쯤,시험,파악,경찰,B씨,사망,A씨,연락,참고인,신분,조사,혐의,확인,피의자,신분,전환,A씨,경찰,혐의,인정,범행,자백,B씨,이날,3시,분쯤,인천시,미추홀구,인하대,캠퍼스,행인,발견,B씨,머리,출혈,심정지,상태,119구급대,병원,경찰,국과수,B씨,부검,의뢰,한편,A씨,상대,정확,사건,경위,범행,동기,추가,확인,구속,영장,신청,방침,경찰,유가족,보호,심리,치료,지원,만전,예정</t>
+        </is>
+      </c>
+      <c r="E631" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11804,7 +14959,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D632" t="n">
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>인하대,여대,타살,정황,조사,학교,남학생,피의자,종합,사망,마지막,경찰,연락,인하대,캠퍼스,여대생,발견,사건,경찰,15일,학교,남학생,피의자,신분,전환,조사,학생,사망,여대생,마지막,인물,경찰,연락,파악,인천,미추홀경찰서,이날,인천시,미추홀구,인하대,캠퍼스,지인,여성,혐의,A씨,남성,조사,A씨,B씨,사망,마지막,조사,경찰,A씨,사건,발생,연락,참고인,신분,조사,정도,혐의,확인,피의자,신분,전환,경찰,A씨,살인,혐의,적용,치사,혐의,적용,결정,B씨,이날,캠퍼스,상태,모습,행인,발견,경찰,신고,119구급대,도착,병원,경찰,A씨,상대,정확,사건,경위,범행,동기,추가,확인,구속,영장,신청,검토</t>
+        </is>
+      </c>
+      <c r="E632" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11822,7 +14982,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D633" t="n">
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>인하대,여대,타살,정황,용의자,남학생,학교,15일,여학생,상태,머리,발견,건물,인천시,미추홀구,인하대,공대,폴리스,라인,설치,인천,뉴스1,인하대,캠퍼스,나체,상태,여대,사망,사건,수사,경찰,정황,타살,포착,학교,남학생,피의자,신분,전환,조사,인천,미추홀경찰서,이날,여성,사건,마지막,지인,B씨,남성,신병,확보,용의자,조사,B씨,인하대,재학,A씨,사망,마지막,인물,경찰,사건,발생,B씨,연락,참고인,신분,조사,정도,혐의,확인,피의자,신분,전환,경찰,B씨,살인,혐의,적용,치사,혐의,적용,경찰,B씨,상대,정확,사건,경위,확인,살인,혐의,체포,방침,경찰,캠퍼스,폐쇄회로,CC,TV,영상,범죄,혐의,포착,용의자,특정,A씨,이날,인천시,미추홀구,인하대,캠퍼스,신고,접수,신고자,행인,여성,상태,경찰,신고,A씨,출혈,머리,부위,심정지,상태,119구급대,병원,치료,도중,재학생,대학,재학,비대면,진행,계절학기,수강,파악,정은나리</t>
+        </is>
+      </c>
+      <c r="E633" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11840,7 +15005,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D634" t="n">
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>대학산악인들,도전,기회,중요,회장,인채권,한국대학산악연맹,창립,주년,기념,출국,알프스원정대,격려,등정,경험,대학생,도전,기회,중요,인채권,한국대학산악연맹,회장,연맹,창립,주년,기념,출국,알프스,원정대,배웅,희망,강조,원정대,이날,알피니즘,샤모니,발원지,프랑스,원정,단장,견연수,인하대,산악부81,원정,대장,박영식,경희대,산악부90,등반,대장,윤인혁,경희대,산악부,이보라,세종대,포함,대학,15명,구성,회장,50주년,창립,주년,원정대,예정,코로나,사태,연기,원정,대학,산악부,재학,중심,스포츠,클라이밍,산악전문지도사,동계,토왕폭,빙벽,등반,경험,소유자들,구성,원정대,원정,기간,24일,샤모니,체르마트,빙하,구간,시작,알프스,몬테로사,두포우르슈피체,4634m,포함,연속,등반,빙하,빙설,지대,통과,극복,1800m,고도차,원정,프랑스,아웃도어,브랜드,밀레,MILLET,의류,장비,후원,회장,몽블랑,등정,알피니즘,발상지,알프스,지역,난이,등반,알피니즘,역사,현대적,흐름,파악,산악,활동,미래비전,탐구,알프스,특성,트레킹,암벽,설벽,암릉,설능,혼재,등산기술,필수적,강조,대학산악연맹,창립,아카데미,등산,개최,등산,습득,전파,해외,원정대,지속,파견,회장,침체,재임,기간,육성,대학,산악부,부활,양성,리더급,산악부원,노력,예정</t>
+        </is>
+      </c>
+      <c r="E634" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11858,7 +15028,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D635" t="n">
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>인하대,여학생,사망,사건,학교,피의자,조사,인하대,캠퍼스,발생,사건,여대,사망,수사,경찰,15일,학교,남학생,피의자,신분,조사,인천,미추홀경찰서,이날,여대,사망,사건,A씨,남성,조사,A씨,이날,인천시,미추홀구,인하대,캠퍼스,지인,B씨,여성,혐의,A씨,B씨,사망,마지막,파악,경찰,이날,연락,참고인,신분,조사,정도,혐의,확인,피의자,신분,전환,경찰,A씨,살인,혐의,적용,치사,혐의,적용,B씨,이날,인하대,캠퍼스,행인,발견,B씨,머리,B씨,심정지,상태,119구급대,병원,경찰,A씨,상대,정확,사건,경위,범행,동기,추가,확인,구속,영장,신청,검토,방침</t>
+        </is>
+      </c>
+      <c r="E635" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11876,7 +15051,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D636" t="n">
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>인하대,정황,여학생,타살,유력,용의자,피의자,전환,조사,여대,추락,사망,사건,인천시,미추홀구,인하대,캠퍼스,발견,지점,혈흔,자국,인천,경찰,인하대,여대,사망,사건,타살,정황,포착,유력,용의자,남성,피의자,신분,전환,조사,인천,미추홀경찰서,피해자,지인,A씨,남성,유력,용의자,조사,15일,A씨,이날,인천시,미추홀구,인하대,캠퍼스,지인,B씨,여성,혐의,B씨,사건,발생,마지막,A씨,파악,경찰,확보,폐쇄회로,CC,TV,영상,B씨,동선,파악,마지막,행적,A씨,확인,경찰,사건,발생,A씨,연락,참고인,신분,조사,정도,혐의,확인,피의자,신분,전환,B씨,이날,3시,분쯤,길가,인하대,캠퍼스,행인,발견,상태,알몸,발견,머리,출혈,심정지,상태,구급대,병원,3시간,7시,경찰,A씨,상대,정확,사건,경위,범행,동기,추가,확인,구속,영장,신청,검토,방침,경찰,관계자,피해자,마지막,남성,신병,확보,조사,사건,용의자,조사</t>
+        </is>
+      </c>
+      <c r="E636" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11894,7 +15074,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D637" t="n">
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>인하대,여대,사망,사건,학교,피의자,조사,인하대,캠퍼스,여대생,사망,사건,수사,경찰,15일,학교,남학생,피의자,신분,전환,조사,인천,미추홀경찰서,사건,여대,사망,인천시,미추홀구,인하대,캠퍼스,A씨,남성,조사,A씨,사망,여대,지인,마지막,파악,경찰,사건,발생,A씨,연락,참고인,신분,조사,정도,혐의,확인,피의자,신분,전환,경찰,A씨,살인,혐의,적용,치사,혐의,적용</t>
+        </is>
+      </c>
+      <c r="E637" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11912,7 +15097,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D638" t="n">
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>여학생,인하대,경찰,체포,동급,긴급,경찰,조사피해자,남학생,강간치사,혐의,조사,피해자,성폭행,건물,추락,인하대,교내,상태,심정지,발견,여학생,학교,남학생,결과,경찰,수사,인천,미추홀경찰서,새벽,교내,A씨,여성,상대,성범죄,혐의,강간치사,B씨,남성,체포,긴급,경찰,A씨,학교,건물,성폭행,3층,도로,추락,사망,B씨,완력,추락,여부,확인,B씨,A씨,마지막,유력,용의자,지목,A씨,병원,경찰,연락,조사,경찰,B씨,상대,범행,동기,방법,조사,국립과학수사연구원,시신,부검,의뢰,사망,원인,확인,방침,사람,수강,계절,학기,시험,학교,사건,발생,술자리,동석자,파악,경찰,관계자,사고,현장,주변,폐쇄,회로,CC,TV,현장,확보,증거물,토대,조사,결과,범죄,혐의,체포,수사,마무리,대로,구속,영장,신청,B씨,경찰,수사망,범행,자백,A씨,이날,후문,도로,미추홀구,인하대,캠퍼스,내부,후문,행인,발견,발견,머리,출혈,심정지,상태,119구급대,병원,알몸,상태,주변,옷가지,발견,교내,범죄,사건,주민,학생들,불안감,대학교,발생,사실,불안,인하대,캠퍼스,담장,평소,취객들,소란,사건사고,인하대,관계자,재학생,사실,학생들,학내,분위기</t>
+        </is>
+      </c>
+      <c r="E638" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11930,7 +15120,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D639" t="n">
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>인하대,사망,남성,피의자,전환,경찰,캠퍼스,인천,인하대,여성,사망,사건,타살,정황,포착,인천미추홀경찰서,이날,여성,사건,A씨,직전,B씨,남성,조사,15일,A씨,용의자,피의자,신분,전환,경찰,관계자,피해자,마지막,남성,신병,확보,조사,수사,사항,경찰,B씨,A씨,사망,마지막,추정,B씨,이날,경찰,연락,조사,경찰,확보,CCTV,A씨,동선,파악,마지막,행적,B씨,확인,A씨,이날,3시,분쯤,길가,인천시,미추홀구,인하대,캠퍼스,행인,발견,A씨,머리,출혈,119구급대,병원,3시간,7시,A씨,조사,결과,계절,학기,강의,수강,온라인,수업,파악,인하대,관계자,A씨,학교,기숙사,재학생,파악,경위,학교,방문,사항,자체적,조사,경찰,B씨,상대,구체적,사건,경위,확인,구속,영장,신청,검토,계획</t>
+        </is>
+      </c>
+      <c r="E639" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11948,7 +15143,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D640" t="n">
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>미국,수퍼,긴축,성장,샌드위치,한국,경제,베이징,상하,봉쇄,영향,경제성장률,중국,경제,성장,0%대,성장,고사,성장,전망,직격탄,경제,한국,미국,수퍼,긴축,중국,성장,내리막,수입,수출,상황,중국,국가,통계국,중국,성장,전년동기대비,0.4%,기록,역성장,코로나19,사태,최악,성적표,기록,6.8%,수치,시장,예측,통신,로이터,50명,경제,전문가,대상,조사,전망치,성장,전망,평균,1.0%,중국,성장,2분기,7.9%,3분기,4.9%,4분기,4.0%,약세,당국,경기,부양,4.8%,반등,2분기,결국,0.4%,분기,대비,2.6%,뒷걸음,성장률,중국,성장,5월,도시,봉쇄,정책,방역,정책,중국,정책,제로,코로나,고수,3월,중국,전역,오미크론,변이,확산,경제,중심지,상하이시,베이징시,선전시,저장성,장쑤성,지린성,봉쇄,지표,소매,판매,감소세,전년,동기,대비,0.8%,성장률,성적표,중국,상반기,경제,성장,2.5%,중국,당국,제시,경제,성장,5.5%,절반,시장,전문가들,성장,예상,연구원,최설화,메리츠증권,4.5%,정도,5.0%,5%,연간,성장,흐름,성장,사실,상황,이날,중국,소매,판매,3.1%,증가,5월,6.7%,개선,이달,중국,코로나19,감염자,추세,감염력,오미크론,하위,조치,방역,시행,상황,최설화,연구원,6월,개선,수치,코로나19,재확산,7월,둔화,여파,시장,급랭,아파트,분양,좌초,내부적,이슈들,반등,상황,설명,중국,실업률,청년,실업,역대,최고,19.3%,전망,요인,중국,경제,한국,경제,불안,징후,중국,한국,최대,수출국,한국무역협회,한국,대중국,수출,1~5월,684억,달러,수출,23.4%,차지,신흥경제부장,이치훈,국제,금융,센터,신흥,경제,부장,중국,홍콩,수출,미국,유럽,일본,비중,중국,성장,저하,심리,한국,경제,위축,수출,회복세,제한,요인,작용,설명,미국,속도,금리,인상,중국,성장률,하락,샌드위치,상황,한국,경제,걱정,요인,지난달,소비자,물가,9.1%,미국,수퍼,긴축,예고,원화,가치,하락,외환시장,이날,서울,외환,시장,달러,원화,가치,1326원,거래일,14원,종가,기준,최저,원화가치,원자재,수입,비용,압력,물가,상승,정인교,인하대,국제통상학,교수,불안,달러,환율,글로벌,공급난,수입비용,중국,성장,둔화,수출,요인,환경,거시,경제,한국,경제</t>
+        </is>
+      </c>
+      <c r="E640" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11966,7 +15166,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D641" t="n">
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>인하대,캠퍼스,여대생,20대,신병,확보,인하대,캠퍼스,여대,사망,사건,수사,경찰,남성,신병,확보,조사,인천미추홀경찰서,이날,여성,사건,A씨,직전,B씨,남성,유력,용의자,조사,경찰,B씨,A씨,사망,마지막,추정,경찰,확보,폐쇄회로,CC,TV,A씨,동선,파악,마지막,행적,B씨,파악,B씨,이날,경찰,연락,조사,A씨,이날,3시,분쯤,인천시,미추홀구,인하대,캠퍼스,행인,발견,A씨,머리,출혈,심정지,상태,119구급대,병원,경찰,B씨,상대,정확,사건,경위,확인,살인,혐의,체포,수사,방침,경찰,관계자,피해자,마지막,남성,신병,확보,조사,수사,사항</t>
+        </is>
+      </c>
+      <c r="E641" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11984,7 +15189,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D642" t="n">
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>사망,인하대,여대,사망,20대,조사중,조사,캠퍼스,인천,인하대,여대,사망,사건,수사,경찰,정황,타살,포착,인천,미추홀경찰서,이날,사건,여성,지인,남성,용의자,조사,경찰,관계자,피해자,마지막,남성,신병,확보,용의자,조사,경찰,확보,폐쇄회로,CC,TV,동선,파악,마지막,행적,확인,인하대,사망,마지막,인물,이날,경찰,연락,조사,경찰,유력,용의자,조사,살인,혐의,체포,수사,방침,사망,구체,경찰,수사,사항,이날,인하대,캠퍼스,머리,발견,강의실,캠퍼스,건물,노상,자세,행인,발견,행인,신고,요청,경찰,공동,대응,119구급대,병원,발견,3시간,7시,사망,조사,결과,계절,학기,강의,수강,온라인,수업,파악,인하대,관계자,학교,기숙사,재학생,파악,경위,학교,방문,사항,자체적,조사</t>
+        </is>
+      </c>
+      <c r="E642" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12002,7 +15212,12 @@
           <t>서울신문</t>
         </is>
       </c>
-      <c r="D643" t="n">
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>인하대,캠퍼스서,발견,사망,여학생,발견,발견,상태,이송,심정지,상태,대학,캠퍼스,머리,발견,여학생,병원,이송,경찰,이날,3시,분쯤,인천,미추홀구,인하대,캠퍼스,머리,상태,발견,A씨,여성,119구급대,병원,이송,치료,A씨,상태,머리,행인,A씨,발견,신고,A씨,요청,경찰,공동,대응,119구급대,병원,A씨,이송,이송,심정지,상태,학생,경찰,조사,결과,인하대,확인,A씨,병원,치료,경찰,대학,폐쇄회로,CC,TV,목격자,확보,정확,사건,경위,조사,경찰,관계자,범죄,혐의,수사,구체적</t>
+        </is>
+      </c>
+      <c r="E643" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12020,7 +15235,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D644" t="n">
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>기사삭제,비대면,수업,학교,인하대,여대,정은나리</t>
+        </is>
+      </c>
+      <c r="E644" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12038,7 +15258,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D645" t="n">
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>인하대,여대생,인천,대학교,캠퍼스,여대,치료,경찰,수사,인천,소방본부,미추홀경찰서,이날,인천시,미추홀구,인하대,캠퍼스,A씨,여성,신고,접수,A씨,발견,행인,여성,상태,경찰,신고,A씨,출혈,머리,부위,심정지,상태,구급대,병원,치료,재학생,대학,재학,캠퍼스,건물,알몸,상태,발견,경찰,대학,폐쇄회로,CC,TV,목격자,확보,정확,사건,경위,조사,방침,국립과학수사연구원,A씨,시신,부검,의뢰,학교,A씨,계절,학기,수강,확인,수업,비대면,진행,A씨,학교,방문,경위,추가,파악,설명</t>
+        </is>
+      </c>
+      <c r="E645" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12056,7 +15281,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D646" t="n">
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>인하대,발견,수사,여대,경찰,캠퍼스,인천,인하대,여대,나체,발견,학생,심정지,상태,병원,미추홀경찰서,인천,인천소방본부,이날,인천,미추홀구,인하대,캠퍼스,건물,인근,학교,행인,발견,신고,발견,발견,머리,상태,주변,추정,옷가지,경찰,공동,대응,요청,출동,119구급대,심정지,상태,인근,병원,발견,3시간,7시,사망,경찰,국립과학수사연구원,시신,부검,의뢰,폐쇄회로,한편,교내,폐쇄,회로,CC,TV,확보,정확,사건,경위,조사,경찰,관계자,범죄,혐의점,가능성,수사,학교,경위,파악,인하대,관계자,학교,기숙사,재학생,파악,경위,학교,방문,사항,자체적,조사</t>
+        </is>
+      </c>
+      <c r="E646" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12074,7 +15304,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D647" t="n">
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>인하대,발견,20대,치료중,경찰,수사,인천,인천,대학교,캠퍼스,상태,여대,치료,경찰,수사,인천,소방본부,미추홀경찰서,이날,인천,미추홀구,인하대,캠퍼스,여성,행인,발견,신고,출혈,머리,부위,심정지,상태,구급대,병원,치료,재학생,대학,재학,확인,캠퍼스,건물,알몸,상태,발견,경찰,국립과학수사연구원,시신,부검,의뢰,대학,CCTV,목격자,확보,정확,사건,경위,조사,경찰,관계자,범죄,혐의,중점,수사,구체적,경위,파악</t>
+        </is>
+      </c>
+      <c r="E647" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12092,7 +15327,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D648" t="n">
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>한성우,교수,소보로빵,빵집,메뉴,단팥빵,크림빵,소보로빵,본래,단팥빵,서양인들,쿠키,반죽,소보로빵,단팥빵,특이,일본,초기,일본,제빵,빵집,필수,메뉴,소보로빵,일본,소보로,そぼろ,일본어,소보,고기,본래,각종,물고기,달걀물,수분,요리,소보,일본인들,의아,생각,소보로,포르투갈어,유래,소보로빵,일본,중국,하얼빈,哈爾濱,독일,제빵사,사전,소보로빵,곰보빵,곰보,천연두,얼굴,자국,사람,신체,장애,외모,비하,말들,가능,추세,곰보빵,일본어,냄새,소보로빵,곰보빵,사람,밀가루,반죽,곰보,여드름,음식,이름,질병,장애,인식,곰보빵,일본어,잔재,이름,상처,이름,고유,금상첨화,교수,인하대,한국어,문학</t>
+        </is>
+      </c>
+      <c r="E648" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12110,7 +15350,12 @@
           <t>한겨레</t>
         </is>
       </c>
-      <c r="D649" t="n">
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>인하대,교내,발견,수사,학생,경찰,인하대,교내,알몸,상태,여대,발견,경찰,수사,학생,병원,결국,미추홀경찰서,설명,종합,이날,3시,인천시,미추홀구,인하대,교내,여성,상태,신고,접수,재학생,대학,재학,확인,ㄱ씨,발견,발견,머리,부위,출혈,알몸,상태,구급대원,현장,도착,상태,심정지,병원,치료,경찰,정확,사인,국립과학수사연구원,부검,의뢰,한편,대학,폐회로텔레비전,CCTV,확보,사건,경위,조사,경찰,계절학기,수강,ㄱ씨,학교,방문,파악,경찰,관계자,시시티브이,범죄,혐의,수사,구체적,확인</t>
+        </is>
+      </c>
+      <c r="E649" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12128,7 +15373,12 @@
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D650" t="n">
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>캠퍼스,발견,여대,병원서,사망,인천,대학교,캠퍼스,여대,치료,경찰,수사,인천,소방본부,미추홀경찰서,이날,인천,미추홀구,인하대,캠퍼스,여성,신고,접수,발견,행인,여성,상태,경찰,신고,출혈,머리,부위,심정지,상태,구급대,병원,치료,재학생,대학,재학,캠퍼스,건물,알몸,상태,발견,경찰,국립과학수사연구원,시신,부검,의뢰,대학,CCTV,목격자,확보,정확,사건,경위,조사,인하대,관계자,계절,학기,수강,확인,수업,비대면,진행,학교,방문,경위,추가,파악</t>
+        </is>
+      </c>
+      <c r="E650" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12146,7 +15396,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D651" t="n">
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>인하대,발견,여대생,캠퍼스,인하대,여대,치료,경찰,수사,인천,소방본부,미추홀경찰서,이날,인천시,미추홀구,인하대,캠퍼스,A씨,여성,신고,접수,A씨,발견,행인,여성,상태,경찰,신고,A씨,출혈,머리,부위,심정지,상태,구급대,병원,치료,재학생,대학,재학,캠퍼스,건물,알몸,상태,발견,경찰,국립과학수사연구원,A씨,시신,부검,의뢰,대학,폐쇄회로,CC,TV,목격자,확보,정확,사건,경위,조사,인하대,관계자,A씨,계절,학기,수강,확인,수업,비대면,진행,A씨,학교,방문,경위,추가,파악</t>
+        </is>
+      </c>
+      <c r="E651" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12164,7 +15419,12 @@
           <t>한국일보</t>
         </is>
       </c>
-      <c r="D652" t="n">
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>인하대,발견,1학년,경찰,범죄,혐의점,수사,착수,15일,길가,인천시,미추홀구,인하대,캠퍼스,A씨,여성,발견,A씨,행인,발견,신고,병원,발견,A씨,발견,출혈,머리,부위,심정지,상태,재학생,대학,재학,계절,학기,수강,확인,수업,비대면,진행,A씨,학교,경위,추가,조사,상황,신고,미추홀경찰서,주변,폐쇄,회로,CC,TV,목격자,확보,정확,사건,경위,조사중,경찰,관계자,사건,발생,범죄,혐의,수사</t>
+        </is>
+      </c>
+      <c r="E652" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12182,7 +15442,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D653" t="n">
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>더위,초복,삼계탕,만원,사진,전송시간,기준,한눈,파악,실시간,업데이트,4:00,초복,하루,15일,서울,종로구,식당,삼계탕,시민들,초복,토요일,16일,최고,체감온,35도,날씨,전국,지역,소나기,기상청,16일,폭염특보,발효,전남권,경상권,최고,체감,온도,33~35도,지역,최고,체감,온도,31도,사이,전국,지역,소나기,예보,모빌리티,4:00,넥스트,축제,4년,부산,모터쇼,미래,자동차,한눈,부산국제모터쇼,4년,부산,국제,모터쇼,15일,벡스코,부산,해운대구,개막식,시작,격년,부산국제모터쇼,코로나19,4년,넥스트,모빌리티,축제,주제,열흘간,국제모터쇼,6개,완성,브랜드,포함,28개,브랜드,완성차,브랜드,완성,현대자동차,기아,제네시스,참가,수입,브랜드,BMW,MINI,롤스로이스,참가,모터쇼,19곳,완성,업체,참여,규모,축소,2:18,해무,이기대,해운대,부산,남구,부근,해운대구,마린시티,해무,장관,연출,1:26,여름방학,교문,초등생,15일,청구초등학교,서울,중구,여름방학,학생들,표정,1:12,인하대,사망,여성,감식,과학,수사대,인하대학교,인천,미추홀구,과학,수사대,관계자,나체,상태,발견,여대,사건,감식,현장,인천,미추홀경찰서,이날,2호,인하대,캠퍼스,사이,주년,기념관,학교,여성,112신고,접수,인하대,행인,여성,상태,신고,경찰,요청,119구급대,출동,머리,출혈,맥박,호흡,A씨,심폐소생술,병원,심정지,병원,도착,치료,결국,7시,경찰,A씨,시신,국립과학수사연구원,부검,의뢰,학교,폐쇄회로,CC,TV,목격자,상대,사건,경위,조사,경찰,관계자,여부,범죄,혐의점,수사,구체적,확인,불화설,1:08,권성동,장제원,오찬,평소,얘기,국민,장제원,의원,왼쪽,직무대행,원내대표,권성동,대표,직무,대행,원내,대표,회동,오찬,서울,여의도,식당,장소,이날,오찬,도착,의원,대행과,얘기,체제,지도부,방안,운영,논의,계획,질문,의원,대행,불화설,얘기,대행,얼마,식사,질문,기억,대행,얘기,질문,평상시,사담,얘기,얘기,책임,1:02,이재명,회피,해결,박지현,질문,의원,이재명,더불어민주당,국회,의원,회관,의원실,취재진,질문,의원실,의원,이날,출마,결심,결정,계기,취재진,질문,책임,회피,해결,중점,민생,국민들,고통,정치,정쟁,매몰,의원,전대,출마,박지현,비대,위원장,발언,취재진,질문,미안,12:10,부산국제모터쇼,개막,인산인,부산,해운대구,벡스코,국제모터쇼,부산,국제,모터쇼,이날,개막,부산국제모터쇼,24일,현대차,기아차,제니시스,BMW,MINI,롤스로이스,브랜드,완성,포함,업체,참가,11:08,경찰국,신설,계획,장관,이상민,행안부,치안감,국장,장관,이상민,행정안전부,15일,정부서울청사,브리핑,행정안전부,계획,경찰국,신설,경찰제도,장관,이날,경찰,제도,개선,자문,위원회,권고,경찰제도,확정,차관회의,절차,시행,계획,행안부,현행,정부,조직법,규정,행안부,장관,권한,수행,행안부,경찰국,신설,치안감,경찰국장,이날,신설,경찰국,경찰,정책,경찰,법령,국무,회의,상정,총경,경찰공무원,총경,경찰,공무원,임용제청권,국가,경찰,위원회,안건,자치,경찰,지원,업무,수행,경찰국,총괄지원,인사지원,자치경찰지원,3개,설치,인력,배치,예정,경찰공무원,업무성격,12명,배치,일반직,인력,4명,배치,업무수요,특정,업무,수요,추가적,파견,인력,2~3명,행안부,인력,경찰국,80%,가량,경찰공무원,예상,경찰국장,인사지원과장,경찰공무원,가능,인사,부서,부서장,포함,직원,경찰공무원,배치,10:34,손흥민,프리미어리그,토트넘,선수,잉글랜드,프로,축구,프리미어,리그,EPL,토트넘,손흥민,선수들,15일,서울,양천구,목동종합운동장,주경기장,진행,오픈,트레이닝,토트넘,16일,8시,수원월드컵경기장,세비야,스페인,대결,선언,10:34,경선,출마,박지현,이재명,박지현,더불어민주당,공동비상대책위원장,정문,국회,정문,기자회견,선언,경선,출마,위원장,자리,민주당,목소리,정당,민생,위기,해결,유능,정당,출마,대표,결심,국민,말씀,민주당,몰락,성범죄,성범죄,원칙,처리,민주당,성폭력,조국,기득권,조국,반성,쇄신,대표,조국,이재명,의원,전대,출마,생각,대선,대선,후보,의원,상처,의원,전당,대회,후보,등록,첫날,17일,대표,선거,출마,위원장,분수대,이날,국회,분수대,출마,선언,국회,경내,현직,의원,대동,기자회견,불가,통보,방호과,회견,장소,변경,10:24,속행,공판,출석,조국,장관,자녀,입시,비리,혐의,재판,조국,법무부,장관,15일,서울중앙지법,공판,속행,출석,법정,9:25,선제,조치,윤석열,대통령,15일,서울,용산,대통령실,청사,출근,취재진,질문,이날,대통령,이날,빚투,투자,청년,구제,대책,상실감,투기,질문,금융리스크,실물,분야,확산,속도,부실화,정부,뒷수습,선제적,적기,조치,국가,후생,자산,생각,정부,청년,금리,채무,이자,30~50%,한시,감면,지원책,대통령,변양균,정책실장,경제고문,위촉,과거,수요,측면,방향,거시,경제,실장,혁신,공급,측면,4차,산업혁명,산업구조,부합,철학,오래전,피력,9:22,달러,환율,13년,개월여,돌파,딜링룸,서울,중구,하나은행,본점,딜링,직원들,업무,이날,코스피,지수,전장,12.80포인트,0.55%,2,335.12,코스닥지수,2.33포인트,0.30%,768.41,개장,달러,환율,5.9원,1,318.0원,출발</t>
+        </is>
+      </c>
+      <c r="E653" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12200,7 +15465,12 @@
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D654" t="n">
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>교내,인하대,여학생,발견,사망,경찰,남성,강간치사,혐의,체포,인천,대학교,캠퍼스,여대생,상태,발견,병원,경찰,여대생,마지막,남학생,신병,확보,조사,강간치사,혐의,긴급,체포,인천,소방본부,미추홀경찰서,이날,3시,분쯤,인천,미추홀구,인하대,캠퍼스,A씨,여성,머리,행인,발견,신고,A씨,상태,A씨,신고,출동,119구급대,인근,병원,이송,7시,결국,여성,인하대,계절학기,수강중,온라인,강의,파악,경찰,학교,CCTV,A씨,동선,파악,마지막,B씨,특정,수사망,이날,2시,B씨,신병,확보,B씨,학생,인하대,파악,경찰,B씨,조사,범죄,혐의,판단,피의자,전환,경찰,관계자,피의자,상대,A씨,사건,경위,조사,구속,영장,신청,방침</t>
+        </is>
+      </c>
+      <c r="E654" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12218,7 +15488,12 @@
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D655" t="n">
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>인하대,발견,수사,여성,경찰,캠퍼스,인하대,발견,여대,경찰,수사,인천소방본부,이날,3시,분경,인천시,미추홀구,인하대,캠퍼스,여성,신고,접수,발견,행인,여성,신고,출동,소방,머리,출혈,심정지,상태,응급처치,병원,결국,경찰,대학,폐쇄회로,CC,TV,토대,정확,사건,경위,조사,경찰,관계자,범죄,혐의,중점,수사,구체적,경위,파악,학교,학생,확인,학교,관계자,계절,학기,수강,확인,수업,비대면,진행,학교,방문,경위,추가,파악</t>
+        </is>
+      </c>
+      <c r="E655" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12236,7 +15511,12 @@
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D656" t="n">
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>인하대,캠퍼스서,여성,발견,경찰,수사,인하대,캠퍼스,여성,머리,발견,경찰,수사,인천,소방본부,미추홀경찰서,이날,길가,인천시,미추홀구,인하대,캠퍼스,A씨,여성,신고,접수,A씨,발견,행인,여성,상태,경찰,신고,A씨,출혈,머리,부위,심정지,상태,구급대,병원,치료,경찰,대학,폐쇄회로,CC,TV,목격자,확보,정확,사건,경위,조사</t>
+        </is>
+      </c>
+      <c r="E656" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12254,7 +15534,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D657" t="n">
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>인하대,캠퍼스,여성,발견,부상,치료,여성,병원,경찰,수사,인하대,캠퍼스,여성,탈의,병원,이송,사건,경찰,수사,인천,소방본부,미추홀경찰서,이날,3시,분쯤,길가,인천시,미추홀구,인하대,캠퍼스,A씨,여성,신고,접수,A씨,발견,행인,여성,상태,경찰,신고,A씨,출혈,머리,부위,구급대,병원,치료,경찰,대학,CCTV,목격자,진술,확보,정확,사건,경위,조사,경찰,관계자,범죄,혐의,수사,구체적</t>
+        </is>
+      </c>
+      <c r="E657" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12272,7 +15557,12 @@
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D658" t="n">
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>환자,사랑,수련의들,성경,겸손,스승,의사,주보선,김민철,IVP,영웅,이야기,표지,꺼풀,무지갯빛,속지,small,thing,영문,글씨,의료,선교사,주보선,David,Chu,1923~2015,집약,표현,업적,건물,목소리,사람,주력,선교사,환자,사랑,수련의들,겸손,주보선,스승,의사,IVP,이야기,주보선,선교사,파송,미국,장로교,1967년,1988년,전주,예수병원,순환기,내과,과장,진료,중간,자녀,골육종,투병,어르신,미국,예수병원,진료실,벽안,백인,선교사,중국,상하이,중국,미국인,격변,중국,역사,공산당,상하이,탈출,마지막,그리스도인,미국,경영학,공부,소명,베일러,의과,대학,진로,심장,전문의,주보선,선교사,상황,절대,빈곤,한국,입국,미국,순환기,내과,전문,연봉,10~15,달러,수준,외국,의대,출신,미국,의사면허,취득,시험,시작,3년,3000명,한국,의사,미국,67년,졸업생,한국,의대,졸업,61%,미국행,가난,진료,동포들,한인,의사,아메리칸,드림,주보선,복음,코리안,드림,뉴욕,병원,심장,내과,전문의,한국,지방,전주,과장,예수병원,내과,인공심장,박동기,심장,첨단,의료,소개,한편,수련의들,공부,영어,성경,시작,전파,복음서,그리스도,9:35,입체적,조명,정년,선교사,주보선,부부,한국,주변,헌정,인형극,공연,시작,자녀,주보선,마음,게일,여사,30분,환자,진료,일쑤,방송,과거,주한,미군,AFKN,스포츠,중계,열광,주보선,모습,주보선,영문,자서전,김민철,예수병원,병원장,번역,무미건조,가족,지인들,주보선,회고,추가,구성,건물,업적,사람,진짜,선교사,모습,최종적,예수,그리스도,선교,피선교,대상화,거부,선교사,선교,사람,출판사,IVP,13일,화상,플랫폼,zoom,이용,의사,기억,제목,북토크,행사,개최,한국누가회,이사,김창환,인하대,의과,대학,교수,누가회,사람들,진료,봉사,의료,현장,하나님,나라,측면,자신,명예,예수,이름,선교지,주보선,선교사,귀감,사무총장,선교,한국,선교,교회,개척,주보선,선교사,사람,변화,한국교회,선교관,업적,위주,이젠</t>
+        </is>
+      </c>
+      <c r="E658" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12290,7 +15580,12 @@
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D659" t="n">
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>수요,핵심,광물,오나,각국,노력,탄소,중립,리튬,코발트,희토류,핵심광물,Critical,Minerals,수요,2050년,6배,전망,한국,핵심,광물,확보,지적,경제,협력,기구,OECD,한국,대표부,국제에너지기구,IEA,자료,토대,작성,청정,에너지,전환,핵심광물,역할,보고서,리튬,니켈,코발트,마그네슘,흑연,이차전지,성능,수명,에너지,밀도,중요,역할,희토류,풍력터빈,전기차,모터,영구자석,필수적,전력,송배,전망,구리,알루미늄,탄소,중립,달성,2040년,핵심광물,4배,대비,2050년,6배,전기차,일반,자동차,6배,핵심광물,육상,풍력,발전소,크기,천연가스,발전소,9배,소요,핵심광물,편중,특정,국가,리튬,코발트,상위,세계,생산량,75%,차지,백금,남아프리카공화국,코발트,콩고,70%,생산,중국,희토류,60%,생산,광물,각종,핵심,가공,주도,핵심광물,광산,탐사,생산,평균,환경오염,채굴,정제과정,규제,특정,국가,독과점,구조,불안,수급,광물,가격,상승세,한국자원정보서비스,48.5위안,탄산리튬,가격,이달,455.5위,9배,코발트,3만,달러,이달,5만,달러,81.7%,마그네슘,2110달러,3760달러,78.2%,가격,광물,자원,무기화,흐름,칠레,리튬,광산,국유화,초안,개정,멕시코,의회,리튬,탐사,채굴,권한,국영기업,국유,법안,통과,인도네시아,2020년,수출,니켈,원석,알루미늄,원료,보크사이트,구리,수출,제한,계획,국제에너지기구,IEA,공급망,전반,생산자,확대,강화,소비자,국제,협력,추진,주요국,권고,전기차,배터리,미래,먹거리,한국,발등,국회입법조사처,이행,탄소,중립,금속,자원,확보,보고서,금속,자원,확보,에너지,안보,중심,진단,계획,금속,자원,비축,공급원,수립,금속,자원,다양화,투자,금속,자원,포함,정책,주문,정부,미국,주도,파트너십,핵심,광물,안보,MSP,동참,비축량,핵심,광물,비축,대책,마련,분주,회복,해외,자원,산업,생태,추진,업계,10년,방치,해외,자원,사업,투자,목소리,건수,해외,자원,신규,사업,투자,공기업,자원,달러,달러,민간,기업,융자,예산,에너지자원공학,강천구,인하대,에너지,자원,공학,초빙교수,한국,10년,중국,일본,해외,자원,상당량,자원,확보,이명박,정부,해외,자원,적폐,경쟁력,진단,교수,자금력,공기업,민간,확장,자원,영토,정부,자원,외교,지원,정부,공기업,민간,코리아,강조</t>
+        </is>
+      </c>
+      <c r="E659" t="n">
         <v>1</v>
       </c>
     </row>
